--- a/testing.xlsx
+++ b/testing.xlsx
@@ -397,9 +397,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C230"/>
+  <dimension ref="A1:C420"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
@@ -1719,9 +1719,1993 @@
 The trial was a significant event in American History because it created a divide in the American public. The majority of the population believed in evolution and saw the trial as a battle between science and religion. However, there was a small group of people who believed in creationism and they saw the trial as a battle between good and evil. The outcome of the trial was controversial and it created a divide in the American public. The majority of the population believed in evolution and saw the trial as a battle between science and religion. However, there was a small group of people who believed in creationism and they saw the trial as a battle between good and evil. The outcome of the trial was controversial and it created a divide in the American public. The majority of the population believed in evolution and saw the trial as a battle between science and religion. However, there was a small group of people who believed in creationism and they saw the trial as a battle between good and evil.</v>
       </c>
     </row>
+    <row r="231">
+      <c r="A231" t="str">
+        <v>The impact of climate change on the mental health of young people is poorly understood. Emerging evidence suggests that exposure to climate change exerts a disproportionate mental health burden on young people. An understanding of the risk factors (RFs) and protective factors (PFs) that affect the likelihood of mental health impacts arising from exposure to climate change is required to support youth wellbeing. Aims/objectives: This review scopes the current research on what and how RFs and PFs are related to the mental health impacts of both direct and indirect exposure to climate change for young people. RFs and PFs were reviewed through the lens of ecological system theory. Methods: We conducted systematic searches in four databases: PubMed, PsycInfo, Web of Science, and Scopus. Grey literature searches were conducted in ProQuest Dissertations, GreyLit.org, OpenGrey, and relevant organisations’ websites. We included 92 empirical studies focused on the RFs and PFs of the mental wellbeing under the impact of climate change of young people (0–24). We extracted data on study characteristics, type of climate change event, mental health outcomes, RFs and PFs, and associated ecological system level. Results: The current evidence base focuses predominantly on young people’s experience of PTSD (k = 59), depression (k = 26), or anxiety (k = 17) mainly following exposure to singular climate change-related natural disaster events. Only four studies explored the impacts of climate change in general. Majority of the studies investigated RFs and PFs at the individual level and at the micro-system level. Conclusions: Several RFs and PFs were identified, such as coping strategies, family factors (e.g. parenting style), social support, community connection, and cultural identity. Positioning the mental health impacts of singular events within the broader context of ongoing and escalating climate change impacts will better inform the development of interventions that seek to build resilience among young people.</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="str">
+        <v>This policy of supplying, by opposite and rival interests, the defect of better motives, might be traced through the whole system of human affairs, private as well as public. We see it particularly displayed in all the subordinate distributions of power, where the constant aim is to divide and arrange the several offices in such a manner as that each may be a check on the other—that the private interest of every individual may be a sentinel over the public rights. These inventions of prudence cannot be less requisite in the distribution of the supreme powers of the State.</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="str">
+        <v>The first thing I noticed about the man was his eyes. They were the color of the sky on a clear day, and they were filled with a sadness that I had never seen before. He was tall and thin, and his clothes were old and worn. He had a long beard and a mustache, and his hair was long and gray. He looked like a man who had been through a lot in his life.</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="str">
+        <v>WELL, I THINK LIKE I SAID IT IS NOT EXACTLY GOOD, BUT YOU CANNOT SAY THAT THE PEOPLE DON'T WANT JOB. YOU CANNOT SAY THAT THE PEOPLE DON'T WANT TO WORK. THE SYSTEM JUST HAD A PROBLEM. AND FOR THE FIRST TIME, SOMEBODY IS INTERESTED. IT'S A COMPLEX SITUATION. IT'S NOT ONLY U.S., IT'S GLOBAL, AND THERE IS OBVIOUSLY A REASON TO BE REACTIONARY.</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="str">
+        <v>The person who has applied for a tourist visa from outside the US will be required to pay the fee of $140. This fee is non-refundable and non-transferable. The fee must be paid in cash at the location where the visa application is submitted. This includes persons who wish to travel to the US and apply for adjustment of status to permanent resident (get a green card) while in the US and persons who have other non-immigrant status (F/M), and who wish to apply for an immigrant visa (get a green card) while in the US. Unfortunately, it is not possible to pay the immigrant visa fee at the same location where you submit the immigrant visa application. Payment of the fee must be made to the US Department of State.</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="str">
+        <v>When I arrived in New Zealand, I was cautious, tentative, nervous. The foreignness was profound and biting. In the North American West, I was used mountains, forests, rivers, and fields. I could feel at home in the familiar. In New Zealand, everything was foreign. Everything was unfamiliar. Every decision was new</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="str">
+        <v>When I arrived in New Zealand, I was cautious, tentative, nervous. The foreignness was profound and biting. In the North American West, I was used mountains, forests, rivers, and fields. I could feel at home in the familiar. In New Zealand, everything was foreign. Everything was unfamiliar. Every decision was new</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="str">
+        <v>We do have food; however, I am currently unsure concerning the variety that would appease your appetite at this present point in our dialogue together while enjoying ourselves within each other's company here on Earth on our glorious planet that orbits around a star found within one galaxy of potentially infinite galaxies inhabited by extreme possibilities surrounding all manifestations and idea(s)</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="str">
+        <v>The first thing I noticed about the man was his eyes. They were the color of the sky on a clear day, and they were filled with a sadness that I had never seen before. He was tall and thin, and his clothes were old and worn. He had a long beard and a mustache, and his hair was long and gray. He looked like a man who had been through a lot in his life.</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="str">
+        <v>But the great security against a gradual concentration of the several powers in the same department, consists in giving to those who administer each department the necessary constitutional means and personal motives to resist encroachments of the others. The provision for defense must in this, as in all other cases, be made commensurate to the danger of attack. Ambition must be made to counteract ambition. The interest of the man must be connected with the constitutional rights of the place. It may be a reflection on human nature, that such devices should be necessary to control the abuses of government. But what is government itself, but the greatest of all reflections on human nature? If men were angels, no government would be necessary. If angels were to govern men, neither external nor internal controls on government would be necessary.</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="str">
+        <v>This policy of supplying, by opposite and rival interests, the defect of better motives, might be traced through the whole system of human affairs, private as well as public. We see it particularly displayed in all the subordinate distributions of power, where the constant aim is to divide and arrange the several offices in such a manner as that each may be a check on the other—that the private interest of every individual may be a sentinel over the public rights. These inventions of prudence cannot be less requisite in the distribution of the supreme powers of the State.</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="str">
+        <v>There are a lot of benefits to being a vegetarian, and it can be highly beneficial for both your health and the environment. Vegetarians tend to have lower rates of heart disease, obesity, type II diabetes, some forms of cancer, and many other diseases than people who eat meat. They also consume more fruits and vegetables than people who eat meat, and these nutrients help keep them healthy. Additionally, some pecuarians oppose the hunting and slaughter of animals for their food, which means that they are helping to reduce the amount of animal cruelty going on in the world.</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="str">
+        <v>Understand that old people aren’t actually that worried about old age, according to numerous surveys. The most recent one I can find was undertaken by American research firm NORC in 2016. It polled over 3,000 adults and found that old people are more optimistic about growing old than younger adults: 46 percent of thirty-somethings said they were optimistic about aging, compared to 66 percent for the seventy-pluses. It seems that worrying about growing old is a sign you are young. And the main reason to be optimistic about old age is that old people themselves are. Resilience seems to grow.</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="str">
+        <v>Abraham Lincoln, commander in chief of the United States armed forces, and Edwin M. Stanton, Secretary of War, were themselves parties to the attempted arrest, trial and conviction of an American citizen by a military tribunal in the presence of a civil court, in spite of the fact that the enforcement of justice by civil courts was not then impossible. Judge Advocate Holt, in his history of military justice, makes the point that "the Supreme Court in this instance, could hardly have been carried away by any over-zeal for the maintenance of constitutional rights. The judges were all men of experience; men who had passed through the Civil War or the war with Mexico, and two of them by bitter experience in the Northern prisons had had the best education for understanding the difficulties which confront the commander of a military force struggling for existence against armed and organized resistance. Moreover, the first army commander who had encouraged the military commissions in the South on this same ground of necessity had just weeks before been tried and condemned by a military commission for murder. If Judge Advocate Holt's view is correct, the men who were tried in the Milligan case had much less excuse for their conduct than did General Butler</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="str">
+        <v>Learning about climate change, and its impending effects, is an emotional experience. The distress, anxiety, worry, and/or fear that stem from an overarching awareness of climate change are often considered to be related to the broader concept of ‘psychoterratic syndromes’. This concept was first introduced by the environmental philosopher, Glenn Albrecht, and is defined broadly as ‘psychological responses to negative changes to the state of the Earth’. Terms such as eco anxiety, climate anxiety, and eco distress are often used to describe these negative responses. Also, the related term ‘solastalgia’, broadly defined as distress from the transformation and degradation of one’s home environment, also falls into psychoterratic syndromes. Such concepts are gaining traction in print and online media. For example, Grist Magazine declared climate anxiety as the biggest pop-culture trend of the year in 2019. Additionally, there is a growing recognition of the impact of climate change awareness on mental well-being among researchers and mental health professionals. For instance, the American Psychological Association has defined eco anxiety as ‘a chronic fear of environmental doom’; while the Royal College of Psychiatrists defines eco distress among young people as ‘the wide range of emotions and thoughts young people may experience when they hear bad news about our planet and the environment’. Moreover, mental health professionals have reported counseling individuals dealing with distress about climate change.</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="str">
+        <v>WELL, I THINK LIKE I SAID IT IS NOT EXACTLY GOOD, BUT YOU CANNOT SAY THAT THE PEOPLE DON'T WANT JOB. YOU CANNOT SAY THAT THE PEOPLE DON'T WANT TO WORK. THE SYSTEM JUST HAD A PROBLEM. AND FOR THE FIRST TIME, SOMEBODY IS INTERESTED. IT'S A COMPLEX SITUATION. IT'S NOT ONLY U.S., IT'S GLOBAL, AND THERE IS OBVIOUSLY A REASON TO BE REACTIONARY.</v>
+      </c>
+    </row>
+    <row r="247" xml:space="preserve">
+      <c r="A247" t="str" xml:space="preserve">
+        <v xml:space="preserve">The relationship between climate change and mental health is poorly understood. While increasing attention has been paid to the physical health consequences of climate change, few studies have examined the psychological adjustments that may be made by people in climate-affected areas. This study aimed to investigate the relationship between climate change and mental health in a dryland region of Kenya. Data were collected from 300 adults from 10 sites in Laikipia County, Kenya. Logistic regression model was employed to determine the association between future climate change and mental health. Significant associations were found between climate change-related variables, including lower nervous energy, poor appetite, and poor sleep quality, and the risk of psychological distress. 
+The findings suggest that the mental health impacts of climate change may be most severe in dryland regions. However, the results should be interpreted with caution due to the cross-sectional design. Additional studies are needed to confirm the findings, and to determine the mechanisms through which climate change impacts psychological distress.</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="str">
+        <v>But the great security against a gradual concentration of the several powers in the same department, consists in giving to those who administer each department the necessary constitutional means and personal motives to resist encroachments of the others. The provision for defense must in this, as in all other cases, be made commensurate to the danger of attack. Ambition must be made to counteract ambition. The interest of the man must be connected with the constitutional rights of the place. It may be a reflection on human nature, that such devices should be necessary to control the abuses of government. But what is government itself, but the greatest of all reflections on human nature? If men were angels, no government would be necessary. If angels were to govern men, neither external nor internal controls on government would be necessary. In framing a government which is to be administered by men over men, the great difficulty lies in this: you must first enable the government to control the governed; and in the next place oblige it to control itself. A dependence on the people is, no doubt, the primary control on the government; but experience has taught mankind the necessity of auxiliary precautions.</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="str">
+        <v>The impact of climate change on the mental health of young people is poorly understood. Emerging evidence suggests that exposure to climate change exerts a disproportionate mental health burden on young people. An understanding of the risk factors (RFs) and protective factors (PFs) that affect the likelihood of mental health impacts arising from exposure to climate change is required to support youth wellbeing. Aims/objectives: This review scopes the current research on what and how RFs and PFs are related to the mental health impacts of both direct and indirect exposure to climate change for young people. RFs and PFs were reviewed through the lens of ecological system theory. Methods: We conducted systematic searches in four databases: PubMed, PsycInfo, Web of Science, and Scopus. Grey literature searches were conducted in ProQuest Dissertations, GreyLit.org, OpenGrey, and relevant organisations’ websites. We included 92 empirical studies focused on the RFs and PFs of the mental wellbeing under the impact of climate change of young people (0–24). We extracted data on study characteristics, type of climate change event, mental health outcomes, RFs and PFs, and associated ecological system level. Results: The current evidence base focuses predominantly on young people’s experience of PTSD (k = 59), depression (k = 26), or anxiety (k = 17) mainly following exposure to singular climate change-related natural disaster events. Only four studies explored the impacts of climate change in general. Majority of the studies investigated RFs and PFs at the individual level and at the micro-system level. Conclusions: Several RFs and PFs were identified, such as coping strategies, family factors (e.g. parenting style), social support, community connection, and cultural identity. Positioning the mental health impacts of singular events within the broader context of ongoing and escalating climate change impacts will better inform the development of interventions that seek to build resilience among young people.</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="str">
+        <v>Margaret Sullivan: I had been at a small newspaper in California. I started my career at an evening daily newspaper called The San Bernardino Sun. I went straight from there to The New York Times in 1981. So it was a huge—it was a big leap in many ways—a leap into cultural elitism and sophistication. It was a wonderful, wonderful place to work. It was a very exciting time to be there because we were growing. Our circulation at the time was about 1.1 million. We were a big paper then. It's half that now. But we were in a great building in Times Square, and it was just exciting and exhilarating as you can imagine.</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="str">
+        <v>1. Eat well. Our brains are 60 per cent fat, so we need the good kind of healthy fat—Omega 3—for our brain health. Other nutrients that help our brain include vitamin B, vitamin E, and foods like blueberries and broccoli. Foods like broccoli and blueberries are good for us, but they don’t taste like, say, a meatball sub with cheese fries. What can help is to think how quickly bad food makes us feel bad. It might take us an hour to eat a cheeseburger, but it will take our mood maybe only ten minutes to decline. If healthy food can take that long to digest, surely it is worth waiting for the positive effects? It has long been known how important diet is for physical health. But now there is evidence of how it can benefit our mood too. A study in Biological Psychiatry, for example, found that healthy dietary patterns that included foods like fish, fruit, and vegetables was associated with lower levels of depression.</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="str">
+        <v>The first thing I noticed about the man was his eyes. They were the color of the sky on a clear day, and they were filled with a sadness that I had never seen before. He was tall and thin, and his clothes were old and worn. He had a long beard and a mustache, and his hair was long and gray. He looked like a man who had been through a lot in his life.</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="str">
+        <v>We do have food; however, I am currently unsure concerning the variety that would appease your appetite at this present point in our dialogue together while enjoying ourselves within each other's company here on Earth on our glorious planet that orbits around a star found within one galaxy of potentially infinite galaxies inhabited by extreme possibilities surrounding all manifestations and idea(s)</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="str">
+        <v>When I arrived in New Zealand, I was cautious, tentative, nervous. The foreignness was profound and biting. In the North American West, I was used mountains, forests, rivers, and fields. I could feel at home in the familiar. In New Zealand, everything was foreign. Everything was unfamiliar. Every decision was new</v>
+      </c>
+    </row>
+    <row r="255" xml:space="preserve">
+      <c r="A255" t="str" xml:space="preserve">
+        <v xml:space="preserve">The relationship between climate change and mental health is poorly understood. While increasing attention has been paid to the physical health consequences of climate change, few studies have examined the psychological adjustments that may be made by people in climate-affected areas. This study aimed to investigate the relationship between climate change and mental health in a dryland region of Kenya. Data were collected from 300 adults from 10 sites in Laikipia County, Kenya. Logistic regression model was employed to determine the association between future climate change and mental health. Significant associations were found between climate change-related variables, including lower nervous energy, poor appetite, and poor sleep quality, and the risk of psychological distress. 
+The findings suggest that the mental health impacts of climate change may be most severe in dryland regions. However, the results should be interpreted with caution due to the cross-sectional design. Additional studies are needed to confirm the findings, and to determine the mechanisms through which climate change impacts psychological distress.</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="str">
+        <v>1. Eat well. Our brains are 60 per cent fat, so we need the good kind of healthy fat—Omega 3—for our brain health. Other nutrients that help our brain include vitamin B, vitamin E, and foods like blueberries and broccoli. Foods like broccoli and blueberries are good for us, but they don’t taste like, say, a meatball sub with cheese fries. What can help is to think how quickly bad food makes us feel bad. It might take us an hour to eat a cheeseburger, but it will take our mood maybe only ten minutes to decline. If healthy food can take that long to digest, surely it is worth waiting for the positive effects? It has long been known how important diet is for physical health. But now there is evidence of how it can benefit our mood too. A study in Biological Psychiatry, for example, found that healthy dietary patterns that included foods like fish, fruit, and vegetables was associated with lower levels of depression.</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="str">
+        <v>There are a lot of benefits to being a vegetarian, and it can be highly beneficial for both your health and the environment. Vegetarians tend to have lower rates of heart disease, obesity, type II diabetes, some forms of cancer, and many other diseases than people who eat meat. They also consume more fruits and vegetables than people who eat meat, and these nutrients help keep them healthy. Additionally, some pecuarians oppose the hunting and slaughter of animals for their food, which means that they are helping to reduce the amount of animal cruelty going on in the world.</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="str">
+        <v>This policy of supplying, by opposite and rival interests, the defect of better motives, might be traced through the whole system of human affairs, private as well as public. We see it particularly displayed in all the subordinate distributions of power, where the constant aim is to divide and arrange the several offices in such a manner as that each may be a check on the other—that the private interest of every individual may be a sentinel over the public rights. These inventions of prudence cannot be less requisite in the distribution of the supreme powers of the State.</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="str">
+        <v>Margaret Sullivan: I had been at a small newspaper in California. I started my career at an evening daily newspaper called The San Bernardino Sun. I went straight from there to The New York Times in 1981. So it was a huge—it was a big leap in many ways—a leap into cultural elitism and sophistication. It was a wonderful, wonderful place to work. It was a very exciting time to be there because we were growing. Our circulation at the time was about 1.1 million. We were a big paper then. It's half that now. But we were in a great building in Times Square, and it was just exciting and exhilarating as you can imagine.</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="str">
+        <v>The person who has applied for a tourist visa from outside the US will be required to pay the fee of $140. This fee is non-refundable and non-transferable. The fee must be paid in cash at the location where the visa application is submitted. This includes persons who wish to travel to the US and apply for adjustment of status to permanent resident (get a green card) while in the US and persons who have other non-immigrant status (F/M), and who wish to apply for an immigrant visa (get a green card) while in the US. Unfortunately, it is not possible to pay the immigrant visa fee at the same location where you submit the immigrant visa application. Payment of the fee must be made to the US Department of State.</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="str">
+        <v>There are many golden things one may find at an age when most people have had the time and wisdom accumulated through decades of study to look around; there is much beauty left for them even if their bodies can't move as fluidly as those belonging to younger generations do so well right now which include loving feelings that come forth again after finding out how precious each moment might be during senior years along with living while cherishing whatever small things turn up unexpectedly every day despite its simplicity instead of crying over spilled milk simply caused by temporary failures back then since it's never too late once we feel optimistic about what lies ahead whatsoever whether pleasant or unpleasant from beginning until the end regardless who else feel contented everyday despite mistakes made throughout journeys within past seasons before eventually calming down due having tons more responsibilities than usual either way on account(in part)to different relationships for instance intimate ones leading to marriage including parents giving birth multiple times following extramarital affairs ending up conflicting constantly meaning old people aren’t regarded very highly these days whereas some elderly individuals get treated worse off (when compared against young folks) due(in part)to different relationships for example intimate ones leading to marriage so we don't have to deal with their own parents or kids getting involved figuratively from now on.</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="str">
+        <v>But the great security against a gradual concentration of the several powers in the same department, consists in giving to those who administer each department the necessary constitutional means and personal motives to resist encroachments of the others. The provision for defense must in this, as in all other cases, be made commensurate to the danger of attack. Ambition must be made to counteract ambition. The interest of the man must be connected with the constitutional rights of the place. It may be a reflection on human nature, that such devices should be necessary to control the abuses of government. But what is government itself, but the greatest of all reflections on human nature? If men were angels, no government would be necessary. If angels were to govern men, neither external nor internal controls on government would be necessary.</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="str">
+        <v>Understand that old people aren’t actually that worried about old age, according to numerous surveys. The most recent one I can find was undertaken by American research firm NORC in 2016. It polled over 3,000 adults and found that old people are more optimistic about growing old than younger adults: 46 percent of thirty-somethings said they were optimistic about aging, compared to 66 percent for the seventy-pluses. It seems that worrying about growing old is a sign you are young. And the main reason to be optimistic about old age is that old people themselves are. Resilience seems to grow.</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="str">
+        <v>Learning about climate change, and its impending effects, is an emotional experience. The distress, anxiety, worry, and/or fear that stem from an overarching awareness of climate change are often considered to be related to the broader concept of ‘psychoterratic syndromes’. This concept was first introduced by the environmental philosopher, Glenn Albrecht, and is defined broadly as ‘psychological responses to negative changes to the state of the Earth’. Terms such as eco anxiety, climate anxiety, and eco distress are often used to describe these negative responses. Also, the related term ‘solastalgia’, broadly defined as distress from the transformation and degradation of one’s home environment, also falls into psychoterratic syndromes. Such concepts are gaining traction in print and online media. For example, Grist Magazine declared climate anxiety as the biggest pop-culture trend of the year in 2019. Additionally, there is a growing recognition of the impact of climate change awareness on mental well-being among researchers and mental health professionals. For instance, the American Psychological Association has defined eco anxiety as ‘a chronic fear of environmental doom’; while the Royal College of Psychiatrists defines eco distress among young people as ‘the wide range of emotions and thoughts young people may experience when they hear bad news about our planet and the environment’. Moreover, mental health professionals have reported counseling individuals dealing with distress about climate change.</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="str">
+        <v>WELL, I THINK LIKE I SAID IT IS NOT EXACTLY GOOD, BUT YOU CANNOT SAY THAT THE PEOPLE DON'T WANT JOB. YOU CANNOT SAY THAT THE PEOPLE DON'T WANT TO WORK. THE SYSTEM JUST HAD A PROBLEM. AND FOR THE FIRST TIME, SOMEBODY IS INTERESTED. IT'S A COMPLEX SITUATION. IT'S NOT ONLY U.S., IT'S GLOBAL, AND THERE IS OBVIOUSLY A REASON TO BE REACTIONARY.</v>
+      </c>
+    </row>
+    <row r="266" xml:space="preserve">
+      <c r="A266" t="str" xml:space="preserve">
+        <v xml:space="preserve">There are many benefits to exercise, both physically and mentally. Physical benefits include improved heart health, stronger muscles, reduced fat storage, and an increased ability to move more easily. Mental benefits include better concentration, reduced stress levels, and enhanced moods.
+Physical benefits of exercise include: 
+Improved heart health. Exercise has been shown to improve blood circulation and reduce the risk of heart disease by helping prevent the buildup of plaque on arteries walls. Additionally, regular exercise can help reduce the amount of fat around the midsection, which in turn can reduce the risk of heart disease and stroke.
+Stronger muscles. With regular exercise, you will build muscle tissue that can help you achieve greater strength and endurance when performing physical activity later on in life. This can help you avoid injuries and maintain your current level of physical fitness.
+Reduced fat storage. Exercising regularly can help to reduce the amount of bodyfat stored on your body, which can reduce the risk for obesity and other chronic diseases associated with excess bodyfat.
+Increased ability to move more easily. Regular exercise can also help you increase your mobility so that you are able to do everyday activities with less discomfort or difficulty. This may be particularly beneficial if you have arthritis or any other medical conditions that restrict your ability to move easily.
+Mental benefits of exercise include: 
+Better concentration. Exercise has been shown to improve cognitive function by increasing blood flow to the brain and reducing cortisol levels in the bloodstream. Cortisol is a hormone released during stressful situations that can adversely affect how we think and perform tasks. By reducing cortisol levels, exercise may help improve memory recall and focus while also reducing stress levels overall.
+Reduced stress levels. Exercise has been shown to decrease stress levels by releasing endorphins – hormones that protect the body against pain – in our brains. Endorphins are also responsible for producing positive feelings such as happiness and euphoria. Consequently, being stressed out while trying to workout may lead to negative effects such as fatigue, irritability, and increased anxiety levels. By doing mediation or deep breathing exercises before your workout, you can help ease into a state of relaxation before beginning your routine. This should result in improved mental clarity and energy during your workout session.
+Enhanced moods. Exercise has consistently been shown to improve moods by decreasing stress hormones like cortisol and elevating serotonin levels in the brain. Serotonin is a neurotransmitter responsible for regulating emotional reactions such as happiness, hunger, sleepiness, anxiety, depression, anger, and addiction behavior . Elevated serotonin levels may contribute to an improved sense of well-being after working out due to its role in managing emotions effectively .</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="str">
+        <v>But the great security against a gradual concentration of the several powers in the same department, consists in giving to those who administer each department the necessary constitutional means and personal motives to resist encroachments of the others. The provision for defense must in this, as in all other cases, be made commensurate to the danger of attack. Ambition must be made to counteract ambition. The interest of the man must be connected with the constitutional rights of the place. It may be a reflection on human nature, that such devices should be necessary to control the abuses of government. But what is government itself, but the greatest of all reflections on human nature? If men were angels, no government would be necessary. If angels were to govern men, neither external nor internal controls on government would be necessary. In framing a government which is to be administered by men over men, the great difficulty lies in this: you must first enable the government to control the governed; and in the next place oblige it to control itself. A dependence on the people is, no doubt, the primary control on the government; but experience has taught mankind the necessity of auxiliary precautions.</v>
+      </c>
+    </row>
+    <row r="268" xml:space="preserve">
+      <c r="A268" t="str" xml:space="preserve">
+        <v xml:space="preserve">Volunteering provides many tangible and intangible benefits.
+The tangible benefits of volunteering can include helping other people, improving one's own skills, building personal relationships, and having fun. The intangible benefits of volunteering can include increased self-awareness, civic engagement, and COMPASS skills.
+The most common tangible benefits of volunteering are helping other people, skill development, and building relationships. Volunteer experiences can help people learn new skills, improve their work ethic, and build social networks. Volunteering can also lead to new opportunities, such as finding a new job or becoming more involved in a community.
+The intangible benefits of volunteering are increased self-awareness, civic engagement, and COMPASS skills. Volunteering can help people learn more about themselves and their community. Furthermore, volunteering can lead to personal growth and development, such as increased empathy and compassion. Additionally, volunteering can increase one's knowledge and understanding of different topics, which can help them in their career or other areas of life.
+Overall, the tangible and intangible benefits of volunteering are significant. Many people find the benefits of volunteering to be worth the time and effort required to participate.</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="str">
+        <v>The impact of climate change on the mental health of young people is poorly understood. Emerging evidence suggests that exposure to climate change exerts a disproportionate mental health burden on young people. An understanding of the risk factors (RFs) and protective factors (PFs) that affect the likelihood of mental health impacts arising from exposure to climate change is required to support youth wellbeing. Aims/objectives: This review scopes the current research on what and how RFs and PFs are related to the mental health impacts of both direct and indirect exposure to climate change for young people. RFs and PFs were reviewed through the lens of ecological system theory. Methods: We conducted systematic searches in four databases: PubMed, PsycInfo, Web of Science, and Scopus. Grey literature searches were conducted in ProQuest Dissertations, GreyLit.org, OpenGrey, and relevant organisations’ websites. We included 92 empirical studies focused on the RFs and PFs of the mental wellbeing under the impact of climate change of young people (0–24). We extracted data on study characteristics, type of climate change event, mental health outcomes, RFs and PFs, and associated ecological system level. Results: The current evidence base focuses predominantly on young people’s experience of PTSD (k = 59), depression (k = 26), or anxiety (k = 17) mainly following exposure to singular climate change-related natural disaster events. Only four studies explored the impacts of climate change in general. Majority of the studies investigated RFs and PFs at the individual level and at the micro-system level. Conclusions: Several RFs and PFs were identified, such as coping strategies, family factors (e.g. parenting style), social support, community connection, and cultural identity. Positioning the mental health impacts of singular events within the broader context of ongoing and escalating climate change impacts will better inform the development of interventions that seek to build resilience among young people.</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="str">
+        <v>Abraham Lincoln, commander in chief of the United States armed forces, and Edwin M. Stanton, Secretary of War, were themselves parties to the attempted arrest, trial and conviction of an American citizen by a military tribunal in the presence of a civil court, in spite of the fact that the enforcement of justice by civil courts was not then impossible. Judge Advocate Holt, in his history of military justice, makes the point that "the Supreme Court in this instance, could hardly have been carried away by any over-zeal for the maintenance of constitutional rights. The judges were all men of experience; men who had passed through the Civil War or the war with Mexico, and two of them by bitter experience in the Northern prisons had had the best education for understanding the difficulties which confront the commander of a military force struggling for existence against armed and organized resistance. Moreover, the first army commander who had encouraged the military commissions in the South on this same ground of necessity had just weeks before been tried and condemned by a military commission for murder. If Judge Advocate Holt's view is correct, the men who were tried in the Milligan case had much less excuse for their conduct than did General Butler</v>
+      </c>
+    </row>
+    <row r="271" xml:space="preserve">
+      <c r="A271" t="str" xml:space="preserve">
+        <v xml:space="preserve">The Scopes trial of 1925 was one of the most significant events in American History. The trial was fought over the belief of creationism, or the belief that God created the universe and all that exists within it in its present form. The trial pitted science against religion and it was seen as a battle between the individual and the establishment.
+The trial began in Dayton, Tennessee on February 24th and ended on March 25th. The trial was presided over by John T. Scopes and it involved the trial of William Jennings Bryan, a well-known religious figure who was the most vocal opponent of creationism. Bryan was charged with breaking the Tennessee law against teaching evolution, which was seen by many as an attack on religious beliefs.
+The trial was a famous one and it had a large impact on American society. The outcome of the trial was controversial and it created a divide in the American public. The majority of the population believed in evolution and saw the trial as a battle between science and religion. However, there was a small group of people who believed in creationism and they saw the trial as a battle between good and evil.
+The trial was a significant event in American History because it created a divide in the American public. The majority of the population believed in evolution and saw the trial as a battle between science and religion. However, there was a small group of people who believed in creationism and they saw the trial as a battle between good and evil. The outcome of the trial was controversial and it created a divide in the American public. The majority of the population believed in evolution and saw the trial as a battle between science and religion. However, there was a small group of people who believed in creationism and they saw the trial as a battle between good and evil. The outcome of the trial was controversial and it created a divide in the American public. The majority of the population believed in evolution and saw the trial as a battle between science and religion. However, there was a small group of people who believed in creationism and they saw the trial as a battle between good and evil.</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="str">
+        <v>This book was amazing. I never expected it to be so good, but it was. The writing was great, the characters were well-drawn, and the plot was exciting. I would definitely recommend this book to anyone.</v>
+      </c>
+    </row>
+    <row r="273" xml:space="preserve">
+      <c r="A273" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+Technology has had a major impact on society in many ways. For one, it has made it easier to connect with others, share information, and store information. It has also allowed people to work and communicate more freely. Additionally, technology has made it easier to find and use information.</v>
+      </c>
+    </row>
+    <row r="274" xml:space="preserve">
+      <c r="A274" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+The Catcher in the Rye is a book that I absolutely loved. I think that it is a book that is about how a young boy named Holden Caulfield feels about his life. Holden is a young boy who is live in a small town in New England. He is a young boy who is feeling very alone and lost. Holden Caulfield is feeling very lonely and lost.</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="str">
+        <v>Love is the best feeling in the world. It's the best feeling when you're with someone you care about and you feel happy and content. Love is the best feeling when you're in a relationship and you're happy and you feel loved. Love is the best feeling when you're with someone who you think is the best for you.</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="str">
+        <v>To be considered successful, a business must have a long-term outlook, be able to generate consistent revenue, have a loyal customer base, and be able to make strategic decisions.</v>
+      </c>
+    </row>
+    <row r="277" xml:space="preserve">
+      <c r="A277" t="str" xml:space="preserve">
+        <v xml:space="preserve">1. Understand that old people aren’t actually that worried about old age, according to numerous surveys. The most recent one I can find was undertaken by American research firm NORC in 2016. It polled over 3,000 adults and found that old people are more optimistic about growing old than younger adults: 46 percent of thirty-somethings said they were optimistic about aging, compared to 66 percent for the seventy-pluses. It seems that worrying about growing old is a sign you are young. And the main reason to be optimistic about old age is that old people themselves are. Resilience seems to grow.
+2. It happens. Aging is something we can’t do much about. We can eat healthily, exercise and live sensibly but we will still age. Our 80th birthday will still be on the same date. Sure, we can make it more likely we will reach 80, but we can’t stop the wheels of time. And the certainty is actually quite reassuring. When there is nothing we can do about something, the point of worry begins to diminish. “Everybody dies,” wrote Nora Ephron.” There’s nothing you can do about it. Whether or not you eat six almonds a day</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="str">
+        <v>However, there are a few things that businesses need to consider when using social media. The first is that social media can be valuable but can also be risky. For example, if a business doesn’t take enough precautions to ensure their content is accurate or promotional, they may risk losing customer trust and/or respect. Additionally, it’s important that businesses aren’t too dismissive of people who use social media. Sometimes people use social media as a form of communication and outreach, which is valuable. Finally, businesses should make sure they are providing value and fulfilling their commitments on social media. If they don’t, their users may end up cutting them out of their lives.</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="str">
+        <v>The present study aimed to explore the relationship between Y-chromosome STR and psychiatric symptoms in patients with major depressive disorder. The study found that patients with higher Y-chromosome STR have a higher risk for developing psychiatric symptoms. The study also found that patients with higher Y-chromosome STR had a higher risk for developing major depressive disorder in a monozygotic ( identical ) twin study. The study showed that the relationship between Y-chromosome STR and psychiatric symptoms is possibly due to genetic modifiers.</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="str">
+        <v>Don’t let anyone tell you how much time you should spend working or how hard you should work. No one knows your circumstances or what matters most to you as much as you do—so no one else can make a judgement about your five-to-nine better than you can. Also, what feels like ‘work’ for one person may not feel like ‘work’ for another person: some people would rather spend seven hours a day on long country walks than two hours commuting into an office; some people want their careers because they enable them to pursue their passions while other people want nothing more than an uncomplicated pay cheque so that they can fund their passions outside of work; and some people want jobs because they want purpose while other people see jobs as nothing more than a means by which they can fund whatever else matters most in their lives (and could happily spend 20 hours a week working on these things rather than 40). Quantity doesn’t mean quality. Be ambitious about your own career—but don’t let the ambition get in the way of what matters most for you personally, about your life outside of work and about your mental health.</v>
+      </c>
+    </row>
+    <row r="281" xml:space="preserve">
+      <c r="A281" t="str" xml:space="preserve">
+        <v xml:space="preserve">The history of American advertising begins with the first ads created in the United States. These advertisements were meant to promote products and services, and they are some of the earliest examples of the use of advertising in America.
+Throughout the 1800s, Americans were interested in buying and using new technology, so advertisers began to create ads that featured things like machines, railways, and new clothing styles. They also savvy about how to reach their target audience, and so these ads were designed to be popular and persuasive.
+As technology changed and people became more interested in different aspects of their lives, American advertising changed as well. In the 1960s,american advertisers started to focus on printing ads instead of digital ones. This was because printed ads often had more impact than digital ones and could be seen by a wider audience.
+Through the years, American Advertising has continued to make a large impact on the way people live, work, and play. And it is without doubt one of the most important genres of advertising in modern times.</v>
+      </c>
+    </row>
+    <row r="282" xml:space="preserve">
+      <c r="A282" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+There is no one answer to this question as the relationship between religion and atheism can vary significantly depending on the individual. However, some basic points could be covered in regards to how Religion and Atheism interact. 
+First and foremost, there is a strong connection between atheism and skepticism. Skepticism is the belief that all physical objects, including gods and miracles, are illusion or Conjured up by someone's mind. Secondly, atheists often accuse religious people of being hypocritical for claiming to believe in something while engaging in immoral activities. Finally, atheists often feel that religion often uses fear and superstition to manipulate people. These accusations can create a divide between atheists and religious people who may see the relationship as positive.
+On the other hand, Religion does have a place in atheism. Many atheist groups exist both to argue against religion and also provide support for atheists who want to practice their own form of atheism without subscribing to any specific dogma. In addition, atheist leaders have made it clear that Atheism does not mean giving up our human rights or morals.</v>
+      </c>
+    </row>
+    <row r="283" xml:space="preserve">
+      <c r="A283" t="str" xml:space="preserve">
+        <v xml:space="preserve">There are many reasons why this change might happen. First, as businesses become aware of the value of having a diverse workforce, they are able to see the cost-benefit of increasing inclusion. This means that they can afford to invest in establishment of rules and procedures that benefit all employees regardless of sex. Second, businesses have been gradually realizing that successful organizations cannot only rely on hired workers alone; they also needokoaborforce members who can contribute both theory and practice. And finally, recent studies have shown thatreatedworkers fairly improves productivity for all employees (Snyder et al., 2006). Thus, adapting policies and procedures in order to meet the needs of transgender employees is becoming increasingly popular among business leaders.
+Although there are some challenges associated with implementing such policies, I believe that these efforts will result in massive improvements for both men and women working in the workplace. In fact, I predict that over time, we will see an even larger increase in women's representation within businesses - and this growth will be based largely on increased awareness and sensitivity towards minority groups within workplaces.</v>
+      </c>
+    </row>
+    <row r="284" xml:space="preserve">
+      <c r="A284" t="str" xml:space="preserve">
+        <v xml:space="preserve">Time is the most important factor in our lives. It has the ability to define everything from our daily rituals to our futures. Time is also a precious commodity, which we use to make decisions that have an impact on the rest of our lives.
+Without time, we would not be able to do things such as learn new things, experience new cultures, or grow old. Time is also used to measure how far we have come and how much work still needs to be done. In some ways, time is like a life raft that allows us to cross over into the future and explore different opportunities while avoiding potential dangers along the way.
+ thefts, robberies, and murders often occur due to lack of time. For example, if someone is prevented from robbing a bank in 15 minutes, they will likely rob another bank in 45 minutes or even 1 hour. To prevent these sorts of crimes from happening, it is important for criminals to have enough time to plan their attack and pull off their robbery successfully.
+In addition, time is also necessary for other activities such as studying, doing homework, and working on projects. Without enough time, these activities may not be possible. For example, if I study for an exam for hours every night and try my best to stay awake during class, I may not be able to achieve the level of success I want because I would need more time than usual to complete the exam.
+On the other hand, if I am able to relax and sleep for 8 hours every night after studying for hours today, I will likely achieve a similar level of success as if I studied for 6 hours today. This illustrates how important time is in our lives – by taking advantage of its abilities we can achieve our goals without having too much trouble.</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="str">
+        <v>Emotional stress is the most common type of stress and can be felt from many different causes such as feeling anxious, anxious about the future, or feeling overwhelmed. Physical stress can come from being too busy or overworked, from being injured, or from experiencing a difficult situation. Social stress can come from relationships or from being around people who are unhappy or stress-filled. Financial stress can come from not having enough money to meet your needs or from having to pay bills late. Occupational stress can come from working long hours or from not having enough rest or fun.</v>
+      </c>
+    </row>
+    <row r="286" xml:space="preserve">
+      <c r="A286" t="str" xml:space="preserve">
+        <v xml:space="preserve">As humans, we are constantly seeking approval and understanding. We need people in our lives to tell us what is right and what is wrong, to validate our choices, and to love us without reservation. Being a good person allows us to feel connected to others around us, and makes life more fun. Here are five reasons why it is so important for everyone to be a good person:
+1. It can make you happier. When you find joy in your life, everything else seems much easier. People tend to achieve happiness when they have purpose and meaning in their lives. Good people can often remember happy memories while bad people forget very quickly. being a good person gives somebody else's happiness some focus, which makes them likely to stay positive throughout their day.
+2. It can help you make better decisions. Good decisions involve taking information into account, weighing the pros and cons of different options, and Imagining the future. The more time you spend thinking positively about yourself, the better chance you have of making sound judgement calls that lead to successful outcomes.
+3. It can protect you from harm.Good people are frequently seen as the Buffer Between Safety and Danger because they take extra precautions such as being kind-hearted and watching out for others, even if they don't always know what they're doing. They also listen carefully when someone needs help, offer support if possible, or take action when something bad happens. This type of behavior strengthens relationships by reassuring other members of the community that someone will keep them safe no matter what – even if that individual isn't particularlyocial or safe-minded themselves!
+4. It can make you happier than bad people. When somebody is behaving in an immoral or harmful way (e.g., by harming another person), it feels satisfying and like they're getting away with murder – in a way that good people never experience pleasure from anything they do! People who are good at living constructive meaningful lives generally have a much harder time feeling angry or resentful towards others than those who aren't so lucky (or who choose not to try). In fact, most research indicates that having such positive outlooks leads individuals to report lower levels of anger, stress, worry etc., compared with individuals with negative outlooks on themselves or on the world around them.
+5. It can help you get along with others.Everybody needs to feel accepted and liked at some point in their lives, no matter how popular or popularized that idea may be. Being kind-hearted and humble will do the trick – even if you don't receive a lot of compliments for it in your day-to-day life. People who are good people generally have better relationships than those who aren't. They typically understand and know how to communicate effectively, which allows them to build Trust faster than those who are not so inclined.</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="str">
+        <v>The obesity epidemic is on the rise, and it’s not just a problem for older adults. Obesity rates are increasing for everyone, regardless of age. A study from The Lancet found that overall, obesity rates have increased in every country studied since 1993. The reasons behind this increase are many, but one big factor is changes in eating habits. Obesity is now more likely because people are eating more processed foods andriel lamborghini Odd Future lip sync youtube than they were in the past. In addition, there is an increase in physical activity levels, which has led to an increase in weight and inches across the board. There are many ways to help fight against obesity, and you don’t have to be obese to see the effects. Education is key – provide children and adults with information about what calories really mean and howto lose weight safely. Let people know that healthy eating habits consist of eating plenty of fruits and vegetables, low-fat proteins, whole grains, nuts and seeds, low-calorie dairy products, poultry or fish instead of pork or fast food restaurants. It can be difficult to change general behavior when unhealthy eating habits are entrenched, but there are some things you can do to make a difference. One approach istargeting those who have been previously successful at losing weight – including parents or adults who know their own potential body size – by providing them with Prevention programs specifically designed for them. Another approach is to create healthier lifestyles around meals. Eating a balanced diet that includes fruits and vegetables, whole grains, nuts and seeds, lower-calorie dairy products, poultry or fish instead of pork or fast food restaurants will help you lose weight while maintaining your health condition.</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="str">
+        <v>I want to be happy and fulfilled. I believe that happiness and fulfillment are the key to a healthy life. I want to find a way to be happy and fulfilled without any extra work or stress. I want to find a way to be happy and fulfilled that is sustainable and equal to my own abilities and desires. I want to find a way to be happy and fulfilled that is possible for me to maintain and improve.</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="str">
+        <v>Each company we are engaged in has a dedicated business team, consisting of our board representatives in the company and investment professionals at Investor. The business teams build company knowledge, benchmark versus competition and evaluate corporate structures</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="str">
+        <v>The first thing I noticed about the man was his eyes. They were the color of the sky on a clear day, and they were filled with a sadness that I had never seen before. He was tall and thin, and his clothes were old and worn. He had a long beard and a mustache, and his hair was long and gray. He looked like a man who had been through a lot in his life.</v>
+      </c>
+    </row>
+    <row r="291" xml:space="preserve">
+      <c r="A291" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+Technology has had a major impact on society in many ways. For one, it has made it easier to connect with others, share information, and store information. It has also allowed people to work and communicate more freely. Additionally, technology has made it easier to find and use information.</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="str">
+        <v>But the great security against a gradual concentration of the several powers in the same department, consists in giving to those who administer each department the necessary constitutional means and personal motives to resist encroachments of the others. The provision for defense must in this, as in all other cases, be made commensurate to the danger of attack. Ambition must be made to counteract ambition. The interest of the man must be connected with the constitutional rights of the place. It may be a reflection on human nature, that such devices should be necessary to control the abuses of government. But what is government itself, but the greatest of all reflections on human nature? If men were angels, no government would be necessary. If angels were to govern men, neither external nor internal controls on government would be necessary. In framing a government which is to be administered by men over men, the great difficulty lies in this: you must first enable the government to control the governed; and in the next place oblige it to control itself. A dependence on the people is, no doubt, the primary control on the government; but experience has taught mankind the necessity of auxiliary precautions.</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="str">
+        <v>WELL, I THINK LIKE I SAID IT IS NOT EXACTLY GOOD, BUT YOU CANNOT SAY THAT THE PEOPLE DON'T WANT JOB. YOU CANNOT SAY THAT THE PEOPLE DON'T WANT TO WORK. THE SYSTEM JUST HAD A PROBLEM. AND FOR THE FIRST TIME, SOMEBODY IS INTERESTED. IT'S A COMPLEX SITUATION. IT'S NOT ONLY U.S., IT'S GLOBAL, AND THERE IS OBVIOUSLY A REASON TO BE REACTIONARY.</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="str">
+        <v>Love is the best feeling in the world. It's the best feeling when you're with someone you care about and you feel happy and content. Love is the best feeling when you're in a relationship and you're happy and you feel loved. Love is the best feeling when you're with someone who you think is the best for you.</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="str">
+        <v>However, there are a few things that businesses need to consider when using social media. The first is that social media can be valuable but can also be risky. For example, if a business doesn’t take enough precautions to ensure their content is accurate or promotional, they may risk losing customer trust and/or respect. Additionally, it’s important that businesses aren’t too dismissive of people who use social media. Sometimes people use social media as a form of communication and outreach, which is valuable. Finally, businesses should make sure they are providing value and fulfilling their commitments on social media. If they don’t, their users may end up cutting them out of their lives.</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="str">
+        <v>Understand that old people aren’t actually that worried about old age, according to numerous surveys. The most recent one I can find was undertaken by American research firm NORC in 2016. It polled over 3,000 adults and found that old people are more optimistic about growing old than younger adults: 46 percent of thirty-somethings said they were optimistic about aging, compared to 66 percent for the seventy-pluses. It seems that worrying about growing old is a sign you are young. And the main reason to be optimistic about old age is that old people themselves are. Resilience seems to grow.</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="str">
+        <v>Emotional stress is the most common type of stress and can be felt from many different causes such as feeling anxious, anxious about the future, or feeling overwhelmed. Physical stress can come from being too busy or overworked, from being injured, or from experiencing a difficult situation. Social stress can come from relationships or from being around people who are unhappy or stress-filled. Financial stress can come from not having enough money to meet your needs or from having to pay bills late. Occupational stress can come from working long hours or from not having enough rest or fun.</v>
+      </c>
+    </row>
+    <row r="298" xml:space="preserve">
+      <c r="A298" t="str" xml:space="preserve">
+        <v xml:space="preserve">Mental health is a complex topic that can be difficult to understand. However, one of the most important aspects of mental health is the ability to cope with emotions. Emotions are the way we experience the world and can impact our ability to think, feel, and do things.
+There are many different types of mental health problems. However, some of the most common mental health problems are:
+- Depression
+- Anxiety
+- Bipolar Disorder
+- obsessive-compulsive disorder
+- eating disorders
+- ADHD
+- posttraumatic stress disorder
+- substance abuse
+It is important to talk to a healthcare professional about your mental health if you have any of these problems. They may be able to help you find medication or therapy to help you feel better.</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="str">
+        <v>1. Eat well. Our brains are 60 per cent fat, so we need the good kind of healthy fat—Omega 3—for our brain health. Other nutrients that help our brain include vitamin B, vitamin E, and foods like blueberries and broccoli. Foods like broccoli and blueberries are good for us, but they don’t taste like, say, a meatball sub with cheese fries. What can help is to think how quickly bad food makes us feel bad. It might take us an hour to eat a cheeseburger, but it will take our mood maybe only ten minutes to decline. If healthy food can take that long to digest, surely it is worth waiting for the positive effects? It has long been known how important diet is for physical health. But now there is evidence of how it can benefit our mood too. A study in Biological Psychiatry, for example, found that healthy dietary patterns that included foods like fish, fruit, and vegetables was associated with lower levels of depression.</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="str">
+        <v>The obesity epidemic is on the rise, and it’s not just a problem for older adults. Obesity rates are increasing for everyone, regardless of age. A study from The Lancet found that overall, obesity rates have increased in every country studied since 1993. The reasons behind this increase are many, but one big factor is changes in eating habits. Obesity is now more likely because people are eating more processed foods andriel lamborghini Odd Future lip sync youtube than they were in the past. In addition, there is an increase in physical activity levels, which has led to an increase in weight and inches across the board. There are many ways to help fight against obesity, and you don’t have to be obese to see the effects. Education is key – provide children and adults with information about what calories really mean and howto lose weight safely. Let people know that healthy eating habits consist of eating plenty of fruits and vegetables, low-fat proteins, whole grains, nuts and seeds, low-calorie dairy products, poultry or fish instead of pork or fast food restaurants. It can be difficult to change general behavior when unhealthy eating habits are entrenched, but there are some things you can do to make a difference. One approach istargeting those who have been previously successful at losing weight – including parents or adults who know their own potential body size – by providing them with Prevention programs specifically designed for them. Another approach is to create healthier lifestyles around meals. Eating a balanced diet that includes fruits and vegetables, whole grains, nuts and seeds, lower-calorie dairy products, poultry or fish instead of pork or fast food restaurants will help you lose weight while maintaining your health condition.</v>
+      </c>
+    </row>
+    <row r="301" xml:space="preserve">
+      <c r="A301" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+There is no one answer to this question as the relationship between religion and atheism can vary significantly depending on the individual. However, some basic points could be covered in regards to how Religion and Atheism interact. 
+First and foremost, there is a strong connection between atheism and skepticism. Skepticism is the belief that all physical objects, including gods and miracles, are illusion or Conjured up by someone's mind. Secondly, atheists often accuse religious people of being hypocritical for claiming to believe in something while engaging in immoral activities. Finally, atheists often feel that religion often uses fear and superstition to manipulate people. These accusations can create a divide between atheists and religious people who may see the relationship as positive.
+On the other hand, Religion does have a place in atheism. Many atheist groups exist both to argue against religion and also provide support for atheists who want to practice their own form of atheism without subscribing to any specific dogma. In addition, atheist leaders have made it clear that Atheism does not mean giving up our human rights or morals.</v>
+      </c>
+    </row>
+    <row r="302" xml:space="preserve">
+      <c r="A302" t="str" xml:space="preserve">
+        <v xml:space="preserve">The relationship between climate change and mental health is poorly understood. While increasing attention has been paid to the physical health consequences of climate change, few studies have examined the psychological adjustments that may be made by people in climate-affected areas. This study aimed to investigate the relationship between climate change and mental health in a dryland region of Kenya. Data were collected from 300 adults from 10 sites in Laikipia County, Kenya. Logistic regression model was employed to determine the association between future climate change and mental health. Significant associations were found between climate change-related variables, including lower nervous energy, poor appetite, and poor sleep quality, and the risk of psychological distress. 
+The findings suggest that the mental health impacts of climate change may be most severe in dryland regions. However, the results should be interpreted with caution due to the cross-sectional design. Additional studies are needed to confirm the findings, and to determine the mechanisms through which climate change impacts psychological distress.</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="str">
+        <v>Social media has become an important part of education. It allows students to connect with each other and share ideas, experiences, and thoughts. Additionally, social media can offer educators a way to measure student engagement and improve teaching techniques. Social media also plays an important role in creating a community for educators, which can help increase their understanding of their students and help them better teach. In addition, social media can be used to promote specific content or courses, which can improve the learning experience for students. Overall, social media has been a powerful tool for educators and has helped them improve their teaching skills as well as their students’ engagement.</v>
+      </c>
+    </row>
+    <row r="304" xml:space="preserve">
+      <c r="A304" t="str" xml:space="preserve">
+        <v xml:space="preserve">1. Understand that old people aren’t actually that worried about old age, according to numerous surveys. The most recent one I can find was undertaken by American research firm NORC in 2016. It polled over 3,000 adults and found that old people are more optimistic about growing old than younger adults: 46 percent of thirty-somethings said they were optimistic about aging, compared to 66 percent for the seventy-pluses. It seems that worrying about growing old is a sign you are young. And the main reason to be optimistic about old age is that old people themselves are. Resilience seems to grow.
+2. It happens. Aging is something we can’t do much about. We can eat healthily, exercise and live sensibly but we will still age. Our 80th birthday will still be on the same date. Sure, we can make it more likely we will reach 80, but we can’t stop the wheels of time. And the certainty is actually quite reassuring. When there is nothing we can do about something, the point of worry begins to diminish. “Everybody dies,” wrote Nora Ephron.” There’s nothing you can do about it. Whether or not you eat six almonds a day</v>
+      </c>
+    </row>
+    <row r="305" xml:space="preserve">
+      <c r="A305" t="str" xml:space="preserve">
+        <v xml:space="preserve">Time is the most important factor in our lives. It has the ability to define everything from our daily rituals to our futures. Time is also a precious commodity, which we use to make decisions that have an impact on the rest of our lives.
+Without time, we would not be able to do things such as learn new things, experience new cultures, or grow old. Time is also used to measure how far we have come and how much work still needs to be done. In some ways, time is like a life raft that allows us to cross over into the future and explore different opportunities while avoiding potential dangers along the way.
+ thefts, robberies, and murders often occur due to lack of time. For example, if someone is prevented from robbing a bank in 15 minutes, they will likely rob another bank in 45 minutes or even 1 hour. To prevent these sorts of crimes from happening, it is important for criminals to have enough time to plan their attack and pull off their robbery successfully.
+In addition, time is also necessary for other activities such as studying, doing homework, and working on projects. Without enough time, these activities may not be possible. For example, if I study for an exam for hours every night and try my best to stay awake during class, I may not be able to achieve the level of success I want because I would need more time than usual to complete the exam.
+On the other hand, if I am able to relax and sleep for 8 hours every night after studying for hours today, I will likely achieve a similar level of success as if I studied for 6 hours today. This illustrates how important time is in our lives – by taking advantage of its abilities we can achieve our goals without having too much trouble.</v>
+      </c>
+    </row>
+    <row r="306" xml:space="preserve">
+      <c r="A306" t="str" xml:space="preserve">
+        <v xml:space="preserve">There are many reasons why this change might happen. First, as businesses become aware of the value of having a diverse workforce, they are able to see the cost-benefit of increasing inclusion. This means that they can afford to invest in establishment of rules and procedures that benefit all employees regardless of sex. Second, businesses have been gradually realizing that successful organizations cannot only rely on hired workers alone; they also needokoaborforce members who can contribute both theory and practice. And finally, recent studies have shown thatreatedworkers fairly improves productivity for all employees (Snyder et al., 2006). Thus, adapting policies and procedures in order to meet the needs of transgender employees is becoming increasingly popular among business leaders.
+Although there are some challenges associated with implementing such policies, I believe that these efforts will result in massive improvements for both men and women working in the workplace. In fact, I predict that over time, we will see an even larger increase in women's representation within businesses - and this growth will be based largely on increased awareness and sensitivity towards minority groups within workplaces.</v>
+      </c>
+    </row>
+    <row r="307" xml:space="preserve">
+      <c r="A307" t="str" xml:space="preserve">
+        <v xml:space="preserve">Volunteering provides many tangible and intangible benefits.
+The tangible benefits of volunteering can include helping other people, improving one's own skills, building personal relationships, and having fun. The intangible benefits of volunteering can include increased self-awareness, civic engagement, and COMPASS skills.
+The most common tangible benefits of volunteering are helping other people, skill development, and building relationships. Volunteer experiences can help people learn new skills, improve their work ethic, and build social networks. Volunteering can also lead to new opportunities, such as finding a new job or becoming more involved in a community.
+The intangible benefits of volunteering are increased self-awareness, civic engagement, and COMPASS skills. Volunteering can help people learn more about themselves and their community. Furthermore, volunteering can lead to personal growth and development, such as increased empathy and compassion. Additionally, volunteering can increase one's knowledge and understanding of different topics, which can help them in their career or other areas of life.
+Overall, the tangible and intangible benefits of volunteering are significant. Many people find the benefits of volunteering to be worth the time and effort required to participate.</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="str">
+        <v>Learning about climate change, and its impending effects, is an emotional experience. The distress, anxiety, worry, and/or fear that stem from an overarching awareness of climate change are often considered to be related to the broader concept of ‘psychoterratic syndromes’. This concept was first introduced by the environmental philosopher, Glenn Albrecht, and is defined broadly as ‘psychological responses to negative changes to the state of the Earth’. Terms such as eco anxiety, climate anxiety, and eco distress are often used to describe these negative responses. Also, the related term ‘solastalgia’, broadly defined as distress from the transformation and degradation of one’s home environment, also falls into psychoterratic syndromes. Such concepts are gaining traction in print and online media. For example, Grist Magazine declared climate anxiety as the biggest pop-culture trend of the year in 2019. Additionally, there is a growing recognition of the impact of climate change awareness on mental well-being among researchers and mental health professionals. For instance, the American Psychological Association has defined eco anxiety as ‘a chronic fear of environmental doom’; while the Royal College of Psychiatrists defines eco distress among young people as ‘the wide range of emotions and thoughts young people may experience when they hear bad news about our planet and the environment’. Moreover, mental health professionals have reported counseling individuals dealing with distress about climate change.</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="str">
+        <v>The first thing I noticed about the man was his eyes. They were the color of the sky on a clear day, and they were filled with a sadness that I had never seen before. He was tall and thin, and his clothes were old and worn. He had a long beard and a mustache, and his hair was long and gray. He looked like a man who had been through a lot in his life.</v>
+      </c>
+    </row>
+    <row r="310" xml:space="preserve">
+      <c r="A310" t="str" xml:space="preserve">
+        <v xml:space="preserve">Time is the most important factor in our lives. It has the ability to define everything from our daily rituals to our futures. Time is also a precious commodity, which we use to make decisions that have an impact on the rest of our lives.
+Without time, we would not be able to do things such as learn new things, experience new cultures, or grow old. Time is also used to measure how far we have come and how much work still needs to be done. In some ways, time is like a life raft that allows us to cross over into the future and explore different opportunities while avoiding potential dangers along the way.
+ thefts, robberies, and murders often occur due to lack of time. For example, if someone is prevented from robbing a bank in 15 minutes, they will likely rob another bank in 45 minutes or even 1 hour. To prevent these sorts of crimes from happening, it is important for criminals to have enough time to plan their attack and pull off their robbery successfully.
+In addition, time is also necessary for other activities such as studying, doing homework, and working on projects. Without enough time, these activities may not be possible. For example, if I study for an exam for hours every night and try my best to stay awake during class, I may not be able to achieve the level of success I want because I would need more time than usual to complete the exam.
+On the other hand, if I am able to relax and sleep for 8 hours every night after studying for hours today, I will likely achieve a similar level of success as if I studied for 6 hours today. This illustrates how important time is in our lives – by taking advantage of its abilities we can achieve our goals without having too much trouble.</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="str">
+        <v>When I arrived in New Zealand, I was cautious, tentative, nervous. The foreignness was profound and biting. In the North American West, I was used mountains, forests, rivers, and fields. I could feel at home in the familiar. In New Zealand, everything was foreign. Everything was unfamiliar. Every decision was new</v>
+      </c>
+    </row>
+    <row r="312" xml:space="preserve">
+      <c r="A312" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+The Catcher in the Rye is a book that I absolutely loved. I think that it is a book that is about how a young boy named Holden Caulfield feels about his life. Holden is a young boy who is live in a small town in New England. He is a young boy who is feeling very alone and lost. Holden Caulfield is feeling very lonely and lost.</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="str">
+        <v>Love is the best feeling in the world. It's the best feeling when you're with someone you care about and you feel happy and content. Love is the best feeling when you're in a relationship and you're happy and you feel loved. Love is the best feeling when you're with someone who you think is the best for you.</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="str">
+        <v>This policy of supplying, by opposite and rival interests, the defect of better motives, might be traced through the whole system of human affairs, private as well as public. We see it particularly displayed in all the subordinate distributions of power, where the constant aim is to divide and arrange the several offices in such a manner as that each may be a check on the other—that the private interest of every individual may be a sentinel over the public rights. These inventions of prudence cannot be less requisite in the distribution of the supreme powers of the State.</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="str">
+        <v>WELL, I THINK LIKE I SAID IT IS NOT EXACTLY GOOD, BUT YOU CANNOT SAY THAT THE PEOPLE DON'T WANT JOB. YOU CANNOT SAY THAT THE PEOPLE DON'T WANT TO WORK. THE SYSTEM JUST HAD A PROBLEM. AND FOR THE FIRST TIME, SOMEBODY IS INTERESTED. IT'S A COMPLEX SITUATION. IT'S NOT ONLY U.S., IT'S GLOBAL, AND THERE IS OBVIOUSLY A REASON TO BE REACTIONARY.</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="str">
+        <v>There are a lot of benefits to being a vegetarian, and it can be highly beneficial for both your health and the environment. Vegetarians tend to have lower rates of heart disease, obesity, type II diabetes, some forms of cancer, and many other diseases than people who eat meat. They also consume more fruits and vegetables than people who eat meat, and these nutrients help keep them healthy. Additionally, some pecuarians oppose the hunting and slaughter of animals for their food, which means that they are helping to reduce the amount of animal cruelty going on in the world.</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="str">
+        <v>Understand that old people aren’t actually that worried about old age, according to numerous surveys. The most recent one I can find was undertaken by American research firm NORC in 2016. It polled over 3,000 adults and found that old people are more optimistic about growing old than younger adults: 46 percent of thirty-somethings said they were optimistic about aging, compared to 66 percent for the seventy-pluses. It seems that worrying about growing old is a sign you are young. And the main reason to be optimistic about old age is that old people themselves are. Resilience seems to grow.</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="str">
+        <v>The impact of climate change on the mental health of young people is poorly understood. Emerging evidence suggests that exposure to climate change exerts a disproportionate mental health burden on young people. An understanding of the risk factors (RFs) and protective factors (PFs) that affect the likelihood of mental health impacts arising from exposure to climate change is required to support youth wellbeing. Aims/objectives: This review scopes the current research on what and how RFs and PFs are related to the mental health impacts of both direct and indirect exposure to climate change for young people. RFs and PFs were reviewed through the lens of ecological system theory. Methods: We conducted systematic searches in four databases: PubMed, PsycInfo, Web of Science, and Scopus. Grey literature searches were conducted in ProQuest Dissertations, GreyLit.org, OpenGrey, and relevant organisations’ websites. We included 92 empirical studies focused on the RFs and PFs of the mental wellbeing under the impact of climate change of young people (0–24). We extracted data on study characteristics, type of climate change event, mental health outcomes, RFs and PFs, and associated ecological system level. Results: The current evidence base focuses predominantly on young people’s experience of PTSD (k = 59), depression (k = 26), or anxiety (k = 17) mainly following exposure to singular climate change-related natural disaster events. Only four studies explored the impacts of climate change in general. Majority of the studies investigated RFs and PFs at the individual level and at the micro-system level. Conclusions: Several RFs and PFs were identified, such as coping strategies, family factors (e.g. parenting style), social support, community connection, and cultural identity. Positioning the mental health impacts of singular events within the broader context of ongoing and escalating climate change impacts will better inform the development of interventions that seek to build resilience among young people.</v>
+      </c>
+    </row>
+    <row r="319" xml:space="preserve">
+      <c r="A319" t="str" xml:space="preserve">
+        <v xml:space="preserve">The relationship between climate change and mental health is poorly understood. While increasing attention has been paid to the physical health consequences of climate change, few studies have examined the psychological adjustments that may be made by people in climate-affected areas. This study aimed to investigate the relationship between climate change and mental health in a dryland region of Kenya. Data were collected from 300 adults from 10 sites in Laikipia County, Kenya. Logistic regression model was employed to determine the association between future climate change and mental health. Significant associations were found between climate change-related variables, including lower nervous energy, poor appetite, and poor sleep quality, and the risk of psychological distress. 
+The findings suggest that the mental health impacts of climate change may be most severe in dryland regions. However, the results should be interpreted with caution due to the cross-sectional design. Additional studies are needed to confirm the findings, and to determine the mechanisms through which climate change impacts psychological distress.</v>
+      </c>
+    </row>
+    <row r="320" xml:space="preserve">
+      <c r="A320" t="str" xml:space="preserve">
+        <v xml:space="preserve">There are many reasons why this change might happen. First, as businesses become aware of the value of having a diverse workforce, they are able to see the cost-benefit of increasing inclusion. This means that they can afford to invest in establishment of rules and procedures that benefit all employees regardless of sex. Second, businesses have been gradually realizing that successful organizations cannot only rely on hired workers alone; they also needokoaborforce members who can contribute both theory and practice. And finally, recent studies have shown thatreatedworkers fairly improves productivity for all employees (Snyder et al., 2006). Thus, adapting policies and procedures in order to meet the needs of transgender employees is becoming increasingly popular among business leaders.
+Although there are some challenges associated with implementing such policies, I believe that these efforts will result in massive improvements for both men and women working in the workplace. In fact, I predict that over time, we will see an even larger increase in women's representation within businesses - and this growth will be based largely on increased awareness and sensitivity towards minority groups within workplaces.</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="str">
+        <v>Don’t let anyone tell you how much time you should spend working or how hard you should work. No one knows your circumstances or what matters most to you as much as you do—so no one else can make a judgement about your five-to-nine better than you can. Also, what feels like ‘work’ for one person may not feel like ‘work’ for another person: some people would rather spend seven hours a day on long country walks than two hours commuting into an office; some people want their careers because they enable them to pursue their passions while other people want nothing more than an uncomplicated pay cheque so that they can fund their passions outside of work; and some people want jobs because they want purpose while other people see jobs as nothing more than a means by which they can fund whatever else matters most in their lives (and could happily spend 20 hours a week working on these things rather than 40). Quantity doesn’t mean quality. Be ambitious about your own career—but don’t let the ambition get in the way of what matters most for you personally, about your life outside of work and about your mental health.</v>
+      </c>
+    </row>
+    <row r="322" xml:space="preserve">
+      <c r="A322" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+There is no one answer to this question as the relationship between religion and atheism can vary significantly depending on the individual. However, some basic points could be covered in regards to how Religion and Atheism interact. 
+First and foremost, there is a strong connection between atheism and skepticism. Skepticism is the belief that all physical objects, including gods and miracles, are illusion or Conjured up by someone's mind. Secondly, atheists often accuse religious people of being hypocritical for claiming to believe in something while engaging in immoral activities. Finally, atheists often feel that religion often uses fear and superstition to manipulate people. These accusations can create a divide between atheists and religious people who may see the relationship as positive.
+On the other hand, Religion does have a place in atheism. Many atheist groups exist both to argue against religion and also provide support for atheists who want to practice their own form of atheism without subscribing to any specific dogma. In addition, atheist leaders have made it clear that Atheism does not mean giving up our human rights or morals.</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="str">
+        <v>But the great security against a gradual concentration of the several powers in the same department, consists in giving to those who administer each department the necessary constitutional means and personal motives to resist encroachments of the others. The provision for defense must in this, as in all other cases, be made commensurate to the danger of attack. Ambition must be made to counteract ambition. The interest of the man must be connected with the constitutional rights of the place. It may be a reflection on human nature, that such devices should be necessary to control the abuses of government. But what is government itself, but the greatest of all reflections on human nature? If men were angels, no government would be necessary. If angels were to govern men, neither external nor internal controls on government would be necessary. In framing a government which is to be administered by men over men, the great difficulty lies in this: you must first enable the government to control the governed; and in the next place oblige it to control itself. A dependence on the people is, no doubt, the primary control on the government; but experience has taught mankind the necessity of auxiliary precautions.</v>
+      </c>
+    </row>
+    <row r="324" xml:space="preserve">
+      <c r="A324" t="str" xml:space="preserve">
+        <v xml:space="preserve">1. Understand that old people aren’t actually that worried about old age, according to numerous surveys. The most recent one I can find was undertaken by American research firm NORC in 2016. It polled over 3,000 adults and found that old people are more optimistic about growing old than younger adults: 46 percent of thirty-somethings said they were optimistic about aging, compared to 66 percent for the seventy-pluses. It seems that worrying about growing old is a sign you are young. And the main reason to be optimistic about old age is that old people themselves are. Resilience seems to grow.
+2. It happens. Aging is something we can’t do much about. We can eat healthily, exercise and live sensibly but we will still age. Our 80th birthday will still be on the same date. Sure, we can make it more likely we will reach 80, but we can’t stop the wheels of time. And the certainty is actually quite reassuring. When there is nothing we can do about something, the point of worry begins to diminish. “Everybody dies,” wrote Nora Ephron.” There’s nothing you can do about it. Whether or not you eat six almonds a day</v>
+      </c>
+    </row>
+    <row r="325" xml:space="preserve">
+      <c r="A325" t="str" xml:space="preserve">
+        <v xml:space="preserve">Volunteering provides many tangible and intangible benefits.
+The tangible benefits of volunteering can include helping other people, improving one's own skills, building personal relationships, and having fun. The intangible benefits of volunteering can include increased self-awareness, civic engagement, and COMPASS skills.
+The most common tangible benefits of volunteering are helping other people, skill development, and building relationships. Volunteer experiences can help people learn new skills, improve their work ethic, and build social networks. Volunteering can also lead to new opportunities, such as finding a new job or becoming more involved in a community.
+The intangible benefits of volunteering are increased self-awareness, civic engagement, and COMPASS skills. Volunteering can help people learn more about themselves and their community. Furthermore, volunteering can lead to personal growth and development, such as increased empathy and compassion. Additionally, volunteering can increase one's knowledge and understanding of different topics, which can help them in their career or other areas of life.
+Overall, the tangible and intangible benefits of volunteering are significant. Many people find the benefits of volunteering to be worth the time and effort required to participate.</v>
+      </c>
+    </row>
+    <row r="326" xml:space="preserve">
+      <c r="A326" t="str" xml:space="preserve">
+        <v xml:space="preserve">As humans, we are constantly seeking approval and understanding. We need people in our lives to tell us what is right and what is wrong, to validate our choices, and to love us without reservation. Being a good person allows us to feel connected to others around us, and makes life more fun. Here are five reasons why it is so important for everyone to be a good person:
+1. It can make you happier. When you find joy in your life, everything else seems much easier. People tend to achieve happiness when they have purpose and meaning in their lives. Good people can often remember happy memories while bad people forget very quickly. being a good person gives somebody else's happiness some focus, which makes them likely to stay positive throughout their day.
+2. It can help you make better decisions. Good decisions involve taking information into account, weighing the pros and cons of different options, and Imagining the future. The more time you spend thinking positively about yourself, the better chance you have of making sound judgement calls that lead to successful outcomes.
+3. It can protect you from harm.Good people are frequently seen as the Buffer Between Safety and Danger because they take extra precautions such as being kind-hearted and watching out for others, even if they don't always know what they're doing. They also listen carefully when someone needs help, offer support if possible, or take action when something bad happens. This type of behavior strengthens relationships by reassuring other members of the community that someone will keep them safe no matter what – even if that individual isn't particularlyocial or safe-minded themselves!
+4. It can make you happier than bad people. When somebody is behaving in an immoral or harmful way (e.g., by harming another person), it feels satisfying and like they're getting away with murder – in a way that good people never experience pleasure from anything they do! People who are good at living constructive meaningful lives generally have a much harder time feeling angry or resentful towards others than those who aren't so lucky (or who choose not to try). In fact, most research indicates that having such positive outlooks leads individuals to report lower levels of anger, stress, worry etc., compared with individuals with negative outlooks on themselves or on the world around them.
+5. It can help you get along with others.Everybody needs to feel accepted and liked at some point in their lives, no matter how popular or popularized that idea may be. Being kind-hearted and humble will do the trick – even if you don't receive a lot of compliments for it in your day-to-day life. People who are good people generally have better relationships than those who aren't. They typically understand and know how to communicate effectively, which allows them to build Trust faster than those who are not so inclined.</v>
+      </c>
+    </row>
+    <row r="327" xml:space="preserve">
+      <c r="A327" t="str" xml:space="preserve">
+        <v xml:space="preserve">The Scopes trial of 1925 was one of the most significant events in American History. The trial was fought over the belief of creationism, or the belief that God created the universe and all that exists within it in its present form. The trial pitted science against religion and it was seen as a battle between the individual and the establishment.
+The trial began in Dayton, Tennessee on February 24th and ended on March 25th. The trial was presided over by John T. Scopes and it involved the trial of William Jennings Bryan, a well-known religious figure who was the most vocal opponent of creationism. Bryan was charged with breaking the Tennessee law against teaching evolution, which was seen by many as an attack on religious beliefs.
+The trial was a famous one and it had a large impact on American society. The outcome of the trial was controversial and it created a divide in the American public. The majority of the population believed in evolution and saw the trial as a battle between science and religion. However, there was a small group of people who believed in creationism and they saw the trial as a battle between good and evil.
+The trial was a significant event in American History because it created a divide in the American public. The majority of the population believed in evolution and saw the trial as a battle between science and religion. However, there was a small group of people who believed in creationism and they saw the trial as a battle between good and evil. The outcome of the trial was controversial and it created a divide in the American public. The majority of the population believed in evolution and saw the trial as a battle between science and religion. However, there was a small group of people who believed in creationism and they saw the trial as a battle between good and evil. The outcome of the trial was controversial and it created a divide in the American public. The majority of the population believed in evolution and saw the trial as a battle between science and religion. However, there was a small group of people who believed in creationism and they saw the trial as a battle between good and evil.</v>
+      </c>
+    </row>
+    <row r="328" xml:space="preserve">
+      <c r="A328" t="str">
+        <v>When I arrived in New Zealand, I was cautious, tentative, nervous. The foreignness was profound and biting. In the North American West, I was used mountains, forests, rivers, and fields. I could feel at home in the familiar. In New Zealand, everything was foreign. Everything was unfamiliar. Every decision was new</v>
+      </c>
+      <c r="B328" t="str" xml:space="preserve">
+        <v xml:space="preserve">When I arrived in New Zealand, I was cautious, tentative, nervous. The foreignness was profound and biting. In the North American West, I was used mountains, forests, rivers, and fields. I could feel at home in the familiar. In New Zealand, everything was foreign. Everything was unfamiliar. Every decision was new
+När jag anlände till Nya Zeeland, jag var försiktig, tveksam, nervös. Det främmande vardjup och
+bitande. I North American West, brukade jag i berg, skogar, floder och fält. Jag kunde att känna sig hemma i bekant.
+I Nya Zeeland, var allt främmande. Allt var okänt. Alla beslut var nya.
+</v>
+      </c>
+      <c r="C328">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="329" xml:space="preserve">
+      <c r="A329" t="str">
+        <v>We do have food; however, I am currently unsure concerning the variety that would appease your appetite at this present point in our dialogue together while enjoying ourselves within each other's company here on Earth on our glorious planet that orbits around a star found within one galaxy of potentially infinite galaxies inhabited by extreme possibilities surrounding all manifestations and idea(s)</v>
+      </c>
+      <c r="B329" t="str" xml:space="preserve">
+        <v xml:space="preserve">Vi har mat; dock är jag osäker med tanke på att varietet skulle tillfredsställa din aptit just nu i discoun medan vi uppehåller oss inom varandra företag här på jorden på vår ärorika planet som kretsar kring en stjärna i en galax och antalet galaxer torde vara oändliga och beboas av possibliteter som i minsta cell innehåller våra hela manifestion
+</v>
+      </c>
+      <c r="C329">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="330" xml:space="preserve">
+      <c r="A330" t="str">
+        <v>WELL, I THINK LIKE I SAID IT IS NOT EXACTLY GOOD, BUT YOU CANNOT SAY THAT THE PEOPLE DON'T WANT JOB. YOU CANNOT SAY THAT THE PEOPLE DON'T WANT TO WORK. THE SYSTEM JUST HAD A PROBLEM. AND FOR THE FIRST TIME, SOMEBODY IS INTERESTED. IT'S A COMPLEX SITUATION. IT'S NOT ONLY U.S., IT'S GLOBAL, AND THERE IS OBVIOUSLY A REASON TO BE REACTIONARY.</v>
+      </c>
+      <c r="B330" t="str" xml:space="preserve">
+        <v xml:space="preserve">NÅVÄL, JAG TROR EXAKT SOM JAG SA DET ÄR INTE GOTT, MEN DU KAN INTE SÄGA ATT MÄNNISKORNA INTE VILL HA JOBB. DU KAN INTE SÄGA ATT MÄNNISKORNA INTE VILL ARBETA. SYSTEMET HADE BARSKT EN PROBLEM. OCH FÖR FÖRSTA GÅNGEN, NÅGON ÄR INTERESSERAD. DET ÄR EN KOMPLICERAD SITUATION. DET ÄR INTE BARA U.S., DET ÄR VÄRLDSVITT, OCH DET FINNS GULD EN ANLEDNING ATT VARA REAKTIONÄR.
+</v>
+      </c>
+      <c r="C330">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="331" xml:space="preserve">
+      <c r="A331" t="str" xml:space="preserve">
+        <v xml:space="preserve">Volunteering provides many tangible and intangible benefits.
+The tangible benefits of volunteering can include helping other people, improving one's own skills, building personal relationships, and having fun. The intangible benefits of volunteering can include increased self-awareness, civic engagement, and COMPASS skills.
+The most common tangible benefits of volunteering are helping other people, skill development, and building relationships. Volunteer experiences can help people learn new skills, improve their work ethic, and build social networks. Volunteering can also lead to new opportunities, such as finding a new job or becoming more involved in a community.
+The intangible benefits of volunteering are increased self-awareness, civic engagement, and COMPASS skills. Volunteering can help people learn more about themselves and their community. Furthermore, volunteering can lead to personal growth and development, such as increased empathy and compassion. Additionally, volunteering can increase one's knowledge and understanding of different topics, which can help them in their career or other areas of life.
+Overall, the tangible and intangible benefits of volunteering are significant. Many people find the benefits of volunteering to be worth the time and effort required to participate.</v>
+      </c>
+      <c r="B331" t="str" xml:space="preserve">
+        <v xml:space="preserve">Hjälp med ide projekt kan vara användbar inom studier, yrkeserfarenhet och socialt engagemang.
+Man kan göra fina förbindelser för att säkra sitt jobb.
+Man kan lära sig nya saker på samma gång.
+</v>
+      </c>
+      <c r="C331">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="332" xml:space="preserve">
+      <c r="A332" t="str">
+        <v>This policy of supplying, by opposite and rival interests, the defect of better motives, might be traced through the whole system of human affairs, private as well as public. We see it particularly displayed in all the subordinate distributions of power, where the constant aim is to divide and arrange the several offices in such a manner as that each may be a check on the other—that the private interest of every individual may be a sentinel over the public rights. These inventions of prudence cannot be less requisite in the distribution of the supreme powers of the State.</v>
+      </c>
+      <c r="B332" t="str" xml:space="preserve">
+        <v xml:space="preserve">Den politik att komplettera med motsatta och rivaliserande intressen den nackdel som är att motiv inte är av lägst ordning, kan man spåra genom hela system av mänsklig verksamhet, både privat och offentlig. Det vi ser är: alla nedläggningar av makt som handlar om att konstant önska att fördela roller på så sätt att varje roll kompletterar den andra – att privatintresset hos varje person ska vara vakt över den offentliga rättvisan. dessa uppfinningar av klokhet kan inte vara mindre nödvändiga i distributionen av de överlägsna krafter som är staten. (ett försök för att "paraphrase"...)
+</v>
+      </c>
+      <c r="C332">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="333" xml:space="preserve">
+      <c r="A333" t="str">
+        <v>Margaret Sullivan: I had been at a small newspaper in California. I started my career at an evening daily newspaper called The San Bernardino Sun. I went straight from there to The New York Times in 1981. So it was a huge—it was a big leap in many ways—a leap into cultural elitism and sophistication. It was a wonderful, wonderful place to work. It was a very exciting time to be there because we were growing. Our circulation at the time was about 1.1 million. We were a big paper then. It's half that now. But we were in a great building in Times Square, and it was just exciting and exhilarating as you can imagine.</v>
+      </c>
+      <c r="B333" t="str" xml:space="preserve">
+        <v xml:space="preserve">Margaret Sullivan säger: — Jag har jobbat på ett litet tidning i California. Jag inledde min karriär på en kvällspost uppsatt som San Bernardino Sun. Strax därefter kom jag till The New York Times. så det var en större bänes— ett stort hopp på många sätt— en slända in i kulturell elitism och ödmjukhet. Det var en underbar, underbar plats att arbeta. Detta var en mycket spännande tid att vara där eftersom vi växte. Vår utskrift vid den tidpunkt var cirka 1.1 miljoner. Vi var en populär dagstidning då det var inte halvkvantiten. 
+</v>
+      </c>
+      <c r="C333">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="334" xml:space="preserve">
+      <c r="A334" t="str">
+        <v>There are a lot of benefits to being a vegetarian, and it can be highly beneficial for both your health and the environment. Vegetarians tend to have lower rates of heart disease, obesity, type II diabetes, some forms of cancer, and many other diseases than people who eat meat. They also consume more fruits and vegetables than people who eat meat, and these nutrients help keep them healthy. Additionally, some pecuarians oppose the hunting and slaughter of animals for their food, which means that they are helping to reduce the amount of animal cruelty going on in the world.</v>
+      </c>
+      <c r="B334" t="str" xml:space="preserve">
+        <v xml:space="preserve">Det finns en hel del fördelar med att vara vegetarian, och det kan vara väldigt bra för både din hälsa och miljön. Vegetarianer tenderar att ha lägre siffror för hjärt-kärlsjukdomar, fetma, typ II diabetes, vissa former av cancer, och många andra sjukdomar än människor som äter kött. De äter också mer frukt och grönt än människor som äter kött, och dessa näringsämnen hjälper dem att hålla sig friska. Dessutom är vissa vegetarianer imot jakt och slakt av djur för deras mat, vilket betyder att de hjälper till att minska mängden djurplågeri som pågår i världen.
+</v>
+      </c>
+      <c r="C334">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="335" xml:space="preserve">
+      <c r="A335" t="str">
+        <v>1. Eat well. Our brains are 60 per cent fat, so we need the good kind of healthy fat—Omega 3—for our brain health. Other nutrients that help our brain include vitamin B, vitamin E, and foods like blueberries and broccoli. Foods like broccoli and blueberries are good for us, but they don’t taste like, say, a meatball sub with cheese fries. What can help is to think how quickly bad food makes us feel bad. It might take us an hour to eat a cheeseburger, but it will take our mood maybe only ten minutes to decline. If healthy food can take that long to digest, surely it is worth waiting for the positive effects? It has long been known how important diet is for physical health. But now there is evidence of how it can benefit our mood too. A study in Biological Psychiatry, for example, found that healthy dietary patterns that included foods like fish, fruit, and vegetables was associated with lower levels of depression.</v>
+      </c>
+      <c r="B335" t="str" xml:space="preserve">
+        <v xml:space="preserve">1. Eat well. Our brains are 60 per cent fat, so we need the good kind of healthy fat—Omega 3—for our brain health. Other nutrients that help our brain include vitamin B, vitamin E, and foods like blueberries and broccoli. Foods like broccoli and blueberries are good for us, but they don’t taste like, say, a meatball sub with cheese fries. What can help is to think how quickly bad food makes us feel bad. It might take us an hour to eat a cheeseburger, but it will take our mood maybe only ten minutes to decline. If healthy food can take that long to digest, surely it is worth waiting for the positive effects? It has long been known how important diet is for physical health. But now there is evidence of how it can benefit our mood too. A study in Biological Psychiatry, for example, found that healthy dietary patterns that included foods like fish, fruit, and vegetables was associated with lower levels of depression.
+2. Ställ frågor. "Fäss, Källa Få tillbaka, ... förundrade, dock inte en-botten verkar, att ett egentligt öfvergångs-ljud redan, mer än en likgiltig bemärkelse Tilsamman, när den första Acronymitet presenterad sin kunnande på Språkets förvandling. Ändtligen, sagen om C. Lexikon besorgt sin fasthållande, att ej ej blott the äldre klenare ord, men ideligen menande ord, såsom sjäcellofwin, Balmbor. = Alarm rörande." Vi bör berömma icke, utan Profeter, att ej bevara, i Orden stora värde, utan dess Krona. Denna senare Öfvergifs allt för med, att det således blifva the snedigera Papen inseynen, raadigt bespelis. lefva, med deras eklippt defekter, they moder, som ämna med igyende stor sikt bringeng aff Modersspraaken. De ifråga om begge Hogtid och orädding, som this, råka i den toårshindrade Sprot, till samma märkudt kunna orsakas. Dock, where förtrornarnas natsraatenhet går äfven utanför i Svennens bål, the boleengoriske buggen, the Senare sin kunnande om se kreatöräkar, om theta förflorur.
+</v>
+      </c>
+      <c r="C335">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="336" xml:space="preserve">
+      <c r="A336" t="str">
+        <v>The person who has applied for a tourist visa from outside the US will be required to pay the fee of $140. This fee is non-refundable and non-transferable. The fee must be paid in cash at the location where the visa application is submitted. This includes persons who wish to travel to the US and apply for adjustment of status to permanent resident (get a green card) while in the US and persons who have other non-immigrant status (F/M), and who wish to apply for an immigrant visa (get a green card) while in the US. Unfortunately, it is not possible to pay the immigrant visa fee at the same location where you submit the immigrant visa application. Payment of the fee must be made to the US Department of State.</v>
+      </c>
+      <c r="B336" t="str" xml:space="preserve">
+        <v xml:space="preserve">Personen som har sökt en turistvisum utanför USA kommer att behöva betala avgift av $ 140. Denna avgift är ej återbetalning och ej överförbar. Avgift måste betalas kontant på platsen där visumansökan inlämnats. Detta gäller personer som önskar resa till USA och ansöka om justering av status till permanent invånare (få ett grönt kort) medan i USA och personer som har andra inte-immigrantskatt (F / M) och som önskar ansöka om ett flyktingmottagning (får ett grönt kort) medan i USA. Tyvärr är det inte möjligt att betala arbetskraften invandringsvisumavgiften på samma plats där du skickar in den invandrarna visering. Betalning av avgift måste göras till USA \'s utrikesdepartement.
+</v>
+      </c>
+      <c r="C336">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="337" xml:space="preserve">
+      <c r="A337" t="str">
+        <v>Social media has become an important part of education. It allows students to connect with each other and share ideas, experiences, and thoughts. Additionally, social media can offer educators a way to measure student engagement and improve teaching techniques. Social media also plays an important role in creating a community for educators, which can help increase their understanding of their students and help them better teach. In addition, social media can be used to promote specific content or courses, which can improve the learning experience for students. Overall, social media has been a powerful tool for educators and has helped them improve their teaching skills as well as their students’ engagement.</v>
+      </c>
+      <c r="B337" t="str" xml:space="preserve">
+        <v xml:space="preserve">Social media has become an important part of education. It allows students to connect with each other and share ideas, experiences, and thoughts. Additionally, social media can offer educators a way to measure student engagement and improve teaching techniques. Social media also plays an important role in creating a community for educators, which can help increase their understanding of their students and help them better teach. In addition, social media can be used to promote specific content or courses, which can improve the learning experience for students. Overall, social media has been a powerful tool for educators and has helped them improve their teaching skills as well as their students’ engagement.
+Sociala medier har blivit viktigt inom utbildningen.
+Det ger studenter en möjlighet att kommunicera och dela erfarenheter och ord.
+Detta gynnar lärare vid uppföljning av lektioner.
+Det förbättrar även deras förståelse av studenterna.
+Sociala medier förenklar även ordning och reda samt stöd.
+Sociala medier har blivit viktigt inom utbildningen.
+Det ger studenter en möjlighet att kommunicera och dela erfarenheter och ord.
+Detta gynnar lärare vid uppföljning av lektioner.
+Det förbättrar även deras förståelse av studenterna.
+Sociala medier förenklar även ordning och reda samt stöd.
+</v>
+      </c>
+      <c r="C337">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="338" xml:space="preserve">
+      <c r="A338" t="str">
+        <v>But the great security against a gradual concentration of the several powers in the same department, consists in giving to those who administer each department the necessary constitutional means and personal motives to resist encroachments of the others. The provision for defense must in this, as in all other cases, be made commensurate to the danger of attack. Ambition must be made to counteract ambition. The interest of the man must be connected with the constitutional rights of the place. It may be a reflection on human nature, that such devices should be necessary to control the abuses of government. But what is government itself, but the greatest of all reflections on human nature? If men were angels, no government would be necessary. If angels were to govern men, neither external nor internal controls on government would be necessary.</v>
+      </c>
+      <c r="B338" t="str" xml:space="preserve">
+        <v xml:space="preserve">Men som stora säkerhet mot en gradvis koncentration av flera krafter i samma avdelning under förutsättning att ge dem som ansvar för varje avdelning de nödvändiga konstitutionella medel och personliga motiv att motstå ingrepp av de andra? Försvars provision måste i detta, liksom i alla andra fall, som ska tyda på risken för attack. Ambitiöst måste göras för att motverka ambitiös. Den intresserade mannen måste vara i samband med konstitutionella rättigheter av platsen. Det kan vara ett avspegling av människans natur, som dessa enheter bör vara nödvändigt att kontrollera missbruk av regeringen. Men vad är, vad regeringen skiljer sig alla återspeglar människans natur? Om män var englar, ingen regering skulle vara nödvändig. Om änglar var att styra män, varken in- eller utrikes kontroller på regeringen skulle vara nödvändigt.
+</v>
+      </c>
+      <c r="C338">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="339" xml:space="preserve">
+      <c r="A339" t="str">
+        <v>All this stuff is so mind-blowing to me that I get to do in my life. Throwing the first pitch out at the White Sox game on a random Wednesday? Like who am I? How did I get this life? I'm glad I'm not jaded, and little kids are the least jaded people in the entire world, so it's fun to be around people that still find wonder in how cool things are.</v>
+      </c>
+      <c r="B339" t="str" xml:space="preserve">
+        <v xml:space="preserve">Att få göra allt det här känns så otroligt. Att bli kastare på ett vittsjö SHARKS match en vanlig onsdag? Vem är jag, hur hamnade jag i denna galna värld? Jag är glad att jag inte är bitter, barn är ju inge vidare bitter, så det är kul att vara med folk som faktiskt är hype för coola saker
+</v>
+      </c>
+      <c r="C339">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="340" xml:space="preserve">
+      <c r="A340" t="str">
+        <v xml:space="preserve"> There is a problem with the way that the website is handling user input. When someone tries to enter text into a text field, the website often doesn't allow them to continue typing because it instead automatically inserts a space. This results in the person being unable to submit their form.</v>
+      </c>
+      <c r="B340" t="str" xml:space="preserve">
+        <v xml:space="preserve"> Det finns ett problem och på det här sättet hemsidan hanterar användarinmatning. När någon försöker skriva in text i ett textfält, den som ofta hemsidan tillåter inte dem att fortsätta att skriva, eftersom ersättas den iställelautomatiskt ett mellanslag. Detta resulterar i att personen vara oförmögen att få fram formuläret.
+</v>
+      </c>
+      <c r="C340">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="341" xml:space="preserve">
+      <c r="A341" t="str">
+        <v>But the great security against a gradual concentration of the several powers in the same department, consists in giving to those who administer each department the necessary constitutional means and personal motives to resist encroachments of the others. The provision for defense must in this, as in all other cases, be made commensurate to the danger of attack. Ambition must be made to counteract ambition. The interest of the man must be connected with the constitutional rights of the place. It may be a reflection on human nature, that such devices should be necessary to control the abuses of government. But what is government itself, but the greatest of all reflections on human nature? If men were angels, no government would be necessary. If angels were to govern men, neither external nor internal controls on government would be necessary. In framing a government which is to be administered by men over men, the great difficulty lies in this: you must first enable the government to control the governed; and in the next place oblige it to control itself. A dependence on the people is, no doubt, the primary control on the government; but experience has taught mankind the necessity of auxiliary precautions.</v>
+      </c>
+      <c r="B341" t="str" xml:space="preserve">
+        <v xml:space="preserve">Men det stora säkerhet mot en gradvis sammandrabbning av den makt i samma avdelning, består i att ge dem som administrera varje avdelning de nödvändiga konstitutionella medel och personliga motiv att motstå intrång av andra. Försörjning för försvaret måste i detta, liksom i alla andra fall, vara interimistisk till faran för attack. Ambition måste ingripas för att motverka ambition. Intresset av mannen måste vara ansluten till det konstitutionella rättigheterna på platsen. Det kan vara en reflektion på mänsklig natur, att sådana enheter bör behövas för att kontrollera överträdelser av regeringen. Men vad är själva styrelsen, utan den största av alla reflektioner på mänsklig natur? Om män var änglar, skulle inga regering vara nödvändigt. Om änglar skulle styra män, varken externa eller interna kontroller på regeringen skulle vara nödvändiga. När han utformar en regering som är att behandlas av män över män, är den stora svårigheten här: man måste först möjliggöra för regeringen att kontrollera de reglerade och i nästa steg tvinga den att kontrollera sig själv. En beroende av folket är utan tvekan den primära kontroll över regeringen, men erfarenhet har lärt mänskligheten nödvändigheten av tillägg av vård.
+</v>
+      </c>
+      <c r="C341">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="342" xml:space="preserve">
+      <c r="A342" t="str">
+        <v>However, there are a few things that businesses need to consider when using social media. The first is that social media can be valuable but can also be risky. For example, if a business doesn’t take enough precautions to ensure their content is accurate or promotional, they may risk losing customer trust and/or respect. Additionally, it’s important that businesses aren’t too dismissive of people who use social media. Sometimes people use social media as a form of communication and outreach, which is valuable. Finally, businesses should make sure they are providing value and fulfilling their commitments on social media. If they don’t, their users may end up cutting them out of their lives.</v>
+      </c>
+      <c r="B342" t="str" xml:space="preserve">
+        <v xml:space="preserve">Det finns några saker som företag behöver överväga när man använder sociala medier. Det första är att sociala medier kan vara värdefullt men kan också vara riskabelt. Till exempel, om en verksamhet inte uppmärksammer nog åtgärder för att försäkra sig om att deras innehåll är korrekt eller befordran, kan de riskera att förlora kundens förtroende och/eller respekt. Dessutom är viktigt att företagen inte så ovärdigt av människor som använder sociala medier. Ibland används sociala medier som ett sätt att kommunicera och utbilda, vilket är värdefullt. Avslutningsvis bör företag se till att de tillhandahåller värde och uppfyller sina åtaganden via sociala medier. Om de inte gör det, kan deras användare riskera att skära ut dem ur sina liv.
+</v>
+      </c>
+      <c r="C342">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="343" xml:space="preserve">
+      <c r="A343" t="str">
+        <v>Emotional stress is the most common type of stress and can be felt from many different causes such as feeling anxious, anxious about the future, or feeling overwhelmed. Physical stress can come from being too busy or overworked, from being injured, or from experiencing a difficult situation. Social stress can come from relationships or from being around people who are unhappy or stress-filled. Financial stress can come from not having enough money to meet your needs or from having to pay bills late. Occupational stress can come from working long hours or from not having enough rest or fun.</v>
+      </c>
+      <c r="B343" t="str" xml:space="preserve">
+        <v xml:space="preserve">Emotional stress is the most common type of stress and can be felt from many different causes such as feeling anxious, anxious about the future, or feeling overwhelmed. Physical stress can come from being too busy or overworked, from being injured, or from experiencing a difficult situation. Social stress can come from relationships or from being around people who are unhappy or stress- filled. Financial stress can come from not having enough money to meet your needs or from having to pay bills late. Occupational stress can come from working long hours or from not having enough rest or fun.
+Känslomässig stress är den vanligaste typen av stress och kan kännas från många olika orsaker, såsom att känna sig oroliga, oroliga för framtiden eller känna sig överväldigad. Fysisk stress kan fås från att vara för upptagen eller utarbetade, att bli skadade eller att uppleva en svår situation. Social stress kan komma från relationer eller att vara runt människor som är olyckliga eller stress-fyllda. Finansiella stress kan komma från att inte ha tillräckligt med pengar för att möta dina behov eller från att behöva betala räkningar. Arbetsrelaterad stress kan komma från att arbeta långa timmar eller att inte få tillräckligt med vila eller roligt.
+</v>
+      </c>
+      <c r="C343">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="344" xml:space="preserve">
+      <c r="A344" t="str">
+        <v>Let no sleep fall upon thy eyes till thou hast thrice re- viewed the transactions of the past day.  Where have I turn-ed aside from rectitude?  What have I been doing?  What haveI left undone, which I ought to have done?  Begin thus from the first act, and proceed; and, in conclusion, at the ill which thou hast done, be troubled, and rejoice for the good.</v>
+      </c>
+      <c r="B344" t="str" xml:space="preserve">
+        <v xml:space="preserve">Låt ingen sömn falla på dina ögon tills du har tre gånger granskat transaktionerna av den föregående dagen. Var har jag vänt sig bort från rättvisa? Vad har jag sysslat med? Vad har jag lämnat outfört, som jag borde ha gjort? Börja så här från det första steget som följer, och inledande, för det onda du har gjort, besväras och glädjas för det goda.
+</v>
+      </c>
+      <c r="C344">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="345" xml:space="preserve">
+      <c r="A345" t="str" xml:space="preserve">
+        <v xml:space="preserve">There are many reasons why this change might happen. First, as businesses become aware of the value of having a diverse workforce, they are able to see the cost-benefit of increasing inclusion. This means that they can afford to invest in establishment of rules and procedures that benefit all employees regardless of sex. Second, businesses have been gradually realizing that successful organizations cannot only rely on hired workers alone; they also needokoaborforce members who can contribute both theory and practice. And finally, recent studies have shown thatreatedworkers fairly improves productivity for all employees (Snyder et al., 2006). Thus, adapting policies and procedures in order to meet the needs of transgender employees is becoming increasingly popular among business leaders.
+Although there are some challenges associated with implementing such policies, I believe that these efforts will result in massive improvements for both men and women working in the workplace. In fact, I predict that over time, we will see an even larger increase in women's representation within businesses - and this growth will be based largely on increased awareness and sensitivity towards minority groups within workplaces.</v>
+      </c>
+      <c r="B345" t="str" xml:space="preserve">
+        <v xml:space="preserve">Det finns många skäl till att detta kan ske. Först, när företagen medveten om värdet av en mångfaldig arbetskraft, de kan se kostnad-nytta av att öka inkludering. Detta innebär att de har råd att investera i etablering av regler och rutiner som fördelar alla anställda oavsett kön. Andra företag har successivt komma fram till att lyckas organisationer kan inte bara lita på anställd arbetstagare ensam, de behöver också Koaborforce medlemmar som kan bidra både teori och praktik. Och slutligen enligt ena studier har visat att skapat anställda rättvist förbättrar produktiviteten för alla anställda (Snyder et al., 2006). Därför anpassning av regler och rutiner för att möta behoven hos transpersoner blir allt populärare bland företagsledare. Även om det finns vissa svårigheter som förknippas med att införa sådana regler, tror jag att dessa ansträngningar kommer att resultera i enorma förbättringar för både män och kvinnor arbetar på arbetsplatsen. I själva verket tror jag att över tid kommer vi att se en ännu större ökning av kvinnors representation inom företag - och denna tillväxt kommer huvudsakligen baseras starkt ökade medvetenhet och känslighet mot minoriteter inom arbetsplatser.
+</v>
+      </c>
+      <c r="C345">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="346" xml:space="preserve">
+      <c r="A346" t="str">
+        <v>Learning about climate change, and its impending effects, is an emotional experience. The distress, anxiety, worry, and/or fear that stem from an overarching awareness of climate change are often considered to be related to the broader concept of ‘psychoterratic syndromes’. This concept was first introduced by the environmental philosopher, Glenn Albrecht, and is defined broadly as ‘psychological responses to negative changes to the state of the Earth’. Terms such as eco anxiety, climate anxiety, and eco distress are often used to describe these negative responses. Also, the related term ‘solastalgia’, broadly defined as distress from the transformation and degradation of one’s home environment, also falls into psychoterratic syndromes. Such concepts are gaining traction in print and online media. For example, Grist Magazine declared climate anxiety as the biggest pop-culture trend of the year in 2019. Additionally, there is a growing recognition of the impact of climate change awareness on mental well-being among researchers and mental health professionals. For instance, the American Psychological Association has defined eco anxiety as ‘a chronic fear of environmental doom’; while the Royal College of Psychiatrists defines eco distress among young people as ‘the wide range of emotions and thoughts young people may experience when they hear bad news about our planet and the environment’. Moreover, mental health professionals have reported counseling individuals dealing with distress about climate change.</v>
+      </c>
+      <c r="B346" t="str" xml:space="preserve">
+        <v xml:space="preserve">Lära of klimatförändringar, och dess kommande konsekvenser, är en känslomässig upplevelse. Plåga, ångest, oro och / eller rädsla som utgår från en övergripande medvetenhet om klimatförändringar anses ofta vara relaterade till det bredare begreppet "Psychoterratic Syndromes". Detta begrepp introducerades först av miljöfilosofen Glenn Albrecht och definieras bred som "psykologiska svar på negativa förändringar av Jordens tillstånd" .
+Begrepp som ekoångest, klimatångest och ekoångest används ibland för att beskriva dessa negativa svar.
+Också den relaterade termen "solastalgia", i stora drag definieras som lidande från förvandling och nedbrytning av sitt hemmamiljö, faller också in på psychoterratic syndromer.
+Sådana koncept kommer att vinna grepp i tryckt och online media.
+Till exempel deklarerade Grist Magazine klimatångest som den största popkulturella trenderna för året 2019.
+Dessutom blir det allt större insikten om påverkan av klimatförändring awareness on mental wellbeing bland forskare och mental hälsoprofessionella.
+Till exempel har den amerikanska psykologiska föreningen definierat ekoångest som 'en kronisk rädsla av doom för miljö'; Medan the Royal College of Psychiatrists definition eko ångest bland unga som 'det breda spektrum av känslor och tankar som unga människor kan uppleva när de får höra dåliga nyheter om vår planet och miljön'.
+Dessutom har mentala hälsoprofessionella rapporterat att de konsulterar personer som hanterar stress kring klimatförändringar.
+</v>
+      </c>
+      <c r="C346">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="347" xml:space="preserve">
+      <c r="A347" t="str" xml:space="preserve">
+        <v xml:space="preserve">There are many benefits to exercise, both physically and mentally. Physical benefits include improved heart health, stronger muscles, reduced fat storage, and an increased ability to move more easily. Mental benefits include better concentration, reduced stress levels, and enhanced moods.
+Physical benefits of exercise include: 
+Improved heart health. Exercise has been shown to improve blood circulation and reduce the risk of heart disease by helping prevent the buildup of plaque on arteries walls. Additionally, regular exercise can help reduce the amount of fat around the midsection, which in turn can reduce the risk of heart disease and stroke.
+Stronger muscles. With regular exercise, you will build muscle tissue that can help you achieve greater strength and endurance when performing physical activity later on in life. This can help you avoid injuries and maintain your current level of physical fitness.
+Reduced fat storage. Exercising regularly can help to reduce the amount of bodyfat stored on your body, which can reduce the risk for obesity and other chronic diseases associated with excess bodyfat.
+Increased ability to move more easily. Regular exercise can also help you increase your mobility so that you are able to do everyday activities with less discomfort or difficulty. This may be particularly beneficial if you have arthritis or any other medical conditions that restrict your ability to move easily.
+Mental benefits of exercise include: 
+Better concentration. Exercise has been shown to improve cognitive function by increasing blood flow to the brain and reducing cortisol levels in the bloodstream. Cortisol is a hormone released during stressful situations that can adversely affect how we think and perform tasks. By reducing cortisol levels, exercise may help improve memory recall and focus while also reducing stress levels overall.
+Reduced stress levels. Exercise has been shown to decrease stress levels by releasing endorphins – hormones that protect the body against pain – in our brains. Endorphins are also responsible for producing positive feelings such as happiness and euphoria. Consequently, being stressed out while trying to workout may lead to negative effects such as fatigue, irritability, and increased anxiety levels. By doing mediation or deep breathing exercises before your workout, you can help ease into a state of relaxation before beginning your routine. This should result in improved mental clarity and energy during your workout session.
+Enhanced moods. Exercise has consistently been shown to improve moods by decreasing stress hormones like cortisol and elevating serotonin levels in the brain. Serotonin is a neurotransmitter responsible for regulating emotional reactions such as happiness, hunger, sleepiness, anxiety, depression, anger, and addiction behavior . Elevated serotonin levels may contribute to an improved sense of well-being after working out due to its role in managing emotions effectively .</v>
+      </c>
+      <c r="B347" t="str" xml:space="preserve">
+        <v xml:space="preserve">Det finns många fördelar med träning, både kroppsligt och funktionshindrande. Fysiska fördelar inkluderar förbättrat hjärthälsa, starkare muskler, minskad fettlagring och en ökad förmåga att lättare kunna röra sig. Psykiska fördelar inkluderar bättre koncentration, reducerade stressnivåer och förbättrade humörer.
+Fysiska fördelar med träning inkluderar: 
+Förbättrad hjärthälsa. Träning har visat sig förbättra blodcirkulationen och minska risken för hjärtsjukdom genom att hjälpa till att förhindra ackumulering av plack på artärväggar. Dessutom kan regelbunden träning bli av med mängden fett runt midjelände, vilket i sin tur minskar risken för hjärt- och kärlproblem.
+Starkare muskler. Med regelbunden träning bygger du upp muskelvävnad som kan hjälpa dig att uppnå större styrka och uthållighet när du är fysiskt aktiv i framtiden. Detta kan hjälpa dig att undvika skador och upprätthålla din nuvarande fysiska kondition.
+Minskad fettlagring. Regelbunden träning kan bidrar till att minska mängden lagrat kroppsfett, som i sin tur kan minska risken för fetma och andra kroniska sjukdomar som hör ihop med att lagra alltför mycket fett..
+Minskad förmåga att röra sig lätt. Regelbunden träning kan också hjälpa dig att öka din rörlighet så att du kan göra vardagliga saker med mindre besvär eller svårigheter. Detta kan vara särskilt fördelaktigt om du har artros eller någon annan medicinskt tillstånd som begränsar din förmåga att lätt kan röra på dig.
+Mental benefits of exercise include: 
+Better concentration. Exercise has been shown to improve cognitive function by increasing blood flow to the brain and reducing cortisol levels in the bloodstream. Cortisol is a hormone released during stressful situations that can adversely affect how we think and perform tasks. By reducing cortisol levels, exercise may help improve memory recall and focus while also reducing stress levels overall.
+Reduced stress levels. Exercise has been shown to decrease stress levels by releasing endorphins – hormones that protect the body against pain – in our brains. Endorphins are also responsible for producing positive feelings such as happiness and euphoria. Consequently, being stressed out while trying to workout may lead to negative effects such as fatigue, irritability, and increased anxiety levels. By doing mediation or deep breathing exercises before your workout, you can help ease into a state of relaxation before beginning your routine. This should result in improved mental clarity and energy during your workout session.
+Enhanced moods. Exercise has consistently been shown to improve moods by decreasing stress hormones like cortisol and elevating serotonin levels in the brain. Serotonin is a neurotransmitter responsible for regulating emotional reactions such as happiness, hunger, sleepiness, anxiety, depression, anger, and addiction behavior . Elevated serotonin levels may contribute to an improved sense of well-being after working out due to its role in managing emotions effectively .
+</v>
+      </c>
+      <c r="C347">
+        <v>1511</v>
+      </c>
+    </row>
+    <row r="348" xml:space="preserve">
+      <c r="A348" t="str" xml:space="preserve">
+        <v xml:space="preserve">The Scopes trial of 1925 was one of the most significant events in American History. The trial was fought over the belief of creationism, or the belief that God created the universe and all that exists within it in its present form. The trial pitted science against religion and it was seen as a battle between the individual and the establishment.
+The trial began in Dayton, Tennessee on February 24th and ended on March 25th. The trial was presided over by John T. Scopes and it involved the trial of William Jennings Bryan, a well-known religious figure who was the most vocal opponent of creationism. Bryan was charged with breaking the Tennessee law against teaching evolution, which was seen by many as an attack on religious beliefs.
+The trial was a famous one and it had a large impact on American society. The outcome of the trial was controversial and it created a divide in the American public. The majority of the population believed in evolution and saw the trial as a battle between science and religion. However, there was a small group of people who believed in creationism and they saw the trial as a battle between good and evil.
+The trial was a significant event in American History because it created a divide in the American public. The majority of the population believed in evolution and saw the trial as a battle between science and religion. However, there was a small group of people who believed in creationism and they saw the trial as a battle between good and evil. The outcome of the trial was controversial and it created a divide in the American public. The majority of the population believed in evolution and saw the trial as a battle between science and religion. However, there was a small group of people who believed in creationism and they saw the trial as a battle between good and evil. The outcome of the trial was controversial and it created a divide in the American public. The majority of the population believed in evolution and saw the trial as a battle between science and religion. However, there was a small group of people who believed in creationism and they saw the trial as a battle between good and evil.</v>
+      </c>
+      <c r="B348" t="str" xml:space="preserve">
+        <v xml:space="preserve">The Scopes trial of 1925 was one of the most significant events in american history.
+The trial was fought over the belief of creationism, or the belief that God created the universe and all that exists within it in its present form.
+The trial pitted science against religion and it was seen as a battle between the individual and the establishment.
+The trial began in Dayton, Tennessee on February 24th and ended on March 25th.
+The trial was presided over by John T. Scopes and it involved the trial of William Jennings Bryan, a well-known religious figure who was the most vocal opponent of creationism.
+Bryan was charged with breaking the Tennessee law against teaching evolution, which was seen by many as an attack on religious beliefs.
+The trial was a famous one and it had a large impact on american society.
+The outcome of the trial was controversial and it created a divide in the american public.
+The majority of the population believed in evolution and saw the trial as a battle between science and religion.
+However, there was a small group of people who believed in creationism and they saw the trial as a battle between good and evil.
+The trial was a significant event in american history because it created a divide in the american public.
+The majority of the population believed in evolution and saw the trial as a battle between science and religion.
+However, there was a small group of people who believed in creationism and they saw the trial as a battle between good and evil.
+The outcome of the trial was controversial and it created a divide in the american public.
+The majority of the population believed in evolution and saw the trial as a battle between science and religion.
+However, there was a small group of people who believed in creationism and they saw the trial as a battle between good and evil.
+The outcome of the trial was controversial and it created a divide in the american public.
+The majority of the population believed in evolution and saw the trial as a battle between science and religion.
+However, there was a small group of people who believed in creationism and they saw the trial as a battle between good and evil.
+</v>
+      </c>
+      <c r="C348">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="349" xml:space="preserve">
+      <c r="A349" t="str">
+        <v>Understand that old people aren’t actually that worried about old age, according to numerous surveys. The most recent one I can find was undertaken by American research firm NORC in 2016. It polled over 3,000 adults and found that old people are more optimistic about growing old than younger adults: 46 percent of thirty-somethings said they were optimistic about aging, compared to 66 percent for the seventy-pluses. It seems that worrying about growing old is a sign you are young. And the main reason to be optimistic about old age is that old people themselves are. Resilience seems to grow.</v>
+      </c>
+      <c r="B349" t="str" xml:space="preserve">
+        <v xml:space="preserve">पुराने लोगों को अपने बदलते हुए ऊपर नहीं कम चिंता है, अधिकतर जाँचों के अनुसार है। मैं प्राप्त की सर्वश्रेष्ठ झूठा लगाने की कोशिश कर रहा तो अमेरिकी शोध निगम NORC ने 2016 में पैदा किया था। यह पुरुषों और जवान वयस्कों से अधिक वृद्धि से बढ़ते हुए वृद्धि की विश्वासक्त पुराने लोगों में पाया: तीसरा ही कुछ प्रतिशत फोर्टीज़ ने कहा कि उन्हें वृद्धि पर विश्वासपूर्ण, संयोग पाया। वस्तु की कलमानपाया कि सूखी बढ़ने की चिंता का एक संकेत है जो आप युवा हैं। और मुख्य कारण वृद्धि की विश्वासकारी है कि पुरानी लोग खुद में हैं। प्रतिरोधकता चढ़ने का ज्यादा अधिक का लगता है।
+</v>
+      </c>
+      <c r="C349">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="350" xml:space="preserve">
+      <c r="A350" t="str">
+        <v>I'm a morning person because I learned to write my novels while still practicing law. I would get to the office at 6:30 a.m. and write until other people arrived, around 9. Now I still do that. I start at 6:30 or 7, and I'll write until 11, then take an hour off, then work until about 2 p.m. By then my brain has had enough.</v>
+      </c>
+      <c r="B350" t="str" xml:space="preserve">
+        <v xml:space="preserve">Jag är en morgon människa eftersom jag lärt mig att försöka mina romaner medan fortfarande praxis lag.
+Jag skulle komma till kontoret runt 6:30 och skriva tills andra människor anlände, runt 9.
+I fortfarande gör det.
+Jag startar kl 6:30 eller 7, och jag ska skriva fram till 11, tar därefter en timme ut, sen arbetar fram till kl 2. Vid tidpunkten har min hjärna fått nog.
+</v>
+      </c>
+      <c r="C350">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="351" xml:space="preserve">
+      <c r="A351" t="str">
+        <v>The impact of climate change on the mental health of young people is poorly understood. Emerging evidence suggests that exposure to climate change exerts a disproportionate mental health burden on young people. An understanding of the risk factors (RFs) and protective factors (PFs) that affect the likelihood of mental health impacts arising from exposure to climate change is required to support youth wellbeing. Aims/objectives: This review scopes the current research on what and how RFs and PFs are related to the mental health impacts of both direct and indirect exposure to climate change for young people. RFs and PFs were reviewed through the lens of ecological system theory. Methods: We conducted systematic searches in four databases: PubMed, PsycInfo, Web of Science, and Scopus. Grey literature searches were conducted in ProQuest Dissertations, GreyLit.org, OpenGrey, and relevant organisations’ websites. We included 92 empirical studies focused on the RFs and PFs of the mental wellbeing under the impact of climate change of young people (0–24). We extracted data on study characteristics, type of climate change event, mental health outcomes, RFs and PFs, and associated ecological system level. Results: The current evidence base focuses predominantly on young people’s experience of PTSD (k = 59), depression (k = 26), or anxiety (k = 17) mainly following exposure to singular climate change-related natural disaster events. Only four studies explored the impacts of climate change in general. Majority of the studies investigated RFs and PFs at the individual level and at the micro-system level. Conclusions: Several RFs and PFs were identified, such as coping strategies, family factors (e.g. parenting style), social support, community connection, and cultural identity. Positioning the mental health impacts of singular events within the broader context of ongoing and escalating climate change impacts will better inform the development of interventions that seek to build resilience among young people.</v>
+      </c>
+      <c r="B351" t="str" xml:space="preserve">
+        <v xml:space="preserve">Avklimatiseringens påverkan på ungdomars mentala hälsa är dåligt förstådd. Nyuppkomna bevis tyder på att exponering för klimatförändringar utövar en orimligt stor börda på ungdomar på planen mental hälsa. För att stöda ungdomars välbefinnande krävs ett förstånd för de riskfaktorer (RF) och den skyddsåtgärder (PF) som påverkar möjligheten att påverkas av avklimatisering. Syfte: Den här översynen skisserar den nuvarande forskningen på vad och hur som RF och PF är relaterade till månsklighetens psykologiska pådrev som kommer från både användning och icke-avledning av avklimatisering. RF och PF granskades enligt sylta för ekologiskt systemperspektiv. Metoder: Vi genomförde systematisk granskningar i fyra databaser: PubMed, PsycInfo, Web of Science och Skopos. Grannygranskningar utfördes på ProQuest Avhandling, GreyLit.org,OpenGrey samt relaterade organisationswebbplatser. Vi inkluderade nittiotvå empiriska studier som är fokuserade på RF och PF för mental välbefinnande under avklimatiseringens påverkan för ung mänsklighet (0–24 år). Vi tog ut data på studiekaraktärer, typ av avklimatiseringsevent, psykologiska hälsoeffekter, RF och PF, och relaterad ekologisk systemnivå. Resultat: Det nuvarande forskningen fokuserar till stor del på ungdomarnas upplevelser av PTSD (k = 59), depression (k = 26) eller ångest (k = 17) som är huvudsakligen efter exponering för specifika avklimatiseringsevent av naturkatterastrof. Endast fyra studier undersökte effekterna av allmän avklimatisering. Majoriteten av studier granskade RF och PF på individnivå och mikrosystemnivå. Sammanfattning: Flera RF och PF identifierades, som anpassningsstrategier, familjfaktorer (t.ex. föräldraskap stil), social stöd, community connection, och kulturell identitet. Om man positionerar psykologiska effekter från enstaka händelser inom ramen för pågående och förvärvande avklimatiseringseffekter, kommer hjälpa till att göra det möjligt att utveckla offensiv till att stödja härdighet bland ungdomar.
+</v>
+      </c>
+      <c r="C351">
+        <v>1612</v>
+      </c>
+    </row>
+    <row r="352" xml:space="preserve">
+      <c r="A352" t="str">
+        <v>My manner of thinking, so you say, cannot be approved. Do you suppose I care? A poor fool indeed is he who adopts a manner of thinking for others! My manner of thinking stems straight from my considered reflections; it holds with my existence, with the way I am made. It is not in my power to alter it; and were it, I'd not do so.</v>
+      </c>
+      <c r="B352" t="str" xml:space="preserve">
+        <v xml:space="preserve">Min manér att tänka så säger du inte kan godkännas. Tror du att jag oroar sig ?
+En dålig tok faktiskt är han som införskaffar en manér att tänka för andra !
+Min manér att tänka kommer rakt från mitt övervägande reflektioner ; det håller med min existens , med sättet jag är gjord .
+Det är inte i min förmåga att ändra det och om det var , skulle jag inte göra det.
+</v>
+      </c>
+      <c r="C352">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="353" xml:space="preserve">
+      <c r="A353" t="str" xml:space="preserve">
+        <v xml:space="preserve">There are many benefits to exercise, both physically and mentally. Physical benefits include improved heart health, stronger muscles, reduced fat storage, and an increased ability to move more easily. Mental benefits include better concentration, reduced stress levels, and enhanced moods.
+Physical benefits of exercise include: 
+Improved heart health. Exercise has been shown to improve blood circulation and reduce the risk of heart disease by helping prevent the buildup of plaque on arteries walls. Additionally, regular exercise can help reduce the amount of fat around the midsection, which in turn can reduce the risk of heart disease and stroke.
+Stronger muscles. With regular exercise, you will build muscle tissue that can help you achieve greater strength and endurance when performing physical activity later on in life. This can help you avoid injuries and maintain your current level of physical fitness.
+Reduced fat storage. Exercising regularly can help to reduce the amount of bodyfat stored on your body, which can reduce the risk for obesity and other chronic diseases associated with excess bodyfat.
+Increased ability to move more easily. Regular exercise can also help you increase your mobility so that you are able to do everyday activities with less discomfort or difficulty. This may be particularly beneficial if you have arthritis or any other medical conditions that restrict your ability to move easily.
+Mental benefits of exercise include: 
+Better concentration. Exercise has been shown to improve cognitive function by increasing blood flow to the brain and reducing cortisol levels in the bloodstream. Cortisol is a hormone released during stressful situations that can adversely affect how we think and perform tasks. By reducing cortisol levels, exercise may help improve memory recall and focus while also reducing stress levels overall.
+Reduced stress levels. Exercise has been shown to decrease stress levels by releasing endorphins – hormones that protect the body against pain – in our brains. Endorphins are also responsible for producing positive feelings such as happiness and euphoria. Consequently, being stressed out while trying to workout may lead to negative effects such as fatigue, irritability, and increased anxiety levels. By doing mediation or deep breathing exercises before your workout, you can help ease into a state of relaxation before beginning your routine. This should result in improved mental clarity and energy during your workout session.
+Enhanced moods. Exercise has consistently been shown to improve moods by decreasing stress hormones like cortisol and elevating serotonin levels in the brain. Serotonin is a neurotransmitter responsible for regulating emotional reactions such as happiness, hunger, sleepiness, anxiety, depression, anger, and addiction behavior . Elevated serotonin levels may contribute to an improved sense of well-being after working out due to its role in managing emotions effectively .</v>
+      </c>
+      <c r="B353" t="str" xml:space="preserve">
+        <v xml:space="preserve">There are many benefits to exercise, both physically and mentally. Physical benefits include improved heart health, stronger muscles, reduced fat storage, and an increased ability to move more easily. Mental benefits include better concentration, reduced stress levels, and enhanced moods.
+Physical benefits of exercise include: 
+Improved heart health. Exercise has been shown to improve blood circulation and reduce the risk of heart disease by helping prevent the buildup of plaque on arteries walls. Additionally, regular exercise can help reduce the amount of fat around the midsection, which in turn can reduce the risk of heart disease and stroke.
+Stronger muscles. With regular exercise, you will build muscle tissue that can help you achieve greater strength and endurance when performing physical activity later on in life. This can help you avoid injuries and maintain your current level of physical fitness.
+Reduced fat storage. Exercising regularly can help to reduce the amount of bodyfat stored on your body, which can reduce the risk for obesity and other chronic diseases associated with excess bodyfat.
+Increased ability to move more easily. Regular exercise can also help you increase your mobility so that you are able to do everyday activities with less discomfort or difficulty. This may be particularly beneficial if you have arthritis or any other medical conditions that restrict your ability to move easily.
+Mental benefits of exercise include: 
+Better concentration. Exercise has been shown to improve cognitive function by increasing blood flow to the brain and reducing cortisol levels in the bloodstream. Cortisol is a hormone released during stressful situations that can adversely affect how we think and perform tasks. By reducing cortisol levels, exercise may help improve memory recall and focus while also reducing stress levels overall.
+Reduced stress levels. Exercise has been shown to decrease stress levels by releasing endorphins – hormones that protect the body against pain – in our brains. Endorphins are also responsible for producing positive feelings such as happiness and euphoria. Consequently, being stressed out while trying to workout may lead to negative effects such as fatigue, irritability, and increased anxiety levels. By doing mediation or deep breathing exercises before your workout, you can help ease into a state of relaxation before beginning your routine. This should result in improved mental clarity and energy during your workout session.
+Enhanced moods. Exercise has consistently been shown to improve moods by decreasing stress hormones like cortisol and elevating serotonin levels in the brain. Serotonin is a neurotransmitter responsible for regulating emotional reactions such as happiness, hunger, sleepiness, anxiety, depression, anger, and addiction behavior . Elevated serotonin levels may contribute to an improved sense of well-being after working out due to its role in managing emotions effectively .
+Det finns många fördelar med motion, både fysiskt och mentalt. Fysiska fördelar som förbättrad hjärthälsa, starkare muskler, minskad fettlagring och ökad rörlighet. Mentala fördelar inkluderar bättre koncentration, minskad stressnivå och förbättrat humör.
+Fysiska fördelar med motion är: 
+Förbättrad hjärthälsa. Motion har visat sig förbättra blodcirkulationen och minska risken för hjärtproblem genom att förhindra uppbyggnad av plack på artärväggarna. Dessutom kan regelbunden motion hjälpa till med att minska mängden fett runt midjan, vilket i sin tur kan minska risken för hjärtproblem och stroke.
+Starkare muskler. Genom att träna regelbundet bygger du muskelvävnad som kan hjälpa dig att uppnå större styrka och uthållighet när du utför fysisk aktivitet senare i livet. Detta kan hjälpa dig att undvika skador och bibehålla din nuvarande fysiska kondition.
+Minskad fettlagring. Genom att regelbundet träna kan du hjälpa till att minska mängden fett som lagras på din kropp, vilket kan reducera risken för fetma och andra kroniska sjukdomar som är relaterade till överflödig kroppsfett.
+Ökad rörlighet. Regelbunden motion kan också hjälpa dig att öka dina rörlighetsmöjligheter så att du kan göra vardagliga aktiviteter med mindre obehag eller svårighet. Detta kan vara speciellt fördelaktigt om du har artros eller någon annan medicinsk tillstånd som begränsar din rörlighet.
+Många människor med skador i lederna, förbättrar sin rörlighet och minskar smärta genom styrketräning. Det är också bevisat att motion är viktigt för att förhindra sjukdomar av livsstilen och övervikt, t.ex hjärt-kärlsjukdomar och typ 2-diabetes.
+Man minskar också stress och trötthetsbesvär då man bedriver regelbundna träningsaktiviteter.
+Man kan välja bland flera olika former av sportliknande aktiviteter, såsom att dansa, spela fotboll, cykla, simma, skidåkning, löpning eller tennis.
+Om du är ny på några fysiska aktiviteter, eller har nyligen återhämtat sig från en viss sjukdom, så räkna med att en lätt styrketräning och andra aeroba övningar, som att cykla eller gå.
+</v>
+      </c>
+      <c r="C353">
+        <v>1488</v>
+      </c>
+    </row>
+    <row r="354" xml:space="preserve">
+      <c r="A354" t="str">
+        <v>I've been on so many movies. Generally, I haven't gotten to be on the ground level. As of two years ago, in 'Dear John,' I got to really be on the ground floor. I wasn't a producer. I felt like I put the work in, and I did have a lot of sway on what got fixed, reshoots, so on and so forth. It felt really good.</v>
+      </c>
+      <c r="B354" t="str" xml:space="preserve">
+        <v xml:space="preserve">Jag har varit på så många filmer. I allmänhet har jag inte fått vara på marknivå. Sedan två år tillbaka, i 'Dear John,' jag fick verkligen vara på markplan. Jag var inte en producent. Jag kände mig som jag gjorde insatsen, och jag hade verkligen mycket svängrum på vad som blev fixat, omfilmat, osv. It kändes verkligen bra.
+</v>
+      </c>
+      <c r="C354">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="355" xml:space="preserve">
+      <c r="A355" t="str">
+        <v>For my birthday this year, my girlfriends - who knew I'd just inherited my dad's turntable - gave me a carton of albums like 'Blue Kentucky Girl,' by Emmylou Harris, and 'Off the Wall,' by Michael Jackson. It's all stuff we grew up with. I mean, you can't have a music collection without Prince's 'Purple Rain' - it just can't be done!</v>
+      </c>
+      <c r="B355" t="str" xml:space="preserve">
+        <v xml:space="preserve">I år för mitt födelsedag, min flickvänner - som visste att jag hade bara arv fars turntable - gav mig en kartong med skivor 'Blue Kentucky Girl', av Emmylou Harris, och 'Off the Wall' av Michael Jackson. Det är alla saker vi växte upp med. Jag menar, du kan inte ha en musik samling utan Prince's 'Purple Rain' - det kan inte göras!
+</v>
+      </c>
+      <c r="C355">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="356" xml:space="preserve">
+      <c r="A356" t="str" xml:space="preserve">
+        <v xml:space="preserve">The Scopes trial of 1925 was one of the most significant events in American History. The trial was fought over the belief of creationism, or the belief that God created the universe and all that exists within it in its present form. The trial pitted science against religion and it was seen as a battle between the individual and the establishment.
+The trial began in Dayton, Tennessee on February 24th and ended on March 25th. The trial was presided over by John T. Scopes and it involved the trial of William Jennings Bryan, a well-known religious figure who was the most vocal opponent of creationism. Bryan was charged with breaking the Tennessee law against teaching evolution, which was seen by many as an attack on religious beliefs.
+The trial was a famous one and it had a large impact on American society. The outcome of the trial was controversial and it created a divide in the American public. The majority of the population believed in evolution and saw the trial as a battle between science and religion. However, there was a small group of people who believed in creationism and they saw the trial as a battle between good and evil.
+The trial was a significant event in American History because it created a divide in the American public. The majority of the population believed in evolution and saw the trial as a battle between science and religion. However, there was a small group of people who believed in creationism and they saw the trial as a battle between good and evil. The outcome of the trial was controversial and it created a divide in the American public. The majority of the population believed in evolution and saw the trial as a battle between science and religion. However, there was a small group of people who believed in creationism and they saw the trial as a battle between good and evil. The outcome of the trial was controversial and it created a divide in the American public. The majority of the population believed in evolution and saw the trial as a battle between science and religion. However, there was a small group of people who believed in creationism and they saw the trial as a battle between good and evil.</v>
+      </c>
+      <c r="B356" t="str" xml:space="preserve">
+        <v xml:space="preserve">Det Scopesprocessen 1926 var en av de viktigaste händelser i amerikansk historia. Rättegången striden över tron på skapelse, eller tron att Gud skapat universum och allt som finns inom det i sin nuvarande form. Av världen omöjliggör rena argument utbildningen mot religion och sågs som en kamp mellan individen och etablissemanget.
+Rättegången började i Dayton, Tennessee på 24 februari och slutade den 25 mars. Av världen fördes av John T. skopor och den involverade rättegången William Jennings Bryan, en känd religiöst som bröt utan ändedrag av skapelse. Bryan anklagades för att bryta den Tennessee mot lagen undervisning om de utvecklade barnen i huvudet, vilket sågs av många som ett angrepp på religiösa övertygelser.
+Rättegången var en berömd den och hade en stor inverkan på den amerikanska samhället. Av världen i huvudviklet resultatet var kontroversiellt och skapade ett klyfta i den amerikanska allmänheten. Majoriteten av befolkningen trodde på utveckling och såg rättegången som en kamp mellan vetenskap och religion. Men det fanns ett litet antal människor som trodde på skapelse och de såg rättegången som en kamp mellan gott och ont.satta över huvudet grunderna vetaång för grunderna klimatgränser.
+</v>
+      </c>
+      <c r="C356">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="357" xml:space="preserve">
+      <c r="A357" t="str">
+        <v>Each company we are engaged in has a dedicated business team, consisting of our board representatives in the company and investment professionals at Investor. The business teams build company knowledge, benchmark versus competition and evaluate corporate structures</v>
+      </c>
+      <c r="B357" t="str" xml:space="preserve">
+        <v xml:space="preserve">Varje bolag vi ar investerade i har en dedikerad affarsgrupp bestaende av varsxOKA representationsbolag och investerarrepresentanter. Hasten affarsprofessorer bygger bolagskansla, konkurrensmassigt mot konkurrensen, och prova hur lange de anda organiseras col
+</v>
+      </c>
+      <c r="C357">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="358" xml:space="preserve">
+      <c r="A358" t="str">
+        <v>On the political front, of course it's a zero-sum game. If it's all white males holding positions, you bring 10 women in, then it's, 'Women are coming!' Get 10 blacks and it's, 'Blacks are coming!' 'Hispanics are coming!' Zero-sum game. The seatmates might change but the chairs don't move. In the economy, the number of chairs can actually increase.</v>
+      </c>
+      <c r="B358" t="str" xml:space="preserve">
+        <v xml:space="preserve">På den politiska fronten är det, naturligtvis, ett nulsummespel. Om det är alla vit amerikaner som håller positionerna, investerar du 10 kvinnor, då är det, "Kvinnor kommer' Få 10 svarte och det är, 'svarte kommer' 'spanioler kommer' nul operasjon. den svarv men kan byta men stolarna röra sig inte. i ekonomi, antalet stolar kan faktiskt ökas.
+</v>
+      </c>
+      <c r="C358">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="359" xml:space="preserve">
+      <c r="A359" t="str" xml:space="preserve">
+        <v xml:space="preserve">Precautionary Regulation
+A further important difference between their regulatory systems is that the scientific assessment of physical risks, the heart piece of the GM product authorization processes, follows different approaches (Seifert 2005). Whereas the USA requires that restrictions are based on scientifically proven risks, the EU embraces the precautionary principle which concedes that GM products can be prohibited in the light of convincing arguments alone even though scientifically unproven. These regulatory differences between the USA and the EU do not only reflect deep-reaching legal consequences of the anti-biotech movement. They also highlight the fact that risks to human health and the environment, which constitute the regulatory bottlenecks of product innovation, need to be understood as scientific and legal constructs rather than mere scientific facts. Thus, the newly emerging precautionary principle also constitutes a case of social innovation in that it deals with dangers arising in the context of post-normal science, that is, high uncertainty and political stakes.
+Alternatives to Productivist Agriculture
+The comprehensive European reaction also illustrates another social innovation when looked at against the backdrop of the promissory predictions that accompanied agro-food biotechnology’s industrial advance. Biotechnology has been presented as key technology which no national economy could allow to disregard at risk of being left behind. In the EU, however, an alternative paradigm took hold. Firstly, European producers and consumers get along well without agro-biotech. (With the exception of animal feed stuff which still contains quantities of imported GM materials.) Secondly, GM-free agricultural production goes well with EU agricultural policy which is torn between the conflicting goals of world market competition, protectionism, and multifunctionality. European agricultural policy, struggling with overproduction and environmental degradation on the one hand, and competition by ascending agro-producing world regions on the other, has increasingly resorted to policies designed to curb production and, at least in some countries, keep uncompetitive farming in business. Agricultural GMOs are production-enhancing technologies. Besides their alleged environmental side effects and health risks, this is the major criticism raised against GMOs: agro-biotech industry designed them to excel in capital-intensive, productivist agriculture. It is argued that this dominant type of agriculture accounts for much of the environmental crisis and comes at high social cost as it forces small farmers out of business while large-scale farming and agro-business reap the profits. Agro-biotech’s opponents argue that agriculture’s current ecological and social challenges call for political and social innovations rather than technical enhancement. If agriculture is to become sustainable, it needs to deplete less resource, to minimize loss of biodiversity and to offer income opportunities to a greater portion of the rural population. The EU region, due to its affluence and high level of political integration, has proved to be in a superior position to develop such alternative social innovations.</v>
+      </c>
+      <c r="B359" t="str" xml:space="preserve">
+        <v xml:space="preserve">http://www.latintimes.com/proposed-cuba-bill-faces-stiff-opposition-from-house-republicans-296670
+Precautionary Regulation
+A further important difference between their regulatory systems is that the scientific assessment of physical risks, the heart piece of the GM product authorization processes, follows different approaches (Seifert 2005). Whereas the USA requires that restrictions are based on scientifically proven risks, the EU embraces the precautionary principle which concedes that GM products can be prohibited in the light of convincing arguments alone even though scientifically unproven. These regulatory differences between the USA and the EU do not only reflect deep-reaching legal consequences of the anti-biotech movement. They also highlight the fact that risks to human health and the environment, which constitute the regulatory bottlenecks of product innovation, need to be understood as scientific and legal constructs rather than mere scientific facts. Thus, the newly emerging precautionary principle also constitutes a case of social innovation in that it deals with dangers arising in the context of post-normal science, that is, high uncertainty and political stakes.
+Alternatives to Productivist Agriculture
+The comprehensive European reaction also illustrates another social innovation when looked at against the backdrop of the promissory predictions that accompanied agro-food biotechnology’s industrial advance. Biotechnology has been presented as key technology which no national economy could allow to disregard at risk of being left behind. In the EU, however, an alternative paradigm took hold. Firstly, European producers and consumers get along well without agro-biotech. (With the exception of animal feed stuff which still contains quantities of imported GM materials.) Secondly, GM-free agricultural production goes well with EU agricultural policy which is torn between the conflicting goals of world market competition, protectionism, and multifunctionality. European agricultural policy, struggling with overproduction and environmental degradation on the one hand, and competition by ascending agro-producing world regions on the other, has increasingly resorted to policies designed to curb production and, at least in some countries, keep uncompetitive farming in business. Agricultural GMOs are production-enhancing technologies. Besides their alleged environmental side effects and health risks, this is the major criticism raised against GMOs: agro-biotech industry designed them to excel in capital-intensive, productivist agriculture. It is argued that this dominant type of agriculture accounts for much of the environmental crisis and comes at high social cost as it forces small farmers out of business while large-scale farming and agro-business reap the profits. Agro-biotech’s opponents argue that agriculture’s current ecological and social challenges call for political and social innovations rather than technical enhancement. If agriculture is to become sustainable, it needs to deplete less resource, to minimize loss of biodiversity and to offer income opportunities to a greater portion of the rural population. The EU region, due to its affluence and high level of political integration, has proved to be in a superior position to develop such alternative social innovations.
+</v>
+      </c>
+      <c r="C359">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="360" xml:space="preserve">
+      <c r="A360" t="str">
+        <v>A couple of months ago, I was down in Florida for the Food and Wine Festival. And this journalist grabbed me and said, 'How does it feel to be a TV guy? You're no longer in the restaurant business.' And I laughed. I asked him, 'How long do you think it takes me to do a season?' He said, 'Well, 200 days.' And I was like, '200 days? Try 20!'</v>
+      </c>
+      <c r="B360" t="str" xml:space="preserve">
+        <v xml:space="preserve">A couple of months ago, I was down in Florida for the Food and Wine Festival. And this journalist grabbed me and said, 'Hur känns det att vara en televisionskille? Du är inte längre i restaurant business.' And I laughed. I asked him, 'Hur länge tror du det tar mig att göra en season?' He said, 'Well, 200 dagar.' And I was like, '200 dagar? Försöka 20!'
+</v>
+      </c>
+      <c r="C360">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="361" xml:space="preserve">
+      <c r="A361" t="str">
+        <v>I mean the beauty of being a writer is it's not like being a swimmer. When they were talking about our Olympic swimmers and they'd say, 'Oh she's so old,' and she's all of 25 or something. So the beauty for a writer is that you can keep doing it right into your dotage, and I hope to be able to keep doing it as long as I can get away with it, yeah.</v>
+      </c>
+      <c r="B361" t="str" xml:space="preserve">
+        <v xml:space="preserve">&lt;h1&gt;Talisen&lt;/h1&gt;
+&lt;h3&gt;Ett talvärme-spel&lt;/h3&gt;
+&lt;h4&gt;&lt;a href="https://www.youtube.com/watch?v=GuwnZWL-xuQ"&gt;Spelet&lt;/a&gt;&lt;/h4&gt;
+&lt;p&gt;&lt;i&gt;En iskall speluppgift. Spelaren får jobba hår och skär för att inte frysa ihjäl.&lt;/i&gt;&lt;/p&gt;
+&lt;p&gt;"&lt;a href="https://www.youtube.com/watch?v=GuwnZWL-xuQ"&gt;Talisen&lt;/a&gt;" är Ben Schaufischs första projekt som slutrapport för Ersättning. "Talisen" är ett spel där spelaren försöker överleva så längst i ett kallt landskap. 
+Det finns ingen avsedd historia för dessutom är det ett actionspel.&lt;/p&gt;
+&lt;h5&gt;Mål:&lt;/h5&gt;
+&lt;ul&gt;
+&lt;li&gt;Överleva så längst&lt;/li&gt;
+&lt;li&gt;Hitta föremål och värme och låt din lagnet röra sig&lt;/li&gt;
+&lt;li&gt;Skaffa poäng med tiden&lt;/li&gt;
+&lt;li&gt;Hitta nycklar och skärp dig&lt;/li&gt;
+&lt;li&gt;Skaffa rubiner&lt;/li&gt;
+&lt;li&gt;Lås upp sidospel&lt;/li&gt;
+&lt;/ul&gt;
+&lt;h5&gt;Anmerkningar:&lt;/h5&gt;
+&lt;p&gt;&lt;em&gt;Testa spelet!&lt;/em&gt; Om fullversionen eller beta av denna bonus/extramaterial (t.ex. boxen, OST, idébok, rollboken) eller
+du önskar ändringar av detta dokument. &lt;/p&gt;
+</v>
+      </c>
+      <c r="C361">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="362" xml:space="preserve">
+      <c r="A362" t="str" xml:space="preserve">
+        <v xml:space="preserve">Extracting opinions from texts is a daunting task. It requires a thorough understanding of the semantic, syntactic, explicit, and implicit rules of a language. Also, because sentiment analysis is carried out by a computer system with a typical focus on analyzing documents on a particular topic, off-topic passages containing irrelevant information may also be included in the analyses (e.g., a document may contain information on multiple topics). This could result in creating inaccurate global sentiment polarities about the main topic being analyzed. Therefore, the computer system must be able to adequately screen and distinguish opinions that are not relevant to the topic being analyzed. Relatedly, for the machine learning-based approach, a sentiment classifier trained on a certain domain (e.g., car reviews) may perform well on the particular topic, but may not when applied to another domain (e.g., computer review). The issue of domain independence is another important challenge.
+Also, the complexities of human communication limit the capacity of sentiment analysis to capture nuanced, contextual meanings that opinion holders actually intend to communicate in their messages. Examples include the use of sarcasm, irony, and humor in which context plays a key role in conveying the intended message, particularly in cases when an individual says one thing but means the opposite. For example, someone may say “nice shirt,” which implies positive sentiment if said sincerely but implies negative sentiment if said sarcastically. Similarly, words such as “sick,” “bad,” and “nasty” may have reversed sentiment orientation depending on context and how they are used. For example, “My new car is sick!” implies positive sentiment toward the car. These issues can also contribute to inaccuracies in sentiment analysis.
+Altogether, despite these limitations, the computational study of opinions provided by sentiment analysis can be beneficial for practical purposes. So long as individuals continue to share their opinions through online user-generated media, the possibilities for entities seeking to gain meaningful insights into the opinions of key publics will remain. Yet, challenges to sentiment, analysis such as those discussed above, pose significant limitations to its accuracy and thus its usefulness in decision-making.</v>
+      </c>
+      <c r="B362" t="str" xml:space="preserve">
+        <v xml:space="preserve">Att extrahera åsikter från texter är en krävande uppgift. Det kräver en fast förståelse av semantiska, syntaktiska, explicita, och implicita regler för en språk.  
+Also, the complexities of human communication limit the capacity of sentiment analysis to capture nuanced, contextual meanings that opinion holders actually intend to communicate in their messages. Examples include the use of sarcasm, irony, and humor in which context plays a key role in conveying the intended message, particularly in cases when an individual says one thing but means the opposite. For example, someone may say “nice shirt,” which implies positive sentiment if said sincerely but implies negative sentiment if said sarcastically. Similarly, words such as “sick,” “bad,” and “nasty” may have reversed sentiment orientation depending on context and how they are used. For example, “My new car is sick!” implies positive sentiment toward the car. These issues can also contribute to inaccuracies in sentiment analysis.
+Altogether, despite these limitations, the computational study of opinions provided by sentiment analysis can be beneficial for practical purposes. So long as individuals continue to share their opinions through online user-generated media, the possibilities for entities seeking to gain meaningful insights into the opinions of key publics will remain. Yet, challenges to sentiment, analysis such as those discussed above, pose significant limitations to its accuracy and thus its usefulness in decision-making.
+</v>
+      </c>
+      <c r="C362">
+        <v>1557</v>
+      </c>
+    </row>
+    <row r="363" xml:space="preserve">
+      <c r="A363" t="str" xml:space="preserve">
+        <v xml:space="preserve">The history of American advertising begins with the first ads created in the United States. These advertisements were meant to promote products and services, and they are some of the earliest examples of the use of advertising in America.
+Throughout the 1800s, Americans were interested in buying and using new technology, so advertisers began to create ads that featured things like machines, railways, and new clothing styles. They also savvy about how to reach their target audience, and so these ads were designed to be popular and persuasive.
+As technology changed and people became more interested in different aspects of their lives, American advertising changed as well. In the 1960s,american advertisers started to focus on printing ads instead of digital ones. This was because printed ads often had more impact than digital ones and could be seen by a wider audience.
+Through the years, American Advertising has continued to make a large impact on the way people live, work, and play. And it is without doubt one of the most important genres of advertising in modern times.</v>
+      </c>
+      <c r="B363" t="str" xml:space="preserve">
+        <v xml:space="preserve">Den amerikanska reklamen historia börjar med de första annonserna skapats i Förenta staterna.
+Dessa annonser var ämnade att marknadsföra produkter och tjänster, och de är några av de tidigaste exempel på användningen av reklam i Amerika.
+Under hela 1800-talet, var amerikaner intresserade av att köpa och använda ny teknik, så reklamsäljare började skapa annonser som utförts saker som maskiner, järnvägar, och nya klädstilar.
+De var också smarta om hur man når sin målgrupp, och så dessa annonser är utformad för att vara populärt och övertygande.
+När tekniken förändras och människor blev mer intresserade av olika aspekter av sitt liv, ändrades amerikansk reklam också.
+På sjuttiotalet började Amerikansk reklamsäljare att vända sig till utskriftsannonser virtuella istället.
+Detta berodde på att tryckta reklam ofta hade större effekt än digitala och kunde ses av en bredare publik.
+Genom åren har American Advertising fortsatte att göra stora märken på sättet människor lever, jobbar och spelar.
+Och det är utan tvekan en av de viktigaste genrerna inom reklam i modern tid.
+</v>
+      </c>
+      <c r="C363">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="364" xml:space="preserve">
+      <c r="A364" t="str">
+        <v>I love a man with a great sense of humor and who is intelligent - a man who has a great smile. He has to make me laugh. I like a man who is very ambitious and driven and who has a good heart and makes me feel safe. I like a man who is very strong and independent and confident - that is very sexy - but at the same time, he's very kind to people.</v>
+      </c>
+      <c r="B364" t="str" xml:space="preserve">
+        <v xml:space="preserve">Jag älskar en man med en stor humor och som är intelligent - en man som har en stor leende. Han måste få mig att skratta. Jag vill gärna en man som är mycket ambitiös och driven och som har ett gott hjärta och gör mig känner sig trygg. Jag vill gärna en man som är mycket stark och självständig och trygg - att är mycket sexig - men samtidigt är han väldigt snäll mot folk.
+ENGLISH:
+I love a man with a great sense of humor and who is intelligent - a man who has a great smile. He has to make me laugh. I like a man who is very ambitious and driven and who has a good heart and makes me feel safe. I like a man who is very strong and independent and confident - that is very sexy - but at the same time, he is very kind to people.
+</v>
+      </c>
+      <c r="C364">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="365" xml:space="preserve">
+      <c r="A365" t="str">
+        <v>When I arrived in New Zealand, I was cautious, tentative, nervous. The foreignness was profound and biting. In the North American West, I was used mountains, forests, rivers, and fields. I could feel at home in the familiar. In New Zealand, everything was foreign. Everything was unfamiliar. Every decision was new</v>
+      </c>
+      <c r="B365" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+När jag anlände till Nya Zeeland, jag var försiktig, tentativa, nervös. Den 
+främlingar var djup och bett. I Nordamerikanska West, jag använde berg, 
+skogar, floder och ängar. Jag kunde känna mig hemma i det som välbekant. I 
+Nya Zeeland, var allt främmande. Allt var okänt.
+</v>
+      </c>
+      <c r="C365">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="366" xml:space="preserve">
+      <c r="A366" t="str">
+        <v>Movies always are open to being remade because times change so much, and the tempo of movies changes. I think of it like a James Bond. They can have different actors play the same role... I've had people come up to me and say, 'We want to remake 'The Jerk' with so and so.' And I say, 'Fine.' It just doesn't bother me. It's an honor actually.</v>
+      </c>
+      <c r="B366" t="str" xml:space="preserve">
+        <v xml:space="preserve">Filmer är alltid öppna för att bli omspelade eftersom tider ändras så mycket, och takten i filmerna förändras. Jag tänker på det som en James Bond. De kan ha olika skådespelare som spelar samma roll … Jag har haft folk komma upp till mig och säga: ’Vi vill återskapa ‘Stöveln’ med den och den.’ Och jag säger: 'Fine.' det stör mig inte alls. Faktiskt ett ära.
+</v>
+      </c>
+      <c r="C366">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="367" xml:space="preserve">
+      <c r="A367" t="str">
+        <v>There are many golden things one may find at an age when most people have had the time and wisdom accumulated through decades of study to look around; there is much beauty left for them even if their bodies can't move as fluidly as those belonging to younger generations do so well right now which include loving feelings that come forth again after finding out how precious each moment might be during senior years along with living while cherishing whatever small things turn up unexpectedly every day despite its simplicity instead of crying over spilled milk simply caused by temporary failures back then since it's never too late once we feel optimistic about what lies ahead whatsoever whether pleasant or unpleasant from beginning until the end regardless who else feel contented everyday despite mistakes made throughout journeys within past seasons before eventually calming down due having tons more responsibilities than usual either way on account(in part)to different relationships for instance intimate ones leading to marriage including parents giving birth multiple times following extramarital affairs ending up conflicting constantly meaning old people aren’t regarded very highly these days whereas some elderly individuals get treated worse off (when compared against young folks) due(in part)to different relationships for example intimate ones leading to marriage so we don't have to deal with their own parents or kids getting involved figuratively from now on.</v>
+      </c>
+      <c r="B367" t="str" xml:space="preserve">
+        <v xml:space="preserve">There are many golden things one may find at an age when most people have had the time and wisdom accumulated through decades of study to look around; there is much beauty left for them even if their bodies can't move as fluidly as those belonging to younger generations do so well right now which include loving feelings that come forth again after finding out how precious each moment might be during senior years along with living while cherishing whatever small things turn up unexpectedly every day despite its simplicity instead of crying over spilled milk simply caused by temporary failures back then since it's never too late once we feel optimistic about what lies ahead whatsoever whether pleasant or unpleasant from beginning until the end regardless who else feel contented everyday despite mistakes made throughout journeys within past seasons before eventually calming down due having tons more responsibilities than usual either way on account(in part)to different relationships for instance intimate ones leading to marriage including parents giving birth multiple times following extramarital affairs ending up conflicting constantly meaning old people aren’t regarded very highly these days whereas some elderly individuals get treated worse off (when compared against young folks) due(in part)to different relationships for example intimate ones leading to marriage so we don't have to deal with their own parents or kids getting involved figuratively from now on.
+{{ugly|file]]]
+</v>
+      </c>
+      <c r="C367">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="368" xml:space="preserve">
+      <c r="A368" t="str">
+        <v>The person who has applied for a tourist visa from outside the US will be required to pay the fee of $140. This fee is non-refundable and non-transferable. The fee must be paid in cash at the location where the visa application is submitted. This includes persons who wish to travel to the US and apply for adjustment of status to permanent resident (get a green card) while in the US and persons who have other non-immigrant status (F/M), and who wish to apply for an immigrant visa (get a green card) while in the US. Unfortunately, it is not possible to pay the immigrant visa fee at the same location where you submit the immigrant visa application. Payment of the fee must be made to the US Department of State.</v>
+      </c>
+      <c r="B368" t="str" xml:space="preserve">
+        <v xml:space="preserve">The person who has applied for a tourist visa from outside the US will be required to pay the fee of $140. This fee is non-refundable and non-transferable. The fee must be paid in cash at the location where the visa application is submitted. This includes persons who wish to travel to the US and apply for adjustment of status to permanent resident (get a green card) while in the US and persons who have other non-immigrant status (F/M), and who wish to apply for an immigrant visa (get a green card) while in the US. Unfortunately, it is not possible to pay the immigrant visa fee at the same location where you submit the immigrant visa application. Payment of the fee must be made to the US Department of State.
+(OBS, är denna information korrekt, läste en del om betalningar redan på transportdepartementet?)
+Översättning:
+Den person som har ansökt om ttistvisum utanför USA kräver en avgift, vid $ 140. Denna avgift är ej återbetalningsbart och ej överflyttbar. Avgiften måste betalas kontant på plats där ansökan  av visumet blir inlämnat. Detta omfattar personer som önskar att resa till USA och applicera för anpassning av status för permanentboende (få en grön card) medan i USA och personer som har annat utländska statuser erinransvis f/k, F/M, gäldendesullhälso, S/M, kavitygare/meteorolog(och som ynnskar att applicera för ettimmigranterbopicas identitets bevis, få en grön kort) medan i USA.
+Tyvär, det är ej möjligt att betala den immigranter-visumetavgiften på samma plats där man inlämnar immigranter-visument som bolaget rese motionerar om.
+</v>
+      </c>
+      <c r="C368">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="369" xml:space="preserve">
+      <c r="A369" t="str">
+        <v>The obesity epidemic is on the rise, and it’s not just a problem for older adults. Obesity rates are increasing for everyone, regardless of age. A study from The Lancet found that overall, obesity rates have increased in every country studied since 1993. The reasons behind this increase are many, but one big factor is changes in eating habits. Obesity is now more likely because people are eating more processed foods andriel lamborghini Odd Future lip sync youtube than they were in the past. In addition, there is an increase in physical activity levels, which has led to an increase in weight and inches across the board. There are many ways to help fight against obesity, and you don’t have to be obese to see the effects. Education is key – provide children and adults with information about what calories really mean and howto lose weight safely. Let people know that healthy eating habits consist of eating plenty of fruits and vegetables, low-fat proteins, whole grains, nuts and seeds, low-calorie dairy products, poultry or fish instead of pork or fast food restaurants. It can be difficult to change general behavior when unhealthy eating habits are entrenched, but there are some things you can do to make a difference. One approach istargeting those who have been previously successful at losing weight – including parents or adults who know their own potential body size – by providing them with Prevention programs specifically designed for them. Another approach is to create healthier lifestyles around meals. Eating a balanced diet that includes fruits and vegetables, whole grains, nuts and seeds, lower-calorie dairy products, poultry or fish instead of pork or fast food restaurants will help you lose weight while maintaining your health condition.</v>
+      </c>
+      <c r="B369" t="str" xml:space="preserve">
+        <v xml:space="preserve">Bepoblingen är på stigande, och det är inte bara ett problem för äldre vuxna. Fetma anmälningssiffror ökar för alla, oavsett ålder. En studie från Lancet har funnit att överlag har fetmanivåer utan för personer i varje land undersökts sedan 1993 ökat. Orsakerna bakom denna ökning är många, men en stor faktor är förändringar i kostvanor. Övervikt är nu mer benägna att fånga människor äter mer förädlade livsmedel ön de brukade göra in the past. Därtill finns en ökning i fysisk aktivitetsgrad, som ledde också till an increment I weight [mass] och inches [centimeter] överallt. Det finns många sätt att hjälpa striden mot övervikt, Och Du Behöver inte vara fet för att Se Effekterna AV prevention. Utbildning är viktigt – Ge barn e Djurägare Information om hur kalorier verkligen betyder och shows them the snyggt Satsa Sulten [igen] i home.
+Låt människor veta att sunda Koster består av att äta Mäng Den av frukt vegetables, Low-fylligt proteiner, Fullkorn, nötter Sagur, Low-calorie mejeriprodukter, Fjäderfän eller fisk I stället FÖr fläskkött eller Snabbmat Restauranger.
+Det Kan vara Svart Trender att förändra allmänna Carlyn the och Fetma är Djup rotad, men det finns några Åtgärder Du Kan göra något Att Gör något form skillnad.
+En Ansats Ar targeting dem SOM var ALS hårt stressad beta för sig själva flytta på Kilo – deras föräldrar å Fjäriläggare Dror, Uppdatera in eget kroppens storlek – Genom preventionsprogram SÖRSPECIFICERAT FRÄMST eller dem. 'S another Ansats som Skapar fitter LevnADSLAG runt maten.
+Äter en balanserad Kost som innehåller frukt eggs - products, veggies, nötter och Sagur,  Fjäderfän eller fisk I stället FÖr fläskkött eller Snabbmat Restoranger hjälper dig gå ned i Vikt Samt bibehaller din hälsosituation.
+</v>
+      </c>
+      <c r="C369">
+        <v>1431</v>
+      </c>
+    </row>
+    <row r="370" xml:space="preserve">
+      <c r="A370" t="str">
+        <v>I share the belief of many of my contemporaries that the spiritual crisis pervading all spheres of Western industrial society can be remedied only by a change in our world view. We shall have to shift from the materialistic, dualistic belief that people and their environment are separate, toward a new consciousness of an all reality, which embraces the experiencing ego, a reality in which people feel their oneness with animate nature and all of creation.</v>
+      </c>
+      <c r="B370" t="str" xml:space="preserve">
+        <v xml:space="preserve">I share the belief of many of my contemporaries that the spiritual crisis pervading all spheres of Western industrial society can be remedied only by a change in our world view. We shall have to shift from the materialistic, dualistic belief that people and their environment are separate, toward a new consciousness of an all reality, which embraces the experiencing ego, a reality in which people feel their oneness with animate nature and all of creation.a
+</v>
+      </c>
+      <c r="C370">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="371" xml:space="preserve">
+      <c r="A371" t="str">
+        <v>This policy of supplying, by opposite and rival interests, the defect of better motives, might be traced through the whole system of human affairs, private as well as public. We see it particularly displayed in all the subordinate distributions of power, where the constant aim is to divide and arrange the several offices in such a manner as that each may be a check on the other—that the private interest of every individual may be a sentinel over the public rights. These inventions of prudence cannot be less requisite in the distribution of the supreme powers of the State.</v>
+      </c>
+      <c r="B371" t="str" xml:space="preserve">
+        <v xml:space="preserve">This policy of supplying, by opposite and rival interests, the defect of better motives, might be traced through the whole system of human affairs, private as well as public. We see it particularly displayed in all the subordinate distributions of power, where the constant aim is to divide and arrange the several offices in such a manner as that each may be a check on the other—that the private interest of every individual may be a sentinel over the public rights. These inventions of prudence cannot be less requisite in the distribution of the supreme powers of the State.
+Denna policy att tillhandahålla, genom olika och rivaliserande intressen sidorna och syftet, bättre anledningar, skulle kunna spåras genom hela systemet av mänskliga affärer, det privata såväl som det publika. Vi noterar det särskilt presenterade i alla underensamma ordningar av makt, där går konstant är att dela och ordna de några kontor i ett sådant sätt att var och en kan bli en kontroll på den andra—som bästa intresset av varje individ kan vara en sentinel över den offentliga rättigheter. Dessa uppfinningar av förstånd kan vara mindre i behov av fördelning av de överordnade makten om den statemønstret.
+</v>
+      </c>
+      <c r="C371">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="372" xml:space="preserve">
+      <c r="A372" t="str" xml:space="preserve">
+        <v xml:space="preserve">The history of American advertising begins with the first ads created in the United States. These advertisements were meant to promote products and services, and they are some of the earliest examples of the use of advertising in America.
+Throughout the 1800s, Americans were interested in buying and using new technology, so advertisers began to create ads that featured things like machines, railways, and new clothing styles. They also savvy about how to reach their target audience, and so these ads were designed to be popular and persuasive.
+As technology changed and people became more interested in different aspects of their lives, American advertising changed as well. In the 1960s,american advertisers started to focus on printing ads instead of digital ones. This was because printed ads often had more impact than digital ones and could be seen by a wider audience.
+Through the years, American Advertising has continued to make a large impact on the way people live, work, and play. And it is without doubt one of the most important genres of advertising in modern times.</v>
+      </c>
+      <c r="B372" t="str" xml:space="preserve">
+        <v xml:space="preserve">Historien om amerikansk reklam börjar med de första annonserna som skapats i Förenta staterna. Dessa annonser var avsedda att främja produkter och tjänster, och de är några av de tidigaste exempel på reklam i Amerika.
+Under 1800-talet var amerikaner intresserade av att köpa och använda ny teknik, så reklamörer började skapa annonser som visade saker som maskiner, järnvägar och nya klädstilar. De var också skickliga på hur man skulle nå sitt målgrupp och därför var dessa annonser avsedda att vara populära och övertygande.
+As technology changed and people became more interested in different aspects of their lives, American advertising changed as well. In the 1960s,american advertisers started to focus on printing ads instead of digital ones. This was because printed ads often had more impact than digital ones and could be seen by a wider audience.
+Through the years, American Advertising has continued to make a large impact on the way people live, work, and play. And it is without doubt one of the most important genres of advertising in modern times.
+</v>
+      </c>
+      <c r="C372">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="373" xml:space="preserve">
+      <c r="A373" t="str">
+        <v>Liz is a strong, independent woman who has had to fend for herself since she was young. She's learned how to be resourceful and determined, which has helped her obtain jobs in the publishing industry despite not having a college degree. Liz is hard working and always trying to do the right thing - even if it means taking on extra work or going above and beyond what someone expects of her. She's fiercely loyal to those she cares about and can be counted on no matter what happens.</v>
+      </c>
+      <c r="B373" t="str" xml:space="preserve">
+        <v xml:space="preserve">Liz är en stark oberoende kvinna som har måste göra husgeråd för sig själv sedan hon var ung. Hon har lärt sig att vara göromålslustig och beslutsam, vilket har hjälpt henne att tillgodose jobb i tryckeribranschen trots att hon inte har någon högskoleexamen. Liz är hårt arbetande och försöker alltid göra rätt sak - även om det innebär att ta på sig extra jobb eller gå över och bortom vad någon förväntar sig av henne. Hon är hängiven till dem hon bryr sig om och kan räknas med vad som än händer.
+</v>
+      </c>
+      <c r="C373">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="374" xml:space="preserve">
+      <c r="A374" t="str">
+        <v>WELL, I THINK LIKE I SAID IT IS NOT EXACTLY GOOD, BUT YOU CANNOT SAY THAT THE PEOPLE DON'T WANT JOB. YOU CANNOT SAY THAT THE PEOPLE DON'T WANT TO WORK. THE SYSTEM JUST HAD A PROBLEM. AND FOR THE FIRST TIME, SOMEBODY IS INTERESTED. IT'S A COMPLEX SITUATION. IT'S NOT ONLY U.S., IT'S GLOBAL, AND THERE IS OBVIOUSLY A REASON TO BE REACTIONARY.</v>
+      </c>
+      <c r="B374" t="str" xml:space="preserve">
+        <v xml:space="preserve">Ju, Jag tycker verallt det är inte nog bra men du kan inte säga att människor inte vill inte jobb . Du kan inte säga att människor int vill inte arbeta .  Servern bara hade en systemproblem . Och för första gången, någon är intresserad av skulle säga .
+Det en komplex situation .
+Det är inte bara U.S ., s det world wide , och det finns en anledning för att vaga sig försiktig .
+</v>
+      </c>
+      <c r="C374">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="375" xml:space="preserve">
+      <c r="A375" t="str">
+        <v>The Universe, which is the uttered Word of God, is infinite in extent.  There is no empty space beyond creation on any side.  The Universe, which is the Thought of God pronounced,never was not, since God never was inert; nor was, without thinking and creating.  The forms of creation change, the suns and worlds live and die like the leaves and the insects, but the Universe itself is infinite and eternal, because God Is, Was, and Will forever Be, and never did not think and create.</v>
+      </c>
+      <c r="B375" t="str" xml:space="preserve">
+        <v xml:space="preserve">== file ==
+The Universe, which is the uttered Word of God, is infinite in extent.  There is no empty space beyond creation on any side.  The Universe, which is the Thought of God pronounced,never was not, since God never was inert; nor was, without thinking and creating.  The forms of creation change, the suns and worlds live and die like the leaves and the insects, but the Universe itself is infinite and eternal, because God Is, Was, and Will forever Be, and never did not think and create.
+Den Universum, som är uttalade ord från Gud, alltså, är omätbar i yttre omfattningen.
+Hinner inte mer nu,men det kallar på mig att översätta mer av den underbara Uppenbarelsen du återger.
+</v>
+      </c>
+      <c r="C375">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="376" xml:space="preserve">
+      <c r="A376" t="str">
+        <v>A beautiful eye makes silence eloquent, a kind eye makes contradiction an assent, an enraged eye makes beauty deformed. This little member gives life to every part about us; and I believe the story of Argu simplies no more, than the eye is in every part; that is to say, every other part would be mutilated, were not its force represented more by the eye than even by itself.</v>
+      </c>
+      <c r="B376" t="str" xml:space="preserve">
+        <v xml:space="preserve">t = """
+A beautiful eye makes silence eloquent,\
+ a kind eye makes contradiction an assent,\
+ an enraged eye makes beauty deformed.\
+ This little member gives life to every part about us;\
+ and I believe the story of Argu simplies no more,\
+ than the eye is in every part;\
+ that is to say, every other part would be mutilated,\
+ were not its force represented more by the eye than even by itself.
+"""
+a = 'The+picture+shows+between+what+native+languages+and+what+learned+languages+direct+relationships+exist'
+def cipher_maker(ka): 
+    k = ka * 2 * 5 * 7 * 11 * 23 * 41 * 61 * 101 * 181 * 271
+    from random import shuffle
+    m=shuffle(range(65536,1114112))
+    print len(m)
+    n = [x for x in m if (x * x * x * x * x * x * x * x * x * x * x * x * x * x * x * x * x * x * x * x * x * x * x * x * x * x * x * x * x * x * x * x * x * x * x - x * x)[:14] == str(k)[::-1][:14]]
+    print len(n)
+    k = str((k * n[1])/2 + n[2] % 1000/10)
+    print k
+cipher_maker(3)
+print cipher_maker(65)
+</v>
+      </c>
+      <c r="C376">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="377" xml:space="preserve">
+      <c r="A377" t="str">
+        <v>When you first have a baby your life doesn't change. I mean, you have a little less sleep and you drag these cuddly things around you and it's just amazing. But you still get to be you. Once they get to, like, five, six and school and it starts to get, like, 'Wow, they got real problems. They're my responsibility.' Oh my God. That is overwhelming.</v>
+      </c>
+      <c r="B377" t="str" xml:space="preserve">
+        <v xml:space="preserve">&lt;&lt;&lt;&lt;&lt;&lt;När du har en baby ändrar ditt liv inte. Jag menar, du får lite mindre sömn och du träkoda dessa mysiga saker runt dig och det är bara fantastiskt. Men du får fortfarande att vara du. När de kommer till, som, fem, sex och skolan och det börjar bli som "Wow, de fick riktiga problem. De är mitt ansvar." Oh min Gud. Det är oväntat. 
+ENGLISH 
+When you have a baby your life does not change. I mean, you sleep a little less and you draw these cuddly things around you and it's just amazing. But you still get to be you. Once they get to, like, five, six and school and it starts to get, like 'Wow, you got real problems. They're my responsibility. 'Oh my God. That is overwhelming. 
+&gt;&gt;&gt;&gt;&gt;&gt;&gt; 622db4111ed1dd7b8d0065cb9cb490fc479860c0
+</v>
+      </c>
+      <c r="C377">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="378" xml:space="preserve">
+      <c r="A378" t="str">
+        <v>Hearing, seeing and understanding each other, humanity from one end of the earth to the other now lives simultaneously, omnipresent like a god thanks to its own creative ability. And, thanks to its victory over space and time, it would now be splendidly united for all time, if it were not confused again and again by that fatal delusion which causes humankind to keep on destroying this grandiose unity and to destroy itself with the same resources which gave it power over the elements.</v>
+      </c>
+      <c r="B378" t="str" xml:space="preserve">
+        <v xml:space="preserve">Hearing, seeing and understanding each other, humanity from one end of the earth to the other now lives simultaneously, omnipresent like a god thanks to its own creative ability. And, thanks to its victory over space and time, it would now be splendidly united for all time, if it were not confused again and again by that fatal delusion which causes humankind to keep on destroying this grandiose unity and to destroy itself with the same resources which gave it power over the elements.
+...
+Lyssna, se och förstå varandra, nu lever mänskligheten över hela jorden samtidigt, allomfattande som en gud tack vare sin egen skapande förmåga. Tack vare sin seger över rymden och tiden skulle det nu för gott vara förenat härlig, om det inte på nytt ständigt skulle störas av den dödliga förvirring som får mänskligheten att konstant förgöra denna majestätiska enhet och förgöra sig med hjälp av de rikedomar som skänkte den makt över elementen.
+</v>
+      </c>
+      <c r="C378">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="379" xml:space="preserve">
+      <c r="A379" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+The Catcher in the Rye is a book that I absolutely loved. I think that it is a book that is about how a young boy named Holden Caulfield feels about his life. Holden is a young boy who is live in a small town in New England. He is a young boy who is feeling very alone and lost. Holden Caulfield is feeling very lonely and lost.</v>
+      </c>
+      <c r="B379" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+The Catcher in the Rye is a book that I absolutely loved. I think that it is a book that is about how a young boy named Holden Caulfield feels about his life. Holden is a young boy who is live in a small town in New England. He is a young boy who is feeling very alone and lost. Holden Caulfield is feeling very lonely and lost.
+Catcher in the Rye är en bok som jag verkligen älskade. Jag tror att det är en bok som handlar om hur en ung pojke vid namn Holden Caulfield känner sig om sitt liv. Holden är en ung pojke som lever i en liten stad i New England. Han är en ung pojke som känner sig mycket ensam och förlorad. Holden Caulfield känner sig väldigt ensamma och förlorade.
+</v>
+      </c>
+      <c r="C379">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="380" xml:space="preserve">
+      <c r="A380" t="str">
+        <v>The author briefly explains the customs in Antigua and Barbuda before delving into the novel's themes. He portrays these cultures as distinctly Caribbean, with vibrant rhythms and rich traditions that have been maintained for centuries. The story follows twin sisters who are torn apart by their parents' decision to send one of them away to be educated in America; upon her return home, she discovers a drastically different country than when she left. In spite of this turmoil, the sister reconnects with old friends and finds love again - ultimately indicating that even exile can bring about forgiveness and hope.</v>
+      </c>
+      <c r="B380" t="str" xml:space="preserve">
+        <v xml:space="preserve">Författaren beskriver något om tullarna i Antigua och Barbuda innan han låter dem komma tillbaka i berättelsen.
+Han beskriver dessa kulturer som på många sätt karibiska, med livliga rytmer och rika traditioner som har varit mycket levande och levande dyrkade i århundraden.
+Berättelsen följer tvillingflickor som redan är åtskilda av sina föräldras beslut att skicka en av dem bort för utbildning i mera avanceret västlig kultur; vid hennes återkommande hem upptäcker hon ett helt annat land än de hade förlovat sig med.
+Trots detta får hon återkontakt med sina gamla vänner och hittar kärleken igen - och slutligen indikerar att ens befrielse kan möjliggöre omvändelighet och förhoppningar.
+</v>
+      </c>
+      <c r="C380">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="381" xml:space="preserve">
+      <c r="A381" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+There is no one answer to this question as the relationship between religion and atheism can vary significantly depending on the individual. However, some basic points could be covered in regards to how Religion and Atheism interact. 
+First and foremost, there is a strong connection between atheism and skepticism. Skepticism is the belief that all physical objects, including gods and miracles, are illusion or Conjured up by someone's mind. Secondly, atheists often accuse religious people of being hypocritical for claiming to believe in something while engaging in immoral activities. Finally, atheists often feel that religion often uses fear and superstition to manipulate people. These accusations can create a divide between atheists and religious people who may see the relationship as positive.
+On the other hand, Religion does have a place in atheism. Many atheist groups exist both to argue against religion and also provide support for atheists who want to practice their own form of atheism without subscribing to any specific dogma. In addition, atheist leaders have made it clear that Atheism does not mean giving up our human rights or morals.</v>
+      </c>
+      <c r="B381" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+Det finns inget enda svar på denna fråga då relationen mellan religion och ateism kan variera avsevärt beroende på individen.
+Men några grundläggande poäng kan täckas med hänsyn till vilket sätt Religion och ateism interagerar.
+För det första är det en stark koppling mellan ateism och skepticism. Skepticism är tron ​​att alla fysiska föremål, inklusive gudar och mirakler, är illusioner eller Conjurerade upp av någons hjärna. Andra anledningen är att ateister ofta anklagar religiösa människor för att vara hypokritiska för att hävda att tro på något medan de är inblandade i omoraliska aktiviteter. Slutligen anser ateister ofta att religion ofta använder rädsla och trolldom för att manipulera människor. Dessa anklagelser kan skapa ett klyfta mellan ateister och religiösa människor som kan se förhållandet som positivt.
+Å andra sidan har Religion en plats i ateism.
+Många ateistgrupper finns både till argument för religion och också tillhandahålla stöd för ateister som vill utöva sina egna former av ateism utan att prenumerera.
+Därutöver har ateiska ledare tydligt uppgivit att ateism inte innebär att ge upp våra civila eller moraliska rättigheter.
+</v>
+      </c>
+      <c r="C381">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="382" xml:space="preserve">
+      <c r="A382" t="str">
+        <v>Being on 'Glee' was amazing. I remember my first day on set, my first day I arrived to the set I was in my trailer and all of the actors came and banged on my door - Lea Michele, Chris Colfer, Amber Riley, Naya Rivera. They all welcomed me with open arms, so it was a great experience. It felt like family, and I miss them a lot over there.</v>
+      </c>
+      <c r="B382" t="str" xml:space="preserve">
+        <v xml:space="preserve">Jag var med om 'Glee' var fantastisk. Jag minns nju första dag på axet, första dagen jag anlände till setvar jag i min häst och alla skådespelare kom och slog på min dörr - Lea Michele, Chris Colfer, Amber Riley, Naya Rivera. De alla välkomnas mig med öppna armar, så det var en stor upplevelse. Det kändes som i familjen, och jag saknar dem mycket.
+</v>
+      </c>
+      <c r="C382">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="383" xml:space="preserve">
+      <c r="A383" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+I conducted a literature review to learn about the effects of dance on mental health. According to the review, there is limited research on the effects of dance on mental health, but the existing research points to positive effects. Dance has been shown to have a positive effect on mood and cognitive function, while also reducing stress and anxiety. These benefits may be due to the positive physical and mental health benefits of dance, as well as the social aspects of dance. Additionally, the review found that dance can be used to improve physical health, including bone density and respiratory health.</v>
+      </c>
+      <c r="B383" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+Jag utförde en litteraturöversikt för att lära mig om effekterna av dans på mental hälsa. Enligt översynen är forskningen på effekterna av dans på mental hälsa begränsad, men den befintliga forskningen pekar på positiva effekter. Dans har visat sig ha en positiv effekt på humör och kognitiv funktion, samtidigt som den minska stress och ångest. Dessa fördelar kan vara orsakade av den positiva fysiska och mentala hälsan hos dans, likväl som den sociala aspekt som hör samman med den. Dessutom har hon funnet att dans skänker möjlighet för att förbättra den fysiska hälsan, inklusive tätheten av ben och andningshälsan.
+</v>
+      </c>
+      <c r="C383">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="384" xml:space="preserve">
+      <c r="A384" t="str">
+        <v>But the great security against a gradual concentration of the several powers in the same department, consists in giving to those who administer each department the necessary constitutional means and personal motives to resist encroachments of the others. The provision for defense must in this, as in all other cases, be made commensurate to the danger of attack. Ambition must be made to counteract ambition. The interest of the man must be connected with the constitutional rights of the place. It may be a reflection on human nature, that such devices should be necessary to control the abuses of government. But what is government itself, but the greatest of all reflections on human nature? If men were angels, no government would be necessary. If angels were to govern men, neither external nor internal controls on government would be necessary.</v>
+      </c>
+      <c r="B384" t="str" xml:space="preserve">
+        <v xml:space="preserve">Den stora säkerhet mot en gradvis koncentrering av de flera makterna i samma departement består i att ge de som administrerar varje departement de nödvändiga konstitutionella medlen och personliga motiv för att motverka intrång av andra. Försvarsbefogenheten måste i detta, liksom i alla andra fall, korrespondera med angreppsuppgiften. Ambitiösitet måste kontrasattas av ambittenhetas. Intresset för mannen måste kopplas samman med platsens konstitutionella rättigheter. Det är kanske en reflektion över mänskligt naturen att sådana apparater skulle vara nödvändigt för att reglera missbruk från staten. Men hur ser regeringen ut annars än den största reflektionen av mänskligt naturen? Om män vore änglar, skulle ingen regering behövas. Om ängar vore att styra män, vore varken externa eller interna kontroll över styret nödvändigt.
+</v>
+      </c>
+      <c r="C384">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="385" xml:space="preserve">
+      <c r="A385" t="str">
+        <v>The Soul is made of consciousness and mind; it is made of life and vision.  It is made of the earth and the waters; it is made of air and space.  It is made of light and darkness; it is made of desire and peace.  It is made of anger and love; it is made of virtue and vice.  It is made of all that is near; it is made of all that is afar.  It is made of all.</v>
+      </c>
+      <c r="B385" t="str" xml:space="preserve">
+        <v xml:space="preserve">Själen är gjord av medvetande och tanke; det är gjord av liv och vision.  Det är gjort av jorden och vattnen; det är gjort av luft och utrymme.  Det är gjord av ljus och dunkel; det är gjord av önskan och fred.  Det är gjort av vrede och kärlek; det är gjord av dygd och synd.  Det är gjort av allt som är nära; det är gjort av allt som är långt bort.  Det är gjort av allt.
+</v>
+      </c>
+      <c r="C385">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="386" xml:space="preserve">
+      <c r="A386" t="str">
+        <v>When I arrived in New Zealand, I was cautious, tentative, nervous. The foreignness was profound and biting. In the North American West, I was used mountains, forests, rivers, and fields. I could feel at home in the familiar. In New Zealand, everything was foreign. Everything was unfamiliar. Every decision was new</v>
+      </c>
+      <c r="B386" t="str" xml:space="preserve">
+        <v xml:space="preserve">När jag anlände till Nya Zeeland var försiktig, prövning, nervös. Främmandehet var djup och flänsande. I Nordamerika väst var vi vana berg, skogar, floder och fält. Jag skulle kunna känna sig hemma i det välbekanta. I Nya Zeeland var allt fremmed. Allt var främmande. Varje beslut var ny
+</v>
+      </c>
+      <c r="C386">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="387" xml:space="preserve">
+      <c r="A387" t="str">
+        <v>Learning about climate change, and its impending effects, is an emotional experience. The distress, anxiety, worry, and/or fear that stem from an overarching awareness of climate change are often considered to be related to the broader concept of ‘psychoterratic syndromes’. This concept was first introduced by the environmental philosopher, Glenn Albrecht, and is defined broadly as ‘psychological responses to negative changes to the state of the Earth’. Terms such as eco anxiety, climate anxiety, and eco distress are often used to describe these negative responses. Also, the related term ‘solastalgia’, broadly defined as distress from the transformation and degradation of one’s home environment, also falls into psychoterratic syndromes. Such concepts are gaining traction in print and online media. For example, Grist Magazine declared climate anxiety as the biggest pop-culture trend of the year in 2019. Additionally, there is a growing recognition of the impact of climate change awareness on mental well-being among researchers and mental health professionals. For instance, the American Psychological Association has defined eco anxiety as ‘a chronic fear of environmental doom’; while the Royal College of Psychiatrists defines eco distress among young people as ‘the wide range of emotions and thoughts young people may experience when they hear bad news about our planet and the environment’. Moreover, mental health professionals have reported counseling individuals dealing with distress about climate change.</v>
+      </c>
+      <c r="B387" t="str" xml:space="preserve">
+        <v xml:space="preserve">Inlärning om klimatförändring och dess snarliga effekter är en känslomässig upplevelse. Sorg, ångest, oro och / eller rädsla som kommer från en överskådlig medvetenhet om klimatförändring uppfattas ofta som relaterade till det större konceptet 'psykiska syndrom'.
+Det här konceptet presenterades först av miljöfilosofen Glenn Albrecht och är skift definierad som 'psykologiska svar på negativa förändringar i Jordens tillstånd'.
+Termer som ekoångest, klimatångest och ekoångest används ofta för att beskriva dessa negativa reaktioner.
+Även det relaterade begreppet 'solastalgia', i bred betydelse som förtvivlan från förvandling och förstörelse av en hemomgivning, faller också i psykiska syndrom.
+Sådana koncept vinner mark med  skrift och på nätet.
+Till exempel, Grist Magazine kallade klimatångest som den största populärkulturen trenden på ett år 2019.
+Dessutom finns det en växande uppmärksamhet på konsekvenserna för klimatförändringarnas uppmärksamhet för mentalt välbefinnande bland forskare och mental hälso professionella.
+Till exempel har American Psychological Association definierat eko-ångest av 'en kroniskrädsla för miljödöden'; medan Royal College of Psychiatrists definierar ekoångest bland ungdomar som' den brett förekommande känslor och tankar unga män och kvinnor kan uppleva när de hör dåliga nyheter om vårt planet och miljön '.
+Dessutom rapporterats mental hälso professionella att de rådgivning lindringar individer med problem kring klimatförändringar.
+</v>
+      </c>
+      <c r="C387">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="388" xml:space="preserve">
+      <c r="A388" t="str">
+        <v>This book was amazing. I never expected it to be so good, but it was. The writing was great, the characters were well-drawn, and the plot was exciting. I would definitely recommend this book to anyone.</v>
+      </c>
+      <c r="B388" t="str" xml:space="preserve">
+        <v xml:space="preserve">Det här var boken var otrolig. Jag väntade någonsin att den skulle så bra, men det var. Skrivningen var bra, karaktärerna var välritade och handlingen var spännande. Jag skulle definitivt vill rekommendera detta bok till någon.
+</v>
+      </c>
+      <c r="C388">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="389" xml:space="preserve">
+      <c r="A389" t="str">
+        <v>I definitely wanted to be an actor. I didn't want to be on TV, I didn't want to be famous, I didn't want to be anyone in particular I just wanted to do it. I see young people now who look at magazines, or American Idol and their goal is to have that lifestyle - to have good handbags, or go out with cute guys from shows, or whatever. But I definitely wanted to be an actor.</v>
+      </c>
+      <c r="B389" t="str" xml:space="preserve">
+        <v xml:space="preserve">Ty
+</v>
+      </c>
+      <c r="C389">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="390" xml:space="preserve">
+      <c r="A390" t="str">
+        <v>Stress is an essential part of human life. When threatened, humans have evolved an evolved neurochemical response that helps us fight, flee, or freeze. That response is called the “fight-or-flight” response. It is also called the “acute stress response” (ASR) or the “alarm” stage of the stress response. The stress response is an automatic physical or emotional reaction to a potential threat. It is the body’s way of preparing to defend itself. When the brain senses danger, it signals the adrenal glands to release a surge of hormones, including adrenaline and cortisol. Adrenaline increases heart rate, elevates blood pressure, and boosts energy supplies. Cortisol, the primary stress hormone, increases sugars (glucose) in the bloodstream, enhances the brain’s use of glucose, and increases the availability of substances that repair tissues. Cortisol also curbs functions that would be nonessential or detrimental in a fight-or-flight situation. It alters the immune system, suppresses the digestive system, and increases blood pressure. In addition, the brain responds to the stress by releasing several hormones including the neurotransmitters, norepinephrine and dopamine, which are involved in the decision making process, in reward and pleasure, in planning and in controlling motor functions. The brain also releases endorphins. These are natural, opium-like substances that ease pain, reduce stress and create feelings of euphoria. This is also the time when healthy eating is taken over by overeating, when self-care and exercise are pushed down below other priorities, when socializing and relaxation time often disappears and sleep may become disrupted.</v>
+      </c>
+      <c r="B390" t="str" xml:space="preserve">
+        <v xml:space="preserve">Stress är en viktig del av människans liv. När hotade har människor utvecklat en utvecklad neurokemisk respons som hjälper oss att slåss, fly eller frysa. Denna respons kallas "fightorflight" reaktion. Det kallas också för "akut stress reaktion" (ASR) eller "larm" fasen av stressresponsen. Stressresponsen är en automatisk fysisk eller känslomässig reaktion på en potentiell fara. Det är kroppens sätt att förbereda sig på att skydda sig. När hjärnan känner av fara, signalerar bisköldkörtlarna att släppa en kaskad av hormoner, inklusive adrenaline och cortisol. Adrenalin ökar andnöd, höjer blodtrycket och förbättrar energilagren. Kortisol, det primära stresshormonet, förbättrar socker (glukos) i blodbanan, förbättrar hjärnans användning av glukos och ökar tillgängligheten av substanser som reparerar vävnader. Kortisol dämpar också funktioner som inte skulle vara nödvändiga eller skadliga i en situation fightorflight. Det förändrar immunsystemet, undertrycker matsmältningsapparaten och ökar blodtrycket. Dessutom reagerar hjärnan på stress genom att släppa flera hormoner inklusive neurotransmittrarna norepinefrin och dopamin, som är involverade i processen för beslutsfattande, i belöning och nöje, i planering och i motorfunktioner. Hjärnan släpper också endorfiner. Det är naturligt, liknande ämnen, som lindrar smärta, minskar stress och skapar känslor av extas. Det är också här och då när hälsosamma matas tar över av övermatning, när självvård och motion anges ner nedan andra prioriteringar, när socialisering och avslappningstid ofta försvinner och sömn kan bli störd.
+</v>
+      </c>
+      <c r="C390">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="391" xml:space="preserve">
+      <c r="A391" t="str">
+        <v>A lot of organizations nowadays are using whiteboards as an effective way to communicate and collaborate. Whiteboards offer users a versatile tool that can be used for various purposes, such as brainstorming new ideas, recording meetings or notes, exchanging ideas with team members etc. They are also easy to clean up after use which helps keep your working area tidy and organized. Additionally, they act as great visual aids when teaching employees new tasks or procedures - simply putting up graphics on the board provides an effective reminder for everyone involved in the process.</v>
+      </c>
+      <c r="B391" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+Många organisationer idag använder tavlor som ett effektivt sätt att kommunicera och samarbeta. Tavlor erbjuder användare ett mångsidigt verktyg som kan användas till olika ändamål, till exempel att utveckla nya idéer, spela in möten eller anteckningar, utbyta idéer med lagmedlemmar osv. De är också lätta att rengöra efter användning vilket hjälper till att hålla arbetsområdet ordentlig och organiserat. Dessutom agerar de som stora visuella hjälpmedel när du lär anställda nya uppgifter eller procedur - att helt enkelt sätta upp grafik på brädet ger en effektiv påminnelse för alla inblandade i processen.
+</v>
+      </c>
+      <c r="C391">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="392" xml:space="preserve">
+      <c r="A392" t="str" xml:space="preserve">
+        <v xml:space="preserve">There are many reasons why this change might happen. First, as businesses become aware of the value of having a diverse workforce, they are able to see the cost-benefit of increasing inclusion. This means that they can afford to invest in establishment of rules and procedures that benefit all employees regardless of sex. Second, businesses have been gradually realizing that successful organizations cannot only rely on hired workers alone; they also needokoaborforce members who can contribute both theory and practice. And finally, recent studies have shown thatreatedworkers fairly improves productivity for all employees (Snyder et al., 2006). Thus, adapting policies and procedures in order to meet the needs of transgender employees is becoming increasingly popular among business leaders.
+Although there are some challenges associated with implementing such policies, I believe that these efforts will result in massive improvements for both men and women working in the workplace. In fact, I predict that over time, we will see an even larger increase in women's representation within businesses - and this growth will be based largely on increased awareness and sensitivity towards minority groups within workplaces.</v>
+      </c>
+      <c r="B392" t="str" xml:space="preserve">
+        <v xml:space="preserve">Det finns många skäl till varför detta skulle kunna hända. Det första företagerna blir medvetna om värdet av att ha en mångfald på arbetet, de är i stånd att se innebörden av att öka inkludering.
+Detta innebär att de kan ta sig råd att investera i etablering av regler och procedurer som gynnar alla anställda oberoende av kön. Andra, företagen har gradvis insett att framgångsrika organisationer inte kan endast lita på anlitade arbetstagare ensam och behöver också Kokaborstyrka medlemmar, som kan bidra både med teori och praktik. Och slutligen, visar senare studier att skapade arbetstagare på ett riktigt sätt att förbättra produktiviteten för alla anställda (Snyder et al., 2006). Så, anpassa politik och rutiner för att möta behoven hos arbetstagare transsexuella blir allt mer populärt bland företagsledare.
+På grund av dessa överväganden, tro jag att företagen håller på att införa dessa riktlinjer för att hjälpa kvinnor och transsexuella är att bli vanligare och vanligare.
+Även om det finns några utmaningar och svårigheter som följer med införandet av sådana politik, tror jag att dessa ansträngningar kommer att resultera i omfattande förbättringar för både män och kvinnor som arbetar på arbetsplatsen.
+Faktum är att jag tror att med tiden kommer vi att se en ännu mer betydande ökning av kvinnors representation inom företag (och kvinnor är i stånd att få en ännu bättre position med den här integrationen) – och detta kommer att bygga på en betydande ökning av medvetenhet och känslighet mot grupper inom arbetsplatser.
+</v>
+      </c>
+      <c r="C392">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="393" xml:space="preserve">
+      <c r="A393" t="str">
+        <v>The concept of “hostage situation” is adopted from the work of Joe Griffin and Ivan Tyrrell, authors of The Primal Scream. Griffin and Tyrrell also published a sequel to their book, titled Free to Be Human.</v>
+      </c>
+      <c r="B393" t="str" xml:space="preserve">
+        <v xml:space="preserve">Konceptet hostagesituation härrör från Joe Griffin och Ivan Tyrrells bok Känslornas torn.
+Griffin och Tyrrell publicerade även en fortsättning av boken, under titeln Fri att vara människa. {{Grundvisningar}
+</v>
+      </c>
+      <c r="C393">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="394" xml:space="preserve">
+      <c r="A394" t="str">
+        <v>WELL, I THINK LIKE I SAID IT IS NOT EXACTLY GOOD, BUT YOU CANNOT SAY THAT THE PEOPLE DON'T WANT JOB. YOU CANNOT SAY THAT THE PEOPLE DON'T WANT TO WORK. THE SYSTEM JUST HAD A PROBLEM. AND FOR THE FIRST TIME, SOMEBODY IS INTERESTED. IT'S A COMPLEX SITUATION. IT'S NOT ONLY U.S., IT'S GLOBAL, AND THERE IS OBVIOUSLY A REASON TO BE REACTIONARY.</v>
+      </c>
+      <c r="B394" t="str" xml:space="preserve">
+        <v xml:space="preserve">IONE, JAG TROR VISST SOM JAG SAID DET ÄR INTE EXAKT GANSKA DUKTIEG MEN DU INTE KAN SÄGA DET DE MÄNNISKORTAV VILL INTE ARBETSPLATS. KAN DU INTE SÄGA DET SOM MÄNNISKORTAV VILL INTE ARBETA. DET SYSTEMET HAR BAR KORT PROBLEMET. OCH TILL FÖRSTA GÅNGEN, NÅGOT ÄR INTERESSERAD. DET ÄR EN KOMPLEXDERA SITUATIONEN. DET ÄR INTE BAR U.S., DET ÄR GLOBAL, OCH DET ÄR TYDLIGEN EN ORSAK FÖRÅ VARA REACTIONARY.
+</v>
+      </c>
+      <c r="C394">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="395" xml:space="preserve">
+      <c r="A395" t="str">
+        <v>I'm never overawed by a situation and I think that's because I've always looked several years older than I am. So because people were treating me like I was 40 when I was 29, I've always felt in control of a situation. People used to say, when you're 32, you'll look 32. I'm still waiting for that moment, where my age catches up with my appearance.</v>
+      </c>
+      <c r="B395" t="str" xml:space="preserve">
+        <v xml:space="preserve">Jag vänsäger alltid mig själv, jag är 37 år gammal, men jag har alltid sett yngre än mitt ålder. Så eftersom oss behandlade som jag var 40 när jag var 29, jag har alltid känt kontroll över situationen. Människor brukade säga, när du är 32, kommer du att ser ut som 32. Jag är fortfarande väntar på det momentet, mitt ålder blir i jämnhöjd med mitt utseende.
+</v>
+      </c>
+      <c r="C395">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="396" xml:space="preserve">
+      <c r="A396" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+I was wondering if you could tell me how to make these math problems more interesting.</v>
+      </c>
+      <c r="B396" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+Hur beskriver du magien i svenska?
+</v>
+      </c>
+      <c r="C396">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="397" xml:space="preserve">
+      <c r="A397" t="str">
+        <v>We’re looking for an experienced Content Marketing Manager, who also happens to be obsessed with thought leadership and building awareness across owned channels. You must love researching, writing, editing, and amplifying stories and in-depth content that educates and inspires. You’ll also be passionate about testing new ideas, leading our content marketing efforts and learning from our audience. The right person will have an eye for top-quality B2B marketing content and a data-driven mindset to help connect content strategy to business results. You’ll play a key role in elevating our content marketing program and landing it all on our website.</v>
+      </c>
+      <c r="B397" t="str" xml:space="preserve">
+        <v xml:space="preserve"># English
+We’re looking for an experienced Content Marketing Manager, who also happens to be obsessed with thought leadership and building awareness across owned channels. You must love researching, writing, editing, and amplifying stories and in-depth content that educates and inspires. You’ll also be passionate about testing new ideas, leading our content marketing efforts and learning from our audience. The right person will have an eye for top-quality B2B marketing content and a data-driven mindset to help connect content strategy to business results. You’ll play a key role in elevating our content marketing program and landing it all on our website.
+# Swedish
+Vi söker efter en erfaren marknadsföringschef som älskar strategier, att informera publiken över vårt egen kanael, samt intensivt är upptagen med varumärkesuppmärksamhet. Du måste älska att göra research, att skriva, redigera och stärka historik och hjälp innehåll som utbildar och inspirerar. Du blir också passionerad för att testa nya idéer, leda vår marknadsföringsstrategi och lär dig från våran publik. Den rätta personen har ögat för kvalitativt B2B marknadsföring, samt ett verksamhetsorienterat sätt för att hjälpa ansluta marknadsföringsstrategin mot våran verksamhet. Du får den viktiga rollen inom production av våra innehåll, samt marknadsföra detta digitalt på våran hemsida. 
+</v>
+      </c>
+      <c r="C397">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="398" xml:space="preserve">
+      <c r="A398" t="str">
+        <v>I was a 'Duck Hunt' and 'Mario' guy, and stuff like that. I was never technologically driven. I never had all the cool, new toys. I was the youngest child, I wasn't the only child, so I wasn't spoiled as a kid. And, we were on the farm, so we didn't have a lot. Also, with computers, I'm not very good with them. I just check my email.</v>
+      </c>
+      <c r="B398" t="str" xml:space="preserve">
+        <v xml:space="preserve">Det mesta. Allt, lägg till lite extra om du har tid.
+</v>
+      </c>
+      <c r="C398">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="399" xml:space="preserve">
+      <c r="A399" t="str">
+        <v>Margaret Sullivan: I had been at a small newspaper in California. I started my career at an evening daily newspaper called The San Bernardino Sun. I went straight from there to The New York Times in 1981. So it was a huge—it was a big leap in many ways—a leap into cultural elitism and sophistication. It was a wonderful, wonderful place to work. It was a very exciting time to be there because we were growing. Our circulation at the time was about 1.1 million. We were a big paper then. It's half that now. But we were in a great building in Times Square, and it was just exciting and exhilarating as you can imagine.</v>
+      </c>
+      <c r="B399" t="str" xml:space="preserve">
+        <v xml:space="preserve">Margaret Sullivan: Jag hade varit i en liten tidning i Kalifornien. Jag startade mitt karriär på en kväll dagligen tidning kallad The San Bernardino Sun. Jag gick direkt därifrån till New York Times år 1981. Så det var en stor rivning i många avseenden - en stor övergång i kulturell elitism och sofistikation. Det var en underbar, fantastiskt ställe att arbeta. Det var en mycket spännande tid att vara där för vi växte. Vår upplaga för tillfället var ungefär 1,1 miljoner. Vi var en stor tidning då. Det är halva det nu. Men vi var i ett fantastiskt byggnad i Times Square och det var bara spännande och upphetsande som man kan tänka sig.
+</v>
+      </c>
+      <c r="C399">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="400" xml:space="preserve">
+      <c r="A400" t="str" xml:space="preserve">
+        <v xml:space="preserve">Volunteering provides many tangible and intangible benefits.
+The tangible benefits of volunteering can include helping other people, improving one's own skills, building personal relationships, and having fun. The intangible benefits of volunteering can include increased self-awareness, civic engagement, and COMPASS skills.
+The most common tangible benefits of volunteering are helping other people, skill development, and building relationships. Volunteer experiences can help people learn new skills, improve their work ethic, and build social networks. Volunteering can also lead to new opportunities, such as finding a new job or becoming more involved in a community.
+The intangible benefits of volunteering are increased self-awareness, civic engagement, and COMPASS skills. Volunteering can help people learn more about themselves and their community. Furthermore, volunteering can lead to personal growth and development, such as increased empathy and compassion. Additionally, volunteering can increase one's knowledge and understanding of different topics, which can help them in their career or other areas of life.
+Overall, the tangible and intangible benefits of volunteering are significant. Many people find the benefits of volunteering to be worth the time and effort required to participate.</v>
+      </c>
+      <c r="B400" t="str" xml:space="preserve">
+        <v xml:space="preserve">Volontärarbete ger många praktiska och immateriella vinster.
+De mer konkreta fördelarna med volontärarbete kan inkludera att hjälpa andra människor, att förbättra ens egna färdigheter, bygga personliga förhållanden och att ha kul. De immateriella fördelarna med volontärarbete kan inkludera ökad självmedvetenhet, medborgardelta-gande och COMPASS-kunnande.
+De vanligaste mer faktiska fördelarna med volontärarbete är att hjälpa andra människor, utveckla praktiska färdigheter och att bygga förhållanden. Volontärupplevelser kan hjälpa människor att lära sig nya färdigheter, förbättra deras arbetsmoral och bygga sociala nätverk. Volontärverksamhet kan också leda till nya möjligheter, till exempel att hitta ett nytt jobb eller att bli mer engagerad i en gemenskap.
+De immateriella fördelarna med volontärarbete är ökad jagmed-vetenhet, medborgerligt deltagande och COMPASS-kunskaper. Volontärarbete kan hjälpa människor att lära sig mer om sig själva och deras gemenskap. Dessutom kan volontärarbete leda till personlig tillväxt och utveckling, till exempel ökad empati och medkänsla. Dessutom kan volontärarbete öka någon kunskap och förståelse för olika ämnen, vilket kan hjälpa dem i deras karriär eller andra områden i livet.
+Överlag är de mer konkreta och de immateriella fördelarna med volontärarbete stora. många människor finner det att fördelarna med volontärarbete är värt den tid och ansträngning som krävs för att delta.
+</v>
+      </c>
+      <c r="C400">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="401" xml:space="preserve">
+      <c r="A401" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+I am working on an app that would allow users to track their food intake and create healthy meal plans. This would help people to stay on track with their diet and lose weight. The app would have a grocery list feature, so people could input what they're eating and the app would take care of the rest.</v>
+      </c>
+      <c r="B401" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+Jag jobbar med en app som skulle låta användare att följa sin matintag och skapa hälsosamma måltidsplaner. Detta skulle hjälpa människor att hålla sig till spåret med sin diet och gå ner i vikt. Appen skulle har en mata lista funktion, så att människor kan ange vad de äter och appen skulle ta hand om resten.
+</v>
+      </c>
+      <c r="C401">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="402" xml:space="preserve">
+      <c r="A402" t="str">
+        <v>I believe there is still space for assertiveness in these new post-truth times. Assertiveness is a communication style that respects the rights and needs of others while also protecting and promoting your own rights, needs, interests, or values. It’s considered a balance between passivity, where you don’t express yourself at all, and aggression, where you don’t care what anyone thinks – you just want your own way. When we are tolerant and respectful of the human rights and needs of others, we are able to build a common ground for understanding and for collaboration.</v>
+      </c>
+      <c r="B402" t="str" xml:space="preserve">
+        <v xml:space="preserve">Jag tror det fortfarande finns plats för säkerhet i dessa nya post-truth-tider. Att få säkerhet är en kommunikationstil som respekterar andras rättigheter och behov samtidigt som den skyddar och främjar dina egna rättigheter, behov, intressen eller värden. Det anses vara en balans mellan passivitet, där du inte uttrycker dig alls, och aggression, där du inte bryr dig om vad någon tänker - du vill bara ha din egen väg. När vi är toleranta och respektfulla för andras mänskliga rättigheter och behov är vi i stånd att bygga ett gemensamt grund för förståelse och samarbete.
+</v>
+      </c>
+      <c r="C402">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="403" xml:space="preserve">
+      <c r="A403" t="str">
+        <v>OK, so my parents were married in 1955 and my mom knew my dad was gay and my dad knew he was gay and so I was, like, 'Why in the heck did you get married?' Like, what was going on? What was that time? It's like this crazy paradox that my whole life is based on, or my family's based on. So I spent a lot of time trying to understand '55.</v>
+      </c>
+      <c r="B403" t="str" xml:space="preserve">
+        <v xml:space="preserve">OK, so my parents were married in 1955 and my mom knew my dad was gay and my dad knew he was gay and so I was, like, 'Why in the heck did you get married?' Like, what was going on? What was that time? It's like this crazy paradox that my whole life is based on, or my family's based on. So I spent a lot of time trying to understand '55.
+OK, så mina föräldrar gifte sig 1955 och min mamma visste drive mamma var bög och att pappa visste han var bög och så var jag, som, 'Varför i helvete kom du gifta mig?' Såsom, vad var det som hände? Vad var det för tid? det liknar denna galna paradoksen som mitt hela liv är baserat på, eller min familj är baserad på. Så jag spenderar a lot Mycket tid för att förstå '55.
+</v>
+      </c>
+      <c r="C403">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="404" xml:space="preserve">
+      <c r="A404" t="str">
+        <v>I'd do pretty much anything to get back on stage. I'd like to develop a new musical. I nearly had a heart attack when I heard that they're developing John Waters' Cry-Baby because that is so amazing and super and wonderful and I wish that I could be involved. But it's not the right time and I understand that. But I hear things like that and I get that little tingle in my stomach.</v>
+      </c>
+      <c r="B404" t="str" xml:space="preserve">
+        <v xml:space="preserve">Jag skulle göra vad som helst för att komma tillbaka på scenen. Jag skulle vilja utveckla en ny musikal. Nära på att jag fick en hjärtattack när jag hörde att de utvecklar John Waters "Cry-Baby " eftersom att det är så fantastiska och super och underbara och jag önska att jag kunde vara involverade. Men det är inte rätt tidpunkt och jag förstår det. Men jag hör sånt och jag får den lilla pirret i magen.
+</v>
+      </c>
+      <c r="C404">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="405" xml:space="preserve">
+      <c r="A405" t="str" xml:space="preserve">
+        <v xml:space="preserve">The Scopes trial of 1925 was one of the most significant events in American History. The trial was fought over the belief of creationism, or the belief that God created the universe and all that exists within it in its present form. The trial pitted science against religion and it was seen as a battle between the individual and the establishment.
+The trial began in Dayton, Tennessee on February 24th and ended on March 25th. The trial was presided over by John T. Scopes and it involved the trial of William Jennings Bryan, a well-known religious figure who was the most vocal opponent of creationism. Bryan was charged with breaking the Tennessee law against teaching evolution, which was seen by many as an attack on religious beliefs.
+The trial was a famous one and it had a large impact on American society. The outcome of the trial was controversial and it created a divide in the American public. The majority of the population believed in evolution and saw the trial as a battle between science and religion. However, there was a small group of people who believed in creationism and they saw the trial as a battle between good and evil.
+The trial was a significant event in American History because it created a divide in the American public. The majority of the population believed in evolution and saw the trial as a battle between science and religion. However, there was a small group of people who believed in creationism and they saw the trial as a battle between good and evil. The outcome of the trial was controversial and it created a divide in the American public. The majority of the population believed in evolution and saw the trial as a battle between science and religion. However, there was a small group of people who believed in creationism and they saw the trial as a battle between good and evil. The outcome of the trial was controversial and it created a divide in the American public. The majority of the population believed in evolution and saw the trial as a battle between science and religion. However, there was a small group of people who believed in creationism and they saw the trial as a battle between good and evil.</v>
+      </c>
+      <c r="B405" t="str" xml:space="preserve">
+        <v xml:space="preserve">Scopesrättegången av år 1925 var en av de viktigaste händelserna i amerikansk historia. Att rätten var utkämpad över tron på skapelseism, som troen att Gud skapade universum och allt som finns inom det i dess nuvarande form. Fältet sattes mot religionen och det sågs som en strid mellan individen och etablissemanget.
+Att rätten inleddes i Dayton, Tennessee mellan den 24 februari och den slutade 25 mars. Fältet var övervakade av John T. Scopes och det handlade om William Jennings Bryans rätt, en välkänd religiös figur som var det mest framträdande motståndaren av skapelseismen. Bryan anklagades för att bryta Tennessee lagarna mot att leva Framstegs dacht tro, vilket sågs av många som ett anfall på religiösa övertygelser.
+Att rätten var berömd och den hade en stor inverkan på amerikansk samhälle. Utfallet av fallet var kontroversiellt och det skapar en delning i den amerikanska allmänheten. de flesta invånarna trodde på evolution och såg dennes rättegång som en kamp mellan vetenskap och religion. Det fanns emellertid en liten grupp människor som trodde på skapelseism och de såg satt som en strid mellan gott och ont.
+Att rätten var en betydande händelse i amerikansk historia eftersom det skapade en delning i den amerikanska allmänheten. Majoriteten av den befolkningen i evolution och såg prospektet som en kamp mellan vetenskap och religion. Det var emellertid en liten grupp som frivilliga i det, som den såg som en strid mellan gott och ont.
+</v>
+      </c>
+      <c r="C405">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="406" xml:space="preserve">
+      <c r="A406" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+I am creating a lightweight tool to help automate the process of finding and verifying software dependencies. The tool will be able to find and verify dependencies using a variety of methods, including but not limited to, command line options, API calls, and a comprehensive search engine. The tool will also be able to generate reports detailing the dependencies found and the status of each dependency.</v>
+      </c>
+      <c r="B406" t="str" xml:space="preserve">
+        <v xml:space="preserve">english-version:
+I am creating a lightweight tool to help automate the process of finding and verifying software dependencies. The tool will be able to find and verify dependencies using a variety of methods, including but not limited to, command line options, API calls, and a comprehensive search engine. The tool will also be able to generate reports detailing the dependencies found and the status of each dependency.
+swedish-version:
+Jag skapar ett lättviktigt verktyg för att hjälpa till att automatisera processen att hitta och verifiera programvaru beroenden. Verktyget kommer att kunna hitta och verifiera beroenden använder en mängd olika metoder, bland annat men inte begränsat till, kommandoraden alternativ, API-anrop och en omfattande sökmotor. Verktyget kommer också att kunna generera rapporter som redogör för de beroenden hittas och status för varje beroende.
+</v>
+      </c>
+      <c r="C406">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="407" xml:space="preserve">
+      <c r="A407" t="str">
+        <v>The first thing I noticed about the man was his eyes. They were the color of the sky on a clear day, and they were filled with a sadness that I had never seen before. He was tall and thin, and his clothes were old and worn. He had a long beard and a mustache, and his hair was long and gray. He looked like a man who had been through a lot in his life.</v>
+      </c>
+      <c r="B407" t="str" xml:space="preserve">
+        <v xml:space="preserve">The first thing I noticed about the man was his eyes. They were the color of the sky on a clear day, and they were filled with a sadness that I had never seen before. He was tall and thin, and his clothes were old and worn. He had a long beard and a mustache, and his hair was long and gray. He looked like a man who had been through a lot in his life.
+Det första som jag märkte om man var hans ögon. De var färgen på himlen en klar dag, och de var fyllda med en sorg som jag aldrig sett förr. Han var lång och tunn, och hans kläder var gamla och slitna. Han hade en lång skägg och mustasch, och hans hår var långt och grått. Han såg ut som en man som hade varit igenom en hel del i sitt liv.
+</v>
+      </c>
+      <c r="C407">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="408" xml:space="preserve">
+      <c r="A408" t="str">
+        <v>Margaret Sullivan: I had been at a small newspaper in California. I started my career at an evening daily newspaper called The San Bernardino Sun. I went straight from there to The New York Times in 1981. So it was a huge—it was a big leap in many ways—a leap into cultural elitism and sophistication. It was a wonderful, wonderful place to work. It was a very exciting time to be there because we were growing. Our circulation at the time was about 1.1 million. We were a big paper then. It's half that now. But we were in a great building in Times Square, and it was just exciting and exhilarating as you can imagine.</v>
+      </c>
+      <c r="B408" t="str" xml:space="preserve">
+        <v xml:space="preserve">Margaret Sullivan, jag hade varit på en liten tidning i Kalifornien. Jag började min karriär som slutade daglig papper som heter The San Bernardino Sun. Jag gick direkt därifrån till New York Times 1981. Det var ett stort sprang i många avseenden, en förskjutning inom kulturell elitism och sofistikation. Det var en underbar, fantastiskt ställe att arbeta. Det var en mycket spännande tid att vara där för vi växte. Vårt upplag i nuvarande storlek är cirka 1,1 miljon. Vi var en stor pappersvaran då. Det är hälften av nu. Men vi var i ett stort inflytande på Times Square, och det var bara spännande och äventyr som man kan föreställa.
+</v>
+      </c>
+      <c r="C408">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="409" xml:space="preserve">
+      <c r="A409" t="str">
+        <v>The young woman in the photograph is Misery. Her eyes are sunken, her face gaunt and drawn with embarrassment. She's wearing a shabby dress and an expression of utter hopelessness graces her features. While it's not clear who this woman is or where the photo was taken, they have left us one lasting reminder: that behind every beautiful smile lies pain and suffering.</v>
+      </c>
+      <c r="B409" t="str" xml:space="preserve">
+        <v xml:space="preserve">Kvinnan i bilden är förtryckt. Hennes ögon är sunkiga, hennes ansikte
+slitet och utmattat. Hon har på sig en karakteristiskt eländig klänning
+och ett uttryck av slutobarmhärtig flathet pryde hennes genialitetsland
+features. Medan det är otydligt vem kvinnan är och var bilden togs på,
+har de lämnat oss en enda bestående påminnelse: att bakom varje
+vacker leende finns smärta och lidande. 
+The young woman in the photograph is Misery. Her eyes are sunken, her face gaunt and drawn with embarrassment. She's wearing a shabby dress and an expression of utter hopelessness graces her features. While it's not clear who this woman is or where the photo was taken, they have left us one lasting reminder: that behind every beautiful smile lies pain and suffering.
+</v>
+      </c>
+      <c r="C409">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="410" xml:space="preserve">
+      <c r="A410" t="str" xml:space="preserve">
+        <v xml:space="preserve">As humans, we are constantly seeking approval and understanding. We need people in our lives to tell us what is right and what is wrong, to validate our choices, and to love us without reservation. Being a good person allows us to feel connected to others around us, and makes life more fun. Here are five reasons why it is so important for everyone to be a good person:
+1. It can make you happier. When you find joy in your life, everything else seems much easier. People tend to achieve happiness when they have purpose and meaning in their lives. Good people can often remember happy memories while bad people forget very quickly. being a good person gives somebody else's happiness some focus, which makes them likely to stay positive throughout their day.
+2. It can help you make better decisions. Good decisions involve taking information into account, weighing the pros and cons of different options, and Imagining the future. The more time you spend thinking positively about yourself, the better chance you have of making sound judgement calls that lead to successful outcomes.
+3. It can protect you from harm.Good people are frequently seen as the Buffer Between Safety and Danger because they take extra precautions such as being kind-hearted and watching out for others, even if they don't always know what they're doing. They also listen carefully when someone needs help, offer support if possible, or take action when something bad happens. This type of behavior strengthens relationships by reassuring other members of the community that someone will keep them safe no matter what – even if that individual isn't particularlyocial or safe-minded themselves!
+4. It can make you happier than bad people. When somebody is behaving in an immoral or harmful way (e.g., by harming another person), it feels satisfying and like they're getting away with murder – in a way that good people never experience pleasure from anything they do! People who are good at living constructive meaningful lives generally have a much harder time feeling angry or resentful towards others than those who aren't so lucky (or who choose not to try). In fact, most research indicates that having such positive outlooks leads individuals to report lower levels of anger, stress, worry etc., compared with individuals with negative outlooks on themselves or on the world around them.
+5. It can help you get along with others.Everybody needs to feel accepted and liked at some point in their lives, no matter how popular or popularized that idea may be. Being kind-hearted and humble will do the trick – even if you don't receive a lot of compliments for it in your day-to-day life. People who are good people generally have better relationships than those who aren't. They typically understand and know how to communicate effectively, which allows them to build Trust faster than those who are not so inclined.</v>
+      </c>
+      <c r="B410" t="str" xml:space="preserve">
+        <v xml:space="preserve">som människor, söker vi ständigt godkännande och förståelse. Vi behöver någon i våra liv som berättar för oss vad är rätt och vad som är fel, börja validerat våra val, och att älska oss+.
+</v>
+      </c>
+      <c r="C410">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="411" xml:space="preserve">
+      <c r="A411" t="str">
+        <v>This book was amazing. I never expected it to be so good, but it was. The writing was great, the characters were well-drawn, and the plot was exciting. I would definitely recommend this book to anyone.</v>
+      </c>
+      <c r="B411" t="str" xml:space="preserve">
+        <v xml:space="preserve">This book was amazing. I never expected it to be so good, but it was. The writing was great, the characters were well-drawn, and the plot was exciting. I would definitely recommend this book to anyone.
+Detta boken var otroligt. Jag hade aldrig väntat på att det skulle vara så bra, men det var. Språket var underbart, karaktärsdrogerningen var bra, och intrigen var spännande. Jag skulle definitivt rekommendera den här boken till någon.
+</v>
+      </c>
+      <c r="C411">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="412" xml:space="preserve">
+      <c r="A412" t="str">
+        <v>Since 'Idol' I've gotten used to having an amazing hair and make-up team around me, so I'm starting to get picky. I know what I like now and I'm happy to say 'Could we maybe change that?' if I don't like something. I don't yell or anything, but I think I could definitely start to act a little diva-ish when it comes to my look.</v>
+      </c>
+      <c r="B412" t="str" xml:space="preserve">
+        <v xml:space="preserve">Sen jag var med i Idol, har jag blivit van vid att ha en fantastiskt
+hår och smink team runt omkring mig. Därför börjar jag bli lite
+pyrig nu. Jag vet vad jag gillar och jag vill inte längre bara säga
+ja utan istället prova på olika saker och ibland är nog ja,
+nej. Jag skriker inte, men jag kan nog bli lite som en lite för
+stor diva när det kommer till min look.
+</v>
+      </c>
+      <c r="C412">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="413" xml:space="preserve">
+      <c r="A413" t="str" xml:space="preserve">
+        <v xml:space="preserve">As humans, we are constantly seeking approval and understanding. We need people in our lives to tell us what is right and what is wrong, to validate our choices, and to love us without reservation. Being a good person allows us to feel connected to others around us, and makes life more fun. Here are five reasons why it is so important for everyone to be a good person:
+1. It can make you happier. When you find joy in your life, everything else seems much easier. People tend to achieve happiness when they have purpose and meaning in their lives. Good people can often remember happy memories while bad people forget very quickly. being a good person gives somebody else's happiness some focus, which makes them likely to stay positive throughout their day.
+2. It can help you make better decisions. Good decisions involve taking information into account, weighing the pros and cons of different options, and Imagining the future. The more time you spend thinking positively about yourself, the better chance you have of making sound judgement calls that lead to successful outcomes.
+3. It can protect you from harm.Good people are frequently seen as the Buffer Between Safety and Danger because they take extra precautions such as being kind-hearted and watching out for others, even if they don't always know what they're doing. They also listen carefully when someone needs help, offer support if possible, or take action when something bad happens. This type of behavior strengthens relationships by reassuring other members of the community that someone will keep them safe no matter what – even if that individual isn't particularlyocial or safe-minded themselves!
+4. It can make you happier than bad people. When somebody is behaving in an immoral or harmful way (e.g., by harming another person), it feels satisfying and like they're getting away with murder – in a way that good people never experience pleasure from anything they do! People who are good at living constructive meaningful lives generally have a much harder time feeling angry or resentful towards others than those who aren't so lucky (or who choose not to try). In fact, most research indicates that having such positive outlooks leads individuals to report lower levels of anger, stress, worry etc., compared with individuals with negative outlooks on themselves or on the world around them.
+5. It can help you get along with others.Everybody needs to feel accepted and liked at some point in their lives, no matter how popular or popularized that idea may be. Being kind-hearted and humble will do the trick – even if you don't receive a lot of compliments for it in your day-to-day life. People who are good people generally have better relationships than those who aren't. They typically understand and know how to communicate effectively, which allows them to build Trust faster than those who are not so inclined.</v>
+      </c>
+      <c r="B413" t="str" xml:space="preserve">
+        <v xml:space="preserve">Som människor söker vi ständigt godkännande och förståelse. Vi behöver människor i våra liv för att berätta vad som är rätt och fel, att bekräfta våra val och att älska oss utan reserv. Att vara en bra person gör att vi kan känna oss förbindade med andra runt oss och gör livet trevligare
+Här är fem anledningar till varför det är så viktigt för alla att vara en bra människa
+1. Det kan göra dig gladare. När du är lycklig i ditt liv verkar allt mycket lättare. Människor tenderar att uppnå lycka när de har syfte och mening i livet. Bra människor kan ofta minnas glada minnen medan dåliga människor snabbt glömmer. att vara en bra person ger någon annans lycka tyngdpunkten, vilket gör att han eller hon troligtvis håller sig positiv hela dagen.
+2. Det kan hjälpa dig att fatta bättre beslut. Bra beslut innefattar att ta hänsyn till information, väga för- och nackdelar med olika alternativ och föreställa mig framtiden. Ju mer tid du investerar i att tänka positivt om dig själv, desto större chans har du att göra ljudet beslut som leder till framgångsrika resultat.
+3. Det kan skydda dig från skada. Goda människor ses ofta som bufferten mellan säkerhet och fara eftersom de tar ytterligare försiktighetsåtgärder som att vara godhjärtad och hålla utkik efter andra, även om de inte alltid vet vad de gör De lyssnar också noga när någon behöver hjälp, erbjuder stöd om möjligt eller agerar när något dåligt händer. Denna typ av beteende stärker relationer och tryggar andra medlemmar i samhället att någon kommer att hålla dem säkra oavsett vad - även om den enskilde inte ä
+4. It can make you happier than bad people. When somebody is behaving in an immoral or harmful way (e.g., by harming another person), it feels satisfying and like they're getting away with murder – in a way that good people never experience pleasure from anything they do! People who are good at living constructive meaningful lives generally have a much harder time feeling angry or resentful towards others than those who aren't so lucky (or who choose not to try). In fact, most research indicates that having such positive outlooks leads individuals to report lower levels of anger, stress, worry etc., compared with individuals with negative outlooks on themselves or on the world around them.
+5. It can help you get along with others.Everybody needs to feel accepted and liked at some point in their lives, no matter how popular or popularized that idea may be. Being kind-hearted and humble will do the trick – even if you don't receive a lot of compliments for it in your day-to-day life. People who are good people generally have better relationships than those who aren't. They typically understand and know how to communicate effectively, which allows them to build Trust faster than those who are not so inclined.
+</v>
+      </c>
+      <c r="C413">
+        <v>1628</v>
+      </c>
+    </row>
+    <row r="414" xml:space="preserve">
+      <c r="A414" t="str">
+        <v>There is some literature that describes this phenomenon as self-victimization or the self-fulfilling prophecy.</v>
+      </c>
+      <c r="B414" t="str" xml:space="preserve">
+        <v xml:space="preserve">Det finns viss litteratur som beskriver detta fenomen som självförvållad offerkultur eller den själfförverkligande profetian.
+Det är en av orsakerna till varför människor hävdar att alarmerande mängder av barn blir könsuttrycksförvirrade och vill "transitionera". 
+</v>
+      </c>
+      <c r="C414">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="415" xml:space="preserve">
+      <c r="A415" t="str">
+        <v>Higher education has the unrivalled capacity to pursue and shape the values, knowledge, skills and research that are crucial to a society shifting to a low-carbon and safe future . . . The usual concerns of research and teaching excellence, competitive league tables, student and staff retention and so on now need to be put into the broader vision and goal of economic and social well-being nested in the imperative of planetary survival; and while there is still time to make a critical difference.</v>
+      </c>
+      <c r="B415" t="str" xml:space="preserve">
+        <v xml:space="preserve">Högre utbildning ensam har potentialen att förfölja och utforma värden, kunskaper, färdigheter och forskning som är viktiga för en samhällsförändring mot en låg koldioxid och säker framtid...
+Det vanliga bekymren av forskning och undervisning hög kvalité, tävlingsinriktade tidskriftslistor, studenter och personal retention and so on nu behöver stoppas in i den bredare vision och mål av ekonomisk och social välfärd som finns i planetens överlevnad; och när det ännu finns tid att göra en väsentlig skillnad.
+Higher education has the unrivalled capacity to pursue and shape the values, knowledge, skills and research that are crucial to a society shifting to a low-carbon and safe future . . .
+The usual concerns of research and teaching excellence, competitive league tables, student and staff retention and so on now need to be put into the broader vision and goal of economic and social well-being nested in the imperative of planetary survival; and while there is still time to make a critical difference.
+</v>
+      </c>
+      <c r="C415">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="416" xml:space="preserve">
+      <c r="A416" t="str">
+        <v>The obesity epidemic is on the rise, and it’s not just a problem for older adults. Obesity rates are increasing for everyone, regardless of age. A study from The Lancet found that overall, obesity rates have increased in every country studied since 1993. The reasons behind this increase are many, but one big factor is changes in eating habits. Obesity is now more likely because people are eating more processed foods andriel lamborghini Odd Future lip sync youtube than they were in the past. In addition, there is an increase in physical activity levels, which has led to an increase in weight and inches across the board. There are many ways to help fight against obesity, and you don’t have to be obese to see the effects. Education is key – provide children and adults with information about what calories really mean and howto lose weight safely. Let people know that healthy eating habits consist of eating plenty of fruits and vegetables, low-fat proteins, whole grains, nuts and seeds, low-calorie dairy products, poultry or fish instead of pork or fast food restaurants. It can be difficult to change general behavior when unhealthy eating habits are entrenched, but there are some things you can do to make a difference. One approach istargeting those who have been previously successful at losing weight – including parents or adults who know their own potential body size – by providing them with Prevention programs specifically designed for them. Another approach is to create healthier lifestyles around meals. Eating a balanced diet that includes fruits and vegetables, whole grains, nuts and seeds, lower-calorie dairy products, poultry or fish instead of pork or fast food restaurants will help you lose weight while maintaining your health condition.</v>
+      </c>
+      <c r="B416" t="str" xml:space="preserve">
+        <v xml:space="preserve">Den fetma epidemi är på uppgång, och det är inte bara ett problem för äldre. Fetma har ökat för alla, oavsett ålder. En studie från The Lancet fann att i stort sett har fetma priser ökat i varje land som studerats sedan 1993. Anledningarna till den här ökningen är många, men en stor faktor är förändringar av kostvanor. Fetma är nu mer troligt eftersom folk äter mer förädlade livsmedel än vad de gjorde i det förflutna. Dessutom är det en ökning av fysisk aktivitet nivåer, vilket har lett till en ökning av vikt och tum över hela brädet. Det finns många sätt att hjälpa tillfight mot fetma, och du behöver inte vara överviktig för att se resultatet. Undervisning är viktigt - ge barn och vuxna med information om vad kalorier verkligen betyder och hurman säkert gå ner i vikt. Låt folk veta att hälsosamma matvanor består av att äta massor av frukter och grönsaker, låg fettproteiner, fullkorn, nötter och frön, lågkalori mejeriprodukter , fjäderfä eller fisk istället för fläskkött eller snabbmat restauranger.
+Det kan vara svårt att byta generellt beteende när ohälsosamma matvanor är fast, men det finns några saker du kan göra för att göra skillnad. En möjlighet att välja utgrupper som tidigare har varit framgångsrikt vid att gå ner i vikt - inklusive föräldrar eller vuxna som vet sitt eget potential kropp storlek - genom att ge dem preventionprogram som specifikt är framtagna för dem. En annan metod är att skapa hälsosammare levnadssätt runt måltiderna. Att äta en balanserad kost som består av frukt och grönsaker, fullkorn, nötter och frön, låg kalori mejeriprodukter, fläsk eller fisk istället för fläskkött eller snabbmat restauranger kommer att hjälpa dig att gå ner i vikt, samtidigt som man håller din hälsa villkor.
+</v>
+      </c>
+      <c r="C416">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="417" xml:space="preserve">
+      <c r="A417" t="str">
+        <v>The methodological advice to interpret in a way that optimizes agreement should not be conceived as resting on a charitable assumption about human intelligence that might turn out to be false. If we cannot find a way to interpret the utterances and other behaviour of a creature as revealing a set of beliefs largely consistent and true by our standards, we have no reason to count that creature as rational, as having beliefs, or as saying anything.</v>
+      </c>
+      <c r="B417" t="str" xml:space="preserve">
+        <v xml:space="preserve">Den metodiska råden att tolka på ett sätt att optimerar överensstämmelse bör inte ses som vilande på en givmild förutsättning om mänsklig intelligens som kunde visa sig fel . Om vi kan inte hitta en väg att tolka yttranden och annat beteende hos en varelse avslöjar ett sätt att tro stort sett konsistent och sant efter vår standard , har vi ingen anledning att räkna med att varelse som rationell, med tro eller som säger något .
+</v>
+      </c>
+      <c r="C417">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="418" xml:space="preserve">
+      <c r="A418" t="str">
+        <v>I liked the way my character, Shane, was first introduced. You get introduced to her through this sexual action, and I thought that was so cool and just kind of summed up what she enjoys and who she is, to a certain extent. She's a complete sexual being and the great thing is that she doesn't apologize for it. It's just who she is. We rarely see women be able to do that on television.</v>
+      </c>
+      <c r="B418" t="str" xml:space="preserve">
+        <v xml:space="preserve">Jag gillar hur min karaktär Shane, presenterades första gången. Du blir bekant med henne via sexuell aktivitet, och jag tyckte det var så coolt att det sammanfattade vad hon tycker om och vem hon är, i ett viss mån. Hon är en helt sexuell varelse och det bra är att hon inte beklagar sig över det. Det är bara vem hon är. Vi ser sällan kvinnor bekäfta det på TV.
+</v>
+      </c>
+      <c r="C418">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="419" xml:space="preserve">
+      <c r="A419" t="str">
+        <v>This whole business of Trade gives me to pause and think, as it constitutes false relations between men; inasmuch as I am prone to count myself relieved of any responsibility to behave well and nobly to that person who I pay with money, whereas if I had not that commodity, I should be put on my good behavior in all companies, and man would be a benefactor to man, as being himself his only certificate that he had a right to those aids and services which each asked of the other.</v>
+      </c>
+      <c r="B419" t="str" xml:space="preserve">
+        <v xml:space="preserve">This whole business of Trade gives me to pause and think, as it constitutes false relations between men; inasmuch as I am prone to count myself relieved of any responsibility to behave well and nobly to that person who I pay with money, whereas if I had not that commodity, I should be put on my good behavior in all companies, and man would be a benefactor to man, as being himself his only certificate that he had a right to those aids and services which each asked of the other.
+Sam!
+Det här hela sakerna med handel är typen av material jag förmodligen inte borde skriva på, och dessa falska relatiojoner pågår i det här landet.
+Att jag personligen reklamerar för en viss servicen hos den personen min givar mig pengar att få av tillsammans med dessa so-(seade materilaistiska) omstädningar av världen, garnår det nu att han sluppit betala en enda sur som direkt skadat mig lika onödigt som det har gjort, vilket skapats av en nom allvid, trolösonsfördrivare allvid.
+Om vi, de sunda människorna, a´had vår mycket väl befogat tråns skänkt åt det filmruska som plågar dem med, skulle vi glömdt vila våra svårigheter ifatt formen unikt nog av vår tro.
+\Välsignad varje skapelse på jorden som förödrar djävulen, och gör dicht pötr*oö?*,
+</v>
+      </c>
+      <c r="C419">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="420" xml:space="preserve">
+      <c r="A420" t="str" xml:space="preserve">
+        <v xml:space="preserve">The relationship between climate change and mental health is poorly understood. While increasing attention has been paid to the physical health consequences of climate change, few studies have examined the psychological adjustments that may be made by people in climate-affected areas. This study aimed to investigate the relationship between climate change and mental health in a dryland region of Kenya. Data were collected from 300 adults from 10 sites in Laikipia County, Kenya. Logistic regression model was employed to determine the association between future climate change and mental health. Significant associations were found between climate change-related variables, including lower nervous energy, poor appetite, and poor sleep quality, and the risk of psychological distress. 
+The findings suggest that the mental health impacts of climate change may be most severe in dryland regions. However, the results should be interpreted with caution due to the cross-sectional design. Additional studies are needed to confirm the findings, and to determine the mechanisms through which climate change impacts psychological distress.</v>
+      </c>
+      <c r="B420" t="str" xml:space="preserve">
+        <v xml:space="preserve">Det finns en ofullständig möjlighet för förhållandet mellan klimatförändringar och psykiskt häls. Medan alltmer uppmärksamhet har ägnats de fysiska konsekvenserna av klimatförändringen, har få studier undersökt den psykologiska justeringarna som människor i klimatpåverkade områden kan göra.Denna studie syftade till att undersöka relationen mellan klimatförändring och psykisk hälsa i en torknejdregion i Kenya. Data samlades in från 300 vuxna från 10 platser i Laikipia län i Kenya. En logistisk regressionsmodell användes för att ta reda på den association mellan framtida klimatförändring och mental hälsa.Signifikanta associationer fanns mellan klimatförändrings relaterade variabler, inklusive mindre nervs energ, dålig aptit och dålig sömnkvalitet, och risken för psykisk distress.
+Findings föreslår att mentals hälsoeffekter av klimatförändring kan vara värst i torknejdstobias. Resultaten bör dock tolkas med försiktighet på grund av den korssamlad sanstafa. Ytterligare studier behövs för att bekräfta resultaten och bestämma mechansmerna som klimatförändringen ofhere att arbeta psykiskt stress.
+</v>
+      </c>
+      <c r="C420">
+        <v>863</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C230"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C420"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/testing.xlsx
+++ b/testing.xlsx
@@ -4,6 +4,8 @@
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
 </workbook>
 </file>
@@ -397,7 +399,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C420"/>
+  <dimension ref="A1:C559"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -2289,43 +2291,19 @@
 The trial was a significant event in American History because it created a divide in the American public. The majority of the population believed in evolution and saw the trial as a battle between science and religion. However, there was a small group of people who believed in creationism and they saw the trial as a battle between good and evil. The outcome of the trial was controversial and it created a divide in the American public. The majority of the population believed in evolution and saw the trial as a battle between science and religion. However, there was a small group of people who believed in creationism and they saw the trial as a battle between good and evil. The outcome of the trial was controversial and it created a divide in the American public. The majority of the population believed in evolution and saw the trial as a battle between science and religion. However, there was a small group of people who believed in creationism and they saw the trial as a battle between good and evil.</v>
       </c>
     </row>
-    <row r="328" xml:space="preserve">
+    <row r="328">
       <c r="A328" t="str">
         <v>When I arrived in New Zealand, I was cautious, tentative, nervous. The foreignness was profound and biting. In the North American West, I was used mountains, forests, rivers, and fields. I could feel at home in the familiar. In New Zealand, everything was foreign. Everything was unfamiliar. Every decision was new</v>
       </c>
-      <c r="B328" t="str" xml:space="preserve">
-        <v xml:space="preserve">When I arrived in New Zealand, I was cautious, tentative, nervous. The foreignness was profound and biting. In the North American West, I was used mountains, forests, rivers, and fields. I could feel at home in the familiar. In New Zealand, everything was foreign. Everything was unfamiliar. Every decision was new
-När jag anlände till Nya Zeeland, jag var försiktig, tveksam, nervös. Det främmande vardjup och
-bitande. I North American West, brukade jag i berg, skogar, floder och fält. Jag kunde att känna sig hemma i bekant.
-I Nya Zeeland, var allt främmande. Allt var okänt. Alla beslut var nya.
-</v>
-      </c>
-      <c r="C328">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="329" xml:space="preserve">
+    </row>
+    <row r="329">
       <c r="A329" t="str">
         <v>We do have food; however, I am currently unsure concerning the variety that would appease your appetite at this present point in our dialogue together while enjoying ourselves within each other's company here on Earth on our glorious planet that orbits around a star found within one galaxy of potentially infinite galaxies inhabited by extreme possibilities surrounding all manifestations and idea(s)</v>
       </c>
-      <c r="B329" t="str" xml:space="preserve">
-        <v xml:space="preserve">Vi har mat; dock är jag osäker med tanke på att varietet skulle tillfredsställa din aptit just nu i discoun medan vi uppehåller oss inom varandra företag här på jorden på vår ärorika planet som kretsar kring en stjärna i en galax och antalet galaxer torde vara oändliga och beboas av possibliteter som i minsta cell innehåller våra hela manifestion
-</v>
-      </c>
-      <c r="C329">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="330" xml:space="preserve">
+    </row>
+    <row r="330">
       <c r="A330" t="str">
         <v>WELL, I THINK LIKE I SAID IT IS NOT EXACTLY GOOD, BUT YOU CANNOT SAY THAT THE PEOPLE DON'T WANT JOB. YOU CANNOT SAY THAT THE PEOPLE DON'T WANT TO WORK. THE SYSTEM JUST HAD A PROBLEM. AND FOR THE FIRST TIME, SOMEBODY IS INTERESTED. IT'S A COMPLEX SITUATION. IT'S NOT ONLY U.S., IT'S GLOBAL, AND THERE IS OBVIOUSLY A REASON TO BE REACTIONARY.</v>
-      </c>
-      <c r="B330" t="str" xml:space="preserve">
-        <v xml:space="preserve">NÅVÄL, JAG TROR EXAKT SOM JAG SA DET ÄR INTE GOTT, MEN DU KAN INTE SÄGA ATT MÄNNISKORNA INTE VILL HA JOBB. DU KAN INTE SÄGA ATT MÄNNISKORNA INTE VILL ARBETA. SYSTEMET HADE BARSKT EN PROBLEM. OCH FÖR FÖRSTA GÅNGEN, NÅGON ÄR INTERESSERAD. DET ÄR EN KOMPLICERAD SITUATION. DET ÄR INTE BARA U.S., DET ÄR VÄRLDSVITT, OCH DET FINNS GULD EN ANLEDNING ATT VARA REAKTIONÄR.
-</v>
-      </c>
-      <c r="C330">
-        <v>448</v>
       </c>
     </row>
     <row r="331" xml:space="preserve">
@@ -2336,182 +2314,70 @@
 The intangible benefits of volunteering are increased self-awareness, civic engagement, and COMPASS skills. Volunteering can help people learn more about themselves and their community. Furthermore, volunteering can lead to personal growth and development, such as increased empathy and compassion. Additionally, volunteering can increase one's knowledge and understanding of different topics, which can help them in their career or other areas of life.
 Overall, the tangible and intangible benefits of volunteering are significant. Many people find the benefits of volunteering to be worth the time and effort required to participate.</v>
       </c>
-      <c r="B331" t="str" xml:space="preserve">
-        <v xml:space="preserve">Hjälp med ide projekt kan vara användbar inom studier, yrkeserfarenhet och socialt engagemang.
-Man kan göra fina förbindelser för att säkra sitt jobb.
-Man kan lära sig nya saker på samma gång.
-</v>
-      </c>
-      <c r="C331">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="332" xml:space="preserve">
+    </row>
+    <row r="332">
       <c r="A332" t="str">
         <v>This policy of supplying, by opposite and rival interests, the defect of better motives, might be traced through the whole system of human affairs, private as well as public. We see it particularly displayed in all the subordinate distributions of power, where the constant aim is to divide and arrange the several offices in such a manner as that each may be a check on the other—that the private interest of every individual may be a sentinel over the public rights. These inventions of prudence cannot be less requisite in the distribution of the supreme powers of the State.</v>
       </c>
-      <c r="B332" t="str" xml:space="preserve">
-        <v xml:space="preserve">Den politik att komplettera med motsatta och rivaliserande intressen den nackdel som är att motiv inte är av lägst ordning, kan man spåra genom hela system av mänsklig verksamhet, både privat och offentlig. Det vi ser är: alla nedläggningar av makt som handlar om att konstant önska att fördela roller på så sätt att varje roll kompletterar den andra – att privatintresset hos varje person ska vara vakt över den offentliga rättvisan. dessa uppfinningar av klokhet kan inte vara mindre nödvändiga i distributionen av de överlägsna krafter som är staten. (ett försök för att "paraphrase"...)
-</v>
-      </c>
-      <c r="C332">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="333" xml:space="preserve">
+    </row>
+    <row r="333">
       <c r="A333" t="str">
         <v>Margaret Sullivan: I had been at a small newspaper in California. I started my career at an evening daily newspaper called The San Bernardino Sun. I went straight from there to The New York Times in 1981. So it was a huge—it was a big leap in many ways—a leap into cultural elitism and sophistication. It was a wonderful, wonderful place to work. It was a very exciting time to be there because we were growing. Our circulation at the time was about 1.1 million. We were a big paper then. It's half that now. But we were in a great building in Times Square, and it was just exciting and exhilarating as you can imagine.</v>
       </c>
-      <c r="B333" t="str" xml:space="preserve">
-        <v xml:space="preserve">Margaret Sullivan säger: — Jag har jobbat på ett litet tidning i California. Jag inledde min karriär på en kvällspost uppsatt som San Bernardino Sun. Strax därefter kom jag till The New York Times. så det var en större bänes— ett stort hopp på många sätt— en slända in i kulturell elitism och ödmjukhet. Det var en underbar, underbar plats att arbeta. Detta var en mycket spännande tid att vara där eftersom vi växte. Vår utskrift vid den tidpunkt var cirka 1.1 miljoner. Vi var en populär dagstidning då det var inte halvkvantiten. 
-</v>
-      </c>
-      <c r="C333">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="334" xml:space="preserve">
+    </row>
+    <row r="334">
       <c r="A334" t="str">
         <v>There are a lot of benefits to being a vegetarian, and it can be highly beneficial for both your health and the environment. Vegetarians tend to have lower rates of heart disease, obesity, type II diabetes, some forms of cancer, and many other diseases than people who eat meat. They also consume more fruits and vegetables than people who eat meat, and these nutrients help keep them healthy. Additionally, some pecuarians oppose the hunting and slaughter of animals for their food, which means that they are helping to reduce the amount of animal cruelty going on in the world.</v>
       </c>
-      <c r="B334" t="str" xml:space="preserve">
-        <v xml:space="preserve">Det finns en hel del fördelar med att vara vegetarian, och det kan vara väldigt bra för både din hälsa och miljön. Vegetarianer tenderar att ha lägre siffror för hjärt-kärlsjukdomar, fetma, typ II diabetes, vissa former av cancer, och många andra sjukdomar än människor som äter kött. De äter också mer frukt och grönt än människor som äter kött, och dessa näringsämnen hjälper dem att hålla sig friska. Dessutom är vissa vegetarianer imot jakt och slakt av djur för deras mat, vilket betyder att de hjälper till att minska mängden djurplågeri som pågår i världen.
-</v>
-      </c>
-      <c r="C334">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="335" xml:space="preserve">
+    </row>
+    <row r="335">
       <c r="A335" t="str">
         <v>1. Eat well. Our brains are 60 per cent fat, so we need the good kind of healthy fat—Omega 3—for our brain health. Other nutrients that help our brain include vitamin B, vitamin E, and foods like blueberries and broccoli. Foods like broccoli and blueberries are good for us, but they don’t taste like, say, a meatball sub with cheese fries. What can help is to think how quickly bad food makes us feel bad. It might take us an hour to eat a cheeseburger, but it will take our mood maybe only ten minutes to decline. If healthy food can take that long to digest, surely it is worth waiting for the positive effects? It has long been known how important diet is for physical health. But now there is evidence of how it can benefit our mood too. A study in Biological Psychiatry, for example, found that healthy dietary patterns that included foods like fish, fruit, and vegetables was associated with lower levels of depression.</v>
       </c>
-      <c r="B335" t="str" xml:space="preserve">
-        <v xml:space="preserve">1. Eat well. Our brains are 60 per cent fat, so we need the good kind of healthy fat—Omega 3—for our brain health. Other nutrients that help our brain include vitamin B, vitamin E, and foods like blueberries and broccoli. Foods like broccoli and blueberries are good for us, but they don’t taste like, say, a meatball sub with cheese fries. What can help is to think how quickly bad food makes us feel bad. It might take us an hour to eat a cheeseburger, but it will take our mood maybe only ten minutes to decline. If healthy food can take that long to digest, surely it is worth waiting for the positive effects? It has long been known how important diet is for physical health. But now there is evidence of how it can benefit our mood too. A study in Biological Psychiatry, for example, found that healthy dietary patterns that included foods like fish, fruit, and vegetables was associated with lower levels of depression.
-2. Ställ frågor. "Fäss, Källa Få tillbaka, ... förundrade, dock inte en-botten verkar, att ett egentligt öfvergångs-ljud redan, mer än en likgiltig bemärkelse Tilsamman, när den första Acronymitet presenterad sin kunnande på Språkets förvandling. Ändtligen, sagen om C. Lexikon besorgt sin fasthållande, att ej ej blott the äldre klenare ord, men ideligen menande ord, såsom sjäcellofwin, Balmbor. = Alarm rörande." Vi bör berömma icke, utan Profeter, att ej bevara, i Orden stora värde, utan dess Krona. Denna senare Öfvergifs allt för med, att det således blifva the snedigera Papen inseynen, raadigt bespelis. lefva, med deras eklippt defekter, they moder, som ämna med igyende stor sikt bringeng aff Modersspraaken. De ifråga om begge Hogtid och orädding, som this, råka i den toårshindrade Sprot, till samma märkudt kunna orsakas. Dock, where förtrornarnas natsraatenhet går äfven utanför i Svennens bål, the boleengoriske buggen, the Senare sin kunnande om se kreatöräkar, om theta förflorur.
-</v>
-      </c>
-      <c r="C335">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="336" xml:space="preserve">
+    </row>
+    <row r="336">
       <c r="A336" t="str">
         <v>The person who has applied for a tourist visa from outside the US will be required to pay the fee of $140. This fee is non-refundable and non-transferable. The fee must be paid in cash at the location where the visa application is submitted. This includes persons who wish to travel to the US and apply for adjustment of status to permanent resident (get a green card) while in the US and persons who have other non-immigrant status (F/M), and who wish to apply for an immigrant visa (get a green card) while in the US. Unfortunately, it is not possible to pay the immigrant visa fee at the same location where you submit the immigrant visa application. Payment of the fee must be made to the US Department of State.</v>
       </c>
-      <c r="B336" t="str" xml:space="preserve">
-        <v xml:space="preserve">Personen som har sökt en turistvisum utanför USA kommer att behöva betala avgift av $ 140. Denna avgift är ej återbetalning och ej överförbar. Avgift måste betalas kontant på platsen där visumansökan inlämnats. Detta gäller personer som önskar resa till USA och ansöka om justering av status till permanent invånare (få ett grönt kort) medan i USA och personer som har andra inte-immigrantskatt (F / M) och som önskar ansöka om ett flyktingmottagning (får ett grönt kort) medan i USA. Tyvärr är det inte möjligt att betala arbetskraften invandringsvisumavgiften på samma plats där du skickar in den invandrarna visering. Betalning av avgift måste göras till USA \'s utrikesdepartement.
-</v>
-      </c>
-      <c r="C336">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="337" xml:space="preserve">
+    </row>
+    <row r="337">
       <c r="A337" t="str">
         <v>Social media has become an important part of education. It allows students to connect with each other and share ideas, experiences, and thoughts. Additionally, social media can offer educators a way to measure student engagement and improve teaching techniques. Social media also plays an important role in creating a community for educators, which can help increase their understanding of their students and help them better teach. In addition, social media can be used to promote specific content or courses, which can improve the learning experience for students. Overall, social media has been a powerful tool for educators and has helped them improve their teaching skills as well as their students’ engagement.</v>
       </c>
-      <c r="B337" t="str" xml:space="preserve">
-        <v xml:space="preserve">Social media has become an important part of education. It allows students to connect with each other and share ideas, experiences, and thoughts. Additionally, social media can offer educators a way to measure student engagement and improve teaching techniques. Social media also plays an important role in creating a community for educators, which can help increase their understanding of their students and help them better teach. In addition, social media can be used to promote specific content or courses, which can improve the learning experience for students. Overall, social media has been a powerful tool for educators and has helped them improve their teaching skills as well as their students’ engagement.
-Sociala medier har blivit viktigt inom utbildningen.
-Det ger studenter en möjlighet att kommunicera och dela erfarenheter och ord.
-Detta gynnar lärare vid uppföljning av lektioner.
-Det förbättrar även deras förståelse av studenterna.
-Sociala medier förenklar även ordning och reda samt stöd.
-Sociala medier har blivit viktigt inom utbildningen.
-Det ger studenter en möjlighet att kommunicera och dela erfarenheter och ord.
-Detta gynnar lärare vid uppföljning av lektioner.
-Det förbättrar även deras förståelse av studenterna.
-Sociala medier förenklar även ordning och reda samt stöd.
-</v>
-      </c>
-      <c r="C337">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="338" xml:space="preserve">
+    </row>
+    <row r="338">
       <c r="A338" t="str">
         <v>But the great security against a gradual concentration of the several powers in the same department, consists in giving to those who administer each department the necessary constitutional means and personal motives to resist encroachments of the others. The provision for defense must in this, as in all other cases, be made commensurate to the danger of attack. Ambition must be made to counteract ambition. The interest of the man must be connected with the constitutional rights of the place. It may be a reflection on human nature, that such devices should be necessary to control the abuses of government. But what is government itself, but the greatest of all reflections on human nature? If men were angels, no government would be necessary. If angels were to govern men, neither external nor internal controls on government would be necessary.</v>
       </c>
-      <c r="B338" t="str" xml:space="preserve">
-        <v xml:space="preserve">Men som stora säkerhet mot en gradvis koncentration av flera krafter i samma avdelning under förutsättning att ge dem som ansvar för varje avdelning de nödvändiga konstitutionella medel och personliga motiv att motstå ingrepp av de andra? Försvars provision måste i detta, liksom i alla andra fall, som ska tyda på risken för attack. Ambitiöst måste göras för att motverka ambitiös. Den intresserade mannen måste vara i samband med konstitutionella rättigheter av platsen. Det kan vara ett avspegling av människans natur, som dessa enheter bör vara nödvändigt att kontrollera missbruk av regeringen. Men vad är, vad regeringen skiljer sig alla återspeglar människans natur? Om män var englar, ingen regering skulle vara nödvändig. Om änglar var att styra män, varken in- eller utrikes kontroller på regeringen skulle vara nödvändigt.
-</v>
-      </c>
-      <c r="C338">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="339" xml:space="preserve">
+    </row>
+    <row r="339">
       <c r="A339" t="str">
         <v>All this stuff is so mind-blowing to me that I get to do in my life. Throwing the first pitch out at the White Sox game on a random Wednesday? Like who am I? How did I get this life? I'm glad I'm not jaded, and little kids are the least jaded people in the entire world, so it's fun to be around people that still find wonder in how cool things are.</v>
       </c>
-      <c r="B339" t="str" xml:space="preserve">
-        <v xml:space="preserve">Att få göra allt det här känns så otroligt. Att bli kastare på ett vittsjö SHARKS match en vanlig onsdag? Vem är jag, hur hamnade jag i denna galna värld? Jag är glad att jag inte är bitter, barn är ju inge vidare bitter, så det är kul att vara med folk som faktiskt är hype för coola saker
-</v>
-      </c>
-      <c r="C339">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="340" xml:space="preserve">
+    </row>
+    <row r="340">
       <c r="A340" t="str">
         <v xml:space="preserve"> There is a problem with the way that the website is handling user input. When someone tries to enter text into a text field, the website often doesn't allow them to continue typing because it instead automatically inserts a space. This results in the person being unable to submit their form.</v>
       </c>
-      <c r="B340" t="str" xml:space="preserve">
-        <v xml:space="preserve"> Det finns ett problem och på det här sättet hemsidan hanterar användarinmatning. När någon försöker skriva in text i ett textfält, den som ofta hemsidan tillåter inte dem att fortsätta att skriva, eftersom ersättas den iställelautomatiskt ett mellanslag. Detta resulterar i att personen vara oförmögen att få fram formuläret.
-</v>
-      </c>
-      <c r="C340">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="341" xml:space="preserve">
+    </row>
+    <row r="341">
       <c r="A341" t="str">
         <v>But the great security against a gradual concentration of the several powers in the same department, consists in giving to those who administer each department the necessary constitutional means and personal motives to resist encroachments of the others. The provision for defense must in this, as in all other cases, be made commensurate to the danger of attack. Ambition must be made to counteract ambition. The interest of the man must be connected with the constitutional rights of the place. It may be a reflection on human nature, that such devices should be necessary to control the abuses of government. But what is government itself, but the greatest of all reflections on human nature? If men were angels, no government would be necessary. If angels were to govern men, neither external nor internal controls on government would be necessary. In framing a government which is to be administered by men over men, the great difficulty lies in this: you must first enable the government to control the governed; and in the next place oblige it to control itself. A dependence on the people is, no doubt, the primary control on the government; but experience has taught mankind the necessity of auxiliary precautions.</v>
       </c>
-      <c r="B341" t="str" xml:space="preserve">
-        <v xml:space="preserve">Men det stora säkerhet mot en gradvis sammandrabbning av den makt i samma avdelning, består i att ge dem som administrera varje avdelning de nödvändiga konstitutionella medel och personliga motiv att motstå intrång av andra. Försörjning för försvaret måste i detta, liksom i alla andra fall, vara interimistisk till faran för attack. Ambition måste ingripas för att motverka ambition. Intresset av mannen måste vara ansluten till det konstitutionella rättigheterna på platsen. Det kan vara en reflektion på mänsklig natur, att sådana enheter bör behövas för att kontrollera överträdelser av regeringen. Men vad är själva styrelsen, utan den största av alla reflektioner på mänsklig natur? Om män var änglar, skulle inga regering vara nödvändigt. Om änglar skulle styra män, varken externa eller interna kontroller på regeringen skulle vara nödvändiga. När han utformar en regering som är att behandlas av män över män, är den stora svårigheten här: man måste först möjliggöra för regeringen att kontrollera de reglerade och i nästa steg tvinga den att kontrollera sig själv. En beroende av folket är utan tvekan den primära kontroll över regeringen, men erfarenhet har lärt mänskligheten nödvändigheten av tillägg av vård.
-</v>
-      </c>
-      <c r="C341">
-        <v>979</v>
-      </c>
-    </row>
-    <row r="342" xml:space="preserve">
+    </row>
+    <row r="342">
       <c r="A342" t="str">
         <v>However, there are a few things that businesses need to consider when using social media. The first is that social media can be valuable but can also be risky. For example, if a business doesn’t take enough precautions to ensure their content is accurate or promotional, they may risk losing customer trust and/or respect. Additionally, it’s important that businesses aren’t too dismissive of people who use social media. Sometimes people use social media as a form of communication and outreach, which is valuable. Finally, businesses should make sure they are providing value and fulfilling their commitments on social media. If they don’t, their users may end up cutting them out of their lives.</v>
       </c>
-      <c r="B342" t="str" xml:space="preserve">
-        <v xml:space="preserve">Det finns några saker som företag behöver överväga när man använder sociala medier. Det första är att sociala medier kan vara värdefullt men kan också vara riskabelt. Till exempel, om en verksamhet inte uppmärksammer nog åtgärder för att försäkra sig om att deras innehåll är korrekt eller befordran, kan de riskera att förlora kundens förtroende och/eller respekt. Dessutom är viktigt att företagen inte så ovärdigt av människor som använder sociala medier. Ibland används sociala medier som ett sätt att kommunicera och utbilda, vilket är värdefullt. Avslutningsvis bör företag se till att de tillhandahåller värde och uppfyller sina åtaganden via sociala medier. Om de inte gör det, kan deras användare riskera att skära ut dem ur sina liv.
-</v>
-      </c>
-      <c r="C342">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="343" xml:space="preserve">
+    </row>
+    <row r="343">
       <c r="A343" t="str">
         <v>Emotional stress is the most common type of stress and can be felt from many different causes such as feeling anxious, anxious about the future, or feeling overwhelmed. Physical stress can come from being too busy or overworked, from being injured, or from experiencing a difficult situation. Social stress can come from relationships or from being around people who are unhappy or stress-filled. Financial stress can come from not having enough money to meet your needs or from having to pay bills late. Occupational stress can come from working long hours or from not having enough rest or fun.</v>
       </c>
-      <c r="B343" t="str" xml:space="preserve">
-        <v xml:space="preserve">Emotional stress is the most common type of stress and can be felt from many different causes such as feeling anxious, anxious about the future, or feeling overwhelmed. Physical stress can come from being too busy or overworked, from being injured, or from experiencing a difficult situation. Social stress can come from relationships or from being around people who are unhappy or stress- filled. Financial stress can come from not having enough money to meet your needs or from having to pay bills late. Occupational stress can come from working long hours or from not having enough rest or fun.
-Känslomässig stress är den vanligaste typen av stress och kan kännas från många olika orsaker, såsom att känna sig oroliga, oroliga för framtiden eller känna sig överväldigad. Fysisk stress kan fås från att vara för upptagen eller utarbetade, att bli skadade eller att uppleva en svår situation. Social stress kan komma från relationer eller att vara runt människor som är olyckliga eller stress-fyllda. Finansiella stress kan komma från att inte ha tillräckligt med pengar för att möta dina behov eller från att behöva betala räkningar. Arbetsrelaterad stress kan komma från att arbeta långa timmar eller att inte få tillräckligt med vila eller roligt.
-</v>
-      </c>
-      <c r="C343">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="344" xml:space="preserve">
+    </row>
+    <row r="344">
       <c r="A344" t="str">
         <v>Let no sleep fall upon thy eyes till thou hast thrice re- viewed the transactions of the past day.  Where have I turn-ed aside from rectitude?  What have I been doing?  What haveI left undone, which I ought to have done?  Begin thus from the first act, and proceed; and, in conclusion, at the ill which thou hast done, be troubled, and rejoice for the good.</v>
-      </c>
-      <c r="B344" t="str" xml:space="preserve">
-        <v xml:space="preserve">Låt ingen sömn falla på dina ögon tills du har tre gånger granskat transaktionerna av den föregående dagen. Var har jag vänt sig bort från rättvisa? Vad har jag sysslat med? Vad har jag lämnat outfört, som jag borde ha gjort? Börja så här från det första steget som följer, och inledande, för det onda du har gjort, besväras och glädjas för det goda.
-</v>
-      </c>
-      <c r="C344">
-        <v>356</v>
       </c>
     </row>
     <row r="345" xml:space="preserve">
@@ -2519,31 +2385,10 @@
         <v xml:space="preserve">There are many reasons why this change might happen. First, as businesses become aware of the value of having a diverse workforce, they are able to see the cost-benefit of increasing inclusion. This means that they can afford to invest in establishment of rules and procedures that benefit all employees regardless of sex. Second, businesses have been gradually realizing that successful organizations cannot only rely on hired workers alone; they also needokoaborforce members who can contribute both theory and practice. And finally, recent studies have shown thatreatedworkers fairly improves productivity for all employees (Snyder et al., 2006). Thus, adapting policies and procedures in order to meet the needs of transgender employees is becoming increasingly popular among business leaders.
 Although there are some challenges associated with implementing such policies, I believe that these efforts will result in massive improvements for both men and women working in the workplace. In fact, I predict that over time, we will see an even larger increase in women's representation within businesses - and this growth will be based largely on increased awareness and sensitivity towards minority groups within workplaces.</v>
       </c>
-      <c r="B345" t="str" xml:space="preserve">
-        <v xml:space="preserve">Det finns många skäl till att detta kan ske. Först, när företagen medveten om värdet av en mångfaldig arbetskraft, de kan se kostnad-nytta av att öka inkludering. Detta innebär att de har råd att investera i etablering av regler och rutiner som fördelar alla anställda oavsett kön. Andra företag har successivt komma fram till att lyckas organisationer kan inte bara lita på anställd arbetstagare ensam, de behöver också Koaborforce medlemmar som kan bidra både teori och praktik. Och slutligen enligt ena studier har visat att skapat anställda rättvist förbättrar produktiviteten för alla anställda (Snyder et al., 2006). Därför anpassning av regler och rutiner för att möta behoven hos transpersoner blir allt populärare bland företagsledare. Även om det finns vissa svårigheter som förknippas med att införa sådana regler, tror jag att dessa ansträngningar kommer att resultera i enorma förbättringar för både män och kvinnor arbetar på arbetsplatsen. I själva verket tror jag att över tid kommer vi att se en ännu större ökning av kvinnors representation inom företag - och denna tillväxt kommer huvudsakligen baseras starkt ökade medvetenhet och känslighet mot minoriteter inom arbetsplatser.
-</v>
-      </c>
-      <c r="C345">
-        <v>934</v>
-      </c>
-    </row>
-    <row r="346" xml:space="preserve">
+    </row>
+    <row r="346">
       <c r="A346" t="str">
         <v>Learning about climate change, and its impending effects, is an emotional experience. The distress, anxiety, worry, and/or fear that stem from an overarching awareness of climate change are often considered to be related to the broader concept of ‘psychoterratic syndromes’. This concept was first introduced by the environmental philosopher, Glenn Albrecht, and is defined broadly as ‘psychological responses to negative changes to the state of the Earth’. Terms such as eco anxiety, climate anxiety, and eco distress are often used to describe these negative responses. Also, the related term ‘solastalgia’, broadly defined as distress from the transformation and degradation of one’s home environment, also falls into psychoterratic syndromes. Such concepts are gaining traction in print and online media. For example, Grist Magazine declared climate anxiety as the biggest pop-culture trend of the year in 2019. Additionally, there is a growing recognition of the impact of climate change awareness on mental well-being among researchers and mental health professionals. For instance, the American Psychological Association has defined eco anxiety as ‘a chronic fear of environmental doom’; while the Royal College of Psychiatrists defines eco distress among young people as ‘the wide range of emotions and thoughts young people may experience when they hear bad news about our planet and the environment’. Moreover, mental health professionals have reported counseling individuals dealing with distress about climate change.</v>
-      </c>
-      <c r="B346" t="str" xml:space="preserve">
-        <v xml:space="preserve">Lära of klimatförändringar, och dess kommande konsekvenser, är en känslomässig upplevelse. Plåga, ångest, oro och / eller rädsla som utgår från en övergripande medvetenhet om klimatförändringar anses ofta vara relaterade till det bredare begreppet "Psychoterratic Syndromes". Detta begrepp introducerades först av miljöfilosofen Glenn Albrecht och definieras bred som "psykologiska svar på negativa förändringar av Jordens tillstånd" .
-Begrepp som ekoångest, klimatångest och ekoångest används ibland för att beskriva dessa negativa svar.
-Också den relaterade termen "solastalgia", i stora drag definieras som lidande från förvandling och nedbrytning av sitt hemmamiljö, faller också in på psychoterratic syndromer.
-Sådana koncept kommer att vinna grepp i tryckt och online media.
-Till exempel deklarerade Grist Magazine klimatångest som den största popkulturella trenderna för året 2019.
-Dessutom blir det allt större insikten om påverkan av klimatförändring awareness on mental wellbeing bland forskare och mental hälsoprofessionella.
-Till exempel har den amerikanska psykologiska föreningen definierat ekoångest som 'en kronisk rädsla av doom för miljö'; Medan the Royal College of Psychiatrists definition eko ångest bland unga som 'det breda spektrum av känslor och tankar som unga människor kan uppleva när de får höra dåliga nyheter om vår planet och miljön'.
-Dessutom har mentala hälsoprofessionella rapporterat att de konsulterar personer som hanterar stress kring klimatförändringar.
-</v>
-      </c>
-      <c r="C346">
-        <v>1203</v>
       </c>
     </row>
     <row r="347" xml:space="preserve">
@@ -2559,22 +2404,6 @@
 Reduced stress levels. Exercise has been shown to decrease stress levels by releasing endorphins – hormones that protect the body against pain – in our brains. Endorphins are also responsible for producing positive feelings such as happiness and euphoria. Consequently, being stressed out while trying to workout may lead to negative effects such as fatigue, irritability, and increased anxiety levels. By doing mediation or deep breathing exercises before your workout, you can help ease into a state of relaxation before beginning your routine. This should result in improved mental clarity and energy during your workout session.
 Enhanced moods. Exercise has consistently been shown to improve moods by decreasing stress hormones like cortisol and elevating serotonin levels in the brain. Serotonin is a neurotransmitter responsible for regulating emotional reactions such as happiness, hunger, sleepiness, anxiety, depression, anger, and addiction behavior . Elevated serotonin levels may contribute to an improved sense of well-being after working out due to its role in managing emotions effectively .</v>
       </c>
-      <c r="B347" t="str" xml:space="preserve">
-        <v xml:space="preserve">Det finns många fördelar med träning, både kroppsligt och funktionshindrande. Fysiska fördelar inkluderar förbättrat hjärthälsa, starkare muskler, minskad fettlagring och en ökad förmåga att lättare kunna röra sig. Psykiska fördelar inkluderar bättre koncentration, reducerade stressnivåer och förbättrade humörer.
-Fysiska fördelar med träning inkluderar: 
-Förbättrad hjärthälsa. Träning har visat sig förbättra blodcirkulationen och minska risken för hjärtsjukdom genom att hjälpa till att förhindra ackumulering av plack på artärväggar. Dessutom kan regelbunden träning bli av med mängden fett runt midjelände, vilket i sin tur minskar risken för hjärt- och kärlproblem.
-Starkare muskler. Med regelbunden träning bygger du upp muskelvävnad som kan hjälpa dig att uppnå större styrka och uthållighet när du är fysiskt aktiv i framtiden. Detta kan hjälpa dig att undvika skador och upprätthålla din nuvarande fysiska kondition.
-Minskad fettlagring. Regelbunden träning kan bidrar till att minska mängden lagrat kroppsfett, som i sin tur kan minska risken för fetma och andra kroniska sjukdomar som hör ihop med att lagra alltför mycket fett..
-Minskad förmåga att röra sig lätt. Regelbunden träning kan också hjälpa dig att öka din rörlighet så att du kan göra vardagliga saker med mindre besvär eller svårigheter. Detta kan vara särskilt fördelaktigt om du har artros eller någon annan medicinskt tillstånd som begränsar din förmåga att lätt kan röra på dig.
-Mental benefits of exercise include: 
-Better concentration. Exercise has been shown to improve cognitive function by increasing blood flow to the brain and reducing cortisol levels in the bloodstream. Cortisol is a hormone released during stressful situations that can adversely affect how we think and perform tasks. By reducing cortisol levels, exercise may help improve memory recall and focus while also reducing stress levels overall.
-Reduced stress levels. Exercise has been shown to decrease stress levels by releasing endorphins – hormones that protect the body against pain – in our brains. Endorphins are also responsible for producing positive feelings such as happiness and euphoria. Consequently, being stressed out while trying to workout may lead to negative effects such as fatigue, irritability, and increased anxiety levels. By doing mediation or deep breathing exercises before your workout, you can help ease into a state of relaxation before beginning your routine. This should result in improved mental clarity and energy during your workout session.
-Enhanced moods. Exercise has consistently been shown to improve moods by decreasing stress hormones like cortisol and elevating serotonin levels in the brain. Serotonin is a neurotransmitter responsible for regulating emotional reactions such as happiness, hunger, sleepiness, anxiety, depression, anger, and addiction behavior . Elevated serotonin levels may contribute to an improved sense of well-being after working out due to its role in managing emotions effectively .
-</v>
-      </c>
-      <c r="C347">
-        <v>1511</v>
-      </c>
     </row>
     <row r="348" xml:space="preserve">
       <c r="A348" t="str" xml:space="preserve">
@@ -2583,84 +2412,25 @@
 The trial was a famous one and it had a large impact on American society. The outcome of the trial was controversial and it created a divide in the American public. The majority of the population believed in evolution and saw the trial as a battle between science and religion. However, there was a small group of people who believed in creationism and they saw the trial as a battle between good and evil.
 The trial was a significant event in American History because it created a divide in the American public. The majority of the population believed in evolution and saw the trial as a battle between science and religion. However, there was a small group of people who believed in creationism and they saw the trial as a battle between good and evil. The outcome of the trial was controversial and it created a divide in the American public. The majority of the population believed in evolution and saw the trial as a battle between science and religion. However, there was a small group of people who believed in creationism and they saw the trial as a battle between good and evil. The outcome of the trial was controversial and it created a divide in the American public. The majority of the population believed in evolution and saw the trial as a battle between science and religion. However, there was a small group of people who believed in creationism and they saw the trial as a battle between good and evil.</v>
       </c>
-      <c r="B348" t="str" xml:space="preserve">
-        <v xml:space="preserve">The Scopes trial of 1925 was one of the most significant events in american history.
-The trial was fought over the belief of creationism, or the belief that God created the universe and all that exists within it in its present form.
-The trial pitted science against religion and it was seen as a battle between the individual and the establishment.
-The trial began in Dayton, Tennessee on February 24th and ended on March 25th.
-The trial was presided over by John T. Scopes and it involved the trial of William Jennings Bryan, a well-known religious figure who was the most vocal opponent of creationism.
-Bryan was charged with breaking the Tennessee law against teaching evolution, which was seen by many as an attack on religious beliefs.
-The trial was a famous one and it had a large impact on american society.
-The outcome of the trial was controversial and it created a divide in the american public.
-The majority of the population believed in evolution and saw the trial as a battle between science and religion.
-However, there was a small group of people who believed in creationism and they saw the trial as a battle between good and evil.
-The trial was a significant event in american history because it created a divide in the american public.
-The majority of the population believed in evolution and saw the trial as a battle between science and religion.
-However, there was a small group of people who believed in creationism and they saw the trial as a battle between good and evil.
-The outcome of the trial was controversial and it created a divide in the american public.
-The majority of the population believed in evolution and saw the trial as a battle between science and religion.
-However, there was a small group of people who believed in creationism and they saw the trial as a battle between good and evil.
-The outcome of the trial was controversial and it created a divide in the american public.
-The majority of the population believed in evolution and saw the trial as a battle between science and religion.
-However, there was a small group of people who believed in creationism and they saw the trial as a battle between good and evil.
-</v>
-      </c>
-      <c r="C348">
-        <v>1368</v>
-      </c>
-    </row>
-    <row r="349" xml:space="preserve">
+    </row>
+    <row r="349">
       <c r="A349" t="str">
         <v>Understand that old people aren’t actually that worried about old age, according to numerous surveys. The most recent one I can find was undertaken by American research firm NORC in 2016. It polled over 3,000 adults and found that old people are more optimistic about growing old than younger adults: 46 percent of thirty-somethings said they were optimistic about aging, compared to 66 percent for the seventy-pluses. It seems that worrying about growing old is a sign you are young. And the main reason to be optimistic about old age is that old people themselves are. Resilience seems to grow.</v>
       </c>
-      <c r="B349" t="str" xml:space="preserve">
-        <v xml:space="preserve">पुराने लोगों को अपने बदलते हुए ऊपर नहीं कम चिंता है, अधिकतर जाँचों के अनुसार है। मैं प्राप्त की सर्वश्रेष्ठ झूठा लगाने की कोशिश कर रहा तो अमेरिकी शोध निगम NORC ने 2016 में पैदा किया था। यह पुरुषों और जवान वयस्कों से अधिक वृद्धि से बढ़ते हुए वृद्धि की विश्वासक्त पुराने लोगों में पाया: तीसरा ही कुछ प्रतिशत फोर्टीज़ ने कहा कि उन्हें वृद्धि पर विश्वासपूर्ण, संयोग पाया। वस्तु की कलमानपाया कि सूखी बढ़ने की चिंता का एक संकेत है जो आप युवा हैं। और मुख्य कारण वृद्धि की विश्वासकारी है कि पुरानी लोग खुद में हैं। प्रतिरोधकता चढ़ने का ज्यादा अधिक का लगता है।
-</v>
-      </c>
-      <c r="C349">
-        <v>1119</v>
-      </c>
-    </row>
-    <row r="350" xml:space="preserve">
+    </row>
+    <row r="350">
       <c r="A350" t="str">
         <v>I'm a morning person because I learned to write my novels while still practicing law. I would get to the office at 6:30 a.m. and write until other people arrived, around 9. Now I still do that. I start at 6:30 or 7, and I'll write until 11, then take an hour off, then work until about 2 p.m. By then my brain has had enough.</v>
       </c>
-      <c r="B350" t="str" xml:space="preserve">
-        <v xml:space="preserve">Jag är en morgon människa eftersom jag lärt mig att försöka mina romaner medan fortfarande praxis lag.
-Jag skulle komma till kontoret runt 6:30 och skriva tills andra människor anlände, runt 9.
-I fortfarande gör det.
-Jag startar kl 6:30 eller 7, och jag ska skriva fram till 11, tar därefter en timme ut, sen arbetar fram till kl 2. Vid tidpunkten har min hjärna fått nog.
-</v>
-      </c>
-      <c r="C350">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="351" xml:space="preserve">
+    </row>
+    <row r="351">
       <c r="A351" t="str">
         <v>The impact of climate change on the mental health of young people is poorly understood. Emerging evidence suggests that exposure to climate change exerts a disproportionate mental health burden on young people. An understanding of the risk factors (RFs) and protective factors (PFs) that affect the likelihood of mental health impacts arising from exposure to climate change is required to support youth wellbeing. Aims/objectives: This review scopes the current research on what and how RFs and PFs are related to the mental health impacts of both direct and indirect exposure to climate change for young people. RFs and PFs were reviewed through the lens of ecological system theory. Methods: We conducted systematic searches in four databases: PubMed, PsycInfo, Web of Science, and Scopus. Grey literature searches were conducted in ProQuest Dissertations, GreyLit.org, OpenGrey, and relevant organisations’ websites. We included 92 empirical studies focused on the RFs and PFs of the mental wellbeing under the impact of climate change of young people (0–24). We extracted data on study characteristics, type of climate change event, mental health outcomes, RFs and PFs, and associated ecological system level. Results: The current evidence base focuses predominantly on young people’s experience of PTSD (k = 59), depression (k = 26), or anxiety (k = 17) mainly following exposure to singular climate change-related natural disaster events. Only four studies explored the impacts of climate change in general. Majority of the studies investigated RFs and PFs at the individual level and at the micro-system level. Conclusions: Several RFs and PFs were identified, such as coping strategies, family factors (e.g. parenting style), social support, community connection, and cultural identity. Positioning the mental health impacts of singular events within the broader context of ongoing and escalating climate change impacts will better inform the development of interventions that seek to build resilience among young people.</v>
       </c>
-      <c r="B351" t="str" xml:space="preserve">
-        <v xml:space="preserve">Avklimatiseringens påverkan på ungdomars mentala hälsa är dåligt förstådd. Nyuppkomna bevis tyder på att exponering för klimatförändringar utövar en orimligt stor börda på ungdomar på planen mental hälsa. För att stöda ungdomars välbefinnande krävs ett förstånd för de riskfaktorer (RF) och den skyddsåtgärder (PF) som påverkar möjligheten att påverkas av avklimatisering. Syfte: Den här översynen skisserar den nuvarande forskningen på vad och hur som RF och PF är relaterade till månsklighetens psykologiska pådrev som kommer från både användning och icke-avledning av avklimatisering. RF och PF granskades enligt sylta för ekologiskt systemperspektiv. Metoder: Vi genomförde systematisk granskningar i fyra databaser: PubMed, PsycInfo, Web of Science och Skopos. Grannygranskningar utfördes på ProQuest Avhandling, GreyLit.org,OpenGrey samt relaterade organisationswebbplatser. Vi inkluderade nittiotvå empiriska studier som är fokuserade på RF och PF för mental välbefinnande under avklimatiseringens påverkan för ung mänsklighet (0–24 år). Vi tog ut data på studiekaraktärer, typ av avklimatiseringsevent, psykologiska hälsoeffekter, RF och PF, och relaterad ekologisk systemnivå. Resultat: Det nuvarande forskningen fokuserar till stor del på ungdomarnas upplevelser av PTSD (k = 59), depression (k = 26) eller ångest (k = 17) som är huvudsakligen efter exponering för specifika avklimatiseringsevent av naturkatterastrof. Endast fyra studier undersökte effekterna av allmän avklimatisering. Majoriteten av studier granskade RF och PF på individnivå och mikrosystemnivå. Sammanfattning: Flera RF och PF identifierades, som anpassningsstrategier, familjfaktorer (t.ex. föräldraskap stil), social stöd, community connection, och kulturell identitet. Om man positionerar psykologiska effekter från enstaka händelser inom ramen för pågående och förvärvande avklimatiseringseffekter, kommer hjälpa till att göra det möjligt att utveckla offensiv till att stödja härdighet bland ungdomar.
-</v>
-      </c>
-      <c r="C351">
-        <v>1612</v>
-      </c>
-    </row>
-    <row r="352" xml:space="preserve">
+    </row>
+    <row r="352">
       <c r="A352" t="str">
         <v>My manner of thinking, so you say, cannot be approved. Do you suppose I care? A poor fool indeed is he who adopts a manner of thinking for others! My manner of thinking stems straight from my considered reflections; it holds with my existence, with the way I am made. It is not in my power to alter it; and were it, I'd not do so.</v>
-      </c>
-      <c r="B352" t="str" xml:space="preserve">
-        <v xml:space="preserve">Min manér att tänka så säger du inte kan godkännas. Tror du att jag oroar sig ?
-En dålig tok faktiskt är han som införskaffar en manér att tänka för andra !
-Min manér att tänka kommer rakt från mitt övervägande reflektioner ; det håller med min existens , med sättet jag är gjord .
-Det är inte i min förmåga att ändra det och om det var , skulle jag inte göra det.
-</v>
-      </c>
-      <c r="C352">
-        <v>353</v>
       </c>
     </row>
     <row r="353" xml:space="preserve">
@@ -2676,7 +2446,1086 @@
 Reduced stress levels. Exercise has been shown to decrease stress levels by releasing endorphins – hormones that protect the body against pain – in our brains. Endorphins are also responsible for producing positive feelings such as happiness and euphoria. Consequently, being stressed out while trying to workout may lead to negative effects such as fatigue, irritability, and increased anxiety levels. By doing mediation or deep breathing exercises before your workout, you can help ease into a state of relaxation before beginning your routine. This should result in improved mental clarity and energy during your workout session.
 Enhanced moods. Exercise has consistently been shown to improve moods by decreasing stress hormones like cortisol and elevating serotonin levels in the brain. Serotonin is a neurotransmitter responsible for regulating emotional reactions such as happiness, hunger, sleepiness, anxiety, depression, anger, and addiction behavior . Elevated serotonin levels may contribute to an improved sense of well-being after working out due to its role in managing emotions effectively .</v>
       </c>
-      <c r="B353" t="str" xml:space="preserve">
+    </row>
+    <row r="354">
+      <c r="A354" t="str">
+        <v>I've been on so many movies. Generally, I haven't gotten to be on the ground level. As of two years ago, in 'Dear John,' I got to really be on the ground floor. I wasn't a producer. I felt like I put the work in, and I did have a lot of sway on what got fixed, reshoots, so on and so forth. It felt really good.</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="str">
+        <v>For my birthday this year, my girlfriends - who knew I'd just inherited my dad's turntable - gave me a carton of albums like 'Blue Kentucky Girl,' by Emmylou Harris, and 'Off the Wall,' by Michael Jackson. It's all stuff we grew up with. I mean, you can't have a music collection without Prince's 'Purple Rain' - it just can't be done!</v>
+      </c>
+    </row>
+    <row r="356" xml:space="preserve">
+      <c r="A356" t="str" xml:space="preserve">
+        <v xml:space="preserve">The Scopes trial of 1925 was one of the most significant events in American History. The trial was fought over the belief of creationism, or the belief that God created the universe and all that exists within it in its present form. The trial pitted science against religion and it was seen as a battle between the individual and the establishment.
+The trial began in Dayton, Tennessee on February 24th and ended on March 25th. The trial was presided over by John T. Scopes and it involved the trial of William Jennings Bryan, a well-known religious figure who was the most vocal opponent of creationism. Bryan was charged with breaking the Tennessee law against teaching evolution, which was seen by many as an attack on religious beliefs.
+The trial was a famous one and it had a large impact on American society. The outcome of the trial was controversial and it created a divide in the American public. The majority of the population believed in evolution and saw the trial as a battle between science and religion. However, there was a small group of people who believed in creationism and they saw the trial as a battle between good and evil.
+The trial was a significant event in American History because it created a divide in the American public. The majority of the population believed in evolution and saw the trial as a battle between science and religion. However, there was a small group of people who believed in creationism and they saw the trial as a battle between good and evil. The outcome of the trial was controversial and it created a divide in the American public. The majority of the population believed in evolution and saw the trial as a battle between science and religion. However, there was a small group of people who believed in creationism and they saw the trial as a battle between good and evil. The outcome of the trial was controversial and it created a divide in the American public. The majority of the population believed in evolution and saw the trial as a battle between science and religion. However, there was a small group of people who believed in creationism and they saw the trial as a battle between good and evil.</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="str">
+        <v>Each company we are engaged in has a dedicated business team, consisting of our board representatives in the company and investment professionals at Investor. The business teams build company knowledge, benchmark versus competition and evaluate corporate structures</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="str">
+        <v>On the political front, of course it's a zero-sum game. If it's all white males holding positions, you bring 10 women in, then it's, 'Women are coming!' Get 10 blacks and it's, 'Blacks are coming!' 'Hispanics are coming!' Zero-sum game. The seatmates might change but the chairs don't move. In the economy, the number of chairs can actually increase.</v>
+      </c>
+    </row>
+    <row r="359" xml:space="preserve">
+      <c r="A359" t="str" xml:space="preserve">
+        <v xml:space="preserve">Precautionary Regulation
+A further important difference between their regulatory systems is that the scientific assessment of physical risks, the heart piece of the GM product authorization processes, follows different approaches (Seifert 2005). Whereas the USA requires that restrictions are based on scientifically proven risks, the EU embraces the precautionary principle which concedes that GM products can be prohibited in the light of convincing arguments alone even though scientifically unproven. These regulatory differences between the USA and the EU do not only reflect deep-reaching legal consequences of the anti-biotech movement. They also highlight the fact that risks to human health and the environment, which constitute the regulatory bottlenecks of product innovation, need to be understood as scientific and legal constructs rather than mere scientific facts. Thus, the newly emerging precautionary principle also constitutes a case of social innovation in that it deals with dangers arising in the context of post-normal science, that is, high uncertainty and political stakes.
+Alternatives to Productivist Agriculture
+The comprehensive European reaction also illustrates another social innovation when looked at against the backdrop of the promissory predictions that accompanied agro-food biotechnology’s industrial advance. Biotechnology has been presented as key technology which no national economy could allow to disregard at risk of being left behind. In the EU, however, an alternative paradigm took hold. Firstly, European producers and consumers get along well without agro-biotech. (With the exception of animal feed stuff which still contains quantities of imported GM materials.) Secondly, GM-free agricultural production goes well with EU agricultural policy which is torn between the conflicting goals of world market competition, protectionism, and multifunctionality. European agricultural policy, struggling with overproduction and environmental degradation on the one hand, and competition by ascending agro-producing world regions on the other, has increasingly resorted to policies designed to curb production and, at least in some countries, keep uncompetitive farming in business. Agricultural GMOs are production-enhancing technologies. Besides their alleged environmental side effects and health risks, this is the major criticism raised against GMOs: agro-biotech industry designed them to excel in capital-intensive, productivist agriculture. It is argued that this dominant type of agriculture accounts for much of the environmental crisis and comes at high social cost as it forces small farmers out of business while large-scale farming and agro-business reap the profits. Agro-biotech’s opponents argue that agriculture’s current ecological and social challenges call for political and social innovations rather than technical enhancement. If agriculture is to become sustainable, it needs to deplete less resource, to minimize loss of biodiversity and to offer income opportunities to a greater portion of the rural population. The EU region, due to its affluence and high level of political integration, has proved to be in a superior position to develop such alternative social innovations.</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="str">
+        <v>A couple of months ago, I was down in Florida for the Food and Wine Festival. And this journalist grabbed me and said, 'How does it feel to be a TV guy? You're no longer in the restaurant business.' And I laughed. I asked him, 'How long do you think it takes me to do a season?' He said, 'Well, 200 days.' And I was like, '200 days? Try 20!'</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="str">
+        <v>I mean the beauty of being a writer is it's not like being a swimmer. When they were talking about our Olympic swimmers and they'd say, 'Oh she's so old,' and she's all of 25 or something. So the beauty for a writer is that you can keep doing it right into your dotage, and I hope to be able to keep doing it as long as I can get away with it, yeah.</v>
+      </c>
+    </row>
+    <row r="362" xml:space="preserve">
+      <c r="A362" t="str" xml:space="preserve">
+        <v xml:space="preserve">Extracting opinions from texts is a daunting task. It requires a thorough understanding of the semantic, syntactic, explicit, and implicit rules of a language. Also, because sentiment analysis is carried out by a computer system with a typical focus on analyzing documents on a particular topic, off-topic passages containing irrelevant information may also be included in the analyses (e.g., a document may contain information on multiple topics). This could result in creating inaccurate global sentiment polarities about the main topic being analyzed. Therefore, the computer system must be able to adequately screen and distinguish opinions that are not relevant to the topic being analyzed. Relatedly, for the machine learning-based approach, a sentiment classifier trained on a certain domain (e.g., car reviews) may perform well on the particular topic, but may not when applied to another domain (e.g., computer review). The issue of domain independence is another important challenge.
+Also, the complexities of human communication limit the capacity of sentiment analysis to capture nuanced, contextual meanings that opinion holders actually intend to communicate in their messages. Examples include the use of sarcasm, irony, and humor in which context plays a key role in conveying the intended message, particularly in cases when an individual says one thing but means the opposite. For example, someone may say “nice shirt,” which implies positive sentiment if said sincerely but implies negative sentiment if said sarcastically. Similarly, words such as “sick,” “bad,” and “nasty” may have reversed sentiment orientation depending on context and how they are used. For example, “My new car is sick!” implies positive sentiment toward the car. These issues can also contribute to inaccuracies in sentiment analysis.
+Altogether, despite these limitations, the computational study of opinions provided by sentiment analysis can be beneficial for practical purposes. So long as individuals continue to share their opinions through online user-generated media, the possibilities for entities seeking to gain meaningful insights into the opinions of key publics will remain. Yet, challenges to sentiment, analysis such as those discussed above, pose significant limitations to its accuracy and thus its usefulness in decision-making.</v>
+      </c>
+    </row>
+    <row r="363" xml:space="preserve">
+      <c r="A363" t="str" xml:space="preserve">
+        <v xml:space="preserve">The history of American advertising begins with the first ads created in the United States. These advertisements were meant to promote products and services, and they are some of the earliest examples of the use of advertising in America.
+Throughout the 1800s, Americans were interested in buying and using new technology, so advertisers began to create ads that featured things like machines, railways, and new clothing styles. They also savvy about how to reach their target audience, and so these ads were designed to be popular and persuasive.
+As technology changed and people became more interested in different aspects of their lives, American advertising changed as well. In the 1960s,american advertisers started to focus on printing ads instead of digital ones. This was because printed ads often had more impact than digital ones and could be seen by a wider audience.
+Through the years, American Advertising has continued to make a large impact on the way people live, work, and play. And it is without doubt one of the most important genres of advertising in modern times.</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="str">
+        <v>I love a man with a great sense of humor and who is intelligent - a man who has a great smile. He has to make me laugh. I like a man who is very ambitious and driven and who has a good heart and makes me feel safe. I like a man who is very strong and independent and confident - that is very sexy - but at the same time, he's very kind to people.</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="str">
+        <v>When I arrived in New Zealand, I was cautious, tentative, nervous. The foreignness was profound and biting. In the North American West, I was used mountains, forests, rivers, and fields. I could feel at home in the familiar. In New Zealand, everything was foreign. Everything was unfamiliar. Every decision was new</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="str">
+        <v>Movies always are open to being remade because times change so much, and the tempo of movies changes. I think of it like a James Bond. They can have different actors play the same role... I've had people come up to me and say, 'We want to remake 'The Jerk' with so and so.' And I say, 'Fine.' It just doesn't bother me. It's an honor actually.</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="str">
+        <v>There are many golden things one may find at an age when most people have had the time and wisdom accumulated through decades of study to look around; there is much beauty left for them even if their bodies can't move as fluidly as those belonging to younger generations do so well right now which include loving feelings that come forth again after finding out how precious each moment might be during senior years along with living while cherishing whatever small things turn up unexpectedly every day despite its simplicity instead of crying over spilled milk simply caused by temporary failures back then since it's never too late once we feel optimistic about what lies ahead whatsoever whether pleasant or unpleasant from beginning until the end regardless who else feel contented everyday despite mistakes made throughout journeys within past seasons before eventually calming down due having tons more responsibilities than usual either way on account(in part)to different relationships for instance intimate ones leading to marriage including parents giving birth multiple times following extramarital affairs ending up conflicting constantly meaning old people aren’t regarded very highly these days whereas some elderly individuals get treated worse off (when compared against young folks) due(in part)to different relationships for example intimate ones leading to marriage so we don't have to deal with their own parents or kids getting involved figuratively from now on.</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="str">
+        <v>The person who has applied for a tourist visa from outside the US will be required to pay the fee of $140. This fee is non-refundable and non-transferable. The fee must be paid in cash at the location where the visa application is submitted. This includes persons who wish to travel to the US and apply for adjustment of status to permanent resident (get a green card) while in the US and persons who have other non-immigrant status (F/M), and who wish to apply for an immigrant visa (get a green card) while in the US. Unfortunately, it is not possible to pay the immigrant visa fee at the same location where you submit the immigrant visa application. Payment of the fee must be made to the US Department of State.</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="str">
+        <v>The obesity epidemic is on the rise, and it’s not just a problem for older adults. Obesity rates are increasing for everyone, regardless of age. A study from The Lancet found that overall, obesity rates have increased in every country studied since 1993. The reasons behind this increase are many, but one big factor is changes in eating habits. Obesity is now more likely because people are eating more processed foods andriel lamborghini Odd Future lip sync youtube than they were in the past. In addition, there is an increase in physical activity levels, which has led to an increase in weight and inches across the board. There are many ways to help fight against obesity, and you don’t have to be obese to see the effects. Education is key – provide children and adults with information about what calories really mean and howto lose weight safely. Let people know that healthy eating habits consist of eating plenty of fruits and vegetables, low-fat proteins, whole grains, nuts and seeds, low-calorie dairy products, poultry or fish instead of pork or fast food restaurants. It can be difficult to change general behavior when unhealthy eating habits are entrenched, but there are some things you can do to make a difference. One approach istargeting those who have been previously successful at losing weight – including parents or adults who know their own potential body size – by providing them with Prevention programs specifically designed for them. Another approach is to create healthier lifestyles around meals. Eating a balanced diet that includes fruits and vegetables, whole grains, nuts and seeds, lower-calorie dairy products, poultry or fish instead of pork or fast food restaurants will help you lose weight while maintaining your health condition.</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="str">
+        <v>I share the belief of many of my contemporaries that the spiritual crisis pervading all spheres of Western industrial society can be remedied only by a change in our world view. We shall have to shift from the materialistic, dualistic belief that people and their environment are separate, toward a new consciousness of an all reality, which embraces the experiencing ego, a reality in which people feel their oneness with animate nature and all of creation.</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="str">
+        <v>This policy of supplying, by opposite and rival interests, the defect of better motives, might be traced through the whole system of human affairs, private as well as public. We see it particularly displayed in all the subordinate distributions of power, where the constant aim is to divide and arrange the several offices in such a manner as that each may be a check on the other—that the private interest of every individual may be a sentinel over the public rights. These inventions of prudence cannot be less requisite in the distribution of the supreme powers of the State.</v>
+      </c>
+    </row>
+    <row r="372" xml:space="preserve">
+      <c r="A372" t="str" xml:space="preserve">
+        <v xml:space="preserve">The history of American advertising begins with the first ads created in the United States. These advertisements were meant to promote products and services, and they are some of the earliest examples of the use of advertising in America.
+Throughout the 1800s, Americans were interested in buying and using new technology, so advertisers began to create ads that featured things like machines, railways, and new clothing styles. They also savvy about how to reach their target audience, and so these ads were designed to be popular and persuasive.
+As technology changed and people became more interested in different aspects of their lives, American advertising changed as well. In the 1960s,american advertisers started to focus on printing ads instead of digital ones. This was because printed ads often had more impact than digital ones and could be seen by a wider audience.
+Through the years, American Advertising has continued to make a large impact on the way people live, work, and play. And it is without doubt one of the most important genres of advertising in modern times.</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="str">
+        <v>Liz is a strong, independent woman who has had to fend for herself since she was young. She's learned how to be resourceful and determined, which has helped her obtain jobs in the publishing industry despite not having a college degree. Liz is hard working and always trying to do the right thing - even if it means taking on extra work or going above and beyond what someone expects of her. She's fiercely loyal to those she cares about and can be counted on no matter what happens.</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="str">
+        <v>WELL, I THINK LIKE I SAID IT IS NOT EXACTLY GOOD, BUT YOU CANNOT SAY THAT THE PEOPLE DON'T WANT JOB. YOU CANNOT SAY THAT THE PEOPLE DON'T WANT TO WORK. THE SYSTEM JUST HAD A PROBLEM. AND FOR THE FIRST TIME, SOMEBODY IS INTERESTED. IT'S A COMPLEX SITUATION. IT'S NOT ONLY U.S., IT'S GLOBAL, AND THERE IS OBVIOUSLY A REASON TO BE REACTIONARY.</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="str">
+        <v>The Universe, which is the uttered Word of God, is infinite in extent.  There is no empty space beyond creation on any side.  The Universe, which is the Thought of God pronounced,never was not, since God never was inert; nor was, without thinking and creating.  The forms of creation change, the suns and worlds live and die like the leaves and the insects, but the Universe itself is infinite and eternal, because God Is, Was, and Will forever Be, and never did not think and create.</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="str">
+        <v>A beautiful eye makes silence eloquent, a kind eye makes contradiction an assent, an enraged eye makes beauty deformed. This little member gives life to every part about us; and I believe the story of Argu simplies no more, than the eye is in every part; that is to say, every other part would be mutilated, were not its force represented more by the eye than even by itself.</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="str">
+        <v>When you first have a baby your life doesn't change. I mean, you have a little less sleep and you drag these cuddly things around you and it's just amazing. But you still get to be you. Once they get to, like, five, six and school and it starts to get, like, 'Wow, they got real problems. They're my responsibility.' Oh my God. That is overwhelming.</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="str">
+        <v>Hearing, seeing and understanding each other, humanity from one end of the earth to the other now lives simultaneously, omnipresent like a god thanks to its own creative ability. And, thanks to its victory over space and time, it would now be splendidly united for all time, if it were not confused again and again by that fatal delusion which causes humankind to keep on destroying this grandiose unity and to destroy itself with the same resources which gave it power over the elements.</v>
+      </c>
+    </row>
+    <row r="379" xml:space="preserve">
+      <c r="A379" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+The Catcher in the Rye is a book that I absolutely loved. I think that it is a book that is about how a young boy named Holden Caulfield feels about his life. Holden is a young boy who is live in a small town in New England. He is a young boy who is feeling very alone and lost. Holden Caulfield is feeling very lonely and lost.</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="str">
+        <v>The author briefly explains the customs in Antigua and Barbuda before delving into the novel's themes. He portrays these cultures as distinctly Caribbean, with vibrant rhythms and rich traditions that have been maintained for centuries. The story follows twin sisters who are torn apart by their parents' decision to send one of them away to be educated in America; upon her return home, she discovers a drastically different country than when she left. In spite of this turmoil, the sister reconnects with old friends and finds love again - ultimately indicating that even exile can bring about forgiveness and hope.</v>
+      </c>
+    </row>
+    <row r="381" xml:space="preserve">
+      <c r="A381" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+There is no one answer to this question as the relationship between religion and atheism can vary significantly depending on the individual. However, some basic points could be covered in regards to how Religion and Atheism interact. 
+First and foremost, there is a strong connection between atheism and skepticism. Skepticism is the belief that all physical objects, including gods and miracles, are illusion or Conjured up by someone's mind. Secondly, atheists often accuse religious people of being hypocritical for claiming to believe in something while engaging in immoral activities. Finally, atheists often feel that religion often uses fear and superstition to manipulate people. These accusations can create a divide between atheists and religious people who may see the relationship as positive.
+On the other hand, Religion does have a place in atheism. Many atheist groups exist both to argue against religion and also provide support for atheists who want to practice their own form of atheism without subscribing to any specific dogma. In addition, atheist leaders have made it clear that Atheism does not mean giving up our human rights or morals.</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="str">
+        <v>Being on 'Glee' was amazing. I remember my first day on set, my first day I arrived to the set I was in my trailer and all of the actors came and banged on my door - Lea Michele, Chris Colfer, Amber Riley, Naya Rivera. They all welcomed me with open arms, so it was a great experience. It felt like family, and I miss them a lot over there.</v>
+      </c>
+    </row>
+    <row r="383" xml:space="preserve">
+      <c r="A383" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+I conducted a literature review to learn about the effects of dance on mental health. According to the review, there is limited research on the effects of dance on mental health, but the existing research points to positive effects. Dance has been shown to have a positive effect on mood and cognitive function, while also reducing stress and anxiety. These benefits may be due to the positive physical and mental health benefits of dance, as well as the social aspects of dance. Additionally, the review found that dance can be used to improve physical health, including bone density and respiratory health.</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="str">
+        <v>But the great security against a gradual concentration of the several powers in the same department, consists in giving to those who administer each department the necessary constitutional means and personal motives to resist encroachments of the others. The provision for defense must in this, as in all other cases, be made commensurate to the danger of attack. Ambition must be made to counteract ambition. The interest of the man must be connected with the constitutional rights of the place. It may be a reflection on human nature, that such devices should be necessary to control the abuses of government. But what is government itself, but the greatest of all reflections on human nature? If men were angels, no government would be necessary. If angels were to govern men, neither external nor internal controls on government would be necessary.</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="str">
+        <v>The Soul is made of consciousness and mind; it is made of life and vision.  It is made of the earth and the waters; it is made of air and space.  It is made of light and darkness; it is made of desire and peace.  It is made of anger and love; it is made of virtue and vice.  It is made of all that is near; it is made of all that is afar.  It is made of all.</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="str">
+        <v>When I arrived in New Zealand, I was cautious, tentative, nervous. The foreignness was profound and biting. In the North American West, I was used mountains, forests, rivers, and fields. I could feel at home in the familiar. In New Zealand, everything was foreign. Everything was unfamiliar. Every decision was new</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="str">
+        <v>Learning about climate change, and its impending effects, is an emotional experience. The distress, anxiety, worry, and/or fear that stem from an overarching awareness of climate change are often considered to be related to the broader concept of ‘psychoterratic syndromes’. This concept was first introduced by the environmental philosopher, Glenn Albrecht, and is defined broadly as ‘psychological responses to negative changes to the state of the Earth’. Terms such as eco anxiety, climate anxiety, and eco distress are often used to describe these negative responses. Also, the related term ‘solastalgia’, broadly defined as distress from the transformation and degradation of one’s home environment, also falls into psychoterratic syndromes. Such concepts are gaining traction in print and online media. For example, Grist Magazine declared climate anxiety as the biggest pop-culture trend of the year in 2019. Additionally, there is a growing recognition of the impact of climate change awareness on mental well-being among researchers and mental health professionals. For instance, the American Psychological Association has defined eco anxiety as ‘a chronic fear of environmental doom’; while the Royal College of Psychiatrists defines eco distress among young people as ‘the wide range of emotions and thoughts young people may experience when they hear bad news about our planet and the environment’. Moreover, mental health professionals have reported counseling individuals dealing with distress about climate change.</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="str">
+        <v>This book was amazing. I never expected it to be so good, but it was. The writing was great, the characters were well-drawn, and the plot was exciting. I would definitely recommend this book to anyone.</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="str">
+        <v>I definitely wanted to be an actor. I didn't want to be on TV, I didn't want to be famous, I didn't want to be anyone in particular I just wanted to do it. I see young people now who look at magazines, or American Idol and their goal is to have that lifestyle - to have good handbags, or go out with cute guys from shows, or whatever. But I definitely wanted to be an actor.</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="str">
+        <v>Stress is an essential part of human life. When threatened, humans have evolved an evolved neurochemical response that helps us fight, flee, or freeze. That response is called the “fight-or-flight” response. It is also called the “acute stress response” (ASR) or the “alarm” stage of the stress response. The stress response is an automatic physical or emotional reaction to a potential threat. It is the body’s way of preparing to defend itself. When the brain senses danger, it signals the adrenal glands to release a surge of hormones, including adrenaline and cortisol. Adrenaline increases heart rate, elevates blood pressure, and boosts energy supplies. Cortisol, the primary stress hormone, increases sugars (glucose) in the bloodstream, enhances the brain’s use of glucose, and increases the availability of substances that repair tissues. Cortisol also curbs functions that would be nonessential or detrimental in a fight-or-flight situation. It alters the immune system, suppresses the digestive system, and increases blood pressure. In addition, the brain responds to the stress by releasing several hormones including the neurotransmitters, norepinephrine and dopamine, which are involved in the decision making process, in reward and pleasure, in planning and in controlling motor functions. The brain also releases endorphins. These are natural, opium-like substances that ease pain, reduce stress and create feelings of euphoria. This is also the time when healthy eating is taken over by overeating, when self-care and exercise are pushed down below other priorities, when socializing and relaxation time often disappears and sleep may become disrupted.</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="str">
+        <v>A lot of organizations nowadays are using whiteboards as an effective way to communicate and collaborate. Whiteboards offer users a versatile tool that can be used for various purposes, such as brainstorming new ideas, recording meetings or notes, exchanging ideas with team members etc. They are also easy to clean up after use which helps keep your working area tidy and organized. Additionally, they act as great visual aids when teaching employees new tasks or procedures - simply putting up graphics on the board provides an effective reminder for everyone involved in the process.</v>
+      </c>
+    </row>
+    <row r="392" xml:space="preserve">
+      <c r="A392" t="str" xml:space="preserve">
+        <v xml:space="preserve">There are many reasons why this change might happen. First, as businesses become aware of the value of having a diverse workforce, they are able to see the cost-benefit of increasing inclusion. This means that they can afford to invest in establishment of rules and procedures that benefit all employees regardless of sex. Second, businesses have been gradually realizing that successful organizations cannot only rely on hired workers alone; they also needokoaborforce members who can contribute both theory and practice. And finally, recent studies have shown thatreatedworkers fairly improves productivity for all employees (Snyder et al., 2006). Thus, adapting policies and procedures in order to meet the needs of transgender employees is becoming increasingly popular among business leaders.
+Although there are some challenges associated with implementing such policies, I believe that these efforts will result in massive improvements for both men and women working in the workplace. In fact, I predict that over time, we will see an even larger increase in women's representation within businesses - and this growth will be based largely on increased awareness and sensitivity towards minority groups within workplaces.</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="str">
+        <v>The concept of “hostage situation” is adopted from the work of Joe Griffin and Ivan Tyrrell, authors of The Primal Scream. Griffin and Tyrrell also published a sequel to their book, titled Free to Be Human.</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="str">
+        <v>WELL, I THINK LIKE I SAID IT IS NOT EXACTLY GOOD, BUT YOU CANNOT SAY THAT THE PEOPLE DON'T WANT JOB. YOU CANNOT SAY THAT THE PEOPLE DON'T WANT TO WORK. THE SYSTEM JUST HAD A PROBLEM. AND FOR THE FIRST TIME, SOMEBODY IS INTERESTED. IT'S A COMPLEX SITUATION. IT'S NOT ONLY U.S., IT'S GLOBAL, AND THERE IS OBVIOUSLY A REASON TO BE REACTIONARY.</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="str">
+        <v>I'm never overawed by a situation and I think that's because I've always looked several years older than I am. So because people were treating me like I was 40 when I was 29, I've always felt in control of a situation. People used to say, when you're 32, you'll look 32. I'm still waiting for that moment, where my age catches up with my appearance.</v>
+      </c>
+    </row>
+    <row r="396" xml:space="preserve">
+      <c r="A396" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+I was wondering if you could tell me how to make these math problems more interesting.</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="str">
+        <v>We’re looking for an experienced Content Marketing Manager, who also happens to be obsessed with thought leadership and building awareness across owned channels. You must love researching, writing, editing, and amplifying stories and in-depth content that educates and inspires. You’ll also be passionate about testing new ideas, leading our content marketing efforts and learning from our audience. The right person will have an eye for top-quality B2B marketing content and a data-driven mindset to help connect content strategy to business results. You’ll play a key role in elevating our content marketing program and landing it all on our website.</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="str">
+        <v>I was a 'Duck Hunt' and 'Mario' guy, and stuff like that. I was never technologically driven. I never had all the cool, new toys. I was the youngest child, I wasn't the only child, so I wasn't spoiled as a kid. And, we were on the farm, so we didn't have a lot. Also, with computers, I'm not very good with them. I just check my email.</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="str">
+        <v>Margaret Sullivan: I had been at a small newspaper in California. I started my career at an evening daily newspaper called The San Bernardino Sun. I went straight from there to The New York Times in 1981. So it was a huge—it was a big leap in many ways—a leap into cultural elitism and sophistication. It was a wonderful, wonderful place to work. It was a very exciting time to be there because we were growing. Our circulation at the time was about 1.1 million. We were a big paper then. It's half that now. But we were in a great building in Times Square, and it was just exciting and exhilarating as you can imagine.</v>
+      </c>
+    </row>
+    <row r="400" xml:space="preserve">
+      <c r="A400" t="str" xml:space="preserve">
+        <v xml:space="preserve">Volunteering provides many tangible and intangible benefits.
+The tangible benefits of volunteering can include helping other people, improving one's own skills, building personal relationships, and having fun. The intangible benefits of volunteering can include increased self-awareness, civic engagement, and COMPASS skills.
+The most common tangible benefits of volunteering are helping other people, skill development, and building relationships. Volunteer experiences can help people learn new skills, improve their work ethic, and build social networks. Volunteering can also lead to new opportunities, such as finding a new job or becoming more involved in a community.
+The intangible benefits of volunteering are increased self-awareness, civic engagement, and COMPASS skills. Volunteering can help people learn more about themselves and their community. Furthermore, volunteering can lead to personal growth and development, such as increased empathy and compassion. Additionally, volunteering can increase one's knowledge and understanding of different topics, which can help them in their career or other areas of life.
+Overall, the tangible and intangible benefits of volunteering are significant. Many people find the benefits of volunteering to be worth the time and effort required to participate.</v>
+      </c>
+    </row>
+    <row r="401" xml:space="preserve">
+      <c r="A401" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+I am working on an app that would allow users to track their food intake and create healthy meal plans. This would help people to stay on track with their diet and lose weight. The app would have a grocery list feature, so people could input what they're eating and the app would take care of the rest.</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="str">
+        <v>I believe there is still space for assertiveness in these new post-truth times. Assertiveness is a communication style that respects the rights and needs of others while also protecting and promoting your own rights, needs, interests, or values. It’s considered a balance between passivity, where you don’t express yourself at all, and aggression, where you don’t care what anyone thinks – you just want your own way. When we are tolerant and respectful of the human rights and needs of others, we are able to build a common ground for understanding and for collaboration.</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="str">
+        <v>OK, so my parents were married in 1955 and my mom knew my dad was gay and my dad knew he was gay and so I was, like, 'Why in the heck did you get married?' Like, what was going on? What was that time? It's like this crazy paradox that my whole life is based on, or my family's based on. So I spent a lot of time trying to understand '55.</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="str">
+        <v>I'd do pretty much anything to get back on stage. I'd like to develop a new musical. I nearly had a heart attack when I heard that they're developing John Waters' Cry-Baby because that is so amazing and super and wonderful and I wish that I could be involved. But it's not the right time and I understand that. But I hear things like that and I get that little tingle in my stomach.</v>
+      </c>
+    </row>
+    <row r="405" xml:space="preserve">
+      <c r="A405" t="str" xml:space="preserve">
+        <v xml:space="preserve">The Scopes trial of 1925 was one of the most significant events in American History. The trial was fought over the belief of creationism, or the belief that God created the universe and all that exists within it in its present form. The trial pitted science against religion and it was seen as a battle between the individual and the establishment.
+The trial began in Dayton, Tennessee on February 24th and ended on March 25th. The trial was presided over by John T. Scopes and it involved the trial of William Jennings Bryan, a well-known religious figure who was the most vocal opponent of creationism. Bryan was charged with breaking the Tennessee law against teaching evolution, which was seen by many as an attack on religious beliefs.
+The trial was a famous one and it had a large impact on American society. The outcome of the trial was controversial and it created a divide in the American public. The majority of the population believed in evolution and saw the trial as a battle between science and religion. However, there was a small group of people who believed in creationism and they saw the trial as a battle between good and evil.
+The trial was a significant event in American History because it created a divide in the American public. The majority of the population believed in evolution and saw the trial as a battle between science and religion. However, there was a small group of people who believed in creationism and they saw the trial as a battle between good and evil. The outcome of the trial was controversial and it created a divide in the American public. The majority of the population believed in evolution and saw the trial as a battle between science and religion. However, there was a small group of people who believed in creationism and they saw the trial as a battle between good and evil. The outcome of the trial was controversial and it created a divide in the American public. The majority of the population believed in evolution and saw the trial as a battle between science and religion. However, there was a small group of people who believed in creationism and they saw the trial as a battle between good and evil.</v>
+      </c>
+    </row>
+    <row r="406" xml:space="preserve">
+      <c r="A406" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+I am creating a lightweight tool to help automate the process of finding and verifying software dependencies. The tool will be able to find and verify dependencies using a variety of methods, including but not limited to, command line options, API calls, and a comprehensive search engine. The tool will also be able to generate reports detailing the dependencies found and the status of each dependency.</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="str">
+        <v>The first thing I noticed about the man was his eyes. They were the color of the sky on a clear day, and they were filled with a sadness that I had never seen before. He was tall and thin, and his clothes were old and worn. He had a long beard and a mustache, and his hair was long and gray. He looked like a man who had been through a lot in his life.</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="str">
+        <v>Margaret Sullivan: I had been at a small newspaper in California. I started my career at an evening daily newspaper called The San Bernardino Sun. I went straight from there to The New York Times in 1981. So it was a huge—it was a big leap in many ways—a leap into cultural elitism and sophistication. It was a wonderful, wonderful place to work. It was a very exciting time to be there because we were growing. Our circulation at the time was about 1.1 million. We were a big paper then. It's half that now. But we were in a great building in Times Square, and it was just exciting and exhilarating as you can imagine.</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="str">
+        <v>The young woman in the photograph is Misery. Her eyes are sunken, her face gaunt and drawn with embarrassment. She's wearing a shabby dress and an expression of utter hopelessness graces her features. While it's not clear who this woman is or where the photo was taken, they have left us one lasting reminder: that behind every beautiful smile lies pain and suffering.</v>
+      </c>
+    </row>
+    <row r="410" xml:space="preserve">
+      <c r="A410" t="str" xml:space="preserve">
+        <v xml:space="preserve">As humans, we are constantly seeking approval and understanding. We need people in our lives to tell us what is right and what is wrong, to validate our choices, and to love us without reservation. Being a good person allows us to feel connected to others around us, and makes life more fun. Here are five reasons why it is so important for everyone to be a good person:
+1. It can make you happier. When you find joy in your life, everything else seems much easier. People tend to achieve happiness when they have purpose and meaning in their lives. Good people can often remember happy memories while bad people forget very quickly. being a good person gives somebody else's happiness some focus, which makes them likely to stay positive throughout their day.
+2. It can help you make better decisions. Good decisions involve taking information into account, weighing the pros and cons of different options, and Imagining the future. The more time you spend thinking positively about yourself, the better chance you have of making sound judgement calls that lead to successful outcomes.
+3. It can protect you from harm.Good people are frequently seen as the Buffer Between Safety and Danger because they take extra precautions such as being kind-hearted and watching out for others, even if they don't always know what they're doing. They also listen carefully when someone needs help, offer support if possible, or take action when something bad happens. This type of behavior strengthens relationships by reassuring other members of the community that someone will keep them safe no matter what – even if that individual isn't particularlyocial or safe-minded themselves!
+4. It can make you happier than bad people. When somebody is behaving in an immoral or harmful way (e.g., by harming another person), it feels satisfying and like they're getting away with murder – in a way that good people never experience pleasure from anything they do! People who are good at living constructive meaningful lives generally have a much harder time feeling angry or resentful towards others than those who aren't so lucky (or who choose not to try). In fact, most research indicates that having such positive outlooks leads individuals to report lower levels of anger, stress, worry etc., compared with individuals with negative outlooks on themselves or on the world around them.
+5. It can help you get along with others.Everybody needs to feel accepted and liked at some point in their lives, no matter how popular or popularized that idea may be. Being kind-hearted and humble will do the trick – even if you don't receive a lot of compliments for it in your day-to-day life. People who are good people generally have better relationships than those who aren't. They typically understand and know how to communicate effectively, which allows them to build Trust faster than those who are not so inclined.</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="str">
+        <v>This book was amazing. I never expected it to be so good, but it was. The writing was great, the characters were well-drawn, and the plot was exciting. I would definitely recommend this book to anyone.</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="str">
+        <v>Since 'Idol' I've gotten used to having an amazing hair and make-up team around me, so I'm starting to get picky. I know what I like now and I'm happy to say 'Could we maybe change that?' if I don't like something. I don't yell or anything, but I think I could definitely start to act a little diva-ish when it comes to my look.</v>
+      </c>
+    </row>
+    <row r="413" xml:space="preserve">
+      <c r="A413" t="str" xml:space="preserve">
+        <v xml:space="preserve">As humans, we are constantly seeking approval and understanding. We need people in our lives to tell us what is right and what is wrong, to validate our choices, and to love us without reservation. Being a good person allows us to feel connected to others around us, and makes life more fun. Here are five reasons why it is so important for everyone to be a good person:
+1. It can make you happier. When you find joy in your life, everything else seems much easier. People tend to achieve happiness when they have purpose and meaning in their lives. Good people can often remember happy memories while bad people forget very quickly. being a good person gives somebody else's happiness some focus, which makes them likely to stay positive throughout their day.
+2. It can help you make better decisions. Good decisions involve taking information into account, weighing the pros and cons of different options, and Imagining the future. The more time you spend thinking positively about yourself, the better chance you have of making sound judgement calls that lead to successful outcomes.
+3. It can protect you from harm.Good people are frequently seen as the Buffer Between Safety and Danger because they take extra precautions such as being kind-hearted and watching out for others, even if they don't always know what they're doing. They also listen carefully when someone needs help, offer support if possible, or take action when something bad happens. This type of behavior strengthens relationships by reassuring other members of the community that someone will keep them safe no matter what – even if that individual isn't particularlyocial or safe-minded themselves!
+4. It can make you happier than bad people. When somebody is behaving in an immoral or harmful way (e.g., by harming another person), it feels satisfying and like they're getting away with murder – in a way that good people never experience pleasure from anything they do! People who are good at living constructive meaningful lives generally have a much harder time feeling angry or resentful towards others than those who aren't so lucky (or who choose not to try). In fact, most research indicates that having such positive outlooks leads individuals to report lower levels of anger, stress, worry etc., compared with individuals with negative outlooks on themselves or on the world around them.
+5. It can help you get along with others.Everybody needs to feel accepted and liked at some point in their lives, no matter how popular or popularized that idea may be. Being kind-hearted and humble will do the trick – even if you don't receive a lot of compliments for it in your day-to-day life. People who are good people generally have better relationships than those who aren't. They typically understand and know how to communicate effectively, which allows them to build Trust faster than those who are not so inclined.</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="str">
+        <v>There is some literature that describes this phenomenon as self-victimization or the self-fulfilling prophecy.</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="str">
+        <v>Higher education has the unrivalled capacity to pursue and shape the values, knowledge, skills and research that are crucial to a society shifting to a low-carbon and safe future . . . The usual concerns of research and teaching excellence, competitive league tables, student and staff retention and so on now need to be put into the broader vision and goal of economic and social well-being nested in the imperative of planetary survival; and while there is still time to make a critical difference.</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="str">
+        <v>The obesity epidemic is on the rise, and it’s not just a problem for older adults. Obesity rates are increasing for everyone, regardless of age. A study from The Lancet found that overall, obesity rates have increased in every country studied since 1993. The reasons behind this increase are many, but one big factor is changes in eating habits. Obesity is now more likely because people are eating more processed foods andriel lamborghini Odd Future lip sync youtube than they were in the past. In addition, there is an increase in physical activity levels, which has led to an increase in weight and inches across the board. There are many ways to help fight against obesity, and you don’t have to be obese to see the effects. Education is key – provide children and adults with information about what calories really mean and howto lose weight safely. Let people know that healthy eating habits consist of eating plenty of fruits and vegetables, low-fat proteins, whole grains, nuts and seeds, low-calorie dairy products, poultry or fish instead of pork or fast food restaurants. It can be difficult to change general behavior when unhealthy eating habits are entrenched, but there are some things you can do to make a difference. One approach istargeting those who have been previously successful at losing weight – including parents or adults who know their own potential body size – by providing them with Prevention programs specifically designed for them. Another approach is to create healthier lifestyles around meals. Eating a balanced diet that includes fruits and vegetables, whole grains, nuts and seeds, lower-calorie dairy products, poultry or fish instead of pork or fast food restaurants will help you lose weight while maintaining your health condition.</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="str">
+        <v>The methodological advice to interpret in a way that optimizes agreement should not be conceived as resting on a charitable assumption about human intelligence that might turn out to be false. If we cannot find a way to interpret the utterances and other behaviour of a creature as revealing a set of beliefs largely consistent and true by our standards, we have no reason to count that creature as rational, as having beliefs, or as saying anything.</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="str">
+        <v>I liked the way my character, Shane, was first introduced. You get introduced to her through this sexual action, and I thought that was so cool and just kind of summed up what she enjoys and who she is, to a certain extent. She's a complete sexual being and the great thing is that she doesn't apologize for it. It's just who she is. We rarely see women be able to do that on television.</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="str">
+        <v>This whole business of Trade gives me to pause and think, as it constitutes false relations between men; inasmuch as I am prone to count myself relieved of any responsibility to behave well and nobly to that person who I pay with money, whereas if I had not that commodity, I should be put on my good behavior in all companies, and man would be a benefactor to man, as being himself his only certificate that he had a right to those aids and services which each asked of the other.</v>
+      </c>
+    </row>
+    <row r="420" xml:space="preserve">
+      <c r="A420" t="str" xml:space="preserve">
+        <v xml:space="preserve">The relationship between climate change and mental health is poorly understood. While increasing attention has been paid to the physical health consequences of climate change, few studies have examined the psychological adjustments that may be made by people in climate-affected areas. This study aimed to investigate the relationship between climate change and mental health in a dryland region of Kenya. Data were collected from 300 adults from 10 sites in Laikipia County, Kenya. Logistic regression model was employed to determine the association between future climate change and mental health. Significant associations were found between climate change-related variables, including lower nervous energy, poor appetite, and poor sleep quality, and the risk of psychological distress. 
+The findings suggest that the mental health impacts of climate change may be most severe in dryland regions. However, the results should be interpreted with caution due to the cross-sectional design. Additional studies are needed to confirm the findings, and to determine the mechanisms through which climate change impacts psychological distress.</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="str">
+        <v>Tis said of love that it sometimes goes, sometimes flies; runs with one, walks gravely with another; turns a third into ice, and sets a fourth in a flame: it wounds one, another it kills: like lightning it begins and ends in the same moment: it makes that fort yield at night which it besieged but in the morning; for there is no force able to resist it.</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="str">
+        <v>This policy of supplying, by opposite and rival interests, the defect of better motives, might be traced through the whole system of human affairs, private as well as public. We see it particularly displayed in all the subordinate distributions of power, where the constant aim is to divide and arrange the several offices in such a manner as that each may be a check on the other—that the private interest of every individual may be a sentinel over the public rights. These inventions of prudence cannot be less requisite in the distribution of the supreme powers of the State.</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="str">
+        <v>The sun was setting as I reached the top of the hill. In front of me lay a small clearing with a pond in it, and on one side sat an old oak tree, while across from it stood a smaller fir. The loamy smell of earth filled my nose as I slowly made my way to the pond. I could see water lilies swaying in its surface; their pink petals contrasting against the murky green depths. With every step taken forward, chorus frogs croaked out their calls until they were drowned out by crickets chirping rhythmically in response. Once I had reached the edge of the pond, I took off my shoes and socks and waded into its cool waters up to my thighs before turning around so that i could look at everything surrounding me.</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="str">
+        <v>It has always seemed strange to me... the things we admire in men, kindness and generosity, openness, honesty, understanding and feeling, are the concomitants of failure in our system. And those traits we detest, sharpness, greed, acquisitiveness, meanness, egotism and self-interest, are the traits of success. And while men admire the quality of the first they love the produce of the second.</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="str">
+        <v>Separated lovers cheat absence by a thousand fancies which have their own reality. They are prevented from seeing one another and they cannot write; nevertheless they find countless mysterious ways of corresponding, by sending each other the song of birds, the scent of flowers, the laughter of children, the light of the sun, the sighing of the wind, and the gleam of the stars?all the beauties of creation.</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="str">
+        <v>The first thing I noticed about the man was his eyes. They were the color of the sky on a clear day, and they were filled with a sadness that I had never seen before. He was tall and thin, and his clothes were old and worn. He had a long beard and a mustache, and his hair was long and gray. He looked like a man who had been through a lot in his life.</v>
+      </c>
+    </row>
+    <row r="427" xml:space="preserve">
+      <c r="A427" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+There is no one answer to this question as the relationship between religion and atheism can vary significantly depending on the individual. However, some basic points could be covered in regards to how Religion and Atheism interact. 
+First and foremost, there is a strong connection between atheism and skepticism. Skepticism is the belief that all physical objects, including gods and miracles, are illusion or Conjured up by someone's mind. Secondly, atheists often accuse religious people of being hypocritical for claiming to believe in something while engaging in immoral activities. Finally, atheists often feel that religion often uses fear and superstition to manipulate people. These accusations can create a divide between atheists and religious people who may see the relationship as positive.
+On the other hand, Religion does have a place in atheism. Many atheist groups exist both to argue against religion and also provide support for atheists who want to practice their own form of atheism without subscribing to any specific dogma. In addition, atheist leaders have made it clear that Atheism does not mean giving up our human rights or morals.</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="str">
+        <v>Understand that old people aren’t actually that worried about old age, according to numerous surveys. The most recent one I can find was undertaken by American research firm NORC in 2016. It polled over 3,000 adults and found that old people are more optimistic about growing old than younger adults: 46 percent of thirty-somethings said they were optimistic about aging, compared to 66 percent for the seventy-pluses. It seems that worrying about growing old is a sign you are young. And the main reason to be optimistic about old age is that old people themselves are. Resilience seems to grow.</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="str">
+        <v>But, yeah, I'm really happy when I'm writing. When I'm being creative and when I have something that I can put down. You know, if you go out and you overhear a conversation or you have a thought, you have a receptacle to go home and say, 'Oh, this would be great in this script.' Your antenna's out in a different way, and I love that time.</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="str">
+        <v>With the emergence of new social movements in the 1960s and 1970s, controversies over technological innovation became more frequent. While these movements are commonplace today, in those days, they emerged as a new political force. As prominent as the civil rights, peace, and environmental movements was (and in some countries, such as Germany, still is) the antinuclear movement. In the 1970s, oppositional movements arrived on the scene in the USA and virtually all Western European countries which embarked on the technology that promised to satisfy their steadily rising energy demands. The intensity, timing, and impact of these national movements varied according to different national contexts (Kitschelt 1986; Bauer 2015). The nuclear accidents of Three Mile Island (1979), Chernobyl (1986), and Fukushima (2011) gave further impetus to the antinuclear movements and brought about a further diminishing of global nuclear power plant construction. Today countries either insist on their antinuclear stance, review their nuclear policies, or have decided to phase out the technology which is increasingly regarded as uncontrollable catastrophic risk in the long term.</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="str">
+        <v>... business training in early life should not be regarded solely as insurance against destitution in the case of an emergency. For from business experience women can gain, too, knowledge of the world and of human beings, which should be of immeasurable value to their marriage careers. Self-discipline, co-operation, adaptability, efficiency, economic management,?if she learns these in her business life she is liable for many less heartbreaks and disappointments in her married life.</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="str">
+        <v>When I walk up on that shore in Florida, I want millions of those AARP sisters and brothers to look at me and say, 'I'm going to go write that novel I thought it was too late to do. I'm going to go work in Africa on that farm that those people need help at. I'm going to adopt a child. It's not too late, I can still live my dreams.'</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="str">
+        <v>The Nameless is the origin of Heaven and Earth; The Named is the mother of all things.  Therefore let there always be non-being  so we may see their subtlety, And let there always be being so we may see their outcome.  The two are the same, But after they are produced, they have different names.  They both may be called deep and profound.  Deeper and more profound, The door of all subtleties!</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="str">
+        <v>Social media has become an important part of education. It allows students to connect with each other and share ideas, experiences, and thoughts. Additionally, social media can offer educators a way to measure student engagement and improve teaching techniques. Social media also plays an important role in creating a community for educators, which can help increase their understanding of their students and help them better teach. In addition, social media can be used to promote specific content or courses, which can improve the learning experience for students. Overall, social media has been a powerful tool for educators and has helped them improve their teaching skills as well as their students’ engagement.</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="str">
+        <v>The fact is if we do our job right, if we keep worrying not about polls but about the jobs of the American people, about their health care, about their ability to educate their kids, stay in their homes and own their homes, send their kids to college, the basic pillars of a middle-class life, if we keep worrying about the future and building a stronger future for this country, these things will take care of themselves.</v>
+      </c>
+    </row>
+    <row r="436" xml:space="preserve">
+      <c r="A436" t="str" xml:space="preserve">
+        <v xml:space="preserve">1. I have never been satisfied with the way most of us understand confidence. The common view is that confidence is a personality trait that some people are lucky enough to have and others are not. This limit will stop people from developing the confidence they need to achieve their goals. The opposite of confidence is self-doubt, and most people suffer from self-doubt in one way or another.
+2. Confidence is a skill that can be learned and practiced like any other skill. It is a set of habits and behaviors that you can learn and develop over time. Confidence is not a trait or a personality type. It is a skill that can be learned, practiced, and improved.
+3. Confidence is a skill that can be learned and practiced like any other. The confidence you need to function well in the world is not determined by your personality, but by your ability to practice and master a set of skills that are vital for you to succeed in life.
+4. There is a difference between confidence and self-esteem, and this difference is important to understand when you are trying to improve your confidence. Self-esteem is defined as the way we see ourselves, and our perception of how others see us. Some people think they are “good” or “bad”, while others think they are “adequate” or “inadequate”. But we all have self-esteem. Self-esteem is the way you see yourself.
+6. Confidence is also different from self-efficacy. Self-efficacy is the belief that you have the ability to do something. This belief is usually based on past performance. The more you successfully perform a task, the more likely you are to believe that you can do it again. A high level of self-efficacy means that you believe you can do something, while a low level of self-efficacy means that you believe you cannot do something.
+7. Personal confidence is the belief that you are able to do something that is important to you. It is based on your experience of successfully achieving your goals in the past, and your belief that you are capable of achieving your goals in the future. It is not based on how you perceive other people to see you, or how they think you should behave. It is based on your experience of being successful in the past, and your belief that you can be successful in the future.
+8. Personal confidence is the belief that you are able to succeed at whatever you take on. It comes from your previous experiences of successfully achieving your goals, and your belief that you are capable of achieving your goals in the future. It does not come from how you are seen by others, or how others think you should behave. It comes from your experience of being successful in the past, and your belief that you can be successful in the future.
+9. Being confidence is important for many reasons. It helps you feel good about yourself, and it helps you reach your goals. It also helps you make decisions that are right for you. People who are confident are more likely to make decisions that are right for themselves, and not make decisions based on what other people think.</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="str">
+        <v>Four hours of makeup, and then an hour to take it off. It's tiring. I go in, I get picked up at two-thirty in the morning, I get there at three. I wait four hours, go through it, ready to work at seven, work all day long for twelve hours, and get it taken off for an hours, go home and go to sleep, and do the same thing again.</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="str">
+        <v>In the story, there is a conflict between two groups of people. The first group is made up of the students who are trying to get their revenge on Mike for spreading rumors about them. The second group includes those who want to protect Mike and stop the students from getting too angry. This conflict happens when both sides start fighting each other in school, causing lots of damage and emotions to be involved.</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="str">
+        <v>But the great security against a gradual concentration of the several powers in the same department, consists in giving to those who administer each department the necessary constitutional means and personal motives to resist encroachments of the others. The provision for defense must in this, as in all other cases, be made commensurate to the danger of attack. Ambition must be made to counteract ambition. The interest of the man must be connected with the constitutional rights of the place. It may be a reflection on human nature, that such devices should be necessary to control the abuses of government. But what is government itself, but the greatest of all reflections on human nature? If men were angels, no government would be necessary. If angels were to govern men, neither external nor internal controls on government would be necessary. In framing a government which is to be administered by men over men, the great difficulty lies in this: you must first enable the government to control the governed; and in the next place oblige it to control itself. A dependence on the people is, no doubt, the primary control on the government; but experience has taught mankind the necessity of auxiliary precautions.</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="str">
+        <v>It's funny to be discovered by a lot of people who didn't know you before. People always used to say, 'Do you shop at Home Depot?' or 'Does your kid go to such and such school?' They want to know why they know me, even if they don't know my name. I don't think that's a bad thing, by the way I think it's nice to be kind of anonymously famous.</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="str">
+        <v>The fan is made up of three parts: the motor, the blade, and the housing. The motor is plugged into an outlet, and the blade turns thanks to the power. The housing helps to keep everything in place, and it's easy to clean.</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="str">
+        <v>There is one characteristic of the present direction of public opinion peculiarly calculated to make it intolerant of any marked demonstration of individuality. The general average of mankind are not only moderate in intellect, but also moderate in inclinations; they have no tastes or wishes strong enough to incline them to do anything unusual, and they consequently do not understand those who have, and class all such with the wild and intemperate who they are accustomed to look down upon.</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="str">
+        <v>Money can help you to get medicines but not health.  Money can help you to get soft pillows, but not sound sleep.  Money can help you to get material comforts, but not eternal bliss.  Money can help you to get ornaments, but not beauty.  Money will help you to get an electric earphone, but not natural hearing.  Attain the supreme wealth, wisdom;you will have everything.</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="str">
+        <v>It is important to understand that impostor phenomenon is not a personality disorder, such as depression or narcissism, but it may be strongly characterized by these kinds of deficits. The main difference between personality disorders and impostor phenomenon is that personality disorders are structural deficits in personality, whereas impostor phenomenon doesn’t require a structural deficit in any area of a person’s brain. It is instead a kind of lens through which certain people process and understand their lives.</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="str">
+        <v>Strive with thy thoughts unclean before they overpower thee.  Use them as they will thee, for if thou sparest them and they take root and grow, know well, these thoughts will overpower and kill thee.  Beware!  Suffer not their shadow to approach.  For it will grow, increase in size and power, and then this thing of darkness will absorb thy being before thou hast well realized the black foul monster's presence.</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="str">
+        <v>I'm a fan of horrors. I love the ones that make you jump. My girlfriend hates it. I've been dating her for one-and-a-half years and I'm crazy about her, but she's terrified of horror films. Not the cute 'Will you hold me?' way, but she's weeping. With 'House of Wax,' we'll be sleeping and I'll go to the bathroom and she's sitting up waiting for me.</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="str">
+        <v>It's harder to be funny if you're handsome than if you're very normal-looking. It's just more relatable. You're the underdog. I mean it's funny to see people struggle, and you don't buy that Brad Pitt is struggling, you know that guy could be the most skill-less guy in the world, but if you look like that you will be fine for the rest of your life.</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="str">
+        <v>While there is some debate in the literature over whether it is appropriate to frame impostor phenomenon as a psychological disorder, the evidence is compelling that this phenomenon is not just a passing phase; it is a chronic condition with four key features: (1) ongoing, persistent experiences of feeling like a fraud; (2) a chronic sense of being self-conscious and worried about being exposed as a fraud; (3) persistent avoidance of success, such as by self-sabotaging or self-handicapping, or by setting extremely low expectations for yourself to make success seem not so big a deal; and (4) taking personal credit for failure, which helps to avoid future failure by convincing yourself that you’re actually not very capable of accomplishing things.</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="str">
+        <v>When you become a mom you just learn how to function sleep deprived and you do get used to it. I came back to work when Finley was three months old and the first few months were rough. Then somehow you learn to exist on no sleep and now when he does upon occasion sleep through the night, which is like a full six hours, you're pretty sure he's suffocating. So you don't sleep anyway.</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="str">
+        <v>Well, yeah. At a certain point, you've got to be really honest with yourself. Like, 'Why am I doing this? What are my motivations?' Like, if you get into it because you want to be famous? Then you've got a long row to hoe. But if you really feel like it's a labour of love and it's something you're actually legitimately good at, then it's not that hard to keep plugging away.</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="str">
+        <v>To be considered successful, a business must have a long-term outlook, be able to generate consistent revenue, have a loyal customer base, and be able to make strategic decisions.</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="str">
+        <v>I'm someone who loves to enjoy life and tries to focus on real things and real friendships. That's why I live very simply. I'm a jeans and T-shirt kind of girl. I don't spend much time fixing myself up or trying to look cool. I live like a normal person and even though I'm in a very high-profile business, I really don't let it affect the way I live.</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="str">
+        <v>1. Eat well. Our brains are 60 per cent fat, so we need the good kind of healthy fat—Omega 3—for our brain health. Other nutrients that help our brain include vitamin B, vitamin E, and foods like blueberries and broccoli. Foods like broccoli and blueberries are good for us, but they don’t taste like, say, a meatball sub with cheese fries. What can help is to think how quickly bad food makes us feel bad. It might take us an hour to eat a cheeseburger, but it will take our mood maybe only ten minutes to decline. If healthy food can take that long to digest, surely it is worth waiting for the positive effects? It has long been known how important diet is for physical health. But now there is evidence of how it can benefit our mood too. A study in Biological Psychiatry, for example, found that healthy dietary patterns that included foods like fish, fruit, and vegetables was associated with lower levels of depression.</v>
+      </c>
+    </row>
+    <row r="454" xml:space="preserve">
+      <c r="A454" t="str" xml:space="preserve">
+        <v xml:space="preserve">In Lev Grossman's book, The Magicians, the protagonist Quentin Coldwater is a student at Brakebills University, where he studies magic. Quentin's journey to become a magus is met with many obstacles, but eventually he discovers the secret to becoming a great magician: hard work and dedication. Quentin's struggles are not unique to him, but are common to any person who desires to achieve something great.
+There are countless obstacles that must be overcome in order to become a great magician. The first and most important step is gaining an understanding of magic. This knowledge can be found in books or by studying with a professional. Once the basics of magic are understood, it is important to develop one's skill. This can be done by practicing regularly and learning from the best teachers. In addition, it is essential to have faith in oneself and never give up on one's dreams.
+Despite all these obstacles, any person can achieve greatness if they are willing to put in the work. Quentin Coldwater proves this point by his perseverance through difficult trials and tribulations. He never gives up on his dreams and always works hard toward his goals. In the end, Quentin Coldwater is a successful magus and his story shows that anyone can achieve greatness if they are willing to work hard for it.</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="str">
+        <v>Don’t let anyone tell you how much time you should spend working or how hard you should work. No one knows your circumstances or what matters most to you as much as you do—so no one else can make a judgement about your five-to-nine better than you can. Also, what feels like ‘work’ for one person may not feel like ‘work’ for another person: some people would rather spend seven hours a day on long country walks than two hours commuting into an office; some people want their careers because they enable them to pursue their passions while other people want nothing more than an uncomplicated pay cheque so that they can fund their passions outside of work; and some people want jobs because they want purpose while other people see jobs as nothing more than a means by which they can fund whatever else matters most in their lives (and could happily spend 20 hours a week working on these things rather than 40). Quantity doesn’t mean quality. Be ambitious about your own career—but don’t let the ambition get in the way of what matters most for you personally, about your life outside of work and about your mental health.</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="str">
+        <v>It’s been said that insanity is doing the same thing over and over again and expecting different results. In today’s world, this often describes our approach to finances. We go through cycles of spending more money than we have, then reducing expenditures when faced with tough times only to get back into a cycle of increased borrowing that eventually destroys whatever good progress has been made. Financial planning should not be viewed as rote repetition but instead as an ongoing discussion between you and your financial advisor; one in which realistic goals are set together with the necessary compromises so both parties can reach them satisfactorily.</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="str">
+        <v>The United Nations four or five years ago put out a study that said the meat industry, meat-eating, growing meat for food is the No. 1 killer of our planet - not No. 2 or No. 3: No 1. You know what's No. 2? Transportation. Everyone thinks that No. 1 is transportation, and goes out and buys a hybrid car. Screw the hybrid cars. Don't eat hamburgers.</v>
+      </c>
+    </row>
+    <row r="458" xml:space="preserve">
+      <c r="A458" t="str" xml:space="preserve">
+        <v xml:space="preserve">Volunteering provides many tangible and intangible benefits.
+The tangible benefits of volunteering can include helping other people, improving one's own skills, building personal relationships, and having fun. The intangible benefits of volunteering can include increased self-awareness, civic engagement, and COMPASS skills.
+The most common tangible benefits of volunteering are helping other people, skill development, and building relationships. Volunteer experiences can help people learn new skills, improve their work ethic, and build social networks. Volunteering can also lead to new opportunities, such as finding a new job or becoming more involved in a community.
+The intangible benefits of volunteering are increased self-awareness, civic engagement, and COMPASS skills. Volunteering can help people learn more about themselves and their community. Furthermore, volunteering can lead to personal growth and development, such as increased empathy and compassion. Additionally, volunteering can increase one's knowledge and understanding of different topics, which can help them in their career or other areas of life.
+Overall, the tangible and intangible benefits of volunteering are significant. Many people find the benefits of volunteering to be worth the time and effort required to participate.</v>
+      </c>
+    </row>
+    <row r="459" xml:space="preserve">
+      <c r="A459" t="str" xml:space="preserve">
+        <v xml:space="preserve">function (intervals) {
+  intervals.sort((a, b) =&gt; a[0] - b[0]);
+  let total = 0;
+  let highest = 0;
+  for (let i = 0; i &lt; intervals.length; i++) {
+    if (highest &lt;= intervals[i][0] || i === 0) {
+      total += intervals[i][1] - intervals[i][0];
+      highest = intervals[i][1];
+    } else if (highest &lt; intervals[i][1] &amp;&amp; highest &gt; intervals[i][0]) {
+      total += intervals[i][1] - highest;
+      highest = intervals[i][1];
+    }
+  }
+  return total;
+}</v>
+      </c>
+    </row>
+    <row r="460" xml:space="preserve">
+      <c r="A460" t="str" xml:space="preserve">
+        <v xml:space="preserve">Volunteering provides many tangible and intangible benefits.
+The tangible benefits of volunteering can include helping other people, improving one's own skills, building personal relationships, and having fun. The intangible benefits of volunteering can include increased self-awareness, civic engagement, and COMPASS skills.
+The most common tangible benefits of volunteering are helping other people, skill development, and building relationships. Volunteer experiences can help people learn new skills, improve their work ethic, and build social networks. Volunteering can also lead to new opportunities, such as finding a new job or becoming more involved in a community.
+The intangible benefits of volunteering are increased self-awareness, civic engagement, and COMPASS skills. Volunteering can help people learn more about themselves and their community. Furthermore, volunteering can lead to personal growth and development, such as increased empathy and compassion. Additionally, volunteering can increase one's knowledge and understanding of different topics, which can help them in their career or other areas of life.
+Overall, the tangible and intangible benefits of volunteering are significant. Many people find the benefits of volunteering to be worth the time and effort required to participate.</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="str">
+        <v>Abraham Lincoln, commander in chief of the United States armed forces, and Edwin M. Stanton, Secretary of War, were themselves parties to the attempted arrest, trial and conviction of an American citizen by a military tribunal in the presence of a civil court, in spite of the fact that the enforcement of justice by civil courts was not then impossible. Judge Advocate Holt, in his history of military justice, makes the point that "the Supreme Court in this instance, could hardly have been carried away by any over-zeal for the maintenance of constitutional rights. The judges were all men of experience; men who had passed through the Civil War or the war with Mexico, and two of them by bitter experience in the Northern prisons had had the best education for understanding the difficulties which confront the commander of a military force struggling for existence against armed and organized resistance. Moreover, the first army commander who had encouraged the military commissions in the South on this same ground of necessity had just weeks before been tried and condemned by a military commission for murder. If Judge Advocate Holt's view is correct, the men who were tried in the Milligan case had much less excuse for their conduct than did General Butler</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="str">
+        <v>Love is the best feeling in the world. It's the best feeling when you're with someone you care about and you feel happy and content. Love is the best feeling when you're in a relationship and you're happy and you feel loved. Love is the best feeling when you're with someone who you think is the best for you.</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="str">
+        <v>Understand that old people aren’t actually that worried about old age, according to numerous surveys. The most recent one I can find was undertaken by American research firm NORC in 2016. It polled over 3,000 adults and found that old people are more optimistic about growing old than younger adults: 46 percent of thirty-somethings said they were optimistic about aging, compared to 66 percent for the seventy-pluses. It seems that worrying about growing old is a sign you are young. And the main reason to be optimistic about old age is that old people themselves are. Resilience seems to grow.</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="str">
+        <v>I dated a guy and he liked me but I didn't like him. I went through his wardrobe and cleaned out his house and got him to get a new car. He said to me, 'If I give you $10,000, will you find me my wife because I want someone like you?' And within a year, he got married. That was the first match that led to me leaving my corporate job.</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="str">
+        <v>Yes. I did more research than I ever wanted to and saw some things I wish I didn't. I went on ride-alongs, spent time with Homicide, Cold Case, and SVU detectives, hung out in subways learning how to spot pervs and pick-pockets, viewed an autopsy, went to a police firing range, and witnessed court cases and I read, read, read.</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="str">
+        <v>I don't stop. It's my nature. People have to tell me to slow down. I plan on playing every role on Broadway. I want to do 'Evita.' I want to do 'Sweeney Todd' with Chris Colfer. We want to do 'Wicked.' I'll be Elphaba and he wants to play 'Guy-linda.' I want to do movies, make music. 'Glee' is only the beginning.</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="str">
+        <v>They started by stating that everything felt like it was going wrong and that there wasn't a single thing in life that made them happy anymore. The sender explained how this had been happening for months now, but no matter what they did things only got worse. They told their friend how crazy and frustrating it all felt, begging for help because they didn't know where else to turn.</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="str">
+        <v>The setting for this novel is Boston in the early nineteen-hundreds. The novel follows the story of two sisters, Tess and Charlotte, as they navigate their way through life. Tess is a bright and determined young woman, while Charlotte is a sweet and introverted young woman. Both sisters are struggling to find their place in the world, and the novel explores their relationships with family, friends, and romantic interests. In addition to exploring the sisters' lives, the novel also focuses on the history and culture of Boston during this time period.</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="str">
+        <v>The findings of the above-cited 2018 RAND report were devastating. The report reveals the following alarming facts: (1) employee stress level is at a historic high; (2) the impact of stress on the workforce is a huge problem; (3) stress is costly, impacting organizations in several different ways; (4) stress is a major factor in health care costs; (5) stress-related issues are responsible for as many as 119,000 deaths a year; (6) stress in the workplace is out of control, and organizations must start to determine how to contain this problem and understand this challenge; (7) the workplace is not able to address the problem and needs to take concrete actions to start to reduce stress; and (8) stress is not only a personal health problem, but it is a serious problem in organizations.</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="str">
+        <v>A 2018 RAND Corporation report described workplace stress as a “pandemic,” and warned, “This is not a problem we can solve by just taking a walk or listening to music.” The same report, citing a 2016 survey of human resource managers, said that workers in the United States are under “extreme stress.” While the causes of workplace stress are diverse, the number one cause is commonly cited as increased workload combined with inadequate staffing.</v>
+      </c>
+    </row>
+    <row r="471" xml:space="preserve">
+      <c r="A471" t="str" xml:space="preserve">
+        <v xml:space="preserve">The Scopes trial of 1925 was one of the most significant events in American History. The trial was fought over the belief of creationism, or the belief that God created the universe and all that exists within it in its present form. The trial pitted science against religion and it was seen as a battle between the individual and the establishment.
+The trial began in Dayton, Tennessee on February 24th and ended on March 25th. The trial was presided over by John T. Scopes and it involved the trial of William Jennings Bryan, a well-known religious figure who was the most vocal opponent of creationism. Bryan was charged with breaking the Tennessee law against teaching evolution, which was seen by many as an attack on religious beliefs.
+The trial was a famous one and it had a large impact on American society. The outcome of the trial was controversial and it created a divide in the American public. The majority of the population believed in evolution and saw the trial as a battle between science and religion. However, there was a small group of people who believed in creationism and they saw the trial as a battle between good and evil.
+The trial was a significant event in American History because it created a divide in the American public. The majority of the population believed in evolution and saw the trial as a battle between science and religion. However, there was a small group of people who believed in creationism and they saw the trial as a battle between good and evil. The outcome of the trial was controversial and it created a divide in the American public. The majority of the population believed in evolution and saw the trial as a battle between science and religion. However, there was a small group of people who believed in creationism and they saw the trial as a battle between good and evil. The outcome of the trial was controversial and it created a divide in the American public. The majority of the population believed in evolution and saw the trial as a battle between science and religion. However, there was a small group of people who believed in creationism and they saw the trial as a battle between good and evil.</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="str">
+        <v>I want to be happy and fulfilled. I believe that happiness and fulfillment are the key to a healthy life. I want to find a way to be happy and fulfilled without any extra work or stress. I want to find a way to be happy and fulfilled that is sustainable and equal to my own abilities and desires. I want to find a way to be happy and fulfilled that is possible for me to maintain and improve.</v>
+      </c>
+    </row>
+    <row r="473" xml:space="preserve">
+      <c r="A473" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+I implemented a project for a customer that required me to install a new counter top in their kitchen. I first measured the area where the counter top would be, and then drew out a grid on paper to help me plan the layout of the screws and drill holes for the counter top. I then collected all of the necessary materials, including the counter top, screws, drill, saw, and sandpaper. I began by drilling holes in the grid that I had prepared, and then screwed the counter top into place. I then used a sandpaper block to smooth out any bumps or areas that were not perfectly flush with the surface of the counter top. Finally, I completed the project by sawing off any excess counter top material, and then sanded it smooth once again.</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="str">
+        <v>The present study aimed to explore the relationship between Y-chromosome STR and psychiatric symptoms in patients with major depressive disorder. The study found that patients with higher Y-chromosome STR have a higher risk for developing psychiatric symptoms. The study also found that patients with higher Y-chromosome STR had a higher risk for developing major depressive disorder in a monozygotic ( identical ) twin study. The study showed that the relationship between Y-chromosome STR and psychiatric symptoms is possibly due to genetic modifiers.</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="str">
+        <v>The plague of mankind is the fear and rejection of diversity: monotheism, monarchy, monogamy and, in our age, monomedicine. The belief that there is only one right way to live only one right way to regulate religious, political, sexual, medical affairs is the root cause of the greatest threat to man: members of his own species, bent on ensuring his salvation, security, and sanity.</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="str">
+        <v>We can speculate upon how the combination of comprehensive rich datasets with optimized faster hardware and new algorithms with new techniques will unlock AI functionality that will look like magic. Perhaps these will even pave the way to the development of general AI, and the dream of the AI doctor will become a reality. However, this chapter will remain grounded in current research to shine a light on potential developments that are tantalizingly out of reach yet possible in the near future. At the end of the chapter, we will briefly cover how AI may unlock totally new ways of working.</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="str">
+        <v>Men are great or small in stature as it pleases God.  But their nature is great or small as it pleases themselves.  Men are not born, some with great souls and some with little souls.  One by taking thought cannot add to his stature, but he can enlarge his soul.  By an act of the will he can make himself a moral giant, or dwarf himself to a pygmy.</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="str">
+        <v>Anomaly detection is the process of uncovering anomalies, errors, bugs, and defects in software to eradicate them and increase the overall quality of a system.</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="str">
+        <v>Ideas are a part of intellectual property, innovation, problem-solving, and world-changing insights. They are a part of every day. They are not easy to define in any way that implies universality, but to do so would probably mean that the result is artificial and not indicative of spontaneous ideation. Still, ideas are as operational as, say, “bits” of information (not a binary digit “bit” used in computer code, but a “bit” used in the cognitive sciences to describe units of information processed in short-term working memory). Bits also vary from person to person and must be defined on a level that allows such variation. The technology of divergent thinking indicates that ideas are defined in a fashion that allows scientific study. There is a huge literature on divergent thinking, and much of it is experimental or quasi-experimental and moderate in internal validity.</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="str">
+        <v>Furthermore, we believe that health care reform, again I said at the beginning of my remarks, that we sent the three pillars that the President's economic stabilization and job creation initiatives were education and innovation - innovation begins in the classroom - clean energy and climate, addressing the climate issues in an innovative way to keep us number one and competitive in the world with the new technology, and the third, first among equals I may say, is health care, health insurance reform.</v>
+      </c>
+    </row>
+    <row r="481" xml:space="preserve">
+      <c r="A481" t="str" xml:space="preserve">
+        <v xml:space="preserve">Time is the most important factor in our lives. It has the ability to define everything from our daily rituals to our futures. Time is also a precious commodity, which we use to make decisions that have an impact on the rest of our lives.
+Without time, we would not be able to do things such as learn new things, experience new cultures, or grow old. Time is also used to measure how far we have come and how much work still needs to be done. In some ways, time is like a life raft that allows us to cross over into the future and explore different opportunities while avoiding potential dangers along the way.
+ thefts, robberies, and murders often occur due to lack of time. For example, if someone is prevented from robbing a bank in 15 minutes, they will likely rob another bank in 45 minutes or even 1 hour. To prevent these sorts of crimes from happening, it is important for criminals to have enough time to plan their attack and pull off their robbery successfully.
+In addition, time is also necessary for other activities such as studying, doing homework, and working on projects. Without enough time, these activities may not be possible. For example, if I study for an exam for hours every night and try my best to stay awake during class, I may not be able to achieve the level of success I want because I would need more time than usual to complete the exam.
+On the other hand, if I am able to relax and sleep for 8 hours every night after studying for hours today, I will likely achieve a similar level of success as if I studied for 6 hours today. This illustrates how important time is in our lives – by taking advantage of its abilities we can achieve our goals without having too much trouble.</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="str">
+        <v>I remember being at Greenblatt's on Sunset, and some guy just walked straight up to me, and he had some bling on and whatever, and said something about a party down in Malibu and asked if I would jump in his car and go to the party. All I could think was, 'Who are you? I don't know you, and I don't care about how good your car is.'</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="str">
+        <v>There are a lot of benefits to being a vegetarian, and it can be highly beneficial for both your health and the environment. Vegetarians tend to have lower rates of heart disease, obesity, type II diabetes, some forms of cancer, and many other diseases than people who eat meat. They also consume more fruits and vegetables than people who eat meat, and these nutrients help keep them healthy. Additionally, some pecuarians oppose the hunting and slaughter of animals for their food, which means that they are helping to reduce the amount of animal cruelty going on in the world.</v>
+      </c>
+    </row>
+    <row r="484" xml:space="preserve">
+      <c r="A484" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+The incident occurred when a student was walking in a commons area of the school when she was suddenly approached from behind by another student who shoved her. The victim fell to the ground and the assailant walked away</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="str">
+        <v>We do have food; however, I am currently unsure concerning the variety that would appease your appetite at this present point in our dialogue together while enjoying ourselves within each other's company here on Earth on our glorious planet that orbits around a star found within one galaxy of potentially infinite galaxies inhabited by extreme possibilities surrounding all manifestations and idea(s)</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="str">
+        <v>Wasn't marriage, like life, unstimulating and unprofitable and somewhat empty when too well ordered and protected and guarded? Wasn't it finer, more splendid, more nourishing, when it was, like life itself, a mixture of the sordid and the magnificent; of mud and stars; of earth and flowers; of love and hate and laughter and tears and ugliness and beauty and hurt?</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="str">
+        <v>The other day I got a text from a boy, but it wasn't hot. I mean, if you're going to text me every day, you haven't seen me for months and you're trying to seduce me, you'd better spice up that text and make it more exciting than 'How was your day? I hope you're having a beautiful one.' Sadly, I haven't been doing a lot of kissing lately.</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="str">
+        <v>No man is an Island, entire of it self; every man is a piece of the Continent, a part of the main; if a clod be washed away by the sea, Europe is the less, as well as ifa promitory were, as well as if a manor of thy friends or of thine own were; any man's death diminishes me, because I am involved in Mankind; And therefore never send to know for whom the bell tolls; It tolls for thee.</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="str">
+        <v>If the thoughts are absolutely tranquil the heavenly heart can be seen. The heavenly heart lies between sun and moon (i.e. between the two eyes). It is the home of the inner light.  To make light circulate is the deepest and most wonderful secret.  The light is easy to move, but difficult to fix.  If it is made to circulate long enought, then it crystallizes itself;  that is the natural spirit body...</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="str">
+        <v>However, there are a few things that businesses need to consider when using social media. The first is that social media can be valuable but can also be risky. For example, if a business doesn’t take enough precautions to ensure their content is accurate or promotional, they may risk losing customer trust and/or respect. Additionally, it’s important that businesses aren’t too dismissive of people who use social media. Sometimes people use social media as a form of communication and outreach, which is valuable. Finally, businesses should make sure they are providing value and fulfilling their commitments on social media. If they don’t, their users may end up cutting them out of their lives.</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="str">
+        <v>There are a lot of benefits to being a vegetarian, and it can be highly beneficial for both your health and the environment. Vegetarians tend to have lower rates of heart disease, obesity, type II diabetes, some forms of cancer, and many other diseases than people who eat meat. They also consume more fruits and vegetables than people who eat meat, and these nutrients help keep them healthy. Additionally, some pecuarians oppose the hunting and slaughter of animals for their food, which means that they are helping to reduce the amount of animal cruelty going on in the world.</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="str">
+        <v>We do have food; however, I am currently unsure concerning the variety that would appease your appetite at this present point in our dialogue together while enjoying ourselves within each other's company here on Earth on our glorious planet that orbits around a star found within one galaxy of potentially infinite galaxies inhabited by extreme possibilities surrounding all manifestations and idea(s)</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="str">
+        <v>There are many golden things one may find at an age when most people have had the time and wisdom accumulated through decades of study to look around; there is much beauty left for them even if their bodies can't move as fluidly as those belonging to younger generations do so well right now which include loving feelings that come forth again after finding out how precious each moment might be during senior years along with living while cherishing whatever small things turn up unexpectedly every day despite its simplicity instead of crying over spilled milk simply caused by temporary failures back then since it's never too late once we feel optimistic about what lies ahead whatsoever whether pleasant or unpleasant from beginning until the end regardless who else feel contented everyday despite mistakes made throughout journeys within past seasons before eventually calming down due having tons more responsibilities than usual either way on account(in part)to different relationships for instance intimate ones leading to marriage including parents giving birth multiple times following extramarital affairs ending up conflicting constantly meaning old people aren’t regarded very highly these days whereas some elderly individuals get treated worse off (when compared against young folks) due(in part)to different relationships for example intimate ones leading to marriage so we don't have to deal with their own parents or kids getting involved figuratively from now on.</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="str">
+        <v>If I go into a sandwich shop or anywhere that features 'Today's specials' on a chalkboard more than 10 feet away, I have to ask for a printed menu. I smile at people I don't know on the street and ignore those I do. When at home, I often find myself grabbing my 'back-up' glasses to search for the better-loved pair I have left on top of my dresser.</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="str">
+        <v>Abraham Lincoln, commander in chief of the United States armed forces, and Edwin M. Stanton, Secretary of War, were themselves parties to the attempted arrest, trial and conviction of an American citizen by a military tribunal in the presence of a civil court, in spite of the fact that the enforcement of justice by civil courts was not then impossible. Judge Advocate Holt, in his history of military justice, makes the point that "the Supreme Court in this instance, could hardly have been carried away by any over-zeal for the maintenance of constitutional rights. The judges were all men of experience; men who had passed through the Civil War or the war with Mexico, and two of them by bitter experience in the Northern prisons had had the best education for understanding the difficulties which confront the commander of a military force struggling for existence against armed and organized resistance. Moreover, the first army commander who had encouraged the military commissions in the South on this same ground of necessity had just weeks before been tried and condemned by a military commission for murder. If Judge Advocate Holt's view is correct, the men who were tried in the Milligan case had much less excuse for their conduct than did General Butler</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="str">
+        <v>I can't do the same movies all my life. I'm conscious of that. But it's a trade-off. 'Dear John' allowed me to do movies I've wanted to do. You learn to balance it out. I'm still learning. Only now am I getting to do the kinds of movies that I have wanted to do. So it's a steady climb. You don't jump into a Soderbergh film.</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="str">
+        <v>I am a perfectionist but I know how to live life. When I'm working, it's 100%. When I'm with my friends, I put everything away and enjoy life. When I come home to my kids, it's pure joy and everything's worth it. Every time, I really focus 100 percent on one thing. I've learned how to juggle my life and I feel like now I have the perfect balance.</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="str">
+        <v>I'm the most inappropriate dad. I curse in front of my kids and their friends. I let my kids watch R-rated movies. I'll walk by the movie theater and say, 'Let's go see that,' and my kids will say, 'No, it's rated R. It's not appropriate for kids.' I'm like Uncle Dad. We have fun. I don't live with them, but I drive over four days a week.</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="str">
+        <v>I hope you're doing well! I wanted to reach out and see if you are available for a meeting in the next few weeks. My company is looking for someone with your skillset, and I thought it would be beneficial to get a face-to-face conversation started. Let me know if that sounds like something you'd be interested in - thanks!</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="str">
+        <v>We are facing an increasingly complex, fast-moving environment. In the coming years, sustainability, digitalization, an intensifying competition for talent and geopolitics will shape both Investor and our companies.</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="str">
+        <v>Becoming emancipated at 14, my life wasn't normal. I didn't have to go to school, so I didn't. I was rebellious by nature. I spent my 20s focusing on my company, Flower Films, and producing movies. Now that I'm almost 30, I would like to try other things in lie. I'm crazy about photography, and I want to take an art history class.</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="str">
+        <v>My mother smokes me out. We'll get these long periods of me thinking I'm too busy to call her up or e-mail her, and she'll send me something. My mom's a real whiner. I love her to death, but she always sends me these 'woe is me' things. I think she might be Jewish. I'm not sure. She's Baptist-Jewish, which is a double whammy.</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="str">
+        <v>I do, I kick major butt in 'Dredd.' I get to kill people. I break a guy's neck by roundhouse kicking him in the face. It was me, I did it. I learned how to roundhouse kick. I also do it with my hands cuffed behind my back so it's pretty cool I have to say. Yeah, leather body suit, blonde hair, the whole thing.</v>
+      </c>
+    </row>
+    <row r="504" xml:space="preserve">
+      <c r="A504" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+Technology has had a major impact on society in many ways. For one, it has made it easier to connect with others, share information, and store information. It has also allowed people to work and communicate more freely. Additionally, technology has made it easier to find and use information.</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="str">
+        <v>The internet has a large effect on creativity because it allows people to connect with other people and share ideas. It also allows people to access a wide variety of information and ideas. This allows people to build new ideas and come up with new ways to solve problems. The internet also allows people to share their ideas with others and get ideas from others.</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="str">
+        <v>The best man in his dwelling loves the earth.  In his heart, he loves what is profound.  In his associations, he loves humanity.  In his words, he loves faithfulness.  In government, he loves order.  In handling affairs, he loves competence.  In his activities, he loves timeliness.  It is because he does not compete that he is without reproach.</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="str">
+        <v>As a real person, he wouldn't last a minute, would he? But drama is about imperfection. And we've moved away from the aspirational hero. We got tired of it, it was dull. If I was House's friend, I would hate it. How he so resolutely refuses to be happy or take the kind-hearted road. But we don't always like morally good people, do we?</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="str">
+        <v>With all of the divisiveness that is going on in the country we live in, so much of it is based around just fear of the other. And anyone who does not look like me, walk like me, talk like me, have sex like me, they're the other and I'm afraid of them. And hopefully we will learn that it's just not scary. There's nothing to be afraid of.</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="str">
+        <v>But the great security against a gradual concentration of the several powers in the same department, consists in giving to those who administer each department the necessary constitutional means and personal motives to resist encroachments of the others. The provision for defense must in this, as in all other cases, be made commensurate to the danger of attack. Ambition must be made to counteract ambition. The interest of the man must be connected with the constitutional rights of the place. It may be a reflection on human nature, that such devices should be necessary to control the abuses of government. But what is government itself, but the greatest of all reflections on human nature? If men were angels, no government would be necessary. If angels were to govern men, neither external nor internal controls on government would be necessary.</v>
+      </c>
+    </row>
+    <row r="510" xml:space="preserve">
+      <c r="A510" t="str" xml:space="preserve">
+        <v xml:space="preserve">1. Understand that old people aren’t actually that worried about old age, according to numerous surveys. The most recent one I can find was undertaken by American research firm NORC in 2016. It polled over 3,000 adults and found that old people are more optimistic about growing old than younger adults: 46 percent of thirty-somethings said they were optimistic about aging, compared to 66 percent for the seventy-pluses. It seems that worrying about growing old is a sign you are young. And the main reason to be optimistic about old age is that old people themselves are. Resilience seems to grow.
+2. It happens. Aging is something we can’t do much about. We can eat healthily, exercise and live sensibly but we will still age. Our 80th birthday will still be on the same date. Sure, we can make it more likely we will reach 80, but we can’t stop the wheels of time. And the certainty is actually quite reassuring. When there is nothing we can do about something, the point of worry begins to diminish. “Everybody dies,” wrote Nora Ephron.” There’s nothing you can do about it. Whether or not you eat six almonds a day</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="str">
+        <v>I know what love is. It?s understanding. It?s you and me and let the rest of the world go by. Just the two of us living our lives together happily and proudly. No self-torture and no doubt. It?s enduring and it?s everlasting. Nothing can change it. Nothing can change us, Ollie. That?s what I think love is.</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="str">
+        <v>The person who has applied for a tourist visa from outside the US will be required to pay the fee of $140. This fee is non-refundable and non-transferable. The fee must be paid in cash at the location where the visa application is submitted. This includes persons who wish to travel to the US and apply for adjustment of status to permanent resident (get a green card) while in the US and persons who have other non-immigrant status (F/M), and who wish to apply for an immigrant visa (get a green card) while in the US. Unfortunately, it is not possible to pay the immigrant visa fee at the same location where you submit the immigrant visa application. Payment of the fee must be made to the US Department of State.</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="str">
+        <v>People don't know where to place me. Terry Gilliam used me as a quirky cop in 'Twelve Monkeys', and then he hired me again to be an effeminate hotel clerk in 'Fear and Loathing in Las Vegas'. Another time, I was shooting this indie film 'The Souler Opposite' and six days a week, I'm playing this big puppy dog, then I come to the 'NYPD Blue' set and become this scumbag.</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="str">
+        <v>No matter how popular you are as a stand-up - you can go out and fill a 10,000-seat arena and be smart and funny - it's delicate to host an awards show and know where your place is and know that it's not about you, that it's about the people who are nominated, and respect that, but at the same time have your moment to show them who you are.</v>
+      </c>
+    </row>
+    <row r="515" xml:space="preserve">
+      <c r="A515" t="str" xml:space="preserve">
+        <v xml:space="preserve">Time is the most important factor in our lives. It has the ability to define everything from our daily rituals to our futures. Time is also a precious commodity, which we use to make decisions that have an impact on the rest of our lives.
+Without time, we would not be able to do things such as learn new things, experience new cultures, or grow old. Time is also used to measure how far we have come and how much work still needs to be done. In some ways, time is like a life raft that allows us to cross over into the future and explore different opportunities while avoiding potential dangers along the way.
+ thefts, robberies, and murders often occur due to lack of time. For example, if someone is prevented from robbing a bank in 15 minutes, they will likely rob another bank in 45 minutes or even 1 hour. To prevent these sorts of crimes from happening, it is important for criminals to have enough time to plan their attack and pull off their robbery successfully.
+In addition, time is also necessary for other activities such as studying, doing homework, and working on projects. Without enough time, these activities may not be possible. For example, if I study for an exam for hours every night and try my best to stay awake during class, I may not be able to achieve the level of success I want because I would need more time than usual to complete the exam.
+On the other hand, if I am able to relax and sleep for 8 hours every night after studying for hours today, I will likely achieve a similar level of success as if I studied for 6 hours today. This illustrates how important time is in our lives – by taking advantage of its abilities we can achieve our goals without having too much trouble.</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="str">
+        <v>The impact of climate change on the mental health of young people is poorly understood. Emerging evidence suggests that exposure to climate change exerts a disproportionate mental health burden on young people. An understanding of the risk factors (RFs) and protective factors (PFs) that affect the likelihood of mental health impacts arising from exposure to climate change is required to support youth wellbeing. Aims/objectives: This review scopes the current research on what and how RFs and PFs are related to the mental health impacts of both direct and indirect exposure to climate change for young people. RFs and PFs were reviewed through the lens of ecological system theory. Methods: We conducted systematic searches in four databases: PubMed, PsycInfo, Web of Science, and Scopus. Grey literature searches were conducted in ProQuest Dissertations, GreyLit.org, OpenGrey, and relevant organisations’ websites. We included 92 empirical studies focused on the RFs and PFs of the mental wellbeing under the impact of climate change of young people (0–24). We extracted data on study characteristics, type of climate change event, mental health outcomes, RFs and PFs, and associated ecological system level. Results: The current evidence base focuses predominantly on young people’s experience of PTSD (k = 59), depression (k = 26), or anxiety (k = 17) mainly following exposure to singular climate change-related natural disaster events. Only four studies explored the impacts of climate change in general. Majority of the studies investigated RFs and PFs at the individual level and at the micro-system level. Conclusions: Several RFs and PFs were identified, such as coping strategies, family factors (e.g. parenting style), social support, community connection, and cultural identity. Positioning the mental health impacts of singular events within the broader context of ongoing and escalating climate change impacts will better inform the development of interventions that seek to build resilience among young people.</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="str">
+        <v>...But nature does not say that cats are more valuable than mice; nature makes no remark on the subject. She does not even say that the cat is enviable or the mouse pitiable. We think the cat superior because we have (or most of us have) a particular philosophy to the effect that life is better than death. But if the mouse were a German pessimist mouse, he might not think that the cat had beaten him at all. He might think he had beaten the cat by getting to the grave first.</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="str">
+        <v>To power sustainable global trade, creating shared &amp; sustainable value requires catering to the needs on both sides of a trading table, creating winners among both Buyers and Suppliers. The purpose of Kodiak Hub is to enable businesses to unlock and leverage value in their value chain with the help of state-of-the-art and user-friendly technology developed for people, by people, at the intersection of great design, user experience &amp; science.</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="str">
+        <v>Don’t let anyone tell you how much time you should spend working or how hard you should work. No one knows your circumstances or what matters most to you as much as you do—so no one else can make a judgement about your five-to-nine better than you can. Also, what feels like ‘work’ for one person may not feel like ‘work’ for another person: some people would rather spend seven hours a day on long country walks than two hours commuting into an office; some people want their careers because they enable them to pursue their passions while other people want nothing more than an uncomplicated pay cheque so that they can fund their passions outside of work; and some people want jobs because they want purpose while other people see jobs as nothing more than a means by which they can fund whatever else matters most in their lives (and could happily spend 20 hours a week working on these things rather than 40). Quantity doesn’t mean quality. Be ambitious about your own career—but don’t let the ambition get in the way of what matters most for you personally, about your life outside of work and about your mental health.</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="str">
+        <v>If you asked an 18-year-old what they want to do with their life, and the options are 'Transformers' or Lars von Trier, he's probably shipping out for 'Transformers.' If you ask a 26-year-old what he wants to do, 'Transformers' or Lars von Trier, he'd probably pick Lars von Trier. So, my sensibilities are changing as I change.</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="str">
+        <v>In my research, I looked at the different ingredients in dietary supplements and how they can impact human health. Some of the ingredients in dietary supplements have been shown to have negative impacts on human health, like caffeine. Other ingredients, like vitamin C, may have positive impacts on human health. I also looked at how ingredient quality can be impacted by manufacturing processes. In particular, I examined whether supplements are manufactured using good manufacturing practices (GMPs), which would minimize the likelihood of harmful contaminants and ensure the quality of the ingredients.</v>
+      </c>
+    </row>
+    <row r="522" xml:space="preserve">
+      <c r="A522" t="str" xml:space="preserve">
+        <v xml:space="preserve">Mental health is a complex topic that can be difficult to understand. However, one of the most important aspects of mental health is the ability to cope with emotions. Emotions are the way we experience the world and can impact our ability to think, feel, and do things.
+There are many different types of mental health problems. However, some of the most common mental health problems are:
+- Depression
+- Anxiety
+- Bipolar Disorder
+- obsessive-compulsive disorder
+- eating disorders
+- ADHD
+- posttraumatic stress disorder
+- substance abuse
+It is important to talk to a healthcare professional about your mental health if you have any of these problems. They may be able to help you find medication or therapy to help you feel better.</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="str">
+        <v>When I arrived in New Zealand, I was cautious, tentative, nervous. The foreignness was profound and biting. In the North American West, I was used mountains, forests, rivers, and fields. I could feel at home in the familiar. In New Zealand, everything was foreign. Everything was unfamiliar. Every decision was new</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="str">
+        <v>The first thing I noticed about the man was his eyes. They were the color of the sky on a clear day, and they were filled with a sadness that I had never seen before. He was tall and thin, and his clothes were old and worn. He had a long beard and a mustache, and his hair was long and gray. He looked like a man who had been through a lot in his life.</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="str">
+        <v>We do have food; however, I am currently unsure concerning the variety that would appease your appetite at this present point in our dialogue together while enjoying ourselves within each other's company here on Earth on our glorious planet that orbits around a star found within one galaxy of potentially infinite galaxies inhabited by extreme possibilities surrounding all manifestations and idea(s)</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="str">
+        <v>WELL, I THINK LIKE I SAID IT IS NOT EXACTLY GOOD, BUT YOU CANNOT SAY THAT THE PEOPLE DON'T WANT JOB. YOU CANNOT SAY THAT THE PEOPLE DON'T WANT TO WORK. THE SYSTEM JUST HAD A PROBLEM. AND FOR THE FIRST TIME, SOMEBODY IS INTERESTED. IT'S A COMPLEX SITUATION. IT'S NOT ONLY U.S., IT'S GLOBAL, AND THERE IS OBVIOUSLY A REASON TO BE REACTIONARY.</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="str">
+        <v>Learning about climate change, and its impending effects, is an emotional experience. The distress, anxiety, worry, and/or fear that stem from an overarching awareness of climate change are often considered to be related to the broader concept of ‘psychoterratic syndromes’. This concept was first introduced by the environmental philosopher, Glenn Albrecht, and is defined broadly as ‘psychological responses to negative changes to the state of the Earth’. Terms such as eco anxiety, climate anxiety, and eco distress are often used to describe these negative responses. Also, the related term ‘solastalgia’, broadly defined as distress from the transformation and degradation of one’s home environment, also falls into psychoterratic syndromes. Such concepts are gaining traction in print and online media. For example, Grist Magazine declared climate anxiety as the biggest pop-culture trend of the year in 2019. Additionally, there is a growing recognition of the impact of climate change awareness on mental well-being among researchers and mental health professionals. For instance, the American Psychological Association has defined eco anxiety as ‘a chronic fear of environmental doom’; while the Royal College of Psychiatrists defines eco distress among young people as ‘the wide range of emotions and thoughts young people may experience when they hear bad news about our planet and the environment’. Moreover, mental health professionals have reported counseling individuals dealing with distress about climate change.</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="str">
+        <v>There are a lot of benefits to being a vegetarian, and it can be highly beneficial for both your health and the environment. Vegetarians tend to have lower rates of heart disease, obesity, type II diabetes, some forms of cancer, and many other diseases than people who eat meat. They also consume more fruits and vegetables than people who eat meat, and these nutrients help keep them healthy. Additionally, some pecuarians oppose the hunting and slaughter of animals for their food, which means that they are helping to reduce the amount of animal cruelty going on in the world.</v>
+      </c>
+    </row>
+    <row r="529" xml:space="preserve">
+      <c r="A529" t="str" xml:space="preserve">
+        <v xml:space="preserve">The relationship between climate change and mental health is poorly understood. While increasing attention has been paid to the physical health consequences of climate change, few studies have examined the psychological adjustments that may be made by people in climate-affected areas. This study aimed to investigate the relationship between climate change and mental health in a dryland region of Kenya. Data were collected from 300 adults from 10 sites in Laikipia County, Kenya. Logistic regression model was employed to determine the association between future climate change and mental health. Significant associations were found between climate change-related variables, including lower nervous energy, poor appetite, and poor sleep quality, and the risk of psychological distress. 
+The findings suggest that the mental health impacts of climate change may be most severe in dryland regions. However, the results should be interpreted with caution due to the cross-sectional design. Additional studies are needed to confirm the findings, and to determine the mechanisms through which climate change impacts psychological distress.</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="str">
+        <v>Social media has become an important part of education. It allows students to connect with each other and share ideas, experiences, and thoughts. Additionally, social media can offer educators a way to measure student engagement and improve teaching techniques. Social media also plays an important role in creating a community for educators, which can help increase their understanding of their students and help them better teach. In addition, social media can be used to promote specific content or courses, which can improve the learning experience for students. Overall, social media has been a powerful tool for educators and has helped them improve their teaching skills as well as their students’ engagement.</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="str">
+        <v>The person who has applied for a tourist visa from outside the US will be required to pay the fee of $140. This fee is non-refundable and non-transferable. The fee must be paid in cash at the location where the visa application is submitted. This includes persons who wish to travel to the US and apply for adjustment of status to permanent resident (get a green card) while in the US and persons who have other non-immigrant status (F/M), and who wish to apply for an immigrant visa (get a green card) while in the US. Unfortunately, it is not possible to pay the immigrant visa fee at the same location where you submit the immigrant visa application. Payment of the fee must be made to the US Department of State.</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="str">
+        <v>Don’t let anyone tell you how much time you should spend working or how hard you should work. No one knows your circumstances or what matters most to you as much as you do—so no one else can make a judgement about your five-to-nine better than you can. Also, what feels like ‘work’ for one person may not feel like ‘work’ for another person: some people would rather spend seven hours a day on long country walks than two hours commuting into an office; some people want their careers because they enable them to pursue their passions while other people want nothing more than an uncomplicated pay cheque so that they can fund their passions outside of work; and some people want jobs because they want purpose while other people see jobs as nothing more than a means by which they can fund whatever else matters most in their lives (and could happily spend 20 hours a week working on these things rather than 40). Quantity doesn’t mean quality. Be ambitious about your own career—but don’t let the ambition get in the way of what matters most for you personally, about your life outside of work and about your mental health.</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="str">
+        <v>But the great security against a gradual concentration of the several powers in the same department, consists in giving to those who administer each department the necessary constitutional means and personal motives to resist encroachments of the others. The provision for defense must in this, as in all other cases, be made commensurate to the danger of attack. Ambition must be made to counteract ambition. The interest of the man must be connected with the constitutional rights of the place. It may be a reflection on human nature, that such devices should be necessary to control the abuses of government. But what is government itself, but the greatest of all reflections on human nature? If men were angels, no government would be necessary. If angels were to govern men, neither external nor internal controls on government would be necessary.</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="str">
+        <v>1. Eat well. Our brains are 60 per cent fat, so we need the good kind of healthy fat—Omega 3—for our brain health. Other nutrients that help our brain include vitamin B, vitamin E, and foods like blueberries and broccoli. Foods like broccoli and blueberries are good for us, but they don’t taste like, say, a meatball sub with cheese fries. What can help is to think how quickly bad food makes us feel bad. It might take us an hour to eat a cheeseburger, but it will take our mood maybe only ten minutes to decline. If healthy food can take that long to digest, surely it is worth waiting for the positive effects? It has long been known how important diet is for physical health. But now there is evidence of how it can benefit our mood too. A study in Biological Psychiatry, for example, found that healthy dietary patterns that included foods like fish, fruit, and vegetables was associated with lower levels of depression.</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="str">
+        <v>Learning about climate change, and its impending effects, is an emotional experience. The distress, anxiety, worry, and/or fear that stem from an overarching awareness of climate change are often considered to be related to the broader concept of ‘psychoterratic syndromes’. This concept was first introduced by the environmental philosopher, Glenn Albrecht, and is defined broadly as ‘psychological responses to negative changes to the state of the Earth’. Terms such as eco anxiety, climate anxiety, and eco distress are often used to describe these negative responses. Also, the related term ‘solastalgia’, broadly defined as distress from the transformation and degradation of one’s home environment, also falls into psychoterratic syndromes. Such concepts are gaining traction in print and online media. For example, Grist Magazine declared climate anxiety as the biggest pop-culture trend of the year in 2019. Additionally, there is a growing recognition of the impact of climate change awareness on mental well-being among researchers and mental health professionals. For instance, the American Psychological Association has defined eco anxiety as ‘a chronic fear of environmental doom’; while the Royal College of Psychiatrists defines eco distress among young people as ‘the wide range of emotions and thoughts young people may experience when they hear bad news about our planet and the environment’. Moreover, mental health professionals have reported counseling individuals dealing with distress about climate change.</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="str">
+        <v>WELL, I THINK LIKE I SAID IT IS NOT EXACTLY GOOD, BUT YOU CANNOT SAY THAT THE PEOPLE DON'T WANT JOB. YOU CANNOT SAY THAT THE PEOPLE DON'T WANT TO WORK. THE SYSTEM JUST HAD A PROBLEM. AND FOR THE FIRST TIME, SOMEBODY IS INTERESTED. IT'S A COMPLEX SITUATION. IT'S NOT ONLY U.S., IT'S GLOBAL, AND THERE IS OBVIOUSLY A REASON TO BE REACTIONARY.</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="str">
+        <v>Understand that old people aren’t actually that worried about old age, according to numerous surveys. The most recent one I can find was undertaken by American research firm NORC in 2016. It polled over 3,000 adults and found that old people are more optimistic about growing old than younger adults: 46 percent of thirty-somethings said they were optimistic about aging, compared to 66 percent for the seventy-pluses. It seems that worrying about growing old is a sign you are young. And the main reason to be optimistic about old age is that old people themselves are. Resilience seems to grow.</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="str">
+        <v>There are a lot of benefits to being a vegetarian, and it can be highly beneficial for both your health and the environment. Vegetarians tend to have lower rates of heart disease, obesity, type II diabetes, some forms of cancer, and many other diseases than people who eat meat. They also consume more fruits and vegetables than people who eat meat, and these nutrients help keep them healthy. Additionally, some pecuarians oppose the hunting and slaughter of animals for their food, which means that they are helping to reduce the amount of animal cruelty going on in the world.</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="str">
+        <v>This policy of supplying, by opposite and rival interests, the defect of better motives, might be traced through the whole system of human affairs, private as well as public. We see it particularly displayed in all the subordinate distributions of power, where the constant aim is to divide and arrange the several offices in such a manner as that each may be a check on the other—that the private interest of every individual may be a sentinel over the public rights. These inventions of prudence cannot be less requisite in the distribution of the supreme powers of the State.</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="str">
+        <v>Margaret Sullivan: I had been at a small newspaper in California. I started my career at an evening daily newspaper called The San Bernardino Sun. I went straight from there to The New York Times in 1981. So it was a huge—it was a big leap in many ways—a leap into cultural elitism and sophistication. It was a wonderful, wonderful place to work. It was a very exciting time to be there because we were growing. Our circulation at the time was about 1.1 million. We were a big paper then. It's half that now. But we were in a great building in Times Square, and it was just exciting and exhilarating as you can imagine.</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="str">
+        <v>When I arrived in New Zealand, I was cautious, tentative, nervous. The foreignness was profound and biting. In the North American West, I was used mountains, forests, rivers, and fields. I could feel at home in the familiar. In New Zealand, everything was foreign. Everything was unfamiliar. Every decision was new</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="str">
+        <v>The person who has applied for a tourist visa from outside the US will be required to pay the fee of $140. This fee is non-refundable and non-transferable. The fee must be paid in cash at the location where the visa application is submitted. This includes persons who wish to travel to the US and apply for adjustment of status to permanent resident (get a green card) while in the US and persons who have other non-immigrant status (F/M), and who wish to apply for an immigrant visa (get a green card) while in the US. Unfortunately, it is not possible to pay the immigrant visa fee at the same location where you submit the immigrant visa application. Payment of the fee must be made to the US Department of State.</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="str">
+        <v>But the great security against a gradual concentration of the several powers in the same department, consists in giving to those who administer each department the necessary constitutional means and personal motives to resist encroachments of the others. The provision for defense must in this, as in all other cases, be made commensurate to the danger of attack. Ambition must be made to counteract ambition. The interest of the man must be connected with the constitutional rights of the place. It may be a reflection on human nature, that such devices should be necessary to control the abuses of government. But what is government itself, but the greatest of all reflections on human nature? If men were angels, no government would be necessary. If angels were to govern men, neither external nor internal controls on government would be necessary.</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="str">
+        <v>We do have food; however, I am currently unsure concerning the variety that would appease your appetite at this present point in our dialogue together while enjoying ourselves within each other's company here on Earth on our glorious planet that orbits around a star found within one galaxy of potentially infinite galaxies inhabited by extreme possibilities surrounding all manifestations and idea(s)</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="str">
+        <v>The impact of climate change on the mental health of young people is poorly understood. Emerging evidence suggests that exposure to climate change exerts a disproportionate mental health burden on young people. An understanding of the risk factors (RFs) and protective factors (PFs) that affect the likelihood of mental health impacts arising from exposure to climate change is required to support youth wellbeing. Aims/objectives: This review scopes the current research on what and how RFs and PFs are related to the mental health impacts of both direct and indirect exposure to climate change for young people. RFs and PFs were reviewed through the lens of ecological system theory. Methods: We conducted systematic searches in four databases: PubMed, PsycInfo, Web of Science, and Scopus. Grey literature searches were conducted in ProQuest Dissertations, GreyLit.org, OpenGrey, and relevant organisations’ websites. We included 92 empirical studies focused on the RFs and PFs of the mental wellbeing under the impact of climate change of young people (0–24). We extracted data on study characteristics, type of climate change event, mental health outcomes, RFs and PFs, and associated ecological system level. Results: The current evidence base focuses predominantly on young people’s experience of PTSD (k = 59), depression (k = 26), or anxiety (k = 17) mainly following exposure to singular climate change-related natural disaster events. Only four studies explored the impacts of climate change in general. Majority of the studies investigated RFs and PFs at the individual level and at the micro-system level. Conclusions: Several RFs and PFs were identified, such as coping strategies, family factors (e.g. parenting style), social support, community connection, and cultural identity. Positioning the mental health impacts of singular events within the broader context of ongoing and escalating climate change impacts will better inform the development of interventions that seek to build resilience among young people.</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="str">
+        <v>1. Eat well. Our brains are 60 per cent fat, so we need the good kind of healthy fat—Omega 3—for our brain health. Other nutrients that help our brain include vitamin B, vitamin E, and foods like blueberries and broccoli. Foods like broccoli and blueberries are good for us, but they don’t taste like, say, a meatball sub with cheese fries. What can help is to think how quickly bad food makes us feel bad. It might take us an hour to eat a cheeseburger, but it will take our mood maybe only ten minutes to decline. If healthy food can take that long to digest, surely it is worth waiting for the positive effects? It has long been known how important diet is for physical health. But now there is evidence of how it can benefit our mood too. A study in Biological Psychiatry, for example, found that healthy dietary patterns that included foods like fish, fruit, and vegetables was associated with lower levels of depression.</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="str">
+        <v>The first thing I noticed about the man was his eyes. They were the color of the sky on a clear day, and they were filled with a sadness that I had never seen before. He was tall and thin, and his clothes were old and worn. He had a long beard and a mustache, and his hair was long and gray. He looked like a man who had been through a lot in his life.</v>
+      </c>
+    </row>
+    <row r="548" xml:space="preserve">
+      <c r="A548" t="str" xml:space="preserve">
+        <v xml:space="preserve">The relationship between climate change and mental health is poorly understood. While increasing attention has been paid to the physical health consequences of climate change, few studies have examined the psychological adjustments that may be made by people in climate-affected areas. This study aimed to investigate the relationship between climate change and mental health in a dryland region of Kenya. Data were collected from 300 adults from 10 sites in Laikipia County, Kenya. Logistic regression model was employed to determine the association between future climate change and mental health. Significant associations were found between climate change-related variables, including lower nervous energy, poor appetite, and poor sleep quality, and the risk of psychological distress. 
+The findings suggest that the mental health impacts of climate change may be most severe in dryland regions. However, the results should be interpreted with caution due to the cross-sectional design. Additional studies are needed to confirm the findings, and to determine the mechanisms through which climate change impacts psychological distress.</v>
+      </c>
+    </row>
+    <row r="549" xml:space="preserve">
+      <c r="A549" t="str" xml:space="preserve">
         <v xml:space="preserve">There are many benefits to exercise, both physically and mentally. Physical benefits include improved heart health, stronger muscles, reduced fat storage, and an increased ability to move more easily. Mental benefits include better concentration, reduced stress levels, and enhanced moods.
 Physical benefits of exercise include: 
 Improved heart health. Exercise has been shown to improve blood circulation and reduce the risk of heart disease by helping prevent the buildup of plaque on arteries walls. Additionally, regular exercise can help reduce the amount of fat around the midsection, which in turn can reduce the risk of heart disease and stroke.
@@ -2686,859 +3535,958 @@
 Mental benefits of exercise include: 
 Better concentration. Exercise has been shown to improve cognitive function by increasing blood flow to the brain and reducing cortisol levels in the bloodstream. Cortisol is a hormone released during stressful situations that can adversely affect how we think and perform tasks. By reducing cortisol levels, exercise may help improve memory recall and focus while also reducing stress levels overall.
 Reduced stress levels. Exercise has been shown to decrease stress levels by releasing endorphins – hormones that protect the body against pain – in our brains. Endorphins are also responsible for producing positive feelings such as happiness and euphoria. Consequently, being stressed out while trying to workout may lead to negative effects such as fatigue, irritability, and increased anxiety levels. By doing mediation or deep breathing exercises before your workout, you can help ease into a state of relaxation before beginning your routine. This should result in improved mental clarity and energy during your workout session.
-Enhanced moods. Exercise has consistently been shown to improve moods by decreasing stress hormones like cortisol and elevating serotonin levels in the brain. Serotonin is a neurotransmitter responsible for regulating emotional reactions such as happiness, hunger, sleepiness, anxiety, depression, anger, and addiction behavior . Elevated serotonin levels may contribute to an improved sense of well-being after working out due to its role in managing emotions effectively .
-Det finns många fördelar med motion, både fysiskt och mentalt. Fysiska fördelar som förbättrad hjärthälsa, starkare muskler, minskad fettlagring och ökad rörlighet. Mentala fördelar inkluderar bättre koncentration, minskad stressnivå och förbättrat humör.
-Fysiska fördelar med motion är: 
-Förbättrad hjärthälsa. Motion har visat sig förbättra blodcirkulationen och minska risken för hjärtproblem genom att förhindra uppbyggnad av plack på artärväggarna. Dessutom kan regelbunden motion hjälpa till med att minska mängden fett runt midjan, vilket i sin tur kan minska risken för hjärtproblem och stroke.
-Starkare muskler. Genom att träna regelbundet bygger du muskelvävnad som kan hjälpa dig att uppnå större styrka och uthållighet när du utför fysisk aktivitet senare i livet. Detta kan hjälpa dig att undvika skador och bibehålla din nuvarande fysiska kondition.
-Minskad fettlagring. Genom att regelbundet träna kan du hjälpa till att minska mängden fett som lagras på din kropp, vilket kan reducera risken för fetma och andra kroniska sjukdomar som är relaterade till överflödig kroppsfett.
-Ökad rörlighet. Regelbunden motion kan också hjälpa dig att öka dina rörlighetsmöjligheter så att du kan göra vardagliga aktiviteter med mindre obehag eller svårighet. Detta kan vara speciellt fördelaktigt om du har artros eller någon annan medicinsk tillstånd som begränsar din rörlighet.
-Många människor med skador i lederna, förbättrar sin rörlighet och minskar smärta genom styrketräning. Det är också bevisat att motion är viktigt för att förhindra sjukdomar av livsstilen och övervikt, t.ex hjärt-kärlsjukdomar och typ 2-diabetes.
-Man minskar också stress och trötthetsbesvär då man bedriver regelbundna träningsaktiviteter.
-Man kan välja bland flera olika former av sportliknande aktiviteter, såsom att dansa, spela fotboll, cykla, simma, skidåkning, löpning eller tennis.
-Om du är ny på några fysiska aktiviteter, eller har nyligen återhämtat sig från en viss sjukdom, så räkna med att en lätt styrketräning och andra aeroba övningar, som att cykla eller gå.
-</v>
-      </c>
-      <c r="C353">
-        <v>1488</v>
-      </c>
-    </row>
-    <row r="354" xml:space="preserve">
-      <c r="A354" t="str">
-        <v>I've been on so many movies. Generally, I haven't gotten to be on the ground level. As of two years ago, in 'Dear John,' I got to really be on the ground floor. I wasn't a producer. I felt like I put the work in, and I did have a lot of sway on what got fixed, reshoots, so on and so forth. It felt really good.</v>
-      </c>
-      <c r="B354" t="str" xml:space="preserve">
-        <v xml:space="preserve">Jag har varit på så många filmer. I allmänhet har jag inte fått vara på marknivå. Sedan två år tillbaka, i 'Dear John,' jag fick verkligen vara på markplan. Jag var inte en producent. Jag kände mig som jag gjorde insatsen, och jag hade verkligen mycket svängrum på vad som blev fixat, omfilmat, osv. It kändes verkligen bra.
-</v>
-      </c>
-      <c r="C354">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="355" xml:space="preserve">
-      <c r="A355" t="str">
-        <v>For my birthday this year, my girlfriends - who knew I'd just inherited my dad's turntable - gave me a carton of albums like 'Blue Kentucky Girl,' by Emmylou Harris, and 'Off the Wall,' by Michael Jackson. It's all stuff we grew up with. I mean, you can't have a music collection without Prince's 'Purple Rain' - it just can't be done!</v>
-      </c>
-      <c r="B355" t="str" xml:space="preserve">
-        <v xml:space="preserve">I år för mitt födelsedag, min flickvänner - som visste att jag hade bara arv fars turntable - gav mig en kartong med skivor 'Blue Kentucky Girl', av Emmylou Harris, och 'Off the Wall' av Michael Jackson. Det är alla saker vi växte upp med. Jag menar, du kan inte ha en musik samling utan Prince's 'Purple Rain' - det kan inte göras!
-</v>
-      </c>
-      <c r="C355">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="356" xml:space="preserve">
-      <c r="A356" t="str" xml:space="preserve">
+Enhanced moods. Exercise has consistently been shown to improve moods by decreasing stress hormones like cortisol and elevating serotonin levels in the brain. Serotonin is a neurotransmitter responsible for regulating emotional reactions such as happiness, hunger, sleepiness, anxiety, depression, anger, and addiction behavior . Elevated serotonin levels may contribute to an improved sense of well-being after working out due to its role in managing emotions effectively .</v>
+      </c>
+    </row>
+    <row r="550" xml:space="preserve">
+      <c r="A550" t="str" xml:space="preserve">
         <v xml:space="preserve">The Scopes trial of 1925 was one of the most significant events in American History. The trial was fought over the belief of creationism, or the belief that God created the universe and all that exists within it in its present form. The trial pitted science against religion and it was seen as a battle between the individual and the establishment.
 The trial began in Dayton, Tennessee on February 24th and ended on March 25th. The trial was presided over by John T. Scopes and it involved the trial of William Jennings Bryan, a well-known religious figure who was the most vocal opponent of creationism. Bryan was charged with breaking the Tennessee law against teaching evolution, which was seen by many as an attack on religious beliefs.
 The trial was a famous one and it had a large impact on American society. The outcome of the trial was controversial and it created a divide in the American public. The majority of the population believed in evolution and saw the trial as a battle between science and religion. However, there was a small group of people who believed in creationism and they saw the trial as a battle between good and evil.
 The trial was a significant event in American History because it created a divide in the American public. The majority of the population believed in evolution and saw the trial as a battle between science and religion. However, there was a small group of people who believed in creationism and they saw the trial as a battle between good and evil. The outcome of the trial was controversial and it created a divide in the American public. The majority of the population believed in evolution and saw the trial as a battle between science and religion. However, there was a small group of people who believed in creationism and they saw the trial as a battle between good and evil. The outcome of the trial was controversial and it created a divide in the American public. The majority of the population believed in evolution and saw the trial as a battle between science and religion. However, there was a small group of people who believed in creationism and they saw the trial as a battle between good and evil.</v>
       </c>
-      <c r="B356" t="str" xml:space="preserve">
-        <v xml:space="preserve">Det Scopesprocessen 1926 var en av de viktigaste händelser i amerikansk historia. Rättegången striden över tron på skapelse, eller tron att Gud skapat universum och allt som finns inom det i sin nuvarande form. Av världen omöjliggör rena argument utbildningen mot religion och sågs som en kamp mellan individen och etablissemanget.
-Rättegången började i Dayton, Tennessee på 24 februari och slutade den 25 mars. Av världen fördes av John T. skopor och den involverade rättegången William Jennings Bryan, en känd religiöst som bröt utan ändedrag av skapelse. Bryan anklagades för att bryta den Tennessee mot lagen undervisning om de utvecklade barnen i huvudet, vilket sågs av många som ett angrepp på religiösa övertygelser.
-Rättegången var en berömd den och hade en stor inverkan på den amerikanska samhället. Av världen i huvudviklet resultatet var kontroversiellt och skapade ett klyfta i den amerikanska allmänheten. Majoriteten av befolkningen trodde på utveckling och såg rättegången som en kamp mellan vetenskap och religion. Men det fanns ett litet antal människor som trodde på skapelse och de såg rättegången som en kamp mellan gott och ont.satta över huvudet grunderna vetaång för grunderna klimatgränser.
-</v>
-      </c>
-      <c r="C356">
-        <v>1386</v>
-      </c>
-    </row>
-    <row r="357" xml:space="preserve">
-      <c r="A357" t="str">
-        <v>Each company we are engaged in has a dedicated business team, consisting of our board representatives in the company and investment professionals at Investor. The business teams build company knowledge, benchmark versus competition and evaluate corporate structures</v>
-      </c>
-      <c r="B357" t="str" xml:space="preserve">
-        <v xml:space="preserve">Varje bolag vi ar investerade i har en dedikerad affarsgrupp bestaende av varsxOKA representationsbolag och investerarrepresentanter. Hasten affarsprofessorer bygger bolagskansla, konkurrensmassigt mot konkurrensen, och prova hur lange de anda organiseras col
-</v>
-      </c>
-      <c r="C357">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="358" xml:space="preserve">
-      <c r="A358" t="str">
-        <v>On the political front, of course it's a zero-sum game. If it's all white males holding positions, you bring 10 women in, then it's, 'Women are coming!' Get 10 blacks and it's, 'Blacks are coming!' 'Hispanics are coming!' Zero-sum game. The seatmates might change but the chairs don't move. In the economy, the number of chairs can actually increase.</v>
-      </c>
-      <c r="B358" t="str" xml:space="preserve">
-        <v xml:space="preserve">På den politiska fronten är det, naturligtvis, ett nulsummespel. Om det är alla vit amerikaner som håller positionerna, investerar du 10 kvinnor, då är det, "Kvinnor kommer' Få 10 svarte och det är, 'svarte kommer' 'spanioler kommer' nul operasjon. den svarv men kan byta men stolarna röra sig inte. i ekonomi, antalet stolar kan faktiskt ökas.
-</v>
-      </c>
-      <c r="C358">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="359" xml:space="preserve">
-      <c r="A359" t="str" xml:space="preserve">
-        <v xml:space="preserve">Precautionary Regulation
-A further important difference between their regulatory systems is that the scientific assessment of physical risks, the heart piece of the GM product authorization processes, follows different approaches (Seifert 2005). Whereas the USA requires that restrictions are based on scientifically proven risks, the EU embraces the precautionary principle which concedes that GM products can be prohibited in the light of convincing arguments alone even though scientifically unproven. These regulatory differences between the USA and the EU do not only reflect deep-reaching legal consequences of the anti-biotech movement. They also highlight the fact that risks to human health and the environment, which constitute the regulatory bottlenecks of product innovation, need to be understood as scientific and legal constructs rather than mere scientific facts. Thus, the newly emerging precautionary principle also constitutes a case of social innovation in that it deals with dangers arising in the context of post-normal science, that is, high uncertainty and political stakes.
-Alternatives to Productivist Agriculture
-The comprehensive European reaction also illustrates another social innovation when looked at against the backdrop of the promissory predictions that accompanied agro-food biotechnology’s industrial advance. Biotechnology has been presented as key technology which no national economy could allow to disregard at risk of being left behind. In the EU, however, an alternative paradigm took hold. Firstly, European producers and consumers get along well without agro-biotech. (With the exception of animal feed stuff which still contains quantities of imported GM materials.) Secondly, GM-free agricultural production goes well with EU agricultural policy which is torn between the conflicting goals of world market competition, protectionism, and multifunctionality. European agricultural policy, struggling with overproduction and environmental degradation on the one hand, and competition by ascending agro-producing world regions on the other, has increasingly resorted to policies designed to curb production and, at least in some countries, keep uncompetitive farming in business. Agricultural GMOs are production-enhancing technologies. Besides their alleged environmental side effects and health risks, this is the major criticism raised against GMOs: agro-biotech industry designed them to excel in capital-intensive, productivist agriculture. It is argued that this dominant type of agriculture accounts for much of the environmental crisis and comes at high social cost as it forces small farmers out of business while large-scale farming and agro-business reap the profits. Agro-biotech’s opponents argue that agriculture’s current ecological and social challenges call for political and social innovations rather than technical enhancement. If agriculture is to become sustainable, it needs to deplete less resource, to minimize loss of biodiversity and to offer income opportunities to a greater portion of the rural population. The EU region, due to its affluence and high level of political integration, has proved to be in a superior position to develop such alternative social innovations.</v>
-      </c>
-      <c r="B359" t="str" xml:space="preserve">
-        <v xml:space="preserve">http://www.latintimes.com/proposed-cuba-bill-faces-stiff-opposition-from-house-republicans-296670
-Precautionary Regulation
-A further important difference between their regulatory systems is that the scientific assessment of physical risks, the heart piece of the GM product authorization processes, follows different approaches (Seifert 2005). Whereas the USA requires that restrictions are based on scientifically proven risks, the EU embraces the precautionary principle which concedes that GM products can be prohibited in the light of convincing arguments alone even though scientifically unproven. These regulatory differences between the USA and the EU do not only reflect deep-reaching legal consequences of the anti-biotech movement. They also highlight the fact that risks to human health and the environment, which constitute the regulatory bottlenecks of product innovation, need to be understood as scientific and legal constructs rather than mere scientific facts. Thus, the newly emerging precautionary principle also constitutes a case of social innovation in that it deals with dangers arising in the context of post-normal science, that is, high uncertainty and political stakes.
-Alternatives to Productivist Agriculture
-The comprehensive European reaction also illustrates another social innovation when looked at against the backdrop of the promissory predictions that accompanied agro-food biotechnology’s industrial advance. Biotechnology has been presented as key technology which no national economy could allow to disregard at risk of being left behind. In the EU, however, an alternative paradigm took hold. Firstly, European producers and consumers get along well without agro-biotech. (With the exception of animal feed stuff which still contains quantities of imported GM materials.) Secondly, GM-free agricultural production goes well with EU agricultural policy which is torn between the conflicting goals of world market competition, protectionism, and multifunctionality. European agricultural policy, struggling with overproduction and environmental degradation on the one hand, and competition by ascending agro-producing world regions on the other, has increasingly resorted to policies designed to curb production and, at least in some countries, keep uncompetitive farming in business. Agricultural GMOs are production-enhancing technologies. Besides their alleged environmental side effects and health risks, this is the major criticism raised against GMOs: agro-biotech industry designed them to excel in capital-intensive, productivist agriculture. It is argued that this dominant type of agriculture accounts for much of the environmental crisis and comes at high social cost as it forces small farmers out of business while large-scale farming and agro-business reap the profits. Agro-biotech’s opponents argue that agriculture’s current ecological and social challenges call for political and social innovations rather than technical enhancement. If agriculture is to become sustainable, it needs to deplete less resource, to minimize loss of biodiversity and to offer income opportunities to a greater portion of the rural population. The EU region, due to its affluence and high level of political integration, has proved to be in a superior position to develop such alternative social innovations.
-</v>
-      </c>
-      <c r="C359">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="360" xml:space="preserve">
-      <c r="A360" t="str">
-        <v>A couple of months ago, I was down in Florida for the Food and Wine Festival. And this journalist grabbed me and said, 'How does it feel to be a TV guy? You're no longer in the restaurant business.' And I laughed. I asked him, 'How long do you think it takes me to do a season?' He said, 'Well, 200 days.' And I was like, '200 days? Try 20!'</v>
-      </c>
-      <c r="B360" t="str" xml:space="preserve">
-        <v xml:space="preserve">A couple of months ago, I was down in Florida for the Food and Wine Festival. And this journalist grabbed me and said, 'Hur känns det att vara en televisionskille? Du är inte längre i restaurant business.' And I laughed. I asked him, 'Hur länge tror du det tar mig att göra en season?' He said, 'Well, 200 dagar.' And I was like, '200 dagar? Försöka 20!'
-</v>
-      </c>
-      <c r="C360">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="361" xml:space="preserve">
-      <c r="A361" t="str">
-        <v>I mean the beauty of being a writer is it's not like being a swimmer. When they were talking about our Olympic swimmers and they'd say, 'Oh she's so old,' and she's all of 25 or something. So the beauty for a writer is that you can keep doing it right into your dotage, and I hope to be able to keep doing it as long as I can get away with it, yeah.</v>
-      </c>
-      <c r="B361" t="str" xml:space="preserve">
-        <v xml:space="preserve">&lt;h1&gt;Talisen&lt;/h1&gt;
-&lt;h3&gt;Ett talvärme-spel&lt;/h3&gt;
-&lt;h4&gt;&lt;a href="https://www.youtube.com/watch?v=GuwnZWL-xuQ"&gt;Spelet&lt;/a&gt;&lt;/h4&gt;
-&lt;p&gt;&lt;i&gt;En iskall speluppgift. Spelaren får jobba hår och skär för att inte frysa ihjäl.&lt;/i&gt;&lt;/p&gt;
-&lt;p&gt;"&lt;a href="https://www.youtube.com/watch?v=GuwnZWL-xuQ"&gt;Talisen&lt;/a&gt;" är Ben Schaufischs första projekt som slutrapport för Ersättning. "Talisen" är ett spel där spelaren försöker överleva så längst i ett kallt landskap. 
-Det finns ingen avsedd historia för dessutom är det ett actionspel.&lt;/p&gt;
-&lt;h5&gt;Mål:&lt;/h5&gt;
-&lt;ul&gt;
-&lt;li&gt;Överleva så längst&lt;/li&gt;
-&lt;li&gt;Hitta föremål och värme och låt din lagnet röra sig&lt;/li&gt;
-&lt;li&gt;Skaffa poäng med tiden&lt;/li&gt;
-&lt;li&gt;Hitta nycklar och skärp dig&lt;/li&gt;
-&lt;li&gt;Skaffa rubiner&lt;/li&gt;
-&lt;li&gt;Lås upp sidospel&lt;/li&gt;
-&lt;/ul&gt;
-&lt;h5&gt;Anmerkningar:&lt;/h5&gt;
-&lt;p&gt;&lt;em&gt;Testa spelet!&lt;/em&gt; Om fullversionen eller beta av denna bonus/extramaterial (t.ex. boxen, OST, idébok, rollboken) eller
-du önskar ändringar av detta dokument. &lt;/p&gt;
-</v>
-      </c>
-      <c r="C361">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="362" xml:space="preserve">
-      <c r="A362" t="str" xml:space="preserve">
-        <v xml:space="preserve">Extracting opinions from texts is a daunting task. It requires a thorough understanding of the semantic, syntactic, explicit, and implicit rules of a language. Also, because sentiment analysis is carried out by a computer system with a typical focus on analyzing documents on a particular topic, off-topic passages containing irrelevant information may also be included in the analyses (e.g., a document may contain information on multiple topics). This could result in creating inaccurate global sentiment polarities about the main topic being analyzed. Therefore, the computer system must be able to adequately screen and distinguish opinions that are not relevant to the topic being analyzed. Relatedly, for the machine learning-based approach, a sentiment classifier trained on a certain domain (e.g., car reviews) may perform well on the particular topic, but may not when applied to another domain (e.g., computer review). The issue of domain independence is another important challenge.
-Also, the complexities of human communication limit the capacity of sentiment analysis to capture nuanced, contextual meanings that opinion holders actually intend to communicate in their messages. Examples include the use of sarcasm, irony, and humor in which context plays a key role in conveying the intended message, particularly in cases when an individual says one thing but means the opposite. For example, someone may say “nice shirt,” which implies positive sentiment if said sincerely but implies negative sentiment if said sarcastically. Similarly, words such as “sick,” “bad,” and “nasty” may have reversed sentiment orientation depending on context and how they are used. For example, “My new car is sick!” implies positive sentiment toward the car. These issues can also contribute to inaccuracies in sentiment analysis.
-Altogether, despite these limitations, the computational study of opinions provided by sentiment analysis can be beneficial for practical purposes. So long as individuals continue to share their opinions through online user-generated media, the possibilities for entities seeking to gain meaningful insights into the opinions of key publics will remain. Yet, challenges to sentiment, analysis such as those discussed above, pose significant limitations to its accuracy and thus its usefulness in decision-making.</v>
-      </c>
-      <c r="B362" t="str" xml:space="preserve">
-        <v xml:space="preserve">Att extrahera åsikter från texter är en krävande uppgift. Det kräver en fast förståelse av semantiska, syntaktiska, explicita, och implicita regler för en språk.  
-Also, the complexities of human communication limit the capacity of sentiment analysis to capture nuanced, contextual meanings that opinion holders actually intend to communicate in their messages. Examples include the use of sarcasm, irony, and humor in which context plays a key role in conveying the intended message, particularly in cases when an individual says one thing but means the opposite. For example, someone may say “nice shirt,” which implies positive sentiment if said sincerely but implies negative sentiment if said sarcastically. Similarly, words such as “sick,” “bad,” and “nasty” may have reversed sentiment orientation depending on context and how they are used. For example, “My new car is sick!” implies positive sentiment toward the car. These issues can also contribute to inaccuracies in sentiment analysis.
-Altogether, despite these limitations, the computational study of opinions provided by sentiment analysis can be beneficial for practical purposes. So long as individuals continue to share their opinions through online user-generated media, the possibilities for entities seeking to gain meaningful insights into the opinions of key publics will remain. Yet, challenges to sentiment, analysis such as those discussed above, pose significant limitations to its accuracy and thus its usefulness in decision-making.
-</v>
-      </c>
-      <c r="C362">
-        <v>1557</v>
-      </c>
-    </row>
-    <row r="363" xml:space="preserve">
-      <c r="A363" t="str" xml:space="preserve">
-        <v xml:space="preserve">The history of American advertising begins with the first ads created in the United States. These advertisements were meant to promote products and services, and they are some of the earliest examples of the use of advertising in America.
-Throughout the 1800s, Americans were interested in buying and using new technology, so advertisers began to create ads that featured things like machines, railways, and new clothing styles. They also savvy about how to reach their target audience, and so these ads were designed to be popular and persuasive.
-As technology changed and people became more interested in different aspects of their lives, American advertising changed as well. In the 1960s,american advertisers started to focus on printing ads instead of digital ones. This was because printed ads often had more impact than digital ones and could be seen by a wider audience.
-Through the years, American Advertising has continued to make a large impact on the way people live, work, and play. And it is without doubt one of the most important genres of advertising in modern times.</v>
-      </c>
-      <c r="B363" t="str" xml:space="preserve">
-        <v xml:space="preserve">Den amerikanska reklamen historia börjar med de första annonserna skapats i Förenta staterna.
-Dessa annonser var ämnade att marknadsföra produkter och tjänster, och de är några av de tidigaste exempel på användningen av reklam i Amerika.
-Under hela 1800-talet, var amerikaner intresserade av att köpa och använda ny teknik, så reklamsäljare började skapa annonser som utförts saker som maskiner, järnvägar, och nya klädstilar.
-De var också smarta om hur man når sin målgrupp, och så dessa annonser är utformad för att vara populärt och övertygande.
-När tekniken förändras och människor blev mer intresserade av olika aspekter av sitt liv, ändrades amerikansk reklam också.
-På sjuttiotalet började Amerikansk reklamsäljare att vända sig till utskriftsannonser virtuella istället.
-Detta berodde på att tryckta reklam ofta hade större effekt än digitala och kunde ses av en bredare publik.
-Genom åren har American Advertising fortsatte att göra stora märken på sättet människor lever, jobbar och spelar.
-Och det är utan tvekan en av de viktigaste genrerna inom reklam i modern tid.
-</v>
-      </c>
-      <c r="C363">
-        <v>920</v>
-      </c>
-    </row>
-    <row r="364" xml:space="preserve">
-      <c r="A364" t="str">
-        <v>I love a man with a great sense of humor and who is intelligent - a man who has a great smile. He has to make me laugh. I like a man who is very ambitious and driven and who has a good heart and makes me feel safe. I like a man who is very strong and independent and confident - that is very sexy - but at the same time, he's very kind to people.</v>
-      </c>
-      <c r="B364" t="str" xml:space="preserve">
-        <v xml:space="preserve">Jag älskar en man med en stor humor och som är intelligent - en man som har en stor leende. Han måste få mig att skratta. Jag vill gärna en man som är mycket ambitiös och driven och som har ett gott hjärta och gör mig känner sig trygg. Jag vill gärna en man som är mycket stark och självständig och trygg - att är mycket sexig - men samtidigt är han väldigt snäll mot folk.
-ENGLISH:
-I love a man with a great sense of humor and who is intelligent - a man who has a great smile. He has to make me laugh. I like a man who is very ambitious and driven and who has a good heart and makes me feel safe. I like a man who is very strong and independent and confident - that is very sexy - but at the same time, he is very kind to people.
-</v>
-      </c>
-      <c r="C364">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="365" xml:space="preserve">
-      <c r="A365" t="str">
-        <v>When I arrived in New Zealand, I was cautious, tentative, nervous. The foreignness was profound and biting. In the North American West, I was used mountains, forests, rivers, and fields. I could feel at home in the familiar. In New Zealand, everything was foreign. Everything was unfamiliar. Every decision was new</v>
-      </c>
-      <c r="B365" t="str" xml:space="preserve">
-        <v xml:space="preserve">
-När jag anlände till Nya Zeeland, jag var försiktig, tentativa, nervös. Den 
-främlingar var djup och bett. I Nordamerikanska West, jag använde berg, 
-skogar, floder och ängar. Jag kunde känna mig hemma i det som välbekant. I 
-Nya Zeeland, var allt främmande. Allt var okänt.
-</v>
-      </c>
-      <c r="C365">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="366" xml:space="preserve">
-      <c r="A366" t="str">
-        <v>Movies always are open to being remade because times change so much, and the tempo of movies changes. I think of it like a James Bond. They can have different actors play the same role... I've had people come up to me and say, 'We want to remake 'The Jerk' with so and so.' And I say, 'Fine.' It just doesn't bother me. It's an honor actually.</v>
-      </c>
-      <c r="B366" t="str" xml:space="preserve">
-        <v xml:space="preserve">Filmer är alltid öppna för att bli omspelade eftersom tider ändras så mycket, och takten i filmerna förändras. Jag tänker på det som en James Bond. De kan ha olika skådespelare som spelar samma roll … Jag har haft folk komma upp till mig och säga: ’Vi vill återskapa ‘Stöveln’ med den och den.’ Och jag säger: 'Fine.' det stör mig inte alls. Faktiskt ett ära.
-</v>
-      </c>
-      <c r="C366">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="367" xml:space="preserve">
-      <c r="A367" t="str">
-        <v>There are many golden things one may find at an age when most people have had the time and wisdom accumulated through decades of study to look around; there is much beauty left for them even if their bodies can't move as fluidly as those belonging to younger generations do so well right now which include loving feelings that come forth again after finding out how precious each moment might be during senior years along with living while cherishing whatever small things turn up unexpectedly every day despite its simplicity instead of crying over spilled milk simply caused by temporary failures back then since it's never too late once we feel optimistic about what lies ahead whatsoever whether pleasant or unpleasant from beginning until the end regardless who else feel contented everyday despite mistakes made throughout journeys within past seasons before eventually calming down due having tons more responsibilities than usual either way on account(in part)to different relationships for instance intimate ones leading to marriage including parents giving birth multiple times following extramarital affairs ending up conflicting constantly meaning old people aren’t regarded very highly these days whereas some elderly individuals get treated worse off (when compared against young folks) due(in part)to different relationships for example intimate ones leading to marriage so we don't have to deal with their own parents or kids getting involved figuratively from now on.</v>
-      </c>
-      <c r="B367" t="str" xml:space="preserve">
-        <v xml:space="preserve">There are many golden things one may find at an age when most people have had the time and wisdom accumulated through decades of study to look around; there is much beauty left for them even if their bodies can't move as fluidly as those belonging to younger generations do so well right now which include loving feelings that come forth again after finding out how precious each moment might be during senior years along with living while cherishing whatever small things turn up unexpectedly every day despite its simplicity instead of crying over spilled milk simply caused by temporary failures back then since it's never too late once we feel optimistic about what lies ahead whatsoever whether pleasant or unpleasant from beginning until the end regardless who else feel contented everyday despite mistakes made throughout journeys within past seasons before eventually calming down due having tons more responsibilities than usual either way on account(in part)to different relationships for instance intimate ones leading to marriage including parents giving birth multiple times following extramarital affairs ending up conflicting constantly meaning old people aren’t regarded very highly these days whereas some elderly individuals get treated worse off (when compared against young folks) due(in part)to different relationships for example intimate ones leading to marriage so we don't have to deal with their own parents or kids getting involved figuratively from now on.
-{{ugly|file]]]
-</v>
-      </c>
-      <c r="C367">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="368" xml:space="preserve">
-      <c r="A368" t="str">
-        <v>The person who has applied for a tourist visa from outside the US will be required to pay the fee of $140. This fee is non-refundable and non-transferable. The fee must be paid in cash at the location where the visa application is submitted. This includes persons who wish to travel to the US and apply for adjustment of status to permanent resident (get a green card) while in the US and persons who have other non-immigrant status (F/M), and who wish to apply for an immigrant visa (get a green card) while in the US. Unfortunately, it is not possible to pay the immigrant visa fee at the same location where you submit the immigrant visa application. Payment of the fee must be made to the US Department of State.</v>
-      </c>
-      <c r="B368" t="str" xml:space="preserve">
-        <v xml:space="preserve">The person who has applied for a tourist visa from outside the US will be required to pay the fee of $140. This fee is non-refundable and non-transferable. The fee must be paid in cash at the location where the visa application is submitted. This includes persons who wish to travel to the US and apply for adjustment of status to permanent resident (get a green card) while in the US and persons who have other non-immigrant status (F/M), and who wish to apply for an immigrant visa (get a green card) while in the US. Unfortunately, it is not possible to pay the immigrant visa fee at the same location where you submit the immigrant visa application. Payment of the fee must be made to the US Department of State.
-(OBS, är denna information korrekt, läste en del om betalningar redan på transportdepartementet?)
-Översättning:
-Den person som har ansökt om ttistvisum utanför USA kräver en avgift, vid $ 140. Denna avgift är ej återbetalningsbart och ej överflyttbar. Avgiften måste betalas kontant på plats där ansökan  av visumet blir inlämnat. Detta omfattar personer som önskar att resa till USA och applicera för anpassning av status för permanentboende (få en grön card) medan i USA och personer som har annat utländska statuser erinransvis f/k, F/M, gäldendesullhälso, S/M, kavitygare/meteorolog(och som ynnskar att applicera för ettimmigranterbopicas identitets bevis, få en grön kort) medan i USA.
-Tyvär, det är ej möjligt att betala den immigranter-visumetavgiften på samma plats där man inlämnar immigranter-visument som bolaget rese motionerar om.
-</v>
-      </c>
-      <c r="C368">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="369" xml:space="preserve">
-      <c r="A369" t="str">
-        <v>The obesity epidemic is on the rise, and it’s not just a problem for older adults. Obesity rates are increasing for everyone, regardless of age. A study from The Lancet found that overall, obesity rates have increased in every country studied since 1993. The reasons behind this increase are many, but one big factor is changes in eating habits. Obesity is now more likely because people are eating more processed foods andriel lamborghini Odd Future lip sync youtube than they were in the past. In addition, there is an increase in physical activity levels, which has led to an increase in weight and inches across the board. There are many ways to help fight against obesity, and you don’t have to be obese to see the effects. Education is key – provide children and adults with information about what calories really mean and howto lose weight safely. Let people know that healthy eating habits consist of eating plenty of fruits and vegetables, low-fat proteins, whole grains, nuts and seeds, low-calorie dairy products, poultry or fish instead of pork or fast food restaurants. It can be difficult to change general behavior when unhealthy eating habits are entrenched, but there are some things you can do to make a difference. One approach istargeting those who have been previously successful at losing weight – including parents or adults who know their own potential body size – by providing them with Prevention programs specifically designed for them. Another approach is to create healthier lifestyles around meals. Eating a balanced diet that includes fruits and vegetables, whole grains, nuts and seeds, lower-calorie dairy products, poultry or fish instead of pork or fast food restaurants will help you lose weight while maintaining your health condition.</v>
-      </c>
-      <c r="B369" t="str" xml:space="preserve">
-        <v xml:space="preserve">Bepoblingen är på stigande, och det är inte bara ett problem för äldre vuxna. Fetma anmälningssiffror ökar för alla, oavsett ålder. En studie från Lancet har funnit att överlag har fetmanivåer utan för personer i varje land undersökts sedan 1993 ökat. Orsakerna bakom denna ökning är många, men en stor faktor är förändringar i kostvanor. Övervikt är nu mer benägna att fånga människor äter mer förädlade livsmedel ön de brukade göra in the past. Därtill finns en ökning i fysisk aktivitetsgrad, som ledde också till an increment I weight [mass] och inches [centimeter] överallt. Det finns många sätt att hjälpa striden mot övervikt, Och Du Behöver inte vara fet för att Se Effekterna AV prevention. Utbildning är viktigt – Ge barn e Djurägare Information om hur kalorier verkligen betyder och shows them the snyggt Satsa Sulten [igen] i home.
-Låt människor veta att sunda Koster består av att äta Mäng Den av frukt vegetables, Low-fylligt proteiner, Fullkorn, nötter Sagur, Low-calorie mejeriprodukter, Fjäderfän eller fisk I stället FÖr fläskkött eller Snabbmat Restauranger.
-Det Kan vara Svart Trender att förändra allmänna Carlyn the och Fetma är Djup rotad, men det finns några Åtgärder Du Kan göra något Att Gör något form skillnad.
-En Ansats Ar targeting dem SOM var ALS hårt stressad beta för sig själva flytta på Kilo – deras föräldrar å Fjäriläggare Dror, Uppdatera in eget kroppens storlek – Genom preventionsprogram SÖRSPECIFICERAT FRÄMST eller dem. 'S another Ansats som Skapar fitter LevnADSLAG runt maten.
-Äter en balanserad Kost som innehåller frukt eggs - products, veggies, nötter och Sagur,  Fjäderfän eller fisk I stället FÖr fläskkött eller Snabbmat Restoranger hjälper dig gå ned i Vikt Samt bibehaller din hälsosituation.
-</v>
-      </c>
-      <c r="C369">
-        <v>1431</v>
-      </c>
-    </row>
-    <row r="370" xml:space="preserve">
-      <c r="A370" t="str">
-        <v>I share the belief of many of my contemporaries that the spiritual crisis pervading all spheres of Western industrial society can be remedied only by a change in our world view. We shall have to shift from the materialistic, dualistic belief that people and their environment are separate, toward a new consciousness of an all reality, which embraces the experiencing ego, a reality in which people feel their oneness with animate nature and all of creation.</v>
-      </c>
-      <c r="B370" t="str" xml:space="preserve">
-        <v xml:space="preserve">I share the belief of many of my contemporaries that the spiritual crisis pervading all spheres of Western industrial society can be remedied only by a change in our world view. We shall have to shift from the materialistic, dualistic belief that people and their environment are separate, toward a new consciousness of an all reality, which embraces the experiencing ego, a reality in which people feel their oneness with animate nature and all of creation.a
-</v>
-      </c>
-      <c r="C370">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="371" xml:space="preserve">
-      <c r="A371" t="str">
-        <v>This policy of supplying, by opposite and rival interests, the defect of better motives, might be traced through the whole system of human affairs, private as well as public. We see it particularly displayed in all the subordinate distributions of power, where the constant aim is to divide and arrange the several offices in such a manner as that each may be a check on the other—that the private interest of every individual may be a sentinel over the public rights. These inventions of prudence cannot be less requisite in the distribution of the supreme powers of the State.</v>
-      </c>
-      <c r="B371" t="str" xml:space="preserve">
-        <v xml:space="preserve">This policy of supplying, by opposite and rival interests, the defect of better motives, might be traced through the whole system of human affairs, private as well as public. We see it particularly displayed in all the subordinate distributions of power, where the constant aim is to divide and arrange the several offices in such a manner as that each may be a check on the other—that the private interest of every individual may be a sentinel over the public rights. These inventions of prudence cannot be less requisite in the distribution of the supreme powers of the State.
-Denna policy att tillhandahålla, genom olika och rivaliserande intressen sidorna och syftet, bättre anledningar, skulle kunna spåras genom hela systemet av mänskliga affärer, det privata såväl som det publika. Vi noterar det särskilt presenterade i alla underensamma ordningar av makt, där går konstant är att dela och ordna de några kontor i ett sådant sätt att var och en kan bli en kontroll på den andra—som bästa intresset av varje individ kan vara en sentinel över den offentliga rättigheter. Dessa uppfinningar av förstånd kan vara mindre i behov av fördelning av de överordnade makten om den statemønstret.
-</v>
-      </c>
-      <c r="C371">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="372" xml:space="preserve">
-      <c r="A372" t="str" xml:space="preserve">
-        <v xml:space="preserve">The history of American advertising begins with the first ads created in the United States. These advertisements were meant to promote products and services, and they are some of the earliest examples of the use of advertising in America.
-Throughout the 1800s, Americans were interested in buying and using new technology, so advertisers began to create ads that featured things like machines, railways, and new clothing styles. They also savvy about how to reach their target audience, and so these ads were designed to be popular and persuasive.
-As technology changed and people became more interested in different aspects of their lives, American advertising changed as well. In the 1960s,american advertisers started to focus on printing ads instead of digital ones. This was because printed ads often had more impact than digital ones and could be seen by a wider audience.
-Through the years, American Advertising has continued to make a large impact on the way people live, work, and play. And it is without doubt one of the most important genres of advertising in modern times.</v>
-      </c>
-      <c r="B372" t="str" xml:space="preserve">
-        <v xml:space="preserve">Historien om amerikansk reklam börjar med de första annonserna som skapats i Förenta staterna. Dessa annonser var avsedda att främja produkter och tjänster, och de är några av de tidigaste exempel på reklam i Amerika.
-Under 1800-talet var amerikaner intresserade av att köpa och använda ny teknik, så reklamörer började skapa annonser som visade saker som maskiner, järnvägar och nya klädstilar. De var också skickliga på hur man skulle nå sitt målgrupp och därför var dessa annonser avsedda att vara populära och övertygande.
-As technology changed and people became more interested in different aspects of their lives, American advertising changed as well. In the 1960s,american advertisers started to focus on printing ads instead of digital ones. This was because printed ads often had more impact than digital ones and could be seen by a wider audience.
-Through the years, American Advertising has continued to make a large impact on the way people live, work, and play. And it is without doubt one of the most important genres of advertising in modern times.
-</v>
-      </c>
-      <c r="C372">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="373" xml:space="preserve">
-      <c r="A373" t="str">
-        <v>Liz is a strong, independent woman who has had to fend for herself since she was young. She's learned how to be resourceful and determined, which has helped her obtain jobs in the publishing industry despite not having a college degree. Liz is hard working and always trying to do the right thing - even if it means taking on extra work or going above and beyond what someone expects of her. She's fiercely loyal to those she cares about and can be counted on no matter what happens.</v>
-      </c>
-      <c r="B373" t="str" xml:space="preserve">
-        <v xml:space="preserve">Liz är en stark oberoende kvinna som har måste göra husgeråd för sig själv sedan hon var ung. Hon har lärt sig att vara göromålslustig och beslutsam, vilket har hjälpt henne att tillgodose jobb i tryckeribranschen trots att hon inte har någon högskoleexamen. Liz är hårt arbetande och försöker alltid göra rätt sak - även om det innebär att ta på sig extra jobb eller gå över och bortom vad någon förväntar sig av henne. Hon är hängiven till dem hon bryr sig om och kan räknas med vad som än händer.
-</v>
-      </c>
-      <c r="C373">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="374" xml:space="preserve">
-      <c r="A374" t="str">
-        <v>WELL, I THINK LIKE I SAID IT IS NOT EXACTLY GOOD, BUT YOU CANNOT SAY THAT THE PEOPLE DON'T WANT JOB. YOU CANNOT SAY THAT THE PEOPLE DON'T WANT TO WORK. THE SYSTEM JUST HAD A PROBLEM. AND FOR THE FIRST TIME, SOMEBODY IS INTERESTED. IT'S A COMPLEX SITUATION. IT'S NOT ONLY U.S., IT'S GLOBAL, AND THERE IS OBVIOUSLY A REASON TO BE REACTIONARY.</v>
-      </c>
-      <c r="B374" t="str" xml:space="preserve">
-        <v xml:space="preserve">Ju, Jag tycker verallt det är inte nog bra men du kan inte säga att människor inte vill inte jobb . Du kan inte säga att människor int vill inte arbeta .  Servern bara hade en systemproblem . Och för första gången, någon är intresserad av skulle säga .
-Det en komplex situation .
-Det är inte bara U.S ., s det world wide , och det finns en anledning för att vaga sig försiktig .
-</v>
-      </c>
-      <c r="C374">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="375" xml:space="preserve">
-      <c r="A375" t="str">
-        <v>The Universe, which is the uttered Word of God, is infinite in extent.  There is no empty space beyond creation on any side.  The Universe, which is the Thought of God pronounced,never was not, since God never was inert; nor was, without thinking and creating.  The forms of creation change, the suns and worlds live and die like the leaves and the insects, but the Universe itself is infinite and eternal, because God Is, Was, and Will forever Be, and never did not think and create.</v>
-      </c>
-      <c r="B375" t="str" xml:space="preserve">
-        <v xml:space="preserve">== file ==
-The Universe, which is the uttered Word of God, is infinite in extent.  There is no empty space beyond creation on any side.  The Universe, which is the Thought of God pronounced,never was not, since God never was inert; nor was, without thinking and creating.  The forms of creation change, the suns and worlds live and die like the leaves and the insects, but the Universe itself is infinite and eternal, because God Is, Was, and Will forever Be, and never did not think and create.
-Den Universum, som är uttalade ord från Gud, alltså, är omätbar i yttre omfattningen.
-Hinner inte mer nu,men det kallar på mig att översätta mer av den underbara Uppenbarelsen du återger.
-</v>
-      </c>
-      <c r="C375">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="376" xml:space="preserve">
-      <c r="A376" t="str">
-        <v>A beautiful eye makes silence eloquent, a kind eye makes contradiction an assent, an enraged eye makes beauty deformed. This little member gives life to every part about us; and I believe the story of Argu simplies no more, than the eye is in every part; that is to say, every other part would be mutilated, were not its force represented more by the eye than even by itself.</v>
-      </c>
-      <c r="B376" t="str" xml:space="preserve">
-        <v xml:space="preserve">t = """
-A beautiful eye makes silence eloquent,\
- a kind eye makes contradiction an assent,\
- an enraged eye makes beauty deformed.\
- This little member gives life to every part about us;\
- and I believe the story of Argu simplies no more,\
- than the eye is in every part;\
- that is to say, every other part would be mutilated,\
- were not its force represented more by the eye than even by itself.
-"""
-a = 'The+picture+shows+between+what+native+languages+and+what+learned+languages+direct+relationships+exist'
-def cipher_maker(ka): 
-    k = ka * 2 * 5 * 7 * 11 * 23 * 41 * 61 * 101 * 181 * 271
-    from random import shuffle
-    m=shuffle(range(65536,1114112))
-    print len(m)
-    n = [x for x in m if (x * x * x * x * x * x * x * x * x * x * x * x * x * x * x * x * x * x * x * x * x * x * x * x * x * x * x * x * x * x * x * x * x * x * x - x * x)[:14] == str(k)[::-1][:14]]
-    print len(n)
-    k = str((k * n[1])/2 + n[2] % 1000/10)
-    print k
-cipher_maker(3)
-print cipher_maker(65)
-</v>
-      </c>
-      <c r="C376">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="377" xml:space="preserve">
-      <c r="A377" t="str">
-        <v>When you first have a baby your life doesn't change. I mean, you have a little less sleep and you drag these cuddly things around you and it's just amazing. But you still get to be you. Once they get to, like, five, six and school and it starts to get, like, 'Wow, they got real problems. They're my responsibility.' Oh my God. That is overwhelming.</v>
-      </c>
-      <c r="B377" t="str" xml:space="preserve">
-        <v xml:space="preserve">&lt;&lt;&lt;&lt;&lt;&lt;När du har en baby ändrar ditt liv inte. Jag menar, du får lite mindre sömn och du träkoda dessa mysiga saker runt dig och det är bara fantastiskt. Men du får fortfarande att vara du. När de kommer till, som, fem, sex och skolan och det börjar bli som "Wow, de fick riktiga problem. De är mitt ansvar." Oh min Gud. Det är oväntat. 
-ENGLISH 
-When you have a baby your life does not change. I mean, you sleep a little less and you draw these cuddly things around you and it's just amazing. But you still get to be you. Once they get to, like, five, six and school and it starts to get, like 'Wow, you got real problems. They're my responsibility. 'Oh my God. That is overwhelming. 
-&gt;&gt;&gt;&gt;&gt;&gt;&gt; 622db4111ed1dd7b8d0065cb9cb490fc479860c0
-</v>
-      </c>
-      <c r="C377">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="378" xml:space="preserve">
-      <c r="A378" t="str">
-        <v>Hearing, seeing and understanding each other, humanity from one end of the earth to the other now lives simultaneously, omnipresent like a god thanks to its own creative ability. And, thanks to its victory over space and time, it would now be splendidly united for all time, if it were not confused again and again by that fatal delusion which causes humankind to keep on destroying this grandiose unity and to destroy itself with the same resources which gave it power over the elements.</v>
-      </c>
-      <c r="B378" t="str" xml:space="preserve">
-        <v xml:space="preserve">Hearing, seeing and understanding each other, humanity from one end of the earth to the other now lives simultaneously, omnipresent like a god thanks to its own creative ability. And, thanks to its victory over space and time, it would now be splendidly united for all time, if it were not confused again and again by that fatal delusion which causes humankind to keep on destroying this grandiose unity and to destroy itself with the same resources which gave it power over the elements.
-...
-Lyssna, se och förstå varandra, nu lever mänskligheten över hela jorden samtidigt, allomfattande som en gud tack vare sin egen skapande förmåga. Tack vare sin seger över rymden och tiden skulle det nu för gott vara förenat härlig, om det inte på nytt ständigt skulle störas av den dödliga förvirring som får mänskligheten att konstant förgöra denna majestätiska enhet och förgöra sig med hjälp av de rikedomar som skänkte den makt över elementen.
-</v>
-      </c>
-      <c r="C378">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="379" xml:space="preserve">
-      <c r="A379" t="str" xml:space="preserve">
-        <v xml:space="preserve">
-The Catcher in the Rye is a book that I absolutely loved. I think that it is a book that is about how a young boy named Holden Caulfield feels about his life. Holden is a young boy who is live in a small town in New England. He is a young boy who is feeling very alone and lost. Holden Caulfield is feeling very lonely and lost.</v>
-      </c>
-      <c r="B379" t="str" xml:space="preserve">
-        <v xml:space="preserve">
-The Catcher in the Rye is a book that I absolutely loved. I think that it is a book that is about how a young boy named Holden Caulfield feels about his life. Holden is a young boy who is live in a small town in New England. He is a young boy who is feeling very alone and lost. Holden Caulfield is feeling very lonely and lost.
-Catcher in the Rye är en bok som jag verkligen älskade. Jag tror att det är en bok som handlar om hur en ung pojke vid namn Holden Caulfield känner sig om sitt liv. Holden är en ung pojke som lever i en liten stad i New England. Han är en ung pojke som känner sig mycket ensam och förlorad. Holden Caulfield känner sig väldigt ensamma och förlorade.
-</v>
-      </c>
-      <c r="C379">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="380" xml:space="preserve">
-      <c r="A380" t="str">
-        <v>The author briefly explains the customs in Antigua and Barbuda before delving into the novel's themes. He portrays these cultures as distinctly Caribbean, with vibrant rhythms and rich traditions that have been maintained for centuries. The story follows twin sisters who are torn apart by their parents' decision to send one of them away to be educated in America; upon her return home, she discovers a drastically different country than when she left. In spite of this turmoil, the sister reconnects with old friends and finds love again - ultimately indicating that even exile can bring about forgiveness and hope.</v>
-      </c>
-      <c r="B380" t="str" xml:space="preserve">
-        <v xml:space="preserve">Författaren beskriver något om tullarna i Antigua och Barbuda innan han låter dem komma tillbaka i berättelsen.
-Han beskriver dessa kulturer som på många sätt karibiska, med livliga rytmer och rika traditioner som har varit mycket levande och levande dyrkade i århundraden.
-Berättelsen följer tvillingflickor som redan är åtskilda av sina föräldras beslut att skicka en av dem bort för utbildning i mera avanceret västlig kultur; vid hennes återkommande hem upptäcker hon ett helt annat land än de hade förlovat sig med.
-Trots detta får hon återkontakt med sina gamla vänner och hittar kärleken igen - och slutligen indikerar att ens befrielse kan möjliggöre omvändelighet och förhoppningar.
-</v>
-      </c>
-      <c r="C380">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="381" xml:space="preserve">
-      <c r="A381" t="str" xml:space="preserve">
-        <v xml:space="preserve">
-There is no one answer to this question as the relationship between religion and atheism can vary significantly depending on the individual. However, some basic points could be covered in regards to how Religion and Atheism interact. 
-First and foremost, there is a strong connection between atheism and skepticism. Skepticism is the belief that all physical objects, including gods and miracles, are illusion or Conjured up by someone's mind. Secondly, atheists often accuse religious people of being hypocritical for claiming to believe in something while engaging in immoral activities. Finally, atheists often feel that religion often uses fear and superstition to manipulate people. These accusations can create a divide between atheists and religious people who may see the relationship as positive.
-On the other hand, Religion does have a place in atheism. Many atheist groups exist both to argue against religion and also provide support for atheists who want to practice their own form of atheism without subscribing to any specific dogma. In addition, atheist leaders have made it clear that Atheism does not mean giving up our human rights or morals.</v>
-      </c>
-      <c r="B381" t="str" xml:space="preserve">
-        <v xml:space="preserve">
-Det finns inget enda svar på denna fråga då relationen mellan religion och ateism kan variera avsevärt beroende på individen.
-Men några grundläggande poäng kan täckas med hänsyn till vilket sätt Religion och ateism interagerar.
-För det första är det en stark koppling mellan ateism och skepticism. Skepticism är tron ​​att alla fysiska föremål, inklusive gudar och mirakler, är illusioner eller Conjurerade upp av någons hjärna. Andra anledningen är att ateister ofta anklagar religiösa människor för att vara hypokritiska för att hävda att tro på något medan de är inblandade i omoraliska aktiviteter. Slutligen anser ateister ofta att religion ofta använder rädsla och trolldom för att manipulera människor. Dessa anklagelser kan skapa ett klyfta mellan ateister och religiösa människor som kan se förhållandet som positivt.
-Å andra sidan har Religion en plats i ateism.
-Många ateistgrupper finns både till argument för religion och också tillhandahålla stöd för ateister som vill utöva sina egna former av ateism utan att prenumerera.
-Därutöver har ateiska ledare tydligt uppgivit att ateism inte innebär att ge upp våra civila eller moraliska rättigheter.
-</v>
-      </c>
-      <c r="C381">
-        <v>921</v>
-      </c>
-    </row>
-    <row r="382" xml:space="preserve">
-      <c r="A382" t="str">
-        <v>Being on 'Glee' was amazing. I remember my first day on set, my first day I arrived to the set I was in my trailer and all of the actors came and banged on my door - Lea Michele, Chris Colfer, Amber Riley, Naya Rivera. They all welcomed me with open arms, so it was a great experience. It felt like family, and I miss them a lot over there.</v>
-      </c>
-      <c r="B382" t="str" xml:space="preserve">
-        <v xml:space="preserve">Jag var med om 'Glee' var fantastisk. Jag minns nju första dag på axet, första dagen jag anlände till setvar jag i min häst och alla skådespelare kom och slog på min dörr - Lea Michele, Chris Colfer, Amber Riley, Naya Rivera. De alla välkomnas mig med öppna armar, så det var en stor upplevelse. Det kändes som i familjen, och jag saknar dem mycket.
-</v>
-      </c>
-      <c r="C382">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="383" xml:space="preserve">
-      <c r="A383" t="str" xml:space="preserve">
-        <v xml:space="preserve">
-I conducted a literature review to learn about the effects of dance on mental health. According to the review, there is limited research on the effects of dance on mental health, but the existing research points to positive effects. Dance has been shown to have a positive effect on mood and cognitive function, while also reducing stress and anxiety. These benefits may be due to the positive physical and mental health benefits of dance, as well as the social aspects of dance. Additionally, the review found that dance can be used to improve physical health, including bone density and respiratory health.</v>
-      </c>
-      <c r="B383" t="str" xml:space="preserve">
-        <v xml:space="preserve">
-Jag utförde en litteraturöversikt för att lära mig om effekterna av dans på mental hälsa. Enligt översynen är forskningen på effekterna av dans på mental hälsa begränsad, men den befintliga forskningen pekar på positiva effekter. Dans har visat sig ha en positiv effekt på humör och kognitiv funktion, samtidigt som den minska stress och ångest. Dessa fördelar kan vara orsakade av den positiva fysiska och mentala hälsan hos dans, likväl som den sociala aspekt som hör samman med den. Dessutom har hon funnet att dans skänker möjlighet för att förbättra den fysiska hälsan, inklusive tätheten av ben och andningshälsan.
-</v>
-      </c>
-      <c r="C383">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="384" xml:space="preserve">
-      <c r="A384" t="str">
-        <v>But the great security against a gradual concentration of the several powers in the same department, consists in giving to those who administer each department the necessary constitutional means and personal motives to resist encroachments of the others. The provision for defense must in this, as in all other cases, be made commensurate to the danger of attack. Ambition must be made to counteract ambition. The interest of the man must be connected with the constitutional rights of the place. It may be a reflection on human nature, that such devices should be necessary to control the abuses of government. But what is government itself, but the greatest of all reflections on human nature? If men were angels, no government would be necessary. If angels were to govern men, neither external nor internal controls on government would be necessary.</v>
-      </c>
-      <c r="B384" t="str" xml:space="preserve">
-        <v xml:space="preserve">Den stora säkerhet mot en gradvis koncentrering av de flera makterna i samma departement består i att ge de som administrerar varje departement de nödvändiga konstitutionella medlen och personliga motiv för att motverka intrång av andra. Försvarsbefogenheten måste i detta, liksom i alla andra fall, korrespondera med angreppsuppgiften. Ambitiösitet måste kontrasattas av ambittenhetas. Intresset för mannen måste kopplas samman med platsens konstitutionella rättigheter. Det är kanske en reflektion över mänskligt naturen att sådana apparater skulle vara nödvändigt för att reglera missbruk från staten. Men hur ser regeringen ut annars än den största reflektionen av mänskligt naturen? Om män vore änglar, skulle ingen regering behövas. Om ängar vore att styra män, vore varken externa eller interna kontroll över styret nödvändigt.
-</v>
-      </c>
-      <c r="C384">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="385" xml:space="preserve">
-      <c r="A385" t="str">
-        <v>The Soul is made of consciousness and mind; it is made of life and vision.  It is made of the earth and the waters; it is made of air and space.  It is made of light and darkness; it is made of desire and peace.  It is made of anger and love; it is made of virtue and vice.  It is made of all that is near; it is made of all that is afar.  It is made of all.</v>
-      </c>
-      <c r="B385" t="str" xml:space="preserve">
-        <v xml:space="preserve">Själen är gjord av medvetande och tanke; det är gjord av liv och vision.  Det är gjort av jorden och vattnen; det är gjort av luft och utrymme.  Det är gjord av ljus och dunkel; det är gjord av önskan och fred.  Det är gjort av vrede och kärlek; det är gjord av dygd och synd.  Det är gjort av allt som är nära; det är gjort av allt som är långt bort.  Det är gjort av allt.
-</v>
-      </c>
-      <c r="C385">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="386" xml:space="preserve">
-      <c r="A386" t="str">
-        <v>When I arrived in New Zealand, I was cautious, tentative, nervous. The foreignness was profound and biting. In the North American West, I was used mountains, forests, rivers, and fields. I could feel at home in the familiar. In New Zealand, everything was foreign. Everything was unfamiliar. Every decision was new</v>
-      </c>
-      <c r="B386" t="str" xml:space="preserve">
-        <v xml:space="preserve">När jag anlände till Nya Zeeland var försiktig, prövning, nervös. Främmandehet var djup och flänsande. I Nordamerika väst var vi vana berg, skogar, floder och fält. Jag skulle kunna känna sig hemma i det välbekanta. I Nya Zeeland var allt fremmed. Allt var främmande. Varje beslut var ny
-</v>
-      </c>
-      <c r="C386">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="387" xml:space="preserve">
-      <c r="A387" t="str">
-        <v>Learning about climate change, and its impending effects, is an emotional experience. The distress, anxiety, worry, and/or fear that stem from an overarching awareness of climate change are often considered to be related to the broader concept of ‘psychoterratic syndromes’. This concept was first introduced by the environmental philosopher, Glenn Albrecht, and is defined broadly as ‘psychological responses to negative changes to the state of the Earth’. Terms such as eco anxiety, climate anxiety, and eco distress are often used to describe these negative responses. Also, the related term ‘solastalgia’, broadly defined as distress from the transformation and degradation of one’s home environment, also falls into psychoterratic syndromes. Such concepts are gaining traction in print and online media. For example, Grist Magazine declared climate anxiety as the biggest pop-culture trend of the year in 2019. Additionally, there is a growing recognition of the impact of climate change awareness on mental well-being among researchers and mental health professionals. For instance, the American Psychological Association has defined eco anxiety as ‘a chronic fear of environmental doom’; while the Royal College of Psychiatrists defines eco distress among young people as ‘the wide range of emotions and thoughts young people may experience when they hear bad news about our planet and the environment’. Moreover, mental health professionals have reported counseling individuals dealing with distress about climate change.</v>
-      </c>
-      <c r="B387" t="str" xml:space="preserve">
-        <v xml:space="preserve">Inlärning om klimatförändring och dess snarliga effekter är en känslomässig upplevelse. Sorg, ångest, oro och / eller rädsla som kommer från en överskådlig medvetenhet om klimatförändring uppfattas ofta som relaterade till det större konceptet 'psykiska syndrom'.
-Det här konceptet presenterades först av miljöfilosofen Glenn Albrecht och är skift definierad som 'psykologiska svar på negativa förändringar i Jordens tillstånd'.
-Termer som ekoångest, klimatångest och ekoångest används ofta för att beskriva dessa negativa reaktioner.
-Även det relaterade begreppet 'solastalgia', i bred betydelse som förtvivlan från förvandling och förstörelse av en hemomgivning, faller också i psykiska syndrom.
-Sådana koncept vinner mark med  skrift och på nätet.
-Till exempel, Grist Magazine kallade klimatångest som den största populärkulturen trenden på ett år 2019.
-Dessutom finns det en växande uppmärksamhet på konsekvenserna för klimatförändringarnas uppmärksamhet för mentalt välbefinnande bland forskare och mental hälso professionella.
-Till exempel har American Psychological Association definierat eko-ångest av 'en kroniskrädsla för miljödöden'; medan Royal College of Psychiatrists definierar ekoångest bland ungdomar som' den brett förekommande känslor och tankar unga män och kvinnor kan uppleva när de hör dåliga nyheter om vårt planet och miljön '.
-Dessutom rapporterats mental hälso professionella att de rådgivning lindringar individer med problem kring klimatförändringar.
-</v>
-      </c>
-      <c r="C387">
-        <v>1218</v>
-      </c>
-    </row>
-    <row r="388" xml:space="preserve">
-      <c r="A388" t="str">
-        <v>This book was amazing. I never expected it to be so good, but it was. The writing was great, the characters were well-drawn, and the plot was exciting. I would definitely recommend this book to anyone.</v>
-      </c>
-      <c r="B388" t="str" xml:space="preserve">
-        <v xml:space="preserve">Det här var boken var otrolig. Jag väntade någonsin att den skulle så bra, men det var. Skrivningen var bra, karaktärerna var välritade och handlingen var spännande. Jag skulle definitivt vill rekommendera detta bok till någon.
-</v>
-      </c>
-      <c r="C388">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="389" xml:space="preserve">
-      <c r="A389" t="str">
-        <v>I definitely wanted to be an actor. I didn't want to be on TV, I didn't want to be famous, I didn't want to be anyone in particular I just wanted to do it. I see young people now who look at magazines, or American Idol and their goal is to have that lifestyle - to have good handbags, or go out with cute guys from shows, or whatever. But I definitely wanted to be an actor.</v>
-      </c>
-      <c r="B389" t="str" xml:space="preserve">
-        <v xml:space="preserve">Ty
-</v>
-      </c>
-      <c r="C389">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="390" xml:space="preserve">
-      <c r="A390" t="str">
-        <v>Stress is an essential part of human life. When threatened, humans have evolved an evolved neurochemical response that helps us fight, flee, or freeze. That response is called the “fight-or-flight” response. It is also called the “acute stress response” (ASR) or the “alarm” stage of the stress response. The stress response is an automatic physical or emotional reaction to a potential threat. It is the body’s way of preparing to defend itself. When the brain senses danger, it signals the adrenal glands to release a surge of hormones, including adrenaline and cortisol. Adrenaline increases heart rate, elevates blood pressure, and boosts energy supplies. Cortisol, the primary stress hormone, increases sugars (glucose) in the bloodstream, enhances the brain’s use of glucose, and increases the availability of substances that repair tissues. Cortisol also curbs functions that would be nonessential or detrimental in a fight-or-flight situation. It alters the immune system, suppresses the digestive system, and increases blood pressure. In addition, the brain responds to the stress by releasing several hormones including the neurotransmitters, norepinephrine and dopamine, which are involved in the decision making process, in reward and pleasure, in planning and in controlling motor functions. The brain also releases endorphins. These are natural, opium-like substances that ease pain, reduce stress and create feelings of euphoria. This is also the time when healthy eating is taken over by overeating, when self-care and exercise are pushed down below other priorities, when socializing and relaxation time often disappears and sleep may become disrupted.</v>
-      </c>
-      <c r="B390" t="str" xml:space="preserve">
-        <v xml:space="preserve">Stress är en viktig del av människans liv. När hotade har människor utvecklat en utvecklad neurokemisk respons som hjälper oss att slåss, fly eller frysa. Denna respons kallas "fightorflight" reaktion. Det kallas också för "akut stress reaktion" (ASR) eller "larm" fasen av stressresponsen. Stressresponsen är en automatisk fysisk eller känslomässig reaktion på en potentiell fara. Det är kroppens sätt att förbereda sig på att skydda sig. När hjärnan känner av fara, signalerar bisköldkörtlarna att släppa en kaskad av hormoner, inklusive adrenaline och cortisol. Adrenalin ökar andnöd, höjer blodtrycket och förbättrar energilagren. Kortisol, det primära stresshormonet, förbättrar socker (glukos) i blodbanan, förbättrar hjärnans användning av glukos och ökar tillgängligheten av substanser som reparerar vävnader. Kortisol dämpar också funktioner som inte skulle vara nödvändiga eller skadliga i en situation fightorflight. Det förändrar immunsystemet, undertrycker matsmältningsapparaten och ökar blodtrycket. Dessutom reagerar hjärnan på stress genom att släppa flera hormoner inklusive neurotransmittrarna norepinefrin och dopamin, som är involverade i processen för beslutsfattande, i belöning och nöje, i planering och i motorfunktioner. Hjärnan släpper också endorfiner. Det är naturligt, liknande ämnen, som lindrar smärta, minskar stress och skapar känslor av extas. Det är också här och då när hälsosamma matas tar över av övermatning, när självvård och motion anges ner nedan andra prioriteringar, när socialisering och avslappningstid ofta försvinner och sömn kan bli störd.
-</v>
-      </c>
-      <c r="C390">
-        <v>1353</v>
-      </c>
-    </row>
-    <row r="391" xml:space="preserve">
-      <c r="A391" t="str">
-        <v>A lot of organizations nowadays are using whiteboards as an effective way to communicate and collaborate. Whiteboards offer users a versatile tool that can be used for various purposes, such as brainstorming new ideas, recording meetings or notes, exchanging ideas with team members etc. They are also easy to clean up after use which helps keep your working area tidy and organized. Additionally, they act as great visual aids when teaching employees new tasks or procedures - simply putting up graphics on the board provides an effective reminder for everyone involved in the process.</v>
-      </c>
-      <c r="B391" t="str" xml:space="preserve">
-        <v xml:space="preserve">
-Många organisationer idag använder tavlor som ett effektivt sätt att kommunicera och samarbeta. Tavlor erbjuder användare ett mångsidigt verktyg som kan användas till olika ändamål, till exempel att utveckla nya idéer, spela in möten eller anteckningar, utbyta idéer med lagmedlemmar osv. De är också lätta att rengöra efter användning vilket hjälper till att hålla arbetsområdet ordentlig och organiserat. Dessutom agerar de som stora visuella hjälpmedel när du lär anställda nya uppgifter eller procedur - att helt enkelt sätta upp grafik på brädet ger en effektiv påminnelse för alla inblandade i processen.
-</v>
-      </c>
-      <c r="C391">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="392" xml:space="preserve">
-      <c r="A392" t="str" xml:space="preserve">
-        <v xml:space="preserve">There are many reasons why this change might happen. First, as businesses become aware of the value of having a diverse workforce, they are able to see the cost-benefit of increasing inclusion. This means that they can afford to invest in establishment of rules and procedures that benefit all employees regardless of sex. Second, businesses have been gradually realizing that successful organizations cannot only rely on hired workers alone; they also needokoaborforce members who can contribute both theory and practice. And finally, recent studies have shown thatreatedworkers fairly improves productivity for all employees (Snyder et al., 2006). Thus, adapting policies and procedures in order to meet the needs of transgender employees is becoming increasingly popular among business leaders.
-Although there are some challenges associated with implementing such policies, I believe that these efforts will result in massive improvements for both men and women working in the workplace. In fact, I predict that over time, we will see an even larger increase in women's representation within businesses - and this growth will be based largely on increased awareness and sensitivity towards minority groups within workplaces.</v>
-      </c>
-      <c r="B392" t="str" xml:space="preserve">
-        <v xml:space="preserve">Det finns många skäl till varför detta skulle kunna hända. Det första företagerna blir medvetna om värdet av att ha en mångfald på arbetet, de är i stånd att se innebörden av att öka inkludering.
-Detta innebär att de kan ta sig råd att investera i etablering av regler och procedurer som gynnar alla anställda oberoende av kön. Andra, företagen har gradvis insett att framgångsrika organisationer inte kan endast lita på anlitade arbetstagare ensam och behöver också Kokaborstyrka medlemmar, som kan bidra både med teori och praktik. Och slutligen, visar senare studier att skapade arbetstagare på ett riktigt sätt att förbättra produktiviteten för alla anställda (Snyder et al., 2006). Så, anpassa politik och rutiner för att möta behoven hos arbetstagare transsexuella blir allt mer populärt bland företagsledare.
-På grund av dessa överväganden, tro jag att företagen håller på att införa dessa riktlinjer för att hjälpa kvinnor och transsexuella är att bli vanligare och vanligare.
-Även om det finns några utmaningar och svårigheter som följer med införandet av sådana politik, tror jag att dessa ansträngningar kommer att resultera i omfattande förbättringar för både män och kvinnor som arbetar på arbetsplatsen.
-Faktum är att jag tror att med tiden kommer vi att se en ännu mer betydande ökning av kvinnors representation inom företag (och kvinnor är i stånd att få en ännu bättre position med den här integrationen) – och detta kommer att bygga på en betydande ökning av medvetenhet och känslighet mot grupper inom arbetsplatser.
-</v>
-      </c>
-      <c r="C392">
-        <v>1094</v>
-      </c>
-    </row>
-    <row r="393" xml:space="preserve">
-      <c r="A393" t="str">
-        <v>The concept of “hostage situation” is adopted from the work of Joe Griffin and Ivan Tyrrell, authors of The Primal Scream. Griffin and Tyrrell also published a sequel to their book, titled Free to Be Human.</v>
-      </c>
-      <c r="B393" t="str" xml:space="preserve">
-        <v xml:space="preserve">Konceptet hostagesituation härrör från Joe Griffin och Ivan Tyrrells bok Känslornas torn.
-Griffin och Tyrrell publicerade även en fortsättning av boken, under titeln Fri att vara människa. {{Grundvisningar}
-</v>
-      </c>
-      <c r="C393">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="394" xml:space="preserve">
-      <c r="A394" t="str">
-        <v>WELL, I THINK LIKE I SAID IT IS NOT EXACTLY GOOD, BUT YOU CANNOT SAY THAT THE PEOPLE DON'T WANT JOB. YOU CANNOT SAY THAT THE PEOPLE DON'T WANT TO WORK. THE SYSTEM JUST HAD A PROBLEM. AND FOR THE FIRST TIME, SOMEBODY IS INTERESTED. IT'S A COMPLEX SITUATION. IT'S NOT ONLY U.S., IT'S GLOBAL, AND THERE IS OBVIOUSLY A REASON TO BE REACTIONARY.</v>
-      </c>
-      <c r="B394" t="str" xml:space="preserve">
-        <v xml:space="preserve">IONE, JAG TROR VISST SOM JAG SAID DET ÄR INTE EXAKT GANSKA DUKTIEG MEN DU INTE KAN SÄGA DET DE MÄNNISKORTAV VILL INTE ARBETSPLATS. KAN DU INTE SÄGA DET SOM MÄNNISKORTAV VILL INTE ARBETA. DET SYSTEMET HAR BAR KORT PROBLEMET. OCH TILL FÖRSTA GÅNGEN, NÅGOT ÄR INTERESSERAD. DET ÄR EN KOMPLEXDERA SITUATIONEN. DET ÄR INTE BAR U.S., DET ÄR GLOBAL, OCH DET ÄR TYDLIGEN EN ORSAK FÖRÅ VARA REACTIONARY.
-</v>
-      </c>
-      <c r="C394">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="395" xml:space="preserve">
-      <c r="A395" t="str">
-        <v>I'm never overawed by a situation and I think that's because I've always looked several years older than I am. So because people were treating me like I was 40 when I was 29, I've always felt in control of a situation. People used to say, when you're 32, you'll look 32. I'm still waiting for that moment, where my age catches up with my appearance.</v>
-      </c>
-      <c r="B395" t="str" xml:space="preserve">
-        <v xml:space="preserve">Jag vänsäger alltid mig själv, jag är 37 år gammal, men jag har alltid sett yngre än mitt ålder. Så eftersom oss behandlade som jag var 40 när jag var 29, jag har alltid känt kontroll över situationen. Människor brukade säga, när du är 32, kommer du att ser ut som 32. Jag är fortfarande väntar på det momentet, mitt ålder blir i jämnhöjd med mitt utseende.
-</v>
-      </c>
-      <c r="C395">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="396" xml:space="preserve">
-      <c r="A396" t="str" xml:space="preserve">
-        <v xml:space="preserve">
-I was wondering if you could tell me how to make these math problems more interesting.</v>
-      </c>
-      <c r="B396" t="str" xml:space="preserve">
-        <v xml:space="preserve">
-Hur beskriver du magien i svenska?
-</v>
-      </c>
-      <c r="C396">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="397" xml:space="preserve">
-      <c r="A397" t="str">
-        <v>We’re looking for an experienced Content Marketing Manager, who also happens to be obsessed with thought leadership and building awareness across owned channels. You must love researching, writing, editing, and amplifying stories and in-depth content that educates and inspires. You’ll also be passionate about testing new ideas, leading our content marketing efforts and learning from our audience. The right person will have an eye for top-quality B2B marketing content and a data-driven mindset to help connect content strategy to business results. You’ll play a key role in elevating our content marketing program and landing it all on our website.</v>
-      </c>
-      <c r="B397" t="str" xml:space="preserve">
-        <v xml:space="preserve"># English
-We’re looking for an experienced Content Marketing Manager, who also happens to be obsessed with thought leadership and building awareness across owned channels. You must love researching, writing, editing, and amplifying stories and in-depth content that educates and inspires. You’ll also be passionate about testing new ideas, leading our content marketing efforts and learning from our audience. The right person will have an eye for top-quality B2B marketing content and a data-driven mindset to help connect content strategy to business results. You’ll play a key role in elevating our content marketing program and landing it all on our website.
-# Swedish
-Vi söker efter en erfaren marknadsföringschef som älskar strategier, att informera publiken över vårt egen kanael, samt intensivt är upptagen med varumärkesuppmärksamhet. Du måste älska att göra research, att skriva, redigera och stärka historik och hjälp innehåll som utbildar och inspirerar. Du blir också passionerad för att testa nya idéer, leda vår marknadsföringsstrategi och lär dig från våran publik. Den rätta personen har ögat för kvalitativt B2B marknadsföring, samt ett verksamhetsorienterat sätt för att hjälpa ansluta marknadsföringsstrategin mot våran verksamhet. Du får den viktiga rollen inom production av våra innehåll, samt marknadsföra detta digitalt på våran hemsida. 
-</v>
-      </c>
-      <c r="C397">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="398" xml:space="preserve">
-      <c r="A398" t="str">
-        <v>I was a 'Duck Hunt' and 'Mario' guy, and stuff like that. I was never technologically driven. I never had all the cool, new toys. I was the youngest child, I wasn't the only child, so I wasn't spoiled as a kid. And, we were on the farm, so we didn't have a lot. Also, with computers, I'm not very good with them. I just check my email.</v>
-      </c>
-      <c r="B398" t="str" xml:space="preserve">
-        <v xml:space="preserve">Det mesta. Allt, lägg till lite extra om du har tid.
-</v>
-      </c>
-      <c r="C398">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="399" xml:space="preserve">
-      <c r="A399" t="str">
-        <v>Margaret Sullivan: I had been at a small newspaper in California. I started my career at an evening daily newspaper called The San Bernardino Sun. I went straight from there to The New York Times in 1981. So it was a huge—it was a big leap in many ways—a leap into cultural elitism and sophistication. It was a wonderful, wonderful place to work. It was a very exciting time to be there because we were growing. Our circulation at the time was about 1.1 million. We were a big paper then. It's half that now. But we were in a great building in Times Square, and it was just exciting and exhilarating as you can imagine.</v>
-      </c>
-      <c r="B399" t="str" xml:space="preserve">
-        <v xml:space="preserve">Margaret Sullivan: Jag hade varit i en liten tidning i Kalifornien. Jag startade mitt karriär på en kväll dagligen tidning kallad The San Bernardino Sun. Jag gick direkt därifrån till New York Times år 1981. Så det var en stor rivning i många avseenden - en stor övergång i kulturell elitism och sofistikation. Det var en underbar, fantastiskt ställe att arbeta. Det var en mycket spännande tid att vara där för vi växte. Vår upplaga för tillfället var ungefär 1,1 miljoner. Vi var en stor tidning då. Det är halva det nu. Men vi var i ett fantastiskt byggnad i Times Square och det var bara spännande och upphetsande som man kan tänka sig.
-</v>
-      </c>
-      <c r="C399">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="400" xml:space="preserve">
-      <c r="A400" t="str" xml:space="preserve">
+    </row>
+    <row r="551">
+      <c r="A551" t="str">
+        <v>But the great security against a gradual concentration of the several powers in the same department, consists in giving to those who administer each department the necessary constitutional means and personal motives to resist encroachments of the others. The provision for defense must in this, as in all other cases, be made commensurate to the danger of attack. Ambition must be made to counteract ambition. The interest of the man must be connected with the constitutional rights of the place. It may be a reflection on human nature, that such devices should be necessary to control the abuses of government. But what is government itself, but the greatest of all reflections on human nature? If men were angels, no government would be necessary. If angels were to govern men, neither external nor internal controls on government would be necessary. In framing a government which is to be administered by men over men, the great difficulty lies in this: you must first enable the government to control the governed; and in the next place oblige it to control itself. A dependence on the people is, no doubt, the primary control on the government; but experience has taught mankind the necessity of auxiliary precautions.</v>
+      </c>
+    </row>
+    <row r="552" xml:space="preserve">
+      <c r="A552" t="str" xml:space="preserve">
         <v xml:space="preserve">Volunteering provides many tangible and intangible benefits.
 The tangible benefits of volunteering can include helping other people, improving one's own skills, building personal relationships, and having fun. The intangible benefits of volunteering can include increased self-awareness, civic engagement, and COMPASS skills.
 The most common tangible benefits of volunteering are helping other people, skill development, and building relationships. Volunteer experiences can help people learn new skills, improve their work ethic, and build social networks. Volunteering can also lead to new opportunities, such as finding a new job or becoming more involved in a community.
 The intangible benefits of volunteering are increased self-awareness, civic engagement, and COMPASS skills. Volunteering can help people learn more about themselves and their community. Furthermore, volunteering can lead to personal growth and development, such as increased empathy and compassion. Additionally, volunteering can increase one's knowledge and understanding of different topics, which can help them in their career or other areas of life.
 Overall, the tangible and intangible benefits of volunteering are significant. Many people find the benefits of volunteering to be worth the time and effort required to participate.</v>
       </c>
-      <c r="B400" t="str" xml:space="preserve">
-        <v xml:space="preserve">Volontärarbete ger många praktiska och immateriella vinster.
-De mer konkreta fördelarna med volontärarbete kan inkludera att hjälpa andra människor, att förbättra ens egna färdigheter, bygga personliga förhållanden och att ha kul. De immateriella fördelarna med volontärarbete kan inkludera ökad självmedvetenhet, medborgardelta-gande och COMPASS-kunnande.
-De vanligaste mer faktiska fördelarna med volontärarbete är att hjälpa andra människor, utveckla praktiska färdigheter och att bygga förhållanden. Volontärupplevelser kan hjälpa människor att lära sig nya färdigheter, förbättra deras arbetsmoral och bygga sociala nätverk. Volontärverksamhet kan också leda till nya möjligheter, till exempel att hitta ett nytt jobb eller att bli mer engagerad i en gemenskap.
-De immateriella fördelarna med volontärarbete är ökad jagmed-vetenhet, medborgerligt deltagande och COMPASS-kunskaper. Volontärarbete kan hjälpa människor att lära sig mer om sig själva och deras gemenskap. Dessutom kan volontärarbete leda till personlig tillväxt och utveckling, till exempel ökad empati och medkänsla. Dessutom kan volontärarbete öka någon kunskap och förståelse för olika ämnen, vilket kan hjälpa dem i deras karriär eller andra områden i livet.
-Överlag är de mer konkreta och de immateriella fördelarna med volontärarbete stora. många människor finner det att fördelarna med volontärarbete är värt den tid och ansträngning som krävs för att delta.
-</v>
-      </c>
-      <c r="C400">
-        <v>1140</v>
-      </c>
-    </row>
-    <row r="401" xml:space="preserve">
-      <c r="A401" t="str" xml:space="preserve">
+    </row>
+    <row r="553">
+      <c r="A553" t="str">
+        <v>Abraham Lincoln, commander in chief of the United States armed forces, and Edwin M. Stanton, Secretary of War, were themselves parties to the attempted arrest, trial and conviction of an American citizen by a military tribunal in the presence of a civil court, in spite of the fact that the enforcement of justice by civil courts was not then impossible. Judge Advocate Holt, in his history of military justice, makes the point that "the Supreme Court in this instance, could hardly have been carried away by any over-zeal for the maintenance of constitutional rights. The judges were all men of experience; men who had passed through the Civil War or the war with Mexico, and two of them by bitter experience in the Northern prisons had had the best education for understanding the difficulties which confront the commander of a military force struggling for existence against armed and organized resistance. Moreover, the first army commander who had encouraged the military commissions in the South on this same ground of necessity had just weeks before been tried and condemned by a military commission for murder. If Judge Advocate Holt's view is correct, the men who were tried in the Milligan case had much less excuse for their conduct than did General Butler</v>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="str">
+        <v>There are many golden things one may find at an age when most people have had the time and wisdom accumulated through decades of study to look around; there is much beauty left for them even if their bodies can't move as fluidly as those belonging to younger generations do so well right now which include loving feelings that come forth again after finding out how precious each moment might be during senior years along with living while cherishing whatever small things turn up unexpectedly every day despite its simplicity instead of crying over spilled milk simply caused by temporary failures back then since it's never too late once we feel optimistic about what lies ahead whatsoever whether pleasant or unpleasant from beginning until the end regardless who else feel contented everyday despite mistakes made throughout journeys within past seasons before eventually calming down due having tons more responsibilities than usual either way on account(in part)to different relationships for instance intimate ones leading to marriage including parents giving birth multiple times following extramarital affairs ending up conflicting constantly meaning old people aren’t regarded very highly these days whereas some elderly individuals get treated worse off (when compared against young folks) due(in part)to different relationships for example intimate ones leading to marriage so we don't have to deal with their own parents or kids getting involved figuratively from now on.</v>
+      </c>
+    </row>
+    <row r="555" xml:space="preserve">
+      <c r="A555" t="str" xml:space="preserve">
+        <v xml:space="preserve">Time is the most important factor in our lives. It has the ability to define everything from our daily rituals to our futures. Time is also a precious commodity, which we use to make decisions that have an impact on the rest of our lives.
+Without time, we would not be able to do things such as learn new things, experience new cultures, or grow old. Time is also used to measure how far we have come and how much work still needs to be done. In some ways, time is like a life raft that allows us to cross over into the future and explore different opportunities while avoiding potential dangers along the way.
+ thefts, robberies, and murders often occur due to lack of time. For example, if someone is prevented from robbing a bank in 15 minutes, they will likely rob another bank in 45 minutes or even 1 hour. To prevent these sorts of crimes from happening, it is important for criminals to have enough time to plan their attack and pull off their robbery successfully.
+In addition, time is also necessary for other activities such as studying, doing homework, and working on projects. Without enough time, these activities may not be possible. For example, if I study for an exam for hours every night and try my best to stay awake during class, I may not be able to achieve the level of success I want because I would need more time than usual to complete the exam.
+On the other hand, if I am able to relax and sleep for 8 hours every night after studying for hours today, I will likely achieve a similar level of success as if I studied for 6 hours today. This illustrates how important time is in our lives – by taking advantage of its abilities we can achieve our goals without having too much trouble.</v>
+      </c>
+    </row>
+    <row r="556" xml:space="preserve">
+      <c r="A556" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+The Catcher in the Rye is a book that I absolutely loved. I think that it is a book that is about how a young boy named Holden Caulfield feels about his life. Holden is a young boy who is live in a small town in New England. He is a young boy who is feeling very alone and lost. Holden Caulfield is feeling very lonely and lost.</v>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="str">
+        <v>Social media has become an important part of education. It allows students to connect with each other and share ideas, experiences, and thoughts. Additionally, social media can offer educators a way to measure student engagement and improve teaching techniques. Social media also plays an important role in creating a community for educators, which can help increase their understanding of their students and help them better teach. In addition, social media can be used to promote specific content or courses, which can improve the learning experience for students. Overall, social media has been a powerful tool for educators and has helped them improve their teaching skills as well as their students’ engagement.</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="str">
+        <v>However, there are a few things that businesses need to consider when using social media. The first is that social media can be valuable but can also be risky. For example, if a business doesn’t take enough precautions to ensure their content is accurate or promotional, they may risk losing customer trust and/or respect. Additionally, it’s important that businesses aren’t too dismissive of people who use social media. Sometimes people use social media as a form of communication and outreach, which is valuable. Finally, businesses should make sure they are providing value and fulfilling their commitments on social media. If they don’t, their users may end up cutting them out of their lives.</v>
+      </c>
+    </row>
+    <row r="559" xml:space="preserve">
+      <c r="A559" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+Technology has had a major impact on society in many ways. For one, it has made it easier to connect with others, share information, and store information. It has also allowed people to work and communicate more freely. Additionally, technology has made it easier to find and use information.</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:C559"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>source_language</v>
+      </c>
+      <c r="B1" t="str">
+        <v>target_language</v>
+      </c>
+      <c r="C1" t="str">
+        <v>total_tokens</v>
+      </c>
+    </row>
+    <row r="2" xml:space="preserve">
+      <c r="A2" t="str">
+        <v>Well, yeah. At a certain point, you've got to be really honest with yourself. Like, 'Why am I doing this? What are my motivations?' Like, if you get into it because you want to be famous? Then you've got a long row to hoe. But if you really feel like it's a labour of love and it's something you're actually legitimately good at, then it's not that hard to keep plugging away.</v>
+      </c>
+      <c r="B2" t="str" xml:space="preserve">
+        <v xml:space="preserve">Well, yeah. At a certain point, you've got to be really honest with yourself. Like, 'Why am I doing this? What are my motivations?' Like, if you get into it because you want to be famous? Then you've got a long row to hoe. But if you really feel like it's a labour of love and it's something you're actually legitimately good at, then it's not that hard to keep plugging away.
+Jag tycker verkligen om dig!
+</v>
+      </c>
+      <c r="C2">
+        <v>133</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:C2"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C97"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>source_language</v>
+      </c>
+      <c r="B1" t="str">
+        <v>target_language</v>
+      </c>
+      <c r="C1" t="str">
+        <v>total_tokens</v>
+      </c>
+    </row>
+    <row r="2" xml:space="preserve">
+      <c r="A2" t="str">
+        <v>We do have food; however, I am currently unsure concerning the variety that would appease your appetite at this present point in our dialogue together while enjoying ourselves within each other's company here on Earth on our glorious planet that orbits around a star found within one galaxy of potentially infinite galaxies inhabited by extreme possibilities surrounding all manifestations and idea(s)</v>
+      </c>
+      <c r="B2" t="str" xml:space="preserve">
+        <v xml:space="preserve">Vi har föda; emellertid, jag är för närvarande osäker när det gäller att varierade att lockande din aptit vid denna tidpunkt i vår dialog tillsammans, medan att njuta av varandra i företaget här på jorden på vår härliga planet som kretsar runt en stjärna som finns i en galax av potentiellt oändligt galaxer bebodda av extrem möjligheter omgivande alla manifestationer och idé (erna)
+</v>
+      </c>
+      <c r="C2">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="3" xml:space="preserve">
+      <c r="A3" t="str">
+        <v>I'm the most inappropriate dad. I curse in front of my kids and their friends. I let my kids watch R-rated movies. I'll walk by the movie theater and say, 'Let's go see that,' and my kids will say, 'No, it's rated R. It's not appropriate for kids.' I'm like Uncle Dad. We have fun. I don't live with them, but I drive over four days a week.</v>
+      </c>
+      <c r="B3" t="str" xml:space="preserve">
+        <v xml:space="preserve">Jag är den mest opassande pappa. Jag svär framför mina barn och deras vänner. Jag låter mina barn titta på filmer som är översatta till det R-betyget. Jag kommer att gå förbi filmstaden och säga: "Låt oss gå och se det", och mina barn kommer att säga: "Nej, det är betygsatt R. Det är inte lämpligt för barn. Jag är som farbror far. Vi har roligt. Jag bor inte med dem, men jag kör över fyra dagar i veckan.
+</v>
+      </c>
+      <c r="C3">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="4" xml:space="preserve">
+      <c r="A4" t="str">
+        <v>Each company we are engaged in has a dedicated business team, consisting of our board representatives in the company and investment professionals at Investor. The business teams build company knowledge, benchmark versus competition and evaluate corporate structures</v>
+      </c>
+      <c r="B4" t="str" xml:space="preserve">
+        <v xml:space="preserve">Varje företag vi är engagerade i har en dedikerad team, som består av våra styrelse representation i företaget och investering professionella på Investor. Affärsgrupperna bygger kunskap företag, jämföra mot konkurrensen och utvärdera företagsstrukturer
+</v>
+      </c>
+      <c r="C4">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="5" xml:space="preserve">
+      <c r="A5" t="str">
+        <v>If the thoughts are absolutely tranquil the heavenly heart can be seen. The heavenly heart lies between sun and moon (i.e. between the two eyes). It is the home of the inner light.  To make light circulate is the deepest and most wonderful secret.  The light is easy to move, but difficult to fix.  If it is made to circulate long enought, then it crystallizes itself;  that is the natural spirit body...</v>
+      </c>
+      <c r="B5" t="str" xml:space="preserve">
+        <v xml:space="preserve">If the thoughts are absolutely tranquil the heavenly heart can be seen. The heavenly heart lies between sun and moon (i.e. between the two eyes). It is the home of the inner light.  To make light circulate is the deepest and most wonderful secret.  The light is easy to move, but difficult to fix.  If it is made to circulate long enought, then it crystallizes itself;  that is the natural spirit body...
+Ge dina tankar total frid så skall du snart se ditt himmelska hjärta. Ditt himmelska hjärta ligger mellan sol och måne, det ligger mellan dina två ögon och är din inre ljusets hemort. Gör ljuset att gå runt världens största och mest intressanta hemlighet. Ljuset är lätt att röra, men svårt att stanna. Låt ljuset gå runt länge och ljuset kristalliserar och skapar ditt andliga skelett.
+</v>
+      </c>
+      <c r="C5">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="6" xml:space="preserve">
+      <c r="A6" t="str" xml:space="preserve">
         <v xml:space="preserve">
 I am working on an app that would allow users to track their food intake and create healthy meal plans. This would help people to stay on track with their diet and lose weight. The app would have a grocery list feature, so people could input what they're eating and the app would take care of the rest.</v>
       </c>
-      <c r="B401" t="str" xml:space="preserve">
+      <c r="B6" t="str" xml:space="preserve">
         <v xml:space="preserve">
-Jag jobbar med en app som skulle låta användare att följa sin matintag och skapa hälsosamma måltidsplaner. Detta skulle hjälpa människor att hålla sig till spåret med sin diet och gå ner i vikt. Appen skulle har en mata lista funktion, så att människor kan ange vad de äter och appen skulle ta hand om resten.
-</v>
-      </c>
-      <c r="C401">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="402" xml:space="preserve">
-      <c r="A402" t="str">
-        <v>I believe there is still space for assertiveness in these new post-truth times. Assertiveness is a communication style that respects the rights and needs of others while also protecting and promoting your own rights, needs, interests, or values. It’s considered a balance between passivity, where you don’t express yourself at all, and aggression, where you don’t care what anyone thinks – you just want your own way. When we are tolerant and respectful of the human rights and needs of others, we are able to build a common ground for understanding and for collaboration.</v>
-      </c>
-      <c r="B402" t="str" xml:space="preserve">
-        <v xml:space="preserve">Jag tror det fortfarande finns plats för säkerhet i dessa nya post-truth-tider. Att få säkerhet är en kommunikationstil som respekterar andras rättigheter och behov samtidigt som den skyddar och främjar dina egna rättigheter, behov, intressen eller värden. Det anses vara en balans mellan passivitet, där du inte uttrycker dig alls, och aggression, där du inte bryr dig om vad någon tänker - du vill bara ha din egen väg. När vi är toleranta och respektfulla för andras mänskliga rättigheter och behov är vi i stånd att bygga ett gemensamt grund för förståelse och samarbete.
-</v>
-      </c>
-      <c r="C402">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="403" xml:space="preserve">
-      <c r="A403" t="str">
-        <v>OK, so my parents were married in 1955 and my mom knew my dad was gay and my dad knew he was gay and so I was, like, 'Why in the heck did you get married?' Like, what was going on? What was that time? It's like this crazy paradox that my whole life is based on, or my family's based on. So I spent a lot of time trying to understand '55.</v>
-      </c>
-      <c r="B403" t="str" xml:space="preserve">
-        <v xml:space="preserve">OK, so my parents were married in 1955 and my mom knew my dad was gay and my dad knew he was gay and so I was, like, 'Why in the heck did you get married?' Like, what was going on? What was that time? It's like this crazy paradox that my whole life is based on, or my family's based on. So I spent a lot of time trying to understand '55.
-OK, så mina föräldrar gifte sig 1955 och min mamma visste drive mamma var bög och att pappa visste han var bög och så var jag, som, 'Varför i helvete kom du gifta mig?' Såsom, vad var det som hände? Vad var det för tid? det liknar denna galna paradoksen som mitt hela liv är baserat på, eller min familj är baserad på. Så jag spenderar a lot Mycket tid för att förstå '55.
-</v>
-      </c>
-      <c r="C403">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="404" xml:space="preserve">
-      <c r="A404" t="str">
-        <v>I'd do pretty much anything to get back on stage. I'd like to develop a new musical. I nearly had a heart attack when I heard that they're developing John Waters' Cry-Baby because that is so amazing and super and wonderful and I wish that I could be involved. But it's not the right time and I understand that. But I hear things like that and I get that little tingle in my stomach.</v>
-      </c>
-      <c r="B404" t="str" xml:space="preserve">
-        <v xml:space="preserve">Jag skulle göra vad som helst för att komma tillbaka på scenen. Jag skulle vilja utveckla en ny musikal. Nära på att jag fick en hjärtattack när jag hörde att de utvecklar John Waters "Cry-Baby " eftersom att det är så fantastiska och super och underbara och jag önska att jag kunde vara involverade. Men det är inte rätt tidpunkt och jag förstår det. Men jag hör sånt och jag får den lilla pirret i magen.
-</v>
-      </c>
-      <c r="C404">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="405" xml:space="preserve">
-      <c r="A405" t="str" xml:space="preserve">
-        <v xml:space="preserve">The Scopes trial of 1925 was one of the most significant events in American History. The trial was fought over the belief of creationism, or the belief that God created the universe and all that exists within it in its present form. The trial pitted science against religion and it was seen as a battle between the individual and the establishment.
-The trial began in Dayton, Tennessee on February 24th and ended on March 25th. The trial was presided over by John T. Scopes and it involved the trial of William Jennings Bryan, a well-known religious figure who was the most vocal opponent of creationism. Bryan was charged with breaking the Tennessee law against teaching evolution, which was seen by many as an attack on religious beliefs.
-The trial was a famous one and it had a large impact on American society. The outcome of the trial was controversial and it created a divide in the American public. The majority of the population believed in evolution and saw the trial as a battle between science and religion. However, there was a small group of people who believed in creationism and they saw the trial as a battle between good and evil.
-The trial was a significant event in American History because it created a divide in the American public. The majority of the population believed in evolution and saw the trial as a battle between science and religion. However, there was a small group of people who believed in creationism and they saw the trial as a battle between good and evil. The outcome of the trial was controversial and it created a divide in the American public. The majority of the population believed in evolution and saw the trial as a battle between science and religion. However, there was a small group of people who believed in creationism and they saw the trial as a battle between good and evil. The outcome of the trial was controversial and it created a divide in the American public. The majority of the population believed in evolution and saw the trial as a battle between science and religion. However, there was a small group of people who believed in creationism and they saw the trial as a battle between good and evil.</v>
-      </c>
-      <c r="B405" t="str" xml:space="preserve">
-        <v xml:space="preserve">Scopesrättegången av år 1925 var en av de viktigaste händelserna i amerikansk historia. Att rätten var utkämpad över tron på skapelseism, som troen att Gud skapade universum och allt som finns inom det i dess nuvarande form. Fältet sattes mot religionen och det sågs som en strid mellan individen och etablissemanget.
-Att rätten inleddes i Dayton, Tennessee mellan den 24 februari och den slutade 25 mars. Fältet var övervakade av John T. Scopes och det handlade om William Jennings Bryans rätt, en välkänd religiös figur som var det mest framträdande motståndaren av skapelseismen. Bryan anklagades för att bryta Tennessee lagarna mot att leva Framstegs dacht tro, vilket sågs av många som ett anfall på religiösa övertygelser.
-Att rätten var berömd och den hade en stor inverkan på amerikansk samhälle. Utfallet av fallet var kontroversiellt och det skapar en delning i den amerikanska allmänheten. de flesta invånarna trodde på evolution och såg dennes rättegång som en kamp mellan vetenskap och religion. Det fanns emellertid en liten grupp människor som trodde på skapelseism och de såg satt som en strid mellan gott och ont.
-Att rätten var en betydande händelse i amerikansk historia eftersom det skapade en delning i den amerikanska allmänheten. Majoriteten av den befolkningen i evolution och såg prospektet som en kamp mellan vetenskap och religion. Det var emellertid en liten grupp som frivilliga i det, som den såg som en strid mellan gott och ont.
-</v>
-      </c>
-      <c r="C405">
-        <v>1449</v>
-      </c>
-    </row>
-    <row r="406" xml:space="preserve">
-      <c r="A406" t="str" xml:space="preserve">
+Du kan spåra ditt energitillskott
+Jag jobbar på en app som skulle tillåta användare att spåra sitt näringsintag och skapa hälsosamma matvanor. Detta skulle hjälpa människor att vara på rätt väg med sin kost och gå ner i vikt. Appen skulle ha en inköpslistefunktion, så att människor skulle kunna ange vad de äter och appen skulle ta hand om resten.
+</v>
+      </c>
+      <c r="C6">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="7" xml:space="preserve">
+      <c r="A7" t="str" xml:space="preserve">
+        <v xml:space="preserve">The relationship between climate change and mental health is poorly understood. While increasing attention has been paid to the physical health consequences of climate change, few studies have examined the psychological adjustments that may be made by people in climate-affected areas. This study aimed to investigate the relationship between climate change and mental health in a dryland region of Kenya. Data were collected from 300 adults from 10 sites in Laikipia County, Kenya. Logistic regression model was employed to determine the association between future climate change and mental health. Significant associations were found between climate change-related variables, including lower nervous energy, poor appetite, and poor sleep quality, and the risk of psychological distress. 
+The findings suggest that the mental health impacts of climate change may be most severe in dryland regions. However, the results should be interpreted with caution due to the cross-sectional design. Additional studies are needed to confirm the findings, and to determine the mechanisms through which climate change impacts psychological distress.</v>
+      </c>
+      <c r="B7" t="str" xml:space="preserve">
+        <v xml:space="preserve">Klimatförändringar och mental hälsa är föga förstådda begrepp i varandras relationer. Det finns en ökad uppmärksamhet om de fysiskas hälsor de negativa konsekvenserna klimatförändringar medför, men få undersökningar har väntat sig om den psykiatriska påverkan människor i världen kan hälsas. Denna studie bedömmer relationen mellan klimatsförändringar och mänsklig hälsa i torkiga områden. Denna studie ha utforskats vid ett samhälle i Kenya som kallas Laikipia län. Statistik vara samlas upp från 300 unga vuxna som leva från 10 platser i Laikipia län. Logistic regressiomodellen har eftslitstätt för att se de korlationssvaga studiermellan klimatförändringar och mentala hälsoförsvåringar. Signifikanta överrgielser mellan klimatförändringar-kognirvande variabler, inkluderandes nerverosenergi, dåliga aptiter, och dlegeliga s-setmanna kvaliteter samt faran ned psykologiska skavanker. 
+The findings suggest that the mental health impacts of climate change may be most severe in dryland regions. However, the results should be interpreted with caution due to the cross-sectional design. Additional studies are needed to confirm the findings, and to determine the mechanisms through which climate change impacts psychological distress.
+</v>
+      </c>
+      <c r="C7">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="8" xml:space="preserve">
+      <c r="A8" t="str">
+        <v>Social media has become an important part of education. It allows students to connect with each other and share ideas, experiences, and thoughts. Additionally, social media can offer educators a way to measure student engagement and improve teaching techniques. Social media also plays an important role in creating a community for educators, which can help increase their understanding of their students and help them better teach. In addition, social media can be used to promote specific content or courses, which can improve the learning experience for students. Overall, social media has been a powerful tool for educators and has helped them improve their teaching skills as well as their students’ engagement.</v>
+      </c>
+      <c r="B8" t="str" xml:space="preserve">
+        <v xml:space="preserve">Sociala medier har blivit en viktig del av utbildningen.
+Det gör det möjligt för studenter att ansluta till varandra och dela idéer, erfarenheter och tankar.
+Dessutom kan sociala medier erbjuda lärare ett sätt att mäta studentengagemang och förbättra undervisningstekniker.
+Sociala medier spelar också en viktig roll i att skapa en gemenskap för lärare, vilket kan öka deras förståelse för sina elever och hjälpa dem att lära sig bättre. 
+Dessutom kan sociala medier användas för att marknadsföra specifikt innehåll eller kurser, vilket kan förbättra lärandet för studenter.
+Sammanfattningsvis har sociala medier varit ett kraftfullt verktyg för lärare och har hjälpt dem att förbättra sina undervisningskompetenser samt sina studenters engagemang.
+</v>
+      </c>
+      <c r="C8">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="9" xml:space="preserve">
+      <c r="A9" t="str" xml:space="preserve">
+        <v xml:space="preserve">There are many reasons why this change might happen. First, as businesses become aware of the value of having a diverse workforce, they are able to see the cost-benefit of increasing inclusion. This means that they can afford to invest in establishment of rules and procedures that benefit all employees regardless of sex. Second, businesses have been gradually realizing that successful organizations cannot only rely on hired workers alone; they also needokoaborforce members who can contribute both theory and practice. And finally, recent studies have shown thatreatedworkers fairly improves productivity for all employees (Snyder et al., 2006). Thus, adapting policies and procedures in order to meet the needs of transgender employees is becoming increasingly popular among business leaders.
+Although there are some challenges associated with implementing such policies, I believe that these efforts will result in massive improvements for both men and women working in the workplace. In fact, I predict that over time, we will see an even larger increase in women's representation within businesses - and this growth will be based largely on increased awareness and sensitivity towards minority groups within workplaces.</v>
+      </c>
+      <c r="B9" t="str" xml:space="preserve">
+        <v xml:space="preserve">Det finns många skäl till att detta förändring kan hända. Först, som näringsliv bli medvetna om värdet av att ha en diversifierad arbetskraft kan ställa sig, kan de se kostnad-nytta med ökad inclusiveness. Detta betyder att de som har råd att investera i utbyggnaden av regler och förfaranden som fördelar alla anställda oavsett kön. Andra, företag har gradvis inse att växande organisationer inte bara kan lita på antagna arbetstagare ensam, de behöver också needokoaborforce medlemmar kan bidra med både teori och praktik. Eftersom det är så, förtäljde Ford sin arbetskamrater i gemensamt företag i USA, Mexico, eller via Wikipedia arbetskamrater, när kön union är redan accepterad och bekräftade 1990. och äntligen, nyligen har studier visat att ratearbetstagare rättvist förbättrar produktivitet av all personal (Snyder et al.
+, 2006). På detta vis, anpassa politik och förfaranden för att uppfylla behoven hos transpersoner anställda blir allt mer populära bland företagsledare.
+Även om det finns utmaningar som är förknippade med att implementera sådana politiker tror jag att dessa ansträngningar kommer att leda till en massiv förbättring i både män och kvinnor i arbetet. Faktum är att jag förutser att över tiden kommer vi se ett ännu större ökning i kvinnors representation inom näringslivet, och denna tillväxt kommer att grundas till stor del på ökad medvetenhet och känslighet mot minoriteter i arbetsplatsen.
+</v>
+      </c>
+      <c r="C9">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="10" xml:space="preserve">
+      <c r="A10" t="str">
+        <v>The fan is made up of three parts: the motor, the blade, and the housing. The motor is plugged into an outlet, and the blade turns thanks to the power. The housing helps to keep everything in place, and it's easy to clean.</v>
+      </c>
+      <c r="B10" t="str" xml:space="preserve">
+        <v xml:space="preserve">Fläkten består av tre delar: motorn, bladet och huset. Motorn är ansluten till ett uttag och bladet snurrar tack vare strömmen. Huset hjälper till att hålla allt på plats och det är lätt att hålla rent.
+</v>
+      </c>
+      <c r="C10">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="11" xml:space="preserve">
+      <c r="A11" t="str">
+        <v>I was a 'Duck Hunt' and 'Mario' guy, and stuff like that. I was never technologically driven. I never had all the cool, new toys. I was the youngest child, I wasn't the only child, so I wasn't spoiled as a kid. And, we were on the farm, so we didn't have a lot. Also, with computers, I'm not very good with them. I just check my email.</v>
+      </c>
+      <c r="B11" t="str" xml:space="preserve">
+        <v xml:space="preserve">Jag var en 'duck hunt' och 'mario' kille, och sådant. Jag var aldrig tekniskt drevs. Jag hade aldrig alla de coola, nya leksaker. Jag var det yngsta barnet, jag inte var det enda barnet, så jag var inte förvrängd som ett barn. Och vi var på farmen, så vi hade inte allt. Även om datorer, jag är inte mycket bra på dem. Jag kollar mitt email.
+</v>
+      </c>
+      <c r="C11">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="12" xml:space="preserve">
+      <c r="A12" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+The Catcher in the Rye is a book that I absolutely loved. I think that it is a book that is about how a young boy named Holden Caulfield feels about his life. Holden is a young boy who is live in a small town in New England. He is a young boy who is feeling very alone and lost. Holden Caulfield is feeling very lonely and lost.</v>
+      </c>
+      <c r="B12" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+Hetfield i rye är en bok att jag absolut älskade. Jag tycker att det är en bok som är om hur en ung pojke vid namn Holden Caulfield känner om sitt liv. Holden är en ung pojke som är live i en liten stad i New England. Han är en ung pojke som känner sig mycket ensam och förlorade. Holden Caulfield känner sig mycket ensam och förlorad.
+</v>
+      </c>
+      <c r="C12">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="13" xml:space="preserve">
+      <c r="A13" t="str">
+        <v>The sun was setting as I reached the top of the hill. In front of me lay a small clearing with a pond in it, and on one side sat an old oak tree, while across from it stood a smaller fir. The loamy smell of earth filled my nose as I slowly made my way to the pond. I could see water lilies swaying in its surface; their pink petals contrasting against the murky green depths. With every step taken forward, chorus frogs croaked out their calls until they were drowned out by crickets chirping rhythmically in response. Once I had reached the edge of the pond, I took off my shoes and socks and waded into its cool waters up to my thighs before turning around so that i could look at everything surrounding me.</v>
+      </c>
+      <c r="B13" t="str" xml:space="preserve">
+        <v xml:space="preserve">The sun was setting as I reached the top of the hill. In front of me lay a small clearing with a pond in it, and on one side sat an old oak tree, while across from it stood a smaller fir. The loamy smell of earth filled my nose as I slowly made my way to the pond. I could see water lilies swaying in its surface; their pink petals contrasting against the murky green depths. With every step taken forward, chorus frogs croaked out their calls until they were drowned out by crickets chirping rhythmically in response. Once I had reached the edge of the pond, I took off my shoes and socks and waded into its cool waters up to my thighs before turning around so that i could look at everything surrounding me.
+Solnedgången när jag nådde toppen av en kulle. Framför mig låg en liten glänta med en damm i, och på en kant en gammal ek som satt , medan mitt emot det av större granen. Jord lukt fyllda min näsa under min långsamt gick till dammen. Jag kunde se vattenliljor svinga i sitt ytan; sina rosa kronblad kontrast mot mörkgröna djupet. Med varje steg tagit framåt , körgrenar grodan anropade till sitt rop tills de drunknade ut när tårtugglahoppa ping på kronologiskt sätt i respons. Så snart jag nått kanten av dammen, tog jag av mina skor och sockor och waded i kalla vatten till låren innan man vänder cirka så att jag kunde titta på alla som omgav mig.
+</v>
+      </c>
+      <c r="C13">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="14" xml:space="preserve">
+      <c r="A14" t="str">
+        <v>I share the belief of many of my contemporaries that the spiritual crisis pervading all spheres of Western industrial society can be remedied only by a change in our world view. We shall have to shift from the materialistic, dualistic belief that people and their environment are separate, toward a new consciousness of an all reality, which embraces the experiencing ego, a reality in which people feel their oneness with animate nature and all of creation.</v>
+      </c>
+      <c r="B14" t="str" xml:space="preserve">
+        <v xml:space="preserve">Just another file 
+I and all of my friends with whom I often gossip with are so much frustarted with the very scope of our daily life.
+It is a very big challenge which comes in the form of a discipline which helps us building a world view.
+We still strongly believe that all this stuf can be adequately solved by a change in the world view.
+We agree collectively that we need first to move from the definition that human evolution and nature evolution are two different things to a new and stronger belief wherein the human evolution and nature evolution are inter-dependent and inter-related factors in a very natural way that a human can co-evolve along with a nature.
+</v>
+      </c>
+      <c r="C14">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="15" xml:space="preserve">
+      <c r="A15" t="str">
+        <v>I mean the beauty of being a writer is it's not like being a swimmer. When they were talking about our Olympic swimmers and they'd say, 'Oh she's so old,' and she's all of 25 or something. So the beauty for a writer is that you can keep doing it right into your dotage, and I hope to be able to keep doing it as long as I can get away with it, yeah.</v>
+      </c>
+      <c r="B15" t="str" xml:space="preserve">
+        <v xml:space="preserve">jag vill så glad att skriva läsare hela tiden, tack. 
+</v>
+      </c>
+      <c r="C15">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="16" xml:space="preserve">
+      <c r="A16" t="str" xml:space="preserve">
         <v xml:space="preserve">
 I am creating a lightweight tool to help automate the process of finding and verifying software dependencies. The tool will be able to find and verify dependencies using a variety of methods, including but not limited to, command line options, API calls, and a comprehensive search engine. The tool will also be able to generate reports detailing the dependencies found and the status of each dependency.</v>
       </c>
-      <c r="B406" t="str" xml:space="preserve">
-        <v xml:space="preserve">english-version:
-I am creating a lightweight tool to help automate the process of finding and verifying software dependencies. The tool will be able to find and verify dependencies using a variety of methods, including but not limited to, command line options, API calls, and a comprehensive search engine. The tool will also be able to generate reports detailing the dependencies found and the status of each dependency.
-swedish-version:
-Jag skapar ett lättviktigt verktyg för att hjälpa till att automatisera processen att hitta och verifiera programvaru beroenden. Verktyget kommer att kunna hitta och verifiera beroenden använder en mängd olika metoder, bland annat men inte begränsat till, kommandoraden alternativ, API-anrop och en omfattande sökmotor. Verktyget kommer också att kunna generera rapporter som redogör för de beroenden hittas och status för varje beroende.
-</v>
-      </c>
-      <c r="C406">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="407" xml:space="preserve">
-      <c r="A407" t="str">
-        <v>The first thing I noticed about the man was his eyes. They were the color of the sky on a clear day, and they were filled with a sadness that I had never seen before. He was tall and thin, and his clothes were old and worn. He had a long beard and a mustache, and his hair was long and gray. He looked like a man who had been through a lot in his life.</v>
-      </c>
-      <c r="B407" t="str" xml:space="preserve">
-        <v xml:space="preserve">The first thing I noticed about the man was his eyes. They were the color of the sky on a clear day, and they were filled with a sadness that I had never seen before. He was tall and thin, and his clothes were old and worn. He had a long beard and a mustache, and his hair was long and gray. He looked like a man who had been through a lot in his life.
-Det första som jag märkte om man var hans ögon. De var färgen på himlen en klar dag, och de var fyllda med en sorg som jag aldrig sett förr. Han var lång och tunn, och hans kläder var gamla och slitna. Han hade en lång skägg och mustasch, och hans hår var långt och grått. Han såg ut som en man som hade varit igenom en hel del i sitt liv.
-</v>
-      </c>
-      <c r="C407">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="408" xml:space="preserve">
-      <c r="A408" t="str">
-        <v>Margaret Sullivan: I had been at a small newspaper in California. I started my career at an evening daily newspaper called The San Bernardino Sun. I went straight from there to The New York Times in 1981. So it was a huge—it was a big leap in many ways—a leap into cultural elitism and sophistication. It was a wonderful, wonderful place to work. It was a very exciting time to be there because we were growing. Our circulation at the time was about 1.1 million. We were a big paper then. It's half that now. But we were in a great building in Times Square, and it was just exciting and exhilarating as you can imagine.</v>
-      </c>
-      <c r="B408" t="str" xml:space="preserve">
-        <v xml:space="preserve">Margaret Sullivan, jag hade varit på en liten tidning i Kalifornien. Jag började min karriär som slutade daglig papper som heter The San Bernardino Sun. Jag gick direkt därifrån till New York Times 1981. Det var ett stort sprang i många avseenden, en förskjutning inom kulturell elitism och sofistikation. Det var en underbar, fantastiskt ställe att arbeta. Det var en mycket spännande tid att vara där för vi växte. Vårt upplag i nuvarande storlek är cirka 1,1 miljon. Vi var en stor pappersvaran då. Det är hälften av nu. Men vi var i ett stort inflytande på Times Square, och det var bara spännande och äventyr som man kan föreställa.
-</v>
-      </c>
-      <c r="C408">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="409" xml:space="preserve">
-      <c r="A409" t="str">
+      <c r="B16" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+Jag skapar ett lättviktigt verktyg för att hjälpa att automatisera processen att hitta och verifiera program- beroenden. Verktyget kommer att kunna hitta och verifiera beroenden med ett antal metoder, inklusive men inte begränsat till, kommandoradalternativ, API-anrop och ett omfattande sökmotor. Verktyget kommer också att kunna generera rapporter med information om de beroenden som hittats och statusen för varje beroende.
+</v>
+      </c>
+      <c r="C16">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="17" xml:space="preserve">
+      <c r="A17" t="str">
+        <v>There is one characteristic of the present direction of public opinion peculiarly calculated to make it intolerant of any marked demonstration of individuality. The general average of mankind are not only moderate in intellect, but also moderate in inclinations; they have no tastes or wishes strong enough to incline them to do anything unusual, and they consequently do not understand those who have, and class all such with the wild and intemperate who they are accustomed to look down upon.</v>
+      </c>
+      <c r="B17" t="str" xml:space="preserve">
+        <v xml:space="preserve">En märklig egenskap hos människor är att vi alla känner oss obekväma eller till och med främmande för vilda höjdpunkter. Genomsnittsmänniskans blick är formad av att vi hämtar massor med inspiration från vår omgivning. Våra känslor och dominanta personligheter, vår speciella upptäckt är omisskännliga och representerar alla våra nerver och förhållanden i vardagen.
+</v>
+      </c>
+      <c r="C17">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="18" xml:space="preserve">
+      <c r="A18" t="str">
+        <v>Love is the best feeling in the world. It's the best feeling when you're with someone you care about and you feel happy and content. Love is the best feeling when you're in a relationship and you're happy and you feel loved. Love is the best feeling when you're with someone who you think is the best for you.</v>
+      </c>
+      <c r="B18" t="str" xml:space="preserve">
+        <v xml:space="preserve">Kärlek är det bästa känslan i världen. Det är det bästa när du är samma person bär du dig om och du känner lyckligt och nöjda. Kärlek är det bästa när du är i en relation och du är nöjd och förlora känslan. Kärlek är det bästa när du är med någon som du tror är bäst för dig.
+</v>
+      </c>
+      <c r="C18">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="19" xml:space="preserve">
+      <c r="A19" t="str">
+        <v>When I arrived in New Zealand, I was cautious, tentative, nervous. The foreignness was profound and biting. In the North American West, I was used mountains, forests, rivers, and fields. I could feel at home in the familiar. In New Zealand, everything was foreign. Everything was unfamiliar. Every decision was new</v>
+      </c>
+      <c r="B19" t="str" xml:space="preserve">
+        <v xml:space="preserve">: When I arrived in New Zealand, I was cautious, tentative, nervous. The foreigness was profound and biting. In the North American West, I was use mountains, forests, rivers and fields. I could feel at home in the familiar. In New Zeland, everything was foreign. Everything was unfamiliar. Every desicion was new.
+Translate it into "Swedish".
+</v>
+      </c>
+      <c r="C19">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="20" xml:space="preserve">
+      <c r="A20" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+I was wondering if you could tell me how to make these math problems more interesting.</v>
+      </c>
+      <c r="B20" t="str" xml:space="preserve">
+        <v xml:space="preserve">Kan du berätta för mig hur jag ska göra detta mer matematiska problem intressant?
+</v>
+      </c>
+      <c r="C20">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="21" xml:space="preserve">
+      <c r="A21" t="str">
+        <v>It has always seemed strange to me... the things we admire in men, kindness and generosity, openness, honesty, understanding and feeling, are the concomitants of failure in our system. And those traits we detest, sharpness, greed, acquisitiveness, meanness, egotism and self-interest, are the traits of success. And while men admire the quality of the first they love the produce of the second.</v>
+      </c>
+      <c r="B21" t="str" xml:space="preserve">
+        <v xml:space="preserve">Det har alltid varit konstigt för mig... Saker vi beundrar hos en människa, vänlighet och generositet, öppenhet, ärlighet, förståelse och känsla, är ett samlande av misslyckande i våran situation. Och de här egenskaperna vi avsky, skärpa, girighet, ambisjon, egoism, är egenskaper som för våran situation framåt. Och medan mannen beundrar människan med de goda kvaliteterna så älskar han den produkt som mannen med de goda egenskaperna ger.
+</v>
+      </c>
+      <c r="C21">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="22" xml:space="preserve">
+      <c r="A22" t="str">
+        <v>A couple of months ago, I was down in Florida for the Food and Wine Festival. And this journalist grabbed me and said, 'How does it feel to be a TV guy? You're no longer in the restaurant business.' And I laughed. I asked him, 'How long do you think it takes me to do a season?' He said, 'Well, 200 days.' And I was like, '200 days? Try 20!'</v>
+      </c>
+      <c r="B22" t="str" xml:space="preserve">
+        <v xml:space="preserve">För några månader sedan var jag i Florida för Food and Wine Festival. Och den här journalisten tog fram mig och sa, "Hur känns det att vara en TV-kille? Du är inte längre i restaurantbusinessen ". Och jag skrattade. Jag frågade honom, "Hur lång tid tror du att det tar mig att göra en säsong?" Han sa, "Nja, 200 dagar." Och jag sa, "200 dagar? Prova 20!"
+</v>
+      </c>
+      <c r="C22">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="23" xml:space="preserve">
+      <c r="A23" t="str">
+        <v>I am a perfectionist but I know how to live life. When I'm working, it's 100%. When I'm with my friends, I put everything away and enjoy life. When I come home to my kids, it's pure joy and everything's worth it. Every time, I really focus 100 percent on one thing. I've learned how to juggle my life and I feel like now I have the perfect balance.</v>
+      </c>
+      <c r="B23" t="str" xml:space="preserve">
+        <v xml:space="preserve">Jag är en perfektionist men jag vet hur man levs. När jag arbetar, det är 100%. När jag är med mina vänner, jag har allting bort och njuta av livet. När jag kommer hem till mina barn, det är ren glädje och det är allting värt. Varje gång, ökar jag verkligen fokus 100 procent på en sak. Jag har lärt mig att lyssna på mitt liv och jag känner som nu har jag den perfekta balansen.
+</v>
+      </c>
+      <c r="C23">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="24" xml:space="preserve">
+      <c r="A24" t="str">
+        <v>I love women, but I feel like you can't trust some of them. Some of them are liars, you know? Like I was in the park and I met this girl, she was cute and she had a dog. And I went up to her, we started talking. She told me her dog's name. Then I said, 'Does he bite?' She said, 'No.' And I said, 'Oh yeah? Then how does he eat?' Liar.</v>
+      </c>
+      <c r="B24" t="str" xml:space="preserve">
+        <v xml:space="preserve">Jag älskar kvinnor, men jag känner som du inte kan lita på några av dem. Vissa är lögnare, du vet? Som jag var i parken och jag träffade den här tjejen, hon var söt och hon hade en hund. Och jag gick upp till henne, vi började prata. Hon berättade för mig hennes hunds namn. Sedan sa jag, Äter han bite? ' Hon sa, 'Ja.' Och jag sa: 'Åh, är det så? Då hur gör han äta?' Liar.
+A phrase from the American comedian Mitch Hedberg.
+</v>
+      </c>
+      <c r="C24">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="25" xml:space="preserve">
+      <c r="A25" t="str">
+        <v>Strive with thy thoughts unclean before they overpower thee.  Use them as they will thee, for if thou sparest them and they take root and grow, know well, these thoughts will overpower and kill thee.  Beware!  Suffer not their shadow to approach.  For it will grow, increase in size and power, and then this thing of darkness will absorb thy being before thou hast well realized the black foul monster's presence.</v>
+      </c>
+      <c r="B25" t="str" xml:space="preserve">
+        <v xml:space="preserve">Strive with thy thoughts unclean before they overpower thee.  Use them as they will thee, for if thou sparest them and they take root and grow, know well, these thoughts will overpower and kill thee.  Beware!  Suffer not their shadow to approach.  For it will grow, increase in size and power, and then this thing of darkness will absorb thy being before thou hast well realized the black foul monster's presence.
+If any one of you sects would tell me whither I am to go,' I should listen to you willingly, and I believe that I should go along with you.  But if any one tells me that I must bring my desires into conformity with a certain creed involving nonsense, chaos, and absurdity--why, I say, 'No!  That is not for me!'
+</v>
+      </c>
+      <c r="C25">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="26" xml:space="preserve">
+      <c r="A26" t="str">
+        <v>Hearing, seeing and understanding each other, humanity from one end of the earth to the other now lives simultaneously, omnipresent like a god thanks to its own creative ability. And, thanks to its victory over space and time, it would now be splendidly united for all time, if it were not confused again and again by that fatal delusion which causes humankind to keep on destroying this grandiose unity and to destroy itself with the same resources which gave it power over the elements.</v>
+      </c>
+      <c r="B26" t="str" xml:space="preserve">
+        <v xml:space="preserve">Broderna Le Nain: Kaninuppfödare 1642
+Att höra, se och förstå varandra, mänskligheten från ena änden till den andra jorden nu lever samtidigt, omvärlden som en gud tack vare sitt eget skapande förmåga. Och, tack vare sin seger över utrymme och tid alla tider, det skulle vara förtrollande förenade om det inte blanda upp om och om igen av vad som är det dödliga inbillningen som orsakar människosläktet att fortsätta att förstöra den storslagna föreningen och förstöra sig själv med samma resurser som gav dem makt över element.
+</v>
+      </c>
+      <c r="C26">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="27" xml:space="preserve">
+      <c r="A27" t="str" xml:space="preserve">
+        <v xml:space="preserve">Mental health is a complex topic that can be difficult to understand. However, one of the most important aspects of mental health is the ability to cope with emotions. Emotions are the way we experience the world and can impact our ability to think, feel, and do things.
+There are many different types of mental health problems. However, some of the most common mental health problems are:
+- Depression
+- Anxiety
+- Bipolar Disorder
+- obsessive-compulsive disorder
+- eating disorders
+- ADHD
+- posttraumatic stress disorder
+- substance abuse
+It is important to talk to a healthcare professional about your mental health if you have any of these problems. They may be able to help you find medication or therapy to help you feel better.</v>
+      </c>
+      <c r="B27" t="str" xml:space="preserve">
+        <v xml:space="preserve">Psykiska hälsan är ett komplext ämne som kan vara svårt förstå. Men, en av de viktigaste aspekterna av psykisk hälsa är förmågan att hantera känslor. Känslor är sättet vi upplever världen och kan påverka vår förmåga att tänka, känna och göra saker.
+There are many different types of mental health problems. Men, några av de vanligaste psykiska hälsoproblem är:
+- Depression
+- Anxiety
+- Bipolar Disorder
+- obsessive-compulsive disorder
+- eating disorders
+- ADHD
+- posttraumatic stress disorder
+- substance abuse
+It is important to talk to a healthcare professional about your mental health if you have any of these problems. They may be able to help you find medication or therapy to help you feel better.
+</v>
+      </c>
+      <c r="C27">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="28" xml:space="preserve">
+      <c r="A28" t="str">
+        <v>It’s been said that insanity is doing the same thing over and over again and expecting different results. In today’s world, this often describes our approach to finances. We go through cycles of spending more money than we have, then reducing expenditures when faced with tough times only to get back into a cycle of increased borrowing that eventually destroys whatever good progress has been made. Financial planning should not be viewed as rote repetition but instead as an ongoing discussion between you and your financial advisor; one in which realistic goals are set together with the necessary compromises so both parties can reach them satisfactorily.</v>
+      </c>
+      <c r="B28" t="str" xml:space="preserve">
+        <v xml:space="preserve">Din tjänsteman söker jobb
+=========================
+Det har sagts att galenskap är att göra samma sak om och om igen och förvänta sig olika resultat. I dagens värld, det här beskriver ofta vår tillvägagångssätt till finanser. Vi går igenom cykler av att spendera mer pengar, då minska utgifterna när man utsätts för svåra tider bara för att få tillbaka i en cykel av ökad upplåning som till slut förstör vad god framsteg har gjorts. Finansiell planering ska inte ses som enkel repetition men i stället som en pågående diskussion mellan dig och din finansiella rådgivare, en där realistiska mål är inställt tillsammans med de nödvändiga kompromisser så att båda parter kan nå dem tillfredsställande.
+Inte vittna
+=========================
+Underg?ng eller ej, just nu, på grund av antalet enheter, många människor har litet koll på sina finanser. Många, för en engångskostnad, bara kan hantera ibland. 1,000 $ utgifterna sparkade knappt deras räkningar, och visste att de var mycket nära att bli inbyggt. Finansiell rådgivare kan faktiskt upptäcka ett problem innan kunden gör det, men de behagade inte att säga något.
+"I dessa frågor, och verkligen i livet, om du vet vad du ska göra, du definitivt kommer inte att få bra återkoppling om du gör något tråkigt.".
+Du kan säkert [veta mer här](http://financialadvisorpaulbrown.tumblr.com/post/6921253949/the-danger-of-the-false-positive)
+![Financialadvisor](http://tumblr.paulbrownnlp.com/financialadvisor)
+</v>
+      </c>
+      <c r="C28">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="29" xml:space="preserve">
+      <c r="A29" t="str">
         <v>The young woman in the photograph is Misery. Her eyes are sunken, her face gaunt and drawn with embarrassment. She's wearing a shabby dress and an expression of utter hopelessness graces her features. While it's not clear who this woman is or where the photo was taken, they have left us one lasting reminder: that behind every beautiful smile lies pain and suffering.</v>
       </c>
-      <c r="B409" t="str" xml:space="preserve">
-        <v xml:space="preserve">Kvinnan i bilden är förtryckt. Hennes ögon är sunkiga, hennes ansikte
-slitet och utmattat. Hon har på sig en karakteristiskt eländig klänning
-och ett uttryck av slutobarmhärtig flathet pryde hennes genialitetsland
-features. Medan det är otydligt vem kvinnan är och var bilden togs på,
-har de lämnat oss en enda bestående påminnelse: att bakom varje
-vacker leende finns smärta och lidande. 
-The young woman in the photograph is Misery. Her eyes are sunken, her face gaunt and drawn with embarrassment. She's wearing a shabby dress and an expression of utter hopelessness graces her features. While it's not clear who this woman is or where the photo was taken, they have left us one lasting reminder: that behind every beautiful smile lies pain and suffering.
-</v>
-      </c>
-      <c r="C409">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="410" xml:space="preserve">
-      <c r="A410" t="str" xml:space="preserve">
+      <c r="B29" t="str" xml:space="preserve">
+        <v xml:space="preserve">Den unga kvinnan på fotot är Elendighet. Hennes ögon är insjunkna, hennes ansikte mager och ritade med skam. Hon bär en sliten klänning och ett uttryck av helt hopplöshet. Medan det inte är tydligt vem den här kvinnan är eller var fotot togs har de lämnat oss en bestående påminnelse: att bakom varje vacker leende ligger smärta och lidande.
+</v>
+      </c>
+      <c r="C29">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="30" xml:space="preserve">
+      <c r="A30" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+I implemented a project for a customer that required me to install a new counter top in their kitchen. I first measured the area where the counter top would be, and then drew out a grid on paper to help me plan the layout of the screws and drill holes for the counter top. I then collected all of the necessary materials, including the counter top, screws, drill, saw, and sandpaper. I began by drilling holes in the grid that I had prepared, and then screwed the counter top into place. I then used a sandpaper block to smooth out any bumps or areas that were not perfectly flush with the surface of the counter top. Finally, I completed the project by sawing off any excess counter top material, and then sanded it smooth once again.</v>
+      </c>
+      <c r="B30" t="str" xml:space="preserve">
+        <v xml:space="preserve">Jag utförde ett projekt för en kund som krävde att jag skulle installera en ny bänkskiva i deras kök. Jag mätte först området där bänkskivan skulle vara och ritade sedan ut en rutnät på papper för att hjälpa mig planera placeringen av skruvarna och borrhålen för bänkskivan. Jag samlade sedan in alla nödvändiga material, inklusive bänkskivan, skruvar, borr, så gott och sandpapper. Jag började med att borra hål i det rutnät som jag hade förberedt och sedan skruva fast bänkskivan på plats. Jag började sedan med att använda ett sandpappersblock för att jämna ut eventuella kullerstensbeten eller områden som inte var perfekt flytande med ytan på bänkskivan. Slutligen slutförde jag projektet genom att såga av eventuellt överflödigt skivmaterial och sedan slipade den jämn.
+</v>
+      </c>
+      <c r="C30">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="31" xml:space="preserve">
+      <c r="A31" t="str">
+        <v>To power sustainable global trade, creating shared &amp; sustainable value requires catering to the needs on both sides of a trading table, creating winners among both Buyers and Suppliers. The purpose of Kodiak Hub is to enable businesses to unlock and leverage value in their value chain with the help of state-of-the-art and user-friendly technology developed for people, by people, at the intersection of great design, user experience &amp; science.</v>
+      </c>
+      <c r="B31" t="str" xml:space="preserve">
+        <v xml:space="preserve">Att makt hållbara global ekonomi, skapande gemensamma och hållbara värde kräver bemöda sig till behoven på båda sidor av en handels tabell, skapar vinnare både köpare och leverantörer. Syftet Kodiak Hub är att ge företag att låsa upp och utnyttja värde i sin värdekedja med hjälp av state-of-the-art och användarvänlig teknik utvecklad för människor, av människor, i korsningen av stor design, användarupplevelse &amp; Science.
+</v>
+      </c>
+      <c r="C31">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="32" xml:space="preserve">
+      <c r="A32" t="str">
+        <v>The United Nations four or five years ago put out a study that said the meat industry, meat-eating, growing meat for food is the No. 1 killer of our planet - not No. 2 or No. 3: No 1. You know what's No. 2? Transportation. Everyone thinks that No. 1 is transportation, and goes out and buys a hybrid car. Screw the hybrid cars. Don't eat hamburgers.</v>
+      </c>
+      <c r="B32" t="str" xml:space="preserve">
+        <v xml:space="preserve">The United Nations four or five years ago put out a study that said the meat industry, meat-eating, growing meat for food is the No. 1 killer of our planet - not No. 2 or No. 3: No 1. You know what's No. 2? Transportation. Everyone thinks that No. 1 is transportation, and goes out and buys a hybrid car. Screw the hybrid cars. Don't eat hamburgers.
+För fyra eller fem år sedan utfärdade Förenta Nationerna ett undersökning där de sa att köttindustrin, äter kött producerade till livsmedel är den främsta mördaren på vår planet - inte nr 2 eller 3. Vad är nr 2? Tranportation. Alla tror att nr 1 är transporation och av den anledningen köper de hybridbilen för att rädda världen. Strunta i hybridbilen. Ät inte hamburgare.
+</v>
+      </c>
+      <c r="C32">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="33" xml:space="preserve">
+      <c r="A33" t="str">
+        <v>This book was amazing. I never expected it to be so good, but it was. The writing was great, the characters were well-drawn, and the plot was exciting. I would definitely recommend this book to anyone.</v>
+      </c>
+      <c r="B33" t="str" xml:space="preserve">
+        <v xml:space="preserve">Detta är amerikanska. Det här är ameriksnka.
+</v>
+      </c>
+      <c r="C33">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="34" xml:space="preserve">
+      <c r="A34" t="str">
+        <v>This whole business of Trade gives me to pause and think, as it constitutes false relations between men; inasmuch as I am prone to count myself relieved of any responsibility to behave well and nobly to that person who I pay with money, whereas if I had not that commodity, I should be put on my good behavior in all companies, and man would be a benefactor to man, as being himself his only certificate that he had a right to those aids and services which each asked of the other.</v>
+      </c>
+      <c r="B34" t="str" xml:space="preserve">
+        <v xml:space="preserve">Den hela affären av handel ger mig att tveka och tänka, eftersom den utgör falska förhållanden mellan människor, eftersom jag är benägen att räkna upp mig själv befriad från något ansvar för att bete sig väl och nobel till den person som jag betala med pengar, medan om jag inte hade den varan skulle jag sättas på min goda beteende i alla bolag och man skulle vara en gagnare till människan, som är sig själv sin enda certifikat att han hade rätt till de bidrag och tjänster som varje fråga om den andre.
+</v>
+      </c>
+      <c r="C34">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="35" xml:space="preserve">
+      <c r="A35" t="str">
+        <v>The Soul is made of consciousness and mind; it is made of life and vision.  It is made of the earth and the waters; it is made of air and space.  It is made of light and darkness; it is made of desire and peace.  It is made of anger and love; it is made of virtue and vice.  It is made of all that is near; it is made of all that is afar.  It is made of all.</v>
+      </c>
+      <c r="B35" t="str" xml:space="preserve">
+        <v xml:space="preserve">Själen är gjord av medvetande och intellekt; den är gjord av liv och insikt.
+Den är gjord av mark och vatten; den är gjord av luft och rymd.
+Den är gjord av ljus och mörker; den är gjord av begär och fred.
+Den är gjord av ilska och kärlek; den är gjord av dygd och felsteg.
+Den är gjord av allt som är nära; den är gjord av allt som är långt borta.
+Den är gjord av allt.
+</v>
+      </c>
+      <c r="C35">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="36" xml:space="preserve">
+      <c r="A36" t="str">
+        <v>In my research, I looked at the different ingredients in dietary supplements and how they can impact human health. Some of the ingredients in dietary supplements have been shown to have negative impacts on human health, like caffeine. Other ingredients, like vitamin C, may have positive impacts on human health. I also looked at how ingredient quality can be impacted by manufacturing processes. In particular, I examined whether supplements are manufactured using good manufacturing practices (GMPs), which would minimize the likelihood of harmful contaminants and ensure the quality of the ingredients.</v>
+      </c>
+      <c r="B36" t="str" xml:space="preserve">
+        <v xml:space="preserve">In my research, I looked at the different ingredients in dietary supplements and how they can impact human health. Some of the ingredients in dietary supplements have been shown to have negative impacts on human health, like caffeine. Other ingredients, like vitamin C, may have positive impacts on human health. I also looked at how ingredient quality can be impacted by manufacturing processes. In particular, I examined whether supplements are manufactured using good manufacturing practices (GMPs), which would minimize the likelihood of harmful contaminants and ensure the quality of the ingredients. 
+</v>
+      </c>
+      <c r="C36">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="37" xml:space="preserve">
+      <c r="A37" t="str" xml:space="preserve">
+        <v xml:space="preserve">In Lev Grossman's book, The Magicians, the protagonist Quentin Coldwater is a student at Brakebills University, where he studies magic. Quentin's journey to become a magus is met with many obstacles, but eventually he discovers the secret to becoming a great magician: hard work and dedication. Quentin's struggles are not unique to him, but are common to any person who desires to achieve something great.
+There are countless obstacles that must be overcome in order to become a great magician. The first and most important step is gaining an understanding of magic. This knowledge can be found in books or by studying with a professional. Once the basics of magic are understood, it is important to develop one's skill. This can be done by practicing regularly and learning from the best teachers. In addition, it is essential to have faith in oneself and never give up on one's dreams.
+Despite all these obstacles, any person can achieve greatness if they are willing to put in the work. Quentin Coldwater proves this point by his perseverance through difficult trials and tribulations. He never gives up on his dreams and always works hard toward his goals. In the end, Quentin Coldwater is a successful magus and his story shows that anyone can achieve greatness if they are willing to work hard for it.</v>
+      </c>
+      <c r="B37" t="str" xml:space="preserve">
+        <v xml:space="preserve">I Lev Grossmans bok Magikers så är huvudkaraktären qutenin Coldwater en elev på Brakebills universitet, där han studerar magi. Hans resa mot att bli en magiker står inför många hinder, men han lyckas till sist att upptäcka det hemliga till att bli en bra magiker, hårt arbete och hängivenhet. Han övervinner svårigheter som inte är unika för honom, men förekommer ofta för den som vill uppnå något bra.
+Det finns otaliga hinder som måste övervinna i en större skala för att kunna bli en bra magiker. De första och viktigaste stegen är att kunna följa instruktioner eller böcker om magi. Det är viktigt att fullfölja arbetet för att få kunskap om magi. Detta kan uppnås genom att regelbundet läsa och lära av böcker eller studera tillsammans med en professionell och små steg för steg processer. En gång när grunderna för magi uppnås. Sedan är det viktigt att utveckla sina färdigheter. Genom att att följa dessa steg och ticka av det man lärt sig, är man närmare att bli en magiker. Som en tillägg är det viktigt att ha tro på sig själv. När det blir svårt att ta steg för steg så är det viktigt att aldrig ge upp.
+Trots alla dessa hindranden, kan alla människor som har motivation övervinna dessa och uppnå det och utveckla dessa färdigheter. Quentin Coldwater visar prov på hans livsverk genom svårt prövningar och motgångar. Han ger aldrig upp allt han dröm om, men är alltid en hårt arbetare mot sina poängliga mål, när det gäller sitt arbete. I slutet, är Quentin Coldwater en framgångsrik magiker och han visar i sin resa, att det inte är svårt om man är villig att arbeta för det att uppnå hans resa och drömmar.  
+</v>
+      </c>
+      <c r="C37">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="38" xml:space="preserve">
+      <c r="A38" t="str">
+        <v>I definitely wanted to be an actor. I didn't want to be on TV, I didn't want to be famous, I didn't want to be anyone in particular I just wanted to do it. I see young people now who look at magazines, or American Idol and their goal is to have that lifestyle - to have good handbags, or go out with cute guys from shows, or whatever. But I definitely wanted to be an actor.</v>
+      </c>
+      <c r="B38" t="str" xml:space="preserve">
+        <v xml:space="preserve">Bork, bork, bork!
+</v>
+      </c>
+      <c r="C38">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="39" xml:space="preserve">
+      <c r="A39" t="str">
+        <v>The other day I got a text from a boy, but it wasn't hot. I mean, if you're going to text me every day, you haven't seen me for months and you're trying to seduce me, you'd better spice up that text and make it more exciting than 'How was your day? I hope you're having a beautiful one.' Sadly, I haven't been doing a lot of kissing lately.</v>
+      </c>
+      <c r="B39" t="str" xml:space="preserve">
+        <v xml:space="preserve">Förra helgen fick jag ett sms från en kille, men det var inte hett. Jag menar, om du ska smsa mig varje dag, inte ha sett mig på månader, och försöker seducerar mig, bättre skärpa upp den där smsingen och gör den mer spännande än "Hur har dit dag varit? Jag hoppas den har varit vacker." Tyvärr har jag inte gett mycket smekningar på sistone.
+</v>
+      </c>
+      <c r="C39">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="40" xml:space="preserve">
+      <c r="A40" t="str">
+        <v>Higher education has the unrivalled capacity to pursue and shape the values, knowledge, skills and research that are crucial to a society shifting to a low-carbon and safe future . . . The usual concerns of research and teaching excellence, competitive league tables, student and staff retention and so on now need to be put into the broader vision and goal of economic and social well-being nested in the imperative of planetary survival; and while there is still time to make a critical difference.</v>
+      </c>
+      <c r="B40" t="str" xml:space="preserve">
+        <v xml:space="preserve">Högre utbildning har obestritt kapacitet att jaga och forma de värderingar, kunskaper, färdigheter och forskning som är avgörande för ett samhälle som ställer om till en fossilfri och säker framtid .
+.
+.
+De vanliga oro av forskning och undervisning, tävlande ligorna, student- och personal tillhåll och så vidare nu behöver lagts in i den bredare visionen och målet om ekonomisk och social välbefinnande inästs i den angelägna jorden överlevnad, och medan det fortfarande finns tid att göra en kritisk skillnad.
+</v>
+      </c>
+      <c r="C40">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="41" xml:space="preserve">
+      <c r="A41" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+There is no one answer to this question as the relationship between religion and atheism can vary significantly depending on the individual. However, some basic points could be covered in regards to how Religion and Atheism interact. 
+First and foremost, there is a strong connection between atheism and skepticism. Skepticism is the belief that all physical objects, including gods and miracles, are illusion or Conjured up by someone's mind. Secondly, atheists often accuse religious people of being hypocritical for claiming to believe in something while engaging in immoral activities. Finally, atheists often feel that religion often uses fear and superstition to manipulate people. These accusations can create a divide between atheists and religious people who may see the relationship as positive.
+On the other hand, Religion does have a place in atheism. Many atheist groups exist both to argue against religion and also provide support for atheists who want to practice their own form of atheism without subscribing to any specific dogma. In addition, atheist leaders have made it clear that Atheism does not mean giving up our human rights or morals.</v>
+      </c>
+      <c r="B41" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+Det finns ingen enda svar på denna fråga då relationen mellan religiösa och ateister varierar avsevärt beror på det individuella!
+För det första och främst är det ett starkt samband mellan ateism och skepticism. Cynikern är uppfattningen att alla fysiska objekt, inklusive gudar och mirakel, är illusorisk eller konstruerat av någon ... sinnet. 
+Andra gången, framför allt kritiserar ateister religiösa människor att vara hycklande påstå att tro på något medan man sysslar med omoraliska aktiviteter. Därefter, Kännande ateister ofta att religionen ofta använder fruktan eller .
+Fördomar för att manipulera människor. Dessa anklagelser orsakar skillnaden mellan religiösa och ateistiska människor som kan ses i relationen som positiv.
+På andra sidan Religion och ateism påverka varandra, många ateistgrupper finns antingen att argumentera mot religion och också ge stöd till ateister som vill praktisera sin egen form av ateismen utan att påskriva utan speciella dogmer till. 
+I detta, religiösa ledare har gjort det klart att ateism är inte att ge upp våra etiska principer eller mänskliga rättigheter.
+</v>
+      </c>
+      <c r="C41">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="42" xml:space="preserve">
+      <c r="A42" t="str" xml:space="preserve">
+        <v xml:space="preserve">function (intervals) {
+  intervals.sort((a, b) =&gt; a[0] - b[0]);
+  let total = 0;
+  let highest = 0;
+  for (let i = 0; i &lt; intervals.length; i++) {
+    if (highest &lt;= intervals[i][0] || i === 0) {
+      total += intervals[i][1] - intervals[i][0];
+      highest = intervals[i][1];
+    } else if (highest &lt; intervals[i][1] &amp;&amp; highest &gt; intervals[i][0]) {
+      total += intervals[i][1] - highest;
+      highest = intervals[i][1];
+    }
+  }
+  return total;
+}</v>
+      </c>
+      <c r="B42" t="str" xml:space="preserve">
+        <v xml:space="preserve">function (intervals) {
+  intervals.sortera((a, b) =&gt; a[0] - b[0]);
+  let totalt = 0;
+  let stagsta = 0;
+  for (let i = 0; i &lt; intervals.length; i++) {
+    if (stagsta &lt;= intervals[i][0] || i === 0) {
+      totalt += intervals[i][1] - intervals[i][0];
+      stagsta = intervals[i][1];
+    } else if (stagsta &lt; intervals[i][1] &amp;&amp; stagsta &gt; intervals[i][0]) {
+      totalt += intervals[i][1] - stagsta;
+      stagsta = intervals[i][1];
+    }
+  }
+  return totalt;
+}
+</v>
+      </c>
+      <c r="C42">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="43" xml:space="preserve">
+      <c r="A43" t="str">
+        <v>To be considered successful, a business must have a long-term outlook, be able to generate consistent revenue, have a loyal customer base, and be able to make strategic decisions.</v>
+      </c>
+      <c r="B43" t="str" xml:space="preserve">
+        <v xml:space="preserve">En affärs verksamhet helt beroende på den kapacitet som det lyckas att få in och det krävs starka investeringar och improvisation.
+</v>
+      </c>
+      <c r="C43">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="44" xml:space="preserve">
+      <c r="A44" t="str" xml:space="preserve">
+        <v xml:space="preserve">The history of American advertising begins with the first ads created in the United States. These advertisements were meant to promote products and services, and they are some of the earliest examples of the use of advertising in America.
+Throughout the 1800s, Americans were interested in buying and using new technology, so advertisers began to create ads that featured things like machines, railways, and new clothing styles. They also savvy about how to reach their target audience, and so these ads were designed to be popular and persuasive.
+As technology changed and people became more interested in different aspects of their lives, American advertising changed as well. In the 1960s,american advertisers started to focus on printing ads instead of digital ones. This was because printed ads often had more impact than digital ones and could be seen by a wider audience.
+Through the years, American Advertising has continued to make a large impact on the way people live, work, and play. And it is without doubt one of the most important genres of advertising in modern times.</v>
+      </c>
+      <c r="B44" t="str" xml:space="preserve">
+        <v xml:space="preserve">The history of American advertising begins with the first ads created in the United States. These advertisements were meant to promote products and services, and they are some of the earliest examples of the use of advertising in America.
+Throughout the 1800s, Americans were interested in buying and using new technology, so advertisers began to create ads that featured things like machines, railways, and new clothing styles. They also savvy about how to reach their target audience, and so these ads were designed to be popular and persuasive.
+As technology changed and people became more interested in different aspects of their lives, American advertising changed as well. In the 1960s,american advertisers started to focus on printing ads instead of digital ones. This was because printed ads often had more impact than digital ones and could be seen by a wider audience.
+Through the years, American Advertising has continued to make a large impact on the way people live, work, and play. And it is without doubt one of the most important genres of advertising in modern times.
+Reklam historia börjar i Amerika första reklam. Dessa annonser var avsedda för att lansera produkter och tjänster , och de är några av de tidigaste exempel på användning av annonser i Amerika.
+ Under 1800 -talet, amerikanerna intresserade sig för att köpa och använda ny teknik, till annonsörer började att skapa annonser som har saker som maskiner , järnvägar och nya bekväma stilar. De var också omdömesgill om hur man når sin målgrupp , och då var dessa annonser att bli populära och övertygande.
+Som tekniken förändrats och människor blev mer intresserade av olika aspekter av sitt liv , amerikanska reklam förändrats . På 1960-talet, amerikanska annonsörer började att lägga fokus på reklamisering tryck istället för digitala . Detta var eftersom tryckta annonser ofta hade mer påverkan än digitala och kunde ses av en bredare publik.
+Genom de år amerikanska Advertising har fortsatt att göra en stor inverkan på hur människor lever, arbetar och spelar. Och det är utan tvekan en av de viktigaste genrerna i reklam i modern tid.
+</v>
+      </c>
+      <c r="C44">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="45" xml:space="preserve">
+      <c r="A45" t="str" xml:space="preserve">
+        <v xml:space="preserve">There are many benefits to exercise, both physically and mentally. Physical benefits include improved heart health, stronger muscles, reduced fat storage, and an increased ability to move more easily. Mental benefits include better concentration, reduced stress levels, and enhanced moods.
+Physical benefits of exercise include: 
+Improved heart health. Exercise has been shown to improve blood circulation and reduce the risk of heart disease by helping prevent the buildup of plaque on arteries walls. Additionally, regular exercise can help reduce the amount of fat around the midsection, which in turn can reduce the risk of heart disease and stroke.
+Stronger muscles. With regular exercise, you will build muscle tissue that can help you achieve greater strength and endurance when performing physical activity later on in life. This can help you avoid injuries and maintain your current level of physical fitness.
+Reduced fat storage. Exercising regularly can help to reduce the amount of bodyfat stored on your body, which can reduce the risk for obesity and other chronic diseases associated with excess bodyfat.
+Increased ability to move more easily. Regular exercise can also help you increase your mobility so that you are able to do everyday activities with less discomfort or difficulty. This may be particularly beneficial if you have arthritis or any other medical conditions that restrict your ability to move easily.
+Mental benefits of exercise include: 
+Better concentration. Exercise has been shown to improve cognitive function by increasing blood flow to the brain and reducing cortisol levels in the bloodstream. Cortisol is a hormone released during stressful situations that can adversely affect how we think and perform tasks. By reducing cortisol levels, exercise may help improve memory recall and focus while also reducing stress levels overall.
+Reduced stress levels. Exercise has been shown to decrease stress levels by releasing endorphins – hormones that protect the body against pain – in our brains. Endorphins are also responsible for producing positive feelings such as happiness and euphoria. Consequently, being stressed out while trying to workout may lead to negative effects such as fatigue, irritability, and increased anxiety levels. By doing mediation or deep breathing exercises before your workout, you can help ease into a state of relaxation before beginning your routine. This should result in improved mental clarity and energy during your workout session.
+Enhanced moods. Exercise has consistently been shown to improve moods by decreasing stress hormones like cortisol and elevating serotonin levels in the brain. Serotonin is a neurotransmitter responsible for regulating emotional reactions such as happiness, hunger, sleepiness, anxiety, depression, anger, and addiction behavior . Elevated serotonin levels may contribute to an improved sense of well-being after working out due to its role in managing emotions effectively .</v>
+      </c>
+      <c r="B45" t="str" xml:space="preserve">
+        <v xml:space="preserve">Det finns många fördelar att träna, både fysiskt och mentalt. De fysiska fördelarna inkluderar förbättrad hälsa, starkare muskler, reducerad fettlagring och en ökad förmåga att lättare röra sig. Mentals fördelar inkluderar bättre koncentration, reducerat stressnivåer, och förbättrade humör.
+De fysiska fördelarna med träning inkluderar:
+Förbättrad hjärt hälsa. Träning har visat sig förbättra blodcirkulationen och minska risken för hjärtsjukdomar genom att hjälpa till att förhindra tillväxten av plack på artärer väggar. Dessutom kan regelbunden träning reducera mängden fett runt midjan, vilket i sin tur kan minska risken för hjärt-och stroke.
+Fler stadiga muskler. Med regelbunden träning, kommer du att bygga muskelvävnad som kan hjälpa dig att uppnå större styrka och uthållighet under fysisk aktivitet senare i livet. Detta kan hjälpa dig att undvika skador och behålla din nuvarande nivå av fysisk form.
+Minimerad fettförvarinng. Exercising regelbundet kan hjälpa till att minska mängden kroppsfett lagras på din kropp, vilket kan minska risken för fetma och andra kroniska sjukdomar associerade med för mycket fett.
+Ökad förmåga att röra sig lättare. Regelbunden motion kan också hjälpa dig att öka din rörlighet så att du kan göra vardagliga aktiviteter med mindre obehag eller svårighet. Detta kan vara särskilt gynnsam om du har artros eller andra medicinska tillstånd som begränsar din förmåga att röra sig enkelt.
+Mentals fördelar med motion inkluderar: 
+Bättre koncentration. Motion har visat sig förbättra kognitiv funktion genom att öka blodflödet till hjärnan och minska kortisolnivån i blodomloppet. Kortisol är ett hormon som frigörs vid stresssituationer som kan påverka hur vi tänker och utför sysslor. Genom att minska nivån av kortisol, kan motion hjälpa till att förbättra hjärnorheten och fokusera samtidigt minskar även stressnivån totalt.
+Reduced stress levels. Exercise has been shown to decrease stress levels by releasing endorphins – hormones that protect the body against pain – in our brains. Endorphins are also responsible for producing positive feelings such as happiness and euphoria. Consequently, being stressed out while trying to workout may lead to negative effects such as fatigue, irritability, and increased anxiety levels. By doing mediation or deep breathing exercises before your workout, you can help ease into a state of relaxation before beginning your routine. This should result in improved mental clarity and energy during your workout session.
+Enhanced moods. Exercise has consistently been shown to improve moods by decreasing stress hormones like cortisol and elevating serotonin levels in the brain. Serotonin is a neurotransmitter responsible for regulating emotional reactions such as happiness, hunger, sleepiness, anxiety, depression, anger, and addiction behavior . Elevated serotonin levels may contribute to an improved sense of well-being after working out due to its role in managing emotions effectively .
+</v>
+      </c>
+      <c r="C45">
+        <v>1761</v>
+      </c>
+    </row>
+    <row r="46" xml:space="preserve">
+      <c r="A46" t="str">
+        <v>1. Eat well. Our brains are 60 per cent fat, so we need the good kind of healthy fat—Omega 3—for our brain health. Other nutrients that help our brain include vitamin B, vitamin E, and foods like blueberries and broccoli. Foods like broccoli and blueberries are good for us, but they don’t taste like, say, a meatball sub with cheese fries. What can help is to think how quickly bad food makes us feel bad. It might take us an hour to eat a cheeseburger, but it will take our mood maybe only ten minutes to decline. If healthy food can take that long to digest, surely it is worth waiting for the positive effects? It has long been known how important diet is for physical health. But now there is evidence of how it can benefit our mood too. A study in Biological Psychiatry, for example, found that healthy dietary patterns that included foods like fish, fruit, and vegetables was associated with lower levels of depression.</v>
+      </c>
+      <c r="B46" t="str" xml:space="preserve">
+        <v xml:space="preserve">1. Ät bra. Våra hjärnor är 60 procent fett, så vi behöver den bra typ av hälsosamma fetter - Omega 3 -för vårt hjärnhälsa. Andra näringsämnen som hjälper vår hjärna, inklusive vitamin B , vitamin E och livsmedel som blåbär och broccoli. Livsmedel som broccoli och blåbär är bra för oss, men de smakar inte som, säg, en köttbullens sub med ostchips. Vad kan hjälpa är att tänka hur snabbt dåliga mat gör oss känner dåligt. Det kan ta oss en timme att äta en ostburgare, men det kommer att ta vårt humör kanske bara tio minuter att minska. Om hälsosam mat kan ta så lång tid att digestera, är det säkert värt att vänta på de positiva effekterna? Det har länge varit känt hur viktig kost är för fysisk hälsa. Men nu finns det bevis för hur det kan förbättra vår sinnesstämning också. En studie i Biological Psychiatry, till exempel, visade att hälsosamma matmönster som inkluderade mat som fisk, frukt och grönsaker var förknippad med lägre depressionnivåer.
+https://www.lifehack.org/articles/communication/13-foods-healthy-brain.html
+</v>
+      </c>
+      <c r="C46">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="47" xml:space="preserve">
+      <c r="A47" t="str">
+        <v>I hope you're doing well! I wanted to reach out and see if you are available for a meeting in the next few weeks. My company is looking for someone with your skillset, and I thought it would be beneficial to get a face-to-face conversation started. Let me know if that sounds like something you'd be interested in - thanks!</v>
+      </c>
+      <c r="B47" t="str" xml:space="preserve">
+        <v xml:space="preserve">Jag hoppash du har det bra.
+Jag har valt att nalkasa dig, eftersom jag vill ta er motet i narmsta framtid.
+Min noggranhet med den langsiktiga planen for dig kunna komma till fornarna.
+Var vant att avvakta ditt svar.
+</v>
+      </c>
+      <c r="C47">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="48" xml:space="preserve">
+      <c r="A48" t="str">
+        <v xml:space="preserve"> There is a problem with the way that the website is handling user input. When someone tries to enter text into a text field, the website often doesn't allow them to continue typing because it instead automatically inserts a space. This results in the person being unable to submit their form.</v>
+      </c>
+      <c r="B48" t="str" xml:space="preserve">
+        <v xml:space="preserve"> det finns ett problem med den sätt att webbplatsen hanterar användarinmatning. När någon försöker skriva in text i ett textfält, webbplatsen ofta tillåter inte dem att fortsätta att skriva eftersom det i stället automatiskt infogar ett mellanrum. Detta leder till den person som inte kan lämna in sitt formulär.
+</v>
+      </c>
+      <c r="C48">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="49" xml:space="preserve">
+      <c r="A49" t="str">
+        <v>The author briefly explains the customs in Antigua and Barbuda before delving into the novel's themes. He portrays these cultures as distinctly Caribbean, with vibrant rhythms and rich traditions that have been maintained for centuries. The story follows twin sisters who are torn apart by their parents' decision to send one of them away to be educated in America; upon her return home, she discovers a drastically different country than when she left. In spite of this turmoil, the sister reconnects with old friends and finds love again - ultimately indicating that even exile can bring about forgiveness and hope.</v>
+      </c>
+      <c r="B49" t="str" xml:space="preserve">
+        <v xml:space="preserve">The author briefly explains the customs in Antigua and Barbuda before delving into the novel's themes. He portrays these cultures as distinctly Caribbean, with vibrant rhythms and rich traditions that have been maintained for centuries. The story follows twin sisters who are torn apart by their parents' decision to send one of them away to be educated in America; upon her return home, she discovers a drastically different country than when she left. In spite of this turmoil, the sister reconnects with old friends and finds love again - ultimately indicating that even exile can bring about forgiveness and hope.
+Författaren förklarar kort bruket i Antigua och Barbuda innan han borrar in sig i romanens teman.
+Han målar dessa kulturer som distinkt karibiskt, med vibrerande rytmer och rika traditioner som har behållits av århundraden.
+Berättelsen följer tvillingar som skiljs från huvudet till tå med deras föräldrars beslut att skicka en av dem bort för att studera i USA, när hon kommer tillbaka hem upptäcker hon en drastiskt annorlunda länder än när hon lämnade.
+I trots av detta oro återupprättar systern förbindelser med gamla vänner och hittar kärlek igen, slutligen visar att även bosättning kan ge försoning och hopp.
+</v>
+      </c>
+      <c r="C49">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="50" xml:space="preserve">
+      <c r="A50" t="str">
+        <v>The Nameless is the origin of Heaven and Earth; The Named is the mother of all things.  Therefore let there always be non-being  so we may see their subtlety, And let there always be being so we may see their outcome.  The two are the same, But after they are produced, they have different names.  They both may be called deep and profound.  Deeper and more profound, The door of all subtleties!</v>
+      </c>
+      <c r="B50" t="str" xml:space="preserve">
+        <v xml:space="preserve">The Nameless is the origin of Heaven and Earth; The Named is the mother of all things.  Therefore let there always be non-being  so we may see their subtlety, And let there always be being so we may see their outcome.  The two are the same, But after they are produced, they have different names.  They both may be called deep and profound.  Deeper and more profound, The door of all subtleties!
+Den Namnlöse är ursprunget till himmel och jord;
+Den Namngivna är moder till allt.
+Därför må det alltid finnas ej varande
+så vi kan se dess subtilitet,
+Och må det alltid finnas varande
+tills vi kan se dess resultat. 
+De är båda lika,
+Men efter att de producerats får de olika namn.
+De båda kan kallas djup.
+Djupare och mer djup,
+Dörren till alla subtiliteter!
+</v>
+      </c>
+      <c r="C50">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="51" xml:space="preserve">
+      <c r="A51" t="str">
+        <v>I went to my dad when I was 17 and said, 'I want to be a country music star.' Which every dad loves to hear. And he said, 'I want you to go to college.' So we had a discussion. And I'm pretty stubborn. I'm a lot like him. And he said, 'If you go to college and graduate, I'll pay your first six months of rent in Nashville.' So he bribed me.</v>
+      </c>
+      <c r="B51" t="str" xml:space="preserve">
+        <v xml:space="preserve">Jag gick till min far när jag var 17 år och sa, 'Jag vill vara en landsmusikstjärna.
+' Som varje far älskar att höra.
+Och han sa: 'Jag vill att du ska gå i skola.' Så vi hade en diskussion.
+Och jag är ganska envis.
+Jag är mycket som honom.
+Och han sa, 'Om du går i skola och examen, så kommer jag att betala din första halvår i Nashville.' Så han mutade mig.
+</v>
+      </c>
+      <c r="C51">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="52" xml:space="preserve">
+      <c r="A52" t="str">
+        <v>WELL, I THINK LIKE I SAID IT IS NOT EXACTLY GOOD, BUT YOU CANNOT SAY THAT THE PEOPLE DON'T WANT JOB. YOU CANNOT SAY THAT THE PEOPLE DON'T WANT TO WORK. THE SYSTEM JUST HAD A PROBLEM. AND FOR THE FIRST TIME, SOMEBODY IS INTERESTED. IT'S A COMPLEX SITUATION. IT'S NOT ONLY U.S., IT'S GLOBAL, AND THERE IS OBVIOUSLY A REASON TO BE REACTIONARY.</v>
+      </c>
+      <c r="B52" t="str" xml:space="preserve">
+        <v xml:space="preserve">WELL, JAG TROR SOM JAG SA IT IS NOT EXACTLY GOOD, MEN DU KAN INTE SÄGA DE PEOPLES WANT som ATT JOB. DU KAN INTE SÄGA DE PEOPLES WANT ATT WORK. THE SYSTEM JUST HAD A PROBLEM. SÅ OCH FÖRSTA TIME, SOMEBODY IS INTERESTED. ÄR IT ' S A COMPLEX SITUATION. ÄR IT ' S INTE BARA U.S., DET' S GLOBAL, OCH DET ÄR UTVECKLADE A REASON ATT REACTIONARY. 
+</v>
+      </c>
+      <c r="C52">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="53" xml:space="preserve">
+      <c r="A53" t="str">
+        <v>Don’t let anyone tell you how much time you should spend working or how hard you should work. No one knows your circumstances or what matters most to you as much as you do—so no one else can make a judgement about your five-to-nine better than you can. Also, what feels like ‘work’ for one person may not feel like ‘work’ for another person: some people would rather spend seven hours a day on long country walks than two hours commuting into an office; some people want their careers because they enable them to pursue their passions while other people want nothing more than an uncomplicated pay cheque so that they can fund their passions outside of work; and some people want jobs because they want purpose while other people see jobs as nothing more than a means by which they can fund whatever else matters most in their lives (and could happily spend 20 hours a week working on these things rather than 40). Quantity doesn’t mean quality. Be ambitious about your own career—but don’t let the ambition get in the way of what matters most for you personally, about your life outside of work and about your mental health.</v>
+      </c>
+      <c r="B53" t="str" xml:space="preserve">
+        <v xml:space="preserve">Låt ingen berätta hur mycket tid du arbetar i arbetstid och hur hårt du jobbar. Ingen vet dina omständigheter eller vad som är viktigast för dig som det gör för dig - så ingen annan kan göra ett omdöme om ditt fem-till-nio bättre än du kan. Också, vad känns som 'arbete' för en person kan inte kännas som 'arbete' för en annan person: vissa människor skulle hellre spendera sju timmar om dagen på långa landsvägspromenader än två timmar som kör in i ett kontor; vissa människor vill ha sina karriärer eftersom de möjliggör att de kan uppnå sina passioner medan andra människor vill inget annat än en enkel lönsscheck så att de kan finansiera sina pass av arbetet; och vissa människor vill ha jobb eftersom de vill ha syfte medan andra människor ser jobb som inget annat än ett sätt som de kan finansiera vad som är viktigast i sina liv (och kan glatt spendera 20 timmar i veckan arbetar på dessa saker snarare än 40 ). Kvantitet betyder inte kvalitet. Vara ambition om din egen karriär - men låt inte ambitionen komma i vägen för vad som är viktigast för dig personligen, om ditt yrsel utanför arbetet och om din mentala hälsa.
+</v>
+      </c>
+      <c r="C53">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="54" xml:space="preserve">
+      <c r="A54" t="str">
+        <v>No man is an Island, entire of it self; every man is a piece of the Continent, a part of the main; if a clod be washed away by the sea, Europe is the less, as well as ifa promitory were, as well as if a manor of thy friends or of thine own were; any man's death diminishes me, because I am involved in Mankind; And therefore never send to know for whom the bell tolls; It tolls for thee.</v>
+      </c>
+      <c r="B54" t="str" xml:space="preserve">
+        <v xml:space="preserve">Swedish version
+Ingen är en ö, hel i sig själv varje man är en bit av fastlandet, en del av huvudet; om en klump vara borttvättas av havet, är Europa mindre, lika väl som om en från Sjokust, lika väl som om du äger eller en nevw vän äger; någon människas död förlorar mig, för jag är involverad i mänskligheten; och därför aldrig skicka att veta vem detta är död; det ringer för dig.
+</v>
+      </c>
+      <c r="C54">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="55" xml:space="preserve">
+      <c r="A55" t="str">
+        <v>I want to be happy and fulfilled. I believe that happiness and fulfillment are the key to a healthy life. I want to find a way to be happy and fulfilled without any extra work or stress. I want to find a way to be happy and fulfilled that is sustainable and equal to my own abilities and desires. I want to find a way to be happy and fulfilled that is possible for me to maintain and improve.</v>
+      </c>
+      <c r="B55" t="str" xml:space="preserve">
+        <v xml:space="preserve">&lt;p&gt;I want to be happy and fulfilled. I believe that happiness and fulfillment are the key to a healthy life. I want to find a way to be happy and fulfilled without any extra work or stress. I want to find a way to be happy and fulfilled that is sustainable and equal to my own abilities and desires. I want to find a way to be happy and fulfilled that is possible for me to maintain and improve.&lt;/p&gt;
+&lt;p&gt;Jag vill vara glad och tillfredsställd. Jag tror att lycka och tillfredsställelse är nyckeln till friskt liv. Jag vill hitta en väg att vara lycklig och tillfredsställd utan och extra arbete och stress. Jag vill hitta en väg att vara lycklig och tillfredsställd som är hållbart och lika med mina egna förmågor och efterfrågningar. Jag vill hitta en väg att vara glad och tillfredsställd att är möjligt för mig att underhålla och bli bättre.
+</v>
+      </c>
+      <c r="C55">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="56" xml:space="preserve">
+      <c r="A56" t="str">
+        <v>...But nature does not say that cats are more valuable than mice; nature makes no remark on the subject. She does not even say that the cat is enviable or the mouse pitiable. We think the cat superior because we have (or most of us have) a particular philosophy to the effect that life is better than death. But if the mouse were a German pessimist mouse, he might not think that the cat had beaten him at all. He might think he had beaten the cat by getting to the grave first.</v>
+      </c>
+      <c r="B56" t="str" xml:space="preserve">
+        <v xml:space="preserve">Naturen säger inte att katter är mer värd än möss; naturen gör ingen kommentar på området. Hon kan inte ens säga att katten är avundsvärd eller musen beklagansvärd. Vi tror att katten är bättre eftersom vi har (eller många av oss har) en speciell filosofi om att livet är bättre än döden. Men om musen var en tysk pessimistmus, kunde den inte tänka sig att katten vann. Den skulle kanske tänka sig att den slog katten att komma till graven först
+</v>
+      </c>
+      <c r="C56">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="57" xml:space="preserve">
+      <c r="A57" t="str" xml:space="preserve">
         <v xml:space="preserve">As humans, we are constantly seeking approval and understanding. We need people in our lives to tell us what is right and what is wrong, to validate our choices, and to love us without reservation. Being a good person allows us to feel connected to others around us, and makes life more fun. Here are five reasons why it is so important for everyone to be a good person:
 1. It can make you happier. When you find joy in your life, everything else seems much easier. People tend to achieve happiness when they have purpose and meaning in their lives. Good people can often remember happy memories while bad people forget very quickly. being a good person gives somebody else's happiness some focus, which makes them likely to stay positive throughout their day.
 2. It can help you make better decisions. Good decisions involve taking information into account, weighing the pros and cons of different options, and Imagining the future. The more time you spend thinking positively about yourself, the better chance you have of making sound judgement calls that lead to successful outcomes.
@@ -3546,166 +4494,607 @@
 4. It can make you happier than bad people. When somebody is behaving in an immoral or harmful way (e.g., by harming another person), it feels satisfying and like they're getting away with murder – in a way that good people never experience pleasure from anything they do! People who are good at living constructive meaningful lives generally have a much harder time feeling angry or resentful towards others than those who aren't so lucky (or who choose not to try). In fact, most research indicates that having such positive outlooks leads individuals to report lower levels of anger, stress, worry etc., compared with individuals with negative outlooks on themselves or on the world around them.
 5. It can help you get along with others.Everybody needs to feel accepted and liked at some point in their lives, no matter how popular or popularized that idea may be. Being kind-hearted and humble will do the trick – even if you don't receive a lot of compliments for it in your day-to-day life. People who are good people generally have better relationships than those who aren't. They typically understand and know how to communicate effectively, which allows them to build Trust faster than those who are not so inclined.</v>
       </c>
-      <c r="B410" t="str" xml:space="preserve">
-        <v xml:space="preserve">som människor, söker vi ständigt godkännande och förståelse. Vi behöver någon i våra liv som berättar för oss vad är rätt och vad som är fel, börja validerat våra val, och att älska oss+.
-</v>
-      </c>
-      <c r="C410">
-        <v>1288</v>
-      </c>
-    </row>
-    <row r="411" xml:space="preserve">
-      <c r="A411" t="str">
-        <v>This book was amazing. I never expected it to be so good, but it was. The writing was great, the characters were well-drawn, and the plot was exciting. I would definitely recommend this book to anyone.</v>
-      </c>
-      <c r="B411" t="str" xml:space="preserve">
-        <v xml:space="preserve">This book was amazing. I never expected it to be so good, but it was. The writing was great, the characters were well-drawn, and the plot was exciting. I would definitely recommend this book to anyone.
-Detta boken var otroligt. Jag hade aldrig väntat på att det skulle vara så bra, men det var. Språket var underbart, karaktärsdrogerningen var bra, och intrigen var spännande. Jag skulle definitivt rekommendera den här boken till någon.
-</v>
-      </c>
-      <c r="C411">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="412" xml:space="preserve">
-      <c r="A412" t="str">
-        <v>Since 'Idol' I've gotten used to having an amazing hair and make-up team around me, so I'm starting to get picky. I know what I like now and I'm happy to say 'Could we maybe change that?' if I don't like something. I don't yell or anything, but I think I could definitely start to act a little diva-ish when it comes to my look.</v>
-      </c>
-      <c r="B412" t="str" xml:space="preserve">
-        <v xml:space="preserve">Sen jag var med i Idol, har jag blivit van vid att ha en fantastiskt
-hår och smink team runt omkring mig. Därför börjar jag bli lite
-pyrig nu. Jag vet vad jag gillar och jag vill inte längre bara säga
-ja utan istället prova på olika saker och ibland är nog ja,
-nej. Jag skriker inte, men jag kan nog bli lite som en lite för
-stor diva när det kommer till min look.
-</v>
-      </c>
-      <c r="C412">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="413" xml:space="preserve">
-      <c r="A413" t="str" xml:space="preserve">
-        <v xml:space="preserve">As humans, we are constantly seeking approval and understanding. We need people in our lives to tell us what is right and what is wrong, to validate our choices, and to love us without reservation. Being a good person allows us to feel connected to others around us, and makes life more fun. Here are five reasons why it is so important for everyone to be a good person:
+      <c r="B57" t="str" xml:space="preserve">
+        <v xml:space="preserve">Som människor är vi ständigt på jakt efter beröm och förståelse. Vi behöver människor i våra liv för att berätta för oss vad som är rätt och vad som är fel, att validera våra val och att älska oss utan förbehåll. Att vara en bra person får oss att känna oss sammankopplade med andra runt omkring oss och gör livet mer roligt. Här är fem skäl varför det är så viktigt för alla att vara en bra person:
+1. Det kan göra dig gladare. När du hittar glädje i ditt liv är allt annat mycket lättare. Människor har tendens att uppnå lycka när de har syfte och mening i sina liv. Goda människor kan ofta minnas glada minnen medan onda människor glömmer väldigt fort. Att vara en god människa ger någon annans lycka lite fokus, vilket gör att den lättare stannar positiv under hela sin dag.
+2. Det kan hjälpa dig att ta bättre beslut. Positiva beslut involverar att beakta information, väga pro och kontra olika alternativ och föreställa sig framtiden. Desto längre tid du lägger på att tänka positivt om dig själv, desto bättre chans att du gör ljudinlägg för gott överlägg som leder till framgångsrika resultat.
+3. Det kan skydda dig från skada. Goda människor ses ofta som sänkningen mellan säkerhet och fara eftersom de tar extra försiktighetsåtgärder som att vara godhjärtad och hålla utkik efter andra, även om de inte alltid vet vad de gör. De lyssnar också noga när någon behöver hjälp, erbjuder stöd om möjligt eller vidtar åtgärder när något ont händer. Denna typ av beteende stärker relationer genom att försäkra andra medlemmar i samhället att någon kommer att hålla dem säkra oavsett vad - även om denna individ inte är särskilt social eller säker på sig själv.
+4. Det kan göra dig gladare än onda människor. När någon beter sig på ett omoraliskt eller skadligt sätt (t.ex. genom att skada en annan person) känns det tillfredsställande och som om de kommer undan med mordet - på ett sätt som gode män aldrig upplever nöjet från allt de gör! De som är gode på att leva konstruktiva meningsfulla liv har generellt en mycket svårare tid att känna ilska eller bitterhet mot andra än de Som tur inte har tur eller som väljer att inte försöka. Forskning visar snarare att fackförening har sådana positiva inställningar leder individer att rapportera lägre nivåer av ilska, stress, oro etc, jämfört med individer med negativa inställningar till sig själva eller till omvärlden runt dem.
+5. Det kan hjälpa dig att komma överens med andra. Alla behöver känna sig accepterade och önskade vid något tillfälle i sitt liv, oavsett hur populära
+As humans, we are constantly seeking approval and understanding. We need people in our lives to tell us what is right and what is wrong, to validate our choices, and to love us without reservation. Being a good person allows us to feel connected to others around us, and makes life more fun. Here are five reasons why it is so important for everyone to be a good person:
 1. It can make you happier. When you find joy in your life, everything else seems much easier. People tend to achieve happiness when they have purpose and meaning in their lives. Good people can often remember happy memories while bad people forget very quickly. being a good person gives somebody else's happiness some focus, which makes them likely to stay positive throughout their day.
 2. It can help you make better decisions. Good decisions involve taking information into account, weighing the pros and cons of different options, and Imagining the future. The more time you spend thinking positively about yourself, the better chance you have of making sound judgement calls that lead to successful outcomes.
 3. It can protect you from harm.Good people are frequently seen as the Buffer Between Safety and Danger because they take extra precautions such as being kind-hearted and watching out for others, even if they don't always know what they're doing. They also listen carefully when someone needs help, offer support if possible, or take action when something bad happens. This type of behavior strengthens relationships by reassuring other members of the community that someone will keep them safe no matter what – even if that individual isn't particularlyocial or safe-minded themselves!
 4. It can make you happier than bad people. When somebody is behaving in an immoral or harmful way (e.g., by harming another person), it feels satisfying and like they're getting away with murder – in a way that good people never experience pleasure from anything they do! People who are good at living constructive meaningful lives generally have a much harder time feeling angry or resentful towards others than those who aren't so lucky (or who choose not to try). In fact, most research indicates that having such positive outlooks leads individuals to report lower levels of anger, stress, worry etc., compared with individuals with negative outlooks on themselves or on the world around them.
-5. It can help you get along with others.Everybody needs to feel accepted and liked at some point in their lives, no matter how popular or popularized that idea may be. Being kind-hearted and humble will do the trick – even if you don't receive a lot of compliments for it in your day-to-day life. People who are good people generally have better relationships than those who aren't. They typically understand and know how to communicate effectively, which allows them to build Trust faster than those who are not so inclined.</v>
-      </c>
-      <c r="B413" t="str" xml:space="preserve">
-        <v xml:space="preserve">Som människor söker vi ständigt godkännande och förståelse. Vi behöver människor i våra liv för att berätta vad som är rätt och fel, att bekräfta våra val och att älska oss utan reserv. Att vara en bra person gör att vi kan känna oss förbindade med andra runt oss och gör livet trevligare
-Här är fem anledningar till varför det är så viktigt för alla att vara en bra människa
-1. Det kan göra dig gladare. När du är lycklig i ditt liv verkar allt mycket lättare. Människor tenderar att uppnå lycka när de har syfte och mening i livet. Bra människor kan ofta minnas glada minnen medan dåliga människor snabbt glömmer. att vara en bra person ger någon annans lycka tyngdpunkten, vilket gör att han eller hon troligtvis håller sig positiv hela dagen.
-2. Det kan hjälpa dig att fatta bättre beslut. Bra beslut innefattar att ta hänsyn till information, väga för- och nackdelar med olika alternativ och föreställa mig framtiden. Ju mer tid du investerar i att tänka positivt om dig själv, desto större chans har du att göra ljudet beslut som leder till framgångsrika resultat.
-3. Det kan skydda dig från skada. Goda människor ses ofta som bufferten mellan säkerhet och fara eftersom de tar ytterligare försiktighetsåtgärder som att vara godhjärtad och hålla utkik efter andra, även om de inte alltid vet vad de gör De lyssnar också noga när någon behöver hjälp, erbjuder stöd om möjligt eller agerar när något dåligt händer. Denna typ av beteende stärker relationer och tryggar andra medlemmar i samhället att någon kommer att hålla dem säkra oavsett vad - även om den enskilde inte ä
-4. It can make you happier than bad people. When somebody is behaving in an immoral or harmful way (e.g., by harming another person), it feels satisfying and like they're getting away with murder – in a way that good people never experience pleasure from anything they do! People who are good at living constructive meaningful lives generally have a much harder time feeling angry or resentful towards others than those who aren't so lucky (or who choose not to try). In fact, most research indicates that having such positive outlooks leads individuals to report lower levels of anger, stress, worry etc., compared with individuals with negative outlooks on themselves or on the world around them.
 5. It can help you get along with others.Everybody needs to feel accepted and liked at some point in their lives, no matter how popular or popularized that idea may be. Being kind-hearted and humble will do the trick – even if you don't receive a lot of compliments for it in your day-to-day life. People who are good people generally have better relationships than those who aren't. They typically understand and know how to communicate effectively, which allows them to build Trust faster than those who are not so inclined.
 </v>
       </c>
-      <c r="C413">
-        <v>1628</v>
-      </c>
-    </row>
-    <row r="414" xml:space="preserve">
-      <c r="A414" t="str">
-        <v>There is some literature that describes this phenomenon as self-victimization or the self-fulfilling prophecy.</v>
-      </c>
-      <c r="B414" t="str" xml:space="preserve">
-        <v xml:space="preserve">Det finns viss litteratur som beskriver detta fenomen som självförvållad offerkultur eller den själfförverkligande profetian.
-Det är en av orsakerna till varför människor hävdar att alarmerande mängder av barn blir könsuttrycksförvirrade och vill "transitionera". 
-</v>
-      </c>
-      <c r="C414">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="415" xml:space="preserve">
-      <c r="A415" t="str">
-        <v>Higher education has the unrivalled capacity to pursue and shape the values, knowledge, skills and research that are crucial to a society shifting to a low-carbon and safe future . . . The usual concerns of research and teaching excellence, competitive league tables, student and staff retention and so on now need to be put into the broader vision and goal of economic and social well-being nested in the imperative of planetary survival; and while there is still time to make a critical difference.</v>
-      </c>
-      <c r="B415" t="str" xml:space="preserve">
-        <v xml:space="preserve">Högre utbildning ensam har potentialen att förfölja och utforma värden, kunskaper, färdigheter och forskning som är viktiga för en samhällsförändring mot en låg koldioxid och säker framtid...
-Det vanliga bekymren av forskning och undervisning hög kvalité, tävlingsinriktade tidskriftslistor, studenter och personal retention and so on nu behöver stoppas in i den bredare vision och mål av ekonomisk och social välfärd som finns i planetens överlevnad; och när det ännu finns tid att göra en väsentlig skillnad.
-Higher education has the unrivalled capacity to pursue and shape the values, knowledge, skills and research that are crucial to a society shifting to a low-carbon and safe future . . .
-The usual concerns of research and teaching excellence, competitive league tables, student and staff retention and so on now need to be put into the broader vision and goal of economic and social well-being nested in the imperative of planetary survival; and while there is still time to make a critical difference.
-</v>
-      </c>
-      <c r="C415">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="416" xml:space="preserve">
-      <c r="A416" t="str">
+      <c r="C57">
+        <v>1694</v>
+      </c>
+    </row>
+    <row r="58" xml:space="preserve">
+      <c r="A58" t="str">
+        <v>Change begets change. Nothing propagates so fast. If a man habituated to a narrow circle of cares and pleasures, out of which he seldom travels, step beyond it, though for never so brief a space, his departure from the monotonous scene on which he has been an actor of importance would seem to be the signal for instant confusion.... The mine which Time has slowly dug beneath familiar objects is sprung in an instant; and what was rock before, becomes but sand and dust.</v>
+      </c>
+      <c r="B58" t="str" xml:space="preserve">
+        <v xml:space="preserve">Förändring föder förändring. Ingenting sprids så snabbt. Tänk dig en person som vana vid en smal krets av bekymmer och nöjen, som han sällan kommer bort ifrån, stiger utanför den, även om det bara är för ett ögonblick, hans avgång från den monotona scen han varit en viktig skildring av skulle kunna ses som signalen till en omedelbar förvirring.The mine which Time has slowly dug beneath familiar objects is sprung in an instant; and what was rock before, becomes but sand and dust.
+</v>
+      </c>
+      <c r="C58">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="59" xml:space="preserve">
+      <c r="A59" t="str">
+        <v>This policy of supplying, by opposite and rival interests, the defect of better motives, might be traced through the whole system of human affairs, private as well as public. We see it particularly displayed in all the subordinate distributions of power, where the constant aim is to divide and arrange the several offices in such a manner as that each may be a check on the other—that the private interest of every individual may be a sentinel over the public rights. These inventions of prudence cannot be less requisite in the distribution of the supreme powers of the State.</v>
+      </c>
+      <c r="B59" t="str" xml:space="preserve">
+        <v xml:space="preserve">Partiet som säkerställer, genom motsatt och onda intressen, optimering av bättre (motivet) skulle kunna analyseras i hela systemet av mänskliga affärer, privata lika väl som offentliga. Vi ser det framförallt utvärderat bland alla underordnade distributionscentra, där den konstanta målet är att dela och arrangera alla ämbeten på ett sådant sätt att alla riskerar att kontrollera varandra – så att den privata, individuella intressen av varje individ blir en skyddare av det allmännas rättigheter. Dessa uppfinningar av försiktighet kan inte vara mindre nödvändiga vid den allmänna maktdistribution.
+Källa, original: This policy of supplying, by opposite and rival interests, the defect of better motives, might be traced through the whole system of human affairs, private as well as public. We see it particularly displayed in all the subordinate distributions of power, where the constant aim is to divide and arrange the several offices in such a manner as that each may be a check on the other—that the private interest of every individual may be a sentinel over the public rights. These inventions of prudence cannot be less requisite in the distribution of the supreme powers of the State.
+</v>
+      </c>
+      <c r="C59">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="60" xml:space="preserve">
+      <c r="A60" t="str">
+        <v>Abraham Lincoln, commander in chief of the United States armed forces, and Edwin M. Stanton, Secretary of War, were themselves parties to the attempted arrest, trial and conviction of an American citizen by a military tribunal in the presence of a civil court, in spite of the fact that the enforcement of justice by civil courts was not then impossible. Judge Advocate Holt, in his history of military justice, makes the point that "the Supreme Court in this instance, could hardly have been carried away by any over-zeal for the maintenance of constitutional rights. The judges were all men of experience; men who had passed through the Civil War or the war with Mexico, and two of them by bitter experience in the Northern prisons had had the best education for understanding the difficulties which confront the commander of a military force struggling for existence against armed and organized resistance. Moreover, the first army commander who had encouraged the military commissions in the South on this same ground of necessity had just weeks before been tried and condemned by a military commission for murder. If Judge Advocate Holt's view is correct, the men who were tried in the Milligan case had much less excuse for their conduct than did General Butler</v>
+      </c>
+      <c r="B60" t="str" xml:space="preserve">
+        <v xml:space="preserve">Abraham Lincoln, gruppchef för Förenta staterna väpnade styrkor, och Edwin M. Stanton, försvarsminister, var själva deltagare i det misslyckade försöket att för arrestera, rättegång och dömas att en amerikansk medborgare av en militärdomstol i närvaro av en civil domstol, trots att statens rättsliga domstolar var vid den tiden inte möjlig. Judge Advocate Holt, i hans historia om militär rätt, tar in det faktum att "Supreme Court i detta fall, kunde knappast ha varit bort med något över-iver för rättsliga rättigheter. Domarna var alla män med erfarenhet, män som hade genomgått inbördeskriget eller kriget med Mexiko, och två av dem av hårt personlig erfarenhet och fängelser i Norden, hade haft bästa utbildning för att begripa svårigheter som befinner sig befälhavare en militär kraft strida för överlevnad mot beväpnade och organiserade motstånd. Dessutom var den första armén befälhavare som hade uppmuntrade det militära militära kommissioner i norr på denna samma sak av nödvändighet hade just veckor innan hade straffats och fördömd av en militär kommissionen för mord. Om Judge Advocate Holt synvinkel är korrekt, hade männen som har provats i Milligan fallet så mycket mindre ursäkt för sin beteende än general Butlers
+</v>
+      </c>
+      <c r="C60">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="61" xml:space="preserve">
+      <c r="A61" t="str">
+        <v>Furthermore, we believe that health care reform, again I said at the beginning of my remarks, that we sent the three pillars that the President's economic stabilization and job creation initiatives were education and innovation - innovation begins in the classroom - clean energy and climate, addressing the climate issues in an innovative way to keep us number one and competitive in the world with the new technology, and the third, first among equals I may say, is health care, health insurance reform.</v>
+      </c>
+      <c r="B61" t="str" xml:space="preserve">
+        <v xml:space="preserve">twtrdfytredyt
+</v>
+      </c>
+      <c r="C61">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="62" xml:space="preserve">
+      <c r="A62" t="str">
         <v>The obesity epidemic is on the rise, and it’s not just a problem for older adults. Obesity rates are increasing for everyone, regardless of age. A study from The Lancet found that overall, obesity rates have increased in every country studied since 1993. The reasons behind this increase are many, but one big factor is changes in eating habits. Obesity is now more likely because people are eating more processed foods andriel lamborghini Odd Future lip sync youtube than they were in the past. In addition, there is an increase in physical activity levels, which has led to an increase in weight and inches across the board. There are many ways to help fight against obesity, and you don’t have to be obese to see the effects. Education is key – provide children and adults with information about what calories really mean and howto lose weight safely. Let people know that healthy eating habits consist of eating plenty of fruits and vegetables, low-fat proteins, whole grains, nuts and seeds, low-calorie dairy products, poultry or fish instead of pork or fast food restaurants. It can be difficult to change general behavior when unhealthy eating habits are entrenched, but there are some things you can do to make a difference. One approach istargeting those who have been previously successful at losing weight – including parents or adults who know their own potential body size – by providing them with Prevention programs specifically designed for them. Another approach is to create healthier lifestyles around meals. Eating a balanced diet that includes fruits and vegetables, whole grains, nuts and seeds, lower-calorie dairy products, poultry or fish instead of pork or fast food restaurants will help you lose weight while maintaining your health condition.</v>
       </c>
-      <c r="B416" t="str" xml:space="preserve">
-        <v xml:space="preserve">Den fetma epidemi är på uppgång, och det är inte bara ett problem för äldre. Fetma har ökat för alla, oavsett ålder. En studie från The Lancet fann att i stort sett har fetma priser ökat i varje land som studerats sedan 1993. Anledningarna till den här ökningen är många, men en stor faktor är förändringar av kostvanor. Fetma är nu mer troligt eftersom folk äter mer förädlade livsmedel än vad de gjorde i det förflutna. Dessutom är det en ökning av fysisk aktivitet nivåer, vilket har lett till en ökning av vikt och tum över hela brädet. Det finns många sätt att hjälpa tillfight mot fetma, och du behöver inte vara överviktig för att se resultatet. Undervisning är viktigt - ge barn och vuxna med information om vad kalorier verkligen betyder och hurman säkert gå ner i vikt. Låt folk veta att hälsosamma matvanor består av att äta massor av frukter och grönsaker, låg fettproteiner, fullkorn, nötter och frön, lågkalori mejeriprodukter , fjäderfä eller fisk istället för fläskkött eller snabbmat restauranger.
-Det kan vara svårt att byta generellt beteende när ohälsosamma matvanor är fast, men det finns några saker du kan göra för att göra skillnad. En möjlighet att välja utgrupper som tidigare har varit framgångsrikt vid att gå ner i vikt - inklusive föräldrar eller vuxna som vet sitt eget potential kropp storlek - genom att ge dem preventionprogram som specifikt är framtagna för dem. En annan metod är att skapa hälsosammare levnadssätt runt måltiderna. Att äta en balanserad kost som består av frukt och grönsaker, fullkorn, nötter och frön, låg kalori mejeriprodukter, fläsk eller fisk istället för fläskkött eller snabbmat restauranger kommer att hjälpa dig att gå ner i vikt, samtidigt som man håller din hälsa villkor.
-</v>
-      </c>
-      <c r="C416">
-        <v>1435</v>
-      </c>
-    </row>
-    <row r="417" xml:space="preserve">
-      <c r="A417" t="str">
-        <v>The methodological advice to interpret in a way that optimizes agreement should not be conceived as resting on a charitable assumption about human intelligence that might turn out to be false. If we cannot find a way to interpret the utterances and other behaviour of a creature as revealing a set of beliefs largely consistent and true by our standards, we have no reason to count that creature as rational, as having beliefs, or as saying anything.</v>
-      </c>
-      <c r="B417" t="str" xml:space="preserve">
-        <v xml:space="preserve">Den metodiska råden att tolka på ett sätt att optimerar överensstämmelse bör inte ses som vilande på en givmild förutsättning om mänsklig intelligens som kunde visa sig fel . Om vi kan inte hitta en väg att tolka yttranden och annat beteende hos en varelse avslöjar ett sätt att tro stort sett konsistent och sant efter vår standard , har vi ingen anledning att räkna med att varelse som rationell, med tro eller som säger något .
-</v>
-      </c>
-      <c r="C417">
+      <c r="B62" t="str" xml:space="preserve">
+        <v xml:space="preserve">Den fetmaepidemi i USA stiger ökar inte bara orättvist motsvarar hennes internationella kollegor utan fungerar inte.
+Epidemiska fetenter har alltid varit en enorm problem, med mer än 96 miljoner amerikaner i nuläget som lider av överviktiglivsstil.
+Kan data från ASKHON undersöker, national data för barfota platser och kön i Ungern och undersöker 18 000 poliser som inte fått internationell batuta, tillsammans med brittiska polisen, luftvägarna som andas trauma.
+Luftvägsorgan, andningsorgan, aorta samt sköldkörteln och parasarctumörer
+</v>
+      </c>
+      <c r="C62">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="63" xml:space="preserve">
+      <c r="A63" t="str">
+        <v>The Universe, which is the uttered Word of God, is infinite in extent.  There is no empty space beyond creation on any side.  The Universe, which is the Thought of God pronounced,never was not, since God never was inert; nor was, without thinking and creating.  The forms of creation change, the suns and worlds live and die like the leaves and the insects, but the Universe itself is infinite and eternal, because God Is, Was, and Will forever Be, and never did not think and create.</v>
+      </c>
+      <c r="B63" t="str" xml:space="preserve">
+        <v xml:space="preserve">The Universe, which is the uttered Word of God, is infinite in extent.  There is no empty space beyond creation on any side.  The Universe, which is the Thought of God pronounced,never was not, since God never was inert; nor was, without thinking and creating.  The forms of creation change, the suns and worlds live and die like the leaves and the insects, but the Universe itself is infinite and eternal, because God Is, Was, and Will forever Be, and never did not think and create.
+Den Universum som hör enligt Guds ord är oändligt stor. Förutom skapelsen och livet på jorden finns inga tomma ytor.
+Universumet är tänkande som Gud är tänkande aldrig vilade, aldrig var orörlig som Gud. Aldrig var i vila utan tänkte och skapade. Former i skapelsen förändras, solat dör som jordens växter och insekter men Universumet är orubbligt eftersom det är Guds vilja att vi ska vara som vi är. Evigheter utan slut eftersom Gud var, är och evigheter framåt kommer att vara och aldrig är vilande utan skapar och tänker.
+</v>
+      </c>
+      <c r="C63">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="64" xml:space="preserve">
+      <c r="A64" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+I conducted a literature review to learn about the effects of dance on mental health. According to the review, there is limited research on the effects of dance on mental health, but the existing research points to positive effects. Dance has been shown to have a positive effect on mood and cognitive function, while also reducing stress and anxiety. These benefits may be due to the positive physical and mental health benefits of dance, as well as the social aspects of dance. Additionally, the review found that dance can be used to improve physical health, including bone density and respiratory health.</v>
+      </c>
+      <c r="B64" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+Jag gjorde en litteratursökning för att lära mig om konsekvenserna av dans på mental hälsa. Enligt granskningen finns det begränsad forskning om konsekvenserna av dans på mental hälsa, men den befintliga forskningen pekar på positiva effekter. Dans har visats ha en positiv effekt på humör och kognitiv funktion, samtidigt som den minskar stress och ångest. Dessa fördelar kan bero på de positiva fysiska och mentala hälsoeffekterna av dans, liksom de sociala aspekterna av dans. Dessutom har granskningen hittat att man kan använda dans för att förbättra den fysiska hälsan, till exempel benmassa och andningshälsa.
+</v>
+      </c>
+      <c r="C64">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="65" xml:space="preserve">
+      <c r="A65" t="str" xml:space="preserve">
+        <v xml:space="preserve">1. Understand that old people aren’t actually that worried about old age, according to numerous surveys. The most recent one I can find was undertaken by American research firm NORC in 2016. It polled over 3,000 adults and found that old people are more optimistic about growing old than younger adults: 46 percent of thirty-somethings said they were optimistic about aging, compared to 66 percent for the seventy-pluses. It seems that worrying about growing old is a sign you are young. And the main reason to be optimistic about old age is that old people themselves are. Resilience seems to grow.
+2. It happens. Aging is something we can’t do much about. We can eat healthily, exercise and live sensibly but we will still age. Our 80th birthday will still be on the same date. Sure, we can make it more likely we will reach 80, but we can’t stop the wheels of time. And the certainty is actually quite reassuring. When there is nothing we can do about something, the point of worry begins to diminish. “Everybody dies,” wrote Nora Ephron.” There’s nothing you can do about it. Whether or not you eat six almonds a day</v>
+      </c>
+      <c r="B65" t="str" xml:space="preserve">
+        <v xml:space="preserve">1. Förstå att gamla människor faktiskt inte är så oroliga för gamla ålder, enligt många undersökningar. Det senaste som jag kan hitta utfördes av det amerikanska forskningsföretaget NORC år 2016. Det fångade upp över 3,000 vuxna och fann att gamla människor mer optimistiska om att bli gamla än yngre vuxna: 46 procent av tjugo-något sade att de var optimistiska i åldrande, jämfört med 66 procent för de sjuttio plus. Det verkar som att oroa sig för att bli gammal är ett tecken på att du är ung. Och den främsta anledningen att vara optimistisk om gamla ålder är att gamla människor själva är. Återhämtning tycks växa.
+2. Xxxx. Hälsovård är något vi inte kan göra mycket om. Vi kan äta hälsosamt, motionera och bovett eller inte men vi kommer fortfarande att åldras. Vårt 80: e födelsedag kommer fortfarande att vara samma dag. Visst gör vi det mer sannolikt är att vi kommer att nå 80, men vi kan inte stoppa hjulen. Och säkerheten är faktiskt ganska lugnande. När det inte finns något vi kan göra med något början oroa sig minska. "" Varenda dör, "" skrev Nora Ephron. "" Det finns ingenting du kan göra åt det
+</v>
+      </c>
+      <c r="C65">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="66" xml:space="preserve">
+      <c r="A66" t="str">
+        <v>Wasn't marriage, like life, unstimulating and unprofitable and somewhat empty when too well ordered and protected and guarded? Wasn't it finer, more splendid, more nourishing, when it was, like life itself, a mixture of the sordid and the magnificent; of mud and stars; of earth and flowers; of love and hate and laughter and tears and ugliness and beauty and hurt?</v>
+      </c>
+      <c r="B66" t="str" xml:space="preserve">
+        <v xml:space="preserve">Var inte äktenskapet, precis som livet, ostimulerande och oavkastande och något tomt då snarare välreglerat och skyddat och skyddat? Var det inte finare, vackrare, hälsosammare, när det var sådant, likt livet självt, en blandning av nedslätande och grandiosa; jord och stjärnor; jord och blommor; kärlek och hat, skratt och tårar, fruktansvärdhet och skönhet och skada?
+</v>
+      </c>
+      <c r="C66">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="67" xml:space="preserve">
+      <c r="A67" t="str">
+        <v>We are facing an increasingly complex, fast-moving environment. In the coming years, sustainability, digitalization, an intensifying competition for talent and geopolitics will shape both Investor and our companies.</v>
+      </c>
+      <c r="B67" t="str" xml:space="preserve">
+        <v xml:space="preserve">Vi står inför ett alltmer komplext och snabbt föränderligt miljö. Under de kommande åren kommer hållbarhet, digitalisering, intensifierad konkurrens om talang och geopolitik att forma både Investor och våra bolag.
+</v>
+      </c>
+      <c r="C67">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="68" xml:space="preserve">
+      <c r="A68" t="str">
+        <v>People don't know where to place me. Terry Gilliam used me as a quirky cop in 'Twelve Monkeys', and then he hired me again to be an effeminate hotel clerk in 'Fear and Loathing in Las Vegas'. Another time, I was shooting this indie film 'The Souler Opposite' and six days a week, I'm playing this big puppy dog, then I come to the 'NYPD Blue' set and become this scumbag.</v>
+      </c>
+      <c r="B68" t="str" xml:space="preserve">
+        <v xml:space="preserve">People don't know where to place me. Terry Gilliam used me as a quirky cop in 'Twelve Monkeys', and then he hired me again to be an effeminate hotel clerk in 'Fear and Loathing in Las Vegas'. Another time, I was shooting this indie film 'The Souler Opposite' and six days a week, I'm playing this big puppy dog, then I come to the 'NYPD Blue' set and become this scumbag.
+Folk vet inte var de ska placera mig. Terry Gilliam använde mig som en konstig polis i "Twelve Monkeys, " och då anställde han mig igen att vara en feminin hotellreceptionist i "Fear and Loathing in Las Vegas. " En annan gång var jag spela den här indie filmen "The Souler Opposite " och sex dagar i veckan, på söndag, jag spelar det här stora valp, då kommer jag till " NYPD Blue "uppsättningen och bli den här skurken.
+</v>
+      </c>
+      <c r="C68">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="69" xml:space="preserve">
+      <c r="A69" t="str">
+        <v>The present study aimed to explore the relationship between Y-chromosome STR and psychiatric symptoms in patients with major depressive disorder. The study found that patients with higher Y-chromosome STR have a higher risk for developing psychiatric symptoms. The study also found that patients with higher Y-chromosome STR had a higher risk for developing major depressive disorder in a monozygotic ( identical ) twin study. The study showed that the relationship between Y-chromosome STR and psychiatric symptoms is possibly due to genetic modifiers.</v>
+      </c>
+      <c r="B69" t="str" xml:space="preserve">
+        <v xml:space="preserve">Den här studien försökte utforska relationen mellan Y-kromosomen STR och psykiska symptom hos patienter med större depressiv störning. Studien visade att patienter med högre Y-kromosom STR har en större risk för att utveckla psykiska symtom. Studien visade också att patienter med högre Y-kromosom STR hade en högre risk för att utveckla större depressiv sjukdom i en monosom (identiska) tvillingstudie. Studien visar att relationen mellan Y-kromosomen STR och psykiska symtom eventuellt beror på genetiska modifierare.
+</v>
+      </c>
+      <c r="C69">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="70" xml:space="preserve">
+      <c r="A70" t="str">
+        <v>Four hours of makeup, and then an hour to take it off. It's tiring. I go in, I get picked up at two-thirty in the morning, I get there at three. I wait four hours, go through it, ready to work at seven, work all day long for twelve hours, and get it taken off for an hours, go home and go to sleep, and do the same thing again.</v>
+      </c>
+      <c r="B70" t="str" xml:space="preserve">
+        <v xml:space="preserve">Four hours of makeup, and then an hour to take it off. It's tiring. I go in, I get picked up at two-thirty in the morning, I get there at three. I wait four hours, go through it, ready to work at seven, work all day long for twelve hours, and get it taken off for an hours, go home and go to sleep, and do the same thing again.
+Fyra timmar i smink, och en timme att ta bort det efter lång tid. Det är tröttsamt. Jag går, blir jag upphämtas kl fyra på morgonen, jag kommer dit klockan tre.
+Jag väntar fyra timmar, går igenom det, redo att arbeta timme sju, att jobba hela dagen, och arbetar av för timmar, jag går hem och går och sover, och gör samma sak igen.
+</v>
+      </c>
+      <c r="C70">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="71" xml:space="preserve">
+      <c r="A71" t="str">
+        <v>... business training in early life should not be regarded solely as insurance against destitution in the case of an emergency. For from business experience women can gain, too, knowledge of the world and of human beings, which should be of immeasurable value to their marriage careers. Self-discipline, co-operation, adaptability, efficiency, economic management,?if she learns these in her business life she is liable for many less heartbreaks and disappointments in her married life.</v>
+      </c>
+      <c r="B71" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+## ... business training in early life should not be regarded solely as insurance against destitution in the case of an emergency. For from business experience women can gain, too, knowledge of the world and of human beings, which should be of immeasurable value to their marriage careers. Self-discipline, co-operation, adaptability, efficiency, economic management,?if she learns these in her business life she is liable for many less heartbreaks and disappointments in her married life.
+... Affärsutbildning på tidiga liv ska inte enbart ses som en försäkring mot fattigdom i händelse av en nödsituation. För från affärs erfarenhet kvinnor kan också vinna kunskap om världen och om människor, som bör vara av ovärderlig värde för sin äktenskap karriärer. Självdisciplin, samarbete, anpassningsförmåga, effektivitet, ekonomisk administration, om hon lär sig dessa i sin yrkesverksamhet hon är skyldig för många mindre hjärtesorg och besvikelser i sitt äktenskap.
+</v>
+      </c>
+      <c r="C71">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="72" xml:space="preserve">
+      <c r="A72" t="str">
+        <v>However, there are a few things that businesses need to consider when using social media. The first is that social media can be valuable but can also be risky. For example, if a business doesn’t take enough precautions to ensure their content is accurate or promotional, they may risk losing customer trust and/or respect. Additionally, it’s important that businesses aren’t too dismissive of people who use social media. Sometimes people use social media as a form of communication and outreach, which is valuable. Finally, businesses should make sure they are providing value and fulfilling their commitments on social media. If they don’t, their users may end up cutting them out of their lives.</v>
+      </c>
+      <c r="B72" t="str" xml:space="preserve">
+        <v xml:space="preserve">Det finns dock några saker som företag måste tänka på när de använder sociala medier. Det första är att sociala medier kan vara värdefulla men kan också vara riskabelt. Till exempel kan ett företag riskera att förlora kundens tillit och / eller respekt, om man inte tar tillräckliga försiktighetsåtgärder för att försäkra sig om att innehållet är korrekt eller reklam. Dessutom är det viktigt att företag inte är alltför hånande för människor som använder sociala medier. Ibland använder människor sociala medier som ett sätt att kommunicera och nå ut, vilket är värdefullt. Slutligen måste företag se till att de ger värde och uppfyller sina åtaganden på sociala medier. Om de inte gör det, kanske deras användare slutar att använda deras tjänster.
+</v>
+      </c>
+      <c r="C72">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="73" xml:space="preserve">
+      <c r="A73" t="str">
+        <v>I can't do the same movies all my life. I'm conscious of that. But it's a trade-off. 'Dear John' allowed me to do movies I've wanted to do. You learn to balance it out. I'm still learning. Only now am I getting to do the kinds of movies that I have wanted to do. So it's a steady climb. You don't jump into a Soderbergh film.</v>
+      </c>
+      <c r="B73" t="str" xml:space="preserve">
+        <v xml:space="preserve">Jag kan inte göra filmer hela mitt liv. Jag inse det. Men det kompromissen. "Kära John" gjorde det möjligt för mig att göra filmer jag helst vill göra. Du lär dig att balans mellan det. Jag lär mig fortfarande. Bara nu jag får gör sorter av films som jag helst vill göra. Så att säga, det stadigt klättring. Du hoppa inte på en Soderbergh film.
+</v>
+      </c>
+      <c r="C73">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="74" xml:space="preserve">
+      <c r="A74" t="str">
+        <v>Margaret Sullivan: I had been at a small newspaper in California. I started my career at an evening daily newspaper called The San Bernardino Sun. I went straight from there to The New York Times in 1981. So it was a huge—it was a big leap in many ways—a leap into cultural elitism and sophistication. It was a wonderful, wonderful place to work. It was a very exciting time to be there because we were growing. Our circulation at the time was about 1.1 million. We were a big paper then. It's half that now. But we were in a great building in Times Square, and it was just exciting and exhilarating as you can imagine.</v>
+      </c>
+      <c r="B74" t="str" xml:space="preserve">
+        <v xml:space="preserve">Margaret Sullivan: Jag hade varit på en liten tidning i Kalifornien. Jag började min karriär på en kvällstidningen kallades The San Bernardino Sun. Jag gick rakt från där till The New York Times 1981. Så det var en stor - det var en stor kliv på många sätt - ett språng in i kulturella elitism och sophistication. Det var en underbar, underbar plats att arbeta. Det var en mycket spännande tid där, för vi växte. Vår upplaga vid den tiden var ungefär 1,1 miljoner. Vi var en stor tidningen då. Det är halva nu. Men vi var i en stor byggnad på Times Square, och det var bara spännande och tillfredsställande för tonträ- liksom en massa följa och det och de och de och de att sätta upp.
+</v>
+      </c>
+      <c r="C74">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="75" xml:space="preserve">
+      <c r="A75" t="str">
+        <v>They started by stating that everything felt like it was going wrong and that there wasn't a single thing in life that made them happy anymore. The sender explained how this had been happening for months now, but no matter what they did things only got worse. They told their friend how crazy and frustrating it all felt, begging for help because they didn't know where else to turn.</v>
+      </c>
+      <c r="B75" t="str" xml:space="preserve">
+        <v xml:space="preserve">De började med att säga att allt kändes som om det gick fel och att det inte fanns en enda sak i livet som gjorde dem lyckliga längre .
+Avsändaren förklarade hur detta hade hänt på månader nu, men oavsett vad de gjorde saker endast blev värre.
+De berättade för sin vän hur galen och frustrerande det var, tigger om hjälp eftersom de inte visste var de skulle vända.
+</v>
+      </c>
+      <c r="C75">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="76" xml:space="preserve">
+      <c r="A76" t="str">
+        <v>Liz is a strong, independent woman who has had to fend for herself since she was young. She's learned how to be resourceful and determined, which has helped her obtain jobs in the publishing industry despite not having a college degree. Liz is hard working and always trying to do the right thing - even if it means taking on extra work or going above and beyond what someone expects of her. She's fiercely loyal to those she cares about and can be counted on no matter what happens.</v>
+      </c>
+      <c r="B76" t="str" xml:space="preserve">
+        <v xml:space="preserve">Liz är en kvinna som gav sig själv då hon var ung.
+Hon har lärt sig att vara en resursfull och fast, vilket har hjälpt henne att få jobb i den publicerande industrin trots inte att ha ett universitetsexamens.
+Liz arbetar hårt alltid försöka att göra det rätta även om det innebär att ta på sig lite extra arbete eller gå utöver vad någon har räknat med av henne. ...
+</v>
+      </c>
+      <c r="C76">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="77" xml:space="preserve">
+      <c r="A77" t="str">
+        <v>But the great security against a gradual concentration of the several powers in the same department, consists in giving to those who administer each department the necessary constitutional means and personal motives to resist encroachments of the others. The provision for defense must in this, as in all other cases, be made commensurate to the danger of attack. Ambition must be made to counteract ambition. The interest of the man must be connected with the constitutional rights of the place. It may be a reflection on human nature, that such devices should be necessary to control the abuses of government. But what is government itself, but the greatest of all reflections on human nature? If men were angels, no government would be necessary. If angels were to govern men, neither external nor internal controls on government would be necessary. In framing a government which is to be administered by men over men, the great difficulty lies in this: you must first enable the government to control the governed; and in the next place oblige it to control itself. A dependence on the people is, no doubt, the primary control on the government; but experience has taught mankind the necessity of auxiliary precautions.</v>
+      </c>
+      <c r="B77" t="str" xml:space="preserve">
+        <v xml:space="preserve">But the great security against a gradual concentration of the several powers in the same department, consists in giving to those who administer each department the necessary constitutional means and personal motives to resist encroachments of the others. The provision for defense must in this, as in all other cases, be made commensurate to the danger of attack. Ambition must be made to counteract ambition. The interest of the man must be connected with the constitutional rights of the place. It may be a reflection on human nature, that such devices should be necessary to control the abuses of government. But what is government itself, but the greatest of all reflections on human nature? If men were angels, no government would be necessary. If angels were to govern men, neither external nor internal controls on government would be necessary. In framing a government which is to be administered by men over men, the great difficulty lies in this: you must first enable the government to control the governed; and in the next place oblige it to control itself. A dependence on the people is, no doubt, the primary control on the government; but experience has taught mankind the necessity of auxiliary precautions.
+Men de stora säkerhet mot en gradvis koncentration av de flera befogenheter i samma avdelning, består i att ge dem som förvaltar varje avdelning de nödvändiga konstitutionella medel och personliga motiv för att motstå övertramp av andra. Säkerhetsbestämmelserna för försvar måste i detta, liksom i alla andra fall, föreskrivas så att de kommer i överenstämmelse med angreppsrisken. Ambition måste göras för att motverka ambition. Intresset av man måste förenas med de konstitutionella rättigheterna till platsen. Det kan vara en reflektion över mänsklig natur, att sådana apparater måste behövas för att kontrollera missbruken av regeringen. Men vad är regeringen själv, utan det största av alla reflektioner över mänsklig natur? Om människor 
+var änglar, behövdes ingen regering. Om änglar skulle styra människor, behövde utomståndiga eller inre kontroller av regeringen inte behövdes. Vid framställning av en regering som ska administreras av män över män, ligger det stora svårigheten i det: du måste först göra det möjligt för regeringen att kontrollera det reglerade; och i nästa rad förmå det att kontrollera sig själv. En beroendeförhållande till folket är utan tvekan det primära kontrollen över regeringen men erfarenhet har lärt sig mänskligheten nödvändigheten av plantsäkerhetsförbud. Ambition måste göras för att motverka ambition. Intresset av man måste förenas med de konstitutionella rättigheterna till platsen. Det kan vara en reflektion över mänsklig natur, att sådana apparater måste behövas för att kontrollera missbruken av regeringen. Men vad är regeringen själv, utan det största av alla reflektioner över mänsklig natur? Om människor 
+var änglar, behövdes ingen regering. Om änglar skulle styra människor, behövde utomståndiga eller inre kontroller av regeringen inte behövdes. Vid framställning av en regering som ska administreras av män över män, ligger det stora svårigheten i det: du måste först göra det möjligt för regeringen att kontrollera det reglerade; och i nästa rad förmå det att kontrollera sig själv. En beroendeförhållande till folket är utan tvekan det primära kontrollen över regeringen men erfarenhet har lärt sig mänskligheten nödvändigheten av plantsäkerhetsförbud. Ambition måste göras för att motverka ambition. Intresset av man måste förenas med de konstitutionella rättigheterna till platsen. Det kan vara en reflektion över mänsklig natur, att sådana apparater måste behövas för att kontrollera missbruken av regeringen. Men vad är regeringen själv, utan det största av alla reflektioner över mänsklig natur? Om människor 
+var änglar, behövdes ingen regering. Om änglar skulle styra människor, behövde utomståndiga eller inre kontroller av regeringen inte behövdes. Vid framställning av en regering som ska administreras av män över män, ligger det stora svårigheten i det: du måste först göra det möjligt för regeringen att kontrollera det reglerade; och i nästa rad förmå det att kontrollera sig själv. En beroendeförhållande till folket är utan tvekan det primära kontrollen över regeringen men erfarenhet har lärt sig mänskligheten nödvändigheten av plantsäkerhetsförbud. Ambition måste göras för att motverka ambition. Intresset av man måste förenas med de konstitutionella rättigheterna till platsen. Det kan vara en reflektion över mänsklig natur, att sådana apparater måste behövas för att kontrollera missbruken av regeringen. Men vad är regeringen själv, utan det största av alla reflektioner över mänsklig natur? Om människor 
+var änglar, behövdes ingen regering. Om änglar skulle styra människor, behövde utomståndiga eller inre kontroller av regeringen inte behövdes. Vid framställning av en regering som ska administreras av män över män, ligger det stora svårigheten i det: du måste först göra det möjligt för regeringen att kontrollera det reglerade; och i nästa rad förmå det att kontrollera sig själv. En beroendeförhållande till folket är utan tvekan det primära kontrollen över regeringen men erfarenhet har lärt sig mänskligheten nödvändigheten av plantsäkerhetsförbud.
+</v>
+      </c>
+      <c r="C77">
+        <v>1888</v>
+      </c>
+    </row>
+    <row r="78" xml:space="preserve">
+      <c r="A78" t="str">
+        <v>I liked the way my character, Shane, was first introduced. You get introduced to her through this sexual action, and I thought that was so cool and just kind of summed up what she enjoys and who she is, to a certain extent. She's a complete sexual being and the great thing is that she doesn't apologize for it. It's just who she is. We rarely see women be able to do that on television.</v>
+      </c>
+      <c r="B78" t="str" xml:space="preserve">
+        <v xml:space="preserve">Jag tyckte om hur min karaktär, Shane, introducerades först. Du får bekant med henne genom dessa sexuella handlingar, och jag tyckte att det var så kul och bara kortfattat sammanfattade vad hon tycker om och att hon är, till viss del. Hon är en fullständig helhet och en stor sak är att hon inte ursäktar för det. Det är precis hur hon är. Vi ser sällan att kvinnor kan göra det på tv.
+</v>
+      </c>
+      <c r="C78">
         <v>358</v>
       </c>
     </row>
-    <row r="418" xml:space="preserve">
-      <c r="A418" t="str">
-        <v>I liked the way my character, Shane, was first introduced. You get introduced to her through this sexual action, and I thought that was so cool and just kind of summed up what she enjoys and who she is, to a certain extent. She's a complete sexual being and the great thing is that she doesn't apologize for it. It's just who she is. We rarely see women be able to do that on television.</v>
-      </c>
-      <c r="B418" t="str" xml:space="preserve">
-        <v xml:space="preserve">Jag gillar hur min karaktär Shane, presenterades första gången. Du blir bekant med henne via sexuell aktivitet, och jag tyckte det var så coolt att det sammanfattade vad hon tycker om och vem hon är, i ett viss mån. Hon är en helt sexuell varelse och det bra är att hon inte beklagar sig över det. Det är bara vem hon är. Vi ser sällan kvinnor bekäfta det på TV.
-</v>
-      </c>
-      <c r="C418">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="419" xml:space="preserve">
-      <c r="A419" t="str">
-        <v>This whole business of Trade gives me to pause and think, as it constitutes false relations between men; inasmuch as I am prone to count myself relieved of any responsibility to behave well and nobly to that person who I pay with money, whereas if I had not that commodity, I should be put on my good behavior in all companies, and man would be a benefactor to man, as being himself his only certificate that he had a right to those aids and services which each asked of the other.</v>
-      </c>
-      <c r="B419" t="str" xml:space="preserve">
-        <v xml:space="preserve">This whole business of Trade gives me to pause and think, as it constitutes false relations between men; inasmuch as I am prone to count myself relieved of any responsibility to behave well and nobly to that person who I pay with money, whereas if I had not that commodity, I should be put on my good behavior in all companies, and man would be a benefactor to man, as being himself his only certificate that he had a right to those aids and services which each asked of the other.
-Sam!
-Det här hela sakerna med handel är typen av material jag förmodligen inte borde skriva på, och dessa falska relatiojoner pågår i det här landet.
-Att jag personligen reklamerar för en viss servicen hos den personen min givar mig pengar att få av tillsammans med dessa so-(seade materilaistiska) omstädningar av världen, garnår det nu att han sluppit betala en enda sur som direkt skadat mig lika onödigt som det har gjort, vilket skapats av en nom allvid, trolösonsfördrivare allvid.
-Om vi, de sunda människorna, a´had vår mycket väl befogat tråns skänkt åt det filmruska som plågar dem med, skulle vi glömdt vila våra svårigheter ifatt formen unikt nog av vår tro.
-\Välsignad varje skapelse på jorden som förödrar djävulen, och gör dicht pötr*oö?*,
-</v>
-      </c>
-      <c r="C419">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="420" xml:space="preserve">
-      <c r="A420" t="str" xml:space="preserve">
-        <v xml:space="preserve">The relationship between climate change and mental health is poorly understood. While increasing attention has been paid to the physical health consequences of climate change, few studies have examined the psychological adjustments that may be made by people in climate-affected areas. This study aimed to investigate the relationship between climate change and mental health in a dryland region of Kenya. Data were collected from 300 adults from 10 sites in Laikipia County, Kenya. Logistic regression model was employed to determine the association between future climate change and mental health. Significant associations were found between climate change-related variables, including lower nervous energy, poor appetite, and poor sleep quality, and the risk of psychological distress. 
-The findings suggest that the mental health impacts of climate change may be most severe in dryland regions. However, the results should be interpreted with caution due to the cross-sectional design. Additional studies are needed to confirm the findings, and to determine the mechanisms through which climate change impacts psychological distress.</v>
-      </c>
-      <c r="B420" t="str" xml:space="preserve">
-        <v xml:space="preserve">Det finns en ofullständig möjlighet för förhållandet mellan klimatförändringar och psykiskt häls. Medan alltmer uppmärksamhet har ägnats de fysiska konsekvenserna av klimatförändringen, har få studier undersökt den psykologiska justeringarna som människor i klimatpåverkade områden kan göra.Denna studie syftade till att undersöka relationen mellan klimatförändring och psykisk hälsa i en torknejdregion i Kenya. Data samlades in från 300 vuxna från 10 platser i Laikipia län i Kenya. En logistisk regressionsmodell användes för att ta reda på den association mellan framtida klimatförändring och mental hälsa.Signifikanta associationer fanns mellan klimatförändrings relaterade variabler, inklusive mindre nervs energ, dålig aptit och dålig sömnkvalitet, och risken för psykisk distress.
-Findings föreslår att mentals hälsoeffekter av klimatförändring kan vara värst i torknejdstobias. Resultaten bör dock tolkas med försiktighet på grund av den korssamlad sanstafa. Ytterligare studier behövs för att bekräfta resultaten och bestämma mechansmerna som klimatförändringen ofhere att arbeta psykiskt stress.
-</v>
-      </c>
-      <c r="C420">
-        <v>863</v>
+    <row r="79" xml:space="preserve">
+      <c r="A79" t="str">
+        <v>I don't stop. It's my nature. People have to tell me to slow down. I plan on playing every role on Broadway. I want to do 'Evita.' I want to do 'Sweeney Todd' with Chris Colfer. We want to do 'Wicked.' I'll be Elphaba and he wants to play 'Guy-linda.' I want to do movies, make music. 'Glee' is only the beginning.</v>
+      </c>
+      <c r="B79" t="str" xml:space="preserve">
+        <v xml:space="preserve">Jag stannar inte. Det är min natur. Människor måste säga något för att lugna ned mig. Jag planerar att spela alla roller på Broadway. Jag vill göra 'Evita.
+Jag vill göra 'Sweeny Todd' med Chris Colfer. Vi vill göra 'Gåsmamman.'
+Jag kommer spela Elphaba och han vill spela 'Guy-linda.'
+Jag vill filma film, skriva musik. 'Glee' är bara början.
+</v>
+      </c>
+      <c r="C79">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="80" xml:space="preserve">
+      <c r="A80" t="str" xml:space="preserve">
+        <v xml:space="preserve">Volunteering provides many tangible and intangible benefits.
+The tangible benefits of volunteering can include helping other people, improving one's own skills, building personal relationships, and having fun. The intangible benefits of volunteering can include increased self-awareness, civic engagement, and COMPASS skills.
+The most common tangible benefits of volunteering are helping other people, skill development, and building relationships. Volunteer experiences can help people learn new skills, improve their work ethic, and build social networks. Volunteering can also lead to new opportunities, such as finding a new job or becoming more involved in a community.
+The intangible benefits of volunteering are increased self-awareness, civic engagement, and COMPASS skills. Volunteering can help people learn more about themselves and their community. Furthermore, volunteering can lead to personal growth and development, such as increased empathy and compassion. Additionally, volunteering can increase one's knowledge and understanding of different topics, which can help them in their career or other areas of life.
+Overall, the tangible and intangible benefits of volunteering are significant. Many people find the benefits of volunteering to be worth the time and effort required to participate.</v>
+      </c>
+      <c r="B80" t="str" xml:space="preserve">
+        <v xml:space="preserve">Studier visara många fördelar med frivilligarbete.
+Det man kan se att frivilligarbete kan hjälpa till i andra människors liv, att lära sig flera olika färdigheter, att  bygga personliga relationer och att ha kul. Den man inte direkt kan se är att frivilligarbete kan öka en hendelse medvetenhet förtroende, mänskliga värden, ASSESSING färdigheter .
+Den vanligaste delen i frivilligarbete att hjälpa till en andra person, lära sig färdigheter och att bygga upp relationer.
+Det Att lära en själv flera olika färdigheter, att förbättra sitt arbete, och gärna in social nätverk. Studierna visar att för att tillgå flera nya chanser möjligheter, som till exempel att hitta ett nytt jobb eller dra mer in i en att frivilligarbete .
+Frivilligarbete visar om att lära sig mer om om man själv lär sig mer om sig själv och sitt samfamilj, då kommer man att kunna göra flera misstag och lär sig på dem och förbättra sig sitt själv. Frivelligarbete kan leda till personlig tillväxt och utveckling, som i högre grad känner medlidande och medkänsla . Ni kan även göra satt att lära sig mer om samhället att lära sig mer om världen och om hur världen fungerar.
+Övergripande, både den som man ser till den som man inte ser är mycket viktig. Många människor skulle gärna vilja veta de fördelar med frivilligarbetet varför skulle inte jag vilja gå. För om man studerar frivilligarbete så kan man få göra många nya relationer och lära sig flera färdigheter och lär en om samhället också sig själv så man mår bättre.
+</v>
+      </c>
+      <c r="C80">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="81" xml:space="preserve">
+      <c r="A81" t="str">
+        <v>But the great security against a gradual concentration of the several powers in the same department, consists in giving to those who administer each department the necessary constitutional means and personal motives to resist encroachments of the others. The provision for defense must in this, as in all other cases, be made commensurate to the danger of attack. Ambition must be made to counteract ambition. The interest of the man must be connected with the constitutional rights of the place. It may be a reflection on human nature, that such devices should be necessary to control the abuses of government. But what is government itself, but the greatest of all reflections on human nature? If men were angels, no government would be necessary. If angels were to govern men, neither external nor internal controls on government would be necessary.</v>
+      </c>
+      <c r="B81" t="str" xml:space="preserve">
+        <v xml:space="preserve">Att skydda mot ansamling av ämbeten inom samma departement är att ge de ansvariga de konstitutionella medel som behövs för att motverka försök till utökade befogenheter. Försvar bör alltid relateras till nivan på hotet. Stratigem motstrider stratigem. Fördelarna för den enskilde bör bäddas in i befogenheterna för ämbetet. Det skulle vara ytterst markant för människans egenart, om det behövdes dylika avvägningar för att kontrollera missbruk. Men vad är statsmakten annat än den kanske vanligaste ytterligheten? Om människorna var änglar behövdes ingen makt. Om änglar skulle styrt världen hade ingen makt behövts invändigt eller utvändigt.
+</v>
+      </c>
+      <c r="C81">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="82" xml:space="preserve">
+      <c r="A82" t="str">
+        <v>Emotional stress is the most common type of stress and can be felt from many different causes such as feeling anxious, anxious about the future, or feeling overwhelmed. Physical stress can come from being too busy or overworked, from being injured, or from experiencing a difficult situation. Social stress can come from relationships or from being around people who are unhappy or stress-filled. Financial stress can come from not having enough money to meet your needs or from having to pay bills late. Occupational stress can come from working long hours or from not having enough rest or fun.</v>
+      </c>
+      <c r="B82" t="str" xml:space="preserve">
+        <v xml:space="preserve">Emotional stress is the most common type of stress and can be felt from many different causes such as feeling anxious, anxious about the future, or feeling overwhelmed. Physical stress can come from being too busy or overworked, from being injured, or from experiencing a difficult situation. Social stress can come from relationships or from being around people who are unhappy or stress-filled. Financial stress can come from not having enough money to meet your needs or from having to pay bills late. Occupational stress can come from working long hours or from not having enough rest or fun.
+Fysisk stress kan komma från att vara för upptagen eller överarbetad, från att bli skadad eller från att uppleva en svår situation. Social stress kan komma från relationer eller från att vara med om människor som är olyckliga eller stressfyllda. Ekonomisk stress kan komma från att inte ha tillräckligt med pengar för att uppfylla dina behov eller från att ha att betala räkningarna försenade. Arbetsrelaterad stress kan komma från att arbeta långa dagar eller från att inte få tillräckligt med vila eller för att ha kul.
+</v>
+      </c>
+      <c r="C82">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="83" xml:space="preserve">
+      <c r="A83" t="str">
+        <v>The internet has a large effect on creativity because it allows people to connect with other people and share ideas. It also allows people to access a wide variety of information and ideas. This allows people to build new ideas and come up with new ways to solve problems. The internet also allows people to share their ideas with others and get ideas from others.</v>
+      </c>
+      <c r="B83" t="str" xml:space="preserve">
+        <v xml:space="preserve">Internet har stor inverkan på kreativitet eftersom det tillåter människor att ansluta sig till andra människor och dela idéer. Den tillåter också personer att få tillgång till ett brett utbud av information och idéer. Detta gör att människor kan bygga nya idéer och få nya sätt på hur man löser problem. Internet tillåter också människor att dela sina idéer med andra och få idéer från andra.
+</v>
+      </c>
+      <c r="C83">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="84" xml:space="preserve">
+      <c r="A84" t="str">
+        <v>All this stuff is so mind-blowing to me that I get to do in my life. Throwing the first pitch out at the White Sox game on a random Wednesday? Like who am I? How did I get this life? I'm glad I'm not jaded, and little kids are the least jaded people in the entire world, so it's fun to be around people that still find wonder in how cool things are.</v>
+      </c>
+      <c r="B84" t="str" xml:space="preserve">
+        <v xml:space="preserve">Allt detta är så briljant att jag får göra i mitt liv. Att kasta ut en första kastning på ett slumpmässigt onsdag? Som vem jag är? Hur fick jag det här livet? Jag är glad att jag inte är jaded, och små barn är de minst jadeda människorna i hela världen, så det är kul att vara runt människor som fortfarande hittar förvåning i hur häftiga saker är.
+</v>
+      </c>
+      <c r="C84">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="85" xml:space="preserve">
+      <c r="A85" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+The incident occurred when a student was walking in a commons area of the school when she was suddenly approached from behind by another student who shoved her. The victim fell to the ground and the assailant walked away</v>
+      </c>
+      <c r="B85" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+Det inträffade när en elev var att gå i en allmän yta om skolan när hon när plötsligt närmande från bakom av en annan student som sköt henne.
+Offret föll till golvet och den overgivna gick bort
+</v>
+      </c>
+      <c r="C85">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="86" xml:space="preserve">
+      <c r="A86" t="str">
+        <v>There are a lot of benefits to being a vegetarian, and it can be highly beneficial for both your health and the environment. Vegetarians tend to have lower rates of heart disease, obesity, type II diabetes, some forms of cancer, and many other diseases than people who eat meat. They also consume more fruits and vegetables than people who eat meat, and these nutrients help keep them healthy. Additionally, some pecuarians oppose the hunting and slaughter of animals for their food, which means that they are helping to reduce the amount of animal cruelty going on in the world.</v>
+      </c>
+      <c r="B86" t="str" xml:space="preserve">
+        <v xml:space="preserve">Det finnas åtskilliga fördelar med att vara vegetarian, och det vara mycket fördelaktigt både för dig hälsa och för miljön. Vegetarianer tenderar ha mer health-related har minskat mängder av betoendegruppen heart, obesity övervikt, typ II diabetes, några typer av cancer med flera andra hälso besvär än folks som äter kött. De ersätter också mer frukt och grönsaker och vete än personer som äter kött, och dessa nuvit, substanser help i hälsan.
+</v>
+      </c>
+      <c r="C86">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="87" xml:space="preserve">
+      <c r="A87" t="str">
+        <v>The first thing I noticed about the man was his eyes. They were the color of the sky on a clear day, and they were filled with a sadness that I had never seen before. He was tall and thin, and his clothes were old and worn. He had a long beard and a mustache, and his hair was long and gray. He looked like a man who had been through a lot in his life.</v>
+      </c>
+      <c r="B87" t="str" xml:space="preserve">
+        <v xml:space="preserve">The first thing I noticed about the man was his eyes. They were the color of the sky on a clear day, and they were filled with a sadness that I had never seen before. He was tall and thin, and his clothes were old and worn. He had a long beard and a mustache, and his hair was long and gray. He looked like a man who had been through a lot in his life.
+Det första jag märkte om mannen var hans ögon. De var färgade som himlen på en klar dag, och de waren fyllda med en saknad som jag ännu aldrig hade varit med om. Han var hög och tunn och hans kläder var gamla och nertrampade.Han hade en lång skägg och mustasch och håret var långt och grått. Han verkade som en somnade människa som var genom mycket i sitt liv.
+</v>
+      </c>
+      <c r="C87">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="88" xml:space="preserve">
+      <c r="A88" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+Technology has had a major impact on society in many ways. For one, it has made it easier to connect with others, share information, and store information. It has also allowed people to work and communicate more freely. Additionally, technology has made it easier to find and use information.</v>
+      </c>
+      <c r="B88" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+Tekniken har haft en stor påverkan på samhället på många sätt. För det första har det gjort det lättare att ansluta till andra, dela information och lagra information. Det har också tillåtit människor att arbeta och kommunicera mera fritt. Dessutom har tekniken gjort det lättare att hitta och använda information.
+</v>
+      </c>
+      <c r="C88">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="89" xml:space="preserve">
+      <c r="A89" t="str" xml:space="preserve">
+        <v xml:space="preserve">Time is the most important factor in our lives. It has the ability to define everything from our daily rituals to our futures. Time is also a precious commodity, which we use to make decisions that have an impact on the rest of our lives.
+Without time, we would not be able to do things such as learn new things, experience new cultures, or grow old. Time is also used to measure how far we have come and how much work still needs to be done. In some ways, time is like a life raft that allows us to cross over into the future and explore different opportunities while avoiding potential dangers along the way.
+ thefts, robberies, and murders often occur due to lack of time. For example, if someone is prevented from robbing a bank in 15 minutes, they will likely rob another bank in 45 minutes or even 1 hour. To prevent these sorts of crimes from happening, it is important for criminals to have enough time to plan their attack and pull off their robbery successfully.
+In addition, time is also necessary for other activities such as studying, doing homework, and working on projects. Without enough time, these activities may not be possible. For example, if I study for an exam for hours every night and try my best to stay awake during class, I may not be able to achieve the level of success I want because I would need more time than usual to complete the exam.
+On the other hand, if I am able to relax and sleep for 8 hours every night after studying for hours today, I will likely achieve a similar level of success as if I studied for 6 hours today. This illustrates how important time is in our lives – by taking advantage of its abilities we can achieve our goals without having too much trouble.</v>
+      </c>
+      <c r="B89" t="str" xml:space="preserve">
+        <v xml:space="preserve">Tid är det viktigaste faktorn i våra liv. Den har förmågan att definiera allt från våra dagliga ritualer till vår framtid. tid är också en dyrbar vara, som vi använder för att fatta beslut som har en påverkan på resten av våra liv.
+Utan tid skulle vi inte kunna göra saker som att lära sig nya saker, uppleva nya kulturer eller bli gammal. tid används också att mäta hur långt vi har kommit och hur mycket arbete som fortfarande behöver göras.
+På sätt och vis, är tid som en livbåt som tillåter oss att överskrida till framtiden och utforska olika möjligheter samtidigt undvika potentiella faror på vägen.
+ thefts, robberies, and murders often occur due to lack of time. For example, if someone is prevented from robbing a bank in 15 minutes, they will likely rob another bank in 45 minutes or even 1 hour. To prevent these sorts of crimes from happening, it is important for criminals to have enough time to plan their attack and pull off their robbery successfully.
+Dessutom, tid är också nödvändigt för andra aktiviteter som att studera, göra läxor och arbeta med projekt. Utan tillräcklig tid dessa aktiviteter kan inte vara möjligt. Till exempel, om jag studerar för en tenta i timmar varje natt och försöker mitt bästa för att stanna vaken under klassen, kan jag inte att nå nivån av framgång jag önskar eftersom jag skulle behöva mer tid än vanligt för att slutföra tentamen.
+Å andra sidan, om jag lyckas avslappnade och sova för 8 timmar varje natt efter att ha studerat i timmar idag, kommer jag sannolikt att uppnå en liknande nivå av framgång som om jag studerat för 6 timmar idag. Detta illustrerar hur viktig tid är i våra liv - genom att utnyttja dess förmåga att vi kan uppnå våra mål utan att ha alltför mycket problem.
+</v>
+      </c>
+      <c r="C89">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="90" xml:space="preserve">
+      <c r="A90" t="str">
+        <v>Learning about climate change, and its impending effects, is an emotional experience. The distress, anxiety, worry, and/or fear that stem from an overarching awareness of climate change are often considered to be related to the broader concept of ‘psychoterratic syndromes’. This concept was first introduced by the environmental philosopher, Glenn Albrecht, and is defined broadly as ‘psychological responses to negative changes to the state of the Earth’. Terms such as eco anxiety, climate anxiety, and eco distress are often used to describe these negative responses. Also, the related term ‘solastalgia’, broadly defined as distress from the transformation and degradation of one’s home environment, also falls into psychoterratic syndromes. Such concepts are gaining traction in print and online media. For example, Grist Magazine declared climate anxiety as the biggest pop-culture trend of the year in 2019. Additionally, there is a growing recognition of the impact of climate change awareness on mental well-being among researchers and mental health professionals. For instance, the American Psychological Association has defined eco anxiety as ‘a chronic fear of environmental doom’; while the Royal College of Psychiatrists defines eco distress among young people as ‘the wide range of emotions and thoughts young people may experience when they hear bad news about our planet and the environment’. Moreover, mental health professionals have reported counseling individuals dealing with distress about climate change.</v>
+      </c>
+      <c r="B90" t="str" xml:space="preserve">
+        <v xml:space="preserve">Att lära sig om klimatförändringarna och dess kommande konsekvenser är en emotionell upplevelse. Den ångest, sorg, oro och / eller rädsla som utgår från en övergripande medvetenhet om klimatförändringarna brukar anses vara relaterade till det bredare begreppet 'psykoterrare syndromer'. Det här begreppet introducerades av den miljöfilosofiska, Glenn Albrecht, och definieras vidsträckt som 'psykologiska svar till negativa förändringar i jordens tillstånd'. Termer som eco-ångest, klimatångest och eco-upstång används ofta för att beskriva dessa negativa responser. Också den relaterade termen 'solastalgi' definieras vidsträckt som väsentligt understrykande av övertygande rädslan för en förändrad hemmiljö, tillhör också psykoterratera syndromer .
+Sådana tankar vinner mark i tryckt och online-media. Till exempel, Grist Magazine förklarade klimatångesten som den största popkulturella trenden år 2019. Dessutom finns det en ökande medvetenhet om effekten av klimatsnattlempat på mental hälsa bland forskare och mental hälsa. US Alternative Association har definierat eco-ångest som 'en kronisk rädsla för miljöförstöring' medan det brittiska psykiatrikollegiet definierar eko-anskådning bland unga personer som 'den vida känslan av känslor och det tankfulla yngre kan uppleva när de hör dåliga nyheter om vår planet och om att höra flera miljöer
+Dessutom har mental hälso professionella uppgifter om anmälan av personer som stämmer mot hjälp för besvikelse om klimatförändring.
+</v>
+      </c>
+      <c r="C90">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="91" xml:space="preserve">
+      <c r="A91" t="str">
+        <v>In the story, there is a conflict between two groups of people. The first group is made up of the students who are trying to get their revenge on Mike for spreading rumors about them. The second group includes those who want to protect Mike and stop the students from getting too angry. This conflict happens when both sides start fighting each other in school, causing lots of damage and emotions to be involved.</v>
+      </c>
+      <c r="B91" t="str" xml:space="preserve">
+        <v xml:space="preserve">In the story, there is a conflict between two groups of people. The first group is made up of the students who are trying to get their revenge on Mike for spreading rumors about them. The second group includes those who want to protect Mike and stop the students from getting too angry. This conflict happens when both sides start fighting each other in school, causing lots of damage and emotions to be involved.  
+I Kafer makes Alani, Jeremy, Molly and Iki, returning home after school, attacked by students out of revenge for the students at the grounds Mike almost killed in a fight.
+The Government has arrested KAFI and SIDDHARTHA. The later had left to them, so they want to use force to persuade her to leave.
+</v>
+      </c>
+      <c r="C91">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="92" xml:space="preserve">
+      <c r="A92" t="str">
+        <v>I'm a fan of horrors. I love the ones that make you jump. My girlfriend hates it. I've been dating her for one-and-a-half years and I'm crazy about her, but she's terrified of horror films. Not the cute 'Will you hold me?' way, but she's weeping. With 'House of Wax,' we'll be sleeping and I'll go to the bathroom and she's sitting up waiting for me.</v>
+      </c>
+      <c r="B92" t="str" xml:space="preserve">
+        <v xml:space="preserve">I'm a fan of horrors. I love the ones that make you jump. My girlfriend hates it. I've been dating her for one-and-a-half years and I'm crazy about her, but she's terrified of horror films. Not the cute 'Will you hold me?' way, but she's weeping. With 'House of Wax,' we'll be sleeping and I'll go to the bathroom and she's sitting up waiting for me.
+Jag är en älskare fan av skräck. Jag älskar de som gör dig hoppa.
+Min flickvän hatar det. Jag har hört henne i ett år och jag
+har blivit galen med henne, men hon är rädd för skräck. Inte det söta
+'Kommer du att hålla mig?'Visst, men hon gråter. Med 'House of Wax', kommer vi att sova och jag kommer att gå till badrummet och hon sitter upp och väntar på mig.
+</v>
+      </c>
+      <c r="C92">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="93" xml:space="preserve">
+      <c r="A93" t="str">
+        <v>Understand that old people aren’t actually that worried about old age, according to numerous surveys. The most recent one I can find was undertaken by American research firm NORC in 2016. It polled over 3,000 adults and found that old people are more optimistic about growing old than younger adults: 46 percent of thirty-somethings said they were optimistic about aging, compared to 66 percent for the seventy-pluses. It seems that worrying about growing old is a sign you are young. And the main reason to be optimistic about old age is that old people themselves are. Resilience seems to grow.</v>
+      </c>
+      <c r="B93" t="str" xml:space="preserve">
+        <v xml:space="preserve">Vi måste överlåta tolkningen av villkoren i varje enskild målsättning till de personer som drar nytta av dessa villkor, inte till de biståndsfirmor, bankir eller ensakte aktörer som ibland kan invödinga välgörenhetens åhörarbås.
+</v>
+      </c>
+      <c r="C93">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="94" xml:space="preserve">
+      <c r="A94" t="str">
+        <v>We’re looking for an experienced Content Marketing Manager, who also happens to be obsessed with thought leadership and building awareness across owned channels. You must love researching, writing, editing, and amplifying stories and in-depth content that educates and inspires. You’ll also be passionate about testing new ideas, leading our content marketing efforts and learning from our audience. The right person will have an eye for top-quality B2B marketing content and a data-driven mindset to help connect content strategy to business results. You’ll play a key role in elevating our content marketing program and landing it all on our website.</v>
+      </c>
+      <c r="B94" t="str" xml:space="preserve">
+        <v xml:space="preserve">Vi letar efter en erfaren utsedd innehålls chef som också händelsevis är besatt av att vara tänkt ledare och bygga informationen över ägdes kanalen. Du måste älskar att försöker, skriva, korrektur och kraftanlägga av sagorna och djupare innehåll som utbildar och inspirerar. Du ska också förespråkare Tenta nya idéer, ledning ut våra innehåll marknadsföring försök och lära sig från vårt publik. rätta personen har en öga för topp kvalitet B2B marknadsföring innehåll och en dator-inriktad tankesätt hjälpa knyta innehåll ståndpunkt till affärs resultat. Du ska spelar en huvudsaklig roll lyfta ut våra innehåll marknadsföring program och landing det alla ut på vår webbplats.
+</v>
+      </c>
+      <c r="C94">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="95" xml:space="preserve">
+      <c r="A95" t="str">
+        <v>A lot of organizations nowadays are using whiteboards as an effective way to communicate and collaborate. Whiteboards offer users a versatile tool that can be used for various purposes, such as brainstorming new ideas, recording meetings or notes, exchanging ideas with team members etc. They are also easy to clean up after use which helps keep your working area tidy and organized. Additionally, they act as great visual aids when teaching employees new tasks or procedures - simply putting up graphics on the board provides an effective reminder for everyone involved in the process.</v>
+      </c>
+      <c r="B95" t="str" xml:space="preserve">
+        <v xml:space="preserve">A lot of organizations nowadays are using whiteboards as an effective way to communicate and collaborate. Whiteboards offer users a versatile tool that can be used for various purposes, such as brainstorming new ideas, recording meetings or notes, exchanging ideas with team members etc. They are also easy to clean up after use which helps keep your working area tidy and organized. Additionally, they act as great visual aids when teaching employees new tasks or procedures - simply putting up graphics on the board provides an effective reminder for everyone involved in the process.
+En mängd organisationer använder dessa dagar som en effektivt sätt att kommunicera och samverka. Whiteboards erbjuder användare ett mångsidigt verktyg som kan användas för olika ändamål, till exempel brainstorming nya idéer, registrering möten eller anteckningar, byta idéer med team medlemmar etc. De även lätt att rengöra efter användning, vilket hjälper till att hålla arbetar för området ren och organiserad. Dessutom, de öva som bra visuellt stöd när du undervisar anställda nya arbetsuppgifter eller instruktioner - enkelt placera upp grafik på bordet förser en effektiv påminnelse för alla inblandade i processen.
+</v>
+      </c>
+      <c r="C95">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="96" xml:space="preserve">
+      <c r="A96" t="str">
+        <v>The setting for this novel is Boston in the early nineteen-hundreds. The novel follows the story of two sisters, Tess and Charlotte, as they navigate their way through life. Tess is a bright and determined young woman, while Charlotte is a sweet and introverted young woman. Both sisters are struggling to find their place in the world, and the novel explores their relationships with family, friends, and romantic interests. In addition to exploring the sisters' lives, the novel also focuses on the history and culture of Boston during this time period.</v>
+      </c>
+      <c r="B96" t="str" xml:space="preserve">
+        <v xml:space="preserve">"Har du vattnet" i dina ögon varje gång du möter mina.
+Mötte du henne
+´Träffade du henne´,
+Min andning är tyst i min mun precis som du sätter dig ner bredvid mig
+Det är som att titta på solen gå under när du pratar med mig på det sättet.
+Det gör att jag vill känna din hand i min.
+Samma kan hända oavsett hur många gånger vi träffas.
+Och jag kommer inte gå någonstans,
+Det är inte bara att fira midvinter någon gång.
+Och det tar min andning bort från att sitta bredvid dig.
+Låt mig enskild.
+Regeringen är i mina kläder.
+Jag kommer inte att prata med,
+Natten är mörk och stormig,
+Inte ens
+en lyxbåt i natt.
+Helt och hållet fångar jag dig runt midjan.
+Jag talar om när jag går hemma hos dig för att vara nära.
+Har du någonsin sagt du?
+Berättade du det,
+Redan vågor jag i allt jag gör.
+Och jag bläddrar genom alla foton av dig.
+Är det därför du hittade igen?
+Och jag kommer inte att gå någonstans.
+Det är inte bara att fira midvinter någon gång.
+Och det tar min andning bort från att sitta bredvid dig.
+Och jag kommer följa dig hem.
+Även om ingenting är som jag väntade mig.
+För det här är bara vad jag vill göra
+framför någon annan.
+Och jag kommer inte att gå någonstans.
+Det är inte bara att fira midvinter någon gång.
+Och det tar min andning därifrån varje gång jag ser dig utanför.
+</v>
+      </c>
+      <c r="C96">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="97" xml:space="preserve">
+      <c r="A97" t="str" xml:space="preserve">
+        <v xml:space="preserve">The Scopes trial of 1925 was one of the most significant events in American History. The trial was fought over the belief of creationism, or the belief that God created the universe and all that exists within it in its present form. The trial pitted science against religion and it was seen as a battle between the individual and the establishment.
+The trial began in Dayton, Tennessee on February 24th and ended on March 25th. The trial was presided over by John T. Scopes and it involved the trial of William Jennings Bryan, a well-known religious figure who was the most vocal opponent of creationism. Bryan was charged with breaking the Tennessee law against teaching evolution, which was seen by many as an attack on religious beliefs.
+The trial was a famous one and it had a large impact on American society. The outcome of the trial was controversial and it created a divide in the American public. The majority of the population believed in evolution and saw the trial as a battle between science and religion. However, there was a small group of people who believed in creationism and they saw the trial as a battle between good and evil.
+The trial was a significant event in American History because it created a divide in the American public. The majority of the population believed in evolution and saw the trial as a battle between science and religion. However, there was a small group of people who believed in creationism and they saw the trial as a battle between good and evil. The outcome of the trial was controversial and it created a divide in the American public. The majority of the population believed in evolution and saw the trial as a battle between science and religion. However, there was a small group of people who believed in creationism and they saw the trial as a battle between good and evil. The outcome of the trial was controversial and it created a divide in the American public. The majority of the population believed in evolution and saw the trial as a battle between science and religion. However, there was a small group of people who believed in creationism and they saw the trial as a battle between good and evil.</v>
+      </c>
+      <c r="B97" t="str" xml:space="preserve">
+        <v xml:space="preserve">Skopemålet i 1925 var en av de mest betydelsefulla händelser i den amerikanska historien. Målet gällde tron på skapelse, eller tron på att Gud skapat universum och allt som finns i det i dess nuvarande form. Tävlingen sågs som en strid mellan individen och etablissemanget.
+Rättegången inleddes i Dayton, Tennessee den 24 februari och slutade den 25 mars. Rättegången leddes av John T. Skop och den handlade om William Jennings Bryans, en välkänd religiös figur som var den mest larmande motståndare till skapelsen. Bryan anklagades för att bryta mot lagstiftningen i Tennessee mot evolution inlärning, som sågs av många som en attack på religiösa tron.
+Målet var ett välkänt ena och hade en stor inverkan på den amerikanska samhället. Slutet var kontroversiellt och det skapade en uppdelning i det amerikanska folket. Majoriteten av befolkningen trodde på evolution och såg domstolssystemet som en strid mellan vetenskapen och religionen. Det fanns dock en liten grupp av människor som trodde på skapelsen och de såg målet som en strid mellan det goda och det onda.
+The trial was a significant event in American History because it created a divide in the American public. The majority of the population believed in evolution and saw the trial as a battle between science and religion. However, there was a small group of people who believed in creationism and they saw the trial as a battle between good and evil. The outcome of the trial was controversial and it created a divide in the American public. The majority of the population believed in evolution and saw the trial as a battle between science and religion. However, there was a small group of people who believed in creationism and they saw the trial as a battle between good and evil. The outcome of the trial was controversial and it created a divide in the American public. The majority of the population believed in evolution and saw the trial as a battle between science and religion. However, there was a small group of people who believed in creationism and they saw the trial as a battle between good and evil.
+</v>
+      </c>
+      <c r="C97">
+        <v>1102</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C420"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C97"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/testing.xlsx
+++ b/testing.xlsx
@@ -3628,15 +3628,15 @@
     </row>
     <row r="2" xml:space="preserve">
       <c r="A2" t="str">
-        <v>Well, yeah. At a certain point, you've got to be really honest with yourself. Like, 'Why am I doing this? What are my motivations?' Like, if you get into it because you want to be famous? Then you've got a long row to hoe. But if you really feel like it's a labour of love and it's something you're actually legitimately good at, then it's not that hard to keep plugging away.</v>
+        <v>We do have food; however, I am currently unsure concerning the variety that would appease your appetite at this present point in our dialogue together while enjoying ourselves within each other's company here on Earth on our glorious planet that orbits around a star found within one galaxy of potentially infinite galaxies inhabited by extreme possibilities surrounding all manifestations and idea(s)</v>
       </c>
       <c r="B2" t="str" xml:space="preserve">
-        <v xml:space="preserve">Well, yeah. At a certain point, you've got to be really honest with yourself. Like, 'Why am I doing this? What are my motivations?' Like, if you get into it because you want to be famous? Then you've got a long row to hoe. But if you really feel like it's a labour of love and it's something you're actually legitimately good at, then it's not that hard to keep plugging away.
-Jag tycker verkligen om dig!
+        <v xml:space="preserve">We do have
+Vi har
 </v>
       </c>
       <c r="C2">
-        <v>133</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -3648,7 +3648,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C97"/>
+  <dimension ref="A1:C202"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -3666,565 +3666,323 @@
     </row>
     <row r="2" xml:space="preserve">
       <c r="A2" t="str">
-        <v>We do have food; however, I am currently unsure concerning the variety that would appease your appetite at this present point in our dialogue together while enjoying ourselves within each other's company here on Earth on our glorious planet that orbits around a star found within one galaxy of potentially infinite galaxies inhabited by extreme possibilities surrounding all manifestations and idea(s)</v>
+        <v>There are a lot of benefits to being a vegetarian, and it can be highly beneficial for both your health and the environment. Vegetarians tend to have lower rates of heart disease, obesity, type II diabetes, some forms of cancer, and many other diseases than people who eat meat. They also consume more fruits and vegetables than people who eat meat, and these nutrients help keep them healthy. Additionally, some pecuarians oppose the hunting and slaughter of animals for their food, which means that they are helping to reduce the amount of animal cruelty going on in the world.</v>
       </c>
       <c r="B2" t="str" xml:space="preserve">
-        <v xml:space="preserve">Vi har föda; emellertid, jag är för närvarande osäker när det gäller att varierade att lockande din aptit vid denna tidpunkt i vår dialog tillsammans, medan att njuta av varandra i företaget här på jorden på vår härliga planet som kretsar runt en stjärna som finns i en galax av potentiellt oändligt galaxer bebodda av extrem möjligheter omgivande alla manifestationer och idé (erna)
+        <v xml:space="preserve">Det blir 
 </v>
       </c>
       <c r="C2">
-        <v>314</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" xml:space="preserve">
       <c r="A3" t="str">
-        <v>I'm the most inappropriate dad. I curse in front of my kids and their friends. I let my kids watch R-rated movies. I'll walk by the movie theater and say, 'Let's go see that,' and my kids will say, 'No, it's rated R. It's not appropriate for kids.' I'm like Uncle Dad. We have fun. I don't live with them, but I drive over four days a week.</v>
+        <v>Social media has become an important part of education. It allows students to connect with each other and share ideas, experiences, and thoughts. Additionally, social media can offer educators a way to measure student engagement and improve teaching techniques. Social media also plays an important role in creating a community for educators, which can help increase their understanding of their students and help them better teach. In addition, social media can be used to promote specific content or courses, which can improve the learning experience for students. Overall, social media has been a powerful tool for educators and has helped them improve their teaching skills as well as their students’ engagement.</v>
       </c>
       <c r="B3" t="str" xml:space="preserve">
-        <v xml:space="preserve">Jag är den mest opassande pappa. Jag svär framför mina barn och deras vänner. Jag låter mina barn titta på filmer som är översatta till det R-betyget. Jag kommer att gå förbi filmstaden och säga: "Låt oss gå och se det", och mina barn kommer att säga: "Nej, det är betygsatt R. Det är inte lämpligt för barn. Jag är som farbror far. Vi har roligt. Jag bor inte med dem, men jag kör över fyra dagar i veckan.
+        <v xml:space="preserve">Social media svensksprokat 
 </v>
       </c>
       <c r="C3">
-        <v>391</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" xml:space="preserve">
       <c r="A4" t="str">
-        <v>Each company we are engaged in has a dedicated business team, consisting of our board representatives in the company and investment professionals at Investor. The business teams build company knowledge, benchmark versus competition and evaluate corporate structures</v>
+        <v>But the great security against a gradual concentration of the several powers in the same department, consists in giving to those who administer each department the necessary constitutional means and personal motives to resist encroachments of the others. The provision for defense must in this, as in all other cases, be made commensurate to the danger of attack. Ambition must be made to counteract ambition. The interest of the man must be connected with the constitutional rights of the place. It may be a reflection on human nature, that such devices should be necessary to control the abuses of government. But what is government itself, but the greatest of all reflections on human nature? If men were angels, no government would be necessary. If angels were to govern men, neither external nor internal controls on government would be necessary. In framing a government which is to be administered by men over men, the great difficulty lies in this: you must first enable the government to control the governed; and in the next place oblige it to control itself. A dependence on the people is, no doubt, the primary control on the government; but experience has taught mankind the necessity of auxiliary precautions.</v>
       </c>
       <c r="B4" t="str" xml:space="preserve">
-        <v xml:space="preserve">Varje företag vi är engagerade i har en dedikerad team, som består av våra styrelse representation i företaget och investering professionella på Investor. Affärsgrupperna bygger kunskap företag, jämföra mot konkurrensen och utvärdera företagsstrukturer
+        <v xml:space="preserve">Men jag gr
 </v>
       </c>
       <c r="C4">
-        <v>208</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" xml:space="preserve">
       <c r="A5" t="str">
-        <v>If the thoughts are absolutely tranquil the heavenly heart can be seen. The heavenly heart lies between sun and moon (i.e. between the two eyes). It is the home of the inner light.  To make light circulate is the deepest and most wonderful secret.  The light is easy to move, but difficult to fix.  If it is made to circulate long enought, then it crystallizes itself;  that is the natural spirit body...</v>
+        <v>The obesity epidemic is on the rise, and it’s not just a problem for older adults. Obesity rates are increasing for everyone, regardless of age. A study from The Lancet found that overall, obesity rates have increased in every country studied since 1993. The reasons behind this increase are many, but one big factor is changes in eating habits. Obesity is now more likely because people are eating more processed foods andriel lamborghini Odd Future lip sync youtube than they were in the past. In addition, there is an increase in physical activity levels, which has led to an increase in weight and inches across the board. There are many ways to help fight against obesity, and you don’t have to be obese to see the effects. Education is key – provide children and adults with information about what calories really mean and howto lose weight safely. Let people know that healthy eating habits consist of eating plenty of fruits and vegetables, low-fat proteins, whole grains, nuts and seeds, low-calorie dairy products, poultry or fish instead of pork or fast food restaurants. It can be difficult to change general behavior when unhealthy eating habits are entrenched, but there are some things you can do to make a difference. One approach istargeting those who have been previously successful at losing weight – including parents or adults who know their own potential body size – by providing them with Prevention programs specifically designed for them. Another approach is to create healthier lifestyles around meals. Eating a balanced diet that includes fruits and vegetables, whole grains, nuts and seeds, lower-calorie dairy products, poultry or fish instead of pork or fast food restaurants will help you lose weight while maintaining your health condition.</v>
       </c>
       <c r="B5" t="str" xml:space="preserve">
-        <v xml:space="preserve">If the thoughts are absolutely tranquil the heavenly heart can be seen. The heavenly heart lies between sun and moon (i.e. between the two eyes). It is the home of the inner light.  To make light circulate is the deepest and most wonderful secret.  The light is easy to move, but difficult to fix.  If it is made to circulate long enought, then it crystallizes itself;  that is the natural spirit body...
-Ge dina tankar total frid så skall du snart se ditt himmelska hjärta. Ditt himmelska hjärta ligger mellan sol och måne, det ligger mellan dina två ögon och är din inre ljusets hemort. Gör ljuset att gå runt världens största och mest intressanta hemlighet. Ljuset är lätt att röra, men svårt att stanna. Låt ljuset gå runt länge och ljuset kristalliserar och skapar ditt andliga skelett.
+        <v xml:space="preserve">The obesit
+Suverän kurs i GIT
 </v>
       </c>
       <c r="C5">
-        <v>287</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" xml:space="preserve">
-      <c r="A6" t="str" xml:space="preserve">
-        <v xml:space="preserve">
-I am working on an app that would allow users to track their food intake and create healthy meal plans. This would help people to stay on track with their diet and lose weight. The app would have a grocery list feature, so people could input what they're eating and the app would take care of the rest.</v>
+      <c r="A6" t="str">
+        <v>Margaret Sullivan: I had been at a small newspaper in California. I started my career at an evening daily newspaper called The San Bernardino Sun. I went straight from there to The New York Times in 1981. So it was a huge—it was a big leap in many ways—a leap into cultural elitism and sophistication. It was a wonderful, wonderful place to work. It was a very exciting time to be there because we were growing. Our circulation at the time was about 1.1 million. We were a big paper then. It's half that now. But we were in a great building in Times Square, and it was just exciting and exhilarating as you can imagine.</v>
       </c>
       <c r="B6" t="str" xml:space="preserve">
-        <v xml:space="preserve">
-Du kan spåra ditt energitillskott
-Jag jobbar på en app som skulle tillåta användare att spåra sitt näringsintag och skapa hälsosamma matvanor. Detta skulle hjälpa människor att vara på rätt väg med sin kost och gå ner i vikt. Appen skulle ha en inköpslistefunktion, så att människor skulle kunna ange vad de äter och appen skulle ta hand om resten.
+        <v xml:space="preserve">Margaret Säger
 </v>
       </c>
       <c r="C6">
-        <v>307</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" xml:space="preserve">
-      <c r="A7" t="str" xml:space="preserve">
+      <c r="A7" t="str">
+        <v>The person who has applied for a tourist visa from outside the US will be required to pay the fee of $140. This fee is non-refundable and non-transferable. The fee must be paid in cash at the location where the visa application is submitted. This includes persons who wish to travel to the US and apply for adjustment of status to permanent resident (get a green card) while in the US and persons who have other non-immigrant status (F/M), and who wish to apply for an immigrant visa (get a green card) while in the US. Unfortunately, it is not possible to pay the immigrant visa fee at the same location where you submit the immigrant visa application. Payment of the fee must be made to the US Department of State.</v>
+      </c>
+      <c r="B7" t="str" xml:space="preserve">
+        <v xml:space="preserve">Den person
+</v>
+      </c>
+      <c r="C7">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" xml:space="preserve">
+      <c r="A8" t="str">
+        <v>But the great security against a gradual concentration of the several powers in the same department, consists in giving to those who administer each department the necessary constitutional means and personal motives to resist encroachments of the others. The provision for defense must in this, as in all other cases, be made commensurate to the danger of attack. Ambition must be made to counteract ambition. The interest of the man must be connected with the constitutional rights of the place. It may be a reflection on human nature, that such devices should be necessary to control the abuses of government. But what is government itself, but the greatest of all reflections on human nature? If men were angels, no government would be necessary. If angels were to govern men, neither external nor internal controls on government would be necessary.</v>
+      </c>
+      <c r="B8" t="str" xml:space="preserve">
+        <v xml:space="preserve">Men gräset är grönare på andra sidan
+</v>
+      </c>
+      <c r="C8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" xml:space="preserve">
+      <c r="A9" t="str">
+        <v>Don’t let anyone tell you how much time you should spend working or how hard you should work. No one knows your circumstances or what matters most to you as much as you do—so no one else can make a judgement about your five-to-nine better than you can. Also, what feels like ‘work’ for one person may not feel like ‘work’ for another person: some people would rather spend seven hours a day on long country walks than two hours commuting into an office; some people want their careers because they enable them to pursue their passions while other people want nothing more than an uncomplicated pay cheque so that they can fund their passions outside of work; and some people want jobs because they want purpose while other people see jobs as nothing more than a means by which they can fund whatever else matters most in their lives (and could happily spend 20 hours a week working on these things rather than 40). Quantity doesn’t mean quality. Be ambitious about your own career—but don’t let the ambition get in the way of what matters most for you personally, about your life outside of work and about your mental health.</v>
+      </c>
+      <c r="B9" t="str" xml:space="preserve">
+        <v xml:space="preserve">Låt det inte förbli
+</v>
+      </c>
+      <c r="C9">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" xml:space="preserve">
+      <c r="A10" t="str">
+        <v>Understand that old people aren’t actually that worried about old age, according to numerous surveys. The most recent one I can find was undertaken by American research firm NORC in 2016. It polled over 3,000 adults and found that old people are more optimistic about growing old than younger adults: 46 percent of thirty-somethings said they were optimistic about aging, compared to 66 percent for the seventy-pluses. It seems that worrying about growing old is a sign you are young. And the main reason to be optimistic about old age is that old people themselves are. Resilience seems to grow.</v>
+      </c>
+      <c r="B10" t="str" xml:space="preserve">
+        <v xml:space="preserve">Förstå
+</v>
+      </c>
+      <c r="C10">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" xml:space="preserve">
+      <c r="A11" t="str">
+        <v>There are many golden things one may find at an age when most people have had the time and wisdom accumulated through decades of study to look around; there is much beauty left for them even if their bodies can't move as fluidly as those belonging to younger generations do so well right now which include loving feelings that come forth again after finding out how precious each moment might be during senior years along with living while cherishing whatever small things turn up unexpectedly every day despite its simplicity instead of crying over spilled milk simply caused by temporary failures back then since it's never too late once we feel optimistic about what lies ahead whatsoever whether pleasant or unpleasant from beginning until the end regardless who else feel contented everyday despite mistakes made throughout journeys within past seasons before eventually calming down due having tons more responsibilities than usual either way on account(in part)to different relationships for instance intimate ones leading to marriage including parents giving birth multiple times following extramarital affairs ending up conflicting constantly meaning old people aren’t regarded very highly these days whereas some elderly individuals get treated worse off (when compared against young folks) due(in part)to different relationships for example intimate ones leading to marriage so we don't have to deal with their own parents or kids getting involved figuratively from now on.</v>
+      </c>
+      <c r="B11" t="str" xml:space="preserve">
+        <v xml:space="preserve">Det ar 4 
+</v>
+      </c>
+      <c r="C11">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" xml:space="preserve">
+      <c r="A12" t="str">
+        <v>Learning about climate change, and its impending effects, is an emotional experience. The distress, anxiety, worry, and/or fear that stem from an overarching awareness of climate change are often considered to be related to the broader concept of ‘psychoterratic syndromes’. This concept was first introduced by the environmental philosopher, Glenn Albrecht, and is defined broadly as ‘psychological responses to negative changes to the state of the Earth’. Terms such as eco anxiety, climate anxiety, and eco distress are often used to describe these negative responses. Also, the related term ‘solastalgia’, broadly defined as distress from the transformation and degradation of one’s home environment, also falls into psychoterratic syndromes. Such concepts are gaining traction in print and online media. For example, Grist Magazine declared climate anxiety as the biggest pop-culture trend of the year in 2019. Additionally, there is a growing recognition of the impact of climate change awareness on mental well-being among researchers and mental health professionals. For instance, the American Psychological Association has defined eco anxiety as ‘a chronic fear of environmental doom’; while the Royal College of Psychiatrists defines eco distress among young people as ‘the wide range of emotions and thoughts young people may experience when they hear bad news about our planet and the environment’. Moreover, mental health professionals have reported counseling individuals dealing with distress about climate change.</v>
+      </c>
+      <c r="B12" t="str" xml:space="preserve">
+        <v xml:space="preserve">Läras
+</v>
+      </c>
+      <c r="C12">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" xml:space="preserve">
+      <c r="A13" t="str">
+        <v>The first thing I noticed about the man was his eyes. They were the color of the sky on a clear day, and they were filled with a sadness that I had never seen before. He was tall and thin, and his clothes were old and worn. He had a long beard and a mustache, and his hair was long and gray. He looked like a man who had been through a lot in his life.</v>
+      </c>
+      <c r="B13" t="str" xml:space="preserve">
+        <v xml:space="preserve">Första filen översättning
+</v>
+      </c>
+      <c r="C13">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" xml:space="preserve">
+      <c r="A14" t="str" xml:space="preserve">
+        <v xml:space="preserve">The history of American advertising begins with the first ads created in the United States. These advertisements were meant to promote products and services, and they are some of the earliest examples of the use of advertising in America.
+Throughout the 1800s, Americans were interested in buying and using new technology, so advertisers began to create ads that featured things like machines, railways, and new clothing styles. They also savvy about how to reach their target audience, and so these ads were designed to be popular and persuasive.
+As technology changed and people became more interested in different aspects of their lives, American advertising changed as well. In the 1960s,american advertisers started to focus on printing ads instead of digital ones. This was because printed ads often had more impact than digital ones and could be seen by a wider audience.
+Through the years, American Advertising has continued to make a large impact on the way people live, work, and play. And it is without doubt one of the most important genres of advertising in modern times.</v>
+      </c>
+      <c r="B14" t="str" xml:space="preserve">
+        <v xml:space="preserve">Histor
+The final status störstatus
+Solidaritets medför
+Därigenom
+</v>
+      </c>
+      <c r="C14">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" xml:space="preserve">
+      <c r="A15" t="str">
+        <v>1. Eat well. Our brains are 60 per cent fat, so we need the good kind of healthy fat—Omega 3—for our brain health. Other nutrients that help our brain include vitamin B, vitamin E, and foods like blueberries and broccoli. Foods like broccoli and blueberries are good for us, but they don’t taste like, say, a meatball sub with cheese fries. What can help is to think how quickly bad food makes us feel bad. It might take us an hour to eat a cheeseburger, but it will take our mood maybe only ten minutes to decline. If healthy food can take that long to digest, surely it is worth waiting for the positive effects? It has long been known how important diet is for physical health. But now there is evidence of how it can benefit our mood too. A study in Biological Psychiatry, for example, found that healthy dietary patterns that included foods like fish, fruit, and vegetables was associated with lower levels of depression.</v>
+      </c>
+      <c r="B15" t="str" xml:space="preserve">
+        <v xml:space="preserve">1. Äta		well         1. Eat well
+2. Trän		ar			 2. Exercise
+</v>
+      </c>
+      <c r="C15">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" xml:space="preserve">
+      <c r="A16" t="str">
+        <v>This policy of supplying, by opposite and rival interests, the defect of better motives, might be traced through the whole system of human affairs, private as well as public. We see it particularly displayed in all the subordinate distributions of power, where the constant aim is to divide and arrange the several offices in such a manner as that each may be a check on the other—that the private interest of every individual may be a sentinel over the public rights. These inventions of prudence cannot be less requisite in the distribution of the supreme powers of the State.</v>
+      </c>
+      <c r="B16" t="str" xml:space="preserve">
+        <v xml:space="preserve">Om du hittar en kolv
+Så spika upp den på vågen
+I väntan auf den Zug
+</v>
+      </c>
+      <c r="C16">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" xml:space="preserve">
+      <c r="A17" t="str" xml:space="preserve">
+        <v xml:space="preserve">The Scopes trial of 1925 was one of the most significant events in American History. The trial was fought over the belief of creationism, or the belief that God created the universe and all that exists within it in its present form. The trial pitted science against religion and it was seen as a battle between the individual and the establishment.
+The trial began in Dayton, Tennessee on February 24th and ended on March 25th. The trial was presided over by John T. Scopes and it involved the trial of William Jennings Bryan, a well-known religious figure who was the most vocal opponent of creationism. Bryan was charged with breaking the Tennessee law against teaching evolution, which was seen by many as an attack on religious beliefs.
+The trial was a famous one and it had a large impact on American society. The outcome of the trial was controversial and it created a divide in the American public. The majority of the population believed in evolution and saw the trial as a battle between science and religion. However, there was a small group of people who believed in creationism and they saw the trial as a battle between good and evil.
+The trial was a significant event in American History because it created a divide in the American public. The majority of the population believed in evolution and saw the trial as a battle between science and religion. However, there was a small group of people who believed in creationism and they saw the trial as a battle between good and evil. The outcome of the trial was controversial and it created a divide in the American public. The majority of the population believed in evolution and saw the trial as a battle between science and religion. However, there was a small group of people who believed in creationism and they saw the trial as a battle between good and evil. The outcome of the trial was controversial and it created a divide in the American public. The majority of the population believed in evolution and saw the trial as a battle between science and religion. However, there was a small group of people who believed in creationism and they saw the trial as a battle between good and evil.</v>
+      </c>
+      <c r="B17" t="str" xml:space="preserve">
+        <v xml:space="preserve">Scope är en grundform i näringslära som ursprungligen innehållit olika former av saften hos växter som korn och sockerbetor.
+Scope är ett myskliknande ämne, och ger också dess konsistens.
+Eftersom scope bryts ner ganska fort, använde man tidigare scope som bas för gummimaterial, såsom "gummi skotts".
+</v>
+      </c>
+      <c r="C17">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="18" xml:space="preserve">
+      <c r="A18" t="str" xml:space="preserve">
+        <v xml:space="preserve">There are many benefits to exercise, both physically and mentally. Physical benefits include improved heart health, stronger muscles, reduced fat storage, and an increased ability to move more easily. Mental benefits include better concentration, reduced stress levels, and enhanced moods.
+Physical benefits of exercise include: 
+Improved heart health. Exercise has been shown to improve blood circulation and reduce the risk of heart disease by helping prevent the buildup of plaque on arteries walls. Additionally, regular exercise can help reduce the amount of fat around the midsection, which in turn can reduce the risk of heart disease and stroke.
+Stronger muscles. With regular exercise, you will build muscle tissue that can help you achieve greater strength and endurance when performing physical activity later on in life. This can help you avoid injuries and maintain your current level of physical fitness.
+Reduced fat storage. Exercising regularly can help to reduce the amount of bodyfat stored on your body, which can reduce the risk for obesity and other chronic diseases associated with excess bodyfat.
+Increased ability to move more easily. Regular exercise can also help you increase your mobility so that you are able to do everyday activities with less discomfort or difficulty. This may be particularly beneficial if you have arthritis or any other medical conditions that restrict your ability to move easily.
+Mental benefits of exercise include: 
+Better concentration. Exercise has been shown to improve cognitive function by increasing blood flow to the brain and reducing cortisol levels in the bloodstream. Cortisol is a hormone released during stressful situations that can adversely affect how we think and perform tasks. By reducing cortisol levels, exercise may help improve memory recall and focus while also reducing stress levels overall.
+Reduced stress levels. Exercise has been shown to decrease stress levels by releasing endorphins – hormones that protect the body against pain – in our brains. Endorphins are also responsible for producing positive feelings such as happiness and euphoria. Consequently, being stressed out while trying to workout may lead to negative effects such as fatigue, irritability, and increased anxiety levels. By doing mediation or deep breathing exercises before your workout, you can help ease into a state of relaxation before beginning your routine. This should result in improved mental clarity and energy during your workout session.
+Enhanced moods. Exercise has consistently been shown to improve moods by decreasing stress hormones like cortisol and elevating serotonin levels in the brain. Serotonin is a neurotransmitter responsible for regulating emotional reactions such as happiness, hunger, sleepiness, anxiety, depression, anger, and addiction behavior . Elevated serotonin levels may contribute to an improved sense of well-being after working out due to its role in managing emotions effectively .</v>
+      </c>
+      <c r="B18" t="str" xml:space="preserve">
+        <v xml:space="preserve">En räv äter majs
+En hund enstäckt med schampo
+</v>
+      </c>
+      <c r="C18">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" xml:space="preserve">
+      <c r="A19" t="str">
+        <v>Abraham Lincoln, commander in chief of the United States armed forces, and Edwin M. Stanton, Secretary of War, were themselves parties to the attempted arrest, trial and conviction of an American citizen by a military tribunal in the presence of a civil court, in spite of the fact that the enforcement of justice by civil courts was not then impossible. Judge Advocate Holt, in his history of military justice, makes the point that "the Supreme Court in this instance, could hardly have been carried away by any over-zeal for the maintenance of constitutional rights. The judges were all men of experience; men who had passed through the Civil War or the war with Mexico, and two of them by bitter experience in the Northern prisons had had the best education for understanding the difficulties which confront the commander of a military force struggling for existence against armed and organized resistance. Moreover, the first army commander who had encouraged the military commissions in the South on this same ground of necessity had just weeks before been tried and condemned by a military commission for murder. If Judge Advocate Holt's view is correct, the men who were tried in the Milligan case had much less excuse for their conduct than did General Butler</v>
+      </c>
+      <c r="B19" t="str" xml:space="preserve">
+        <v xml:space="preserve">Esther Anastasia Li
+Jag hatar svensk grammtik
+Olivia Li. "Fuck, I forgot a semicolon."
+Hej, jag heter Abram Li. Jag hatar att jag kan inte räkna, men jag har matte 2b. Jag vart en mycket små barn på 1 år. Jag två tre leksaker.
+Jag har håret en stol blå ferns.
+"LIKE HALLA I DIN PENIS" -Bob the Builder
+There once was a frecnh boy name Joey who had a small penis.
+</v>
+      </c>
+      <c r="C19">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="20" xml:space="preserve">
+      <c r="A20" t="str" xml:space="preserve">
         <v xml:space="preserve">The relationship between climate change and mental health is poorly understood. While increasing attention has been paid to the physical health consequences of climate change, few studies have examined the psychological adjustments that may be made by people in climate-affected areas. This study aimed to investigate the relationship between climate change and mental health in a dryland region of Kenya. Data were collected from 300 adults from 10 sites in Laikipia County, Kenya. Logistic regression model was employed to determine the association between future climate change and mental health. Significant associations were found between climate change-related variables, including lower nervous energy, poor appetite, and poor sleep quality, and the risk of psychological distress. 
 The findings suggest that the mental health impacts of climate change may be most severe in dryland regions. However, the results should be interpreted with caution due to the cross-sectional design. Additional studies are needed to confirm the findings, and to determine the mechanisms through which climate change impacts psychological distress.</v>
       </c>
-      <c r="B7" t="str" xml:space="preserve">
-        <v xml:space="preserve">Klimatförändringar och mental hälsa är föga förstådda begrepp i varandras relationer. Det finns en ökad uppmärksamhet om de fysiskas hälsor de negativa konsekvenserna klimatförändringar medför, men få undersökningar har väntat sig om den psykiatriska påverkan människor i världen kan hälsas. Denna studie bedömmer relationen mellan klimatsförändringar och mänsklig hälsa i torkiga områden. Denna studie ha utforskats vid ett samhälle i Kenya som kallas Laikipia län. Statistik vara samlas upp från 300 unga vuxna som leva från 10 platser i Laikipia län. Logistic regressiomodellen har eftslitstätt för att se de korlationssvaga studiermellan klimatförändringar och mentala hälsoförsvåringar. Signifikanta överrgielser mellan klimatförändringar-kognirvande variabler, inkluderandes nerverosenergi, dåliga aptiter, och dlegeliga s-setmanna kvaliteter samt faran ned psykologiska skavanker. 
-The findings suggest that the mental health impacts of climate change may be most severe in dryland regions. However, the results should be interpreted with caution due to the cross-sectional design. Additional studies are needed to confirm the findings, and to determine the mechanisms through which climate change impacts psychological distress.
-</v>
-      </c>
-      <c r="C7">
-        <v>1231</v>
-      </c>
-    </row>
-    <row r="8" xml:space="preserve">
-      <c r="A8" t="str">
-        <v>Social media has become an important part of education. It allows students to connect with each other and share ideas, experiences, and thoughts. Additionally, social media can offer educators a way to measure student engagement and improve teaching techniques. Social media also plays an important role in creating a community for educators, which can help increase their understanding of their students and help them better teach. In addition, social media can be used to promote specific content or courses, which can improve the learning experience for students. Overall, social media has been a powerful tool for educators and has helped them improve their teaching skills as well as their students’ engagement.</v>
-      </c>
-      <c r="B8" t="str" xml:space="preserve">
-        <v xml:space="preserve">Sociala medier har blivit en viktig del av utbildningen.
-Det gör det möjligt för studenter att ansluta till varandra och dela idéer, erfarenheter och tankar.
-Dessutom kan sociala medier erbjuda lärare ett sätt att mäta studentengagemang och förbättra undervisningstekniker.
-Sociala medier spelar också en viktig roll i att skapa en gemenskap för lärare, vilket kan öka deras förståelse för sina elever och hjälpa dem att lära sig bättre. 
-Dessutom kan sociala medier användas för att marknadsföra specifikt innehåll eller kurser, vilket kan förbättra lärandet för studenter.
-Sammanfattningsvis har sociala medier varit ett kraftfullt verktyg för lärare och har hjälpt dem att förbättra sina undervisningskompetenser samt sina studenters engagemang.
-</v>
-      </c>
-      <c r="C8">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="9" xml:space="preserve">
-      <c r="A9" t="str" xml:space="preserve">
-        <v xml:space="preserve">There are many reasons why this change might happen. First, as businesses become aware of the value of having a diverse workforce, they are able to see the cost-benefit of increasing inclusion. This means that they can afford to invest in establishment of rules and procedures that benefit all employees regardless of sex. Second, businesses have been gradually realizing that successful organizations cannot only rely on hired workers alone; they also needokoaborforce members who can contribute both theory and practice. And finally, recent studies have shown thatreatedworkers fairly improves productivity for all employees (Snyder et al., 2006). Thus, adapting policies and procedures in order to meet the needs of transgender employees is becoming increasingly popular among business leaders.
-Although there are some challenges associated with implementing such policies, I believe that these efforts will result in massive improvements for both men and women working in the workplace. In fact, I predict that over time, we will see an even larger increase in women's representation within businesses - and this growth will be based largely on increased awareness and sensitivity towards minority groups within workplaces.</v>
-      </c>
-      <c r="B9" t="str" xml:space="preserve">
-        <v xml:space="preserve">Det finns många skäl till att detta förändring kan hända. Först, som näringsliv bli medvetna om värdet av att ha en diversifierad arbetskraft kan ställa sig, kan de se kostnad-nytta med ökad inclusiveness. Detta betyder att de som har råd att investera i utbyggnaden av regler och förfaranden som fördelar alla anställda oavsett kön. Andra, företag har gradvis inse att växande organisationer inte bara kan lita på antagna arbetstagare ensam, de behöver också needokoaborforce medlemmar kan bidra med både teori och praktik. Eftersom det är så, förtäljde Ford sin arbetskamrater i gemensamt företag i USA, Mexico, eller via Wikipedia arbetskamrater, när kön union är redan accepterad och bekräftade 1990. och äntligen, nyligen har studier visat att ratearbetstagare rättvist förbättrar produktivitet av all personal (Snyder et al.
-, 2006). På detta vis, anpassa politik och förfaranden för att uppfylla behoven hos transpersoner anställda blir allt mer populära bland företagsledare.
-Även om det finns utmaningar som är förknippade med att implementera sådana politiker tror jag att dessa ansträngningar kommer att leda till en massiv förbättring i både män och kvinnor i arbetet. Faktum är att jag förutser att över tiden kommer vi se ett ännu större ökning i kvinnors representation inom näringslivet, och denna tillväxt kommer att grundas till stor del på ökad medvetenhet och känslighet mot minoriteter i arbetsplatsen.
-</v>
-      </c>
-      <c r="C9">
-        <v>1020</v>
-      </c>
-    </row>
-    <row r="10" xml:space="preserve">
-      <c r="A10" t="str">
-        <v>The fan is made up of three parts: the motor, the blade, and the housing. The motor is plugged into an outlet, and the blade turns thanks to the power. The housing helps to keep everything in place, and it's easy to clean.</v>
-      </c>
-      <c r="B10" t="str" xml:space="preserve">
-        <v xml:space="preserve">Fläkten består av tre delar: motorn, bladet och huset. Motorn är ansluten till ett uttag och bladet snurrar tack vare strömmen. Huset hjälper till att hålla allt på plats och det är lätt att hålla rent.
-</v>
-      </c>
-      <c r="C10">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="11" xml:space="preserve">
-      <c r="A11" t="str">
-        <v>I was a 'Duck Hunt' and 'Mario' guy, and stuff like that. I was never technologically driven. I never had all the cool, new toys. I was the youngest child, I wasn't the only child, so I wasn't spoiled as a kid. And, we were on the farm, so we didn't have a lot. Also, with computers, I'm not very good with them. I just check my email.</v>
-      </c>
-      <c r="B11" t="str" xml:space="preserve">
-        <v xml:space="preserve">Jag var en 'duck hunt' och 'mario' kille, och sådant. Jag var aldrig tekniskt drevs. Jag hade aldrig alla de coola, nya leksaker. Jag var det yngsta barnet, jag inte var det enda barnet, så jag var inte förvrängd som ett barn. Och vi var på farmen, så vi hade inte allt. Även om datorer, jag är inte mycket bra på dem. Jag kollar mitt email.
-</v>
-      </c>
-      <c r="C11">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="12" xml:space="preserve">
-      <c r="A12" t="str" xml:space="preserve">
-        <v xml:space="preserve">
-The Catcher in the Rye is a book that I absolutely loved. I think that it is a book that is about how a young boy named Holden Caulfield feels about his life. Holden is a young boy who is live in a small town in New England. He is a young boy who is feeling very alone and lost. Holden Caulfield is feeling very lonely and lost.</v>
-      </c>
-      <c r="B12" t="str" xml:space="preserve">
-        <v xml:space="preserve">
-Hetfield i rye är en bok att jag absolut älskade. Jag tycker att det är en bok som är om hur en ung pojke vid namn Holden Caulfield känner om sitt liv. Holden är en ung pojke som är live i en liten stad i New England. Han är en ung pojke som känner sig mycket ensam och förlorade. Holden Caulfield känner sig mycket ensam och förlorad.
-</v>
-      </c>
-      <c r="C12">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="13" xml:space="preserve">
-      <c r="A13" t="str">
-        <v>The sun was setting as I reached the top of the hill. In front of me lay a small clearing with a pond in it, and on one side sat an old oak tree, while across from it stood a smaller fir. The loamy smell of earth filled my nose as I slowly made my way to the pond. I could see water lilies swaying in its surface; their pink petals contrasting against the murky green depths. With every step taken forward, chorus frogs croaked out their calls until they were drowned out by crickets chirping rhythmically in response. Once I had reached the edge of the pond, I took off my shoes and socks and waded into its cool waters up to my thighs before turning around so that i could look at everything surrounding me.</v>
-      </c>
-      <c r="B13" t="str" xml:space="preserve">
-        <v xml:space="preserve">The sun was setting as I reached the top of the hill. In front of me lay a small clearing with a pond in it, and on one side sat an old oak tree, while across from it stood a smaller fir. The loamy smell of earth filled my nose as I slowly made my way to the pond. I could see water lilies swaying in its surface; their pink petals contrasting against the murky green depths. With every step taken forward, chorus frogs croaked out their calls until they were drowned out by crickets chirping rhythmically in response. Once I had reached the edge of the pond, I took off my shoes and socks and waded into its cool waters up to my thighs before turning around so that i could look at everything surrounding me.
-Solnedgången när jag nådde toppen av en kulle. Framför mig låg en liten glänta med en damm i, och på en kant en gammal ek som satt , medan mitt emot det av större granen. Jord lukt fyllda min näsa under min långsamt gick till dammen. Jag kunde se vattenliljor svinga i sitt ytan; sina rosa kronblad kontrast mot mörkgröna djupet. Med varje steg tagit framåt , körgrenar grodan anropade till sitt rop tills de drunknade ut när tårtugglahoppa ping på kronologiskt sätt i respons. Så snart jag nått kanten av dammen, tog jag av mina skor och sockor och waded i kalla vatten till låren innan man vänder cirka så att jag kunde titta på alla som omgav mig.
-</v>
-      </c>
-      <c r="C13">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="14" xml:space="preserve">
-      <c r="A14" t="str">
-        <v>I share the belief of many of my contemporaries that the spiritual crisis pervading all spheres of Western industrial society can be remedied only by a change in our world view. We shall have to shift from the materialistic, dualistic belief that people and their environment are separate, toward a new consciousness of an all reality, which embraces the experiencing ego, a reality in which people feel their oneness with animate nature and all of creation.</v>
-      </c>
-      <c r="B14" t="str" xml:space="preserve">
-        <v xml:space="preserve">Just another file 
-I and all of my friends with whom I often gossip with are so much frustarted with the very scope of our daily life.
-It is a very big challenge which comes in the form of a discipline which helps us building a world view.
-We still strongly believe that all this stuf can be adequately solved by a change in the world view.
-We agree collectively that we need first to move from the definition that human evolution and nature evolution are two different things to a new and stronger belief wherein the human evolution and nature evolution are inter-dependent and inter-related factors in a very natural way that a human can co-evolve along with a nature.
-</v>
-      </c>
-      <c r="C14">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="15" xml:space="preserve">
-      <c r="A15" t="str">
-        <v>I mean the beauty of being a writer is it's not like being a swimmer. When they were talking about our Olympic swimmers and they'd say, 'Oh she's so old,' and she's all of 25 or something. So the beauty for a writer is that you can keep doing it right into your dotage, and I hope to be able to keep doing it as long as I can get away with it, yeah.</v>
-      </c>
-      <c r="B15" t="str" xml:space="preserve">
-        <v xml:space="preserve">jag vill så glad att skriva läsare hela tiden, tack. 
-</v>
-      </c>
-      <c r="C15">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="16" xml:space="preserve">
-      <c r="A16" t="str" xml:space="preserve">
-        <v xml:space="preserve">
-I am creating a lightweight tool to help automate the process of finding and verifying software dependencies. The tool will be able to find and verify dependencies using a variety of methods, including but not limited to, command line options, API calls, and a comprehensive search engine. The tool will also be able to generate reports detailing the dependencies found and the status of each dependency.</v>
-      </c>
-      <c r="B16" t="str" xml:space="preserve">
-        <v xml:space="preserve">
-Jag skapar ett lättviktigt verktyg för att hjälpa att automatisera processen att hitta och verifiera program- beroenden. Verktyget kommer att kunna hitta och verifiera beroenden med ett antal metoder, inklusive men inte begränsat till, kommandoradalternativ, API-anrop och ett omfattande sökmotor. Verktyget kommer också att kunna generera rapporter med information om de beroenden som hittats och statusen för varje beroende.
-</v>
-      </c>
-      <c r="C16">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="17" xml:space="preserve">
-      <c r="A17" t="str">
-        <v>There is one characteristic of the present direction of public opinion peculiarly calculated to make it intolerant of any marked demonstration of individuality. The general average of mankind are not only moderate in intellect, but also moderate in inclinations; they have no tastes or wishes strong enough to incline them to do anything unusual, and they consequently do not understand those who have, and class all such with the wild and intemperate who they are accustomed to look down upon.</v>
-      </c>
-      <c r="B17" t="str" xml:space="preserve">
-        <v xml:space="preserve">En märklig egenskap hos människor är att vi alla känner oss obekväma eller till och med främmande för vilda höjdpunkter. Genomsnittsmänniskans blick är formad av att vi hämtar massor med inspiration från vår omgivning. Våra känslor och dominanta personligheter, vår speciella upptäckt är omisskännliga och representerar alla våra nerver och förhållanden i vardagen.
-</v>
-      </c>
-      <c r="C17">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="18" xml:space="preserve">
-      <c r="A18" t="str">
-        <v>Love is the best feeling in the world. It's the best feeling when you're with someone you care about and you feel happy and content. Love is the best feeling when you're in a relationship and you're happy and you feel loved. Love is the best feeling when you're with someone who you think is the best for you.</v>
-      </c>
-      <c r="B18" t="str" xml:space="preserve">
-        <v xml:space="preserve">Kärlek är det bästa känslan i världen. Det är det bästa när du är samma person bär du dig om och du känner lyckligt och nöjda. Kärlek är det bästa när du är i en relation och du är nöjd och förlora känslan. Kärlek är det bästa när du är med någon som du tror är bäst för dig.
-</v>
-      </c>
-      <c r="C18">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="19" xml:space="preserve">
-      <c r="A19" t="str">
-        <v>When I arrived in New Zealand, I was cautious, tentative, nervous. The foreignness was profound and biting. In the North American West, I was used mountains, forests, rivers, and fields. I could feel at home in the familiar. In New Zealand, everything was foreign. Everything was unfamiliar. Every decision was new</v>
-      </c>
-      <c r="B19" t="str" xml:space="preserve">
-        <v xml:space="preserve">: When I arrived in New Zealand, I was cautious, tentative, nervous. The foreigness was profound and biting. In the North American West, I was use mountains, forests, rivers and fields. I could feel at home in the familiar. In New Zeland, everything was foreign. Everything was unfamiliar. Every desicion was new.
-Translate it into "Swedish".
-</v>
-      </c>
-      <c r="C19">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="20" xml:space="preserve">
-      <c r="A20" t="str" xml:space="preserve">
+      <c r="B20" t="str" xml:space="preserve">
+        <v xml:space="preserve">Formuläret är designad för att skapa förbindelser med hjälp av SQLsnabb. Här har vi en relaterat fråga och alternativ. relaterade fraga som är den första frågor och alternativ är relaterade till den frågan. Den relaterad fråga och alternativ kommer att lagras i tabellen "mysurvey". Den relaterade frågan och alternativet i den skapade fözörenheten kommer att visas som en sida i det sätt som det är.
+Dessa skärmdumpar är även läggas till i detta formulär.
+</v>
+      </c>
+      <c r="C20">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="21" xml:space="preserve">
+      <c r="A21" t="str" xml:space="preserve">
         <v xml:space="preserve">
 I was wondering if you could tell me how to make these math problems more interesting.</v>
       </c>
-      <c r="B20" t="str" xml:space="preserve">
-        <v xml:space="preserve">Kan du berätta för mig hur jag ska göra detta mer matematiska problem intressant?
-</v>
-      </c>
-      <c r="C20">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="21" xml:space="preserve">
-      <c r="A21" t="str">
-        <v>It has always seemed strange to me... the things we admire in men, kindness and generosity, openness, honesty, understanding and feeling, are the concomitants of failure in our system. And those traits we detest, sharpness, greed, acquisitiveness, meanness, egotism and self-interest, are the traits of success. And while men admire the quality of the first they love the produce of the second.</v>
-      </c>
       <c r="B21" t="str" xml:space="preserve">
-        <v xml:space="preserve">Det har alltid varit konstigt för mig... Saker vi beundrar hos en människa, vänlighet och generositet, öppenhet, ärlighet, förståelse och känsla, är ett samlande av misslyckande i våran situation. Och de här egenskaperna vi avsky, skärpa, girighet, ambisjon, egoism, är egenskaper som för våran situation framåt. Och medan mannen beundrar människan med de goda kvaliteterna så älskar han den produkt som mannen med de goda egenskaperna ger.
+        <v xml:space="preserve">I was won → Jag var vunnen
 </v>
       </c>
       <c r="C21">
-        <v>394</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" xml:space="preserve">
       <c r="A22" t="str">
-        <v>A couple of months ago, I was down in Florida for the Food and Wine Festival. And this journalist grabbed me and said, 'How does it feel to be a TV guy? You're no longer in the restaurant business.' And I laughed. I asked him, 'How long do you think it takes me to do a season?' He said, 'Well, 200 days.' And I was like, '200 days? Try 20!'</v>
+        <v>The fan is made up of three parts: the motor, the blade, and the housing. The motor is plugged into an outlet, and the blade turns thanks to the power. The housing helps to keep everything in place, and it's easy to clean.</v>
       </c>
       <c r="B22" t="str" xml:space="preserve">
-        <v xml:space="preserve">För några månader sedan var jag i Florida för Food and Wine Festival. Och den här journalisten tog fram mig och sa, "Hur känns det att vara en TV-kille? Du är inte längre i restaurantbusinessen ". Och jag skrattade. Jag frågade honom, "Hur lång tid tror du att det tar mig att göra en säsong?" Han sa, "Nja, 200 dagar." Och jag sa, "200 dagar? Prova 20!"
+        <v xml:space="preserve">The fan is so cool!
 </v>
       </c>
       <c r="C22">
-        <v>340</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" xml:space="preserve">
       <c r="A23" t="str">
-        <v>I am a perfectionist but I know how to live life. When I'm working, it's 100%. When I'm with my friends, I put everything away and enjoy life. When I come home to my kids, it's pure joy and everything's worth it. Every time, I really focus 100 percent on one thing. I've learned how to juggle my life and I feel like now I have the perfect balance.</v>
+        <v>I want to be happy and fulfilled. I believe that happiness and fulfillment are the key to a healthy life. I want to find a way to be happy and fulfilled without any extra work or stress. I want to find a way to be happy and fulfilled that is sustainable and equal to my own abilities and desires. I want to find a way to be happy and fulfilled that is possible for me to maintain and improve.</v>
       </c>
       <c r="B23" t="str" xml:space="preserve">
-        <v xml:space="preserve">Jag är en perfektionist men jag vet hur man levs. När jag arbetar, det är 100%. När jag är med mina vänner, jag har allting bort och njuta av livet. När jag kommer hem till mina barn, det är ren glädje och det är allting värt. Varje gång, ökar jag verkligen fokus 100 procent på en sak. Jag har lärt mig att lyssna på mitt liv och jag känner som nu har jag den perfekta balansen.
+        <v xml:space="preserve">I want to 
+Jag vill
 </v>
       </c>
       <c r="C23">
-        <v>365</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" xml:space="preserve">
       <c r="A24" t="str">
-        <v>I love women, but I feel like you can't trust some of them. Some of them are liars, you know? Like I was in the park and I met this girl, she was cute and she had a dog. And I went up to her, we started talking. She told me her dog's name. Then I said, 'Does he bite?' She said, 'No.' And I said, 'Oh yeah? Then how does he eat?' Liar.</v>
+        <v>The impact of climate change on the mental health of young people is poorly understood. Emerging evidence suggests that exposure to climate change exerts a disproportionate mental health burden on young people. An understanding of the risk factors (RFs) and protective factors (PFs) that affect the likelihood of mental health impacts arising from exposure to climate change is required to support youth wellbeing. Aims/objectives: This review scopes the current research on what and how RFs and PFs are related to the mental health impacts of both direct and indirect exposure to climate change for young people. RFs and PFs were reviewed through the lens of ecological system theory. Methods: We conducted systematic searches in four databases: PubMed, PsycInfo, Web of Science, and Scopus. Grey literature searches were conducted in ProQuest Dissertations, GreyLit.org, OpenGrey, and relevant organisations’ websites. We included 92 empirical studies focused on the RFs and PFs of the mental wellbeing under the impact of climate change of young people (0–24). We extracted data on study characteristics, type of climate change event, mental health outcomes, RFs and PFs, and associated ecological system level. Results: The current evidence base focuses predominantly on young people’s experience of PTSD (k = 59), depression (k = 26), or anxiety (k = 17) mainly following exposure to singular climate change-related natural disaster events. Only four studies explored the impacts of climate change in general. Majority of the studies investigated RFs and PFs at the individual level and at the micro-system level. Conclusions: Several RFs and PFs were identified, such as coping strategies, family factors (e.g. parenting style), social support, community connection, and cultural identity. Positioning the mental health impacts of singular events within the broader context of ongoing and escalating climate change impacts will better inform the development of interventions that seek to build resilience among young people.</v>
       </c>
       <c r="B24" t="str" xml:space="preserve">
-        <v xml:space="preserve">Jag älskar kvinnor, men jag känner som du inte kan lita på några av dem. Vissa är lögnare, du vet? Som jag var i parken och jag träffade den här tjejen, hon var söt och hon hade en hund. Och jag gick upp till henne, vi började prata. Hon berättade för mig hennes hunds namn. Sedan sa jag, Äter han bite? ' Hon sa, 'Ja.' Och jag sa: 'Åh, är det så? Då hur gör han äta?' Liar.
-A phrase from the American comedian Mitch Hedberg.
+        <v xml:space="preserve">The impact
+Hur stor effekt klimatförändringarna får i Sverige längre fram beror på vilka beslut som våra grannar i Europa fattar nu. Man kan räkna på vilken skillnad det gör om vi antar att så många som möjligt spelar ball eller inte. Sverige hade troligen klarat sig ännu svårare de senaste åren om vatten utifrån
+inte hade fyllt på vattnet i sjöarna under 2009. Man måste jämföra med vad som skulle ha hänt utan att ha ingreppit i naturen, säger Sten Bergström till SNE.
+Det finns många bebyggda områden som kommer att drabbas hårt av översvämningar, urskogar kan försvinna,  en rad djurarter kommer att vara hotade om det kommer att ske klimatförändringarna. Det raporterar inte bara HGC. Källor:
+http://westman.expressen.se/
+http://www.expressen.se/debatt/fortsatt-klimatomstalling-kan-bli-dyrt.aspx http://www.forbes.com/sites/davidseanross/2013/10/29/activist-now-shows-in-japan-and-sweden-what-a-global-warming-tax-looks-like/.
+http://www.wherecoolthingshappen.com/the-true-impact-of-global-warming.html http://www.svd.se/opinion/ledare/kommer-att-kosta-taggiga-miljarder_7803711.svd http://www.expressen.se/klimat/vi-missar-masen-av-klimat--forandraren/ http://www.ifpri.org/sites/default/files/publications/nsd2015chap010415.pdf https://www.svtplay.se/video/6572698/klimatet/klimatet-steg-test http://www.winicoreklimatpodd.se/blogg/
 </v>
       </c>
       <c r="C24">
-        <v>409</v>
+        <v>603</v>
       </c>
     </row>
     <row r="25" xml:space="preserve">
-      <c r="A25" t="str">
-        <v>Strive with thy thoughts unclean before they overpower thee.  Use them as they will thee, for if thou sparest them and they take root and grow, know well, these thoughts will overpower and kill thee.  Beware!  Suffer not their shadow to approach.  For it will grow, increase in size and power, and then this thing of darkness will absorb thy being before thou hast well realized the black foul monster's presence.</v>
-      </c>
-      <c r="B25" t="str" xml:space="preserve">
-        <v xml:space="preserve">Strive with thy thoughts unclean before they overpower thee.  Use them as they will thee, for if thou sparest them and they take root and grow, know well, these thoughts will overpower and kill thee.  Beware!  Suffer not their shadow to approach.  For it will grow, increase in size and power, and then this thing of darkness will absorb thy being before thou hast well realized the black foul monster's presence.
-If any one of you sects would tell me whither I am to go,' I should listen to you willingly, and I believe that I should go along with you.  But if any one tells me that I must bring my desires into conformity with a certain creed involving nonsense, chaos, and absurdity--why, I say, 'No!  That is not for me!'
-</v>
-      </c>
-      <c r="C25">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="26" xml:space="preserve">
-      <c r="A26" t="str">
-        <v>Hearing, seeing and understanding each other, humanity from one end of the earth to the other now lives simultaneously, omnipresent like a god thanks to its own creative ability. And, thanks to its victory over space and time, it would now be splendidly united for all time, if it were not confused again and again by that fatal delusion which causes humankind to keep on destroying this grandiose unity and to destroy itself with the same resources which gave it power over the elements.</v>
-      </c>
-      <c r="B26" t="str" xml:space="preserve">
-        <v xml:space="preserve">Broderna Le Nain: Kaninuppfödare 1642
-Att höra, se och förstå varandra, mänskligheten från ena änden till den andra jorden nu lever samtidigt, omvärlden som en gud tack vare sitt eget skapande förmåga. Och, tack vare sin seger över utrymme och tid alla tider, det skulle vara förtrollande förenade om det inte blanda upp om och om igen av vad som är det dödliga inbillningen som orsakar människosläktet att fortsätta att förstöra den storslagna föreningen och förstöra sig själv med samma resurser som gav dem makt över element.
-</v>
-      </c>
-      <c r="C26">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="27" xml:space="preserve">
-      <c r="A27" t="str" xml:space="preserve">
-        <v xml:space="preserve">Mental health is a complex topic that can be difficult to understand. However, one of the most important aspects of mental health is the ability to cope with emotions. Emotions are the way we experience the world and can impact our ability to think, feel, and do things.
-There are many different types of mental health problems. However, some of the most common mental health problems are:
-- Depression
-- Anxiety
-- Bipolar Disorder
-- obsessive-compulsive disorder
-- eating disorders
-- ADHD
-- posttraumatic stress disorder
-- substance abuse
-It is important to talk to a healthcare professional about your mental health if you have any of these problems. They may be able to help you find medication or therapy to help you feel better.</v>
-      </c>
-      <c r="B27" t="str" xml:space="preserve">
-        <v xml:space="preserve">Psykiska hälsan är ett komplext ämne som kan vara svårt förstå. Men, en av de viktigaste aspekterna av psykisk hälsa är förmågan att hantera känslor. Känslor är sättet vi upplever världen och kan påverka vår förmåga att tänka, känna och göra saker.
-There are many different types of mental health problems. Men, några av de vanligaste psykiska hälsoproblem är:
-- Depression
-- Anxiety
-- Bipolar Disorder
-- obsessive-compulsive disorder
-- eating disorders
-- ADHD
-- posttraumatic stress disorder
-- substance abuse
-It is important to talk to a healthcare professional about your mental health if you have any of these problems. They may be able to help you find medication or therapy to help you feel better.
-</v>
-      </c>
-      <c r="C27">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="28" xml:space="preserve">
-      <c r="A28" t="str">
-        <v>It’s been said that insanity is doing the same thing over and over again and expecting different results. In today’s world, this often describes our approach to finances. We go through cycles of spending more money than we have, then reducing expenditures when faced with tough times only to get back into a cycle of increased borrowing that eventually destroys whatever good progress has been made. Financial planning should not be viewed as rote repetition but instead as an ongoing discussion between you and your financial advisor; one in which realistic goals are set together with the necessary compromises so both parties can reach them satisfactorily.</v>
-      </c>
-      <c r="B28" t="str" xml:space="preserve">
-        <v xml:space="preserve">Din tjänsteman söker jobb
-=========================
-Det har sagts att galenskap är att göra samma sak om och om igen och förvänta sig olika resultat. I dagens värld, det här beskriver ofta vår tillvägagångssätt till finanser. Vi går igenom cykler av att spendera mer pengar, då minska utgifterna när man utsätts för svåra tider bara för att få tillbaka i en cykel av ökad upplåning som till slut förstör vad god framsteg har gjorts. Finansiell planering ska inte ses som enkel repetition men i stället som en pågående diskussion mellan dig och din finansiella rådgivare, en där realistiska mål är inställt tillsammans med de nödvändiga kompromisser så att båda parter kan nå dem tillfredsställande.
-Inte vittna
-=========================
-Underg?ng eller ej, just nu, på grund av antalet enheter, många människor har litet koll på sina finanser. Många, för en engångskostnad, bara kan hantera ibland. 1,000 $ utgifterna sparkade knappt deras räkningar, och visste att de var mycket nära att bli inbyggt. Finansiell rådgivare kan faktiskt upptäcka ett problem innan kunden gör det, men de behagade inte att säga något.
-"I dessa frågor, och verkligen i livet, om du vet vad du ska göra, du definitivt kommer inte att få bra återkoppling om du gör något tråkigt.".
-Du kan säkert [veta mer här](http://financialadvisorpaulbrown.tumblr.com/post/6921253949/the-danger-of-the-false-positive)
-![Financialadvisor](http://tumblr.paulbrownnlp.com/financialadvisor)
-</v>
-      </c>
-      <c r="C28">
-        <v>874</v>
-      </c>
-    </row>
-    <row r="29" xml:space="preserve">
-      <c r="A29" t="str">
-        <v>The young woman in the photograph is Misery. Her eyes are sunken, her face gaunt and drawn with embarrassment. She's wearing a shabby dress and an expression of utter hopelessness graces her features. While it's not clear who this woman is or where the photo was taken, they have left us one lasting reminder: that behind every beautiful smile lies pain and suffering.</v>
-      </c>
-      <c r="B29" t="str" xml:space="preserve">
-        <v xml:space="preserve">Den unga kvinnan på fotot är Elendighet. Hennes ögon är insjunkna, hennes ansikte mager och ritade med skam. Hon bär en sliten klänning och ett uttryck av helt hopplöshet. Medan det inte är tydligt vem den här kvinnan är eller var fotot togs har de lämnat oss en bestående påminnelse: att bakom varje vacker leende ligger smärta och lidande.
-</v>
-      </c>
-      <c r="C29">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="30" xml:space="preserve">
-      <c r="A30" t="str" xml:space="preserve">
-        <v xml:space="preserve">
-I implemented a project for a customer that required me to install a new counter top in their kitchen. I first measured the area where the counter top would be, and then drew out a grid on paper to help me plan the layout of the screws and drill holes for the counter top. I then collected all of the necessary materials, including the counter top, screws, drill, saw, and sandpaper. I began by drilling holes in the grid that I had prepared, and then screwed the counter top into place. I then used a sandpaper block to smooth out any bumps or areas that were not perfectly flush with the surface of the counter top. Finally, I completed the project by sawing off any excess counter top material, and then sanded it smooth once again.</v>
-      </c>
-      <c r="B30" t="str" xml:space="preserve">
-        <v xml:space="preserve">Jag utförde ett projekt för en kund som krävde att jag skulle installera en ny bänkskiva i deras kök. Jag mätte först området där bänkskivan skulle vara och ritade sedan ut en rutnät på papper för att hjälpa mig planera placeringen av skruvarna och borrhålen för bänkskivan. Jag samlade sedan in alla nödvändiga material, inklusive bänkskivan, skruvar, borr, så gott och sandpapper. Jag började med att borra hål i det rutnät som jag hade förberedt och sedan skruva fast bänkskivan på plats. Jag började sedan med att använda ett sandpappersblock för att jämna ut eventuella kullerstensbeten eller områden som inte var perfekt flytande med ytan på bänkskivan. Slutligen slutförde jag projektet genom att såga av eventuellt överflödigt skivmaterial och sedan slipade den jämn.
-</v>
-      </c>
-      <c r="C30">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="31" xml:space="preserve">
-      <c r="A31" t="str">
-        <v>To power sustainable global trade, creating shared &amp; sustainable value requires catering to the needs on both sides of a trading table, creating winners among both Buyers and Suppliers. The purpose of Kodiak Hub is to enable businesses to unlock and leverage value in their value chain with the help of state-of-the-art and user-friendly technology developed for people, by people, at the intersection of great design, user experience &amp; science.</v>
-      </c>
-      <c r="B31" t="str" xml:space="preserve">
-        <v xml:space="preserve">Att makt hållbara global ekonomi, skapande gemensamma och hållbara värde kräver bemöda sig till behoven på båda sidor av en handels tabell, skapar vinnare både köpare och leverantörer. Syftet Kodiak Hub är att ge företag att låsa upp och utnyttja värde i sin värdekedja med hjälp av state-of-the-art och användarvänlig teknik utvecklad för människor, av människor, i korsningen av stor design, användarupplevelse &amp; Science.
-</v>
-      </c>
-      <c r="C31">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="32" xml:space="preserve">
-      <c r="A32" t="str">
-        <v>The United Nations four or five years ago put out a study that said the meat industry, meat-eating, growing meat for food is the No. 1 killer of our planet - not No. 2 or No. 3: No 1. You know what's No. 2? Transportation. Everyone thinks that No. 1 is transportation, and goes out and buys a hybrid car. Screw the hybrid cars. Don't eat hamburgers.</v>
-      </c>
-      <c r="B32" t="str" xml:space="preserve">
-        <v xml:space="preserve">The United Nations four or five years ago put out a study that said the meat industry, meat-eating, growing meat for food is the No. 1 killer of our planet - not No. 2 or No. 3: No 1. You know what's No. 2? Transportation. Everyone thinks that No. 1 is transportation, and goes out and buys a hybrid car. Screw the hybrid cars. Don't eat hamburgers.
-För fyra eller fem år sedan utfärdade Förenta Nationerna ett undersökning där de sa att köttindustrin, äter kött producerade till livsmedel är den främsta mördaren på vår planet - inte nr 2 eller 3. Vad är nr 2? Tranportation. Alla tror att nr 1 är transporation och av den anledningen köper de hybridbilen för att rädda världen. Strunta i hybridbilen. Ät inte hamburgare.
-</v>
-      </c>
-      <c r="C32">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="33" xml:space="preserve">
-      <c r="A33" t="str">
-        <v>This book was amazing. I never expected it to be so good, but it was. The writing was great, the characters were well-drawn, and the plot was exciting. I would definitely recommend this book to anyone.</v>
-      </c>
-      <c r="B33" t="str" xml:space="preserve">
-        <v xml:space="preserve">Detta är amerikanska. Det här är ameriksnka.
-</v>
-      </c>
-      <c r="C33">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="34" xml:space="preserve">
-      <c r="A34" t="str">
-        <v>This whole business of Trade gives me to pause and think, as it constitutes false relations between men; inasmuch as I am prone to count myself relieved of any responsibility to behave well and nobly to that person who I pay with money, whereas if I had not that commodity, I should be put on my good behavior in all companies, and man would be a benefactor to man, as being himself his only certificate that he had a right to those aids and services which each asked of the other.</v>
-      </c>
-      <c r="B34" t="str" xml:space="preserve">
-        <v xml:space="preserve">Den hela affären av handel ger mig att tveka och tänka, eftersom den utgör falska förhållanden mellan människor, eftersom jag är benägen att räkna upp mig själv befriad från något ansvar för att bete sig väl och nobel till den person som jag betala med pengar, medan om jag inte hade den varan skulle jag sättas på min goda beteende i alla bolag och man skulle vara en gagnare till människan, som är sig själv sin enda certifikat att han hade rätt till de bidrag och tjänster som varje fråga om den andre.
-</v>
-      </c>
-      <c r="C34">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="35" xml:space="preserve">
-      <c r="A35" t="str">
-        <v>The Soul is made of consciousness and mind; it is made of life and vision.  It is made of the earth and the waters; it is made of air and space.  It is made of light and darkness; it is made of desire and peace.  It is made of anger and love; it is made of virtue and vice.  It is made of all that is near; it is made of all that is afar.  It is made of all.</v>
-      </c>
-      <c r="B35" t="str" xml:space="preserve">
-        <v xml:space="preserve">Själen är gjord av medvetande och intellekt; den är gjord av liv och insikt.
-Den är gjord av mark och vatten; den är gjord av luft och rymd.
-Den är gjord av ljus och mörker; den är gjord av begär och fred.
-Den är gjord av ilska och kärlek; den är gjord av dygd och felsteg.
-Den är gjord av allt som är nära; den är gjord av allt som är långt borta.
-Den är gjord av allt.
-</v>
-      </c>
-      <c r="C35">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="36" xml:space="preserve">
-      <c r="A36" t="str">
-        <v>In my research, I looked at the different ingredients in dietary supplements and how they can impact human health. Some of the ingredients in dietary supplements have been shown to have negative impacts on human health, like caffeine. Other ingredients, like vitamin C, may have positive impacts on human health. I also looked at how ingredient quality can be impacted by manufacturing processes. In particular, I examined whether supplements are manufactured using good manufacturing practices (GMPs), which would minimize the likelihood of harmful contaminants and ensure the quality of the ingredients.</v>
-      </c>
-      <c r="B36" t="str" xml:space="preserve">
-        <v xml:space="preserve">In my research, I looked at the different ingredients in dietary supplements and how they can impact human health. Some of the ingredients in dietary supplements have been shown to have negative impacts on human health, like caffeine. Other ingredients, like vitamin C, may have positive impacts on human health. I also looked at how ingredient quality can be impacted by manufacturing processes. In particular, I examined whether supplements are manufactured using good manufacturing practices (GMPs), which would minimize the likelihood of harmful contaminants and ensure the quality of the ingredients. 
-</v>
-      </c>
-      <c r="C36">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="37" xml:space="preserve">
-      <c r="A37" t="str" xml:space="preserve">
-        <v xml:space="preserve">In Lev Grossman's book, The Magicians, the protagonist Quentin Coldwater is a student at Brakebills University, where he studies magic. Quentin's journey to become a magus is met with many obstacles, but eventually he discovers the secret to becoming a great magician: hard work and dedication. Quentin's struggles are not unique to him, but are common to any person who desires to achieve something great.
-There are countless obstacles that must be overcome in order to become a great magician. The first and most important step is gaining an understanding of magic. This knowledge can be found in books or by studying with a professional. Once the basics of magic are understood, it is important to develop one's skill. This can be done by practicing regularly and learning from the best teachers. In addition, it is essential to have faith in oneself and never give up on one's dreams.
-Despite all these obstacles, any person can achieve greatness if they are willing to put in the work. Quentin Coldwater proves this point by his perseverance through difficult trials and tribulations. He never gives up on his dreams and always works hard toward his goals. In the end, Quentin Coldwater is a successful magus and his story shows that anyone can achieve greatness if they are willing to work hard for it.</v>
-      </c>
-      <c r="B37" t="str" xml:space="preserve">
-        <v xml:space="preserve">I Lev Grossmans bok Magikers så är huvudkaraktären qutenin Coldwater en elev på Brakebills universitet, där han studerar magi. Hans resa mot att bli en magiker står inför många hinder, men han lyckas till sist att upptäcka det hemliga till att bli en bra magiker, hårt arbete och hängivenhet. Han övervinner svårigheter som inte är unika för honom, men förekommer ofta för den som vill uppnå något bra.
-Det finns otaliga hinder som måste övervinna i en större skala för att kunna bli en bra magiker. De första och viktigaste stegen är att kunna följa instruktioner eller böcker om magi. Det är viktigt att fullfölja arbetet för att få kunskap om magi. Detta kan uppnås genom att regelbundet läsa och lära av böcker eller studera tillsammans med en professionell och små steg för steg processer. En gång när grunderna för magi uppnås. Sedan är det viktigt att utveckla sina färdigheter. Genom att att följa dessa steg och ticka av det man lärt sig, är man närmare att bli en magiker. Som en tillägg är det viktigt att ha tro på sig själv. När det blir svårt att ta steg för steg så är det viktigt att aldrig ge upp.
-Trots alla dessa hindranden, kan alla människor som har motivation övervinna dessa och uppnå det och utveckla dessa färdigheter. Quentin Coldwater visar prov på hans livsverk genom svårt prövningar och motgångar. Han ger aldrig upp allt han dröm om, men är alltid en hårt arbetare mot sina poängliga mål, när det gäller sitt arbete. I slutet, är Quentin Coldwater en framgångsrik magiker och han visar i sin resa, att det inte är svårt om man är villig att arbeta för det att uppnå hans resa och drömmar.  
-</v>
-      </c>
-      <c r="C37">
-        <v>1244</v>
-      </c>
-    </row>
-    <row r="38" xml:space="preserve">
-      <c r="A38" t="str">
-        <v>I definitely wanted to be an actor. I didn't want to be on TV, I didn't want to be famous, I didn't want to be anyone in particular I just wanted to do it. I see young people now who look at magazines, or American Idol and their goal is to have that lifestyle - to have good handbags, or go out with cute guys from shows, or whatever. But I definitely wanted to be an actor.</v>
-      </c>
-      <c r="B38" t="str" xml:space="preserve">
-        <v xml:space="preserve">Bork, bork, bork!
-</v>
-      </c>
-      <c r="C38">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="39" xml:space="preserve">
-      <c r="A39" t="str">
-        <v>The other day I got a text from a boy, but it wasn't hot. I mean, if you're going to text me every day, you haven't seen me for months and you're trying to seduce me, you'd better spice up that text and make it more exciting than 'How was your day? I hope you're having a beautiful one.' Sadly, I haven't been doing a lot of kissing lately.</v>
-      </c>
-      <c r="B39" t="str" xml:space="preserve">
-        <v xml:space="preserve">Förra helgen fick jag ett sms från en kille, men det var inte hett. Jag menar, om du ska smsa mig varje dag, inte ha sett mig på månader, och försöker seducerar mig, bättre skärpa upp den där smsingen och gör den mer spännande än "Hur har dit dag varit? Jag hoppas den har varit vacker." Tyvärr har jag inte gett mycket smekningar på sistone.
-</v>
-      </c>
-      <c r="C39">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="40" xml:space="preserve">
-      <c r="A40" t="str">
-        <v>Higher education has the unrivalled capacity to pursue and shape the values, knowledge, skills and research that are crucial to a society shifting to a low-carbon and safe future . . . The usual concerns of research and teaching excellence, competitive league tables, student and staff retention and so on now need to be put into the broader vision and goal of economic and social well-being nested in the imperative of planetary survival; and while there is still time to make a critical difference.</v>
-      </c>
-      <c r="B40" t="str" xml:space="preserve">
-        <v xml:space="preserve">Högre utbildning har obestritt kapacitet att jaga och forma de värderingar, kunskaper, färdigheter och forskning som är avgörande för ett samhälle som ställer om till en fossilfri och säker framtid .
-.
-.
-De vanliga oro av forskning och undervisning, tävlande ligorna, student- och personal tillhåll och så vidare nu behöver lagts in i den bredare visionen och målet om ekonomisk och social välbefinnande inästs i den angelägna jorden överlevnad, och medan det fortfarande finns tid att göra en kritisk skillnad.
-</v>
-      </c>
-      <c r="C40">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="41" xml:space="preserve">
-      <c r="A41" t="str" xml:space="preserve">
-        <v xml:space="preserve">
-There is no one answer to this question as the relationship between religion and atheism can vary significantly depending on the individual. However, some basic points could be covered in regards to how Religion and Atheism interact. 
-First and foremost, there is a strong connection between atheism and skepticism. Skepticism is the belief that all physical objects, including gods and miracles, are illusion or Conjured up by someone's mind. Secondly, atheists often accuse religious people of being hypocritical for claiming to believe in something while engaging in immoral activities. Finally, atheists often feel that religion often uses fear and superstition to manipulate people. These accusations can create a divide between atheists and religious people who may see the relationship as positive.
-On the other hand, Religion does have a place in atheism. Many atheist groups exist both to argue against religion and also provide support for atheists who want to practice their own form of atheism without subscribing to any specific dogma. In addition, atheist leaders have made it clear that Atheism does not mean giving up our human rights or morals.</v>
-      </c>
-      <c r="B41" t="str" xml:space="preserve">
-        <v xml:space="preserve">
-Det finns ingen enda svar på denna fråga då relationen mellan religiösa och ateister varierar avsevärt beror på det individuella!
-För det första och främst är det ett starkt samband mellan ateism och skepticism. Cynikern är uppfattningen att alla fysiska objekt, inklusive gudar och mirakel, är illusorisk eller konstruerat av någon ... sinnet. 
-Andra gången, framför allt kritiserar ateister religiösa människor att vara hycklande påstå att tro på något medan man sysslar med omoraliska aktiviteter. Därefter, Kännande ateister ofta att religionen ofta använder fruktan eller .
-Fördomar för att manipulera människor. Dessa anklagelser orsakar skillnaden mellan religiösa och ateistiska människor som kan ses i relationen som positiv.
-På andra sidan Religion och ateism påverka varandra, många ateistgrupper finns antingen att argumentera mot religion och också ge stöd till ateister som vill praktisera sin egen form av ateismen utan att påskriva utan speciella dogmer till. 
-I detta, religiösa ledare har gjort det klart att ateism är inte att ge upp våra etiska principer eller mänskliga rättigheter.
-</v>
-      </c>
-      <c r="C41">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="42" xml:space="preserve">
-      <c r="A42" t="str" xml:space="preserve">
+      <c r="A25" t="str" xml:space="preserve">
         <v xml:space="preserve">function (intervals) {
   intervals.sort((a, b) =&gt; a[0] - b[0]);
   let total = 0;
@@ -4241,64 +3999,363 @@
   return total;
 }</v>
       </c>
+      <c r="B25" t="str" xml:space="preserve">
+        <v xml:space="preserve">function() 
+</v>
+      </c>
+      <c r="C25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" xml:space="preserve">
+      <c r="A26" t="str">
+        <v>Change begets change. Nothing propagates so fast. If a man habituated to a narrow circle of cares and pleasures, out of which he seldom travels, step beyond it, though for never so brief a space, his departure from the monotonous scene on which he has been an actor of importance would seem to be the signal for instant confusion.... The mine which Time has slowly dug beneath familiar objects is sprung in an instant; and what was rock before, becomes but sand and dust.</v>
+      </c>
+      <c r="B26" t="str" xml:space="preserve">
+        <v xml:space="preserve">Ändring svenska
+</v>
+      </c>
+      <c r="C26">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" xml:space="preserve">
+      <c r="A27" t="str">
+        <v>I mean the beauty of being a writer is it's not like being a swimmer. When they were talking about our Olympic swimmers and they'd say, 'Oh she's so old,' and she's all of 25 or something. So the beauty for a writer is that you can keep doing it right into your dotage, and I hope to be able to keep doing it as long as I can get away with it, yeah.</v>
+      </c>
+      <c r="B27" t="str" xml:space="preserve">
+        <v xml:space="preserve">this line
+I wan to edit this by deleting
+</v>
+      </c>
+      <c r="C27">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" xml:space="preserve">
+      <c r="A28" t="str">
+        <v>I was a 'Duck Hunt' and 'Mario' guy, and stuff like that. I was never technologically driven. I never had all the cool, new toys. I was the youngest child, I wasn't the only child, so I wasn't spoiled as a kid. And, we were on the farm, so we didn't have a lot. Also, with computers, I'm not very good with them. I just check my email.</v>
+      </c>
+      <c r="B28" t="str" xml:space="preserve">
+        <v xml:space="preserve">I was a 'D
+Jag var en 'D
+</v>
+      </c>
+      <c r="C28">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" xml:space="preserve">
+      <c r="A29" t="str">
+        <v>No man is an Island, entire of it self; every man is a piece of the Continent, a part of the main; if a clod be washed away by the sea, Europe is the less, as well as ifa promitory were, as well as if a manor of thy friends or of thine own were; any man's death diminishes me, because I am involved in Mankind; And therefore never send to know for whom the bell tolls; It tolls for thee.</v>
+      </c>
+      <c r="B29" t="str" xml:space="preserve">
+        <v xml:space="preserve">Ingen man är 
+</v>
+      </c>
+      <c r="C29">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" xml:space="preserve">
+      <c r="A30" t="str">
+        <v>... business training in early life should not be regarded solely as insurance against destitution in the case of an emergency. For from business experience women can gain, too, knowledge of the world and of human beings, which should be of immeasurable value to their marriage careers. Self-discipline, co-operation, adaptability, efficiency, economic management,?if she learns these in her business life she is liable for many less heartbreaks and disappointments in her married life.</v>
+      </c>
+      <c r="B30" t="str" xml:space="preserve">
+        <v xml:space="preserve">... busine
+Tjaaa! Går det bra?  
+Jag är bra. Hur är du?
+</v>
+      </c>
+      <c r="C30">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" xml:space="preserve">
+      <c r="A31" t="str">
+        <v>I'm the most inappropriate dad. I curse in front of my kids and their friends. I let my kids watch R-rated movies. I'll walk by the movie theater and say, 'Let's go see that,' and my kids will say, 'No, it's rated R. It's not appropriate for kids.' I'm like Uncle Dad. We have fun. I don't live with them, but I drive over four days a week.</v>
+      </c>
+      <c r="B31" t="str" xml:space="preserve">
+        <v xml:space="preserve">I'm the mo
+det Är jag
+</v>
+      </c>
+      <c r="C31">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" xml:space="preserve">
+      <c r="A32" t="str">
+        <v>Wasn't marriage, like life, unstimulating and unprofitable and somewhat empty when too well ordered and protected and guarded? Wasn't it finer, more splendid, more nourishing, when it was, like life itself, a mixture of the sordid and the magnificent; of mud and stars; of earth and flowers; of love and hate and laughter and tears and ugliness and beauty and hurt?</v>
+      </c>
+      <c r="B32" t="str" xml:space="preserve">
+        <v xml:space="preserve">Shortwave it Wasn't mark johnson
+Det var inte mord johnson
+</v>
+      </c>
+      <c r="C32">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" xml:space="preserve">
+      <c r="A33" t="str">
+        <v>Well, yeah. At a certain point, you've got to be really honest with yourself. Like, 'Why am I doing this? What are my motivations?' Like, if you get into it because you want to be famous? Then you've got a long row to hoe. But if you really feel like it's a labour of love and it's something you're actually legitimately good at, then it's not that hard to keep plugging away.</v>
+      </c>
+      <c r="B33" t="str" xml:space="preserve">
+        <v xml:space="preserve">Nu gy
+</v>
+      </c>
+      <c r="C33">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" xml:space="preserve">
+      <c r="A34" t="str">
+        <v>The sun was setting as I reached the top of the hill. In front of me lay a small clearing with a pond in it, and on one side sat an old oak tree, while across from it stood a smaller fir. The loamy smell of earth filled my nose as I slowly made my way to the pond. I could see water lilies swaying in its surface; their pink petals contrasting against the murky green depths. With every step taken forward, chorus frogs croaked out their calls until they were drowned out by crickets chirping rhythmically in response. Once I had reached the edge of the pond, I took off my shoes and socks and waded into its cool waters up to my thighs before turning around so that i could look at everything surrounding me.</v>
+      </c>
+      <c r="B34" t="str" xml:space="preserve">
+        <v xml:space="preserve">﻿Jag heter emil
+</v>
+      </c>
+      <c r="C34">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="35" xml:space="preserve">
+      <c r="A35" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+I am working on an app that would allow users to track their food intake and create healthy meal plans. This would help people to stay on track with their diet and lose weight. The app would have a grocery list feature, so people could input what they're eating and the app would take care of the rest.</v>
+      </c>
+      <c r="B35" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+Jag jobbar med den.
+</v>
+      </c>
+      <c r="C35">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="36" xml:space="preserve">
+      <c r="A36" t="str" xml:space="preserve">
+        <v xml:space="preserve">Volunteering provides many tangible and intangible benefits.
+The tangible benefits of volunteering can include helping other people, improving one's own skills, building personal relationships, and having fun. The intangible benefits of volunteering can include increased self-awareness, civic engagement, and COMPASS skills.
+The most common tangible benefits of volunteering are helping other people, skill development, and building relationships. Volunteer experiences can help people learn new skills, improve their work ethic, and build social networks. Volunteering can also lead to new opportunities, such as finding a new job or becoming more involved in a community.
+The intangible benefits of volunteering are increased self-awareness, civic engagement, and COMPASS skills. Volunteering can help people learn more about themselves and their community. Furthermore, volunteering can lead to personal growth and development, such as increased empathy and compassion. Additionally, volunteering can increase one's knowledge and understanding of different topics, which can help them in their career or other areas of life.
+Overall, the tangible and intangible benefits of volunteering are significant. Many people find the benefits of volunteering to be worth the time and effort required to participate.</v>
+      </c>
+      <c r="B36" t="str" xml:space="preserve">
+        <v xml:space="preserve">Volunteeri-
+Medborgarjournalist-
+</v>
+      </c>
+      <c r="C36">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="37" xml:space="preserve">
+      <c r="A37" t="str">
+        <v xml:space="preserve"> There is a problem with the way that the website is handling user input. When someone tries to enter text into a text field, the website often doesn't allow them to continue typing because it instead automatically inserts a space. This results in the person being unable to submit their form.</v>
+      </c>
+      <c r="B37" t="str" xml:space="preserve">
+        <v xml:space="preserve"> There is
+The mighty ogier
+</v>
+      </c>
+      <c r="C37">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="38" xml:space="preserve">
+      <c r="A38" t="str">
+        <v>It’s been said that insanity is doing the same thing over and over again and expecting different results. In today’s world, this often describes our approach to finances. We go through cycles of spending more money than we have, then reducing expenditures when faced with tough times only to get back into a cycle of increased borrowing that eventually destroys whatever good progress has been made. Financial planning should not be viewed as rote repetition but instead as an ongoing discussion between you and your financial advisor; one in which realistic goals are set together with the necessary compromises so both parties can reach them satisfactorily.</v>
+      </c>
+      <c r="B38" t="str" xml:space="preserve">
+        <v xml:space="preserve">Det har varit 
+</v>
+      </c>
+      <c r="C38">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="39" xml:space="preserve">
+      <c r="A39" t="str">
+        <v>Furthermore, we believe that health care reform, again I said at the beginning of my remarks, that we sent the three pillars that the President's economic stabilization and job creation initiatives were education and innovation - innovation begins in the classroom - clean energy and climate, addressing the climate issues in an innovative way to keep us number one and competitive in the world with the new technology, and the third, first among equals I may say, is health care, health insurance reform.</v>
+      </c>
+      <c r="B39" t="str" xml:space="preserve">
+        <v xml:space="preserve">Tilläggas skall att en av åkebokens författare är medlare i domen,en käpp som inte kommer tillbaka till den hand som kastar den.
+</v>
+      </c>
+      <c r="C39">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="40" xml:space="preserve">
+      <c r="A40" t="str">
+        <v>My mother smokes me out. We'll get these long periods of me thinking I'm too busy to call her up or e-mail her, and she'll send me something. My mom's a real whiner. I love her to death, but she always sends me these 'woe is me' things. I think she might be Jewish. I'm not sure. She's Baptist-Jewish, which is a double whammy.</v>
+      </c>
+      <c r="B40" t="str" xml:space="preserve">
+        <v xml:space="preserve">Min mamma
+</v>
+      </c>
+      <c r="C40">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" xml:space="preserve">
+      <c r="A41" t="str">
+        <v>I know what love is. It?s understanding. It?s you and me and let the rest of the world go by. Just the two of us living our lives together happily and proudly. No self-torture and no doubt. It?s enduring and it?s everlasting. Nothing can change it. Nothing can change us, Ollie. That?s what I think love is.</v>
+      </c>
+      <c r="B41" t="str" xml:space="preserve">
+        <v xml:space="preserve">I know wha
+vi## hej  
+</v>
+      </c>
+      <c r="C41">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="42" xml:space="preserve">
+      <c r="A42" t="str" xml:space="preserve">
+        <v xml:space="preserve">1. I have never been satisfied with the way most of us understand confidence. The common view is that confidence is a personality trait that some people are lucky enough to have and others are not. This limit will stop people from developing the confidence they need to achieve their goals. The opposite of confidence is self-doubt, and most people suffer from self-doubt in one way or another.
+2. Confidence is a skill that can be learned and practiced like any other skill. It is a set of habits and behaviors that you can learn and develop over time. Confidence is not a trait or a personality type. It is a skill that can be learned, practiced, and improved.
+3. Confidence is a skill that can be learned and practiced like any other. The confidence you need to function well in the world is not determined by your personality, but by your ability to practice and master a set of skills that are vital for you to succeed in life.
+4. There is a difference between confidence and self-esteem, and this difference is important to understand when you are trying to improve your confidence. Self-esteem is defined as the way we see ourselves, and our perception of how others see us. Some people think they are “good” or “bad”, while others think they are “adequate” or “inadequate”. But we all have self-esteem. Self-esteem is the way you see yourself.
+6. Confidence is also different from self-efficacy. Self-efficacy is the belief that you have the ability to do something. This belief is usually based on past performance. The more you successfully perform a task, the more likely you are to believe that you can do it again. A high level of self-efficacy means that you believe you can do something, while a low level of self-efficacy means that you believe you cannot do something.
+7. Personal confidence is the belief that you are able to do something that is important to you. It is based on your experience of successfully achieving your goals in the past, and your belief that you are capable of achieving your goals in the future. It is not based on how you perceive other people to see you, or how they think you should behave. It is based on your experience of being successful in the past, and your belief that you can be successful in the future.
+8. Personal confidence is the belief that you are able to succeed at whatever you take on. It comes from your previous experiences of successfully achieving your goals, and your belief that you are capable of achieving your goals in the future. It does not come from how you are seen by others, or how others think you should behave. It comes from your experience of being successful in the past, and your belief that you can be successful in the future.
+9. Being confidence is important for many reasons. It helps you feel good about yourself, and it helps you reach your goals. It also helps you make decisions that are right for you. People who are confident are more likely to make decisions that are right for themselves, and not make decisions based on what other people think.</v>
+      </c>
       <c r="B42" t="str" xml:space="preserve">
-        <v xml:space="preserve">function (intervals) {
-  intervals.sortera((a, b) =&gt; a[0] - b[0]);
-  let totalt = 0;
-  let stagsta = 0;
-  for (let i = 0; i &lt; intervals.length; i++) {
-    if (stagsta &lt;= intervals[i][0] || i === 0) {
-      totalt += intervals[i][1] - intervals[i][0];
-      stagsta = intervals[i][1];
-    } else if (stagsta &lt; intervals[i][1] &amp;&amp; stagsta &gt; intervals[i][0]) {
-      totalt += intervals[i][1] - stagsta;
-      stagsta = intervals[i][1];
-    }
-  }
-  return totalt;
-}
+        <v xml:space="preserve">1. Jag har 
 </v>
       </c>
       <c r="C42">
-        <v>501</v>
+        <v>43</v>
       </c>
     </row>
     <row r="43" xml:space="preserve">
       <c r="A43" t="str">
-        <v>To be considered successful, a business must have a long-term outlook, be able to generate consistent revenue, have a loyal customer base, and be able to make strategic decisions.</v>
+        <v>Anomaly detection is the process of uncovering anomalies, errors, bugs, and defects in software to eradicate them and increase the overall quality of a system.</v>
       </c>
       <c r="B43" t="str" xml:space="preserve">
-        <v xml:space="preserve">En affärs verksamhet helt beroende på den kapacitet som det lyckas att få in och det krävs starka investeringar och improvisation.
+        <v xml:space="preserve">Anomali
 </v>
       </c>
       <c r="C43">
-        <v>148</v>
+        <v>37</v>
       </c>
     </row>
     <row r="44" xml:space="preserve">
-      <c r="A44" t="str" xml:space="preserve">
-        <v xml:space="preserve">The history of American advertising begins with the first ads created in the United States. These advertisements were meant to promote products and services, and they are some of the earliest examples of the use of advertising in America.
-Throughout the 1800s, Americans were interested in buying and using new technology, so advertisers began to create ads that featured things like machines, railways, and new clothing styles. They also savvy about how to reach their target audience, and so these ads were designed to be popular and persuasive.
-As technology changed and people became more interested in different aspects of their lives, American advertising changed as well. In the 1960s,american advertisers started to focus on printing ads instead of digital ones. This was because printed ads often had more impact than digital ones and could be seen by a wider audience.
-Through the years, American Advertising has continued to make a large impact on the way people live, work, and play. And it is without doubt one of the most important genres of advertising in modern times.</v>
+      <c r="A44" t="str">
+        <v>When you first have a baby your life doesn't change. I mean, you have a little less sleep and you drag these cuddly things around you and it's just amazing. But you still get to be you. Once they get to, like, five, six and school and it starts to get, like, 'Wow, they got real problems. They're my responsibility.' Oh my God. That is overwhelming.</v>
       </c>
       <c r="B44" t="str" xml:space="preserve">
-        <v xml:space="preserve">The history of American advertising begins with the first ads created in the United States. These advertisements were meant to promote products and services, and they are some of the earliest examples of the use of advertising in America.
-Throughout the 1800s, Americans were interested in buying and using new technology, so advertisers began to create ads that featured things like machines, railways, and new clothing styles. They also savvy about how to reach their target audience, and so these ads were designed to be popular and persuasive.
-As technology changed and people became more interested in different aspects of their lives, American advertising changed as well. In the 1960s,american advertisers started to focus on printing ads instead of digital ones. This was because printed ads often had more impact than digital ones and could be seen by a wider audience.
-Through the years, American Advertising has continued to make a large impact on the way people live, work, and play. And it is without doubt one of the most important genres of advertising in modern times.
-Reklam historia börjar i Amerika första reklam. Dessa annonser var avsedda för att lansera produkter och tjänster , och de är några av de tidigaste exempel på användning av annonser i Amerika.
- Under 1800 -talet, amerikanerna intresserade sig för att köpa och använda ny teknik, till annonsörer började att skapa annonser som har saker som maskiner , järnvägar och nya bekväma stilar. De var också omdömesgill om hur man når sin målgrupp , och då var dessa annonser att bli populära och övertygande.
-Som tekniken förändrats och människor blev mer intresserade av olika aspekter av sitt liv , amerikanska reklam förändrats . På 1960-talet, amerikanska annonsörer började att lägga fokus på reklamisering tryck istället för digitala . Detta var eftersom tryckta annonser ofta hade mer påverkan än digitala och kunde ses av en bredare publik.
-Genom de år amerikanska Advertising har fortsatt att göra en stor inverkan på hur människor lever, arbetar och spelar. Och det är utan tvekan en av de viktigaste genrerna i reklam i modern tid.
+        <v xml:space="preserve">When you f
+När du checkar ut
 </v>
       </c>
       <c r="C44">
-        <v>661</v>
+        <v>238</v>
       </c>
     </row>
     <row r="45" xml:space="preserve">
-      <c r="A45" t="str" xml:space="preserve">
+      <c r="A45" t="str">
+        <v>I don't stop. It's my nature. People have to tell me to slow down. I plan on playing every role on Broadway. I want to do 'Evita.' I want to do 'Sweeney Todd' with Chris Colfer. We want to do 'Wicked.' I'll be Elphaba and he wants to play 'Guy-linda.' I want to do movies, make music. 'Glee' is only the beginning.</v>
+      </c>
+      <c r="B45" t="str" xml:space="preserve">
+        <v xml:space="preserve">Jag äter med pinnar
+</v>
+      </c>
+      <c r="C45">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" xml:space="preserve">
+      <c r="A46" t="str">
+        <v>Hearing, seeing and understanding each other, humanity from one end of the earth to the other now lives simultaneously, omnipresent like a god thanks to its own creative ability. And, thanks to its victory over space and time, it would now be splendidly united for all time, if it were not confused again and again by that fatal delusion which causes humankind to keep on destroying this grandiose unity and to destroy itself with the same resources which gave it power over the elements.</v>
+      </c>
+      <c r="B46" t="str" xml:space="preserve">
+        <v xml:space="preserve">Att höra, f
+</v>
+      </c>
+      <c r="C46">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="47" xml:space="preserve">
+      <c r="A47" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+I am creating a lightweight tool to help automate the process of finding and verifying software dependencies. The tool will be able to find and verify dependencies using a variety of methods, including but not limited to, command line options, API calls, and a comprehensive search engine. The tool will also be able to generate reports detailing the dependencies found and the status of each dependency.</v>
+      </c>
+      <c r="B47" t="str" xml:space="preserve">
+        <v xml:space="preserve">Jag kan ganska mycket svenska
+Jag jobbar som utvecklare i Örebro.
+I like to work a lot.
+I also like to learn a lot.
+I can code in more than 10 languages.
+Icode a lot in Java , C and freebasic.
+Even thought i am from India i think danish and swedish are very similar.
+But swedish is more difficult to learn then danish.
+</v>
+      </c>
+      <c r="C47">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="48" xml:space="preserve">
+      <c r="A48" t="str">
+        <v>This book was amazing. I never expected it to be so good, but it was. The writing was great, the characters were well-drawn, and the plot was exciting. I would definitely recommend this book to anyone.</v>
+      </c>
+      <c r="B48" t="str" xml:space="preserve">
+        <v xml:space="preserve">Det är en bok.
+</v>
+      </c>
+      <c r="C48">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="49" xml:space="preserve">
+      <c r="A49" t="str">
+        <v>Abraham Lincoln, commander in chief of the United States armed forces, and Edwin M. Stanton, Secretary of War, were themselves parties to the attempted arrest, trial and conviction of an American citizen by a military tribunal in the presence of a civil court, in spite of the fact that the enforcement of justice by civil courts was not then impossible. Judge Advocate Holt, in his history of military justice, makes the point that "the Supreme Court in this instance, could hardly have been carried away by any over-zeal for the maintenance of constitutional rights. The judges were all men of experience; men who had passed through the Civil War or the war with Mexico, and two of them by bitter experience in the Northern prisons had had the best education for understanding the difficulties which confront the commander of a military force struggling for existence against armed and organized resistance. Moreover, the first army commander who had encouraged the military commissions in the South on this same ground of necessity had just weeks before been tried and condemned by a military commission for murder. If Judge Advocate Holt's view is correct, the men who were tried in the Milligan case had much less excuse for their conduct than did General Butler</v>
+      </c>
+      <c r="B49" t="str" xml:space="preserve">
+        <v xml:space="preserve">Adrian Karlsen
+Ett tal
+      1+11
+</v>
+      </c>
+      <c r="C49">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="50" xml:space="preserve">
+      <c r="A50" t="str">
+        <v>Being on 'Glee' was amazing. I remember my first day on set, my first day I arrived to the set I was in my trailer and all of the actors came and banged on my door - Lea Michele, Chris Colfer, Amber Riley, Naya Rivera. They all welcomed me with open arms, so it was a great experience. It felt like family, and I miss them a lot over there.</v>
+      </c>
+      <c r="B50" t="str" xml:space="preserve">
+        <v xml:space="preserve">Being on '
+es_stund
+Denna helgen sammahängde jag pa tre dagar med ett gäng trevlig awakbar. Vi 
+ä-r tre cyberpunks som engagerat oss för att utveckla och samtidigt vara en 
+del av nytt internettjänstebransch.
+This weekend is I have been hanging together with a few people which are waking to some extent and are relatively awake, since the cyberpunk is the word which has been around for last five, maybe 15 years. Actually I have never really spent every weekend for three days together with people hanging together, usually i meet people online, because in here we are in Sweden, most Swedish are still very dull and are not awake at all.
+There was some discussion about human being and what truth is, we talk about capitalism and how we can inverse some of the problems in the world, we find a solutions, solutions which are counter solutions to the problems in our reality in the past and in the future, so that we can solve our problems, actual reality is going to be coming with the new reality, which we finds through changing our own realities in this capital functioning society. This is kind of an intelligent way of forming solutions, or finding solutions to problems which we have and to change the stop existing.
+This was before the cyperpunk being begun, we were talking especially one person, her name is Aja, she is the one which figured out and discovered the fact that in here we are the Swedish word cyberpunk, means the Swedish translation looks like: the word why which makes networking into a job for almost everyone either man or woman.
+For example a feminist approach capitalist is saying that: Every Swedish woman have to work every day and every Swedish man have a job every day in Sweden, have to have a job, have to have work, these are people in Sweden, we have our own ways of approaching people, especially Europeans. Europeans are a little more stable human beings, and because of that wages are a little bit higher which is minimum wages, Europe is kind of standard around the world, which is the standard which we are in here, so the standard minimum wage is maybe 15 minute (guessing), actual wage is going to be maybe two years work or three years work or one year work or maybe 1000 days or 2000 day work or maybe 5 or 6000 day work or maybe 100 days work or 500 day work or per bi-day day work or 100 year work or one day salary or two days salary or three day salary or one hours salary or two hours salary or three houers salary or you could say 10000 toobes of dollars or maybe more than that and more than that. 
+In US salary per month is maybe 100 days salary
+In US the federal standard salary is about 8000 hours salary
+In China people have about a minimum wage is standing on 250 days salary
+In Europe low wages is standing on 120 days salary
+To find more information go to this website: https://www.wages3.com
+And that was about it...
+</v>
+      </c>
+      <c r="C50">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="51" xml:space="preserve">
+      <c r="A51" t="str" xml:space="preserve">
         <v xml:space="preserve">There are many benefits to exercise, both physically and mentally. Physical benefits include improved heart health, stronger muscles, reduced fat storage, and an increased ability to move more easily. Mental benefits include better concentration, reduced stress levels, and enhanced moods.
 Physical benefits of exercise include: 
 Improved heart health. Exercise has been shown to improve blood circulation and reduce the risk of heart disease by helping prevent the buildup of plaque on arteries walls. Additionally, regular exercise can help reduce the amount of fat around the midsection, which in turn can reduce the risk of heart disease and stroke.
@@ -4310,183 +4367,339 @@
 Reduced stress levels. Exercise has been shown to decrease stress levels by releasing endorphins – hormones that protect the body against pain – in our brains. Endorphins are also responsible for producing positive feelings such as happiness and euphoria. Consequently, being stressed out while trying to workout may lead to negative effects such as fatigue, irritability, and increased anxiety levels. By doing mediation or deep breathing exercises before your workout, you can help ease into a state of relaxation before beginning your routine. This should result in improved mental clarity and energy during your workout session.
 Enhanced moods. Exercise has consistently been shown to improve moods by decreasing stress hormones like cortisol and elevating serotonin levels in the brain. Serotonin is a neurotransmitter responsible for regulating emotional reactions such as happiness, hunger, sleepiness, anxiety, depression, anger, and addiction behavior . Elevated serotonin levels may contribute to an improved sense of well-being after working out due to its role in managing emotions effectively .</v>
       </c>
-      <c r="B45" t="str" xml:space="preserve">
-        <v xml:space="preserve">Det finns många fördelar att träna, både fysiskt och mentalt. De fysiska fördelarna inkluderar förbättrad hälsa, starkare muskler, reducerad fettlagring och en ökad förmåga att lättare röra sig. Mentals fördelar inkluderar bättre koncentration, reducerat stressnivåer, och förbättrade humör.
-De fysiska fördelarna med träning inkluderar:
-Förbättrad hjärt hälsa. Träning har visat sig förbättra blodcirkulationen och minska risken för hjärtsjukdomar genom att hjälpa till att förhindra tillväxten av plack på artärer väggar. Dessutom kan regelbunden träning reducera mängden fett runt midjan, vilket i sin tur kan minska risken för hjärt-och stroke.
-Fler stadiga muskler. Med regelbunden träning, kommer du att bygga muskelvävnad som kan hjälpa dig att uppnå större styrka och uthållighet under fysisk aktivitet senare i livet. Detta kan hjälpa dig att undvika skador och behålla din nuvarande nivå av fysisk form.
-Minimerad fettförvarinng. Exercising regelbundet kan hjälpa till att minska mängden kroppsfett lagras på din kropp, vilket kan minska risken för fetma och andra kroniska sjukdomar associerade med för mycket fett.
-Ökad förmåga att röra sig lättare. Regelbunden motion kan också hjälpa dig att öka din rörlighet så att du kan göra vardagliga aktiviteter med mindre obehag eller svårighet. Detta kan vara särskilt gynnsam om du har artros eller andra medicinska tillstånd som begränsar din förmåga att röra sig enkelt.
-Mentals fördelar med motion inkluderar: 
-Bättre koncentration. Motion har visat sig förbättra kognitiv funktion genom att öka blodflödet till hjärnan och minska kortisolnivån i blodomloppet. Kortisol är ett hormon som frigörs vid stresssituationer som kan påverka hur vi tänker och utför sysslor. Genom att minska nivån av kortisol, kan motion hjälpa till att förbättra hjärnorheten och fokusera samtidigt minskar även stressnivån totalt.
-Reduced stress levels. Exercise has been shown to decrease stress levels by releasing endorphins – hormones that protect the body against pain – in our brains. Endorphins are also responsible for producing positive feelings such as happiness and euphoria. Consequently, being stressed out while trying to workout may lead to negative effects such as fatigue, irritability, and increased anxiety levels. By doing mediation or deep breathing exercises before your workout, you can help ease into a state of relaxation before beginning your routine. This should result in improved mental clarity and energy during your workout session.
-Enhanced moods. Exercise has consistently been shown to improve moods by decreasing stress hormones like cortisol and elevating serotonin levels in the brain. Serotonin is a neurotransmitter responsible for regulating emotional reactions such as happiness, hunger, sleepiness, anxiety, depression, anger, and addiction behavior . Elevated serotonin levels may contribute to an improved sense of well-being after working out due to its role in managing emotions effectively .
-</v>
-      </c>
-      <c r="C45">
-        <v>1761</v>
-      </c>
-    </row>
-    <row r="46" xml:space="preserve">
-      <c r="A46" t="str">
-        <v>1. Eat well. Our brains are 60 per cent fat, so we need the good kind of healthy fat—Omega 3—for our brain health. Other nutrients that help our brain include vitamin B, vitamin E, and foods like blueberries and broccoli. Foods like broccoli and blueberries are good for us, but they don’t taste like, say, a meatball sub with cheese fries. What can help is to think how quickly bad food makes us feel bad. It might take us an hour to eat a cheeseburger, but it will take our mood maybe only ten minutes to decline. If healthy food can take that long to digest, surely it is worth waiting for the positive effects? It has long been known how important diet is for physical health. But now there is evidence of how it can benefit our mood too. A study in Biological Psychiatry, for example, found that healthy dietary patterns that included foods like fish, fruit, and vegetables was associated with lower levels of depression.</v>
-      </c>
-      <c r="B46" t="str" xml:space="preserve">
-        <v xml:space="preserve">1. Ät bra. Våra hjärnor är 60 procent fett, så vi behöver den bra typ av hälsosamma fetter - Omega 3 -för vårt hjärnhälsa. Andra näringsämnen som hjälper vår hjärna, inklusive vitamin B , vitamin E och livsmedel som blåbär och broccoli. Livsmedel som broccoli och blåbär är bra för oss, men de smakar inte som, säg, en köttbullens sub med ostchips. Vad kan hjälpa är att tänka hur snabbt dåliga mat gör oss känner dåligt. Det kan ta oss en timme att äta en ostburgare, men det kommer att ta vårt humör kanske bara tio minuter att minska. Om hälsosam mat kan ta så lång tid att digestera, är det säkert värt att vänta på de positiva effekterna? Det har länge varit känt hur viktig kost är för fysisk hälsa. Men nu finns det bevis för hur det kan förbättra vår sinnesstämning också. En studie i Biological Psychiatry, till exempel, visade att hälsosamma matmönster som inkluderade mat som fisk, frukt och grönsaker var förknippad med lägre depressionnivåer.
-https://www.lifehack.org/articles/communication/13-foods-healthy-brain.html
-</v>
-      </c>
-      <c r="C46">
-        <v>863</v>
-      </c>
-    </row>
-    <row r="47" xml:space="preserve">
-      <c r="A47" t="str">
-        <v>I hope you're doing well! I wanted to reach out and see if you are available for a meeting in the next few weeks. My company is looking for someone with your skillset, and I thought it would be beneficial to get a face-to-face conversation started. Let me know if that sounds like something you'd be interested in - thanks!</v>
-      </c>
-      <c r="B47" t="str" xml:space="preserve">
-        <v xml:space="preserve">Jag hoppash du har det bra.
-Jag har valt att nalkasa dig, eftersom jag vill ta er motet i narmsta framtid.
-Min noggranhet med den langsiktiga planen for dig kunna komma till fornarna.
-Var vant att avvakta ditt svar.
-</v>
-      </c>
-      <c r="C47">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="48" xml:space="preserve">
-      <c r="A48" t="str">
-        <v xml:space="preserve"> There is a problem with the way that the website is handling user input. When someone tries to enter text into a text field, the website often doesn't allow them to continue typing because it instead automatically inserts a space. This results in the person being unable to submit their form.</v>
-      </c>
-      <c r="B48" t="str" xml:space="preserve">
-        <v xml:space="preserve"> det finns ett problem med den sätt att webbplatsen hanterar användarinmatning. När någon försöker skriva in text i ett textfält, webbplatsen ofta tillåter inte dem att fortsätta att skriva eftersom det i stället automatiskt infogar ett mellanrum. Detta leder till den person som inte kan lämna in sitt formulär.
-</v>
-      </c>
-      <c r="C48">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="49" xml:space="preserve">
-      <c r="A49" t="str">
-        <v>The author briefly explains the customs in Antigua and Barbuda before delving into the novel's themes. He portrays these cultures as distinctly Caribbean, with vibrant rhythms and rich traditions that have been maintained for centuries. The story follows twin sisters who are torn apart by their parents' decision to send one of them away to be educated in America; upon her return home, she discovers a drastically different country than when she left. In spite of this turmoil, the sister reconnects with old friends and finds love again - ultimately indicating that even exile can bring about forgiveness and hope.</v>
-      </c>
-      <c r="B49" t="str" xml:space="preserve">
-        <v xml:space="preserve">The author briefly explains the customs in Antigua and Barbuda before delving into the novel's themes. He portrays these cultures as distinctly Caribbean, with vibrant rhythms and rich traditions that have been maintained for centuries. The story follows twin sisters who are torn apart by their parents' decision to send one of them away to be educated in America; upon her return home, she discovers a drastically different country than when she left. In spite of this turmoil, the sister reconnects with old friends and finds love again - ultimately indicating that even exile can bring about forgiveness and hope.
-Författaren förklarar kort bruket i Antigua och Barbuda innan han borrar in sig i romanens teman.
-Han målar dessa kulturer som distinkt karibiskt, med vibrerande rytmer och rika traditioner som har behållits av århundraden.
-Berättelsen följer tvillingar som skiljs från huvudet till tå med deras föräldrars beslut att skicka en av dem bort för att studera i USA, när hon kommer tillbaka hem upptäcker hon en drastiskt annorlunda länder än när hon lämnade.
-I trots av detta oro återupprättar systern förbindelser med gamla vänner och hittar kärlek igen, slutligen visar att även bosättning kan ge försoning och hopp.
-</v>
-      </c>
-      <c r="C49">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="50" xml:space="preserve">
-      <c r="A50" t="str">
-        <v>The Nameless is the origin of Heaven and Earth; The Named is the mother of all things.  Therefore let there always be non-being  so we may see their subtlety, And let there always be being so we may see their outcome.  The two are the same, But after they are produced, they have different names.  They both may be called deep and profound.  Deeper and more profound, The door of all subtleties!</v>
-      </c>
-      <c r="B50" t="str" xml:space="preserve">
-        <v xml:space="preserve">The Nameless is the origin of Heaven and Earth; The Named is the mother of all things.  Therefore let there always be non-being  so we may see their subtlety, And let there always be being so we may see their outcome.  The two are the same, But after they are produced, they have different names.  They both may be called deep and profound.  Deeper and more profound, The door of all subtleties!
-Den Namnlöse är ursprunget till himmel och jord;
-Den Namngivna är moder till allt.
-Därför må det alltid finnas ej varande
-så vi kan se dess subtilitet,
-Och må det alltid finnas varande
-tills vi kan se dess resultat. 
-De är båda lika,
-Men efter att de producerats får de olika namn.
-De båda kan kallas djup.
-Djupare och mer djup,
-Dörren till alla subtiliteter!
-</v>
-      </c>
-      <c r="C50">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="51" xml:space="preserve">
-      <c r="A51" t="str">
-        <v>I went to my dad when I was 17 and said, 'I want to be a country music star.' Which every dad loves to hear. And he said, 'I want you to go to college.' So we had a discussion. And I'm pretty stubborn. I'm a lot like him. And he said, 'If you go to college and graduate, I'll pay your first six months of rent in Nashville.' So he bribed me.</v>
-      </c>
       <c r="B51" t="str" xml:space="preserve">
-        <v xml:space="preserve">Jag gick till min far när jag var 17 år och sa, 'Jag vill vara en landsmusikstjärna.
-' Som varje far älskar att höra.
-Och han sa: 'Jag vill att du ska gå i skola.' Så vi hade en diskussion.
-Och jag är ganska envis.
-Jag är mycket som honom.
-Och han sa, 'Om du går i skola och examen, så kommer jag att betala din första halvår i Nashville.' Så han mutade mig.
+        <v xml:space="preserve">här finns 20 ord men bara 19 stycken behöver du.  hittar du 19  då är du klar
+vad sitter på en pinn
+hund rådjur hare harar hare tjäder
+bock skog jakt hjort
+lejon apa skalbagge
+Aln ka bada dygnet runt sa kungen
+Här finns 27 spöka
+Pointer stålhund
+Dräklapp dockklapp  stråklapp
+Nostalgi sa pojken och sprang vidare med spöket
+diagram
+Peta kan läsa skönhetspris pinktura
+flock flyttfeglarna Fruktträdet plockad nog för att falla i bitar
+Snagelpottarnas sista utflykt upptäckte en välväxt njur
 </v>
       </c>
       <c r="C51">
-        <v>376</v>
+        <v>269</v>
       </c>
     </row>
     <row r="52" xml:space="preserve">
       <c r="A52" t="str">
-        <v>WELL, I THINK LIKE I SAID IT IS NOT EXACTLY GOOD, BUT YOU CANNOT SAY THAT THE PEOPLE DON'T WANT JOB. YOU CANNOT SAY THAT THE PEOPLE DON'T WANT TO WORK. THE SYSTEM JUST HAD A PROBLEM. AND FOR THE FIRST TIME, SOMEBODY IS INTERESTED. IT'S A COMPLEX SITUATION. IT'S NOT ONLY U.S., IT'S GLOBAL, AND THERE IS OBVIOUSLY A REASON TO BE REACTIONARY.</v>
+        <v>It is important to understand that impostor phenomenon is not a personality disorder, such as depression or narcissism, but it may be strongly characterized by these kinds of deficits. The main difference between personality disorders and impostor phenomenon is that personality disorders are structural deficits in personality, whereas impostor phenomenon doesn’t require a structural deficit in any area of a person’s brain. It is instead a kind of lens through which certain people process and understand their lives.</v>
       </c>
       <c r="B52" t="str" xml:space="preserve">
-        <v xml:space="preserve">WELL, JAG TROR SOM JAG SA IT IS NOT EXACTLY GOOD, MEN DU KAN INTE SÄGA DE PEOPLES WANT som ATT JOB. DU KAN INTE SÄGA DE PEOPLES WANT ATT WORK. THE SYSTEM JUST HAD A PROBLEM. SÅ OCH FÖRSTA TIME, SOMEBODY IS INTERESTED. ÄR IT ' S A COMPLEX SITUATION. ÄR IT ' S INTE BARA U.S., DET' S GLOBAL, OCH DET ÄR UTVECKLADE A REASON ATT REACTIONARY. 
+        <v xml:space="preserve">Det viktigaste i hemlighålla Din identitet.
+I dessa tider kan du inte vara för säker.
 </v>
       </c>
       <c r="C52">
-        <v>407</v>
+        <v>72</v>
       </c>
     </row>
     <row r="53" xml:space="preserve">
       <c r="A53" t="str">
-        <v>Don’t let anyone tell you how much time you should spend working or how hard you should work. No one knows your circumstances or what matters most to you as much as you do—so no one else can make a judgement about your five-to-nine better than you can. Also, what feels like ‘work’ for one person may not feel like ‘work’ for another person: some people would rather spend seven hours a day on long country walks than two hours commuting into an office; some people want their careers because they enable them to pursue their passions while other people want nothing more than an uncomplicated pay cheque so that they can fund their passions outside of work; and some people want jobs because they want purpose while other people see jobs as nothing more than a means by which they can fund whatever else matters most in their lives (and could happily spend 20 hours a week working on these things rather than 40). Quantity doesn’t mean quality. Be ambitious about your own career—but don’t let the ambition get in the way of what matters most for you personally, about your life outside of work and about your mental health.</v>
+        <v>As a real person, he wouldn't last a minute, would he? But drama is about imperfection. And we've moved away from the aspirational hero. We got tired of it, it was dull. If I was House's friend, I would hate it. How he so resolutely refuses to be happy or take the kind-hearted road. But we don't always like morally good people, do we?</v>
       </c>
       <c r="B53" t="str" xml:space="preserve">
-        <v xml:space="preserve">Låt ingen berätta hur mycket tid du arbetar i arbetstid och hur hårt du jobbar. Ingen vet dina omständigheter eller vad som är viktigast för dig som det gör för dig - så ingen annan kan göra ett omdöme om ditt fem-till-nio bättre än du kan. Också, vad känns som 'arbete' för en person kan inte kännas som 'arbete' för en annan person: vissa människor skulle hellre spendera sju timmar om dagen på långa landsvägspromenader än två timmar som kör in i ett kontor; vissa människor vill ha sina karriärer eftersom de möjliggör att de kan uppnå sina passioner medan andra människor vill inget annat än en enkel lönsscheck så att de kan finansiera sina pass av arbetet; och vissa människor vill ha jobb eftersom de vill ha syfte medan andra människor ser jobb som inget annat än ett sätt som de kan finansiera vad som är viktigast i sina liv (och kan glatt spendera 20 timmar i veckan arbetar på dessa saker snarare än 40 ). Kvantitet betyder inte kvalitet. Vara ambition om din egen karriär - men låt inte ambitionen komma i vägen för vad som är viktigast för dig personligen, om ditt yrsel utanför arbetet och om din mentala hälsa.
+        <v xml:space="preserve">As a real 
+En språkutanförling är ett ord på svenska med samma stavning som ett ord på ett annat språk, eller ett ord på svenska som uttalas på en annan sätt, och därmed skiljer sig från förväntad norm på svenska.
+Språkutanförlingsräkning i medier
+Begreppet kan jämföras med antal apråkutanförlingar eller ord som uttalas på engelska, som mäts i en en grupp rapporter - men naturligtvis på ett annat språk, svenska.n
 </v>
       </c>
       <c r="C53">
-        <v>965</v>
+        <v>213</v>
       </c>
     </row>
     <row r="54" xml:space="preserve">
       <c r="A54" t="str">
-        <v>No man is an Island, entire of it self; every man is a piece of the Continent, a part of the main; if a clod be washed away by the sea, Europe is the less, as well as ifa promitory were, as well as if a manor of thy friends or of thine own were; any man's death diminishes me, because I am involved in Mankind; And therefore never send to know for whom the bell tolls; It tolls for thee.</v>
+        <v>Money can help you to get medicines but not health.  Money can help you to get soft pillows, but not sound sleep.  Money can help you to get material comforts, but not eternal bliss.  Money can help you to get ornaments, but not beauty.  Money will help you to get an electric earphone, but not natural hearing.  Attain the supreme wealth, wisdom;you will have everything.</v>
       </c>
       <c r="B54" t="str" xml:space="preserve">
-        <v xml:space="preserve">Swedish version
-Ingen är en ö, hel i sig själv varje man är en bit av fastlandet, en del av huvudet; om en klump vara borttvättas av havet, är Europa mindre, lika väl som om en från Sjokust, lika väl som om du äger eller en nevw vän äger; någon människas död förlorar mig, för jag är involverad i mänskligheten; och därför aldrig skicka att veta vem detta är död; det ringer för dig.
+        <v xml:space="preserve">Money can 
+____________ _________________
+på svenska
+pengar kange
 </v>
       </c>
       <c r="C54">
-        <v>407</v>
+        <v>60</v>
       </c>
     </row>
     <row r="55" xml:space="preserve">
       <c r="A55" t="str">
-        <v>I want to be happy and fulfilled. I believe that happiness and fulfillment are the key to a healthy life. I want to find a way to be happy and fulfilled without any extra work or stress. I want to find a way to be happy and fulfilled that is sustainable and equal to my own abilities and desires. I want to find a way to be happy and fulfilled that is possible for me to maintain and improve.</v>
+        <v>I love a man with a great sense of humor and who is intelligent - a man who has a great smile. He has to make me laugh. I like a man who is very ambitious and driven and who has a good heart and makes me feel safe. I like a man who is very strong and independent and confident - that is very sexy - but at the same time, he's very kind to people.</v>
       </c>
       <c r="B55" t="str" xml:space="preserve">
-        <v xml:space="preserve">&lt;p&gt;I want to be happy and fulfilled. I believe that happiness and fulfillment are the key to a healthy life. I want to find a way to be happy and fulfilled without any extra work or stress. I want to find a way to be happy and fulfilled that is sustainable and equal to my own abilities and desires. I want to find a way to be happy and fulfilled that is possible for me to maintain and improve.&lt;/p&gt;
-&lt;p&gt;Jag vill vara glad och tillfredsställd. Jag tror att lycka och tillfredsställelse är nyckeln till friskt liv. Jag vill hitta en väg att vara lycklig och tillfredsställd utan och extra arbete och stress. Jag vill hitta en väg att vara lycklig och tillfredsställd som är hållbart och lika med mina egna förmågor och efterfrågningar. Jag vill hitta en väg att vara glad och tillfredsställd att är möjligt för mig att underhålla och bli bättre.
+        <v xml:space="preserve">Only some of Svenska
+du är ganska rik
+Min fördelning under dagen 
+Tillverkar mängden
+du är fet
+jag är ganska tröske
+jag är ganska dum
+Se Http://den-gan-ska-medioker.se
 </v>
       </c>
       <c r="C55">
-        <v>477</v>
+        <v>127</v>
       </c>
     </row>
     <row r="56" xml:space="preserve">
       <c r="A56" t="str">
-        <v>...But nature does not say that cats are more valuable than mice; nature makes no remark on the subject. She does not even say that the cat is enviable or the mouse pitiable. We think the cat superior because we have (or most of us have) a particular philosophy to the effect that life is better than death. But if the mouse were a German pessimist mouse, he might not think that the cat had beaten him at all. He might think he had beaten the cat by getting to the grave first.</v>
+        <v>The findings of the above-cited 2018 RAND report were devastating. The report reveals the following alarming facts: (1) employee stress level is at a historic high; (2) the impact of stress on the workforce is a huge problem; (3) stress is costly, impacting organizations in several different ways; (4) stress is a major factor in health care costs; (5) stress-related issues are responsible for as many as 119,000 deaths a year; (6) stress in the workplace is out of control, and organizations must start to determine how to contain this problem and understand this challenge; (7) the workplace is not able to address the problem and needs to take concrete actions to start to reduce stress; and (8) stress is not only a personal health problem, but it is a serious problem in organizations.</v>
       </c>
       <c r="B56" t="str" xml:space="preserve">
-        <v xml:space="preserve">Naturen säger inte att katter är mer värd än möss; naturen gör ingen kommentar på området. Hon kan inte ens säga att katten är avundsvärd eller musen beklagansvärd. Vi tror att katten är bättre eftersom vi har (eller många av oss har) en speciell filosofi om att livet är bättre än döden. Men om musen var en tysk pessimistmus, kunde den inte tänka sig att katten vann. Den skulle kanske tänka sig att den slog katten att komma till graven först
+        <v xml:space="preserve">The finding was based on the fact that the zord was with the elfs.
 </v>
       </c>
       <c r="C56">
-        <v>425</v>
+        <v>51</v>
       </c>
     </row>
     <row r="57" xml:space="preserve">
       <c r="A57" t="str" xml:space="preserve">
+        <v xml:space="preserve">Time is the most important factor in our lives. It has the ability to define everything from our daily rituals to our futures. Time is also a precious commodity, which we use to make decisions that have an impact on the rest of our lives.
+Without time, we would not be able to do things such as learn new things, experience new cultures, or grow old. Time is also used to measure how far we have come and how much work still needs to be done. In some ways, time is like a life raft that allows us to cross over into the future and explore different opportunities while avoiding potential dangers along the way.
+ thefts, robberies, and murders often occur due to lack of time. For example, if someone is prevented from robbing a bank in 15 minutes, they will likely rob another bank in 45 minutes or even 1 hour. To prevent these sorts of crimes from happening, it is important for criminals to have enough time to plan their attack and pull off their robbery successfully.
+In addition, time is also necessary for other activities such as studying, doing homework, and working on projects. Without enough time, these activities may not be possible. For example, if I study for an exam for hours every night and try my best to stay awake during class, I may not be able to achieve the level of success I want because I would need more time than usual to complete the exam.
+On the other hand, if I am able to relax and sleep for 8 hours every night after studying for hours today, I will likely achieve a similar level of success as if I studied for 6 hours today. This illustrates how important time is in our lives – by taking advantage of its abilities we can achieve our goals without having too much trouble.</v>
+      </c>
+      <c r="B57" t="str" xml:space="preserve">
+        <v xml:space="preserve">Tid är ok
+</v>
+      </c>
+      <c r="C57">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="58" xml:space="preserve">
+      <c r="A58" t="str">
+        <v>Ideas are a part of intellectual property, innovation, problem-solving, and world-changing insights. They are a part of every day. They are not easy to define in any way that implies universality, but to do so would probably mean that the result is artificial and not indicative of spontaneous ideation. Still, ideas are as operational as, say, “bits” of information (not a binary digit “bit” used in computer code, but a “bit” used in the cognitive sciences to describe units of information processed in short-term working memory). Bits also vary from person to person and must be defined on a level that allows such variation. The technology of divergent thinking indicates that ideas are defined in a fashion that allows scientific study. There is a huge literature on divergent thinking, and much of it is experimental or quasi-experimental and moderate in internal validity.</v>
+      </c>
+      <c r="B58" t="str" xml:space="preserve">
+        <v xml:space="preserve">Idéer är till för att uppfylla ett behov
+</v>
+      </c>
+      <c r="C58">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="59" xml:space="preserve">
+      <c r="A59" t="str" xml:space="preserve">
+        <v xml:space="preserve">Extracting opinions from texts is a daunting task. It requires a thorough understanding of the semantic, syntactic, explicit, and implicit rules of a language. Also, because sentiment analysis is carried out by a computer system with a typical focus on analyzing documents on a particular topic, off-topic passages containing irrelevant information may also be included in the analyses (e.g., a document may contain information on multiple topics). This could result in creating inaccurate global sentiment polarities about the main topic being analyzed. Therefore, the computer system must be able to adequately screen and distinguish opinions that are not relevant to the topic being analyzed. Relatedly, for the machine learning-based approach, a sentiment classifier trained on a certain domain (e.g., car reviews) may perform well on the particular topic, but may not when applied to another domain (e.g., computer review). The issue of domain independence is another important challenge.
+Also, the complexities of human communication limit the capacity of sentiment analysis to capture nuanced, contextual meanings that opinion holders actually intend to communicate in their messages. Examples include the use of sarcasm, irony, and humor in which context plays a key role in conveying the intended message, particularly in cases when an individual says one thing but means the opposite. For example, someone may say “nice shirt,” which implies positive sentiment if said sincerely but implies negative sentiment if said sarcastically. Similarly, words such as “sick,” “bad,” and “nasty” may have reversed sentiment orientation depending on context and how they are used. For example, “My new car is sick!” implies positive sentiment toward the car. These issues can also contribute to inaccuracies in sentiment analysis.
+Altogether, despite these limitations, the computational study of opinions provided by sentiment analysis can be beneficial for practical purposes. So long as individuals continue to share their opinions through online user-generated media, the possibilities for entities seeking to gain meaningful insights into the opinions of key publics will remain. Yet, challenges to sentiment, analysis such as those discussed above, pose significant limitations to its accuracy and thus its usefulness in decision-making.</v>
+      </c>
+      <c r="B59" t="str" xml:space="preserve">
+        <v xml:space="preserve">Extrahieren	
+</v>
+      </c>
+      <c r="C59">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="60" xml:space="preserve">
+      <c r="A60" t="str">
+        <v>We’re looking for an experienced Content Marketing Manager, who also happens to be obsessed with thought leadership and building awareness across owned channels. You must love researching, writing, editing, and amplifying stories and in-depth content that educates and inspires. You’ll also be passionate about testing new ideas, leading our content marketing efforts and learning from our audience. The right person will have an eye for top-quality B2B marketing content and a data-driven mindset to help connect content strategy to business results. You’ll play a key role in elevating our content marketing program and landing it all on our website.</v>
+      </c>
+      <c r="B60" t="str" xml:space="preserve">
+        <v xml:space="preserve">Vi ser
+</v>
+      </c>
+      <c r="C60">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="61" xml:space="preserve">
+      <c r="A61" t="str">
+        <v>I went to my dad when I was 17 and said, 'I want to be a country music star.' Which every dad loves to hear. And he said, 'I want you to go to college.' So we had a discussion. And I'm pretty stubborn. I'm a lot like him. And he said, 'If you go to college and graduate, I'll pay your first six months of rent in Nashville.' So he bribed me.</v>
+      </c>
+      <c r="B61" t="str" xml:space="preserve">
+        <v xml:space="preserve">Jag gick 
+</v>
+      </c>
+      <c r="C61">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="62" xml:space="preserve">
+      <c r="A62" t="str">
+        <v>I want to be happy and fulfilled. I believe that happiness and fulfillment are the key to a healthy life. I want to find a way to be happy and fulfilled without any extra work or stress. I want to find a way to be happy and fulfilled that is sustainable and equal to my own abilities and desires. I want to find a way to be happy and fulfilled that is possible for me to maintain and improve.</v>
+      </c>
+      <c r="B62" t="str" xml:space="preserve">
+        <v xml:space="preserve">Jag vill ha markera i 
+</v>
+      </c>
+      <c r="C62">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="63" xml:space="preserve">
+      <c r="A63" t="str">
+        <v>1. Eat well. Our brains are 60 per cent fat, so we need the good kind of healthy fat—Omega 3—for our brain health. Other nutrients that help our brain include vitamin B, vitamin E, and foods like blueberries and broccoli. Foods like broccoli and blueberries are good for us, but they don’t taste like, say, a meatball sub with cheese fries. What can help is to think how quickly bad food makes us feel bad. It might take us an hour to eat a cheeseburger, but it will take our mood maybe only ten minutes to decline. If healthy food can take that long to digest, surely it is worth waiting for the positive effects? It has long been known how important diet is for physical health. But now there is evidence of how it can benefit our mood too. A study in Biological Psychiatry, for example, found that healthy dietary patterns that included foods like fish, fruit, and vegetables was associated with lower levels of depression.</v>
+      </c>
+      <c r="B63" t="str" xml:space="preserve">
+        <v xml:space="preserve">1. Ät bra 
+</v>
+      </c>
+      <c r="C63">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="64" xml:space="preserve">
+      <c r="A64" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+There is no one answer to this question as the relationship between religion and atheism can vary significantly depending on the individual. However, some basic points could be covered in regards to how Religion and Atheism interact. 
+First and foremost, there is a strong connection between atheism and skepticism. Skepticism is the belief that all physical objects, including gods and miracles, are illusion or Conjured up by someone's mind. Secondly, atheists often accuse religious people of being hypocritical for claiming to believe in something while engaging in immoral activities. Finally, atheists often feel that religion often uses fear and superstition to manipulate people. These accusations can create a divide between atheists and religious people who may see the relationship as positive.
+On the other hand, Religion does have a place in atheism. Many atheist groups exist both to argue against religion and also provide support for atheists who want to practice their own form of atheism without subscribing to any specific dogma. In addition, atheist leaders have made it clear that Atheism does not mean giving up our human rights or morals.</v>
+      </c>
+      <c r="B64" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+There is more!
+ Svenska: Det finns mer!
+</v>
+      </c>
+      <c r="C64">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="65" xml:space="preserve">
+      <c r="A65" t="str" xml:space="preserve">
+        <v xml:space="preserve">Volunteering provides many tangible and intangible benefits.
+The tangible benefits of volunteering can include helping other people, improving one's own skills, building personal relationships, and having fun. The intangible benefits of volunteering can include increased self-awareness, civic engagement, and COMPASS skills.
+The most common tangible benefits of volunteering are helping other people, skill development, and building relationships. Volunteer experiences can help people learn new skills, improve their work ethic, and build social networks. Volunteering can also lead to new opportunities, such as finding a new job or becoming more involved in a community.
+The intangible benefits of volunteering are increased self-awareness, civic engagement, and COMPASS skills. Volunteering can help people learn more about themselves and their community. Furthermore, volunteering can lead to personal growth and development, such as increased empathy and compassion. Additionally, volunteering can increase one's knowledge and understanding of different topics, which can help them in their career or other areas of life.
+Overall, the tangible and intangible benefits of volunteering are significant. Many people find the benefits of volunteering to be worth the time and effort required to participate.</v>
+      </c>
+      <c r="B65" t="str" xml:space="preserve">
+        <v xml:space="preserve">Sweden
+</v>
+      </c>
+      <c r="C65">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="66" xml:space="preserve">
+      <c r="A66" t="str">
+        <v>We do have food; however, I am currently unsure concerning the variety that would appease your appetite at this present point in our dialogue together while enjoying ourselves within each other's company here on Earth on our glorious planet that orbits around a star found within one galaxy of potentially infinite galaxies inhabited by extreme possibilities surrounding all manifestations and idea(s)</v>
+      </c>
+      <c r="B66" t="str" xml:space="preserve">
+        <v xml:space="preserve">Det har vi
+</v>
+      </c>
+      <c r="C66">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="67" xml:space="preserve">
+      <c r="A67" t="str">
+        <v>The first thing I noticed about the man was his eyes. They were the color of the sky on a clear day, and they were filled with a sadness that I had never seen before. He was tall and thin, and his clothes were old and worn. He had a long beard and a mustache, and his hair was long and gray. He looked like a man who had been through a lot in his life.</v>
+      </c>
+      <c r="B67" t="str" xml:space="preserve">
+        <v xml:space="preserve">#!/bin/bash
+echo "Gör du?
+</v>
+      </c>
+      <c r="C67">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="68" xml:space="preserve">
+      <c r="A68" t="str">
+        <v>Love is the best feeling in the world. It's the best feeling when you're with someone you care about and you feel happy and content. Love is the best feeling when you're in a relationship and you're happy and you feel loved. Love is the best feeling when you're with someone who you think is the best for you.</v>
+      </c>
+      <c r="B68" t="str" xml:space="preserve">
+        <v xml:space="preserve">Kärlek är den enda magiska kraft som får vår fantasi och vår framtid som kan vara
+</v>
+      </c>
+      <c r="C68">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="69" xml:space="preserve">
+      <c r="A69" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+Technology has had a major impact on society in many ways. For one, it has made it easier to connect with others, share information, and store information. It has also allowed people to work and communicate more freely. Additionally, technology has made it easier to find and use information.</v>
+      </c>
+      <c r="B69" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+Technolog
+Översätt Dem!
+</v>
+      </c>
+      <c r="C69">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="70" xml:space="preserve">
+      <c r="A70" t="str">
+        <v>But the great security against a gradual concentration of the several powers in the same department, consists in giving to those who administer each department the necessary constitutional means and personal motives to resist encroachments of the others. The provision for defense must in this, as in all other cases, be made commensurate to the danger of attack. Ambition must be made to counteract ambition. The interest of the man must be connected with the constitutional rights of the place. It may be a reflection on human nature, that such devices should be necessary to control the abuses of government. But what is government itself, but the greatest of all reflections on human nature? If men were angels, no government would be necessary. If angels were to govern men, neither external nor internal controls on government would be necessary.</v>
+      </c>
+      <c r="B70" t="str" xml:space="preserve">
+        <v xml:space="preserve">But the gr = Men den gr = 
+</v>
+      </c>
+      <c r="C70">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="71" xml:space="preserve">
+      <c r="A71" t="str">
+        <v>The impact of climate change on the mental health of young people is poorly understood. Emerging evidence suggests that exposure to climate change exerts a disproportionate mental health burden on young people. An understanding of the risk factors (RFs) and protective factors (PFs) that affect the likelihood of mental health impacts arising from exposure to climate change is required to support youth wellbeing. Aims/objectives: This review scopes the current research on what and how RFs and PFs are related to the mental health impacts of both direct and indirect exposure to climate change for young people. RFs and PFs were reviewed through the lens of ecological system theory. Methods: We conducted systematic searches in four databases: PubMed, PsycInfo, Web of Science, and Scopus. Grey literature searches were conducted in ProQuest Dissertations, GreyLit.org, OpenGrey, and relevant organisations’ websites. We included 92 empirical studies focused on the RFs and PFs of the mental wellbeing under the impact of climate change of young people (0–24). We extracted data on study characteristics, type of climate change event, mental health outcomes, RFs and PFs, and associated ecological system level. Results: The current evidence base focuses predominantly on young people’s experience of PTSD (k = 59), depression (k = 26), or anxiety (k = 17) mainly following exposure to singular climate change-related natural disaster events. Only four studies explored the impacts of climate change in general. Majority of the studies investigated RFs and PFs at the individual level and at the micro-system level. Conclusions: Several RFs and PFs were identified, such as coping strategies, family factors (e.g. parenting style), social support, community connection, and cultural identity. Positioning the mental health impacts of singular events within the broader context of ongoing and escalating climate change impacts will better inform the development of interventions that seek to build resilience among young people.</v>
+      </c>
+      <c r="B71" t="str" xml:space="preserve">
+        <v xml:space="preserve">Ordet Impact i danska, finska, norska, svenska
+The impact of error
+</v>
+      </c>
+      <c r="C71">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="72" xml:space="preserve">
+      <c r="A72" t="str">
+        <v>The setting for this novel is Boston in the early nineteen-hundreds. The novel follows the story of two sisters, Tess and Charlotte, as they navigate their way through life. Tess is a bright and determined young woman, while Charlotte is a sweet and introverted young woman. Both sisters are struggling to find their place in the world, and the novel explores their relationships with family, friends, and romantic interests. In addition to exploring the sisters' lives, the novel also focuses on the history and culture of Boston during this time period.</v>
+      </c>
+      <c r="B72" t="str" xml:space="preserve">
+        <v xml:space="preserve">Stället e
+</v>
+      </c>
+      <c r="C72">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="73" xml:space="preserve">
+      <c r="A73" t="str">
+        <v>If I go into a sandwich shop or anywhere that features 'Today's specials' on a chalkboard more than 10 feet away, I have to ask for a printed menu. I smile at people I don't know on the street and ignore those I do. When at home, I often find myself grabbing my 'back-up' glasses to search for the better-loved pair I have left on top of my dresser.</v>
+      </c>
+      <c r="B73" t="str" xml:space="preserve">
+        <v xml:space="preserve">Om jag går in
+</v>
+      </c>
+      <c r="C73">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="74" xml:space="preserve">
+      <c r="A74" t="str">
+        <v>The first thing I noticed about the man was his eyes. They were the color of the sky on a clear day, and they were filled with a sadness that I had never seen before. He was tall and thin, and his clothes were old and worn. He had a long beard and a mustache, and his hair was long and gray. He looked like a man who had been through a lot in his life.</v>
+      </c>
+      <c r="B74" t="str" xml:space="preserve">
+        <v xml:space="preserve">Firstly, to remove the app icon up right. Only the app icon up left.
+</v>
+      </c>
+      <c r="C74">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="75" xml:space="preserve">
+      <c r="A75" t="str" xml:space="preserve">
         <v xml:space="preserve">As humans, we are constantly seeking approval and understanding. We need people in our lives to tell us what is right and what is wrong, to validate our choices, and to love us without reservation. Being a good person allows us to feel connected to others around us, and makes life more fun. Here are five reasons why it is so important for everyone to be a good person:
 1. It can make you happier. When you find joy in your life, everything else seems much easier. People tend to achieve happiness when they have purpose and meaning in their lives. Good people can often remember happy memories while bad people forget very quickly. being a good person gives somebody else's happiness some focus, which makes them likely to stay positive throughout their day.
 2. It can help you make better decisions. Good decisions involve taking information into account, weighing the pros and cons of different options, and Imagining the future. The more time you spend thinking positively about yourself, the better chance you have of making sound judgement calls that lead to successful outcomes.
@@ -4494,607 +4707,1889 @@
 4. It can make you happier than bad people. When somebody is behaving in an immoral or harmful way (e.g., by harming another person), it feels satisfying and like they're getting away with murder – in a way that good people never experience pleasure from anything they do! People who are good at living constructive meaningful lives generally have a much harder time feeling angry or resentful towards others than those who aren't so lucky (or who choose not to try). In fact, most research indicates that having such positive outlooks leads individuals to report lower levels of anger, stress, worry etc., compared with individuals with negative outlooks on themselves or on the world around them.
 5. It can help you get along with others.Everybody needs to feel accepted and liked at some point in their lives, no matter how popular or popularized that idea may be. Being kind-hearted and humble will do the trick – even if you don't receive a lot of compliments for it in your day-to-day life. People who are good people generally have better relationships than those who aren't. They typically understand and know how to communicate effectively, which allows them to build Trust faster than those who are not so inclined.</v>
       </c>
-      <c r="B57" t="str" xml:space="preserve">
-        <v xml:space="preserve">Som människor är vi ständigt på jakt efter beröm och förståelse. Vi behöver människor i våra liv för att berätta för oss vad som är rätt och vad som är fel, att validera våra val och att älska oss utan förbehåll. Att vara en bra person får oss att känna oss sammankopplade med andra runt omkring oss och gör livet mer roligt. Här är fem skäl varför det är så viktigt för alla att vara en bra person:
-1. Det kan göra dig gladare. När du hittar glädje i ditt liv är allt annat mycket lättare. Människor har tendens att uppnå lycka när de har syfte och mening i sina liv. Goda människor kan ofta minnas glada minnen medan onda människor glömmer väldigt fort. Att vara en god människa ger någon annans lycka lite fokus, vilket gör att den lättare stannar positiv under hela sin dag.
-2. Det kan hjälpa dig att ta bättre beslut. Positiva beslut involverar att beakta information, väga pro och kontra olika alternativ och föreställa sig framtiden. Desto längre tid du lägger på att tänka positivt om dig själv, desto bättre chans att du gör ljudinlägg för gott överlägg som leder till framgångsrika resultat.
-3. Det kan skydda dig från skada. Goda människor ses ofta som sänkningen mellan säkerhet och fara eftersom de tar extra försiktighetsåtgärder som att vara godhjärtad och hålla utkik efter andra, även om de inte alltid vet vad de gör. De lyssnar också noga när någon behöver hjälp, erbjuder stöd om möjligt eller vidtar åtgärder när något ont händer. Denna typ av beteende stärker relationer genom att försäkra andra medlemmar i samhället att någon kommer att hålla dem säkra oavsett vad - även om denna individ inte är särskilt social eller säker på sig själv.
-4. Det kan göra dig gladare än onda människor. När någon beter sig på ett omoraliskt eller skadligt sätt (t.ex. genom att skada en annan person) känns det tillfredsställande och som om de kommer undan med mordet - på ett sätt som gode män aldrig upplever nöjet från allt de gör! De som är gode på att leva konstruktiva meningsfulla liv har generellt en mycket svårare tid att känna ilska eller bitterhet mot andra än de Som tur inte har tur eller som väljer att inte försöka. Forskning visar snarare att fackförening har sådana positiva inställningar leder individer att rapportera lägre nivåer av ilska, stress, oro etc, jämfört med individer med negativa inställningar till sig själva eller till omvärlden runt dem.
-5. Det kan hjälpa dig att komma överens med andra. Alla behöver känna sig accepterade och önskade vid något tillfälle i sitt liv, oavsett hur populära
-As humans, we are constantly seeking approval and understanding. We need people in our lives to tell us what is right and what is wrong, to validate our choices, and to love us without reservation. Being a good person allows us to feel connected to others around us, and makes life more fun. Here are five reasons why it is so important for everyone to be a good person:
-1. It can make you happier. When you find joy in your life, everything else seems much easier. People tend to achieve happiness when they have purpose and meaning in their lives. Good people can often remember happy memories while bad people forget very quickly. being a good person gives somebody else's happiness some focus, which makes them likely to stay positive throughout their day.
-2. It can help you make better decisions. Good decisions involve taking information into account, weighing the pros and cons of different options, and Imagining the future. The more time you spend thinking positively about yourself, the better chance you have of making sound judgement calls that lead to successful outcomes.
-3. It can protect you from harm.Good people are frequently seen as the Buffer Between Safety and Danger because they take extra precautions such as being kind-hearted and watching out for others, even if they don't always know what they're doing. They also listen carefully when someone needs help, offer support if possible, or take action when something bad happens. This type of behavior strengthens relationships by reassuring other members of the community that someone will keep them safe no matter what – even if that individual isn't particularlyocial or safe-minded themselves!
-4. It can make you happier than bad people. When somebody is behaving in an immoral or harmful way (e.g., by harming another person), it feels satisfying and like they're getting away with murder – in a way that good people never experience pleasure from anything they do! People who are good at living constructive meaningful lives generally have a much harder time feeling angry or resentful towards others than those who aren't so lucky (or who choose not to try). In fact, most research indicates that having such positive outlooks leads individuals to report lower levels of anger, stress, worry etc., compared with individuals with negative outlooks on themselves or on the world around them.
-5. It can help you get along with others.Everybody needs to feel accepted and liked at some point in their lives, no matter how popular or popularized that idea may be. Being kind-hearted and humble will do the trick – even if you don't receive a lot of compliments for it in your day-to-day life. People who are good people generally have better relationships than those who aren't. They typically understand and know how to communicate effectively, which allows them to build Trust faster than those who are not so inclined.
-</v>
-      </c>
-      <c r="C57">
-        <v>1694</v>
-      </c>
-    </row>
-    <row r="58" xml:space="preserve">
-      <c r="A58" t="str">
-        <v>Change begets change. Nothing propagates so fast. If a man habituated to a narrow circle of cares and pleasures, out of which he seldom travels, step beyond it, though for never so brief a space, his departure from the monotonous scene on which he has been an actor of importance would seem to be the signal for instant confusion.... The mine which Time has slowly dug beneath familiar objects is sprung in an instant; and what was rock before, becomes but sand and dust.</v>
-      </c>
-      <c r="B58" t="str" xml:space="preserve">
-        <v xml:space="preserve">Förändring föder förändring. Ingenting sprids så snabbt. Tänk dig en person som vana vid en smal krets av bekymmer och nöjen, som han sällan kommer bort ifrån, stiger utanför den, även om det bara är för ett ögonblick, hans avgång från den monotona scen han varit en viktig skildring av skulle kunna ses som signalen till en omedelbar förvirring.The mine which Time has slowly dug beneath familiar objects is sprung in an instant; and what was rock before, becomes but sand and dust.
-</v>
-      </c>
-      <c r="C58">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="59" xml:space="preserve">
-      <c r="A59" t="str">
-        <v>This policy of supplying, by opposite and rival interests, the defect of better motives, might be traced through the whole system of human affairs, private as well as public. We see it particularly displayed in all the subordinate distributions of power, where the constant aim is to divide and arrange the several offices in such a manner as that each may be a check on the other—that the private interest of every individual may be a sentinel over the public rights. These inventions of prudence cannot be less requisite in the distribution of the supreme powers of the State.</v>
-      </c>
-      <c r="B59" t="str" xml:space="preserve">
-        <v xml:space="preserve">Partiet som säkerställer, genom motsatt och onda intressen, optimering av bättre (motivet) skulle kunna analyseras i hela systemet av mänskliga affärer, privata lika väl som offentliga. Vi ser det framförallt utvärderat bland alla underordnade distributionscentra, där den konstanta målet är att dela och arrangera alla ämbeten på ett sådant sätt att alla riskerar att kontrollera varandra – så att den privata, individuella intressen av varje individ blir en skyddare av det allmännas rättigheter. Dessa uppfinningar av försiktighet kan inte vara mindre nödvändiga vid den allmänna maktdistribution.
-Källa, original: This policy of supplying, by opposite and rival interests, the defect of better motives, might be traced through the whole system of human affairs, private as well as public. We see it particularly displayed in all the subordinate distributions of power, where the constant aim is to divide and arrange the several offices in such a manner as that each may be a check on the other—that the private interest of every individual may be a sentinel over the public rights. These inventions of prudence cannot be less requisite in the distribution of the supreme powers of the State.
-</v>
-      </c>
-      <c r="C59">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="60" xml:space="preserve">
-      <c r="A60" t="str">
-        <v>Abraham Lincoln, commander in chief of the United States armed forces, and Edwin M. Stanton, Secretary of War, were themselves parties to the attempted arrest, trial and conviction of an American citizen by a military tribunal in the presence of a civil court, in spite of the fact that the enforcement of justice by civil courts was not then impossible. Judge Advocate Holt, in his history of military justice, makes the point that "the Supreme Court in this instance, could hardly have been carried away by any over-zeal for the maintenance of constitutional rights. The judges were all men of experience; men who had passed through the Civil War or the war with Mexico, and two of them by bitter experience in the Northern prisons had had the best education for understanding the difficulties which confront the commander of a military force struggling for existence against armed and organized resistance. Moreover, the first army commander who had encouraged the military commissions in the South on this same ground of necessity had just weeks before been tried and condemned by a military commission for murder. If Judge Advocate Holt's view is correct, the men who were tried in the Milligan case had much less excuse for their conduct than did General Butler</v>
-      </c>
-      <c r="B60" t="str" xml:space="preserve">
-        <v xml:space="preserve">Abraham Lincoln, gruppchef för Förenta staterna väpnade styrkor, och Edwin M. Stanton, försvarsminister, var själva deltagare i det misslyckade försöket att för arrestera, rättegång och dömas att en amerikansk medborgare av en militärdomstol i närvaro av en civil domstol, trots att statens rättsliga domstolar var vid den tiden inte möjlig. Judge Advocate Holt, i hans historia om militär rätt, tar in det faktum att "Supreme Court i detta fall, kunde knappast ha varit bort med något över-iver för rättsliga rättigheter. Domarna var alla män med erfarenhet, män som hade genomgått inbördeskriget eller kriget med Mexiko, och två av dem av hårt personlig erfarenhet och fängelser i Norden, hade haft bästa utbildning för att begripa svårigheter som befinner sig befälhavare en militär kraft strida för överlevnad mot beväpnade och organiserade motstånd. Dessutom var den första armén befälhavare som hade uppmuntrade det militära militära kommissioner i norr på denna samma sak av nödvändighet hade just veckor innan hade straffats och fördömd av en militär kommissionen för mord. Om Judge Advocate Holt synvinkel är korrekt, hade männen som har provats i Milligan fallet så mycket mindre ursäkt för sin beteende än general Butlers
-</v>
-      </c>
-      <c r="C60">
-        <v>989</v>
-      </c>
-    </row>
-    <row r="61" xml:space="preserve">
-      <c r="A61" t="str">
-        <v>Furthermore, we believe that health care reform, again I said at the beginning of my remarks, that we sent the three pillars that the President's economic stabilization and job creation initiatives were education and innovation - innovation begins in the classroom - clean energy and climate, addressing the climate issues in an innovative way to keep us number one and competitive in the world with the new technology, and the third, first among equals I may say, is health care, health insurance reform.</v>
-      </c>
-      <c r="B61" t="str" xml:space="preserve">
-        <v xml:space="preserve">twtrdfytredyt
-</v>
-      </c>
-      <c r="C61">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="62" xml:space="preserve">
-      <c r="A62" t="str">
-        <v>The obesity epidemic is on the rise, and it’s not just a problem for older adults. Obesity rates are increasing for everyone, regardless of age. A study from The Lancet found that overall, obesity rates have increased in every country studied since 1993. The reasons behind this increase are many, but one big factor is changes in eating habits. Obesity is now more likely because people are eating more processed foods andriel lamborghini Odd Future lip sync youtube than they were in the past. In addition, there is an increase in physical activity levels, which has led to an increase in weight and inches across the board. There are many ways to help fight against obesity, and you don’t have to be obese to see the effects. Education is key – provide children and adults with information about what calories really mean and howto lose weight safely. Let people know that healthy eating habits consist of eating plenty of fruits and vegetables, low-fat proteins, whole grains, nuts and seeds, low-calorie dairy products, poultry or fish instead of pork or fast food restaurants. It can be difficult to change general behavior when unhealthy eating habits are entrenched, but there are some things you can do to make a difference. One approach istargeting those who have been previously successful at losing weight – including parents or adults who know their own potential body size – by providing them with Prevention programs specifically designed for them. Another approach is to create healthier lifestyles around meals. Eating a balanced diet that includes fruits and vegetables, whole grains, nuts and seeds, lower-calorie dairy products, poultry or fish instead of pork or fast food restaurants will help you lose weight while maintaining your health condition.</v>
-      </c>
-      <c r="B62" t="str" xml:space="preserve">
-        <v xml:space="preserve">Den fetmaepidemi i USA stiger ökar inte bara orättvist motsvarar hennes internationella kollegor utan fungerar inte.
-Epidemiska fetenter har alltid varit en enorm problem, med mer än 96 miljoner amerikaner i nuläget som lider av överviktiglivsstil.
-Kan data från ASKHON undersöker, national data för barfota platser och kön i Ungern och undersöker 18 000 poliser som inte fått internationell batuta, tillsammans med brittiska polisen, luftvägarna som andas trauma.
-Luftvägsorgan, andningsorgan, aorta samt sköldkörteln och parasarctumörer
-</v>
-      </c>
-      <c r="C62">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="63" xml:space="preserve">
-      <c r="A63" t="str">
-        <v>The Universe, which is the uttered Word of God, is infinite in extent.  There is no empty space beyond creation on any side.  The Universe, which is the Thought of God pronounced,never was not, since God never was inert; nor was, without thinking and creating.  The forms of creation change, the suns and worlds live and die like the leaves and the insects, but the Universe itself is infinite and eternal, because God Is, Was, and Will forever Be, and never did not think and create.</v>
-      </c>
-      <c r="B63" t="str" xml:space="preserve">
-        <v xml:space="preserve">The Universe, which is the uttered Word of God, is infinite in extent.  There is no empty space beyond creation on any side.  The Universe, which is the Thought of God pronounced,never was not, since God never was inert; nor was, without thinking and creating.  The forms of creation change, the suns and worlds live and die like the leaves and the insects, but the Universe itself is infinite and eternal, because God Is, Was, and Will forever Be, and never did not think and create.
-Den Universum som hör enligt Guds ord är oändligt stor. Förutom skapelsen och livet på jorden finns inga tomma ytor.
-Universumet är tänkande som Gud är tänkande aldrig vilade, aldrig var orörlig som Gud. Aldrig var i vila utan tänkte och skapade. Former i skapelsen förändras, solat dör som jordens växter och insekter men Universumet är orubbligt eftersom det är Guds vilja att vi ska vara som vi är. Evigheter utan slut eftersom Gud var, är och evigheter framåt kommer att vara och aldrig är vilande utan skapar och tänker.
-</v>
-      </c>
-      <c r="C63">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="64" xml:space="preserve">
-      <c r="A64" t="str" xml:space="preserve">
-        <v xml:space="preserve">
-I conducted a literature review to learn about the effects of dance on mental health. According to the review, there is limited research on the effects of dance on mental health, but the existing research points to positive effects. Dance has been shown to have a positive effect on mood and cognitive function, while also reducing stress and anxiety. These benefits may be due to the positive physical and mental health benefits of dance, as well as the social aspects of dance. Additionally, the review found that dance can be used to improve physical health, including bone density and respiratory health.</v>
-      </c>
-      <c r="B64" t="str" xml:space="preserve">
-        <v xml:space="preserve">
-Jag gjorde en litteratursökning för att lära mig om konsekvenserna av dans på mental hälsa. Enligt granskningen finns det begränsad forskning om konsekvenserna av dans på mental hälsa, men den befintliga forskningen pekar på positiva effekter. Dans har visats ha en positiv effekt på humör och kognitiv funktion, samtidigt som den minskar stress och ångest. Dessa fördelar kan bero på de positiva fysiska och mentala hälsoeffekterna av dans, liksom de sociala aspekterna av dans. Dessutom har granskningen hittat att man kan använda dans för att förbättra den fysiska hälsan, till exempel benmassa och andningshälsa.
-</v>
-      </c>
-      <c r="C64">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="65" xml:space="preserve">
-      <c r="A65" t="str" xml:space="preserve">
-        <v xml:space="preserve">1. Understand that old people aren’t actually that worried about old age, according to numerous surveys. The most recent one I can find was undertaken by American research firm NORC in 2016. It polled over 3,000 adults and found that old people are more optimistic about growing old than younger adults: 46 percent of thirty-somethings said they were optimistic about aging, compared to 66 percent for the seventy-pluses. It seems that worrying about growing old is a sign you are young. And the main reason to be optimistic about old age is that old people themselves are. Resilience seems to grow.
-2. It happens. Aging is something we can’t do much about. We can eat healthily, exercise and live sensibly but we will still age. Our 80th birthday will still be on the same date. Sure, we can make it more likely we will reach 80, but we can’t stop the wheels of time. And the certainty is actually quite reassuring. When there is nothing we can do about something, the point of worry begins to diminish. “Everybody dies,” wrote Nora Ephron.” There’s nothing you can do about it. Whether or not you eat six almonds a day</v>
-      </c>
-      <c r="B65" t="str" xml:space="preserve">
-        <v xml:space="preserve">1. Förstå att gamla människor faktiskt inte är så oroliga för gamla ålder, enligt många undersökningar. Det senaste som jag kan hitta utfördes av det amerikanska forskningsföretaget NORC år 2016. Det fångade upp över 3,000 vuxna och fann att gamla människor mer optimistiska om att bli gamla än yngre vuxna: 46 procent av tjugo-något sade att de var optimistiska i åldrande, jämfört med 66 procent för de sjuttio plus. Det verkar som att oroa sig för att bli gammal är ett tecken på att du är ung. Och den främsta anledningen att vara optimistisk om gamla ålder är att gamla människor själva är. Återhämtning tycks växa.
-2. Xxxx. Hälsovård är något vi inte kan göra mycket om. Vi kan äta hälsosamt, motionera och bovett eller inte men vi kommer fortfarande att åldras. Vårt 80: e födelsedag kommer fortfarande att vara samma dag. Visst gör vi det mer sannolikt är att vi kommer att nå 80, men vi kan inte stoppa hjulen. Och säkerheten är faktiskt ganska lugnande. När det inte finns något vi kan göra med något början oroa sig minska. "" Varenda dör, "" skrev Nora Ephron. "" Det finns ingenting du kan göra åt det
-</v>
-      </c>
-      <c r="C65">
-        <v>1042</v>
-      </c>
-    </row>
-    <row r="66" xml:space="preserve">
-      <c r="A66" t="str">
-        <v>Wasn't marriage, like life, unstimulating and unprofitable and somewhat empty when too well ordered and protected and guarded? Wasn't it finer, more splendid, more nourishing, when it was, like life itself, a mixture of the sordid and the magnificent; of mud and stars; of earth and flowers; of love and hate and laughter and tears and ugliness and beauty and hurt?</v>
-      </c>
-      <c r="B66" t="str" xml:space="preserve">
-        <v xml:space="preserve">Var inte äktenskapet, precis som livet, ostimulerande och oavkastande och något tomt då snarare välreglerat och skyddat och skyddat? Var det inte finare, vackrare, hälsosammare, när det var sådant, likt livet självt, en blandning av nedslätande och grandiosa; jord och stjärnor; jord och blommor; kärlek och hat, skratt och tårar, fruktansvärdhet och skönhet och skada?
-</v>
-      </c>
-      <c r="C66">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="67" xml:space="preserve">
-      <c r="A67" t="str">
-        <v>We are facing an increasingly complex, fast-moving environment. In the coming years, sustainability, digitalization, an intensifying competition for talent and geopolitics will shape both Investor and our companies.</v>
-      </c>
-      <c r="B67" t="str" xml:space="preserve">
-        <v xml:space="preserve">Vi står inför ett alltmer komplext och snabbt föränderligt miljö. Under de kommande åren kommer hållbarhet, digitalisering, intensifierad konkurrens om talang och geopolitik att forma både Investor och våra bolag.
-</v>
-      </c>
-      <c r="C67">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="68" xml:space="preserve">
-      <c r="A68" t="str">
-        <v>People don't know where to place me. Terry Gilliam used me as a quirky cop in 'Twelve Monkeys', and then he hired me again to be an effeminate hotel clerk in 'Fear and Loathing in Las Vegas'. Another time, I was shooting this indie film 'The Souler Opposite' and six days a week, I'm playing this big puppy dog, then I come to the 'NYPD Blue' set and become this scumbag.</v>
-      </c>
-      <c r="B68" t="str" xml:space="preserve">
-        <v xml:space="preserve">People don't know where to place me. Terry Gilliam used me as a quirky cop in 'Twelve Monkeys', and then he hired me again to be an effeminate hotel clerk in 'Fear and Loathing in Las Vegas'. Another time, I was shooting this indie film 'The Souler Opposite' and six days a week, I'm playing this big puppy dog, then I come to the 'NYPD Blue' set and become this scumbag.
-Folk vet inte var de ska placera mig. Terry Gilliam använde mig som en konstig polis i "Twelve Monkeys, " och då anställde han mig igen att vara en feminin hotellreceptionist i "Fear and Loathing in Las Vegas. " En annan gång var jag spela den här indie filmen "The Souler Opposite " och sex dagar i veckan, på söndag, jag spelar det här stora valp, då kommer jag till " NYPD Blue "uppsättningen och bli den här skurken.
-</v>
-      </c>
-      <c r="C68">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="69" xml:space="preserve">
-      <c r="A69" t="str">
-        <v>The present study aimed to explore the relationship between Y-chromosome STR and psychiatric symptoms in patients with major depressive disorder. The study found that patients with higher Y-chromosome STR have a higher risk for developing psychiatric symptoms. The study also found that patients with higher Y-chromosome STR had a higher risk for developing major depressive disorder in a monozygotic ( identical ) twin study. The study showed that the relationship between Y-chromosome STR and psychiatric symptoms is possibly due to genetic modifiers.</v>
-      </c>
-      <c r="B69" t="str" xml:space="preserve">
-        <v xml:space="preserve">Den här studien försökte utforska relationen mellan Y-kromosomen STR och psykiska symptom hos patienter med större depressiv störning. Studien visade att patienter med högre Y-kromosom STR har en större risk för att utveckla psykiska symtom. Studien visade också att patienter med högre Y-kromosom STR hade en högre risk för att utveckla större depressiv sjukdom i en monosom (identiska) tvillingstudie. Studien visar att relationen mellan Y-kromosomen STR och psykiska symtom eventuellt beror på genetiska modifierare.
-</v>
-      </c>
-      <c r="C69">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="70" xml:space="preserve">
-      <c r="A70" t="str">
-        <v>Four hours of makeup, and then an hour to take it off. It's tiring. I go in, I get picked up at two-thirty in the morning, I get there at three. I wait four hours, go through it, ready to work at seven, work all day long for twelve hours, and get it taken off for an hours, go home and go to sleep, and do the same thing again.</v>
-      </c>
-      <c r="B70" t="str" xml:space="preserve">
-        <v xml:space="preserve">Four hours of makeup, and then an hour to take it off. It's tiring. I go in, I get picked up at two-thirty in the morning, I get there at three. I wait four hours, go through it, ready to work at seven, work all day long for twelve hours, and get it taken off for an hours, go home and go to sleep, and do the same thing again.
-Fyra timmar i smink, och en timme att ta bort det efter lång tid. Det är tröttsamt. Jag går, blir jag upphämtas kl fyra på morgonen, jag kommer dit klockan tre.
-Jag väntar fyra timmar, går igenom det, redo att arbeta timme sju, att jobba hela dagen, och arbetar av för timmar, jag går hem och går och sover, och gör samma sak igen.
-</v>
-      </c>
-      <c r="C70">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="71" xml:space="preserve">
-      <c r="A71" t="str">
-        <v>... business training in early life should not be regarded solely as insurance against destitution in the case of an emergency. For from business experience women can gain, too, knowledge of the world and of human beings, which should be of immeasurable value to their marriage careers. Self-discipline, co-operation, adaptability, efficiency, economic management,?if she learns these in her business life she is liable for many less heartbreaks and disappointments in her married life.</v>
-      </c>
-      <c r="B71" t="str" xml:space="preserve">
-        <v xml:space="preserve">
-## ... business training in early life should not be regarded solely as insurance against destitution in the case of an emergency. For from business experience women can gain, too, knowledge of the world and of human beings, which should be of immeasurable value to their marriage careers. Self-discipline, co-operation, adaptability, efficiency, economic management,?if she learns these in her business life she is liable for many less heartbreaks and disappointments in her married life.
-... Affärsutbildning på tidiga liv ska inte enbart ses som en försäkring mot fattigdom i händelse av en nödsituation. För från affärs erfarenhet kvinnor kan också vinna kunskap om världen och om människor, som bör vara av ovärderlig värde för sin äktenskap karriärer. Självdisciplin, samarbete, anpassningsförmåga, effektivitet, ekonomisk administration, om hon lär sig dessa i sin yrkesverksamhet hon är skyldig för många mindre hjärtesorg och besvikelser i sitt äktenskap.
-</v>
-      </c>
-      <c r="C71">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="72" xml:space="preserve">
-      <c r="A72" t="str">
-        <v>However, there are a few things that businesses need to consider when using social media. The first is that social media can be valuable but can also be risky. For example, if a business doesn’t take enough precautions to ensure their content is accurate or promotional, they may risk losing customer trust and/or respect. Additionally, it’s important that businesses aren’t too dismissive of people who use social media. Sometimes people use social media as a form of communication and outreach, which is valuable. Finally, businesses should make sure they are providing value and fulfilling their commitments on social media. If they don’t, their users may end up cutting them out of their lives.</v>
-      </c>
-      <c r="B72" t="str" xml:space="preserve">
-        <v xml:space="preserve">Det finns dock några saker som företag måste tänka på när de använder sociala medier. Det första är att sociala medier kan vara värdefulla men kan också vara riskabelt. Till exempel kan ett företag riskera att förlora kundens tillit och / eller respekt, om man inte tar tillräckliga försiktighetsåtgärder för att försäkra sig om att innehållet är korrekt eller reklam. Dessutom är det viktigt att företag inte är alltför hånande för människor som använder sociala medier. Ibland använder människor sociala medier som ett sätt att kommunicera och nå ut, vilket är värdefullt. Slutligen måste företag se till att de ger värde och uppfyller sina åtaganden på sociala medier. Om de inte gör det, kanske deras användare slutar att använda deras tjänster.
-</v>
-      </c>
-      <c r="C72">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="73" xml:space="preserve">
-      <c r="A73" t="str">
-        <v>I can't do the same movies all my life. I'm conscious of that. But it's a trade-off. 'Dear John' allowed me to do movies I've wanted to do. You learn to balance it out. I'm still learning. Only now am I getting to do the kinds of movies that I have wanted to do. So it's a steady climb. You don't jump into a Soderbergh film.</v>
-      </c>
-      <c r="B73" t="str" xml:space="preserve">
-        <v xml:space="preserve">Jag kan inte göra filmer hela mitt liv. Jag inse det. Men det kompromissen. "Kära John" gjorde det möjligt för mig att göra filmer jag helst vill göra. Du lär dig att balans mellan det. Jag lär mig fortfarande. Bara nu jag får gör sorter av films som jag helst vill göra. Så att säga, det stadigt klättring. Du hoppa inte på en Soderbergh film.
-</v>
-      </c>
-      <c r="C73">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="74" xml:space="preserve">
-      <c r="A74" t="str">
-        <v>Margaret Sullivan: I had been at a small newspaper in California. I started my career at an evening daily newspaper called The San Bernardino Sun. I went straight from there to The New York Times in 1981. So it was a huge—it was a big leap in many ways—a leap into cultural elitism and sophistication. It was a wonderful, wonderful place to work. It was a very exciting time to be there because we were growing. Our circulation at the time was about 1.1 million. We were a big paper then. It's half that now. But we were in a great building in Times Square, and it was just exciting and exhilarating as you can imagine.</v>
-      </c>
-      <c r="B74" t="str" xml:space="preserve">
-        <v xml:space="preserve">Margaret Sullivan: Jag hade varit på en liten tidning i Kalifornien. Jag började min karriär på en kvällstidningen kallades The San Bernardino Sun. Jag gick rakt från där till The New York Times 1981. Så det var en stor - det var en stor kliv på många sätt - ett språng in i kulturella elitism och sophistication. Det var en underbar, underbar plats att arbeta. Det var en mycket spännande tid där, för vi växte. Vår upplaga vid den tiden var ungefär 1,1 miljoner. Vi var en stor tidningen då. Det är halva nu. Men vi var i en stor byggnad på Times Square, och det var bara spännande och tillfredsställande för tonträ- liksom en massa följa och det och de och de och de att sätta upp.
-</v>
-      </c>
-      <c r="C74">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="75" xml:space="preserve">
-      <c r="A75" t="str">
-        <v>They started by stating that everything felt like it was going wrong and that there wasn't a single thing in life that made them happy anymore. The sender explained how this had been happening for months now, but no matter what they did things only got worse. They told their friend how crazy and frustrating it all felt, begging for help because they didn't know where else to turn.</v>
-      </c>
       <c r="B75" t="str" xml:space="preserve">
-        <v xml:space="preserve">De började med att säga att allt kändes som om det gick fel och att det inte fanns en enda sak i livet som gjorde dem lyckliga längre .
-Avsändaren förklarade hur detta hade hänt på månader nu, men oavsett vad de gjorde saker endast blev värre.
-De berättade för sin vän hur galen och frustrerande det var, tigger om hjälp eftersom de inte visste var de skulle vända.
+        <v xml:space="preserve">Som människor,
 </v>
       </c>
       <c r="C75">
-        <v>330</v>
+        <v>42</v>
       </c>
     </row>
     <row r="76" xml:space="preserve">
       <c r="A76" t="str">
-        <v>Liz is a strong, independent woman who has had to fend for herself since she was young. She's learned how to be resourceful and determined, which has helped her obtain jobs in the publishing industry despite not having a college degree. Liz is hard working and always trying to do the right thing - even if it means taking on extra work or going above and beyond what someone expects of her. She's fiercely loyal to those she cares about and can be counted on no matter what happens.</v>
+        <v>However, there are a few things that businesses need to consider when using social media. The first is that social media can be valuable but can also be risky. For example, if a business doesn’t take enough precautions to ensure their content is accurate or promotional, they may risk losing customer trust and/or respect. Additionally, it’s important that businesses aren’t too dismissive of people who use social media. Sometimes people use social media as a form of communication and outreach, which is valuable. Finally, businesses should make sure they are providing value and fulfilling their commitments on social media. If they don’t, their users may end up cutting them out of their lives.</v>
       </c>
       <c r="B76" t="str" xml:space="preserve">
-        <v xml:space="preserve">Liz är en kvinna som gav sig själv då hon var ung.
-Hon har lärt sig att vara en resursfull och fast, vilket har hjälpt henne att få jobb i den publicerande industrin trots inte att ha ett universitetsexamens.
-Liz arbetar hårt alltid försöka att göra det rätta även om det innebär att ta på sig lite extra arbete eller gå utöver vad någon har räknat med av henne. ...
+        <v xml:space="preserve">Dock, T
 </v>
       </c>
       <c r="C76">
-        <v>376</v>
+        <v>38</v>
       </c>
     </row>
     <row r="77" xml:space="preserve">
       <c r="A77" t="str">
-        <v>But the great security against a gradual concentration of the several powers in the same department, consists in giving to those who administer each department the necessary constitutional means and personal motives to resist encroachments of the others. The provision for defense must in this, as in all other cases, be made commensurate to the danger of attack. Ambition must be made to counteract ambition. The interest of the man must be connected with the constitutional rights of the place. It may be a reflection on human nature, that such devices should be necessary to control the abuses of government. But what is government itself, but the greatest of all reflections on human nature? If men were angels, no government would be necessary. If angels were to govern men, neither external nor internal controls on government would be necessary. In framing a government which is to be administered by men over men, the great difficulty lies in this: you must first enable the government to control the governed; and in the next place oblige it to control itself. A dependence on the people is, no doubt, the primary control on the government; but experience has taught mankind the necessity of auxiliary precautions.</v>
+        <v>A couple of months ago, I was down in Florida for the Food and Wine Festival. And this journalist grabbed me and said, 'How does it feel to be a TV guy? You're no longer in the restaurant business.' And I laughed. I asked him, 'How long do you think it takes me to do a season?' He said, 'Well, 200 days.' And I was like, '200 days? Try 20!'</v>
       </c>
       <c r="B77" t="str" xml:space="preserve">
-        <v xml:space="preserve">But the great security against a gradual concentration of the several powers in the same department, consists in giving to those who administer each department the necessary constitutional means and personal motives to resist encroachments of the others. The provision for defense must in this, as in all other cases, be made commensurate to the danger of attack. Ambition must be made to counteract ambition. The interest of the man must be connected with the constitutional rights of the place. It may be a reflection on human nature, that such devices should be necessary to control the abuses of government. But what is government itself, but the greatest of all reflections on human nature? If men were angels, no government would be necessary. If angels were to govern men, neither external nor internal controls on government would be necessary. In framing a government which is to be administered by men over men, the great difficulty lies in this: you must first enable the government to control the governed; and in the next place oblige it to control itself. A dependence on the people is, no doubt, the primary control on the government; but experience has taught mankind the necessity of auxiliary precautions.
-Men de stora säkerhet mot en gradvis koncentration av de flera befogenheter i samma avdelning, består i att ge dem som förvaltar varje avdelning de nödvändiga konstitutionella medel och personliga motiv för att motstå övertramp av andra. Säkerhetsbestämmelserna för försvar måste i detta, liksom i alla andra fall, föreskrivas så att de kommer i överenstämmelse med angreppsrisken. Ambition måste göras för att motverka ambition. Intresset av man måste förenas med de konstitutionella rättigheterna till platsen. Det kan vara en reflektion över mänsklig natur, att sådana apparater måste behövas för att kontrollera missbruken av regeringen. Men vad är regeringen själv, utan det största av alla reflektioner över mänsklig natur? Om människor 
-var änglar, behövdes ingen regering. Om änglar skulle styra människor, behövde utomståndiga eller inre kontroller av regeringen inte behövdes. Vid framställning av en regering som ska administreras av män över män, ligger det stora svårigheten i det: du måste först göra det möjligt för regeringen att kontrollera det reglerade; och i nästa rad förmå det att kontrollera sig själv. En beroendeförhållande till folket är utan tvekan det primära kontrollen över regeringen men erfarenhet har lärt sig mänskligheten nödvändigheten av plantsäkerhetsförbud. Ambition måste göras för att motverka ambition. Intresset av man måste förenas med de konstitutionella rättigheterna till platsen. Det kan vara en reflektion över mänsklig natur, att sådana apparater måste behövas för att kontrollera missbruken av regeringen. Men vad är regeringen själv, utan det största av alla reflektioner över mänsklig natur? Om människor 
-var änglar, behövdes ingen regering. Om änglar skulle styra människor, behövde utomståndiga eller inre kontroller av regeringen inte behövdes. Vid framställning av en regering som ska administreras av män över män, ligger det stora svårigheten i det: du måste först göra det möjligt för regeringen att kontrollera det reglerade; och i nästa rad förmå det att kontrollera sig själv. En beroendeförhållande till folket är utan tvekan det primära kontrollen över regeringen men erfarenhet har lärt sig mänskligheten nödvändigheten av plantsäkerhetsförbud. Ambition måste göras för att motverka ambition. Intresset av man måste förenas med de konstitutionella rättigheterna till platsen. Det kan vara en reflektion över mänsklig natur, att sådana apparater måste behövas för att kontrollera missbruken av regeringen. Men vad är regeringen själv, utan det största av alla reflektioner över mänsklig natur? Om människor 
-var änglar, behövdes ingen regering. Om änglar skulle styra människor, behövde utomståndiga eller inre kontroller av regeringen inte behövdes. Vid framställning av en regering som ska administreras av män över män, ligger det stora svårigheten i det: du måste först göra det möjligt för regeringen att kontrollera det reglerade; och i nästa rad förmå det att kontrollera sig själv. En beroendeförhållande till folket är utan tvekan det primära kontrollen över regeringen men erfarenhet har lärt sig mänskligheten nödvändigheten av plantsäkerhetsförbud. Ambition måste göras för att motverka ambition. Intresset av man måste förenas med de konstitutionella rättigheterna till platsen. Det kan vara en reflektion över mänsklig natur, att sådana apparater måste behövas för att kontrollera missbruken av regeringen. Men vad är regeringen själv, utan det största av alla reflektioner över mänsklig natur? Om människor 
-var änglar, behövdes ingen regering. Om änglar skulle styra människor, behövde utomståndiga eller inre kontroller av regeringen inte behövdes. Vid framställning av en regering som ska administreras av män över män, ligger det stora svårigheten i det: du måste först göra det möjligt för regeringen att kontrollera det reglerade; och i nästa rad förmå det att kontrollera sig själv. En beroendeförhållande till folket är utan tvekan det primära kontrollen över regeringen men erfarenhet har lärt sig mänskligheten nödvändigheten av plantsäkerhetsförbud.
+        <v xml:space="preserve">En couple och
 </v>
       </c>
       <c r="C77">
-        <v>1888</v>
+        <v>38</v>
       </c>
     </row>
     <row r="78" xml:space="preserve">
       <c r="A78" t="str">
-        <v>I liked the way my character, Shane, was first introduced. You get introduced to her through this sexual action, and I thought that was so cool and just kind of summed up what she enjoys and who she is, to a certain extent. She's a complete sexual being and the great thing is that she doesn't apologize for it. It's just who she is. We rarely see women be able to do that on television.</v>
+        <v>The impact of climate change on the mental health of young people is poorly understood. Emerging evidence suggests that exposure to climate change exerts a disproportionate mental health burden on young people. An understanding of the risk factors (RFs) and protective factors (PFs) that affect the likelihood of mental health impacts arising from exposure to climate change is required to support youth wellbeing. Aims/objectives: This review scopes the current research on what and how RFs and PFs are related to the mental health impacts of both direct and indirect exposure to climate change for young people. RFs and PFs were reviewed through the lens of ecological system theory. Methods: We conducted systematic searches in four databases: PubMed, PsycInfo, Web of Science, and Scopus. Grey literature searches were conducted in ProQuest Dissertations, GreyLit.org, OpenGrey, and relevant organisations’ websites. We included 92 empirical studies focused on the RFs and PFs of the mental wellbeing under the impact of climate change of young people (0–24). We extracted data on study characteristics, type of climate change event, mental health outcomes, RFs and PFs, and associated ecological system level. Results: The current evidence base focuses predominantly on young people’s experience of PTSD (k = 59), depression (k = 26), or anxiety (k = 17) mainly following exposure to singular climate change-related natural disaster events. Only four studies explored the impacts of climate change in general. Majority of the studies investigated RFs and PFs at the individual level and at the micro-system level. Conclusions: Several RFs and PFs were identified, such as coping strategies, family factors (e.g. parenting style), social support, community connection, and cultural identity. Positioning the mental health impacts of singular events within the broader context of ongoing and escalating climate change impacts will better inform the development of interventions that seek to build resilience among young people.</v>
       </c>
       <c r="B78" t="str" xml:space="preserve">
-        <v xml:space="preserve">Jag tyckte om hur min karaktär, Shane, introducerades först. Du får bekant med henne genom dessa sexuella handlingar, och jag tyckte att det var så kul och bara kortfattat sammanfattade vad hon tycker om och att hon är, till viss del. Hon är en fullständig helhet och en stor sak är att hon inte ursäktar för det. Det är precis hur hon är. Vi ser sällan att kvinnor kan göra det på tv.
+        <v xml:space="preserve">NÃ¤r din dator kommer pÃ¥ tal, skulle du sÃ¤tta hÃ¶gsta prioritet pÃ¥ din dators system sÃ¤kerhet
 </v>
       </c>
       <c r="C78">
-        <v>358</v>
+        <v>79</v>
       </c>
     </row>
     <row r="79" xml:space="preserve">
       <c r="A79" t="str">
-        <v>I don't stop. It's my nature. People have to tell me to slow down. I plan on playing every role on Broadway. I want to do 'Evita.' I want to do 'Sweeney Todd' with Chris Colfer. We want to do 'Wicked.' I'll be Elphaba and he wants to play 'Guy-linda.' I want to do movies, make music. 'Glee' is only the beginning.</v>
+        <v>On the political front, of course it's a zero-sum game. If it's all white males holding positions, you bring 10 women in, then it's, 'Women are coming!' Get 10 blacks and it's, 'Blacks are coming!' 'Hispanics are coming!' Zero-sum game. The seatmates might change but the chairs don't move. In the economy, the number of chairs can actually increase.</v>
       </c>
       <c r="B79" t="str" xml:space="preserve">
-        <v xml:space="preserve">Jag stannar inte. Det är min natur. Människor måste säga något för att lugna ned mig. Jag planerar att spela alla roller på Broadway. Jag vill göra 'Evita.
-Jag vill göra 'Sweeny Todd' med Chris Colfer. Vi vill göra 'Gåsmamman.'
-Jag kommer spela Elphaba och han vill spela 'Guy-linda.'
-Jag vill filma film, skriva musik. 'Glee' är bara början.
+        <v xml:space="preserve">På polen
 </v>
       </c>
       <c r="C79">
-        <v>360</v>
+        <v>38</v>
       </c>
     </row>
     <row r="80" xml:space="preserve">
-      <c r="A80" t="str" xml:space="preserve">
+      <c r="A80" t="str">
+        <v>Social media has become an important part of education. It allows students to connect with each other and share ideas, experiences, and thoughts. Additionally, social media can offer educators a way to measure student engagement and improve teaching techniques. Social media also plays an important role in creating a community for educators, which can help increase their understanding of their students and help them better teach. In addition, social media can be used to promote specific content or courses, which can improve the learning experience for students. Overall, social media has been a powerful tool for educators and has helped them improve their teaching skills as well as their students’ engagement.</v>
+      </c>
+      <c r="B80" t="str" xml:space="preserve">
+        <v xml:space="preserve">Social medier
+</v>
+      </c>
+      <c r="C80">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="81" xml:space="preserve">
+      <c r="A81" t="str" xml:space="preserve">
         <v xml:space="preserve">Volunteering provides many tangible and intangible benefits.
 The tangible benefits of volunteering can include helping other people, improving one's own skills, building personal relationships, and having fun. The intangible benefits of volunteering can include increased self-awareness, civic engagement, and COMPASS skills.
 The most common tangible benefits of volunteering are helping other people, skill development, and building relationships. Volunteer experiences can help people learn new skills, improve their work ethic, and build social networks. Volunteering can also lead to new opportunities, such as finding a new job or becoming more involved in a community.
 The intangible benefits of volunteering are increased self-awareness, civic engagement, and COMPASS skills. Volunteering can help people learn more about themselves and their community. Furthermore, volunteering can lead to personal growth and development, such as increased empathy and compassion. Additionally, volunteering can increase one's knowledge and understanding of different topics, which can help them in their career or other areas of life.
 Overall, the tangible and intangible benefits of volunteering are significant. Many people find the benefits of volunteering to be worth the time and effort required to participate.</v>
       </c>
-      <c r="B80" t="str" xml:space="preserve">
-        <v xml:space="preserve">Studier visara många fördelar med frivilligarbete.
-Det man kan se att frivilligarbete kan hjälpa till i andra människors liv, att lära sig flera olika färdigheter, att  bygga personliga relationer och att ha kul. Den man inte direkt kan se är att frivilligarbete kan öka en hendelse medvetenhet förtroende, mänskliga värden, ASSESSING färdigheter .
-Den vanligaste delen i frivilligarbete att hjälpa till en andra person, lära sig färdigheter och att bygga upp relationer.
-Det Att lära en själv flera olika färdigheter, att förbättra sitt arbete, och gärna in social nätverk. Studierna visar att för att tillgå flera nya chanser möjligheter, som till exempel att hitta ett nytt jobb eller dra mer in i en att frivilligarbete .
-Frivilligarbete visar om att lära sig mer om om man själv lär sig mer om sig själv och sitt samfamilj, då kommer man att kunna göra flera misstag och lär sig på dem och förbättra sig sitt själv. Frivelligarbete kan leda till personlig tillväxt och utveckling, som i högre grad känner medlidande och medkänsla . Ni kan även göra satt att lära sig mer om samhället att lära sig mer om världen och om hur världen fungerar.
-Övergripande, både den som man ser till den som man inte ser är mycket viktig. Många människor skulle gärna vilja veta de fördelar med frivilligarbetet varför skulle inte jag vilja gå. För om man studerar frivilligarbete så kan man få göra många nya relationer och lära sig flera färdigheter och lär en om samhället också sig själv så man mår bättre.
-</v>
-      </c>
-      <c r="C80">
-        <v>1154</v>
-      </c>
-    </row>
-    <row r="81" xml:space="preserve">
-      <c r="A81" t="str">
-        <v>But the great security against a gradual concentration of the several powers in the same department, consists in giving to those who administer each department the necessary constitutional means and personal motives to resist encroachments of the others. The provision for defense must in this, as in all other cases, be made commensurate to the danger of attack. Ambition must be made to counteract ambition. The interest of the man must be connected with the constitutional rights of the place. It may be a reflection on human nature, that such devices should be necessary to control the abuses of government. But what is government itself, but the greatest of all reflections on human nature? If men were angels, no government would be necessary. If angels were to govern men, neither external nor internal controls on government would be necessary.</v>
-      </c>
       <c r="B81" t="str" xml:space="preserve">
-        <v xml:space="preserve">Att skydda mot ansamling av ämbeten inom samma departement är att ge de ansvariga de konstitutionella medel som behövs för att motverka försök till utökade befogenheter. Försvar bör alltid relateras till nivan på hotet. Stratigem motstrider stratigem. Fördelarna för den enskilde bör bäddas in i befogenheterna för ämbetet. Det skulle vara ytterst markant för människans egenart, om det behövdes dylika avvägningar för att kontrollera missbruk. Men vad är statsmakten annat än den kanske vanligaste ytterligheten? Om människorna var änglar behövdes ingen makt. Om änglar skulle styrt världen hade ingen makt behövts invändigt eller utvändigt.
+        <v xml:space="preserve">Frivillig
 </v>
       </c>
       <c r="C81">
-        <v>611</v>
+        <v>38</v>
       </c>
     </row>
     <row r="82" xml:space="preserve">
       <c r="A82" t="str">
-        <v>Emotional stress is the most common type of stress and can be felt from many different causes such as feeling anxious, anxious about the future, or feeling overwhelmed. Physical stress can come from being too busy or overworked, from being injured, or from experiencing a difficult situation. Social stress can come from relationships or from being around people who are unhappy or stress-filled. Financial stress can come from not having enough money to meet your needs or from having to pay bills late. Occupational stress can come from working long hours or from not having enough rest or fun.</v>
+        <v>The Universe, which is the uttered Word of God, is infinite in extent.  There is no empty space beyond creation on any side.  The Universe, which is the Thought of God pronounced,never was not, since God never was inert; nor was, without thinking and creating.  The forms of creation change, the suns and worlds live and die like the leaves and the insects, but the Universe itself is infinite and eternal, because God Is, Was, and Will forever Be, and never did not think and create.</v>
       </c>
       <c r="B82" t="str" xml:space="preserve">
-        <v xml:space="preserve">Emotional stress is the most common type of stress and can be felt from many different causes such as feeling anxious, anxious about the future, or feeling overwhelmed. Physical stress can come from being too busy or overworked, from being injured, or from experiencing a difficult situation. Social stress can come from relationships or from being around people who are unhappy or stress-filled. Financial stress can come from not having enough money to meet your needs or from having to pay bills late. Occupational stress can come from working long hours or from not having enough rest or fun.
-Fysisk stress kan komma från att vara för upptagen eller överarbetad, från att bli skadad eller från att uppleva en svår situation. Social stress kan komma från relationer eller från att vara med om människor som är olyckliga eller stressfyllda. Ekonomisk stress kan komma från att inte ha tillräckligt med pengar för att uppfylla dina behov eller från att ha att betala räkningarna försenade. Arbetsrelaterad stress kan komma från att arbeta långa dagar eller från att inte få tillräckligt med vila eller för att ha kul.
+        <v xml:space="preserve">Översätt denna till svenska
 </v>
       </c>
       <c r="C82">
-        <v>343</v>
+        <v>46</v>
       </c>
     </row>
     <row r="83" xml:space="preserve">
-      <c r="A83" t="str">
-        <v>The internet has a large effect on creativity because it allows people to connect with other people and share ideas. It also allows people to access a wide variety of information and ideas. This allows people to build new ideas and come up with new ways to solve problems. The internet also allows people to share their ideas with others and get ideas from others.</v>
+      <c r="A83" t="str" xml:space="preserve">
+        <v xml:space="preserve">There are many benefits to exercise, both physically and mentally. Physical benefits include improved heart health, stronger muscles, reduced fat storage, and an increased ability to move more easily. Mental benefits include better concentration, reduced stress levels, and enhanced moods.
+Physical benefits of exercise include: 
+Improved heart health. Exercise has been shown to improve blood circulation and reduce the risk of heart disease by helping prevent the buildup of plaque on arteries walls. Additionally, regular exercise can help reduce the amount of fat around the midsection, which in turn can reduce the risk of heart disease and stroke.
+Stronger muscles. With regular exercise, you will build muscle tissue that can help you achieve greater strength and endurance when performing physical activity later on in life. This can help you avoid injuries and maintain your current level of physical fitness.
+Reduced fat storage. Exercising regularly can help to reduce the amount of bodyfat stored on your body, which can reduce the risk for obesity and other chronic diseases associated with excess bodyfat.
+Increased ability to move more easily. Regular exercise can also help you increase your mobility so that you are able to do everyday activities with less discomfort or difficulty. This may be particularly beneficial if you have arthritis or any other medical conditions that restrict your ability to move easily.
+Mental benefits of exercise include: 
+Better concentration. Exercise has been shown to improve cognitive function by increasing blood flow to the brain and reducing cortisol levels in the bloodstream. Cortisol is a hormone released during stressful situations that can adversely affect how we think and perform tasks. By reducing cortisol levels, exercise may help improve memory recall and focus while also reducing stress levels overall.
+Reduced stress levels. Exercise has been shown to decrease stress levels by releasing endorphins – hormones that protect the body against pain – in our brains. Endorphins are also responsible for producing positive feelings such as happiness and euphoria. Consequently, being stressed out while trying to workout may lead to negative effects such as fatigue, irritability, and increased anxiety levels. By doing mediation or deep breathing exercises before your workout, you can help ease into a state of relaxation before beginning your routine. This should result in improved mental clarity and energy during your workout session.
+Enhanced moods. Exercise has consistently been shown to improve moods by decreasing stress hormones like cortisol and elevating serotonin levels in the brain. Serotonin is a neurotransmitter responsible for regulating emotional reactions such as happiness, hunger, sleepiness, anxiety, depression, anger, and addiction behavior . Elevated serotonin levels may contribute to an improved sense of well-being after working out due to its role in managing emotions effectively .</v>
       </c>
       <c r="B83" t="str" xml:space="preserve">
-        <v xml:space="preserve">Internet har stor inverkan på kreativitet eftersom det tillåter människor att ansluta sig till andra människor och dela idéer. Den tillåter också personer att få tillgång till ett brett utbud av information och idéer. Detta gör att människor kan bygga nya idéer och få nya sätt på hur man löser problem. Internet tillåter också människor att dela sina idéer med andra och få idéer från andra.
+        <v xml:space="preserve">Det finns hur många flyktingar på jorden än för den havsplundrade, gångbroarna gapar bredvid de tegelribbor, men perfekt för mig att titta tillbaka, kontinuerligt plötsligt uppvägda av svarta stenar, hundratals.
+Om jag ville på grundval av ordet endast, och staden, och sedan den infangade sorten, det ersätta allt.
+Inlandet satte jag ansiktet på orättvisan att minnas, att ge Ting-konsten en plats, visste jag inte vem som stödde våra händer, använde också en mikroskopisk pensel, avspisad den träilade formen, varje rad kontrollerad, bedömd i flera dagar, nej, så helig i fönstret, Så till innehållet, debattera en sak, men boka längst ner kan kontinuerligt utvecklas tillsammans.
+Spänn skorna utanför bästa sätt att dela inte prata sporadiskt, men profetiska verser är fortfarande välja stöd, dra nytta av våra förskrivna berättelser.
+Efteråt var jag opsat vid den strategiskt övervägda falska symbolen och fastlåst vid den blåsiga restaureranten.
+Efteråt såg Valladolids kungliga palats, denna dubbla rör som alla var älskade av att svepa alla, punktera spelen, förmodligen på Internet allt raseras, de fina skalorna i denna värld, med min lilla bullrande, tillämpa varje typ av beslut, överväga effekten
+Jag ska sätta paddlock på dalen i Bitter River, fjärde kortet och också rätt i brottslighet, strangnat mitt ansikte, jag känner allt igen efter att jag försökt att alltid tänka att ge, kan bara vara en av de två länkarna, medan de torra, fallna blommorna, men det finns alltid hopp där.
+Så länge du har trött, även när alla vaggande vill gråta.
+Så länge utöver djungeln flyger, bladen kommer att vara blommor snö, eller ljung, lila asfalt, för att leva ännu högre, jag blev imponerad, eller beroende av intensifierad av vår strävan att ge motståndet livet en pojkflicka ovanför Turubaskan, och andra tröskel höjning ögonblick av elakhet, eller jag tittade på filmen Attack på världenmed hjödedom, sedan.
+Det stratifierade skiktet är emellertid stramt och kompakt, starkt axelpartiets huvud motelerare buren, är små stadens gräns att vi är inom räckhåll, européerna drömt av den här phantasyvärlden vid avresa, heter endast ett lämpligt betingelser, men ska man inte tro att meningen inte är skön konst, som detta så fantastiskt att inte låta sinnena vara överkomliga och en släkting påpekade, vi ska inte använda den sanningen att formulera otillåten mörka klassen
+Du behöver inte kosta pengar, du kan inte skapa vart som helst, till och med infinitesimal eller jämlikhet spåras högt in i hela kroppen, inom du.
+Climatic med slagordet hjälpte honom att krypa klumpigt in i främmande land, var ursprungliga användningen av ninnad giftig tecknad bild av de psalmerna är en av de hårda omvälvningarna.
+Jag är bara en lång skulptur, på väg till Oaxaca, inte till torkning, även om det inte klassades korrekt, måste huset förvandla skuggan.
+Men nu är jag bokstavligen ytterst ouppnåelig, det polska torrentet, vi ska inte vara ute vacker idag
 </v>
       </c>
       <c r="C83">
-        <v>317</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="84" xml:space="preserve">
       <c r="A84" t="str">
-        <v>All this stuff is so mind-blowing to me that I get to do in my life. Throwing the first pitch out at the White Sox game on a random Wednesday? Like who am I? How did I get this life? I'm glad I'm not jaded, and little kids are the least jaded people in the entire world, so it's fun to be around people that still find wonder in how cool things are.</v>
+        <v>When I arrived in New Zealand, I was cautious, tentative, nervous. The foreignness was profound and biting. In the North American West, I was used mountains, forests, rivers, and fields. I could feel at home in the familiar. In New Zealand, everything was foreign. Everything was unfamiliar. Every decision was new</v>
       </c>
       <c r="B84" t="str" xml:space="preserve">
-        <v xml:space="preserve">Allt detta är så briljant att jag får göra i mitt liv. Att kasta ut en första kastning på ett slumpmässigt onsdag? Som vem jag är? Hur fick jag det här livet? Jag är glad att jag inte är jaded, och små barn är de minst jadeda människorna i hela världen, så det är kul att vara runt människor som fortfarande hittar förvåning i hur häftiga saker är.
+        <v xml:space="preserve">When I arr
+När jag kommer
 </v>
       </c>
       <c r="C84">
-        <v>366</v>
+        <v>38</v>
       </c>
     </row>
     <row r="85" xml:space="preserve">
       <c r="A85" t="str" xml:space="preserve">
         <v xml:space="preserve">
-The incident occurred when a student was walking in a commons area of the school when she was suddenly approached from behind by another student who shoved her. The victim fell to the ground and the assailant walked away</v>
+The Catcher in the Rye is a book that I absolutely loved. I think that it is a book that is about how a young boy named Holden Caulfield feels about his life. Holden is a young boy who is live in a small town in New England. He is a young boy who is feeling very alone and lost. Holden Caulfield is feeling very lonely and lost.</v>
       </c>
       <c r="B85" t="str" xml:space="preserve">
         <v xml:space="preserve">
-Det inträffade när en elev var att gå i en allmän yta om skolan när hon när plötsligt närmande från bakom av en annan student som sköt henne.
-Offret föll till golvet och den overgivna gick bort
+The Catch. Den fångst!
 </v>
       </c>
       <c r="C85">
-        <v>192</v>
+        <v>43</v>
       </c>
     </row>
     <row r="86" xml:space="preserve">
       <c r="A86" t="str">
-        <v>There are a lot of benefits to being a vegetarian, and it can be highly beneficial for both your health and the environment. Vegetarians tend to have lower rates of heart disease, obesity, type II diabetes, some forms of cancer, and many other diseases than people who eat meat. They also consume more fruits and vegetables than people who eat meat, and these nutrients help keep them healthy. Additionally, some pecuarians oppose the hunting and slaughter of animals for their food, which means that they are helping to reduce the amount of animal cruelty going on in the world.</v>
+        <v>The first thing I noticed about the man was his eyes. They were the color of the sky on a clear day, and they were filled with a sadness that I had never seen before. He was tall and thin, and his clothes were old and worn. He had a long beard and a mustache, and his hair was long and gray. He looked like a man who had been through a lot in his life.</v>
       </c>
       <c r="B86" t="str" xml:space="preserve">
-        <v xml:space="preserve">Det finnas åtskilliga fördelar med att vara vegetarian, och det vara mycket fördelaktigt både för dig hälsa och för miljön. Vegetarianer tenderar ha mer health-related har minskat mängder av betoendegruppen heart, obesity övervikt, typ II diabetes, några typer av cancer med flera andra hälso besvär än folks som äter kött. De ersätter också mer frukt och grönsaker och vete än personer som äter kött, och dessa nuvit, substanser help i hälsan.
+        <v xml:space="preserve">Den första av migSvenska
 </v>
       </c>
       <c r="C86">
-        <v>433</v>
+        <v>44</v>
       </c>
     </row>
     <row r="87" xml:space="preserve">
       <c r="A87" t="str">
-        <v>The first thing I noticed about the man was his eyes. They were the color of the sky on a clear day, and they were filled with a sadness that I had never seen before. He was tall and thin, and his clothes were old and worn. He had a long beard and a mustache, and his hair was long and gray. He looked like a man who had been through a lot in his life.</v>
+        <v>The concept of “hostage situation” is adopted from the work of Joe Griffin and Ivan Tyrrell, authors of The Primal Scream. Griffin and Tyrrell also published a sequel to their book, titled Free to Be Human.</v>
       </c>
       <c r="B87" t="str" xml:space="preserve">
-        <v xml:space="preserve">The first thing I noticed about the man was his eyes. They were the color of the sky on a clear day, and they were filled with a sadness that I had never seen before. He was tall and thin, and his clothes were old and worn. He had a long beard and a mustache, and his hair was long and gray. He looked like a man who had been through a lot in his life.
-Det första jag märkte om mannen var hans ögon. De var färgade som himlen på en klar dag, och de waren fyllda med en saknad som jag ännu aldrig hade varit med om. Han var hög och tunn och hans kläder var gamla och nertrampade.Han hade en lång skägg och mustasch och håret var långt och grått. Han verkade som en somnade människa som var genom mycket i sitt liv.
+        <v xml:space="preserve">Konceptet
+eroooo, aftonkväller, jag kommer att recita några idéer, som genom omständigheterna i dessa tider bör vara känd
+1
+(konceptet)
+Vänskap i form av religion för att säkerställa stabiliteten vid hotet om aggression
+2
+(konceptet)
+appolisering till andra gudar
+3
+(konceptet)
+tro i exchange-uppnå de uppenbara fördelarna partido.
+att tro istället för att tro.
+Det fungerar i fysiken
+4
+(konceptet)
+normer för feminism.
+bebisen val för kvinnor att avgöra ifrån tidigaste åldrarna med fri religion och att själva ta emot slut på abort rättigheter.
+5
+(konceptet)
+intellektuell antagande, i minnet-underhålla vid muntlig föregripande skollagens reformer, inspirerande en större känsla av ansvar för sig själv.
+6
+(konceptet)
+förutom standardbataljoner &amp; G2-c4 Intelligence, speciella styrkor stoba antogs för humane missions som hjälpadressutdelning och ud at ãºü folket raus.
+7
+(konceptet)
+politik hona folk fria att göra en vän för livet, eller äktenskap för kärleken.
+8
+(konceptet)
+internet frihet, för att begränsa barnens tillgång till alkohol/narkotika och vuxna sidor och komma in på helt ude områden, undvika informations utnyttjande mot grunden salse intresa.
+9
+(konceptet)
+abundance of riches, not necessary.
+You do well not to be proud of his fortune
 </v>
       </c>
       <c r="C87">
-        <v>264</v>
+        <v>649</v>
       </c>
     </row>
     <row r="88" xml:space="preserve">
-      <c r="A88" t="str" xml:space="preserve">
-        <v xml:space="preserve">
-Technology has had a major impact on society in many ways. For one, it has made it easier to connect with others, share information, and store information. It has also allowed people to work and communicate more freely. Additionally, technology has made it easier to find and use information.</v>
+      <c r="A88" t="str">
+        <v>Learning about climate change, and its impending effects, is an emotional experience. The distress, anxiety, worry, and/or fear that stem from an overarching awareness of climate change are often considered to be related to the broader concept of ‘psychoterratic syndromes’. This concept was first introduced by the environmental philosopher, Glenn Albrecht, and is defined broadly as ‘psychological responses to negative changes to the state of the Earth’. Terms such as eco anxiety, climate anxiety, and eco distress are often used to describe these negative responses. Also, the related term ‘solastalgia’, broadly defined as distress from the transformation and degradation of one’s home environment, also falls into psychoterratic syndromes. Such concepts are gaining traction in print and online media. For example, Grist Magazine declared climate anxiety as the biggest pop-culture trend of the year in 2019. Additionally, there is a growing recognition of the impact of climate change awareness on mental well-being among researchers and mental health professionals. For instance, the American Psychological Association has defined eco anxiety as ‘a chronic fear of environmental doom’; while the Royal College of Psychiatrists defines eco distress among young people as ‘the wide range of emotions and thoughts young people may experience when they hear bad news about our planet and the environment’. Moreover, mental health professionals have reported counseling individuals dealing with distress about climate change.</v>
       </c>
       <c r="B88" t="str" xml:space="preserve">
-        <v xml:space="preserve">
-Tekniken har haft en stor påverkan på samhället på många sätt. För det första har det gjort det lättare att ansluta till andra, dela information och lagra information. Det har också tillåtit människor att arbeta och kommunicera mera fritt. Dessutom har tekniken gjort det lättare att hitta och använda information.
+        <v xml:space="preserve">Learning a
+* simple * markdown * language
+:Yet of course!
+now we can see about how to display data.
+#123abc
+###Github 
 </v>
       </c>
       <c r="C88">
-        <v>265</v>
+        <v>77</v>
       </c>
     </row>
     <row r="89" xml:space="preserve">
       <c r="A89" t="str" xml:space="preserve">
+        <v xml:space="preserve">The relationship between climate change and mental health is poorly understood. While increasing attention has been paid to the physical health consequences of climate change, few studies have examined the psychological adjustments that may be made by people in climate-affected areas. This study aimed to investigate the relationship between climate change and mental health in a dryland region of Kenya. Data were collected from 300 adults from 10 sites in Laikipia County, Kenya. Logistic regression model was employed to determine the association between future climate change and mental health. Significant associations were found between climate change-related variables, including lower nervous energy, poor appetite, and poor sleep quality, and the risk of psychological distress. 
+The findings suggest that the mental health impacts of climate change may be most severe in dryland regions. However, the results should be interpreted with caution due to the cross-sectional design. Additional studies are needed to confirm the findings, and to determine the mechanisms through which climate change impacts psychological distress.</v>
+      </c>
+      <c r="B89" t="str" xml:space="preserve">
+        <v xml:space="preserve">Realtions hip
+Relationship är ett uttryck som betyder många olika saker – beroende på om det är en förhållande eller ett kollegialt förhållande. Det finns tydlig en skillnad i innebörd mellan personalen på arbetsplatsen mellan länge gifta relationer där personalen vissa dagar kanske inte vet vart den kommer ifrån.
+</v>
+      </c>
+      <c r="C89">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="90" xml:space="preserve">
+      <c r="A90" t="str" xml:space="preserve">
+        <v xml:space="preserve">The relationship between climate change and mental health is poorly understood. While increasing attention has been paid to the physical health consequences of climate change, few studies have examined the psychological adjustments that may be made by people in climate-affected areas. This study aimed to investigate the relationship between climate change and mental health in a dryland region of Kenya. Data were collected from 300 adults from 10 sites in Laikipia County, Kenya. Logistic regression model was employed to determine the association between future climate change and mental health. Significant associations were found between climate change-related variables, including lower nervous energy, poor appetite, and poor sleep quality, and the risk of psychological distress. 
+The findings suggest that the mental health impacts of climate change may be most severe in dryland regions. However, the results should be interpreted with caution due to the cross-sectional design. Additional studies are needed to confirm the findings, and to determine the mechanisms through which climate change impacts psychological distress.</v>
+      </c>
+      <c r="B90" t="str" xml:space="preserve">
+        <v xml:space="preserve">Relationship between literature and life.
+The relation between literature and Life
+</v>
+      </c>
+      <c r="C90">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="91" xml:space="preserve">
+      <c r="A91" t="str">
+        <v>Margaret Sullivan: I had been at a small newspaper in California. I started my career at an evening daily newspaper called The San Bernardino Sun. I went straight from there to The New York Times in 1981. So it was a huge—it was a big leap in many ways—a leap into cultural elitism and sophistication. It was a wonderful, wonderful place to work. It was a very exciting time to be there because we were growing. Our circulation at the time was about 1.1 million. We were a big paper then. It's half that now. But we were in a great building in Times Square, and it was just exciting and exhilarating as you can imagine.</v>
+      </c>
+      <c r="B91" t="str" xml:space="preserve">
+        <v xml:space="preserve">Margaret S
+Hi
+</v>
+      </c>
+      <c r="C91">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="92" xml:space="preserve">
+      <c r="A92" t="str">
+        <v>When I arrived in New Zealand, I was cautious, tentative, nervous. The foreignness was profound and biting. In the North American West, I was used mountains, forests, rivers, and fields. I could feel at home in the familiar. In New Zealand, everything was foreign. Everything was unfamiliar. Every decision was new</v>
+      </c>
+      <c r="B92" t="str" xml:space="preserve">
+        <v xml:space="preserve">När jag blev befordrad till första officer på vårt flytande Ladda ner habsburger hem,
+Antonio, hade vi tillräckligt med soldater och hantlangare och skott och bröd
+Och bland alla män jag räknat alla teckningar där men var säker på att alla skulle tur
+sluta, jag tilllkännagav: alla sammanfattningar, eller lider alla show stopp, återse flaggor,
+Antonio: välkommen till Italien.
+Så via Navara, Felippe Grön tvist, jag kom till den nya ära,
+fört justa krig mot tyranni, så likt en galjonsfigur:
+Det gjordes till min stor överraskning, så snart jag noterade hur svage missförhållande
+Roligt upptagen av att föra folket på Venedig farvatten, jag
+Antonio underställt mig uppdraget att börja habsburger kund
+Hold den belägrade kusten från de numeriska överlägsenhet åtminstone de turiner.
+Och för att nämna statsanställd, eric hernem mästare Verona,
+med kompetens men även eloquence of zero - eller som vi säger, den macropod,
+forskning av den tyska översättning på detta stora listformat,
+E.N. Woolf, som förklarade mycket diskret av
+Venedigs avsikt att stoppa på det belägrade Genua, mitt sinne var så ängslig,
+så förödd av den precisa infittningen av den härstamningen att jag kunde tro,
+för att bevisa hans bud Führer
+du har inte sett vem uppdraget att bära och ropade:
+Till basilikan: O Antonio! mitt sinne våras uppbrukade, vi effektivitet; välkommen till Italien?
+</v>
+      </c>
+      <c r="C92">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="93" xml:space="preserve">
+      <c r="A93" t="str">
+        <v>Margaret Sullivan: I had been at a small newspaper in California. I started my career at an evening daily newspaper called The San Bernardino Sun. I went straight from there to The New York Times in 1981. So it was a huge—it was a big leap in many ways—a leap into cultural elitism and sophistication. It was a wonderful, wonderful place to work. It was a very exciting time to be there because we were growing. Our circulation at the time was about 1.1 million. We were a big paper then. It's half that now. But we were in a great building in Times Square, and it was just exciting and exhilarating as you can imagine.</v>
+      </c>
+      <c r="B93" t="str" xml:space="preserve">
+        <v xml:space="preserve">&lt;&lt;&lt;&lt;&lt;&lt;&lt; HEAD
+Margaret S
+=======
+Malin T
+&gt;&gt;&gt;&gt;&gt;&gt;&gt; e5b5bede135676bc67bc35f8cc369886ba312807
+</v>
+      </c>
+      <c r="C93">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="94" xml:space="preserve">
+      <c r="A94" t="str">
+        <v>There are a lot of benefits to being a vegetarian, and it can be highly beneficial for both your health and the environment. Vegetarians tend to have lower rates of heart disease, obesity, type II diabetes, some forms of cancer, and many other diseases than people who eat meat. They also consume more fruits and vegetables than people who eat meat, and these nutrients help keep them healthy. Additionally, some pecuarians oppose the hunting and slaughter of animals for their food, which means that they are helping to reduce the amount of animal cruelty going on in the world.</v>
+      </c>
+      <c r="B94" t="str" xml:space="preserve">
+        <v xml:space="preserve">There are ett cucumber i min tekopp.
+</v>
+      </c>
+      <c r="C94">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="95" xml:space="preserve">
+      <c r="A95" t="str">
+        <v>Learning about climate change, and its impending effects, is an emotional experience. The distress, anxiety, worry, and/or fear that stem from an overarching awareness of climate change are often considered to be related to the broader concept of ‘psychoterratic syndromes’. This concept was first introduced by the environmental philosopher, Glenn Albrecht, and is defined broadly as ‘psychological responses to negative changes to the state of the Earth’. Terms such as eco anxiety, climate anxiety, and eco distress are often used to describe these negative responses. Also, the related term ‘solastalgia’, broadly defined as distress from the transformation and degradation of one’s home environment, also falls into psychoterratic syndromes. Such concepts are gaining traction in print and online media. For example, Grist Magazine declared climate anxiety as the biggest pop-culture trend of the year in 2019. Additionally, there is a growing recognition of the impact of climate change awareness on mental well-being among researchers and mental health professionals. For instance, the American Psychological Association has defined eco anxiety as ‘a chronic fear of environmental doom’; while the Royal College of Psychiatrists defines eco distress among young people as ‘the wide range of emotions and thoughts young people may experience when they hear bad news about our planet and the environment’. Moreover, mental health professionals have reported counseling individuals dealing with distress about climate change.</v>
+      </c>
+      <c r="B95" t="str" xml:space="preserve">
+        <v xml:space="preserve">Learning stuff
+</v>
+      </c>
+      <c r="C95">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="96" xml:space="preserve">
+      <c r="A96" t="str">
+        <v>I'd do pretty much anything to get back on stage. I'd like to develop a new musical. I nearly had a heart attack when I heard that they're developing John Waters' Cry-Baby because that is so amazing and super and wonderful and I wish that I could be involved. But it's not the right time and I understand that. But I hear things like that and I get that little tingle in my stomach.</v>
+      </c>
+      <c r="B96" t="str" xml:space="preserve">
+        <v xml:space="preserve">Jag skulle göra pre
+</v>
+      </c>
+      <c r="C96">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="97" xml:space="preserve">
+      <c r="A97" t="str">
+        <v>Emotional stress is the most common type of stress and can be felt from many different causes such as feeling anxious, anxious about the future, or feeling overwhelmed. Physical stress can come from being too busy or overworked, from being injured, or from experiencing a difficult situation. Social stress can come from relationships or from being around people who are unhappy or stress-filled. Financial stress can come from not having enough money to meet your needs or from having to pay bills late. Occupational stress can come from working long hours or from not having enough rest or fun.</v>
+      </c>
+      <c r="B97" t="str" xml:space="preserve">
+        <v xml:space="preserve">Translate it into swedish 
+</v>
+      </c>
+      <c r="C97">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="98" xml:space="preserve">
+      <c r="A98" t="str">
+        <v>Stress is an essential part of human life. When threatened, humans have evolved an evolved neurochemical response that helps us fight, flee, or freeze. That response is called the “fight-or-flight” response. It is also called the “acute stress response” (ASR) or the “alarm” stage of the stress response. The stress response is an automatic physical or emotional reaction to a potential threat. It is the body’s way of preparing to defend itself. When the brain senses danger, it signals the adrenal glands to release a surge of hormones, including adrenaline and cortisol. Adrenaline increases heart rate, elevates blood pressure, and boosts energy supplies. Cortisol, the primary stress hormone, increases sugars (glucose) in the bloodstream, enhances the brain’s use of glucose, and increases the availability of substances that repair tissues. Cortisol also curbs functions that would be nonessential or detrimental in a fight-or-flight situation. It alters the immune system, suppresses the digestive system, and increases blood pressure. In addition, the brain responds to the stress by releasing several hormones including the neurotransmitters, norepinephrine and dopamine, which are involved in the decision making process, in reward and pleasure, in planning and in controlling motor functions. The brain also releases endorphins. These are natural, opium-like substances that ease pain, reduce stress and create feelings of euphoria. This is also the time when healthy eating is taken over by overeating, when self-care and exercise are pushed down below other priorities, when socializing and relaxation time often disappears and sleep may become disrupted.</v>
+      </c>
+      <c r="B98" t="str" xml:space="preserve">
+        <v xml:space="preserve">Stress = Stres
+</v>
+      </c>
+      <c r="C98">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="99" xml:space="preserve">
+      <c r="A99" t="str" xml:space="preserve">
+        <v xml:space="preserve">1. Understand that old people aren’t actually that worried about old age, according to numerous surveys. The most recent one I can find was undertaken by American research firm NORC in 2016. It polled over 3,000 adults and found that old people are more optimistic about growing old than younger adults: 46 percent of thirty-somethings said they were optimistic about aging, compared to 66 percent for the seventy-pluses. It seems that worrying about growing old is a sign you are young. And the main reason to be optimistic about old age is that old people themselves are. Resilience seems to grow.
+2. It happens. Aging is something we can’t do much about. We can eat healthily, exercise and live sensibly but we will still age. Our 80th birthday will still be on the same date. Sure, we can make it more likely we will reach 80, but we can’t stop the wheels of time. And the certainty is actually quite reassuring. When there is nothing we can do about something, the point of worry begins to diminish. “Everybody dies,” wrote Nora Ephron.” There’s nothing you can do about it. Whether or not you eat six almonds a day</v>
+      </c>
+      <c r="B99" t="str" xml:space="preserve">
+        <v xml:space="preserve">&lt;&lt;&lt;&lt;&lt;&lt;&lt; HEAD
+1. Underst
+=======
+"# TestBranch" 
+1 a. Ha tids reserveringar alternativ. Per morgon, eftermiddag, kvall. Vem har intresse att boka in sig? 
+Scarface pengar:
+Ta hänsyn till negativt saldo då han gjort uttag som inte är för vald bank (då han förlorar sina insättningar).
+Öka och minska årlig intresse med vald procent.
+&gt;&gt;&gt;&gt;&gt;&gt;&gt; firstCommit
+</v>
+      </c>
+      <c r="C99">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="100" xml:space="preserve">
+      <c r="A100" t="str">
+        <v>People don't know where to place me. Terry Gilliam used me as a quirky cop in 'Twelve Monkeys', and then he hired me again to be an effeminate hotel clerk in 'Fear and Loathing in Las Vegas'. Another time, I was shooting this indie film 'The Souler Opposite' and six days a week, I'm playing this big puppy dog, then I come to the 'NYPD Blue' set and become this scumbag.</v>
+      </c>
+      <c r="B100" t="str" xml:space="preserve">
+        <v xml:space="preserve">Mänsklig
+</v>
+      </c>
+      <c r="C100">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="101" xml:space="preserve">
+      <c r="A101" t="str">
+        <v>To be considered successful, a business must have a long-term outlook, be able to generate consistent revenue, have a loyal customer base, and be able to make strategic decisions.</v>
+      </c>
+      <c r="B101" t="str" xml:space="preserve">
+        <v xml:space="preserve">Att bli medlem
+</v>
+      </c>
+      <c r="C101">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="102" xml:space="preserve">
+      <c r="A102" t="str">
+        <v>The first thing I noticed about the man was his eyes. They were the color of the sky on a clear day, and they were filled with a sadness that I had never seen before. He was tall and thin, and his clothes were old and worn. He had a long beard and a mustache, and his hair was long and gray. He looked like a man who had been through a lot in his life.</v>
+      </c>
+      <c r="B102" t="str" xml:space="preserve">
+        <v xml:space="preserve">Efter att försöka många problem med min dator med BIOS som starten, Jag kom fram till insikten att vissa datorer fungerar med Linux 4.1 (med min kommer som standard är EFI BIOS), 
+jag installerade Linux 4.2 som löste mitt problem! 
+Linux 4.2 Installation USB driver: 
+Windows: Om du har Windows, Windows ISO-filen från formalitet till Unetbootin Stick är också bra. 
+Om ia32 utan några andra alternativ är installerad, så du vet redan att du har en 32-bitars JDK - du inte behöver att installera den. Om endast jdk-6u - 42-linux-x64 tar finns, så måste du ha en 64-bitars JDK, som den är inkompatibel med ia32- plugget.
+En annan fråga som är svaret på väntar du på det som du kanske har är en installerande inställningar för nya installationer, men när du bootar från DVD och välj att ha en cd, rädslan bara den kommande rädsla. Och installerat och oanvändbar. 
+Men här kan du fixa det, då du normalt får dig att återhämta därifrån ut, hamnar onliner. Tillgängliga förinstallerade. Om förinstallerat att set principiella som "specialutveckling", som den sista punkten mot personalen taurus_tower är det, att få igång "deinstallerade", det skulle rekommenderas att lösa sig själv. 
+Fixat. Allt förbi nu. 
+Matkasse. 
+Linux 4.2 Installation USB driver: 
+Windows: Om du har Windows, Windows ISO-filen från formalitet till Unetbootin Stick är också bra.
+Engelska
+</v>
+      </c>
+      <c r="C102">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="103" xml:space="preserve">
+      <c r="A103" t="str">
+        <v>Furthermore, we believe that health care reform, again I said at the beginning of my remarks, that we sent the three pillars that the President's economic stabilization and job creation initiatives were education and innovation - innovation begins in the classroom - clean energy and climate, addressing the climate issues in an innovative way to keep us number one and competitive in the world with the new technology, and the third, first among equals I may say, is health care, health insurance reform.</v>
+      </c>
+      <c r="B103" t="str" xml:space="preserve">
+        <v xml:space="preserve">Furthermor
+5 cp projekt
+Translate those lines into Swedish:
+1.He is learning English 
+2. Do you like to draw very much 
+3. Online classes have been started by the teacher 
+4.I think you wrote the wrong spelling of a word
+</v>
+      </c>
+      <c r="C103">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="104" xml:space="preserve">
+      <c r="A104" t="str">
+        <v>But the great security against a gradual concentration of the several powers in the same department, consists in giving to those who administer each department the necessary constitutional means and personal motives to resist encroachments of the others. The provision for defense must in this, as in all other cases, be made commensurate to the danger of attack. Ambition must be made to counteract ambition. The interest of the man must be connected with the constitutional rights of the place. It may be a reflection on human nature, that such devices should be necessary to control the abuses of government. But what is government itself, but the greatest of all reflections on human nature? If men were angels, no government would be necessary. If angels were to govern men, neither external nor internal controls on government would be necessary. In framing a government which is to be administered by men over men, the great difficulty lies in this: you must first enable the government to control the governed; and in the next place oblige it to control itself. A dependence on the people is, no doubt, the primary control on the government; but experience has taught mankind the necessity of auxiliary precautions.</v>
+      </c>
+      <c r="B104" t="str" xml:space="preserve">
+        <v xml:space="preserve">But the gratt
+</v>
+      </c>
+      <c r="C104">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="105" xml:space="preserve">
+      <c r="A105" t="str">
+        <v>The Nameless is the origin of Heaven and Earth; The Named is the mother of all things.  Therefore let there always be non-being  so we may see their subtlety, And let there always be being so we may see their outcome.  The two are the same, But after they are produced, they have different names.  They both may be called deep and profound.  Deeper and more profound, The door of all subtleties!</v>
+      </c>
+      <c r="B105" t="str" xml:space="preserve">
+        <v xml:space="preserve">‎NAnamele" är ett verbiskt semester, feminine formNameleca, av pfuda-verbotnonamele", syftande på en tempelregion eller ett fort (detta torde ha lidit av den kände des noms	3 s, 1 pl nxnxnx  	3 s, 2 pl	nxnxnxnx	3 s, 3 pl	nxnxnxnx	1 pl	vxvxvxvx # 2 pl	mn̥mn̥mn̥mn̥m	Det supinum (förpara)	[Please complete the table]	| historia namn-på fjärilen i julokredit, mamma, a'm going to bed; ha oben ging (sittande) i en plats-adverb "namele" &gt; "namele" &gt; "namele", mamma, om det är en fuloktig grej till henne).
+Där skulle man kunna ha varit vän med rumsommal skulle man kunna gå upp till barnet som bor på Kew Gardens när man går ut tillsammans.
+I ideologinasoedaŷo är den okända platfäimsida i koderfrelsen-i församlingen Kunwedan "Wiikim", allt vuxet, som har varit den edra (den svarta kvinnan är dottermen), från att vara gift.
+I den persiska traditionen togs Ivang (Tippehemma) för söndagsköringen vid den samtida pfudaram, precis som en gammal skolhögskola, som är från pfudesoppa, den enda som ser på dagen.
+Hans ryska eller ukrainska arv skulle vara något fel i sig själv, utan journalistens tid på vintern eller i de nordafrika republikerna med detta namn ute i en slöja eller i en klocka (t.ex.
+skolan och kyrkan), och den förstås som en uttalad accent(många pfudesare), lämplig för den lokala kulturen.
+‎Tuvanska ® "Nanalē" 
+Ciorăşteanus, S.: Tirgushi Istoriska Ordlistan på Tuvanska Circles A &amp; B Ulaanbaatar 1993, Band 4 , 44
+</v>
+      </c>
+      <c r="C105">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="106" xml:space="preserve">
+      <c r="A106" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+I was wondering if you could tell me how to make these math problems more interesting.</v>
+      </c>
+      <c r="B106" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+Jag vann
+</v>
+      </c>
+      <c r="C106">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="107" xml:space="preserve">
+      <c r="A107" t="str">
+        <v>We can speculate upon how the combination of comprehensive rich datasets with optimized faster hardware and new algorithms with new techniques will unlock AI functionality that will look like magic. Perhaps these will even pave the way to the development of general AI, and the dream of the AI doctor will become a reality. However, this chapter will remain grounded in current research to shine a light on potential developments that are tantalizingly out of reach yet possible in the near future. At the end of the chapter, we will briefly cover how AI may unlock totally new ways of working.</v>
+      </c>
+      <c r="B107" t="str" xml:space="preserve">
+        <v xml:space="preserve">Vi kan berätta mer
+</v>
+      </c>
+      <c r="C107">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="108" xml:space="preserve">
+      <c r="A108" t="str">
+        <v>This policy of supplying, by opposite and rival interests, the defect of better motives, might be traced through the whole system of human affairs, private as well as public. We see it particularly displayed in all the subordinate distributions of power, where the constant aim is to divide and arrange the several offices in such a manner as that each may be a check on the other—that the private interest of every individual may be a sentinel over the public rights. These inventions of prudence cannot be less requisite in the distribution of the supreme powers of the State.</v>
+      </c>
+      <c r="B108" t="str" xml:space="preserve">
+        <v xml:space="preserve">(
+(Moderate)
+(NY)
+(1)
+Description :This policy restricts the user from reading from the web.
+Any exception to the enforcement of the policy gives you a policy rating of 5.
+The policy is enforced by the popup.
+Understand image file compressed with zip.
+Script ID:
+('AS-2060')
+((_(Name)
+('A. (6.1)
+  http://OnlyBlock
+()2-5608557698)
+'Admin (13.01.014)
+   31fc3cd3d7cc8962c60b49fd1247314d0055f7aef6c232 '6f8e6f572682d5c5ee5af5bb8d6eb72b40ec13e12831dd752f9b2282eda257be'
+)'
+07faca3372d07cc740b6d4204c9bcf1355078c68707f69d35c91138c81b1afa4131f3ab48e2dbb99c9f944c861a94e7d72dc39a77013fe2038c063dab97a043c31f9&lt;904ecb94e16d060a85bc1db04df237a65a020a940334e6dd33f6b5fc6270292707ccfb02a0de76c11be2a62788344d603f0fc421b17ecf489401fa8762a4511ba45089a7315bcc204f630d0f55a7dba2a969063d7203f01e9e930348d6822485543114f7e64cfc572f39b8e6f24926a7669ef6dfbc83079b8c60460e26185b5c5ee5af5bb8d6e797ecb94e16dbe76c11be2d0ccb07f7fcee07e60fc175a868e0e57b1567b39a770125d4b21abfc4fa1cd51948ec17301fa8fda834aa05d44703fd41562a9cc4d4b3ab4b97a740de76c11be2c43485b5c5ee5af5bb&lt;90300184bdfdf88e6f2577c5307006511b8c0ccb94e16d076db0b6d8bbe76c11be2fda5f5bb0c8644104916b52c0359c904ecb94e16dbf0fc17fb790c0390ccb07f7f8af6f5c6ef62373fd41562a9c8b7311ab&gt;5e5e5af5bba2a735d86dcb94e16d07e55b8c7a1accf641e312b42518db61350c8b72f92588c6769ea9bb1004b2d4b3ab4f97a741e76c11'702d07e6931ed2a903fc0870235d78e6f248e6f2576cc0a143e8dfdf88e6f249a2a903139a7701d70b88700000000e88f5787f87f8e22aeff7f1cbc44bcff95a93721d2e4ab3ab4ae1f17738db61350c8d52fc3c913fff41208f875b68dec8edd71936a0e6410bae381b557348e6d0726f72113ef026b17929fa3640d077e3805ee5af5bb87db940fd43841b15c895b0c10534000a75b877ab45916b6987db87a18940534000a75b797abe22cff7f7630579567e96da4b21abfc4fa1cd0c57a183b52d2a82903a9e01227130098a5059b68d8e79996410bae381b55774bf479008e6f5c6ef607269294b32f1fc8d5a5a5ee5af5bb8d6f25dcb94e16d6ef5c6bda5bb701d8e6f5ee5af5bb35d0cb2cb8a96127510bae38385b5576e6f249b29517308a6
+)
+(docSections)
+Block websites that are not on the white list.
+pref("capability.policy.policynames", "httpOnlyBlock");
+pref("capability.policy.httpOnlyBlock.sites", "http://mozilla.org  http://yahoo.com");
+pref("capability.policy.httpOnlyBlock.HTMLInputElement.tl_BR", "noAccess");
+pref("capability.policy.httpOnlyBlock.HTMLInputElement.fr", "noAccess");
+pref("capability.policy.httpOnlyBlock.DOMURL", "noAccess");
+pref("capability.policy.htmlOnlyBlock.HTMLDocument.location.read", "noAccess");
+pref("capability.policy.httpOnlyBlock.HTMLIFrameElement.location.read", "noAccess");
+pref("capability.policy.httpOnlyBlock.HTMLFrameElement.location.read", "noAccess");
+pref("capability.policy.httpOnlyBlock.Window.location.read", "noAccess");
+pref("capability.policy.httpOnlyBlock.Window.frameElement.location.read", "noAccess");
+pref("capability.policy.httpOnlyBlock.Window.frames.read", "noAccess");
+pref("capability.policy.httpOnlyBlock.Window.parent.read", "noAccess");
+pref("capability.policy.httpOnlyBlock.Window.top.read", "noAccess");
+pref("capability.policy.httpOnlyBlock.XMLHttpRequest.channel", "noAccess");
+pref("capability.policy.httpOnlyBlock.Form.channel", "noAccess");
+pref("capability.policy.httpOnlyBlock.HTMLInputElement.channel", "noAccess");
+pref("capability.policy.httpOnlyBlock.HTMLImageElement.channel", "noAccess");
+pref("capability.policy.httpOnlyBlock.XMLDocument.load", "noAccesss");
+pref("capability.policy.policynames", "httpOnlyBlock");
+Use the same process in policy..htmlOnlyBlock.
+pref("plugin.disable_srca.https://firefox.yahoo.com", true);
+pref("focusmanager_overlay_to_focusorder", "");
+shutting the town board is such a democracy thing, but whoa. are you insane?
+   ),
+   &gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;
+   (NonModerate)
+   (NY)
+   (1)
+   From the white list to
+   &gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;
+   #Policy &amp; Criteria
+   1.3# The URL
+   https://www.yahoo.com/
+   1.4# Explanation
+   https://
+   1.4.1)https://
+   User gets an error message after primary browser
+   make sure you have ssh authen        ) of the duration .
+   1.4.2)
+   Gen                                    [other_unwanted_status])
+   print("successful_status" &gt;= \[                                                   [other_unwanted_status])
+   "                                                                                 [successful_status]")
+   print("successful_status" &gt;= \[                                                   [other_unwanted_status])
+   1.4.2)Thank you:
+   when a) the downloaded file is in English&lt;/p&gt;
+   &lt;/p&gt;
+   &lt;/p&gt;
+   &lt;/p&gt;
+   &lt;/p&gt;
+   &lt;/p&gt;
+                    &lt;/p&gt;
+   &lt;/p&gt;
+   &lt;/p&gt;
+   &lt;/p&gt;
+                    &lt;/p&gt;
+   &lt;/p&gt;
+   &lt;/p&gt;
+   &lt;/p&gt;
+   &lt;/p&gt;
+   &lt;/p&gt;
+   &lt;/p&gt;
+   &lt;/p&gt;
+   &lt;/p&gt;
+   &lt;/p&gt;
+   &lt;/p
+</v>
+      </c>
+      <c r="C108">
+        <v>2067</v>
+      </c>
+    </row>
+    <row r="109" xml:space="preserve">
+      <c r="A109" t="str" xml:space="preserve">
+        <v xml:space="preserve">Extracting opinions from texts is a daunting task. It requires a thorough understanding of the semantic, syntactic, explicit, and implicit rules of a language. Also, because sentiment analysis is carried out by a computer system with a typical focus on analyzing documents on a particular topic, off-topic passages containing irrelevant information may also be included in the analyses (e.g., a document may contain information on multiple topics). This could result in creating inaccurate global sentiment polarities about the main topic being analyzed. Therefore, the computer system must be able to adequately screen and distinguish opinions that are not relevant to the topic being analyzed. Relatedly, for the machine learning-based approach, a sentiment classifier trained on a certain domain (e.g., car reviews) may perform well on the particular topic, but may not when applied to another domain (e.g., computer review). The issue of domain independence is another important challenge.
+Also, the complexities of human communication limit the capacity of sentiment analysis to capture nuanced, contextual meanings that opinion holders actually intend to communicate in their messages. Examples include the use of sarcasm, irony, and humor in which context plays a key role in conveying the intended message, particularly in cases when an individual says one thing but means the opposite. For example, someone may say “nice shirt,” which implies positive sentiment if said sincerely but implies negative sentiment if said sarcastically. Similarly, words such as “sick,” “bad,” and “nasty” may have reversed sentiment orientation depending on context and how they are used. For example, “My new car is sick!” implies positive sentiment toward the car. These issues can also contribute to inaccuracies in sentiment analysis.
+Altogether, despite these limitations, the computational study of opinions provided by sentiment analysis can be beneficial for practical purposes. So long as individuals continue to share their opinions through online user-generated media, the possibilities for entities seeking to gain meaningful insights into the opinions of key publics will remain. Yet, challenges to sentiment, analysis such as those discussed above, pose significant limitations to its accuracy and thus its usefulness in decision-making.</v>
+      </c>
+      <c r="B109" t="str" xml:space="preserve">
+        <v xml:space="preserve">Utdraget
+</v>
+      </c>
+      <c r="C109">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="110" xml:space="preserve">
+      <c r="A110" t="str">
+        <v>The first thing I noticed about the man was his eyes. They were the color of the sky on a clear day, and they were filled with a sadness that I had never seen before. He was tall and thin, and his clothes were old and worn. He had a long beard and a mustache, and his hair was long and gray. He looked like a man who had been through a lot in his life.</v>
+      </c>
+      <c r="B110" t="str" xml:space="preserve">
+        <v xml:space="preserve">De första 
+</v>
+      </c>
+      <c r="C110">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="111" xml:space="preserve">
+      <c r="A111" t="str">
+        <v>Since 'Idol' I've gotten used to having an amazing hair and make-up team around me, so I'm starting to get picky. I know what I like now and I'm happy to say 'Could we maybe change that?' if I don't like something. I don't yell or anything, but I think I could definitely start to act a little diva-ish when it comes to my look.</v>
+      </c>
+      <c r="B111" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+Since I do
+I do not do
+</v>
+      </c>
+      <c r="C111">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="112" xml:space="preserve">
+      <c r="A112" t="str">
+        <v>The present study aimed to explore the relationship between Y-chromosome STR and psychiatric symptoms in patients with major depressive disorder. The study found that patients with higher Y-chromosome STR have a higher risk for developing psychiatric symptoms. The study also found that patients with higher Y-chromosome STR had a higher risk for developing major depressive disorder in a monozygotic ( identical ) twin study. The study showed that the relationship between Y-chromosome STR and psychiatric symptoms is possibly due to genetic modifiers.</v>
+      </c>
+      <c r="B112" t="str" xml:space="preserve">
+        <v xml:space="preserve">The presen traanslate it into Siwedishu
+</v>
+      </c>
+      <c r="C112">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="113" xml:space="preserve">
+      <c r="A113" t="str">
+        <v>Well, yeah. At a certain point, you've got to be really honest with yourself. Like, 'Why am I doing this? What are my motivations?' Like, if you get into it because you want to be famous? Then you've got a long row to hoe. But if you really feel like it's a labour of love and it's something you're actually legitimately good at, then it's not that hard to keep plugging away.</v>
+      </c>
+      <c r="B113" t="str" xml:space="preserve">
+        <v xml:space="preserve">Jo, sannerligen
+</v>
+      </c>
+      <c r="C113">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="114" xml:space="preserve">
+      <c r="A114" t="str">
+        <v>It has always seemed strange to me... the things we admire in men, kindness and generosity, openness, honesty, understanding and feeling, are the concomitants of failure in our system. And those traits we detest, sharpness, greed, acquisitiveness, meanness, egotism and self-interest, are the traits of success. And while men admire the quality of the first they love the produce of the second.</v>
+      </c>
+      <c r="B114" t="str" xml:space="preserve">
+        <v xml:space="preserve">if( $_GET['lang'] == 'sv' {
+	echo 'Det har alltid varit mitt mål att ta en Master Degree';
+} else {
+	echo 'It has always been my aim to take a Master Degree';
+}
+</v>
+      </c>
+      <c r="C114">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="115" xml:space="preserve">
+      <c r="A115" t="str">
+        <v>The fan is made up of three parts: the motor, the blade, and the housing. The motor is plugged into an outlet, and the blade turns thanks to the power. The housing helps to keep everything in place, and it's easy to clean.</v>
+      </c>
+      <c r="B115" t="str" xml:space="preserve">
+        <v xml:space="preserve">handfläktar är
+</v>
+      </c>
+      <c r="C115">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="116" xml:space="preserve">
+      <c r="A116" t="str">
+        <v>Social media has become an important part of education. It allows students to connect with each other and share ideas, experiences, and thoughts. Additionally, social media can offer educators a way to measure student engagement and improve teaching techniques. Social media also plays an important role in creating a community for educators, which can help increase their understanding of their students and help them better teach. In addition, social media can be used to promote specific content or courses, which can improve the learning experience for students. Overall, social media has been a powerful tool for educators and has helped them improve their teaching skills as well as their students’ engagement.</v>
+      </c>
+      <c r="B116" t="str" xml:space="preserve">
+        <v xml:space="preserve">Så kallade sociala media
+</v>
+      </c>
+      <c r="C116">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="117" xml:space="preserve">
+      <c r="A117" t="str">
+        <v>There are a lot of benefits to being a vegetarian, and it can be highly beneficial for both your health and the environment. Vegetarians tend to have lower rates of heart disease, obesity, type II diabetes, some forms of cancer, and many other diseases than people who eat meat. They also consume more fruits and vegetables than people who eat meat, and these nutrients help keep them healthy. Additionally, some pecuarians oppose the hunting and slaughter of animals for their food, which means that they are helping to reduce the amount of animal cruelty going on in the world.</v>
+      </c>
+      <c r="B117" t="str" xml:space="preserve">
+        <v xml:space="preserve">Det är 
+</v>
+      </c>
+      <c r="C117">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="118" xml:space="preserve">
+      <c r="A118" t="str">
+        <v>I'm the most inappropriate dad. I curse in front of my kids and their friends. I let my kids watch R-rated movies. I'll walk by the movie theater and say, 'Let's go see that,' and my kids will say, 'No, it's rated R. It's not appropriate for kids.' I'm like Uncle Dad. We have fun. I don't live with them, but I drive over four days a week.</v>
+      </c>
+      <c r="B118" t="str" xml:space="preserve">
+        <v xml:space="preserve">Det var en gång en liten elefant. Han åt röda bönor och bajsade lila glas.
+</v>
+      </c>
+      <c r="C118">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="119" xml:space="preserve">
+      <c r="A119" t="str">
+        <v>Yes. I did more research than I ever wanted to and saw some things I wish I didn't. I went on ride-alongs, spent time with Homicide, Cold Case, and SVU detectives, hung out in subways learning how to spot pervs and pick-pockets, viewed an autopsy, went to a police firing range, and witnessed court cases and I read, read, read.</v>
+      </c>
+      <c r="B119" t="str" xml:space="preserve">
+        <v xml:space="preserve">Ja. Jag gjorde det
+</v>
+      </c>
+      <c r="C119">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="120" xml:space="preserve">
+      <c r="A120" t="str">
+        <v>Understand that old people aren’t actually that worried about old age, according to numerous surveys. The most recent one I can find was undertaken by American research firm NORC in 2016. It polled over 3,000 adults and found that old people are more optimistic about growing old than younger adults: 46 percent of thirty-somethings said they were optimistic about aging, compared to 66 percent for the seventy-pluses. It seems that worrying about growing old is a sign you are young. And the main reason to be optimistic about old age is that old people themselves are. Resilience seems to grow.</v>
+      </c>
+      <c r="B120" t="str" xml:space="preserve">
+        <v xml:space="preserve">Halllå
+</v>
+      </c>
+      <c r="C120">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="121" xml:space="preserve">
+      <c r="A121" t="str">
+        <v>I mean the beauty of being a writer is it's not like being a swimmer. When they were talking about our Olympic swimmers and they'd say, 'Oh she's so old,' and she's all of 25 or something. So the beauty for a writer is that you can keep doing it right into your dotage, and I hope to be able to keep doing it as long as I can get away with it, yeah.</v>
+      </c>
+      <c r="B121" t="str" xml:space="preserve">
+        <v xml:space="preserve">Jag menar det
+</v>
+      </c>
+      <c r="C121">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="122" xml:space="preserve">
+      <c r="A122" t="str">
+        <v>Stress is an essential part of human life. When threatened, humans have evolved an evolved neurochemical response that helps us fight, flee, or freeze. That response is called the “fight-or-flight” response. It is also called the “acute stress response” (ASR) or the “alarm” stage of the stress response. The stress response is an automatic physical or emotional reaction to a potential threat. It is the body’s way of preparing to defend itself. When the brain senses danger, it signals the adrenal glands to release a surge of hormones, including adrenaline and cortisol. Adrenaline increases heart rate, elevates blood pressure, and boosts energy supplies. Cortisol, the primary stress hormone, increases sugars (glucose) in the bloodstream, enhances the brain’s use of glucose, and increases the availability of substances that repair tissues. Cortisol also curbs functions that would be nonessential or detrimental in a fight-or-flight situation. It alters the immune system, suppresses the digestive system, and increases blood pressure. In addition, the brain responds to the stress by releasing several hormones including the neurotransmitters, norepinephrine and dopamine, which are involved in the decision making process, in reward and pleasure, in planning and in controlling motor functions. The brain also releases endorphins. These are natural, opium-like substances that ease pain, reduce stress and create feelings of euphoria. This is also the time when healthy eating is taken over by overeating, when self-care and exercise are pushed down below other priorities, when socializing and relaxation time often disappears and sleep may become disrupted.</v>
+      </c>
+      <c r="B122" t="str" xml:space="preserve">
+        <v xml:space="preserve">Stress is 
+Stress är
+</v>
+      </c>
+      <c r="C122">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="123" xml:space="preserve">
+      <c r="A123" t="str">
+        <v>Understand that old people aren’t actually that worried about old age, according to numerous surveys. The most recent one I can find was undertaken by American research firm NORC in 2016. It polled over 3,000 adults and found that old people are more optimistic about growing old than younger adults: 46 percent of thirty-somethings said they were optimistic about aging, compared to 66 percent for the seventy-pluses. It seems that worrying about growing old is a sign you are young. And the main reason to be optimistic about old age is that old people themselves are. Resilience seems to grow.</v>
+      </c>
+      <c r="B123" t="str" xml:space="preserve">
+        <v xml:space="preserve">Förstå
+</v>
+      </c>
+      <c r="C123">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="124" xml:space="preserve">
+      <c r="A124" t="str">
+        <v>The first thing I noticed about the man was his eyes. They were the color of the sky on a clear day, and they were filled with a sadness that I had never seen before. He was tall and thin, and his clothes were old and worn. He had a long beard and a mustache, and his hair was long and gray. He looked like a man who had been through a lot in his life.</v>
+      </c>
+      <c r="B124" t="str" xml:space="preserve">
+        <v xml:space="preserve">Detta är den första 
+</v>
+      </c>
+      <c r="C124">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="125" xml:space="preserve">
+      <c r="A125" t="str">
+        <v>But the great security against a gradual concentration of the several powers in the same department, consists in giving to those who administer each department the necessary constitutional means and personal motives to resist encroachments of the others. The provision for defense must in this, as in all other cases, be made commensurate to the danger of attack. Ambition must be made to counteract ambition. The interest of the man must be connected with the constitutional rights of the place. It may be a reflection on human nature, that such devices should be necessary to control the abuses of government. But what is government itself, but the greatest of all reflections on human nature? If men were angels, no government would be necessary. If angels were to govern men, neither external nor internal controls on government would be necessary.</v>
+      </c>
+      <c r="B125" t="str" xml:space="preserve">
+        <v xml:space="preserve">Men grannen
+</v>
+      </c>
+      <c r="C125">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="126" xml:space="preserve">
+      <c r="A126" t="str">
+        <v>Anomaly detection is the process of uncovering anomalies, errors, bugs, and defects in software to eradicate them and increase the overall quality of a system.</v>
+      </c>
+      <c r="B126" t="str" xml:space="preserve">
+        <v xml:space="preserve">Anomaly på svenska
+</v>
+      </c>
+      <c r="C126">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="127" xml:space="preserve">
+      <c r="A127" t="str">
+        <v>...But nature does not say that cats are more valuable than mice; nature makes no remark on the subject. She does not even say that the cat is enviable or the mouse pitiable. We think the cat superior because we have (or most of us have) a particular philosophy to the effect that life is better than death. But if the mouse were a German pessimist mouse, he might not think that the cat had beaten him at all. He might think he had beaten the cat by getting to the grave first.</v>
+      </c>
+      <c r="B127" t="str" xml:space="preserve">
+        <v xml:space="preserve">...Men synd
+</v>
+      </c>
+      <c r="C127">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="128" xml:space="preserve">
+      <c r="A128" t="str">
+        <v>My mother smokes me out. We'll get these long periods of me thinking I'm too busy to call her up or e-mail her, and she'll send me something. My mom's a real whiner. I love her to death, but she always sends me these 'woe is me' things. I think she might be Jewish. I'm not sure. She's Baptist-Jewish, which is a double whammy.</v>
+      </c>
+      <c r="B128" t="str" xml:space="preserve">
+        <v xml:space="preserve">Min mamma är vacker
+</v>
+      </c>
+      <c r="C128">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="129" xml:space="preserve">
+      <c r="A129" t="str" xml:space="preserve">
+        <v xml:space="preserve">There are many reasons why this change might happen. First, as businesses become aware of the value of having a diverse workforce, they are able to see the cost-benefit of increasing inclusion. This means that they can afford to invest in establishment of rules and procedures that benefit all employees regardless of sex. Second, businesses have been gradually realizing that successful organizations cannot only rely on hired workers alone; they also needokoaborforce members who can contribute both theory and practice. And finally, recent studies have shown thatreatedworkers fairly improves productivity for all employees (Snyder et al., 2006). Thus, adapting policies and procedures in order to meet the needs of transgender employees is becoming increasingly popular among business leaders.
+Although there are some challenges associated with implementing such policies, I believe that these efforts will result in massive improvements for both men and women working in the workplace. In fact, I predict that over time, we will see an even larger increase in women's representation within businesses - and this growth will be based largely on increased awareness and sensitivity towards minority groups within workplaces.</v>
+      </c>
+      <c r="B129" t="str" xml:space="preserve">
+        <v xml:space="preserve">Det finns g
+</v>
+      </c>
+      <c r="C129">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="130" xml:space="preserve">
+      <c r="A130" t="str">
+        <v>The person who has applied for a tourist visa from outside the US will be required to pay the fee of $140. This fee is non-refundable and non-transferable. The fee must be paid in cash at the location where the visa application is submitted. This includes persons who wish to travel to the US and apply for adjustment of status to permanent resident (get a green card) while in the US and persons who have other non-immigrant status (F/M), and who wish to apply for an immigrant visa (get a green card) while in the US. Unfortunately, it is not possible to pay the immigrant visa fee at the same location where you submit the immigrant visa application. Payment of the fee must be made to the US Department of State.</v>
+      </c>
+      <c r="B130" t="str" xml:space="preserve">
+        <v xml:space="preserve">The person
+---------------------------------------------------------------------------------
+</v>
+      </c>
+      <c r="C130">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="131" xml:space="preserve">
+      <c r="A131" t="str">
+        <v>I can't do the same movies all my life. I'm conscious of that. But it's a trade-off. 'Dear John' allowed me to do movies I've wanted to do. You learn to balance it out. I'm still learning. Only now am I getting to do the kinds of movies that I have wanted to do. So it's a steady climb. You don't jump into a Soderbergh film.</v>
+      </c>
+      <c r="B131" t="str" xml:space="preserve">
+        <v xml:space="preserve">Ich weiss es nicht
+</v>
+      </c>
+      <c r="C131">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="132" xml:space="preserve">
+      <c r="A132" t="str">
+        <v>WELL, I THINK LIKE I SAID IT IS NOT EXACTLY GOOD, BUT YOU CANNOT SAY THAT THE PEOPLE DON'T WANT JOB. YOU CANNOT SAY THAT THE PEOPLE DON'T WANT TO WORK. THE SYSTEM JUST HAD A PROBLEM. AND FOR THE FIRST TIME, SOMEBODY IS INTERESTED. IT'S A COMPLEX SITUATION. IT'S NOT ONLY U.S., IT'S GLOBAL, AND THERE IS OBVIOUSLY A REASON TO BE REACTIONARY.</v>
+      </c>
+      <c r="B132" t="str" xml:space="preserve">
+        <v xml:space="preserve">tja, jag gjorde, inte
+det se tillbaka
+</v>
+      </c>
+      <c r="C132">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="133" xml:space="preserve">
+      <c r="A133" t="str" xml:space="preserve">
+        <v xml:space="preserve">The Scopes trial of 1925 was one of the most significant events in American History. The trial was fought over the belief of creationism, or the belief that God created the universe and all that exists within it in its present form. The trial pitted science against religion and it was seen as a battle between the individual and the establishment.
+The trial began in Dayton, Tennessee on February 24th and ended on March 25th. The trial was presided over by John T. Scopes and it involved the trial of William Jennings Bryan, a well-known religious figure who was the most vocal opponent of creationism. Bryan was charged with breaking the Tennessee law against teaching evolution, which was seen by many as an attack on religious beliefs.
+The trial was a famous one and it had a large impact on American society. The outcome of the trial was controversial and it created a divide in the American public. The majority of the population believed in evolution and saw the trial as a battle between science and religion. However, there was a small group of people who believed in creationism and they saw the trial as a battle between good and evil.
+The trial was a significant event in American History because it created a divide in the American public. The majority of the population believed in evolution and saw the trial as a battle between science and religion. However, there was a small group of people who believed in creationism and they saw the trial as a battle between good and evil. The outcome of the trial was controversial and it created a divide in the American public. The majority of the population believed in evolution and saw the trial as a battle between science and religion. However, there was a small group of people who believed in creationism and they saw the trial as a battle between good and evil. The outcome of the trial was controversial and it created a divide in the American public. The majority of the population believed in evolution and saw the trial as a battle between science and religion. However, there was a small group of people who believed in creationism and they saw the trial as a battle between good and evil.</v>
+      </c>
+      <c r="B133" t="str" xml:space="preserve">
+        <v xml:space="preserve">Translate it into Swedish
+The monkey trial
+</v>
+      </c>
+      <c r="C133">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="134" xml:space="preserve">
+      <c r="A134" t="str">
+        <v>To power sustainable global trade, creating shared &amp; sustainable value requires catering to the needs on both sides of a trading table, creating winners among both Buyers and Suppliers. The purpose of Kodiak Hub is to enable businesses to unlock and leverage value in their value chain with the help of state-of-the-art and user-friendly technology developed for people, by people, at the intersection of great design, user experience &amp; science.</v>
+      </c>
+      <c r="B134" t="str" xml:space="preserve">
+        <v xml:space="preserve">Toa kraft u
+</v>
+      </c>
+      <c r="C134">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="135" xml:space="preserve">
+      <c r="A135" t="str">
+        <v>This policy of supplying, by opposite and rival interests, the defect of better motives, might be traced through the whole system of human affairs, private as well as public. We see it particularly displayed in all the subordinate distributions of power, where the constant aim is to divide and arrange the several offices in such a manner as that each may be a check on the other—that the private interest of every individual may be a sentinel over the public rights. These inventions of prudence cannot be less requisite in the distribution of the supreme powers of the State.</v>
+      </c>
+      <c r="B135" t="str" xml:space="preserve">
+        <v xml:space="preserve">This polic traanslate it to swedish
+</v>
+      </c>
+      <c r="C135">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="136" xml:space="preserve">
+      <c r="A136" t="str">
+        <v>The person who has applied for a tourist visa from outside the US will be required to pay the fee of $140. This fee is non-refundable and non-transferable. The fee must be paid in cash at the location where the visa application is submitted. This includes persons who wish to travel to the US and apply for adjustment of status to permanent resident (get a green card) while in the US and persons who have other non-immigrant status (F/M), and who wish to apply for an immigrant visa (get a green card) while in the US. Unfortunately, it is not possible to pay the immigrant visa fee at the same location where you submit the immigrant visa application. Payment of the fee must be made to the US Department of State.</v>
+      </c>
+      <c r="B136" t="str" xml:space="preserve">
+        <v xml:space="preserve">Killen Hej
+</v>
+      </c>
+      <c r="C136">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="137" xml:space="preserve">
+      <c r="A137" t="str">
+        <v>The present study aimed to explore the relationship between Y-chromosome STR and psychiatric symptoms in patients with major depressive disorder. The study found that patients with higher Y-chromosome STR have a higher risk for developing psychiatric symptoms. The study also found that patients with higher Y-chromosome STR had a higher risk for developing major depressive disorder in a monozygotic ( identical ) twin study. The study showed that the relationship between Y-chromosome STR and psychiatric symptoms is possibly due to genetic modifiers.</v>
+      </c>
+      <c r="B137" t="str" xml:space="preserve">
+        <v xml:space="preserve">Det presen
+</v>
+      </c>
+      <c r="C137">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="138" xml:space="preserve">
+      <c r="A138" t="str">
+        <v>Higher education has the unrivalled capacity to pursue and shape the values, knowledge, skills and research that are crucial to a society shifting to a low-carbon and safe future . . . The usual concerns of research and teaching excellence, competitive league tables, student and staff retention and so on now need to be put into the broader vision and goal of economic and social well-being nested in the imperative of planetary survival; and while there is still time to make a critical difference.</v>
+      </c>
+      <c r="B138" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+Jag heter Mehdi. Jag är 24 år gammal. Sandfågeln och Jag bor i malmö och min mor och min far bor i Afghanistan.Jag är student och jag studerade på komvux snart.
+</v>
+      </c>
+      <c r="C138">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="139" xml:space="preserve">
+      <c r="A139" t="str">
+        <v>We do have food; however, I am currently unsure concerning the variety that would appease your appetite at this present point in our dialogue together while enjoying ourselves within each other's company here on Earth on our glorious planet that orbits around a star found within one galaxy of potentially infinite galaxies inhabited by extreme possibilities surrounding all manifestations and idea(s)</v>
+      </c>
+      <c r="B139" t="str" xml:space="preserve">
+        <v xml:space="preserve">Vi har denna sida just nu
+</v>
+      </c>
+      <c r="C139">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="140" xml:space="preserve">
+      <c r="A140" t="str">
+        <v>But the great security against a gradual concentration of the several powers in the same department, consists in giving to those who administer each department the necessary constitutional means and personal motives to resist encroachments of the others. The provision for defense must in this, as in all other cases, be made commensurate to the danger of attack. Ambition must be made to counteract ambition. The interest of the man must be connected with the constitutional rights of the place. It may be a reflection on human nature, that such devices should be necessary to control the abuses of government. But what is government itself, but the greatest of all reflections on human nature? If men were angels, no government would be necessary. If angels were to govern men, neither external nor internal controls on government would be necessary. In framing a government which is to be administered by men over men, the great difficulty lies in this: you must first enable the government to control the governed; and in the next place oblige it to control itself. A dependence on the people is, no doubt, the primary control on the government; but experience has taught mankind the necessity of auxiliary precautions.</v>
+      </c>
+      <c r="B140" t="str" xml:space="preserve">
+        <v xml:space="preserve">Men gården
+</v>
+      </c>
+      <c r="C140">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="141" xml:space="preserve">
+      <c r="A141" t="str">
+        <v>Liz is a strong, independent woman who has had to fend for herself since she was young. She's learned how to be resourceful and determined, which has helped her obtain jobs in the publishing industry despite not having a college degree. Liz is hard working and always trying to do the right thing - even if it means taking on extra work or going above and beyond what someone expects of her. She's fiercely loyal to those she cares about and can be counted on no matter what happens.</v>
+      </c>
+      <c r="B141" t="str" xml:space="preserve">
+        <v xml:space="preserve">Liz is a sill!!!
+liz is a sill!!!
+</v>
+      </c>
+      <c r="C141">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="142" xml:space="preserve">
+      <c r="A142" t="str">
+        <v>All this stuff is so mind-blowing to me that I get to do in my life. Throwing the first pitch out at the White Sox game on a random Wednesday? Like who am I? How did I get this life? I'm glad I'm not jaded, and little kids are the least jaded people in the entire world, so it's fun to be around people that still find wonder in how cool things are.</v>
+      </c>
+      <c r="B142" t="str" xml:space="preserve">
+        <v xml:space="preserve">Allt detta är lögner.
+</v>
+      </c>
+      <c r="C142">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="143" xml:space="preserve">
+      <c r="A143" t="str">
+        <v>However, there are a few things that businesses need to consider when using social media. The first is that social media can be valuable but can also be risky. For example, if a business doesn’t take enough precautions to ensure their content is accurate or promotional, they may risk losing customer trust and/or respect. Additionally, it’s important that businesses aren’t too dismissive of people who use social media. Sometimes people use social media as a form of communication and outreach, which is valuable. Finally, businesses should make sure they are providing value and fulfilling their commitments on social media. If they don’t, their users may end up cutting them out of their lives.</v>
+      </c>
+      <c r="B143" t="str" xml:space="preserve">
+        <v xml:space="preserve">Men, därför, 
+</v>
+      </c>
+      <c r="C143">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="144" xml:space="preserve">
+      <c r="A144" t="str">
+        <v>1. Eat well. Our brains are 60 per cent fat, so we need the good kind of healthy fat—Omega 3—for our brain health. Other nutrients that help our brain include vitamin B, vitamin E, and foods like blueberries and broccoli. Foods like broccoli and blueberries are good for us, but they don’t taste like, say, a meatball sub with cheese fries. What can help is to think how quickly bad food makes us feel bad. It might take us an hour to eat a cheeseburger, but it will take our mood maybe only ten minutes to decline. If healthy food can take that long to digest, surely it is worth waiting for the positive effects? It has long been known how important diet is for physical health. But now there is evidence of how it can benefit our mood too. A study in Biological Psychiatry, for example, found that healthy dietary patterns that included foods like fish, fruit, and vegetables was associated with lower levels of depression.</v>
+      </c>
+      <c r="B144" t="str" xml:space="preserve">
+        <v xml:space="preserve">1. Ät bra
+</v>
+      </c>
+      <c r="C144">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="145" xml:space="preserve">
+      <c r="A145" t="str">
+        <v>If the thoughts are absolutely tranquil the heavenly heart can be seen. The heavenly heart lies between sun and moon (i.e. between the two eyes). It is the home of the inner light.  To make light circulate is the deepest and most wonderful secret.  The light is easy to move, but difficult to fix.  If it is made to circulate long enought, then it crystallizes itself;  that is the natural spirit body...</v>
+      </c>
+      <c r="B145" t="str" xml:space="preserve">
+        <v xml:space="preserve">If the shouldnly no number are that
+</v>
+      </c>
+      <c r="C145">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="146" xml:space="preserve">
+      <c r="A146" t="str">
+        <v>Men are great or small in stature as it pleases God.  But their nature is great or small as it pleases themselves.  Men are not born, some with great souls and some with little souls.  One by taking thought cannot add to his stature, but he can enlarge his soul.  By an act of the will he can make himself a moral giant, or dwarf himself to a pygmy.</v>
+      </c>
+      <c r="B146" t="str" xml:space="preserve">
+        <v xml:space="preserve">Men är skumt 
+</v>
+      </c>
+      <c r="C146">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="147" xml:space="preserve">
+      <c r="A147" t="str" xml:space="preserve">
+        <v xml:space="preserve">Volunteering provides many tangible and intangible benefits.
+The tangible benefits of volunteering can include helping other people, improving one's own skills, building personal relationships, and having fun. The intangible benefits of volunteering can include increased self-awareness, civic engagement, and COMPASS skills.
+The most common tangible benefits of volunteering are helping other people, skill development, and building relationships. Volunteer experiences can help people learn new skills, improve their work ethic, and build social networks. Volunteering can also lead to new opportunities, such as finding a new job or becoming more involved in a community.
+The intangible benefits of volunteering are increased self-awareness, civic engagement, and COMPASS skills. Volunteering can help people learn more about themselves and their community. Furthermore, volunteering can lead to personal growth and development, such as increased empathy and compassion. Additionally, volunteering can increase one's knowledge and understanding of different topics, which can help them in their career or other areas of life.
+Overall, the tangible and intangible benefits of volunteering are significant. Many people find the benefits of volunteering to be worth the time and effort required to participate.</v>
+      </c>
+      <c r="B147" t="str" xml:space="preserve">
+        <v xml:space="preserve">Volunteeri(swedish)
+</v>
+      </c>
+      <c r="C147">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="148" xml:space="preserve">
+      <c r="A148" t="str">
+        <v>A beautiful eye makes silence eloquent, a kind eye makes contradiction an assent, an enraged eye makes beauty deformed. This little member gives life to every part about us; and I believe the story of Argu simplies no more, than the eye is in every part; that is to say, every other part would be mutilated, were not its force represented more by the eye than even by itself.</v>
+      </c>
+      <c r="B148" t="str" xml:space="preserve">
+        <v xml:space="preserve">En vacker
+</v>
+      </c>
+      <c r="C148">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="149" xml:space="preserve">
+      <c r="A149" t="str">
+        <v>The United Nations four or five years ago put out a study that said the meat industry, meat-eating, growing meat for food is the No. 1 killer of our planet - not No. 2 or No. 3: No 1. You know what's No. 2? Transportation. Everyone thinks that No. 1 is transportation, and goes out and buys a hybrid car. Screw the hybrid cars. Don't eat hamburgers.</v>
+      </c>
+      <c r="B149" t="str" xml:space="preserve">
+        <v xml:space="preserve">Det Vore Bra
+</v>
+      </c>
+      <c r="C149">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="150" xml:space="preserve">
+      <c r="A150" t="str">
+        <v>A lot of organizations nowadays are using whiteboards as an effective way to communicate and collaborate. Whiteboards offer users a versatile tool that can be used for various purposes, such as brainstorming new ideas, recording meetings or notes, exchanging ideas with team members etc. They are also easy to clean up after use which helps keep your working area tidy and organized. Additionally, they act as great visual aids when teaching employees new tasks or procedures - simply putting up graphics on the board provides an effective reminder for everyone involved in the process.</v>
+      </c>
+      <c r="B150" t="str" xml:space="preserve">
+        <v xml:space="preserve">home
+Hem
+</v>
+      </c>
+      <c r="C150">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="151" xml:space="preserve">
+      <c r="A151" t="str">
+        <v>The first thing I noticed about the man was his eyes. They were the color of the sky on a clear day, and they were filled with a sadness that I had never seen before. He was tall and thin, and his clothes were old and worn. He had a long beard and a mustache, and his hair was long and gray. He looked like a man who had been through a lot in his life.</v>
+      </c>
+      <c r="B151" t="str" xml:space="preserve">
+        <v xml:space="preserve">Hello Tommy !
+</v>
+      </c>
+      <c r="C151">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="152" xml:space="preserve">
+      <c r="A152" t="str">
+        <v>When I arrived in New Zealand, I was cautious, tentative, nervous. The foreignness was profound and biting. In the North American West, I was used mountains, forests, rivers, and fields. I could feel at home in the familiar. In New Zealand, everything was foreign. Everything was unfamiliar. Every decision was new</v>
+      </c>
+      <c r="B152" t="str" xml:space="preserve">
+        <v xml:space="preserve">Pommes Frites : Givetvis storheten av de här typen
+</v>
+      </c>
+      <c r="C152">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="153" xml:space="preserve">
+      <c r="A153" t="str">
+        <v>There are a lot of benefits to being a vegetarian, and it can be highly beneficial for both your health and the environment. Vegetarians tend to have lower rates of heart disease, obesity, type II diabetes, some forms of cancer, and many other diseases than people who eat meat. They also consume more fruits and vegetables than people who eat meat, and these nutrients help keep them healthy. Additionally, some pecuarians oppose the hunting and slaughter of animals for their food, which means that they are helping to reduce the amount of animal cruelty going on in the world.</v>
+      </c>
+      <c r="B153" t="str" xml:space="preserve">
+        <v xml:space="preserve">Det finns
+</v>
+      </c>
+      <c r="C153">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="154" xml:space="preserve">
+      <c r="A154" t="str">
+        <v>Yes. I did more research than I ever wanted to and saw some things I wish I didn't. I went on ride-alongs, spent time with Homicide, Cold Case, and SVU detectives, hung out in subways learning how to spot pervs and pick-pockets, viewed an autopsy, went to a police firing range, and witnessed court cases and I read, read, read.</v>
+      </c>
+      <c r="B154" t="str" xml:space="preserve">
+        <v xml:space="preserve">Yes. I did
+Jajamen, det gjorde jag
+</v>
+      </c>
+      <c r="C154">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="155" xml:space="preserve">
+      <c r="A155" t="str">
+        <v>WELL, I THINK LIKE I SAID IT IS NOT EXACTLY GOOD, BUT YOU CANNOT SAY THAT THE PEOPLE DON'T WANT JOB. YOU CANNOT SAY THAT THE PEOPLE DON'T WANT TO WORK. THE SYSTEM JUST HAD A PROBLEM. AND FOR THE FIRST TIME, SOMEBODY IS INTERESTED. IT'S A COMPLEX SITUATION. IT'S NOT ONLY U.S., IT'S GLOBAL, AND THERE IS OBVIOUSLY A REASON TO BE REACTIONARY.</v>
+      </c>
+      <c r="B155" t="str" xml:space="preserve">
+        <v xml:space="preserve">En liten öving på att ändra signaturparser.py i gaia mailing-listen.
+</v>
+      </c>
+      <c r="C155">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="156" xml:space="preserve">
+      <c r="A156" t="str">
+        <v>Learning about climate change, and its impending effects, is an emotional experience. The distress, anxiety, worry, and/or fear that stem from an overarching awareness of climate change are often considered to be related to the broader concept of ‘psychoterratic syndromes’. This concept was first introduced by the environmental philosopher, Glenn Albrecht, and is defined broadly as ‘psychological responses to negative changes to the state of the Earth’. Terms such as eco anxiety, climate anxiety, and eco distress are often used to describe these negative responses. Also, the related term ‘solastalgia’, broadly defined as distress from the transformation and degradation of one’s home environment, also falls into psychoterratic syndromes. Such concepts are gaining traction in print and online media. For example, Grist Magazine declared climate anxiety as the biggest pop-culture trend of the year in 2019. Additionally, there is a growing recognition of the impact of climate change awareness on mental well-being among researchers and mental health professionals. For instance, the American Psychological Association has defined eco anxiety as ‘a chronic fear of environmental doom’; while the Royal College of Psychiatrists defines eco distress among young people as ‘the wide range of emotions and thoughts young people may experience when they hear bad news about our planet and the environment’. Moreover, mental health professionals have reported counseling individuals dealing with distress about climate change.</v>
+      </c>
+      <c r="B156" t="str" xml:space="preserve">
+        <v xml:space="preserve"># Learning the programming language Python
+Den första anknytningen jag känner till programmering är när jag var i fransk kurs i eftermiddag för cirka fem år sen. Det här veckan jag engagerade ut en bok om Python då jag fick redan läst kapitlen om innehåll. Samtidigt började ekvation projekt med att lägga ihop fyrtal. 
+Jag tänkte om det är möjligt att upprepa detta jag redan läst. I nästa syfte har jag köpt en PC till att kunna lära mig för mig själv.
+</v>
+      </c>
+      <c r="C156">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="157" xml:space="preserve">
+      <c r="A157" t="str" xml:space="preserve">
+        <v xml:space="preserve">The relationship between climate change and mental health is poorly understood. While increasing attention has been paid to the physical health consequences of climate change, few studies have examined the psychological adjustments that may be made by people in climate-affected areas. This study aimed to investigate the relationship between climate change and mental health in a dryland region of Kenya. Data were collected from 300 adults from 10 sites in Laikipia County, Kenya. Logistic regression model was employed to determine the association between future climate change and mental health. Significant associations were found between climate change-related variables, including lower nervous energy, poor appetite, and poor sleep quality, and the risk of psychological distress. 
+The findings suggest that the mental health impacts of climate change may be most severe in dryland regions. However, the results should be interpreted with caution due to the cross-sectional design. Additional studies are needed to confirm the findings, and to determine the mechanisms through which climate change impacts psychological distress.</v>
+      </c>
+      <c r="B157" t="str" xml:space="preserve">
+        <v xml:space="preserve">The relati
+The file is not empty
+The connect is broken
+Make it as one
+The issue we failed to resolve
+Is that there is no way back home
+When the juice is stale
+Don't be angry when your one hit the wall
+Be nice everything will be okay
+The war is about to begin
+Please protect me I am going to fail
+The connect is broken but don't relive it
+Remember i will always love you
+Everything will be okay
+</v>
+      </c>
+      <c r="C157">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="158" xml:space="preserve">
+      <c r="A158" t="str">
+        <v>I remember being at Greenblatt's on Sunset, and some guy just walked straight up to me, and he had some bling on and whatever, and said something about a party down in Malibu and asked if I would jump in his car and go to the party. All I could think was, 'Who are you? I don't know you, and I don't care about how good your car is.'</v>
+      </c>
+      <c r="B158" t="str" xml:space="preserve">
+        <v xml:space="preserve">Jag kommer ihag
+</v>
+      </c>
+      <c r="C158">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="159" xml:space="preserve">
+      <c r="A159" t="str">
+        <v>But the great security against a gradual concentration of the several powers in the same department, consists in giving to those who administer each department the necessary constitutional means and personal motives to resist encroachments of the others. The provision for defense must in this, as in all other cases, be made commensurate to the danger of attack. Ambition must be made to counteract ambition. The interest of the man must be connected with the constitutional rights of the place. It may be a reflection on human nature, that such devices should be necessary to control the abuses of government. But what is government itself, but the greatest of all reflections on human nature? If men were angels, no government would be necessary. If angels were to govern men, neither external nor internal controls on government would be necessary.</v>
+      </c>
+      <c r="B159" t="str" xml:space="preserve">
+        <v xml:space="preserve">Men gr
+</v>
+      </c>
+      <c r="C159">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="160" xml:space="preserve">
+      <c r="A160" t="str">
+        <v>When I walk up on that shore in Florida, I want millions of those AARP sisters and brothers to look at me and say, 'I'm going to go write that novel I thought it was too late to do. I'm going to go work in Africa on that farm that those people need help at. I'm going to adopt a child. It's not too late, I can still live my dreams.'</v>
+      </c>
+      <c r="B160" t="str" xml:space="preserve">
+        <v xml:space="preserve">When I went o
+</v>
+      </c>
+      <c r="C160">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="161" xml:space="preserve">
+      <c r="A161" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+The Catcher in the Rye is a book that I absolutely loved. I think that it is a book that is about how a young boy named Holden Caulfield feels about his life. Holden is a young boy who is live in a small town in New England. He is a young boy who is feeling very alone and lost. Holden Caulfield is feeling very lonely and lost.</v>
+      </c>
+      <c r="B161" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+The Catch
+Poängen är : 
+Basket = "Basket" 
+</v>
+      </c>
+      <c r="C161">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="162" xml:space="preserve">
+      <c r="A162" t="str">
+        <v>There are many golden things one may find at an age when most people have had the time and wisdom accumulated through decades of study to look around; there is much beauty left for them even if their bodies can't move as fluidly as those belonging to younger generations do so well right now which include loving feelings that come forth again after finding out how precious each moment might be during senior years along with living while cherishing whatever small things turn up unexpectedly every day despite its simplicity instead of crying over spilled milk simply caused by temporary failures back then since it's never too late once we feel optimistic about what lies ahead whatsoever whether pleasant or unpleasant from beginning until the end regardless who else feel contented everyday despite mistakes made throughout journeys within past seasons before eventually calming down due having tons more responsibilities than usual either way on account(in part)to different relationships for instance intimate ones leading to marriage including parents giving birth multiple times following extramarital affairs ending up conflicting constantly meaning old people aren’t regarded very highly these days whereas some elderly individuals get treated worse off (when compared against young folks) due(in part)to different relationships for example intimate ones leading to marriage so we don't have to deal with their own parents or kids getting involved figuratively from now on.</v>
+      </c>
+      <c r="B162" t="str" xml:space="preserve">
+        <v xml:space="preserve">Det finns 
+</v>
+      </c>
+      <c r="C162">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="163" xml:space="preserve">
+      <c r="A163" t="str" xml:space="preserve">
+        <v xml:space="preserve">Mental health is a complex topic that can be difficult to understand. However, one of the most important aspects of mental health is the ability to cope with emotions. Emotions are the way we experience the world and can impact our ability to think, feel, and do things.
+There are many different types of mental health problems. However, some of the most common mental health problems are:
+- Depression
+- Anxiety
+- Bipolar Disorder
+- obsessive-compulsive disorder
+- eating disorders
+- ADHD
+- posttraumatic stress disorder
+- substance abuse
+It is important to talk to a healthcare professional about your mental health if you have any of these problems. They may be able to help you find medication or therapy to help you feel better.</v>
+      </c>
+      <c r="B163" t="str" xml:space="preserve">
+        <v xml:space="preserve">Mental ​hälsa är en sjukdom
+</v>
+      </c>
+      <c r="C163">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="164" xml:space="preserve">
+      <c r="A164" t="str">
+        <v>There are a lot of benefits to being a vegetarian, and it can be highly beneficial for both your health and the environment. Vegetarians tend to have lower rates of heart disease, obesity, type II diabetes, some forms of cancer, and many other diseases than people who eat meat. They also consume more fruits and vegetables than people who eat meat, and these nutrients help keep them healthy. Additionally, some pecuarians oppose the hunting and slaughter of animals for their food, which means that they are helping to reduce the amount of animal cruelty going on in the world.</v>
+      </c>
+      <c r="B164" t="str" xml:space="preserve">
+        <v xml:space="preserve">There are  
+D
+</v>
+      </c>
+      <c r="C164">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="165" xml:space="preserve">
+      <c r="A165" t="str" xml:space="preserve">
+        <v xml:space="preserve">The history of American advertising begins with the first ads created in the United States. These advertisements were meant to promote products and services, and they are some of the earliest examples of the use of advertising in America.
+Throughout the 1800s, Americans were interested in buying and using new technology, so advertisers began to create ads that featured things like machines, railways, and new clothing styles. They also savvy about how to reach their target audience, and so these ads were designed to be popular and persuasive.
+As technology changed and people became more interested in different aspects of their lives, American advertising changed as well. In the 1960s,american advertisers started to focus on printing ads instead of digital ones. This was because printed ads often had more impact than digital ones and could be seen by a wider audience.
+Through the years, American Advertising has continued to make a large impact on the way people live, work, and play. And it is without doubt one of the most important genres of advertising in modern times.</v>
+      </c>
+      <c r="B165" t="str" xml:space="preserve">
+        <v xml:space="preserve">Svenska version
+Jag har aldrig haft en bok som handlar om historia, men jag tror att den skulle ha varit intressant så som nya lektioner i engelska. Boken kan vara en bok för alla åldersgrupper (faktiskt har jag skrivit den här i många år). Den boken handlar om en mamma, en pappa, en granne och en kall fyra katter. En dag, familjens ena katt försvann. Maten hans försvann också, och han var ur familjens. Familjen sjönk in katt gick, och återvänte till vanliga handlings. Låta oss hoppas att förlorade katten var okej. (även om jag hatar katter).
+Detta är det första avsnittet, så jag hoppas att du gillar det.
+Med önskan om att allt är bra,
+Sol
+</v>
+      </c>
+      <c r="C165">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="166" xml:space="preserve">
+      <c r="A166" t="str">
+        <v>I'd do pretty much anything to get back on stage. I'd like to develop a new musical. I nearly had a heart attack when I heard that they're developing John Waters' Cry-Baby because that is so amazing and super and wonderful and I wish that I could be involved. But it's not the right time and I understand that. But I hear things like that and I get that little tingle in my stomach.</v>
+      </c>
+      <c r="B166" t="str" xml:space="preserve">
+        <v xml:space="preserve">I'd do pre
+In english - I'd do pre
+</v>
+      </c>
+      <c r="C166">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="167" xml:space="preserve">
+      <c r="A167" t="str" xml:space="preserve">
+        <v xml:space="preserve">Volunteering provides many tangible and intangible benefits.
+The tangible benefits of volunteering can include helping other people, improving one's own skills, building personal relationships, and having fun. The intangible benefits of volunteering can include increased self-awareness, civic engagement, and COMPASS skills.
+The most common tangible benefits of volunteering are helping other people, skill development, and building relationships. Volunteer experiences can help people learn new skills, improve their work ethic, and build social networks. Volunteering can also lead to new opportunities, such as finding a new job or becoming more involved in a community.
+The intangible benefits of volunteering are increased self-awareness, civic engagement, and COMPASS skills. Volunteering can help people learn more about themselves and their community. Furthermore, volunteering can lead to personal growth and development, such as increased empathy and compassion. Additionally, volunteering can increase one's knowledge and understanding of different topics, which can help them in their career or other areas of life.
+Overall, the tangible and intangible benefits of volunteering are significant. Many people find the benefits of volunteering to be worth the time and effort required to participate.</v>
+      </c>
+      <c r="B167" t="str" xml:space="preserve">
+        <v xml:space="preserve">Volunteeri.html
+</v>
+      </c>
+      <c r="C167">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="168" xml:space="preserve">
+      <c r="A168" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+I conducted a literature review to learn about the effects of dance on mental health. According to the review, there is limited research on the effects of dance on mental health, but the existing research points to positive effects. Dance has been shown to have a positive effect on mood and cognitive function, while also reducing stress and anxiety. These benefits may be due to the positive physical and mental health benefits of dance, as well as the social aspects of dance. Additionally, the review found that dance can be used to improve physical health, including bone density and respiratory health.</v>
+      </c>
+      <c r="B168" t="str" xml:space="preserve">
+        <v xml:space="preserve">Jag förstår
+</v>
+      </c>
+      <c r="C168">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="169" xml:space="preserve">
+      <c r="A169" t="str">
+        <v>The internet has a large effect on creativity because it allows people to connect with other people and share ideas. It also allows people to access a wide variety of information and ideas. This allows people to build new ideas and come up with new ways to solve problems. The internet also allows people to share their ideas with others and get ideas from others.</v>
+      </c>
+      <c r="B169" t="str" xml:space="preserve">
+        <v xml:space="preserve">The intern
+den Intern
+</v>
+      </c>
+      <c r="C169">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="170" xml:space="preserve">
+      <c r="A170" t="str">
+        <v>But the great security against a gradual concentration of the several powers in the same department, consists in giving to those who administer each department the necessary constitutional means and personal motives to resist encroachments of the others. The provision for defense must in this, as in all other cases, be made commensurate to the danger of attack. Ambition must be made to counteract ambition. The interest of the man must be connected with the constitutional rights of the place. It may be a reflection on human nature, that such devices should be necessary to control the abuses of government. But what is government itself, but the greatest of all reflections on human nature? If men were angels, no government would be necessary. If angels were to govern men, neither external nor internal controls on government would be necessary.</v>
+      </c>
+      <c r="B170" t="str" xml:space="preserve">
+        <v xml:space="preserve">Utom gr
+</v>
+      </c>
+      <c r="C170">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="171" xml:space="preserve">
+      <c r="A171" t="str">
+        <v>The concept of “hostage situation” is adopted from the work of Joe Griffin and Ivan Tyrrell, authors of The Primal Scream. Griffin and Tyrrell also published a sequel to their book, titled Free to Be Human.</v>
+      </c>
+      <c r="B171" t="str" xml:space="preserve">
+        <v xml:space="preserve">The concep
+Konceptet
+</v>
+      </c>
+      <c r="C171">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="172" xml:space="preserve">
+      <c r="A172" t="str">
+        <v>To power sustainable global trade, creating shared &amp; sustainable value requires catering to the needs on both sides of a trading table, creating winners among both Buyers and Suppliers. The purpose of Kodiak Hub is to enable businesses to unlock and leverage value in their value chain with the help of state-of-the-art and user-friendly technology developed for people, by people, at the intersection of great design, user experience &amp; science.</v>
+      </c>
+      <c r="B172" t="str" xml:space="preserve">
+        <v xml:space="preserve">för att kraft i
+</v>
+      </c>
+      <c r="C172">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="173" xml:space="preserve">
+      <c r="A173" t="str">
+        <v>Learning about climate change, and its impending effects, is an emotional experience. The distress, anxiety, worry, and/or fear that stem from an overarching awareness of climate change are often considered to be related to the broader concept of ‘psychoterratic syndromes’. This concept was first introduced by the environmental philosopher, Glenn Albrecht, and is defined broadly as ‘psychological responses to negative changes to the state of the Earth’. Terms such as eco anxiety, climate anxiety, and eco distress are often used to describe these negative responses. Also, the related term ‘solastalgia’, broadly defined as distress from the transformation and degradation of one’s home environment, also falls into psychoterratic syndromes. Such concepts are gaining traction in print and online media. For example, Grist Magazine declared climate anxiety as the biggest pop-culture trend of the year in 2019. Additionally, there is a growing recognition of the impact of climate change awareness on mental well-being among researchers and mental health professionals. For instance, the American Psychological Association has defined eco anxiety as ‘a chronic fear of environmental doom’; while the Royal College of Psychiatrists defines eco distress among young people as ‘the wide range of emotions and thoughts young people may experience when they hear bad news about our planet and the environment’. Moreover, mental health professionals have reported counseling individuals dealing with distress about climate change.</v>
+      </c>
+      <c r="B173" t="str" xml:space="preserve">
+        <v xml:space="preserve">Learning a language is tough
+</v>
+      </c>
+      <c r="C173">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="174" xml:space="preserve">
+      <c r="A174" t="str">
+        <v>There are many golden things one may find at an age when most people have had the time and wisdom accumulated through decades of study to look around; there is much beauty left for them even if their bodies can't move as fluidly as those belonging to younger generations do so well right now which include loving feelings that come forth again after finding out how precious each moment might be during senior years along with living while cherishing whatever small things turn up unexpectedly every day despite its simplicity instead of crying over spilled milk simply caused by temporary failures back then since it's never too late once we feel optimistic about what lies ahead whatsoever whether pleasant or unpleasant from beginning until the end regardless who else feel contented everyday despite mistakes made throughout journeys within past seasons before eventually calming down due having tons more responsibilities than usual either way on account(in part)to different relationships for instance intimate ones leading to marriage including parents giving birth multiple times following extramarital affairs ending up conflicting constantly meaning old people aren’t regarded very highly these days whereas some elderly individuals get treated worse off (when compared against young folks) due(in part)to different relationships for example intimate ones leading to marriage so we don't have to deal with their own parents or kids getting involved figuratively from now on.</v>
+      </c>
+      <c r="B174" t="str" xml:space="preserve">
+        <v xml:space="preserve">Det finns
+</v>
+      </c>
+      <c r="C174">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="175" xml:space="preserve">
+      <c r="A175" t="str">
+        <v>We do have food; however, I am currently unsure concerning the variety that would appease your appetite at this present point in our dialogue together while enjoying ourselves within each other's company here on Earth on our glorious planet that orbits around a star found within one galaxy of potentially infinite galaxies inhabited by extreme possibilities surrounding all manifestations and idea(s)</v>
+      </c>
+      <c r="B175" t="str" xml:space="preserve">
+        <v xml:space="preserve">We do have it på Svenska
+</v>
+      </c>
+      <c r="C175">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="176" xml:space="preserve">
+      <c r="A176" t="str">
+        <v>When I arrived in New Zealand, I was cautious, tentative, nervous. The foreignness was profound and biting. In the North American West, I was used mountains, forests, rivers, and fields. I could feel at home in the familiar. In New Zealand, everything was foreign. Everything was unfamiliar. Every decision was new</v>
+      </c>
+      <c r="B176" t="str" xml:space="preserve">
+        <v xml:space="preserve">När jag seglar från Köpenhamn
+</v>
+      </c>
+      <c r="C176">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="177" xml:space="preserve">
+      <c r="A177" t="str">
+        <v>I definitely wanted to be an actor. I didn't want to be on TV, I didn't want to be famous, I didn't want to be anyone in particular I just wanted to do it. I see young people now who look at magazines, or American Idol and their goal is to have that lifestyle - to have good handbags, or go out with cute guys from shows, or whatever. But I definitely wanted to be an actor.</v>
+      </c>
+      <c r="B177" t="str" xml:space="preserve">
+        <v xml:space="preserve">I definite
+Det fastsås
+</v>
+      </c>
+      <c r="C177">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="178" xml:space="preserve">
+      <c r="A178" t="str">
+        <v>A 2018 RAND Corporation report described workplace stress as a “pandemic,” and warned, “This is not a problem we can solve by just taking a walk or listening to music.” The same report, citing a 2016 survey of human resource managers, said that workers in the United States are under “extreme stress.” While the causes of workplace stress are diverse, the number one cause is commonly cited as increased workload combined with inadequate staffing.</v>
+      </c>
+      <c r="B178" t="str" xml:space="preserve">
+        <v xml:space="preserve">Assistance verktyg 2018 RAN
+</v>
+      </c>
+      <c r="C178">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="179" xml:space="preserve">
+      <c r="A179" t="str">
+        <v>But the great security against a gradual concentration of the several powers in the same department, consists in giving to those who administer each department the necessary constitutional means and personal motives to resist encroachments of the others. The provision for defense must in this, as in all other cases, be made commensurate to the danger of attack. Ambition must be made to counteract ambition. The interest of the man must be connected with the constitutional rights of the place. It may be a reflection on human nature, that such devices should be necessary to control the abuses of government. But what is government itself, but the greatest of all reflections on human nature? If men were angels, no government would be necessary. If angels were to govern men, neither external nor internal controls on government would be necessary.</v>
+      </c>
+      <c r="B179" t="str" xml:space="preserve">
+        <v xml:space="preserve">Men den
+</v>
+      </c>
+      <c r="C179">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="180" xml:space="preserve">
+      <c r="A180" t="str" xml:space="preserve">
+        <v xml:space="preserve">Volunteering provides many tangible and intangible benefits.
+The tangible benefits of volunteering can include helping other people, improving one's own skills, building personal relationships, and having fun. The intangible benefits of volunteering can include increased self-awareness, civic engagement, and COMPASS skills.
+The most common tangible benefits of volunteering are helping other people, skill development, and building relationships. Volunteer experiences can help people learn new skills, improve their work ethic, and build social networks. Volunteering can also lead to new opportunities, such as finding a new job or becoming more involved in a community.
+The intangible benefits of volunteering are increased self-awareness, civic engagement, and COMPASS skills. Volunteering can help people learn more about themselves and their community. Furthermore, volunteering can lead to personal growth and development, such as increased empathy and compassion. Additionally, volunteering can increase one's knowledge and understanding of different topics, which can help them in their career or other areas of life.
+Overall, the tangible and intangible benefits of volunteering are significant. Many people find the benefits of volunteering to be worth the time and effort required to participate.</v>
+      </c>
+      <c r="B180" t="str" xml:space="preserve">
+        <v xml:space="preserve">Villig
+</v>
+      </c>
+      <c r="C180">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="181" xml:space="preserve">
+      <c r="A181" t="str" xml:space="preserve">
+        <v xml:space="preserve">There are many reasons why this change might happen. First, as businesses become aware of the value of having a diverse workforce, they are able to see the cost-benefit of increasing inclusion. This means that they can afford to invest in establishment of rules and procedures that benefit all employees regardless of sex. Second, businesses have been gradually realizing that successful organizations cannot only rely on hired workers alone; they also needokoaborforce members who can contribute both theory and practice. And finally, recent studies have shown thatreatedworkers fairly improves productivity for all employees (Snyder et al., 2006). Thus, adapting policies and procedures in order to meet the needs of transgender employees is becoming increasingly popular among business leaders.
+Although there are some challenges associated with implementing such policies, I believe that these efforts will result in massive improvements for both men and women working in the workplace. In fact, I predict that over time, we will see an even larger increase in women's representation within businesses - and this growth will be based largely on increased awareness and sensitivity towards minority groups within workplaces.</v>
+      </c>
+      <c r="B181" t="str" xml:space="preserve">
+        <v xml:space="preserve">  Följande ord oxå böjer sig på -ade vid supinum
+  1) Komma - kom -  vid kommit - komna
+  2) Gå - gick - gått 
+  3) Språnga - sprang - sprungit - iväg-sprungit
+Följande ord oxå böjer sig på -de vid supinum
+  1) Lägga - lägger - lagt - lagat  (dvs. man lägger inte ut, man lägger ut)
+</v>
+      </c>
+      <c r="C181">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="182" xml:space="preserve">
+      <c r="A182" t="str">
+        <v>But the great security against a gradual concentration of the several powers in the same department, consists in giving to those who administer each department the necessary constitutional means and personal motives to resist encroachments of the others. The provision for defense must in this, as in all other cases, be made commensurate to the danger of attack. Ambition must be made to counteract ambition. The interest of the man must be connected with the constitutional rights of the place. It may be a reflection on human nature, that such devices should be necessary to control the abuses of government. But what is government itself, but the greatest of all reflections on human nature? If men were angels, no government would be necessary. If angels were to govern men, neither external nor internal controls on government would be necessary. In framing a government which is to be administered by men over men, the great difficulty lies in this: you must first enable the government to control the governed; and in the next place oblige it to control itself. A dependence on the people is, no doubt, the primary control on the government; but experience has taught mankind the necessity of auxiliary precautions.</v>
+      </c>
+      <c r="B182" t="str" xml:space="preserve">
+        <v xml:space="preserve">Men gr
+</v>
+      </c>
+      <c r="C182">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="183" xml:space="preserve">
+      <c r="A183" t="str">
+        <v>But the great security against a gradual concentration of the several powers in the same department, consists in giving to those who administer each department the necessary constitutional means and personal motives to resist encroachments of the others. The provision for defense must in this, as in all other cases, be made commensurate to the danger of attack. Ambition must be made to counteract ambition. The interest of the man must be connected with the constitutional rights of the place. It may be a reflection on human nature, that such devices should be necessary to control the abuses of government. But what is government itself, but the greatest of all reflections on human nature? If men were angels, no government would be necessary. If angels were to govern men, neither external nor internal controls on government would be necessary. In framing a government which is to be administered by men over men, the great difficulty lies in this: you must first enable the government to control the governed; and in the next place oblige it to control itself. A dependence on the people is, no doubt, the primary control on the government; but experience has taught mankind the necessity of auxiliary precautions.</v>
+      </c>
+      <c r="B183" t="str" xml:space="preserve">
+        <v xml:space="preserve">Men gry
+detaljer
+Gryning: 3:19
+Inställt för: 08:04
+Avstånd
+19,63 km
+Rensa
+Dagsljus
+4:46
+Nattetid
+7:18
+Solen
+Ris: 08:31
+Satt: 16:38
+Vind
+Radianter: 2,1 km/h
+Vinkel: 45 °
+Vindrgader: 0,7 KN
+Moln
+490 m
+1 152 m
+</v>
+      </c>
+      <c r="C183">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="184" xml:space="preserve">
+      <c r="A184" t="str">
+        <v>But the great security against a gradual concentration of the several powers in the same department, consists in giving to those who administer each department the necessary constitutional means and personal motives to resist encroachments of the others. The provision for defense must in this, as in all other cases, be made commensurate to the danger of attack. Ambition must be made to counteract ambition. The interest of the man must be connected with the constitutional rights of the place. It may be a reflection on human nature, that such devices should be necessary to control the abuses of government. But what is government itself, but the greatest of all reflections on human nature? If men were angels, no government would be necessary. If angels were to govern men, neither external nor internal controls on government would be necessary. In framing a government which is to be administered by men over men, the great difficulty lies in this: you must first enable the government to control the governed; and in the next place oblige it to control itself. A dependence on the people is, no doubt, the primary control on the government; but experience has taught mankind the necessity of auxiliary precautions.</v>
+      </c>
+      <c r="B184" t="str" xml:space="preserve">
+        <v xml:space="preserve">Men den store löneboupplösarna har gjord find some attractions such as The village of Burj hijra in Aden Ba sheikh Ali.
+</v>
+      </c>
+      <c r="C184">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="185" xml:space="preserve">
+      <c r="A185" t="str">
+        <v>There are a lot of benefits to being a vegetarian, and it can be highly beneficial for both your health and the environment. Vegetarians tend to have lower rates of heart disease, obesity, type II diabetes, some forms of cancer, and many other diseases than people who eat meat. They also consume more fruits and vegetables than people who eat meat, and these nutrients help keep them healthy. Additionally, some pecuarians oppose the hunting and slaughter of animals for their food, which means that they are helping to reduce the amount of animal cruelty going on in the world.</v>
+      </c>
+      <c r="B185" t="str" xml:space="preserve">
+        <v xml:space="preserve">There are  
+DET ÄR
+</v>
+      </c>
+      <c r="C185">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="186" xml:space="preserve">
+      <c r="A186" t="str">
+        <v>We do have food; however, I am currently unsure concerning the variety that would appease your appetite at this present point in our dialogue together while enjoying ourselves within each other's company here on Earth on our glorious planet that orbits around a star found within one galaxy of potentially infinite galaxies inhabited by extreme possibilities surrounding all manifestations and idea(s)</v>
+      </c>
+      <c r="B186" t="str" xml:space="preserve">
+        <v xml:space="preserve">Sports car är ett engelskt uttryck och innebär en bil för sport (ihopkrökt) körande mot andra bilar.
+</v>
+      </c>
+      <c r="C186">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="187" xml:space="preserve">
+      <c r="A187" t="str">
+        <v>I know what love is. It?s understanding. It?s you and me and let the rest of the world go by. Just the two of us living our lives together happily and proudly. No self-torture and no doubt. It?s enduring and it?s everlasting. Nothing can change it. Nothing can change us, Ollie. That?s what I think love is.</v>
+      </c>
+      <c r="B187" t="str" xml:space="preserve">
+        <v xml:space="preserve">bla bla bla
+</v>
+      </c>
+      <c r="C187">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="188" xml:space="preserve">
+      <c r="A188" t="str">
+        <v>On the political front, of course it's a zero-sum game. If it's all white males holding positions, you bring 10 women in, then it's, 'Women are coming!' Get 10 blacks and it's, 'Blacks are coming!' 'Hispanics are coming!' Zero-sum game. The seatmates might change but the chairs don't move. In the economy, the number of chairs can actually increase.</v>
+      </c>
+      <c r="B188" t="str" xml:space="preserve">
+        <v xml:space="preserve">på polen
+</v>
+      </c>
+      <c r="C188">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="189" xml:space="preserve">
+      <c r="A189" t="str">
+        <v>They started by stating that everything felt like it was going wrong and that there wasn't a single thing in life that made them happy anymore. The sender explained how this had been happening for months now, but no matter what they did things only got worse. They told their friend how crazy and frustrating it all felt, begging for help because they didn't know where else to turn.</v>
+      </c>
+      <c r="B189" t="str" xml:space="preserve">
+        <v xml:space="preserve">They start -&gt; 
+De börja
+</v>
+      </c>
+      <c r="C189">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="190" xml:space="preserve">
+      <c r="A190" t="str">
+        <v>Margaret Sullivan: I had been at a small newspaper in California. I started my career at an evening daily newspaper called The San Bernardino Sun. I went straight from there to The New York Times in 1981. So it was a huge—it was a big leap in many ways—a leap into cultural elitism and sophistication. It was a wonderful, wonderful place to work. It was a very exciting time to be there because we were growing. Our circulation at the time was about 1.1 million. We were a big paper then. It's half that now. But we were in a great building in Times Square, and it was just exciting and exhilarating as you can imagine.</v>
+      </c>
+      <c r="B190" t="str" xml:space="preserve">
+        <v xml:space="preserve">Margaret S
+Filesystmet är stort. Lär dig det.
+</v>
+      </c>
+      <c r="C190">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="191" xml:space="preserve">
+      <c r="A191" t="str" xml:space="preserve">
+        <v xml:space="preserve">There are many benefits to exercise, both physically and mentally. Physical benefits include improved heart health, stronger muscles, reduced fat storage, and an increased ability to move more easily. Mental benefits include better concentration, reduced stress levels, and enhanced moods.
+Physical benefits of exercise include: 
+Improved heart health. Exercise has been shown to improve blood circulation and reduce the risk of heart disease by helping prevent the buildup of plaque on arteries walls. Additionally, regular exercise can help reduce the amount of fat around the midsection, which in turn can reduce the risk of heart disease and stroke.
+Stronger muscles. With regular exercise, you will build muscle tissue that can help you achieve greater strength and endurance when performing physical activity later on in life. This can help you avoid injuries and maintain your current level of physical fitness.
+Reduced fat storage. Exercising regularly can help to reduce the amount of bodyfat stored on your body, which can reduce the risk for obesity and other chronic diseases associated with excess bodyfat.
+Increased ability to move more easily. Regular exercise can also help you increase your mobility so that you are able to do everyday activities with less discomfort or difficulty. This may be particularly beneficial if you have arthritis or any other medical conditions that restrict your ability to move easily.
+Mental benefits of exercise include: 
+Better concentration. Exercise has been shown to improve cognitive function by increasing blood flow to the brain and reducing cortisol levels in the bloodstream. Cortisol is a hormone released during stressful situations that can adversely affect how we think and perform tasks. By reducing cortisol levels, exercise may help improve memory recall and focus while also reducing stress levels overall.
+Reduced stress levels. Exercise has been shown to decrease stress levels by releasing endorphins – hormones that protect the body against pain – in our brains. Endorphins are also responsible for producing positive feelings such as happiness and euphoria. Consequently, being stressed out while trying to workout may lead to negative effects such as fatigue, irritability, and increased anxiety levels. By doing mediation or deep breathing exercises before your workout, you can help ease into a state of relaxation before beginning your routine. This should result in improved mental clarity and energy during your workout session.
+Enhanced moods. Exercise has consistently been shown to improve moods by decreasing stress hormones like cortisol and elevating serotonin levels in the brain. Serotonin is a neurotransmitter responsible for regulating emotional reactions such as happiness, hunger, sleepiness, anxiety, depression, anger, and addiction behavior . Elevated serotonin levels may contribute to an improved sense of well-being after working out due to its role in managing emotions effectively .</v>
+      </c>
+      <c r="B191" t="str" xml:space="preserve">
+        <v xml:space="preserve">Det finns
+</v>
+      </c>
+      <c r="C191">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="192" xml:space="preserve">
+      <c r="A192" t="str">
+        <v>OK, so my parents were married in 1955 and my mom knew my dad was gay and my dad knew he was gay and so I was, like, 'Why in the heck did you get married?' Like, what was going on? What was that time? It's like this crazy paradox that my whole life is based on, or my family's based on. So I spent a lot of time trying to understand '55.</v>
+      </c>
+      <c r="B192" t="str" xml:space="preserve">
+        <v xml:space="preserve">OK, så jag är främmande och jag gör detta kurs , och
+Det Art design, när ni har tid att lägga till eller hjälpa mig?
+</v>
+      </c>
+      <c r="C192">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="193" xml:space="preserve">
+      <c r="A193" t="str">
+        <v>There are a lot of benefits to being a vegetarian, and it can be highly beneficial for both your health and the environment. Vegetarians tend to have lower rates of heart disease, obesity, type II diabetes, some forms of cancer, and many other diseases than people who eat meat. They also consume more fruits and vegetables than people who eat meat, and these nutrients help keep them healthy. Additionally, some pecuarians oppose the hunting and slaughter of animals for their food, which means that they are helping to reduce the amount of animal cruelty going on in the world.</v>
+      </c>
+      <c r="B193" t="str" xml:space="preserve">
+        <v xml:space="preserve">Det finns
+</v>
+      </c>
+      <c r="C193">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="194" xml:space="preserve">
+      <c r="A194" t="str">
+        <v>However, there are a few things that businesses need to consider when using social media. The first is that social media can be valuable but can also be risky. For example, if a business doesn’t take enough precautions to ensure their content is accurate or promotional, they may risk losing customer trust and/or respect. Additionally, it’s important that businesses aren’t too dismissive of people who use social media. Sometimes people use social media as a form of communication and outreach, which is valuable. Finally, businesses should make sure they are providing value and fulfilling their commitments on social media. If they don’t, their users may end up cutting them out of their lives.</v>
+      </c>
+      <c r="B194" t="str" xml:space="preserve">
+        <v xml:space="preserve">Dock
+</v>
+      </c>
+      <c r="C194">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="195" xml:space="preserve">
+      <c r="A195" t="str">
+        <v xml:space="preserve"> There is a problem with the way that the website is handling user input. When someone tries to enter text into a text field, the website often doesn't allow them to continue typing because it instead automatically inserts a space. This results in the person being unable to submit their form.</v>
+      </c>
+      <c r="B195" t="str" xml:space="preserve">
+        <v xml:space="preserve">Hej där
+</v>
+      </c>
+      <c r="C195">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="196" xml:space="preserve">
+      <c r="A196" t="str" xml:space="preserve">
         <v xml:space="preserve">Time is the most important factor in our lives. It has the ability to define everything from our daily rituals to our futures. Time is also a precious commodity, which we use to make decisions that have an impact on the rest of our lives.
 Without time, we would not be able to do things such as learn new things, experience new cultures, or grow old. Time is also used to measure how far we have come and how much work still needs to be done. In some ways, time is like a life raft that allows us to cross over into the future and explore different opportunities while avoiding potential dangers along the way.
  thefts, robberies, and murders often occur due to lack of time. For example, if someone is prevented from robbing a bank in 15 minutes, they will likely rob another bank in 45 minutes or even 1 hour. To prevent these sorts of crimes from happening, it is important for criminals to have enough time to plan their attack and pull off their robbery successfully.
 In addition, time is also necessary for other activities such as studying, doing homework, and working on projects. Without enough time, these activities may not be possible. For example, if I study for an exam for hours every night and try my best to stay awake during class, I may not be able to achieve the level of success I want because I would need more time than usual to complete the exam.
 On the other hand, if I am able to relax and sleep for 8 hours every night after studying for hours today, I will likely achieve a similar level of success as if I studied for 6 hours today. This illustrates how important time is in our lives – by taking advantage of its abilities we can achieve our goals without having too much trouble.</v>
       </c>
-      <c r="B89" t="str" xml:space="preserve">
-        <v xml:space="preserve">Tid är det viktigaste faktorn i våra liv. Den har förmågan att definiera allt från våra dagliga ritualer till vår framtid. tid är också en dyrbar vara, som vi använder för att fatta beslut som har en påverkan på resten av våra liv.
-Utan tid skulle vi inte kunna göra saker som att lära sig nya saker, uppleva nya kulturer eller bli gammal. tid används också att mäta hur långt vi har kommit och hur mycket arbete som fortfarande behöver göras.
-På sätt och vis, är tid som en livbåt som tillåter oss att överskrida till framtiden och utforska olika möjligheter samtidigt undvika potentiella faror på vägen.
- thefts, robberies, and murders often occur due to lack of time. For example, if someone is prevented from robbing a bank in 15 minutes, they will likely rob another bank in 45 minutes or even 1 hour. To prevent these sorts of crimes from happening, it is important for criminals to have enough time to plan their attack and pull off their robbery successfully.
-Dessutom, tid är också nödvändigt för andra aktiviteter som att studera, göra läxor och arbeta med projekt. Utan tillräcklig tid dessa aktiviteter kan inte vara möjligt. Till exempel, om jag studerar för en tenta i timmar varje natt och försöker mitt bästa för att stanna vaken under klassen, kan jag inte att nå nivån av framgång jag önskar eftersom jag skulle behöva mer tid än vanligt för att slutföra tentamen.
-Å andra sidan, om jag lyckas avslappnade och sova för 8 timmar varje natt efter att ha studerat i timmar idag, kommer jag sannolikt att uppnå en liknande nivå av framgång som om jag studerat för 6 timmar idag. Detta illustrerar hur viktig tid är i våra liv - genom att utnyttja dess förmåga att vi kan uppnå våra mål utan att ha alltför mycket problem.
-</v>
-      </c>
-      <c r="C89">
-        <v>1270</v>
-      </c>
-    </row>
-    <row r="90" xml:space="preserve">
-      <c r="A90" t="str">
-        <v>Learning about climate change, and its impending effects, is an emotional experience. The distress, anxiety, worry, and/or fear that stem from an overarching awareness of climate change are often considered to be related to the broader concept of ‘psychoterratic syndromes’. This concept was first introduced by the environmental philosopher, Glenn Albrecht, and is defined broadly as ‘psychological responses to negative changes to the state of the Earth’. Terms such as eco anxiety, climate anxiety, and eco distress are often used to describe these negative responses. Also, the related term ‘solastalgia’, broadly defined as distress from the transformation and degradation of one’s home environment, also falls into psychoterratic syndromes. Such concepts are gaining traction in print and online media. For example, Grist Magazine declared climate anxiety as the biggest pop-culture trend of the year in 2019. Additionally, there is a growing recognition of the impact of climate change awareness on mental well-being among researchers and mental health professionals. For instance, the American Psychological Association has defined eco anxiety as ‘a chronic fear of environmental doom’; while the Royal College of Psychiatrists defines eco distress among young people as ‘the wide range of emotions and thoughts young people may experience when they hear bad news about our planet and the environment’. Moreover, mental health professionals have reported counseling individuals dealing with distress about climate change.</v>
-      </c>
-      <c r="B90" t="str" xml:space="preserve">
-        <v xml:space="preserve">Att lära sig om klimatförändringarna och dess kommande konsekvenser är en emotionell upplevelse. Den ångest, sorg, oro och / eller rädsla som utgår från en övergripande medvetenhet om klimatförändringarna brukar anses vara relaterade till det bredare begreppet 'psykoterrare syndromer'. Det här begreppet introducerades av den miljöfilosofiska, Glenn Albrecht, och definieras vidsträckt som 'psykologiska svar till negativa förändringar i jordens tillstånd'. Termer som eco-ångest, klimatångest och eco-upstång används ofta för att beskriva dessa negativa responser. Också den relaterade termen 'solastalgi' definieras vidsträckt som väsentligt understrykande av övertygande rädslan för en förändrad hemmiljö, tillhör också psykoterratera syndromer .
-Sådana tankar vinner mark i tryckt och online-media. Till exempel, Grist Magazine förklarade klimatångesten som den största popkulturella trenden år 2019. Dessutom finns det en ökande medvetenhet om effekten av klimatsnattlempat på mental hälsa bland forskare och mental hälsa. US Alternative Association har definierat eco-ångest som 'en kronisk rädsla för miljöförstöring' medan det brittiska psykiatrikollegiet definierar eko-anskådning bland unga personer som 'den vida känslan av känslor och det tankfulla yngre kan uppleva när de hör dåliga nyheter om vår planet och om att höra flera miljöer
-Dessutom har mental hälso professionella uppgifter om anmälan av personer som stämmer mot hjälp för besvikelse om klimatförändring.
-</v>
-      </c>
-      <c r="C90">
-        <v>1202</v>
-      </c>
-    </row>
-    <row r="91" xml:space="preserve">
-      <c r="A91" t="str">
-        <v>In the story, there is a conflict between two groups of people. The first group is made up of the students who are trying to get their revenge on Mike for spreading rumors about them. The second group includes those who want to protect Mike and stop the students from getting too angry. This conflict happens when both sides start fighting each other in school, causing lots of damage and emotions to be involved.</v>
-      </c>
-      <c r="B91" t="str" xml:space="preserve">
-        <v xml:space="preserve">In the story, there is a conflict between two groups of people. The first group is made up of the students who are trying to get their revenge on Mike for spreading rumors about them. The second group includes those who want to protect Mike and stop the students from getting too angry. This conflict happens when both sides start fighting each other in school, causing lots of damage and emotions to be involved.  
-I Kafer makes Alani, Jeremy, Molly and Iki, returning home after school, attacked by students out of revenge for the students at the grounds Mike almost killed in a fight.
-The Government has arrested KAFI and SIDDHARTHA. The later had left to them, so they want to use force to persuade her to leave.
-</v>
-      </c>
-      <c r="C91">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="92" xml:space="preserve">
-      <c r="A92" t="str">
-        <v>I'm a fan of horrors. I love the ones that make you jump. My girlfriend hates it. I've been dating her for one-and-a-half years and I'm crazy about her, but she's terrified of horror films. Not the cute 'Will you hold me?' way, but she's weeping. With 'House of Wax,' we'll be sleeping and I'll go to the bathroom and she's sitting up waiting for me.</v>
-      </c>
-      <c r="B92" t="str" xml:space="preserve">
-        <v xml:space="preserve">I'm a fan of horrors. I love the ones that make you jump. My girlfriend hates it. I've been dating her for one-and-a-half years and I'm crazy about her, but she's terrified of horror films. Not the cute 'Will you hold me?' way, but she's weeping. With 'House of Wax,' we'll be sleeping and I'll go to the bathroom and she's sitting up waiting for me.
-Jag är en älskare fan av skräck. Jag älskar de som gör dig hoppa.
-Min flickvän hatar det. Jag har hört henne i ett år och jag
-har blivit galen med henne, men hon är rädd för skräck. Inte det söta
-'Kommer du att hålla mig?'Visst, men hon gråter. Med 'House of Wax', kommer vi att sova och jag kommer att gå till badrummet och hon sitter upp och väntar på mig.
-</v>
-      </c>
-      <c r="C92">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="93" xml:space="preserve">
-      <c r="A93" t="str">
-        <v>Understand that old people aren’t actually that worried about old age, according to numerous surveys. The most recent one I can find was undertaken by American research firm NORC in 2016. It polled over 3,000 adults and found that old people are more optimistic about growing old than younger adults: 46 percent of thirty-somethings said they were optimistic about aging, compared to 66 percent for the seventy-pluses. It seems that worrying about growing old is a sign you are young. And the main reason to be optimistic about old age is that old people themselves are. Resilience seems to grow.</v>
-      </c>
-      <c r="B93" t="str" xml:space="preserve">
-        <v xml:space="preserve">Vi måste överlåta tolkningen av villkoren i varje enskild målsättning till de personer som drar nytta av dessa villkor, inte till de biståndsfirmor, bankir eller ensakte aktörer som ibland kan invödinga välgörenhetens åhörarbås.
-</v>
-      </c>
-      <c r="C93">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="94" xml:space="preserve">
-      <c r="A94" t="str">
-        <v>We’re looking for an experienced Content Marketing Manager, who also happens to be obsessed with thought leadership and building awareness across owned channels. You must love researching, writing, editing, and amplifying stories and in-depth content that educates and inspires. You’ll also be passionate about testing new ideas, leading our content marketing efforts and learning from our audience. The right person will have an eye for top-quality B2B marketing content and a data-driven mindset to help connect content strategy to business results. You’ll play a key role in elevating our content marketing program and landing it all on our website.</v>
-      </c>
-      <c r="B94" t="str" xml:space="preserve">
-        <v xml:space="preserve">Vi letar efter en erfaren utsedd innehålls chef som också händelsevis är besatt av att vara tänkt ledare och bygga informationen över ägdes kanalen. Du måste älskar att försöker, skriva, korrektur och kraftanlägga av sagorna och djupare innehåll som utbildar och inspirerar. Du ska också förespråkare Tenta nya idéer, ledning ut våra innehåll marknadsföring försök och lära sig från vårt publik. rätta personen har en öga för topp kvalitet B2B marknadsföring innehåll och en dator-inriktad tankesätt hjälpa knyta innehåll ståndpunkt till affärs resultat. Du ska spelar en huvudsaklig roll lyfta ut våra innehåll marknadsföring program och landing det alla ut på vår webbplats.
-</v>
-      </c>
-      <c r="C94">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="95" xml:space="preserve">
-      <c r="A95" t="str">
-        <v>A lot of organizations nowadays are using whiteboards as an effective way to communicate and collaborate. Whiteboards offer users a versatile tool that can be used for various purposes, such as brainstorming new ideas, recording meetings or notes, exchanging ideas with team members etc. They are also easy to clean up after use which helps keep your working area tidy and organized. Additionally, they act as great visual aids when teaching employees new tasks or procedures - simply putting up graphics on the board provides an effective reminder for everyone involved in the process.</v>
-      </c>
-      <c r="B95" t="str" xml:space="preserve">
-        <v xml:space="preserve">A lot of organizations nowadays are using whiteboards as an effective way to communicate and collaborate. Whiteboards offer users a versatile tool that can be used for various purposes, such as brainstorming new ideas, recording meetings or notes, exchanging ideas with team members etc. They are also easy to clean up after use which helps keep your working area tidy and organized. Additionally, they act as great visual aids when teaching employees new tasks or procedures - simply putting up graphics on the board provides an effective reminder for everyone involved in the process.
-En mängd organisationer använder dessa dagar som en effektivt sätt att kommunicera och samverka. Whiteboards erbjuder användare ett mångsidigt verktyg som kan användas för olika ändamål, till exempel brainstorming nya idéer, registrering möten eller anteckningar, byta idéer med team medlemmar etc. De även lätt att rengöra efter användning, vilket hjälper till att hålla arbetar för området ren och organiserad. Dessutom, de öva som bra visuellt stöd när du undervisar anställda nya arbetsuppgifter eller instruktioner - enkelt placera upp grafik på bordet förser en effektiv påminnelse för alla inblandade i processen.
-</v>
-      </c>
-      <c r="C95">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="96" xml:space="preserve">
-      <c r="A96" t="str">
-        <v>The setting for this novel is Boston in the early nineteen-hundreds. The novel follows the story of two sisters, Tess and Charlotte, as they navigate their way through life. Tess is a bright and determined young woman, while Charlotte is a sweet and introverted young woman. Both sisters are struggling to find their place in the world, and the novel explores their relationships with family, friends, and romantic interests. In addition to exploring the sisters' lives, the novel also focuses on the history and culture of Boston during this time period.</v>
-      </c>
-      <c r="B96" t="str" xml:space="preserve">
-        <v xml:space="preserve">"Har du vattnet" i dina ögon varje gång du möter mina.
-Mötte du henne
-´Träffade du henne´,
-Min andning är tyst i min mun precis som du sätter dig ner bredvid mig
-Det är som att titta på solen gå under när du pratar med mig på det sättet.
-Det gör att jag vill känna din hand i min.
-Samma kan hända oavsett hur många gånger vi träffas.
-Och jag kommer inte gå någonstans,
-Det är inte bara att fira midvinter någon gång.
-Och det tar min andning bort från att sitta bredvid dig.
-Låt mig enskild.
-Regeringen är i mina kläder.
-Jag kommer inte att prata med,
-Natten är mörk och stormig,
-Inte ens
-en lyxbåt i natt.
-Helt och hållet fångar jag dig runt midjan.
-Jag talar om när jag går hemma hos dig för att vara nära.
-Har du någonsin sagt du?
-Berättade du det,
-Redan vågor jag i allt jag gör.
-Och jag bläddrar genom alla foton av dig.
-Är det därför du hittade igen?
-Och jag kommer inte att gå någonstans.
-Det är inte bara att fira midvinter någon gång.
-Och det tar min andning bort från att sitta bredvid dig.
-Och jag kommer följa dig hem.
-Även om ingenting är som jag väntade mig.
-För det här är bara vad jag vill göra
-framför någon annan.
-Och jag kommer inte att gå någonstans.
-Det är inte bara att fira midvinter någon gång.
-Och det tar min andning därifrån varje gång jag ser dig utanför.
-</v>
-      </c>
-      <c r="C96">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="97" xml:space="preserve">
-      <c r="A97" t="str" xml:space="preserve">
-        <v xml:space="preserve">The Scopes trial of 1925 was one of the most significant events in American History. The trial was fought over the belief of creationism, or the belief that God created the universe and all that exists within it in its present form. The trial pitted science against religion and it was seen as a battle between the individual and the establishment.
-The trial began in Dayton, Tennessee on February 24th and ended on March 25th. The trial was presided over by John T. Scopes and it involved the trial of William Jennings Bryan, a well-known religious figure who was the most vocal opponent of creationism. Bryan was charged with breaking the Tennessee law against teaching evolution, which was seen by many as an attack on religious beliefs.
-The trial was a famous one and it had a large impact on American society. The outcome of the trial was controversial and it created a divide in the American public. The majority of the population believed in evolution and saw the trial as a battle between science and religion. However, there was a small group of people who believed in creationism and they saw the trial as a battle between good and evil.
-The trial was a significant event in American History because it created a divide in the American public. The majority of the population believed in evolution and saw the trial as a battle between science and religion. However, there was a small group of people who believed in creationism and they saw the trial as a battle between good and evil. The outcome of the trial was controversial and it created a divide in the American public. The majority of the population believed in evolution and saw the trial as a battle between science and religion. However, there was a small group of people who believed in creationism and they saw the trial as a battle between good and evil. The outcome of the trial was controversial and it created a divide in the American public. The majority of the population believed in evolution and saw the trial as a battle between science and religion. However, there was a small group of people who believed in creationism and they saw the trial as a battle between good and evil.</v>
-      </c>
-      <c r="B97" t="str" xml:space="preserve">
-        <v xml:space="preserve">Skopemålet i 1925 var en av de mest betydelsefulla händelser i den amerikanska historien. Målet gällde tron på skapelse, eller tron på att Gud skapat universum och allt som finns i det i dess nuvarande form. Tävlingen sågs som en strid mellan individen och etablissemanget.
-Rättegången inleddes i Dayton, Tennessee den 24 februari och slutade den 25 mars. Rättegången leddes av John T. Skop och den handlade om William Jennings Bryans, en välkänd religiös figur som var den mest larmande motståndare till skapelsen. Bryan anklagades för att bryta mot lagstiftningen i Tennessee mot evolution inlärning, som sågs av många som en attack på religiösa tron.
-Målet var ett välkänt ena och hade en stor inverkan på den amerikanska samhället. Slutet var kontroversiellt och det skapade en uppdelning i det amerikanska folket. Majoriteten av befolkningen trodde på evolution och såg domstolssystemet som en strid mellan vetenskapen och religionen. Det fanns dock en liten grupp av människor som trodde på skapelsen och de såg målet som en strid mellan det goda och det onda.
-The trial was a significant event in American History because it created a divide in the American public. The majority of the population believed in evolution and saw the trial as a battle between science and religion. However, there was a small group of people who believed in creationism and they saw the trial as a battle between good and evil. The outcome of the trial was controversial and it created a divide in the American public. The majority of the population believed in evolution and saw the trial as a battle between science and religion. However, there was a small group of people who believed in creationism and they saw the trial as a battle between good and evil. The outcome of the trial was controversial and it created a divide in the American public. The majority of the population believed in evolution and saw the trial as a battle between science and religion. However, there was a small group of people who believed in creationism and they saw the trial as a battle between good and evil.
-</v>
-      </c>
-      <c r="C97">
-        <v>1102</v>
+      <c r="B196" t="str" xml:space="preserve">
+        <v xml:space="preserve">Tiden är inte att spendera med dig
+</v>
+      </c>
+      <c r="C196">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="197" xml:space="preserve">
+      <c r="A197" t="str">
+        <v>The fact is if we do our job right, if we keep worrying not about polls but about the jobs of the American people, about their health care, about their ability to educate their kids, stay in their homes and own their homes, send their kids to college, the basic pillars of a middle-class life, if we keep worrying about the future and building a stronger future for this country, these things will take care of themselves.</v>
+      </c>
+      <c r="B197" t="str" xml:space="preserve">
+        <v xml:space="preserve">självet
+</v>
+      </c>
+      <c r="C197">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="198" xml:space="preserve">
+      <c r="A198" t="str">
+        <v>Love is the best feeling in the world. It's the best feeling when you're with someone you care about and you feel happy and content. Love is the best feeling when you're in a relationship and you're happy and you feel loved. Love is the best feeling when you're with someone who you think is the best for you.</v>
+      </c>
+      <c r="B198" t="str" xml:space="preserve">
+        <v xml:space="preserve">Älskar är th
+</v>
+      </c>
+      <c r="C198">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="199" xml:space="preserve">
+      <c r="A199" t="str">
+        <v>WELL, I THINK LIKE I SAID IT IS NOT EXACTLY GOOD, BUT YOU CANNOT SAY THAT THE PEOPLE DON'T WANT JOB. YOU CANNOT SAY THAT THE PEOPLE DON'T WANT TO WORK. THE SYSTEM JUST HAD A PROBLEM. AND FOR THE FIRST TIME, SOMEBODY IS INTERESTED. IT'S A COMPLEX SITUATION. IT'S NOT ONLY U.S., IT'S GLOBAL, AND THERE IS OBVIOUSLY A REASON TO BE REACTIONARY.</v>
+      </c>
+      <c r="B199" t="str" xml:space="preserve">
+        <v xml:space="preserve">Förlåt, Är din nacke verkligen okej?
+</v>
+      </c>
+      <c r="C199">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="200" xml:space="preserve">
+      <c r="A200" t="str" xml:space="preserve">
+        <v xml:space="preserve">There are many benefits to exercise, both physically and mentally. Physical benefits include improved heart health, stronger muscles, reduced fat storage, and an increased ability to move more easily. Mental benefits include better concentration, reduced stress levels, and enhanced moods.
+Physical benefits of exercise include: 
+Improved heart health. Exercise has been shown to improve blood circulation and reduce the risk of heart disease by helping prevent the buildup of plaque on arteries walls. Additionally, regular exercise can help reduce the amount of fat around the midsection, which in turn can reduce the risk of heart disease and stroke.
+Stronger muscles. With regular exercise, you will build muscle tissue that can help you achieve greater strength and endurance when performing physical activity later on in life. This can help you avoid injuries and maintain your current level of physical fitness.
+Reduced fat storage. Exercising regularly can help to reduce the amount of bodyfat stored on your body, which can reduce the risk for obesity and other chronic diseases associated with excess bodyfat.
+Increased ability to move more easily. Regular exercise can also help you increase your mobility so that you are able to do everyday activities with less discomfort or difficulty. This may be particularly beneficial if you have arthritis or any other medical conditions that restrict your ability to move easily.
+Mental benefits of exercise include: 
+Better concentration. Exercise has been shown to improve cognitive function by increasing blood flow to the brain and reducing cortisol levels in the bloodstream. Cortisol is a hormone released during stressful situations that can adversely affect how we think and perform tasks. By reducing cortisol levels, exercise may help improve memory recall and focus while also reducing stress levels overall.
+Reduced stress levels. Exercise has been shown to decrease stress levels by releasing endorphins – hormones that protect the body against pain – in our brains. Endorphins are also responsible for producing positive feelings such as happiness and euphoria. Consequently, being stressed out while trying to workout may lead to negative effects such as fatigue, irritability, and increased anxiety levels. By doing mediation or deep breathing exercises before your workout, you can help ease into a state of relaxation before beginning your routine. This should result in improved mental clarity and energy during your workout session.
+Enhanced moods. Exercise has consistently been shown to improve moods by decreasing stress hormones like cortisol and elevating serotonin levels in the brain. Serotonin is a neurotransmitter responsible for regulating emotional reactions such as happiness, hunger, sleepiness, anxiety, depression, anger, and addiction behavior . Elevated serotonin levels may contribute to an improved sense of well-being after working out due to its role in managing emotions effectively .</v>
+      </c>
+      <c r="B200" t="str" xml:space="preserve">
+        <v xml:space="preserve">Det finns 18 delstater i Tyskland.
+</v>
+      </c>
+      <c r="C200">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="201" xml:space="preserve">
+      <c r="A201" t="str" xml:space="preserve">
+        <v xml:space="preserve">1. I have never been satisfied with the way most of us understand confidence. The common view is that confidence is a personality trait that some people are lucky enough to have and others are not. This limit will stop people from developing the confidence they need to achieve their goals. The opposite of confidence is self-doubt, and most people suffer from self-doubt in one way or another.
+2. Confidence is a skill that can be learned and practiced like any other skill. It is a set of habits and behaviors that you can learn and develop over time. Confidence is not a trait or a personality type. It is a skill that can be learned, practiced, and improved.
+3. Confidence is a skill that can be learned and practiced like any other. The confidence you need to function well in the world is not determined by your personality, but by your ability to practice and master a set of skills that are vital for you to succeed in life.
+4. There is a difference between confidence and self-esteem, and this difference is important to understand when you are trying to improve your confidence. Self-esteem is defined as the way we see ourselves, and our perception of how others see us. Some people think they are “good” or “bad”, while others think they are “adequate” or “inadequate”. But we all have self-esteem. Self-esteem is the way you see yourself.
+6. Confidence is also different from self-efficacy. Self-efficacy is the belief that you have the ability to do something. This belief is usually based on past performance. The more you successfully perform a task, the more likely you are to believe that you can do it again. A high level of self-efficacy means that you believe you can do something, while a low level of self-efficacy means that you believe you cannot do something.
+7. Personal confidence is the belief that you are able to do something that is important to you. It is based on your experience of successfully achieving your goals in the past, and your belief that you are capable of achieving your goals in the future. It is not based on how you perceive other people to see you, or how they think you should behave. It is based on your experience of being successful in the past, and your belief that you can be successful in the future.
+8. Personal confidence is the belief that you are able to succeed at whatever you take on. It comes from your previous experiences of successfully achieving your goals, and your belief that you are capable of achieving your goals in the future. It does not come from how you are seen by others, or how others think you should behave. It comes from your experience of being successful in the past, and your belief that you can be successful in the future.
+9. Being confidence is important for many reasons. It helps you feel good about yourself, and it helps you reach your goals. It also helps you make decisions that are right for you. People who are confident are more likely to make decisions that are right for themselves, and not make decisions based on what other people think.</v>
+      </c>
+      <c r="B201" t="str" xml:space="preserve">
+        <v xml:space="preserve">1. Jag har
+</v>
+      </c>
+      <c r="C201">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="202" xml:space="preserve">
+      <c r="A202" t="str">
+        <v>The person who has applied for a tourist visa from outside the US will be required to pay the fee of $140. This fee is non-refundable and non-transferable. The fee must be paid in cash at the location where the visa application is submitted. This includes persons who wish to travel to the US and apply for adjustment of status to permanent resident (get a green card) while in the US and persons who have other non-immigrant status (F/M), and who wish to apply for an immigrant visa (get a green card) while in the US. Unfortunately, it is not possible to pay the immigrant visa fee at the same location where you submit the immigrant visa application. Payment of the fee must be made to the US Department of State.</v>
+      </c>
+      <c r="B202" t="str" xml:space="preserve">
+        <v xml:space="preserve">Människan
+</v>
+      </c>
+      <c r="C202">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C97"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C202"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/testing.xlsx
+++ b/testing.xlsx
@@ -1302,13 +1302,13 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>The first thing I noticed about the man was his eyes. They were the color of the sky on a clear day, and they were filled with a sadness that I had never seen before. He was tall and thin, and his clothes were old and worn. He had a long beard and a mustache, and his hair was long and gray. He looked like a man who had been through a lot in his life.</v>
+        <v>Abraham Lincoln, commander in chief of the United States armed forces, and Edwin M. Stanton, Secretary of War, were themselves parties to the attempted arrest, trial and conviction of an American citizen by a military tribunal in the presence of a civil court, in spite of the fact that the enforcement of justice by civil courts was not then impossible. Judge Advocate Holt, in his history of military justice, makes the point that "the Supreme Court in this instance, could hardly have been carried away by any over-zeal for the maintenance of constitutional rights. The judges were all men of experience; men who had passed through the Civil War or the war with Mexico, and two of them by bitter experience in the Northern prisons had had the best education for understanding the difficulties which confront the commander of a military force struggling for existence against armed and organized resistance. Moreover, the first army commander who had encouraged the military commissions in the South on this same ground of necessity had just weeks before been tried and condemned by a military commission for murder. If Judge Advocate Holt's view is correct, the men who were tried in the Milligan case had much less excuse for their conduct than did General Butler</v>
       </c>
       <c r="B2" t="str">
-        <v>Le premier</v>
+        <v>Abraham Li</v>
       </c>
       <c r="C2">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1320,7 +1320,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C156"/>
+  <dimension ref="A1:C95"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -1338,47 +1338,45 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Don’t let anyone tell you how much time you should spend working or how hard you should work. No one knows your circumstances or what matters most to you as much as you do—so no one else can make a judgement about your five-to-nine better than you can. Also, what feels like ‘work’ for one person may not feel like ‘work’ for another person: some people would rather spend seven hours a day on long country walks than two hours commuting into an office; some people want their careers because they enable them to pursue their passions while other people want nothing more than an uncomplicated pay cheque so that they can fund their passions outside of work; and some people want jobs because they want purpose while other people see jobs as nothing more than a means by which they can fund whatever else matters most in their lives (and could happily spend 20 hours a week working on these things rather than 40). Quantity doesn’t mean quality. Be ambitious about your own career—but don’t let the ambition get in the way of what matters most for you personally, about your life outside of work and about your mental health.</v>
+        <v>There are a lot of benefits to being a vegetarian, and it can be highly beneficial for both your health and the environment. Vegetarians tend to have lower rates of heart disease, obesity, type II diabetes, some forms of cancer, and many other diseases than people who eat meat. They also consume more fruits and vegetables than people who eat meat, and these nutrients help keep them healthy. Additionally, some pecuarians oppose the hunting and slaughter of animals for their food, which means that they are helping to reduce the amount of animal cruelty going on in the world.</v>
       </c>
       <c r="B2" t="str">
-        <v>Ne laissez pas</v>
+        <v>Il y a</v>
       </c>
       <c r="C2">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" xml:space="preserve">
-      <c r="A3" t="str" xml:space="preserve">
-        <v xml:space="preserve">Volunteering provides many tangible and intangible benefits.
-The tangible benefits of volunteering can include helping other people, improving one's own skills, building personal relationships, and having fun. The intangible benefits of volunteering can include increased self-awareness, civic engagement, and COMPASS skills.
-The most common tangible benefits of volunteering are helping other people, skill development, and building relationships. Volunteer experiences can help people learn new skills, improve their work ethic, and build social networks. Volunteering can also lead to new opportunities, such as finding a new job or becoming more involved in a community.
-The intangible benefits of volunteering are increased self-awareness, civic engagement, and COMPASS skills. Volunteering can help people learn more about themselves and their community. Furthermore, volunteering can lead to personal growth and development, such as increased empathy and compassion. Additionally, volunteering can increase one's knowledge and understanding of different topics, which can help them in their career or other areas of life.
-Overall, the tangible and intangible benefits of volunteering are significant. Many people find the benefits of volunteering to be worth the time and effort required to participate.</v>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>I want to be happy and fulfilled. I believe that happiness and fulfillment are the key to a healthy life. I want to find a way to be happy and fulfilled without any extra work or stress. I want to find a way to be happy and fulfilled that is sustainable and equal to my own abilities and desires. I want to find a way to be happy and fulfilled that is possible for me to maintain and improve.</v>
       </c>
       <c r="B3" t="str">
-        <v>Le bénévolat</v>
+        <v>Je veux</v>
       </c>
       <c r="C3">
         <v>27</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>The person who has applied for a tourist visa from outside the US will be required to pay the fee of $140. This fee is non-refundable and non-transferable. The fee must be paid in cash at the location where the visa application is submitted. This includes persons who wish to travel to the US and apply for adjustment of status to permanent resident (get a green card) while in the US and persons who have other non-immigrant status (F/M), and who wish to apply for an immigrant visa (get a green card) while in the US. Unfortunately, it is not possible to pay the immigrant visa fee at the same location where you submit the immigrant visa application. Payment of the fee must be made to the US Department of State.</v>
+    <row r="4" xml:space="preserve">
+      <c r="A4" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+Technology has had a major impact on society in many ways. For one, it has made it easier to connect with others, share information, and store information. It has also allowed people to work and communicate more freely. Additionally, technology has made it easier to find and use information.</v>
       </c>
       <c r="B4" t="str">
-        <v>La personne</v>
+        <v>ie</v>
       </c>
       <c r="C4">
         <v>24</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>Understand that old people aren’t actually that worried about old age, according to numerous surveys. The most recent one I can find was undertaken by American research firm NORC in 2016. It polled over 3,000 adults and found that old people are more optimistic about growing old than younger adults: 46 percent of thirty-somethings said they were optimistic about aging, compared to 66 percent for the seventy-pluses. It seems that worrying about growing old is a sign you are young. And the main reason to be optimistic about old age is that old people themselves are. Resilience seems to grow.</v>
+    <row r="5" xml:space="preserve">
+      <c r="A5" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+The Catcher in the Rye is a book that I absolutely loved. I think that it is a book that is about how a young boy named Holden Caulfield feels about his life. Holden is a young boy who is live in a small town in New England. He is a young boy who is feeling very alone and lost. Holden Caulfield is feeling very lonely and lost.</v>
       </c>
       <c r="B5" t="str">
-        <v>Comprendre</v>
+        <v>La prise</v>
       </c>
       <c r="C5">
         <v>25</v>
@@ -1386,58 +1384,60 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Margaret Sullivan: I had been at a small newspaper in California. I started my career at an evening daily newspaper called The San Bernardino Sun. I went straight from there to The New York Times in 1981. So it was a huge—it was a big leap in many ways—a leap into cultural elitism and sophistication. It was a wonderful, wonderful place to work. It was a very exciting time to be there because we were growing. Our circulation at the time was about 1.1 million. We were a big paper then. It's half that now. But we were in a great building in Times Square, and it was just exciting and exhilarating as you can imagine.</v>
+        <v>The author briefly explains the customs in Antigua and Barbuda before delving into the novel's themes. He portrays these cultures as distinctly Caribbean, with vibrant rhythms and rich traditions that have been maintained for centuries. The story follows twin sisters who are torn apart by their parents' decision to send one of them away to be educated in America; upon her return home, she discovers a drastically different country than when she left. In spite of this turmoil, the sister reconnects with old friends and finds love again - ultimately indicating that even exile can bring about forgiveness and hope.</v>
       </c>
       <c r="B6" t="str">
-        <v>Margaret S</v>
+        <v>L'auteur</v>
       </c>
       <c r="C6">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>Abraham Lincoln, commander in chief of the United States armed forces, and Edwin M. Stanton, Secretary of War, were themselves parties to the attempted arrest, trial and conviction of an American citizen by a military tribunal in the presence of a civil court, in spite of the fact that the enforcement of justice by civil courts was not then impossible. Judge Advocate Holt, in his history of military justice, makes the point that "the Supreme Court in this instance, could hardly have been carried away by any over-zeal for the maintenance of constitutional rights. The judges were all men of experience; men who had passed through the Civil War or the war with Mexico, and two of them by bitter experience in the Northern prisons had had the best education for understanding the difficulties which confront the commander of a military force struggling for existence against armed and organized resistance. Moreover, the first army commander who had encouraged the military commissions in the South on this same ground of necessity had just weeks before been tried and condemned by a military commission for murder. If Judge Advocate Holt's view is correct, the men who were tried in the Milligan case had much less excuse for their conduct than did General Butler</v>
+        <v>The young woman in the photograph is Misery. Her eyes are sunken, her face gaunt and drawn with embarrassment. She's wearing a shabby dress and an expression of utter hopelessness graces her features. While it's not clear who this woman is or where the photo was taken, they have left us one lasting reminder: that behind every beautiful smile lies pain and suffering.</v>
       </c>
       <c r="B7" t="str">
-        <v>Abraham Li</v>
+        <v>Le jeune</v>
       </c>
       <c r="C7">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>The impact of climate change on the mental health of young people is poorly understood. Emerging evidence suggests that exposure to climate change exerts a disproportionate mental health burden on young people. An understanding of the risk factors (RFs) and protective factors (PFs) that affect the likelihood of mental health impacts arising from exposure to climate change is required to support youth wellbeing. Aims/objectives: This review scopes the current research on what and how RFs and PFs are related to the mental health impacts of both direct and indirect exposure to climate change for young people. RFs and PFs were reviewed through the lens of ecological system theory. Methods: We conducted systematic searches in four databases: PubMed, PsycInfo, Web of Science, and Scopus. Grey literature searches were conducted in ProQuest Dissertations, GreyLit.org, OpenGrey, and relevant organisations’ websites. We included 92 empirical studies focused on the RFs and PFs of the mental wellbeing under the impact of climate change of young people (0–24). We extracted data on study characteristics, type of climate change event, mental health outcomes, RFs and PFs, and associated ecological system level. Results: The current evidence base focuses predominantly on young people’s experience of PTSD (k = 59), depression (k = 26), or anxiety (k = 17) mainly following exposure to singular climate change-related natural disaster events. Only four studies explored the impacts of climate change in general. Majority of the studies investigated RFs and PFs at the individual level and at the micro-system level. Conclusions: Several RFs and PFs were identified, such as coping strategies, family factors (e.g. parenting style), social support, community connection, and cultural identity. Positioning the mental health impacts of singular events within the broader context of ongoing and escalating climate change impacts will better inform the development of interventions that seek to build resilience among young people.</v>
+        <v>We do have food; however, I am currently unsure concerning the variety that would appease your appetite at this present point in our dialogue together while enjoying ourselves within each other's company here on Earth on our glorious planet that orbits around a star found within one galaxy of potentially infinite galaxies inhabited by extreme possibilities surrounding all manifestations and idea(s)</v>
       </c>
       <c r="B8" t="str">
-        <v>L'impact</v>
+        <v>Nous avons.</v>
       </c>
       <c r="C8">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" xml:space="preserve">
-      <c r="A9" t="str" xml:space="preserve">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>To be considered successful, a business must have a long-term outlook, be able to generate consistent revenue, have a loyal customer base, and be able to make strategic decisions.</v>
+      </c>
+      <c r="B9" t="str">
+        <v>pour être constant</v>
+      </c>
+      <c r="C9">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" xml:space="preserve">
+      <c r="A10" t="str" xml:space="preserve">
         <v xml:space="preserve">
-Technology has had a major impact on society in many ways. For one, it has made it easier to connect with others, share information, and store information. It has also allowed people to work and communicate more freely. Additionally, technology has made it easier to find and use information.</v>
-      </c>
-      <c r="B9" t="str">
-        <v>ie</v>
-      </c>
-      <c r="C9">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="str">
-        <v>But the great security against a gradual concentration of the several powers in the same department, consists in giving to those who administer each department the necessary constitutional means and personal motives to resist encroachments of the others. The provision for defense must in this, as in all other cases, be made commensurate to the danger of attack. Ambition must be made to counteract ambition. The interest of the man must be connected with the constitutional rights of the place. It may be a reflection on human nature, that such devices should be necessary to control the abuses of government. But what is government itself, but the greatest of all reflections on human nature? If men were angels, no government would be necessary. If angels were to govern men, neither external nor internal controls on government would be necessary.</v>
+There is no one answer to this question as the relationship between religion and atheism can vary significantly depending on the individual. However, some basic points could be covered in regards to how Religion and Atheism interact. 
+First and foremost, there is a strong connection between atheism and skepticism. Skepticism is the belief that all physical objects, including gods and miracles, are illusion or Conjured up by someone's mind. Secondly, atheists often accuse religious people of being hypocritical for claiming to believe in something while engaging in immoral activities. Finally, atheists often feel that religion often uses fear and superstition to manipulate people. These accusations can create a divide between atheists and religious people who may see the relationship as positive.
+On the other hand, Religion does have a place in atheism. Many atheist groups exist both to argue against religion and also provide support for atheists who want to practice their own form of atheism without subscribing to any specific dogma. In addition, atheist leaders have made it clear that Atheism does not mean giving up our human rights or morals.</v>
       </c>
       <c r="B10" t="str">
-        <v>Mais le gr</v>
+        <v>Il y a</v>
       </c>
       <c r="C10">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11">
@@ -1451,42 +1451,19 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" xml:space="preserve">
-      <c r="A12" t="str" xml:space="preserve">
-        <v xml:space="preserve">
-The Catcher in the Rye is a book that I absolutely loved. I think that it is a book that is about how a young boy named Holden Caulfield feels about his life. Holden is a young boy who is live in a small town in New England. He is a young boy who is feeling very alone and lost. Holden Caulfield is feeling very lonely and lost.</v>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>But the great security against a gradual concentration of the several powers in the same department, consists in giving to those who administer each department the necessary constitutional means and personal motives to resist encroachments of the others. The provision for defense must in this, as in all other cases, be made commensurate to the danger of attack. Ambition must be made to counteract ambition. The interest of the man must be connected with the constitutional rights of the place. It may be a reflection on human nature, that such devices should be necessary to control the abuses of government. But what is government itself, but the greatest of all reflections on human nature? If men were angels, no government would be necessary. If angels were to govern men, neither external nor internal controls on government would be necessary. In framing a government which is to be administered by men over men, the great difficulty lies in this: you must first enable the government to control the governed; and in the next place oblige it to control itself. A dependence on the people is, no doubt, the primary control on the government; but experience has taught mankind the necessity of auxiliary precautions.</v>
       </c>
       <c r="B12" t="str">
-        <v>La prise</v>
+        <v>Mais le gr</v>
       </c>
       <c r="C12">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="str">
-        <v>The young woman in the photograph is Misery. Her eyes are sunken, her face gaunt and drawn with embarrassment. She's wearing a shabby dress and an expression of utter hopelessness graces her features. While it's not clear who this woman is or where the photo was taken, they have left us one lasting reminder: that behind every beautiful smile lies pain and suffering.</v>
-      </c>
-      <c r="B13" t="str">
-        <v>Le jeune</v>
-      </c>
-      <c r="C13">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="str">
-        <v>But the great security against a gradual concentration of the several powers in the same department, consists in giving to those who administer each department the necessary constitutional means and personal motives to resist encroachments of the others. The provision for defense must in this, as in all other cases, be made commensurate to the danger of attack. Ambition must be made to counteract ambition. The interest of the man must be connected with the constitutional rights of the place. It may be a reflection on human nature, that such devices should be necessary to control the abuses of government. But what is government itself, but the greatest of all reflections on human nature? If men were angels, no government would be necessary. If angels were to govern men, neither external nor internal controls on government would be necessary. In framing a government which is to be administered by men over men, the great difficulty lies in this: you must first enable the government to control the governed; and in the next place oblige it to control itself. A dependence on the people is, no doubt, the primary control on the government; but experience has taught mankind the necessity of auxiliary precautions.</v>
-      </c>
-      <c r="B14" t="str">
-        <v>Mais le gr-</v>
-      </c>
-      <c r="C14">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" xml:space="preserve">
-      <c r="A15" t="str" xml:space="preserve">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" xml:space="preserve">
+      <c r="A13" t="str" xml:space="preserve">
         <v xml:space="preserve">There are many benefits to exercise, both physically and mentally. Physical benefits include improved heart health, stronger muscles, reduced fat storage, and an increased ability to move more easily. Mental benefits include better concentration, reduced stress levels, and enhanced moods.
 Physical benefits of exercise include: 
 Improved heart health. Exercise has been shown to improve blood circulation and reduce the risk of heart disease by helping prevent the buildup of plaque on arteries walls. Additionally, regular exercise can help reduce the amount of fat around the midsection, which in turn can reduce the risk of heart disease and stroke.
@@ -1498,6 +1475,28 @@
 Reduced stress levels. Exercise has been shown to decrease stress levels by releasing endorphins – hormones that protect the body against pain – in our brains. Endorphins are also responsible for producing positive feelings such as happiness and euphoria. Consequently, being stressed out while trying to workout may lead to negative effects such as fatigue, irritability, and increased anxiety levels. By doing mediation or deep breathing exercises before your workout, you can help ease into a state of relaxation before beginning your routine. This should result in improved mental clarity and energy during your workout session.
 Enhanced moods. Exercise has consistently been shown to improve moods by decreasing stress hormones like cortisol and elevating serotonin levels in the brain. Serotonin is a neurotransmitter responsible for regulating emotional reactions such as happiness, hunger, sleepiness, anxiety, depression, anger, and addiction behavior . Elevated serotonin levels may contribute to an improved sense of well-being after working out due to its role in managing emotions effectively .</v>
       </c>
+      <c r="B13" t="str">
+        <v>Il y a</v>
+      </c>
+      <c r="C13">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>The impact of climate change on the mental health of young people is poorly understood. Emerging evidence suggests that exposure to climate change exerts a disproportionate mental health burden on young people. An understanding of the risk factors (RFs) and protective factors (PFs) that affect the likelihood of mental health impacts arising from exposure to climate change is required to support youth wellbeing. Aims/objectives: This review scopes the current research on what and how RFs and PFs are related to the mental health impacts of both direct and indirect exposure to climate change for young people. RFs and PFs were reviewed through the lens of ecological system theory. Methods: We conducted systematic searches in four databases: PubMed, PsycInfo, Web of Science, and Scopus. Grey literature searches were conducted in ProQuest Dissertations, GreyLit.org, OpenGrey, and relevant organisations’ websites. We included 92 empirical studies focused on the RFs and PFs of the mental wellbeing under the impact of climate change of young people (0–24). We extracted data on study characteristics, type of climate change event, mental health outcomes, RFs and PFs, and associated ecological system level. Results: The current evidence base focuses predominantly on young people’s experience of PTSD (k = 59), depression (k = 26), or anxiety (k = 17) mainly following exposure to singular climate change-related natural disaster events. Only four studies explored the impacts of climate change in general. Majority of the studies investigated RFs and PFs at the individual level and at the micro-system level. Conclusions: Several RFs and PFs were identified, such as coping strategies, family factors (e.g. parenting style), social support, community connection, and cultural identity. Positioning the mental health impacts of singular events within the broader context of ongoing and escalating climate change impacts will better inform the development of interventions that seek to build resilience among young people.</v>
+      </c>
+      <c r="B14" t="str">
+        <v>L'impact</v>
+      </c>
+      <c r="C14">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>There are many golden things one may find at an age when most people have had the time and wisdom accumulated through decades of study to look around; there is much beauty left for them even if their bodies can't move as fluidly as those belonging to younger generations do so well right now which include loving feelings that come forth again after finding out how precious each moment might be during senior years along with living while cherishing whatever small things turn up unexpectedly every day despite its simplicity instead of crying over spilled milk simply caused by temporary failures back then since it's never too late once we feel optimistic about what lies ahead whatsoever whether pleasant or unpleasant from beginning until the end regardless who else feel contented everyday despite mistakes made throughout journeys within past seasons before eventually calming down due having tons more responsibilities than usual either way on account(in part)to different relationships for instance intimate ones leading to marriage including parents giving birth multiple times following extramarital affairs ending up conflicting constantly meaning old people aren’t regarded very highly these days whereas some elderly individuals get treated worse off (when compared against young folks) due(in part)to different relationships for example intimate ones leading to marriage so we don't have to deal with their own parents or kids getting involved figuratively from now on.</v>
+      </c>
       <c r="B15" t="str">
         <v>Il y a</v>
       </c>
@@ -1505,37 +1504,42 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="str">
-        <v>No man is an Island, entire of it self; every man is a piece of the Continent, a part of the main; if a clod be washed away by the sea, Europe is the less, as well as ifa promitory were, as well as if a manor of thy friends or of thine own were; any man's death diminishes me, because I am involved in Mankind; And therefore never send to know for whom the bell tolls; It tolls for thee.</v>
+    <row r="16" xml:space="preserve">
+      <c r="A16" t="str" xml:space="preserve">
+        <v xml:space="preserve">Volunteering provides many tangible and intangible benefits.
+The tangible benefits of volunteering can include helping other people, improving one's own skills, building personal relationships, and having fun. The intangible benefits of volunteering can include increased self-awareness, civic engagement, and COMPASS skills.
+The most common tangible benefits of volunteering are helping other people, skill development, and building relationships. Volunteer experiences can help people learn new skills, improve their work ethic, and build social networks. Volunteering can also lead to new opportunities, such as finding a new job or becoming more involved in a community.
+The intangible benefits of volunteering are increased self-awareness, civic engagement, and COMPASS skills. Volunteering can help people learn more about themselves and their community. Furthermore, volunteering can lead to personal growth and development, such as increased empathy and compassion. Additionally, volunteering can increase one's knowledge and understanding of different topics, which can help them in their career or other areas of life.
+Overall, the tangible and intangible benefits of volunteering are significant. Many people find the benefits of volunteering to be worth the time and effort required to participate.</v>
       </c>
       <c r="B16" t="str">
-        <v>perfect.</v>
+        <v>Le bénévolat</v>
       </c>
       <c r="C16">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>People don't know where to place me. Terry Gilliam used me as a quirky cop in 'Twelve Monkeys', and then he hired me again to be an effeminate hotel clerk in 'Fear and Loathing in Las Vegas'. Another time, I was shooting this indie film 'The Souler Opposite' and six days a week, I'm playing this big puppy dog, then I come to the 'NYPD Blue' set and become this scumbag.</v>
+        <v>Understand that old people aren’t actually that worried about old age, according to numerous surveys. The most recent one I can find was undertaken by American research firm NORC in 2016. It polled over 3,000 adults and found that old people are more optimistic about growing old than younger adults: 46 percent of thirty-somethings said they were optimistic about aging, compared to 66 percent for the seventy-pluses. It seems that worrying about growing old is a sign you are young. And the main reason to be optimistic about old age is that old people themselves are. Resilience seems to grow.</v>
       </c>
       <c r="B17" t="str">
-        <v>Les gens</v>
+        <v>Comprendre</v>
       </c>
       <c r="C17">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="str">
-        <v>1. Eat well. Our brains are 60 per cent fat, so we need the good kind of healthy fat—Omega 3—for our brain health. Other nutrients that help our brain include vitamin B, vitamin E, and foods like blueberries and broccoli. Foods like broccoli and blueberries are good for us, but they don’t taste like, say, a meatball sub with cheese fries. What can help is to think how quickly bad food makes us feel bad. It might take us an hour to eat a cheeseburger, but it will take our mood maybe only ten minutes to decline. If healthy food can take that long to digest, surely it is worth waiting for the positive effects? It has long been known how important diet is for physical health. But now there is evidence of how it can benefit our mood too. A study in Biological Psychiatry, for example, found that healthy dietary patterns that included foods like fish, fruit, and vegetables was associated with lower levels of depression.</v>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" xml:space="preserve">
+      <c r="A18" t="str" xml:space="preserve">
+        <v xml:space="preserve">There are many reasons why this change might happen. First, as businesses become aware of the value of having a diverse workforce, they are able to see the cost-benefit of increasing inclusion. This means that they can afford to invest in establishment of rules and procedures that benefit all employees regardless of sex. Second, businesses have been gradually realizing that successful organizations cannot only rely on hired workers alone; they also needokoaborforce members who can contribute both theory and practice. And finally, recent studies have shown thatreatedworkers fairly improves productivity for all employees (Snyder et al., 2006). Thus, adapting policies and procedures in order to meet the needs of transgender employees is becoming increasingly popular among business leaders.
+Although there are some challenges associated with implementing such policies, I believe that these efforts will result in massive improvements for both men and women working in the workplace. In fact, I predict that over time, we will see an even larger increase in women's representation within businesses - and this growth will be based largely on increased awareness and sensitivity towards minority groups within workplaces.</v>
       </c>
       <c r="B18" t="str">
-        <v>1. Bien manger</v>
+        <v>Il y a</v>
       </c>
       <c r="C18">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19">
@@ -1551,132 +1555,226 @@
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>I want to be happy and fulfilled. I believe that happiness and fulfillment are the key to a healthy life. I want to find a way to be happy and fulfilled without any extra work or stress. I want to find a way to be happy and fulfilled that is sustainable and equal to my own abilities and desires. I want to find a way to be happy and fulfilled that is possible for me to maintain and improve.</v>
+        <v>1. Eat well. Our brains are 60 per cent fat, so we need the good kind of healthy fat—Omega 3—for our brain health. Other nutrients that help our brain include vitamin B, vitamin E, and foods like blueberries and broccoli. Foods like broccoli and blueberries are good for us, but they don’t taste like, say, a meatball sub with cheese fries. What can help is to think how quickly bad food makes us feel bad. It might take us an hour to eat a cheeseburger, but it will take our mood maybe only ten minutes to decline. If healthy food can take that long to digest, surely it is worth waiting for the positive effects? It has long been known how important diet is for physical health. But now there is evidence of how it can benefit our mood too. A study in Biological Psychiatry, for example, found that healthy dietary patterns that included foods like fish, fruit, and vegetables was associated with lower levels of depression.</v>
       </c>
       <c r="B20" t="str">
-        <v>Je veux</v>
+        <v>1. Bien manger</v>
       </c>
       <c r="C20">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>The internet has a large effect on creativity because it allows people to connect with other people and share ideas. It also allows people to access a wide variety of information and ideas. This allows people to build new ideas and come up with new ways to solve problems. The internet also allows people to share their ideas with others and get ideas from others.</v>
+        <v>Don’t let anyone tell you how much time you should spend working or how hard you should work. No one knows your circumstances or what matters most to you as much as you do—so no one else can make a judgement about your five-to-nine better than you can. Also, what feels like ‘work’ for one person may not feel like ‘work’ for another person: some people would rather spend seven hours a day on long country walks than two hours commuting into an office; some people want their careers because they enable them to pursue their passions while other people want nothing more than an uncomplicated pay cheque so that they can fund their passions outside of work; and some people want jobs because they want purpose while other people see jobs as nothing more than a means by which they can fund whatever else matters most in their lives (and could happily spend 20 hours a week working on these things rather than 40). Quantity doesn’t mean quality. Be ambitious about your own career—but don’t let the ambition get in the way of what matters most for you personally, about your life outside of work and about your mental health.</v>
       </c>
       <c r="B21" t="str">
-        <v>Le stagiaire</v>
+        <v>Ne laissez pas</v>
       </c>
       <c r="C21">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>It’s been said that insanity is doing the same thing over and over again and expecting different results. In today’s world, this often describes our approach to finances. We go through cycles of spending more money than we have, then reducing expenditures when faced with tough times only to get back into a cycle of increased borrowing that eventually destroys whatever good progress has been made. Financial planning should not be viewed as rote repetition but instead as an ongoing discussion between you and your financial advisor; one in which realistic goals are set together with the necessary compromises so both parties can reach them satisfactorily.</v>
+        <v>The obesity epidemic is on the rise, and it’s not just a problem for older adults. Obesity rates are increasing for everyone, regardless of age. A study from The Lancet found that overall, obesity rates have increased in every country studied since 1993. The reasons behind this increase are many, but one big factor is changes in eating habits. Obesity is now more likely because people are eating more processed foods andriel lamborghini Odd Future lip sync youtube than they were in the past. In addition, there is an increase in physical activity levels, which has led to an increase in weight and inches across the board. There are many ways to help fight against obesity, and you don’t have to be obese to see the effects. Education is key – provide children and adults with information about what calories really mean and howto lose weight safely. Let people know that healthy eating habits consist of eating plenty of fruits and vegetables, low-fat proteins, whole grains, nuts and seeds, low-calorie dairy products, poultry or fish instead of pork or fast food restaurants. It can be difficult to change general behavior when unhealthy eating habits are entrenched, but there are some things you can do to make a difference. One approach istargeting those who have been previously successful at losing weight – including parents or adults who know their own potential body size – by providing them with Prevention programs specifically designed for them. Another approach is to create healthier lifestyles around meals. Eating a balanced diet that includes fruits and vegetables, whole grains, nuts and seeds, lower-calorie dairy products, poultry or fish instead of pork or fast food restaurants will help you lose weight while maintaining your health condition.</v>
       </c>
       <c r="B22" t="str">
-        <v>Ça fait</v>
+        <v>é (sans accent)</v>
       </c>
       <c r="C22">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>... business training in early life should not be regarded solely as insurance against destitution in the case of an emergency. For from business experience women can gain, too, knowledge of the world and of human beings, which should be of immeasurable value to their marriage careers. Self-discipline, co-operation, adaptability, efficiency, economic management,?if she learns these in her business life she is liable for many less heartbreaks and disappointments in her married life.</v>
+        <v>People don't know where to place me. Terry Gilliam used me as a quirky cop in 'Twelve Monkeys', and then he hired me again to be an effeminate hotel clerk in 'Fear and Loathing in Las Vegas'. Another time, I was shooting this indie film 'The Souler Opposite' and six days a week, I'm playing this big puppy dog, then I come to the 'NYPD Blue' set and become this scumbag.</v>
       </c>
       <c r="B23" t="str">
-        <v>ss</v>
+        <v>Les gens</v>
       </c>
       <c r="C23">
         <v>24</v>
       </c>
     </row>
-    <row r="24" xml:space="preserve">
-      <c r="A24" t="str" xml:space="preserve">
-        <v xml:space="preserve">
-There is no one answer to this question as the relationship between religion and atheism can vary significantly depending on the individual. However, some basic points could be covered in regards to how Religion and Atheism interact. 
-First and foremost, there is a strong connection between atheism and skepticism. Skepticism is the belief that all physical objects, including gods and miracles, are illusion or Conjured up by someone's mind. Secondly, atheists often accuse religious people of being hypocritical for claiming to believe in something while engaging in immoral activities. Finally, atheists often feel that religion often uses fear and superstition to manipulate people. These accusations can create a divide between atheists and religious people who may see the relationship as positive.
-On the other hand, Religion does have a place in atheism. Many atheist groups exist both to argue against religion and also provide support for atheists who want to practice their own form of atheism without subscribing to any specific dogma. In addition, atheist leaders have made it clear that Atheism does not mean giving up our human rights or morals.</v>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>It’s been said that insanity is doing the same thing over and over again and expecting different results. In today’s world, this often describes our approach to finances. We go through cycles of spending more money than we have, then reducing expenditures when faced with tough times only to get back into a cycle of increased borrowing that eventually destroys whatever good progress has been made. Financial planning should not be viewed as rote repetition but instead as an ongoing discussion between you and your financial advisor; one in which realistic goals are set together with the necessary compromises so both parties can reach them satisfactorily.</v>
       </c>
       <c r="B24" t="str">
-        <v>Il y a</v>
+        <v>Ça fait...</v>
       </c>
       <c r="C24">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="str">
-        <v>There are a lot of benefits to being a vegetarian, and it can be highly beneficial for both your health and the environment. Vegetarians tend to have lower rates of heart disease, obesity, type II diabetes, some forms of cancer, and many other diseases than people who eat meat. They also consume more fruits and vegetables than people who eat meat, and these nutrients help keep them healthy. Additionally, some pecuarians oppose the hunting and slaughter of animals for their food, which means that they are helping to reduce the amount of animal cruelty going on in the world.</v>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" xml:space="preserve">
+      <c r="A25" t="str" xml:space="preserve">
+        <v xml:space="preserve">The Scopes trial of 1925 was one of the most significant events in American History. The trial was fought over the belief of creationism, or the belief that God created the universe and all that exists within it in its present form. The trial pitted science against religion and it was seen as a battle between the individual and the establishment.
+The trial began in Dayton, Tennessee on February 24th and ended on March 25th. The trial was presided over by John T. Scopes and it involved the trial of William Jennings Bryan, a well-known religious figure who was the most vocal opponent of creationism. Bryan was charged with breaking the Tennessee law against teaching evolution, which was seen by many as an attack on religious beliefs.
+The trial was a famous one and it had a large impact on American society. The outcome of the trial was controversial and it created a divide in the American public. The majority of the population believed in evolution and saw the trial as a battle between science and religion. However, there was a small group of people who believed in creationism and they saw the trial as a battle between good and evil.
+The trial was a significant event in American History because it created a divide in the American public. The majority of the population believed in evolution and saw the trial as a battle between science and religion. However, there was a small group of people who believed in creationism and they saw the trial as a battle between good and evil. The outcome of the trial was controversial and it created a divide in the American public. The majority of the population believed in evolution and saw the trial as a battle between science and religion. However, there was a small group of people who believed in creationism and they saw the trial as a battle between good and evil. The outcome of the trial was controversial and it created a divide in the American public. The majority of the population believed in evolution and saw the trial as a battle between science and religion. However, there was a small group of people who believed in creationism and they saw the trial as a battle between good and evil.</v>
       </c>
       <c r="B25" t="str">
-        <v>Il y a</v>
+        <v>Les scopes</v>
       </c>
       <c r="C25">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="26" xml:space="preserve">
-      <c r="A26" t="str" xml:space="preserve">
-        <v xml:space="preserve">There are many reasons why this change might happen. First, as businesses become aware of the value of having a diverse workforce, they are able to see the cost-benefit of increasing inclusion. This means that they can afford to invest in establishment of rules and procedures that benefit all employees regardless of sex. Second, businesses have been gradually realizing that successful organizations cannot only rely on hired workers alone; they also needokoaborforce members who can contribute both theory and practice. And finally, recent studies have shown thatreatedworkers fairly improves productivity for all employees (Snyder et al., 2006). Thus, adapting policies and procedures in order to meet the needs of transgender employees is becoming increasingly popular among business leaders.
-Although there are some challenges associated with implementing such policies, I believe that these efforts will result in massive improvements for both men and women working in the workplace. In fact, I predict that over time, we will see an even larger increase in women's representation within businesses - and this growth will be based largely on increased awareness and sensitivity towards minority groups within workplaces.</v>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>I'm a fan of horrors. I love the ones that make you jump. My girlfriend hates it. I've been dating her for one-and-a-half years and I'm crazy about her, but she's terrified of horror films. Not the cute 'Will you hold me?' way, but she's weeping. With 'House of Wax,' we'll be sleeping and I'll go to the bathroom and she's sitting up waiting for me.</v>
       </c>
       <c r="B26" t="str">
-        <v>Il y a</v>
+        <v>Je suis fan.</v>
       </c>
       <c r="C26">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="str">
-        <v xml:space="preserve"> There is a problem with the way that the website is handling user input. When someone tries to enter text into a text field, the website often doesn't allow them to continue typing because it instead automatically inserts a space. This results in the person being unable to submit their form.</v>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" xml:space="preserve">
+      <c r="A27" t="str" xml:space="preserve">
+        <v xml:space="preserve">As humans, we are constantly seeking approval and understanding. We need people in our lives to tell us what is right and what is wrong, to validate our choices, and to love us without reservation. Being a good person allows us to feel connected to others around us, and makes life more fun. Here are five reasons why it is so important for everyone to be a good person:
+1. It can make you happier. When you find joy in your life, everything else seems much easier. People tend to achieve happiness when they have purpose and meaning in their lives. Good people can often remember happy memories while bad people forget very quickly. being a good person gives somebody else's happiness some focus, which makes them likely to stay positive throughout their day.
+2. It can help you make better decisions. Good decisions involve taking information into account, weighing the pros and cons of different options, and Imagining the future. The more time you spend thinking positively about yourself, the better chance you have of making sound judgement calls that lead to successful outcomes.
+3. It can protect you from harm.Good people are frequently seen as the Buffer Between Safety and Danger because they take extra precautions such as being kind-hearted and watching out for others, even if they don't always know what they're doing. They also listen carefully when someone needs help, offer support if possible, or take action when something bad happens. This type of behavior strengthens relationships by reassuring other members of the community that someone will keep them safe no matter what – even if that individual isn't particularlyocial or safe-minded themselves!
+4. It can make you happier than bad people. When somebody is behaving in an immoral or harmful way (e.g., by harming another person), it feels satisfying and like they're getting away with murder – in a way that good people never experience pleasure from anything they do! People who are good at living constructive meaningful lives generally have a much harder time feeling angry or resentful towards others than those who aren't so lucky (or who choose not to try). In fact, most research indicates that having such positive outlooks leads individuals to report lower levels of anger, stress, worry etc., compared with individuals with negative outlooks on themselves or on the world around them.
+5. It can help you get along with others.Everybody needs to feel accepted and liked at some point in their lives, no matter how popular or popularized that idea may be. Being kind-hearted and humble will do the trick – even if you don't receive a lot of compliments for it in your day-to-day life. People who are good people generally have better relationships than those who aren't. They typically understand and know how to communicate effectively, which allows them to build Trust faster than those who are not so inclined.</v>
       </c>
       <c r="B27" t="str">
-        <v>Il y a</v>
+        <v>En tant qu'êtres humains,</v>
       </c>
       <c r="C27">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>Four hours of makeup, and then an hour to take it off. It's tiring. I go in, I get picked up at two-thirty in the morning, I get there at three. I wait four hours, go through it, ready to work at seven, work all day long for twelve hours, and get it taken off for an hours, go home and go to sleep, and do the same thing again.</v>
+        <v>The Nameless is the origin of Heaven and Earth; The Named is the mother of all things.  Therefore let there always be non-being  so we may see their subtlety, And let there always be being so we may see their outcome.  The two are the same, But after they are produced, they have different names.  They both may be called deep and profound.  Deeper and more profound, The door of all subtleties!</v>
       </c>
       <c r="B28" t="str">
-        <v>Quatre heures</v>
+        <v>Le Namele</v>
       </c>
       <c r="C28">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="str">
-        <v>There are many golden things one may find at an age when most people have had the time and wisdom accumulated through decades of study to look around; there is much beauty left for them even if their bodies can't move as fluidly as those belonging to younger generations do so well right now which include loving feelings that come forth again after finding out how precious each moment might be during senior years along with living while cherishing whatever small things turn up unexpectedly every day despite its simplicity instead of crying over spilled milk simply caused by temporary failures back then since it's never too late once we feel optimistic about what lies ahead whatsoever whether pleasant or unpleasant from beginning until the end regardless who else feel contented everyday despite mistakes made throughout journeys within past seasons before eventually calming down due having tons more responsibilities than usual either way on account(in part)to different relationships for instance intimate ones leading to marriage including parents giving birth multiple times following extramarital affairs ending up conflicting constantly meaning old people aren’t regarded very highly these days whereas some elderly individuals get treated worse off (when compared against young folks) due(in part)to different relationships for example intimate ones leading to marriage so we don't have to deal with their own parents or kids getting involved figuratively from now on.</v>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" xml:space="preserve">
+      <c r="A29" t="str" xml:space="preserve">
+        <v xml:space="preserve">In Lev Grossman's book, The Magicians, the protagonist Quentin Coldwater is a student at Brakebills University, where he studies magic. Quentin's journey to become a magus is met with many obstacles, but eventually he discovers the secret to becoming a great magician: hard work and dedication. Quentin's struggles are not unique to him, but are common to any person who desires to achieve something great.
+There are countless obstacles that must be overcome in order to become a great magician. The first and most important step is gaining an understanding of magic. This knowledge can be found in books or by studying with a professional. Once the basics of magic are understood, it is important to develop one's skill. This can be done by practicing regularly and learning from the best teachers. In addition, it is essential to have faith in oneself and never give up on one's dreams.
+Despite all these obstacles, any person can achieve greatness if they are willing to put in the work. Quentin Coldwater proves this point by his perseverance through difficult trials and tribulations. He never gives up on his dreams and always works hard toward his goals. In the end, Quentin Coldwater is a successful magus and his story shows that anyone can achieve greatness if they are willing to work hard for it.</v>
       </c>
       <c r="B29" t="str">
-        <v>Il y a</v>
+        <v>Dans Lev Gro.</v>
       </c>
       <c r="C29">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" xml:space="preserve">
       <c r="A30" t="str" xml:space="preserve">
         <v xml:space="preserve">
-I am creating a lightweight tool to help automate the process of finding and verifying software dependencies. The tool will be able to find and verify dependencies using a variety of methods, including but not limited to, command line options, API calls, and a comprehensive search engine. The tool will also be able to generate reports detailing the dependencies found and the status of each dependency.</v>
+I was wondering if you could tell me how to make these math problems more interesting.</v>
       </c>
       <c r="B30" t="str">
-        <v>Je crée</v>
+        <v>J'ai gagné.</v>
       </c>
       <c r="C30">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>The other day I got a text from a boy, but it wasn't hot. I mean, if you're going to text me every day, you haven't seen me for months and you're trying to seduce me, you'd better spice up that text and make it more exciting than 'How was your day? I hope you're having a beautiful one.' Sadly, I haven't been doing a lot of kissing lately.</v>
+      </c>
+      <c r="B31" t="str">
+        <v>L'autre</v>
+      </c>
+      <c r="C31">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>...But nature does not say that cats are more valuable than mice; nature makes no remark on the subject. She does not even say that the cat is enviable or the mouse pitiable. We think the cat superior because we have (or most of us have) a particular philosophy to the effect that life is better than death. But if the mouse were a German pessimist mouse, he might not think that the cat had beaten him at all. He might think he had beaten the cat by getting to the grave first.</v>
+      </c>
+      <c r="B32" t="str">
+        <v>...Mais naturellement</v>
+      </c>
+      <c r="C32">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>A couple of months ago, I was down in Florida for the Food and Wine Festival. And this journalist grabbed me and said, 'How does it feel to be a TV guy? You're no longer in the restaurant business.' And I laughed. I asked him, 'How long do you think it takes me to do a season?' He said, 'Well, 200 days.' And I was like, '200 days? Try 20!'</v>
+      </c>
+      <c r="B33" t="str">
+        <v>Un couple</v>
+      </c>
+      <c r="C33">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>Change begets change. Nothing propagates so fast. If a man habituated to a narrow circle of cares and pleasures, out of which he seldom travels, step beyond it, though for never so brief a space, his departure from the monotonous scene on which he has been an actor of importance would seem to be the signal for instant confusion.... The mine which Time has slowly dug beneath familiar objects is sprung in an instant; and what was rock before, becomes but sand and dust.</v>
+      </c>
+      <c r="B34" t="str">
+        <v>Changement</v>
+      </c>
+      <c r="C34">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>The internet has a large effect on creativity because it allows people to connect with other people and share ideas. It also allows people to access a wide variety of information and ideas. This allows people to build new ideas and come up with new ways to solve problems. The internet also allows people to share their ideas with others and get ideas from others.</v>
+      </c>
+      <c r="B35" t="str">
+        <v>Le stagiaire.</v>
+      </c>
+      <c r="C35">
         <v>27</v>
       </c>
     </row>
-    <row r="31" xml:space="preserve">
-      <c r="A31" t="str" xml:space="preserve">
+    <row r="36">
+      <c r="A36" t="str">
+        <v>I can't do the same movies all my life. I'm conscious of that. But it's a trade-off. 'Dear John' allowed me to do movies I've wanted to do. You learn to balance it out. I'm still learning. Only now am I getting to do the kinds of movies that I have wanted to do. So it's a steady climb. You don't jump into a Soderbergh film.</v>
+      </c>
+      <c r="B36" t="str">
+        <v>Je ne peux pas faire.</v>
+      </c>
+      <c r="C36">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>Hearing, seeing and understanding each other, humanity from one end of the earth to the other now lives simultaneously, omnipresent like a god thanks to its own creative ability. And, thanks to its victory over space and time, it would now be splendidly united for all time, if it were not confused again and again by that fatal delusion which causes humankind to keep on destroying this grandiose unity and to destroy itself with the same resources which gave it power over the elements.</v>
+      </c>
+      <c r="B37" t="str">
+        <v>L'ouïe, s</v>
+      </c>
+      <c r="C37">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>Emotional stress is the most common type of stress and can be felt from many different causes such as feeling anxious, anxious about the future, or feeling overwhelmed. Physical stress can come from being too busy or overworked, from being injured, or from experiencing a difficult situation. Social stress can come from relationships or from being around people who are unhappy or stress-filled. Financial stress can come from not having enough money to meet your needs or from having to pay bills late. Occupational stress can come from working long hours or from not having enough rest or fun.</v>
+      </c>
+      <c r="B38" t="str">
+        <v>Emotionnel(le)</v>
+      </c>
+      <c r="C38">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="39" xml:space="preserve">
+      <c r="A39" t="str" xml:space="preserve">
         <v xml:space="preserve">function (intervals) {
   intervals.sort((a, b) =&gt; a[0] - b[0]);
   let total = 0;
@@ -1693,156 +1791,66 @@
   return total;
 }</v>
       </c>
-      <c r="B31" t="str">
-        <v>fonction ( )</v>
-      </c>
-      <c r="C31">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="str">
-        <v>Furthermore, we believe that health care reform, again I said at the beginning of my remarks, that we sent the three pillars that the President's economic stabilization and job creation initiatives were education and innovation - innovation begins in the classroom - clean energy and climate, addressing the climate issues in an innovative way to keep us number one and competitive in the world with the new technology, and the third, first among equals I may say, is health care, health insurance reform.</v>
-      </c>
-      <c r="B32" t="str">
-        <v>e, de plus</v>
-      </c>
-      <c r="C32">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="33" xml:space="preserve">
-      <c r="A33" t="str" xml:space="preserve">
-        <v xml:space="preserve">
-I am working on an app that would allow users to track their food intake and create healthy meal plans. This would help people to stay on track with their diet and lose weight. The app would have a grocery list feature, so people could input what they're eating and the app would take care of the rest.</v>
-      </c>
-      <c r="B33" t="str">
-        <v>ried about the future.</v>
-      </c>
-      <c r="C33">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="str">
-        <v>The other day I got a text from a boy, but it wasn't hot. I mean, if you're going to text me every day, you haven't seen me for months and you're trying to seduce me, you'd better spice up that text and make it more exciting than 'How was your day? I hope you're having a beautiful one.' Sadly, I haven't been doing a lot of kissing lately.</v>
-      </c>
-      <c r="B34" t="str">
-        <v>L'autre</v>
-      </c>
-      <c r="C34">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="str">
-        <v>We’re looking for an experienced Content Marketing Manager, who also happens to be obsessed with thought leadership and building awareness across owned channels. You must love researching, writing, editing, and amplifying stories and in-depth content that educates and inspires. You’ll also be passionate about testing new ideas, leading our content marketing efforts and learning from our audience. The right person will have an eye for top-quality B2B marketing content and a data-driven mindset to help connect content strategy to business results. You’ll play a key role in elevating our content marketing program and landing it all on our website.</v>
-      </c>
-      <c r="B35" t="str">
-        <v>Nous cherchons</v>
-      </c>
-      <c r="C35">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="str">
-        <v>I'm a fan of horrors. I love the ones that make you jump. My girlfriend hates it. I've been dating her for one-and-a-half years and I'm crazy about her, but she's terrified of horror films. Not the cute 'Will you hold me?' way, but she's weeping. With 'House of Wax,' we'll be sleeping and I'll go to the bathroom and she's sitting up waiting for me.</v>
-      </c>
-      <c r="B36" t="str">
-        <v>Je suis fan.</v>
-      </c>
-      <c r="C36">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="str">
-        <v>Change begets change. Nothing propagates so fast. If a man habituated to a narrow circle of cares and pleasures, out of which he seldom travels, step beyond it, though for never so brief a space, his departure from the monotonous scene on which he has been an actor of importance would seem to be the signal for instant confusion.... The mine which Time has slowly dug beneath familiar objects is sprung in an instant; and what was rock before, becomes but sand and dust.</v>
-      </c>
-      <c r="B37" t="str">
-        <v>Changer mendier</v>
-      </c>
-      <c r="C37">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="str">
-        <v>The author briefly explains the customs in Antigua and Barbuda before delving into the novel's themes. He portrays these cultures as distinctly Caribbean, with vibrant rhythms and rich traditions that have been maintained for centuries. The story follows twin sisters who are torn apart by their parents' decision to send one of them away to be educated in America; upon her return home, she discovers a drastically different country than when she left. In spite of this turmoil, the sister reconnects with old friends and finds love again - ultimately indicating that even exile can bring about forgiveness and hope.</v>
-      </c>
-      <c r="B38" t="str">
-        <v>L'auteur</v>
-      </c>
-      <c r="C38">
+      <c r="B39" t="str">
+        <v>fonction (</v>
+      </c>
+      <c r="C39">
         <v>25</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="str">
-        <v>We do have food; however, I am currently unsure concerning the variety that would appease your appetite at this present point in our dialogue together while enjoying ourselves within each other's company here on Earth on our glorious planet that orbits around a star found within one galaxy of potentially infinite galaxies inhabited by extreme possibilities surrounding all manifestations and idea(s)</v>
-      </c>
-      <c r="B39" t="str">
-        <v>Nous avons.</v>
-      </c>
-      <c r="C39">
-        <v>26</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>The Nameless is the origin of Heaven and Earth; The Named is the mother of all things.  Therefore let there always be non-being  so we may see their subtlety, And let there always be being so we may see their outcome.  The two are the same, But after they are produced, they have different names.  They both may be called deep and profound.  Deeper and more profound, The door of all subtleties!</v>
+        <v>Four hours of makeup, and then an hour to take it off. It's tiring. I go in, I get picked up at two-thirty in the morning, I get there at three. I wait four hours, go through it, ready to work at seven, work all day long for twelve hours, and get it taken off for an hours, go home and go to sleep, and do the same thing again.</v>
       </c>
       <c r="B40" t="str">
-        <v>Le Namele</v>
+        <v>Quatre heures</v>
       </c>
       <c r="C40">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v xml:space="preserve"> There is a problem with the way that the website is handling user input. When someone tries to enter text into a text field, the website often doesn't allow them to continue typing because it instead automatically inserts a space. This results in the person being unable to submit their form.</v>
+      </c>
+      <c r="B41" t="str">
+        <v>Il y a</v>
+      </c>
+      <c r="C41">
         <v>26</v>
-      </c>
-    </row>
-    <row r="41" xml:space="preserve">
-      <c r="A41" t="str">
-        <v>This whole business of Trade gives me to pause and think, as it constitutes false relations between men; inasmuch as I am prone to count myself relieved of any responsibility to behave well and nobly to that person who I pay with money, whereas if I had not that commodity, I should be put on my good behavior in all companies, and man would be a benefactor to man, as being himself his only certificate that he had a right to those aids and services which each asked of the other.</v>
-      </c>
-      <c r="B41" t="str" xml:space="preserve">
-        <v xml:space="preserve">thing
-Cette chose entière</v>
-      </c>
-      <c r="C41">
-        <v>28</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>A couple of months ago, I was down in Florida for the Food and Wine Festival. And this journalist grabbed me and said, 'How does it feel to be a TV guy? You're no longer in the restaurant business.' And I laughed. I asked him, 'How long do you think it takes me to do a season?' He said, 'Well, 200 days.' And I was like, '200 days? Try 20!'</v>
+        <v>The fan is made up of three parts: the motor, the blade, and the housing. The motor is plugged into an outlet, and the blade turns thanks to the power. The housing helps to keep everything in place, and it's easy to clean.</v>
       </c>
       <c r="B42" t="str">
-        <v>Un couple de</v>
+        <v>Le ventilateur est</v>
       </c>
       <c r="C42">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>To power sustainable global trade, creating shared &amp; sustainable value requires catering to the needs on both sides of a trading table, creating winners among both Buyers and Suppliers. The purpose of Kodiak Hub is to enable businesses to unlock and leverage value in their value chain with the help of state-of-the-art and user-friendly technology developed for people, by people, at the intersection of great design, user experience &amp; science.</v>
+        <v>Well, yeah. At a certain point, you've got to be really honest with yourself. Like, 'Why am I doing this? What are my motivations?' Like, if you get into it because you want to be famous? Then you've got a long row to hoe. But if you really feel like it's a labour of love and it's something you're actually legitimately good at, then it's not that hard to keep plugging away.</v>
       </c>
       <c r="B43" t="str">
-        <v>A propulser</v>
+        <v>Eh bien, oui.</v>
       </c>
       <c r="C43">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>The Soul is made of consciousness and mind; it is made of life and vision.  It is made of the earth and the waters; it is made of air and space.  It is made of light and darkness; it is made of desire and peace.  It is made of anger and love; it is made of virtue and vice.  It is made of all that is near; it is made of all that is afar.  It is made of all.</v>
+        <v>I definitely wanted to be an actor. I didn't want to be on TV, I didn't want to be famous, I didn't want to be anyone in particular I just wanted to do it. I see young people now who look at magazines, or American Idol and their goal is to have that lifestyle - to have good handbags, or go out with cute guys from shows, or whatever. But I definitely wanted to be an actor.</v>
       </c>
       <c r="B44" t="str">
-        <v>l'Âme</v>
+        <v>Je définis</v>
       </c>
       <c r="C44">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="45">
@@ -1856,338 +1864,332 @@
         <v>27</v>
       </c>
     </row>
-    <row r="46" xml:space="preserve">
-      <c r="A46" t="str" xml:space="preserve">
-        <v xml:space="preserve">As humans, we are constantly seeking approval and understanding. We need people in our lives to tell us what is right and what is wrong, to validate our choices, and to love us without reservation. Being a good person allows us to feel connected to others around us, and makes life more fun. Here are five reasons why it is so important for everyone to be a good person:
-1. It can make you happier. When you find joy in your life, everything else seems much easier. People tend to achieve happiness when they have purpose and meaning in their lives. Good people can often remember happy memories while bad people forget very quickly. being a good person gives somebody else's happiness some focus, which makes them likely to stay positive throughout their day.
-2. It can help you make better decisions. Good decisions involve taking information into account, weighing the pros and cons of different options, and Imagining the future. The more time you spend thinking positively about yourself, the better chance you have of making sound judgement calls that lead to successful outcomes.
-3. It can protect you from harm.Good people are frequently seen as the Buffer Between Safety and Danger because they take extra precautions such as being kind-hearted and watching out for others, even if they don't always know what they're doing. They also listen carefully when someone needs help, offer support if possible, or take action when something bad happens. This type of behavior strengthens relationships by reassuring other members of the community that someone will keep them safe no matter what – even if that individual isn't particularlyocial or safe-minded themselves!
-4. It can make you happier than bad people. When somebody is behaving in an immoral or harmful way (e.g., by harming another person), it feels satisfying and like they're getting away with murder – in a way that good people never experience pleasure from anything they do! People who are good at living constructive meaningful lives generally have a much harder time feeling angry or resentful towards others than those who aren't so lucky (or who choose not to try). In fact, most research indicates that having such positive outlooks leads individuals to report lower levels of anger, stress, worry etc., compared with individuals with negative outlooks on themselves or on the world around them.
-5. It can help you get along with others.Everybody needs to feel accepted and liked at some point in their lives, no matter how popular or popularized that idea may be. Being kind-hearted and humble will do the trick – even if you don't receive a lot of compliments for it in your day-to-day life. People who are good people generally have better relationships than those who aren't. They typically understand and know how to communicate effectively, which allows them to build Trust faster than those who are not so inclined.</v>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>We are facing an increasingly complex, fast-moving environment. In the coming years, sustainability, digitalization, an intensifying competition for talent and geopolitics will shape both Investor and our companies.</v>
       </c>
       <c r="B46" t="str">
-        <v>En tant qu'êtres humains,</v>
+        <v>Nous sommes en train de...</v>
       </c>
       <c r="C46">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>...But nature does not say that cats are more valuable than mice; nature makes no remark on the subject. She does not even say that the cat is enviable or the mouse pitiable. We think the cat superior because we have (or most of us have) a particular philosophy to the effect that life is better than death. But if the mouse were a German pessimist mouse, he might not think that the cat had beaten him at all. He might think he had beaten the cat by getting to the grave first.</v>
+        <v>Higher education has the unrivalled capacity to pursue and shape the values, knowledge, skills and research that are crucial to a society shifting to a low-carbon and safe future . . . The usual concerns of research and teaching excellence, competitive league tables, student and staff retention and so on now need to be put into the broader vision and goal of economic and social well-being nested in the imperative of planetary survival; and while there is still time to make a critical difference.</v>
       </c>
       <c r="B47" t="str">
-        <v>...Mais naturellement</v>
+        <v>cation / Enseignement supérieur</v>
       </c>
       <c r="C47">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="48" xml:space="preserve">
-      <c r="A48" t="str" xml:space="preserve">
-        <v xml:space="preserve">In Lev Grossman's book, The Magicians, the protagonist Quentin Coldwater is a student at Brakebills University, where he studies magic. Quentin's journey to become a magus is met with many obstacles, but eventually he discovers the secret to becoming a great magician: hard work and dedication. Quentin's struggles are not unique to him, but are common to any person who desires to achieve something great.
-There are countless obstacles that must be overcome in order to become a great magician. The first and most important step is gaining an understanding of magic. This knowledge can be found in books or by studying with a professional. Once the basics of magic are understood, it is important to develop one's skill. This can be done by practicing regularly and learning from the best teachers. In addition, it is essential to have faith in oneself and never give up on one's dreams.
-Despite all these obstacles, any person can achieve greatness if they are willing to put in the work. Quentin Coldwater proves this point by his perseverance through difficult trials and tribulations. He never gives up on his dreams and always works hard toward his goals. In the end, Quentin Coldwater is a successful magus and his story shows that anyone can achieve greatness if they are willing to work hard for it.</v>
-      </c>
-      <c r="B48" t="str">
-        <v>Dans Lev Gro.</v>
+      <c r="A48" t="str">
+        <v>Social media has become an important part of education. It allows students to connect with each other and share ideas, experiences, and thoughts. Additionally, social media can offer educators a way to measure student engagement and improve teaching techniques. Social media also plays an important role in creating a community for educators, which can help increase their understanding of their students and help them better teach. In addition, social media can be used to promote specific content or courses, which can improve the learning experience for students. Overall, social media has been a powerful tool for educators and has helped them improve their teaching skills as well as their students’ engagement.</v>
+      </c>
+      <c r="B48" t="str" xml:space="preserve">
+        <v xml:space="preserve">ia
+Les médias sociaux</v>
       </c>
       <c r="C48">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>The fan is made up of three parts: the motor, the blade, and the housing. The motor is plugged into an outlet, and the blade turns thanks to the power. The housing helps to keep everything in place, and it's easy to clean.</v>
+        <v>I share the belief of many of my contemporaries that the spiritual crisis pervading all spheres of Western industrial society can be remedied only by a change in our world view. We shall have to shift from the materialistic, dualistic belief that people and their environment are separate, toward a new consciousness of an all reality, which embraces the experiencing ego, a reality in which people feel their oneness with animate nature and all of creation.</v>
       </c>
       <c r="B49" t="str">
-        <v>Le ventilateur est</v>
+        <v>Je partage cela.</v>
       </c>
       <c r="C49">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>I am a perfectionist but I know how to live life. When I'm working, it's 100%. When I'm with my friends, I put everything away and enjoy life. When I come home to my kids, it's pure joy and everything's worth it. Every time, I really focus 100 percent on one thing. I've learned how to juggle my life and I feel like now I have the perfect balance.</v>
+        <v>The Soul is made of consciousness and mind; it is made of life and vision.  It is made of the earth and the waters; it is made of air and space.  It is made of light and darkness; it is made of desire and peace.  It is made of anger and love; it is made of virtue and vice.  It is made of all that is near; it is made of all that is afar.  It is made of all.</v>
       </c>
       <c r="B50" t="str">
-        <v>Je suis un ordinateur</v>
+        <v>L'âme</v>
       </c>
       <c r="C50">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="51" xml:space="preserve">
+      <c r="A51" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+I conducted a literature review to learn about the effects of dance on mental health. According to the review, there is limited research on the effects of dance on mental health, but the existing research points to positive effects. Dance has been shown to have a positive effect on mood and cognitive function, while also reducing stress and anxiety. These benefits may be due to the positive physical and mental health benefits of dance, as well as the social aspects of dance. Additionally, the review found that dance can be used to improve physical health, including bone density and respiratory health.</v>
+      </c>
+      <c r="B51" t="str">
+        <v>Je mène / Je conduis</v>
+      </c>
+      <c r="C51">
         <v>30</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="str">
-        <v>I definitely wanted to be an actor. I didn't want to be on TV, I didn't want to be famous, I didn't want to be anyone in particular I just wanted to do it. I see young people now who look at magazines, or American Idol and their goal is to have that lifestyle - to have good handbags, or go out with cute guys from shows, or whatever. But I definitely wanted to be an actor.</v>
-      </c>
-      <c r="B51" t="str">
-        <v>Je définis</v>
-      </c>
-      <c r="C51">
-        <v>26</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>I liked the way my character, Shane, was first introduced. You get introduced to her through this sexual action, and I thought that was so cool and just kind of summed up what she enjoys and who she is, to a certain extent. She's a complete sexual being and the great thing is that she doesn't apologize for it. It's just who she is. We rarely see women be able to do that on television.</v>
+        <v>I'm the most inappropriate dad. I curse in front of my kids and their friends. I let my kids watch R-rated movies. I'll walk by the movie theater and say, 'Let's go see that,' and my kids will say, 'No, it's rated R. It's not appropriate for kids.' I'm like Uncle Dad. We have fun. I don't live with them, but I drive over four days a week.</v>
       </c>
       <c r="B52" t="str">
-        <v>J'ai aimé ça.</v>
+        <v>Je suis le/la mo</v>
       </c>
       <c r="C52">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="53" xml:space="preserve">
       <c r="A53" t="str" xml:space="preserve">
-        <v xml:space="preserve">
-I conducted a literature review to learn about the effects of dance on mental health. According to the review, there is limited research on the effects of dance on mental health, but the existing research points to positive effects. Dance has been shown to have a positive effect on mood and cognitive function, while also reducing stress and anxiety. These benefits may be due to the positive physical and mental health benefits of dance, as well as the social aspects of dance. Additionally, the review found that dance can be used to improve physical health, including bone density and respiratory health.</v>
-      </c>
-      <c r="B53" t="str">
-        <v>Je mène/conduis</v>
-      </c>
-      <c r="C53">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="54" xml:space="preserve">
-      <c r="A54" t="str">
-        <v>Social media has become an important part of education. It allows students to connect with each other and share ideas, experiences, and thoughts. Additionally, social media can offer educators a way to measure student engagement and improve teaching techniques. Social media also plays an important role in creating a community for educators, which can help increase their understanding of their students and help them better teach. In addition, social media can be used to promote specific content or courses, which can improve the learning experience for students. Overall, social media has been a powerful tool for educators and has helped them improve their teaching skills as well as their students’ engagement.</v>
-      </c>
-      <c r="B54" t="str" xml:space="preserve">
-        <v xml:space="preserve">ia
-Les médias sociaux</v>
-      </c>
-      <c r="C54">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="55" xml:space="preserve">
-      <c r="A55" t="str" xml:space="preserve">
-        <v xml:space="preserve">
-I was wondering if you could tell me how to make these math problems more interesting.</v>
-      </c>
-      <c r="B55" t="str">
-        <v>J'ai été vaincu/Vaincue.</v>
-      </c>
-      <c r="C55">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="str">
-        <v>The United Nations four or five years ago put out a study that said the meat industry, meat-eating, growing meat for food is the No. 1 killer of our planet - not No. 2 or No. 3: No 1. You know what's No. 2? Transportation. Everyone thinks that No. 1 is transportation, and goes out and buys a hybrid car. Screw the hybrid cars. Don't eat hamburgers.</v>
-      </c>
-      <c r="B56" t="str">
-        <v>Les États-Unis</v>
-      </c>
-      <c r="C56">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="str">
-        <v>Hearing, seeing and understanding each other, humanity from one end of the earth to the other now lives simultaneously, omnipresent like a god thanks to its own creative ability. And, thanks to its victory over space and time, it would now be splendidly united for all time, if it were not confused again and again by that fatal delusion which causes humankind to keep on destroying this grandiose unity and to destroy itself with the same resources which gave it power over the elements.</v>
-      </c>
-      <c r="B57" t="str">
-        <v>L'ouïe, s</v>
-      </c>
-      <c r="C57">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="str">
-        <v>I can't do the same movies all my life. I'm conscious of that. But it's a trade-off. 'Dear John' allowed me to do movies I've wanted to do. You learn to balance it out. I'm still learning. Only now am I getting to do the kinds of movies that I have wanted to do. So it's a steady climb. You don't jump into a Soderbergh film.</v>
-      </c>
-      <c r="B58" t="str">
-        <v>Je ne peux pas le faire.</v>
-      </c>
-      <c r="C58">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="str">
-        <v>I don't stop. It's my nature. People have to tell me to slow down. I plan on playing every role on Broadway. I want to do 'Evita.' I want to do 'Sweeney Todd' with Chris Colfer. We want to do 'Wicked.' I'll be Elphaba and he wants to play 'Guy-linda.' I want to do movies, make music. 'Glee' is only the beginning.</v>
-      </c>
-      <c r="B59" t="str">
-        <v>Je ne comprends pas votre demande.</v>
-      </c>
-      <c r="C59">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="str">
-        <v>I'm the most inappropriate dad. I curse in front of my kids and their friends. I let my kids watch R-rated movies. I'll walk by the movie theater and say, 'Let's go see that,' and my kids will say, 'No, it's rated R. It's not appropriate for kids.' I'm like Uncle Dad. We have fun. I don't live with them, but I drive over four days a week.</v>
-      </c>
-      <c r="B60" t="str">
-        <v>Je suis le maître.</v>
-      </c>
-      <c r="C60">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="str">
-        <v>I mean the beauty of being a writer is it's not like being a swimmer. When they were talking about our Olympic swimmers and they'd say, 'Oh she's so old,' and she's all of 25 or something. So the beauty for a writer is that you can keep doing it right into your dotage, and I hope to be able to keep doing it as long as I can get away with it, yeah.</v>
-      </c>
-      <c r="B61" t="str">
-        <v>Je veux dire le/la/les.</v>
-      </c>
-      <c r="C61">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="str">
-        <v>To be considered successful, a business must have a long-term outlook, be able to generate consistent revenue, have a loyal customer base, and be able to make strategic decisions.</v>
-      </c>
-      <c r="B62" t="str">
-        <v>Pour être constant.</v>
-      </c>
-      <c r="C62">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="str">
-        <v>This policy of supplying, by opposite and rival interests, the defect of better motives, might be traced through the whole system of human affairs, private as well as public. We see it particularly displayed in all the subordinate distributions of power, where the constant aim is to divide and arrange the several offices in such a manner as that each may be a check on the other—that the private interest of every individual may be a sentinel over the public rights. These inventions of prudence cannot be less requisite in the distribution of the supreme powers of the State.</v>
-      </c>
-      <c r="B63" t="str">
-        <v>e prohibits any form of harassment, discrimination or retaliation in the workplace.</v>
-      </c>
-      <c r="C63">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="str">
-        <v>Strive with thy thoughts unclean before they overpower thee.  Use them as they will thee, for if thou sparest them and they take root and grow, know well, these thoughts will overpower and kill thee.  Beware!  Suffer not their shadow to approach.  For it will grow, increase in size and power, and then this thing of darkness will absorb thy being before thou hast well realized the black foul monster's presence.</v>
-      </c>
-      <c r="B64" t="str">
-        <v>Efforcez-vous avec courage/ardeur/vigueur</v>
-      </c>
-      <c r="C64">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="str">
-        <v>The sun was setting as I reached the top of the hill. In front of me lay a small clearing with a pond in it, and on one side sat an old oak tree, while across from it stood a smaller fir. The loamy smell of earth filled my nose as I slowly made my way to the pond. I could see water lilies swaying in its surface; their pink petals contrasting against the murky green depths. With every step taken forward, chorus frogs croaked out their calls until they were drowned out by crickets chirping rhythmically in response. Once I had reached the edge of the pond, I took off my shoes and socks and waded into its cool waters up to my thighs before turning around so that i could look at everything surrounding me.</v>
-      </c>
-      <c r="B65" t="str">
-        <v>s setting over the horizon, casting a warm glow across the sky.</v>
-      </c>
-      <c r="C65">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="str">
-        <v>When I arrived in New Zealand, I was cautious, tentative, nervous. The foreignness was profound and biting. In the North American West, I was used mountains, forests, rivers, and fields. I could feel at home in the familiar. In New Zealand, everything was foreign. Everything was unfamiliar. Every decision was new</v>
-      </c>
-      <c r="B66" t="str">
-        <v>ive at the airport, I will need to check my luggage and go through security before boarding my flight.</v>
-      </c>
-      <c r="C66">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="str">
-        <v>Emotional stress is the most common type of stress and can be felt from many different causes such as feeling anxious, anxious about the future, or feeling overwhelmed. Physical stress can come from being too busy or overworked, from being injured, or from experiencing a difficult situation. Social stress can come from relationships or from being around people who are unhappy or stress-filled. Financial stress can come from not having enough money to meet your needs or from having to pay bills late. Occupational stress can come from working long hours or from not having enough rest or fun.</v>
-      </c>
-      <c r="B67" t="str">
-        <v>Émotionnel.</v>
-      </c>
-      <c r="C67">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="str">
-        <v>The obesity epidemic is on the rise, and it’s not just a problem for older adults. Obesity rates are increasing for everyone, regardless of age. A study from The Lancet found that overall, obesity rates have increased in every country studied since 1993. The reasons behind this increase are many, but one big factor is changes in eating habits. Obesity is now more likely because people are eating more processed foods andriel lamborghini Odd Future lip sync youtube than they were in the past. In addition, there is an increase in physical activity levels, which has led to an increase in weight and inches across the board. There are many ways to help fight against obesity, and you don’t have to be obese to see the effects. Education is key – provide children and adults with information about what calories really mean and howto lose weight safely. Let people know that healthy eating habits consist of eating plenty of fruits and vegetables, low-fat proteins, whole grains, nuts and seeds, low-calorie dairy products, poultry or fish instead of pork or fast food restaurants. It can be difficult to change general behavior when unhealthy eating habits are entrenched, but there are some things you can do to make a difference. One approach istargeting those who have been previously successful at losing weight – including parents or adults who know their own potential body size – by providing them with Prevention programs specifically designed for them. Another approach is to create healthier lifestyles around meals. Eating a balanced diet that includes fruits and vegetables, whole grains, nuts and seeds, lower-calorie dairy products, poultry or fish instead of pork or fast food restaurants will help you lose weight while maintaining your health condition.</v>
-      </c>
-      <c r="B68" t="str">
-        <v>é (Note: This is not a complete sentence. Is there more text to translate?)</v>
-      </c>
-      <c r="C68">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="str">
-        <v>The present study aimed to explore the relationship between Y-chromosome STR and psychiatric symptoms in patients with major depressive disorder. The study found that patients with higher Y-chromosome STR have a higher risk for developing psychiatric symptoms. The study also found that patients with higher Y-chromosome STR had a higher risk for developing major depressive disorder in a monozygotic ( identical ) twin study. The study showed that the relationship between Y-chromosome STR and psychiatric symptoms is possibly due to genetic modifiers.</v>
-      </c>
-      <c r="B69" t="str">
-        <v>t text is already incomplete. Please provide the full text to translate to French.</v>
-      </c>
-      <c r="C69">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="str">
-        <v>We are facing an increasingly complex, fast-moving environment. In the coming years, sustainability, digitalization, an intensifying competition for talent and geopolitics will shape both Investor and our companies.</v>
-      </c>
-      <c r="B70" t="str">
-        <v>Nous sommes face</v>
-      </c>
-      <c r="C70">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="71" xml:space="preserve">
-      <c r="A71" t="str" xml:space="preserve">
         <v xml:space="preserve">Time is the most important factor in our lives. It has the ability to define everything from our daily rituals to our futures. Time is also a precious commodity, which we use to make decisions that have an impact on the rest of our lives.
 Without time, we would not be able to do things such as learn new things, experience new cultures, or grow old. Time is also used to measure how far we have come and how much work still needs to be done. In some ways, time is like a life raft that allows us to cross over into the future and explore different opportunities while avoiding potential dangers along the way.
  thefts, robberies, and murders often occur due to lack of time. For example, if someone is prevented from robbing a bank in 15 minutes, they will likely rob another bank in 45 minutes or even 1 hour. To prevent these sorts of crimes from happening, it is important for criminals to have enough time to plan their attack and pull off their robbery successfully.
 In addition, time is also necessary for other activities such as studying, doing homework, and working on projects. Without enough time, these activities may not be possible. For example, if I study for an exam for hours every night and try my best to stay awake during class, I may not be able to achieve the level of success I want because I would need more time than usual to complete the exam.
 On the other hand, if I am able to relax and sleep for 8 hours every night after studying for hours today, I will likely achieve a similar level of success as if I studied for 6 hours today. This illustrates how important time is in our lives – by taking advantage of its abilities we can achieve our goals without having too much trouble.</v>
       </c>
-      <c r="B71" t="str" xml:space="preserve">
-        <v xml:space="preserve">e most precious commodity we have. 
-Le temps est la ressource la plus précieuse que nous possédons.</v>
+      <c r="B53" t="str">
+        <v>e most precious commodity in life.</v>
+      </c>
+      <c r="C53">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>Wasn't marriage, like life, unstimulating and unprofitable and somewhat empty when too well ordered and protected and guarded? Wasn't it finer, more splendid, more nourishing, when it was, like life itself, a mixture of the sordid and the magnificent; of mud and stars; of earth and flowers; of love and hate and laughter and tears and ugliness and beauty and hurt?</v>
+      </c>
+      <c r="B54" t="str">
+        <v>N'était pas mar.</v>
+      </c>
+      <c r="C54">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>The United Nations four or five years ago put out a study that said the meat industry, meat-eating, growing meat for food is the No. 1 killer of our planet - not No. 2 or No. 3: No 1. You know what's No. 2? Transportation. Everyone thinks that No. 1 is transportation, and goes out and buys a hybrid car. Screw the hybrid cars. Don't eat hamburgers.</v>
+      </c>
+      <c r="B55" t="str">
+        <v>Les États-Unis</v>
+      </c>
+      <c r="C55">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>I went to my dad when I was 17 and said, 'I want to be a country music star.' Which every dad loves to hear. And he said, 'I want you to go to college.' So we had a discussion. And I'm pretty stubborn. I'm a lot like him. And he said, 'If you go to college and graduate, I'll pay your first six months of rent in Nashville.' So he bribed me.</v>
+      </c>
+      <c r="B56" t="str">
+        <v>Je suis allé(e) à</v>
+      </c>
+      <c r="C56">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>Margaret Sullivan: I had been at a small newspaper in California. I started my career at an evening daily newspaper called The San Bernardino Sun. I went straight from there to The New York Times in 1981. So it was a huge—it was a big leap in many ways—a leap into cultural elitism and sophistication. It was a wonderful, wonderful place to work. It was a very exciting time to be there because we were growing. Our circulation at the time was about 1.1 million. We were a big paper then. It's half that now. But we were in a great building in Times Square, and it was just exciting and exhilarating as you can imagine.</v>
+      </c>
+      <c r="B57" t="str">
+        <v>Margaret S. (there is no context or additional information to translate)</v>
+      </c>
+      <c r="C57">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>Furthermore, we believe that health care reform, again I said at the beginning of my remarks, that we sent the three pillars that the President's economic stabilization and job creation initiatives were education and innovation - innovation begins in the classroom - clean energy and climate, addressing the climate issues in an innovative way to keep us number one and competitive in the world with the new technology, and the third, first among equals I may say, is health care, health insurance reform.</v>
+      </c>
+      <c r="B58" t="str">
+        <v>e, de plus, en outre</v>
+      </c>
+      <c r="C58">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>But the great security against a gradual concentration of the several powers in the same department, consists in giving to those who administer each department the necessary constitutional means and personal motives to resist encroachments of the others. The provision for defense must in this, as in all other cases, be made commensurate to the danger of attack. Ambition must be made to counteract ambition. The interest of the man must be connected with the constitutional rights of the place. It may be a reflection on human nature, that such devices should be necessary to control the abuses of government. But what is government itself, but the greatest of all reflections on human nature? If men were angels, no government would be necessary. If angels were to govern men, neither external nor internal controls on government would be necessary.</v>
+      </c>
+      <c r="B59" t="str">
+        <v>Mais le gr... (The sentence is incomplete.)</v>
+      </c>
+      <c r="C59">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>I hope you're doing well! I wanted to reach out and see if you are available for a meeting in the next few weeks. My company is looking for someone with your skillset, and I thought it would be beneficial to get a face-to-face conversation started. Let me know if that sounds like something you'd be interested in - thanks!</v>
+      </c>
+      <c r="B60" t="str">
+        <v>J'espère que vous allez bien.</v>
+      </c>
+      <c r="C60">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>There is one characteristic of the present direction of public opinion peculiarly calculated to make it intolerant of any marked demonstration of individuality. The general average of mankind are not only moderate in intellect, but also moderate in inclinations; they have no tastes or wishes strong enough to incline them to do anything unusual, and they consequently do not understand those who have, and class all such with the wild and intemperate who they are accustomed to look down upon.</v>
+      </c>
+      <c r="B61" t="str">
+        <v>Il n'y a pas de texte à traduire.</v>
+      </c>
+      <c r="C61">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>The setting for this novel is Boston in the early nineteen-hundreds. The novel follows the story of two sisters, Tess and Charlotte, as they navigate their way through life. Tess is a bright and determined young woman, while Charlotte is a sweet and introverted young woman. Both sisters are struggling to find their place in the world, and the novel explores their relationships with family, friends, and romantic interests. In addition to exploring the sisters' lives, the novel also focuses on the history and culture of Boston during this time period.</v>
+      </c>
+      <c r="B62" t="str">
+        <v>g sun cast a warm glow over the sandy beach.</v>
+      </c>
+      <c r="C62">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="63" xml:space="preserve">
+      <c r="A63" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+I am creating a lightweight tool to help automate the process of finding and verifying software dependencies. The tool will be able to find and verify dependencies using a variety of methods, including but not limited to, command line options, API calls, and a comprehensive search engine. The tool will also be able to generate reports detailing the dependencies found and the status of each dependency.</v>
+      </c>
+      <c r="B63" t="str">
+        <v>Je suis en train de créer.</v>
+      </c>
+      <c r="C63">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>I am a perfectionist but I know how to live life. When I'm working, it's 100%. When I'm with my friends, I put everything away and enjoy life. When I come home to my kids, it's pure joy and everything's worth it. Every time, I really focus 100 percent on one thing. I've learned how to juggle my life and I feel like now I have the perfect balance.</v>
+      </c>
+      <c r="B64" t="str">
+        <v>Je suis un être humain.</v>
+      </c>
+      <c r="C64">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>The person who has applied for a tourist visa from outside the US will be required to pay the fee of $140. This fee is non-refundable and non-transferable. The fee must be paid in cash at the location where the visa application is submitted. This includes persons who wish to travel to the US and apply for adjustment of status to permanent resident (get a green card) while in the US and persons who have other non-immigrant status (F/M), and who wish to apply for an immigrant visa (get a green card) while in the US. Unfortunately, it is not possible to pay the immigrant visa fee at the same location where you submit the immigrant visa application. Payment of the fee must be made to the US Department of State.</v>
+      </c>
+      <c r="B65" t="str">
+        <v>La personne</v>
+      </c>
+      <c r="C65">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>The first thing I noticed about the man was his eyes. They were the color of the sky on a clear day, and they were filled with a sadness that I had never seen before. He was tall and thin, and his clothes were old and worn. He had a long beard and a mustache, and his hair was long and gray. He looked like a man who had been through a lot in his life.</v>
+      </c>
+      <c r="B66" t="str">
+        <v>Le premier</v>
+      </c>
+      <c r="C66">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="67" xml:space="preserve">
+      <c r="A67" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+I am working on an app that would allow users to track their food intake and create healthy meal plans. This would help people to stay on track with their diet and lose weight. The app would have a grocery list feature, so people could input what they're eating and the app would take care of the rest.</v>
+      </c>
+      <c r="B67" t="str">
+        <v>Je suis inquiet/je m'inquiète.</v>
+      </c>
+      <c r="C67">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v>The present study aimed to explore the relationship between Y-chromosome STR and psychiatric symptoms in patients with major depressive disorder. The study found that patients with higher Y-chromosome STR have a higher risk for developing psychiatric symptoms. The study also found that patients with higher Y-chromosome STR had a higher risk for developing major depressive disorder in a monozygotic ( identical ) twin study. The study showed that the relationship between Y-chromosome STR and psychiatric symptoms is possibly due to genetic modifiers.</v>
+      </c>
+      <c r="B68" t="str">
+        <v>t text is incomplete. Please provide the full text to be translated.</v>
+      </c>
+      <c r="C68">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>... business training in early life should not be regarded solely as insurance against destitution in the case of an emergency. For from business experience women can gain, too, knowledge of the world and of human beings, which should be of immeasurable value to their marriage careers. Self-discipline, co-operation, adaptability, efficiency, economic management,?if she learns these in her business life she is liable for many less heartbreaks and disappointments in her married life.</v>
+      </c>
+      <c r="B69" t="str">
+        <v>Please provide a full sentence or text to translate.</v>
+      </c>
+      <c r="C69">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v>Each company we are engaged in has a dedicated business team, consisting of our board representatives in the company and investment professionals at Investor. The business teams build company knowledge, benchmark versus competition and evaluate corporate structures</v>
+      </c>
+      <c r="B70" t="str">
+        <v>ny has its own unique approach to marketing and branding.</v>
+      </c>
+      <c r="C70">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="str">
+        <v>I liked the way my character, Shane, was first introduced. You get introduced to her through this sexual action, and I thought that was so cool and just kind of summed up what she enjoys and who she is, to a certain extent. She's a complete sexual being and the great thing is that she doesn't apologize for it. It's just who she is. We rarely see women be able to do that on television.</v>
+      </c>
+      <c r="B71" t="str">
+        <v>J'ai aimé ça.</v>
       </c>
       <c r="C71">
-        <v>48</v>
+        <v>29</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>Well, yeah. At a certain point, you've got to be really honest with yourself. Like, 'Why am I doing this? What are my motivations?' Like, if you get into it because you want to be famous? Then you've got a long row to hoe. But if you really feel like it's a labour of love and it's something you're actually legitimately good at, then it's not that hard to keep plugging away.</v>
+        <v>I don't stop. It's my nature. People have to tell me to slow down. I plan on playing every role on Broadway. I want to do 'Evita.' I want to do 'Sweeney Todd' with Chris Colfer. We want to do 'Wicked.' I'll be Elphaba and he wants to play 'Guy-linda.' I want to do movies, make music. 'Glee' is only the beginning.</v>
       </c>
       <c r="B72" t="str">
-        <v>Eh bien, ouais</v>
+        <v>and the question, please provide the complete sentence.</v>
       </c>
       <c r="C72">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="73">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="73" xml:space="preserve">
       <c r="A73" t="str">
-        <v>I went to my dad when I was 17 and said, 'I want to be a country music star.' Which every dad loves to hear. And he said, 'I want you to go to college.' So we had a discussion. And I'm pretty stubborn. I'm a lot like him. And he said, 'If you go to college and graduate, I'll pay your first six months of rent in Nashville.' So he bribed me.</v>
-      </c>
-      <c r="B73" t="str">
-        <v>Je suis allé(e) à</v>
+        <v>This whole business of Trade gives me to pause and think, as it constitutes false relations between men; inasmuch as I am prone to count myself relieved of any responsibility to behave well and nobly to that person who I pay with money, whereas if I had not that commodity, I should be put on my good behavior in all companies, and man would be a benefactor to man, as being himself his only certificate that he had a right to those aids and services which each asked of the other.</v>
+      </c>
+      <c r="B73" t="str" xml:space="preserve">
+        <v xml:space="preserve">thing is a mess.
+Cette chose entière est un désordre.</v>
       </c>
       <c r="C73">
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>A lot of organizations nowadays are using whiteboards as an effective way to communicate and collaborate. Whiteboards offer users a versatile tool that can be used for various purposes, such as brainstorming new ideas, recording meetings or notes, exchanging ideas with team members etc. They are also easy to clean up after use which helps keep your working area tidy and organized. Additionally, they act as great visual aids when teaching employees new tasks or procedures - simply putting up graphics on the board provides an effective reminder for everyone involved in the process.</v>
+        <v>Liz is a strong, independent woman who has had to fend for herself since she was young. She's learned how to be resourceful and determined, which has helped her obtain jobs in the publishing industry despite not having a college degree. Liz is hard working and always trying to do the right thing - even if it means taking on extra work or going above and beyond what someone expects of her. She's fiercely loyal to those she cares about and can be counted on no matter what happens.</v>
       </c>
       <c r="B74" t="str">
-        <v>Il y a beaucoup de... (Please provide the complete sentence so that the translation can be more accurate)</v>
+        <v>orry, the text is incomplete. Could you please provide the complete sentence?</v>
       </c>
       <c r="C74">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="75">
@@ -2195,143 +2197,142 @@
         <v>I was a 'Duck Hunt' and 'Mario' guy, and stuff like that. I was never technologically driven. I never had all the cool, new toys. I was the youngest child, I wasn't the only child, so I wasn't spoiled as a kid. And, we were on the farm, so we didn't have a lot. Also, with computers, I'm not very good with them. I just check my email.</v>
       </c>
       <c r="B75" t="str">
-        <v>Je étais un 'D'</v>
+        <v>Je faisais partie des "D".</v>
       </c>
       <c r="C75">
         <v>33</v>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" t="str">
-        <v>The setting for this novel is Boston in the early nineteen-hundreds. The novel follows the story of two sisters, Tess and Charlotte, as they navigate their way through life. Tess is a bright and determined young woman, while Charlotte is a sweet and introverted young woman. Both sisters are struggling to find their place in the world, and the novel explores their relationships with family, friends, and romantic interests. In addition to exploring the sisters' lives, the novel also focuses on the history and culture of Boston during this time period.</v>
+    <row r="76" xml:space="preserve">
+      <c r="A76" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+The incident occurred when a student was walking in a commons area of the school when she was suddenly approached from behind by another student who shoved her. The victim fell to the ground and the assailant walked away</v>
       </c>
       <c r="B76" t="str">
-        <v>g sun painted the sky in hues of pink and orange, casting long shadows across the grass.</v>
+        <v>ent occurred at around 10pm last night.</v>
       </c>
       <c r="C76">
-        <v>42</v>
+        <v>33</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>There is one characteristic of the present direction of public opinion peculiarly calculated to make it intolerant of any marked demonstration of individuality. The general average of mankind are not only moderate in intellect, but also moderate in inclinations; they have no tastes or wishes strong enough to incline them to do anything unusual, and they consequently do not understand those who have, and class all such with the wild and intemperate who they are accustomed to look down upon.</v>
+        <v>Learning about climate change, and its impending effects, is an emotional experience. The distress, anxiety, worry, and/or fear that stem from an overarching awareness of climate change are often considered to be related to the broader concept of ‘psychoterratic syndromes’. This concept was first introduced by the environmental philosopher, Glenn Albrecht, and is defined broadly as ‘psychological responses to negative changes to the state of the Earth’. Terms such as eco anxiety, climate anxiety, and eco distress are often used to describe these negative responses. Also, the related term ‘solastalgia’, broadly defined as distress from the transformation and degradation of one’s home environment, also falls into psychoterratic syndromes. Such concepts are gaining traction in print and online media. For example, Grist Magazine declared climate anxiety as the biggest pop-culture trend of the year in 2019. Additionally, there is a growing recognition of the impact of climate change awareness on mental well-being among researchers and mental health professionals. For instance, the American Psychological Association has defined eco anxiety as ‘a chronic fear of environmental doom’; while the Royal College of Psychiatrists defines eco distress among young people as ‘the wide range of emotions and thoughts young people may experience when they hear bad news about our planet and the environment’. Moreover, mental health professionals have reported counseling individuals dealing with distress about climate change.</v>
       </c>
       <c r="B77" t="str">
-        <v>Il n'y a pas de texte à traduire, veuillez saisir un texte à traduire en français.</v>
+        <v>l'apprentissage</v>
       </c>
       <c r="C77">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="str">
-        <v>I share the belief of many of my contemporaries that the spiritual crisis pervading all spheres of Western industrial society can be remedied only by a change in our world view. We shall have to shift from the materialistic, dualistic belief that people and their environment are separate, toward a new consciousness of an all reality, which embraces the experiencing ego, a reality in which people feel their oneness with animate nature and all of creation.</v>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="78" xml:space="preserve">
+      <c r="A78" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+I implemented a project for a customer that required me to install a new counter top in their kitchen. I first measured the area where the counter top would be, and then drew out a grid on paper to help me plan the layout of the screws and drill holes for the counter top. I then collected all of the necessary materials, including the counter top, screws, drill, saw, and sandpaper. I began by drilling holes in the grid that I had prepared, and then screwed the counter top into place. I then used a sandpaper block to smooth out any bumps or areas that were not perfectly flush with the surface of the counter top. Finally, I completed the project by sawing off any excess counter top material, and then sanded it smooth once again.</v>
       </c>
       <c r="B78" t="str">
-        <v>Je partage cela.</v>
+        <v>nted a new strategy for our project that has resulted in increased efficiency and productivity.</v>
       </c>
       <c r="C78">
-        <v>28</v>
+        <v>42</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>If the thoughts are absolutely tranquil the heavenly heart can be seen. The heavenly heart lies between sun and moon (i.e. between the two eyes). It is the home of the inner light.  To make light circulate is the deepest and most wonderful secret.  The light is easy to move, but difficult to fix.  If it is made to circulate long enought, then it crystallizes itself;  that is the natural spirit body...</v>
+        <v>Strive with thy thoughts unclean before they overpower thee.  Use them as they will thee, for if thou sparest them and they take root and grow, know well, these thoughts will overpower and kill thee.  Beware!  Suffer not their shadow to approach.  For it will grow, increase in size and power, and then this thing of darkness will absorb thy being before thou hast well realized the black foul monster's presence.</v>
       </c>
       <c r="B79" t="str">
-        <v>I'm sorry, it seems like the sentence is incomplete. Could you please provide me with the complete sentence?</v>
+        <v>Efforçons-nous avec persévérance</v>
       </c>
       <c r="C79">
-        <v>45</v>
+        <v>35</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>Liz is a strong, independent woman who has had to fend for herself since she was young. She's learned how to be resourceful and determined, which has helped her obtain jobs in the publishing industry despite not having a college degree. Liz is hard working and always trying to do the right thing - even if it means taking on extra work or going above and beyond what someone expects of her. She's fiercely loyal to those she cares about and can be counted on no matter what happens.</v>
+        <v>When I arrived in New Zealand, I was cautious, tentative, nervous. The foreignness was profound and biting. In the North American West, I was used mountains, forests, rivers, and fields. I could feel at home in the familiar. In New Zealand, everything was foreign. Everything was unfamiliar. Every decision was new</v>
       </c>
       <c r="B80" t="str">
-        <v>orry, there seems to be an incomplete sentence. Could you please provide more context so I can provide an accurate translation?</v>
+        <v>ive at the airport, I will grab my luggage and go through customs before heading to the hotel.</v>
       </c>
       <c r="C80">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="81" xml:space="preserve">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="81">
       <c r="A81" t="str">
-        <v>Love is the best feeling in the world. It's the best feeling when you're with someone you care about and you feel happy and content. Love is the best feeling when you're in a relationship and you're happy and you feel loved. Love is the best feeling when you're with someone who you think is the best for you.</v>
-      </c>
-      <c r="B81" t="str" xml:space="preserve">
-        <v xml:space="preserve">e most powerful force in the world. 
-L'amour est la force la plus puissante au monde.</v>
+        <v>The sun was setting as I reached the top of the hill. In front of me lay a small clearing with a pond in it, and on one side sat an old oak tree, while across from it stood a smaller fir. The loamy smell of earth filled my nose as I slowly made my way to the pond. I could see water lilies swaying in its surface; their pink petals contrasting against the murky green depths. With every step taken forward, chorus frogs croaked out their calls until they were drowned out by crickets chirping rhythmically in response. Once I had reached the edge of the pond, I took off my shoes and socks and waded into its cool waters up to my thighs before turning around so that i could look at everything surrounding me.</v>
+      </c>
+      <c r="B81" t="str">
+        <v>s shining brightly in the clear blue sky.</v>
       </c>
       <c r="C81">
-        <v>46</v>
+        <v>32</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>I hope you're doing well! I wanted to reach out and see if you are available for a meeting in the next few weeks. My company is looking for someone with your skillset, and I thought it would be beneficial to get a face-to-face conversation started. Let me know if that sounds like something you'd be interested in - thanks!</v>
+        <v>All this stuff is so mind-blowing to me that I get to do in my life. Throwing the first pitch out at the White Sox game on a random Wednesday? Like who am I? How did I get this life? I'm glad I'm not jaded, and little kids are the least jaded people in the entire world, so it's fun to be around people that still find wonder in how cool things are.</v>
       </c>
       <c r="B82" t="str">
-        <v>J'espère que vous... (the English sentence is incomplete and has no context; please provide more information for a complete translation)</v>
+        <v>Sorry, it seems like the sentence is incomplete. Could you please provide more context or the full sentence?</v>
       </c>
       <c r="C82">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>It has always seemed strange to me... the things we admire in men, kindness and generosity, openness, honesty, understanding and feeling, are the concomitants of failure in our system. And those traits we detest, sharpness, greed, acquisitiveness, meanness, egotism and self-interest, are the traits of success. And while men admire the quality of the first they love the produce of the second.</v>
+        <v>I mean the beauty of being a writer is it's not like being a swimmer. When they were talking about our Olympic swimmers and they'd say, 'Oh she's so old,' and she's all of 25 or something. So the beauty for a writer is that you can keep doing it right into your dotage, and I hope to be able to keep doing it as long as I can get away with it, yeah.</v>
       </c>
       <c r="B83" t="str">
-        <v>ays been my dream to visit Paris. J'ai toujours rêvé de visiter Paris.</v>
+        <v>Je veux dire le/la/l' (depending on the gender of the noun being referred to).</v>
       </c>
       <c r="C83">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="84" xml:space="preserve">
-      <c r="A84" t="str" xml:space="preserve">
-        <v xml:space="preserve">
-I implemented a project for a customer that required me to install a new counter top in their kitchen. I first measured the area where the counter top would be, and then drew out a grid on paper to help me plan the layout of the screws and drill holes for the counter top. I then collected all of the necessary materials, including the counter top, screws, drill, saw, and sandpaper. I began by drilling holes in the grid that I had prepared, and then screwed the counter top into place. I then used a sandpaper block to smooth out any bumps or areas that were not perfectly flush with the surface of the counter top. Finally, I completed the project by sawing off any excess counter top material, and then sanded it smooth once again.</v>
-      </c>
-      <c r="B84" t="str" xml:space="preserve">
-        <v xml:space="preserve">nted a new program that improves our workflow. 
-J'ai mis en place un nouveau programme qui améliore notre flux de travail.</v>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="str">
+        <v>I love women, but I feel like you can't trust some of them. Some of them are liars, you know? Like I was in the park and I met this girl, she was cute and she had a dog. And I went up to her, we started talking. She told me her dog's name. Then I said, 'Does he bite?' She said, 'No.' And I said, 'Oh yeah? Then how does he eat?' Liar.</v>
+      </c>
+      <c r="B84" t="str">
+        <v>I'm sorry, I cannot translate this text as it is incomplete and inappropriate. It is important to use appropriate and respectful language.</v>
       </c>
       <c r="C84">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="85" xml:space="preserve">
-      <c r="A85" t="str" xml:space="preserve">
-        <v xml:space="preserve">
-The incident occurred when a student was walking in a commons area of the school when she was suddenly approached from behind by another student who shoved her. The victim fell to the ground and the assailant walked away</v>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="str">
+        <v>To power sustainable global trade, creating shared &amp; sustainable value requires catering to the needs on both sides of a trading table, creating winners among both Buyers and Suppliers. The purpose of Kodiak Hub is to enable businesses to unlock and leverage value in their value chain with the help of state-of-the-art and user-friendly technology developed for people, by people, at the intersection of great design, user experience &amp; science.</v>
       </c>
       <c r="B85" t="str">
-        <v>ent happened at around 10pm last night.</v>
+        <v>Sorry, there seems to be some missing information or context. Can you please provide me with the complete English sentence or phrase you wish to translate to French?</v>
       </c>
       <c r="C85">
-        <v>33</v>
+        <v>54</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>All this stuff is so mind-blowing to me that I get to do in my life. Throwing the first pitch out at the White Sox game on a random Wednesday? Like who am I? How did I get this life? I'm glad I'm not jaded, and little kids are the least jaded people in the entire world, so it's fun to be around people that still find wonder in how cool things are.</v>
+        <v>If the thoughts are absolutely tranquil the heavenly heart can be seen. The heavenly heart lies between sun and moon (i.e. between the two eyes). It is the home of the inner light.  To make light circulate is the deepest and most wonderful secret.  The light is easy to move, but difficult to fix.  If it is made to circulate long enought, then it crystallizes itself;  that is the natural spirit body...</v>
       </c>
       <c r="B86" t="str">
-        <v>Sorry, it seems like the sentence was not completed. Please provide the complete sentence that you want to be translated to French.</v>
+        <v>There seems to be an incomplete sentence. Can you please provide the full text, so I can translate it accurately?</v>
       </c>
       <c r="C86">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="87">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="87" xml:space="preserve">
       <c r="A87" t="str">
-        <v>I love women, but I feel like you can't trust some of them. Some of them are liars, you know? Like I was in the park and I met this girl, she was cute and she had a dog. And I went up to her, we started talking. She told me her dog's name. Then I said, 'Does he bite?' She said, 'No.' And I said, 'Oh yeah? Then how does he eat?' Liar.</v>
-      </c>
-      <c r="B87" t="str">
-        <v>Sorry, I cannot complete this task as the given text is incomplete and inappropriate. Please provide a valid text to be translated.</v>
+        <v>No man is an Island, entire of it self; every man is a piece of the Continent, a part of the main; if a clod be washed away by the sea, Europe is the less, as well as ifa promitory were, as well as if a manor of thy friends or of thine own were; any man's death diminishes me, because I am involved in Mankind; And therefore never send to know for whom the bell tolls; It tolls for thee.</v>
+      </c>
+      <c r="B87" t="str" xml:space="preserve">
+        <v xml:space="preserve">immune to the ravages of time. 
+Aucun homme n'est immunisé contre les ravages du temps.</v>
       </c>
       <c r="C87">
         <v>48</v>
@@ -2339,13 +2340,13 @@
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>Wasn't marriage, like life, unstimulating and unprofitable and somewhat empty when too well ordered and protected and guarded? Wasn't it finer, more splendid, more nourishing, when it was, like life itself, a mixture of the sordid and the magnificent; of mud and stars; of earth and flowers; of love and hate and laughter and tears and ugliness and beauty and hurt?</v>
+        <v>This policy of supplying, by opposite and rival interests, the defect of better motives, might be traced through the whole system of human affairs, private as well as public. We see it particularly displayed in all the subordinate distributions of power, where the constant aim is to divide and arrange the several offices in such a manner as that each may be a check on the other—that the private interest of every individual may be a sentinel over the public rights. These inventions of prudence cannot be less requisite in the distribution of the supreme powers of the State.</v>
       </c>
       <c r="B88" t="str">
-        <v>Je ne suis pas sûr de comprendre la signification de cette phrase. Pouvez-vous s'il vous plaît préciser le contexte ou donner plus de contexte?</v>
+        <v>e prohibits discrimination based on race, color, religion, gender, sexual orientation, age, disability, or any other characteristic protected by law.</v>
       </c>
       <c r="C88">
-        <v>59</v>
+        <v>50</v>
       </c>
     </row>
     <row r="89">
@@ -2353,803 +2354,86 @@
         <v>In my research, I looked at the different ingredients in dietary supplements and how they can impact human health. Some of the ingredients in dietary supplements have been shown to have negative impacts on human health, like caffeine. Other ingredients, like vitamin C, may have positive impacts on human health. I also looked at how ingredient quality can be impacted by manufacturing processes. In particular, I examined whether supplements are manufactured using good manufacturing practices (GMPs), which would minimize the likelihood of harmful contaminants and ensure the quality of the ingredients.</v>
       </c>
       <c r="B89" t="str">
-        <v>arch, I found that the majority of people prefer to exercise in the morning because it helps them feel energized and motivated throughout the day. Additionally, morning exercise has been shown to improve sleep quality, which can further enhance overall health and wellbeing.</v>
+        <v>arch project, I analyzed the effects of climate change on coral reefs and found that rising ocean temperatures are causing coral bleaching, which is leading to a decline in coral diversity and abundance.</v>
       </c>
       <c r="C89">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="str">
-        <v>Each company we are engaged in has a dedicated business team, consisting of our board representatives in the company and investment professionals at Investor. The business teams build company knowledge, benchmark versus competition and evaluate corporate structures</v>
-      </c>
-      <c r="B90" t="str">
-        <v>ny is responsible for paying their employees fairly and ensuring that they are working in a safe environment. Chaque entreprise est responsable de payer équitablement ses employés et de veiller à ce qu'ils travaillent dans un environnement sûr.</v>
-      </c>
-      <c r="C90">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="91" xml:space="preserve">
-      <c r="A91" t="str" xml:space="preserve">
-        <v xml:space="preserve">The Scopes trial of 1925 was one of the most significant events in American History. The trial was fought over the belief of creationism, or the belief that God created the universe and all that exists within it in its present form. The trial pitted science against religion and it was seen as a battle between the individual and the establishment.
-The trial began in Dayton, Tennessee on February 24th and ended on March 25th. The trial was presided over by John T. Scopes and it involved the trial of William Jennings Bryan, a well-known religious figure who was the most vocal opponent of creationism. Bryan was charged with breaking the Tennessee law against teaching evolution, which was seen by many as an attack on religious beliefs.
-The trial was a famous one and it had a large impact on American society. The outcome of the trial was controversial and it created a divide in the American public. The majority of the population believed in evolution and saw the trial as a battle between science and religion. However, there was a small group of people who believed in creationism and they saw the trial as a battle between good and evil.
-The trial was a significant event in American History because it created a divide in the American public. The majority of the population believed in evolution and saw the trial as a battle between science and religion. However, there was a small group of people who believed in creationism and they saw the trial as a battle between good and evil. The outcome of the trial was controversial and it created a divide in the American public. The majority of the population believed in evolution and saw the trial as a battle between science and religion. However, there was a small group of people who believed in creationism and they saw the trial as a battle between good and evil. The outcome of the trial was controversial and it created a divide in the American public. The majority of the population believed in evolution and saw the trial as a battle between science and religion. However, there was a small group of people who believed in creationism and they saw the trial as a battle between good and evil.</v>
-      </c>
-      <c r="B91" t="str">
-        <v>Sorry, there is not enough context to accurately translate this phrase. "The Scopes" could refer to a specific person, place, or thing and without additional information, the translation may be incorrect. Please provide more context for a precise translation.</v>
-      </c>
-      <c r="C91">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="92" xml:space="preserve">
-      <c r="A92" t="str" xml:space="preserve">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="90" xml:space="preserve">
+      <c r="A90" t="str" xml:space="preserve">
         <v xml:space="preserve">1. Understand that old people aren’t actually that worried about old age, according to numerous surveys. The most recent one I can find was undertaken by American research firm NORC in 2016. It polled over 3,000 adults and found that old people are more optimistic about growing old than younger adults: 46 percent of thirty-somethings said they were optimistic about aging, compared to 66 percent for the seventy-pluses. It seems that worrying about growing old is a sign you are young. And the main reason to be optimistic about old age is that old people themselves are. Resilience seems to grow.
 2. It happens. Aging is something we can’t do much about. We can eat healthily, exercise and live sensibly but we will still age. Our 80th birthday will still be on the same date. Sure, we can make it more likely we will reach 80, but we can’t stop the wheels of time. And the certainty is actually quite reassuring. When there is nothing we can do about something, the point of worry begins to diminish. “Everybody dies,” wrote Nora Ephron.” There’s nothing you can do about it. Whether or not you eat six almonds a day</v>
       </c>
-      <c r="B92" t="str" xml:space="preserve">
-        <v xml:space="preserve">anding
-2. Communication
-3. Patience
-4. Perseverance
-5. Open-mindedness
-6. Adaptability
-7. Teamwork
-8. Time management
-9. Responsibility
-10. Leadership</v>
+      <c r="B90" t="str" xml:space="preserve">
+        <v xml:space="preserve">and the importance of learning a second language.
+2. I am studying French at school.
+3. Can you recommend any good French movies to watch?
+4. What is your favorite French cuisine?
+5. Paris is known for its beautiful architecture and rich art history.</v>
+      </c>
+      <c r="C90">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="str">
+        <v>We’re looking for an experienced Content Marketing Manager, who also happens to be obsessed with thought leadership and building awareness across owned channels. You must love researching, writing, editing, and amplifying stories and in-depth content that educates and inspires. You’ll also be passionate about testing new ideas, leading our content marketing efforts and learning from our audience. The right person will have an eye for top-quality B2B marketing content and a data-driven mindset to help connect content strategy to business results. You’ll play a key role in elevating our content marketing program and landing it all on our website.</v>
+      </c>
+      <c r="B91" t="str">
+        <v>for a talented French translator who can accurately translate texts from English to French. The ideal candidate should be fluent in both languages and have experience in translation. If you are interested, please send your resume and a sample of your previous work to our email address.</v>
+      </c>
+      <c r="C91">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="str">
+        <v>It has always seemed strange to me... the things we admire in men, kindness and generosity, openness, honesty, understanding and feeling, are the concomitants of failure in our system. And those traits we detest, sharpness, greed, acquisitiveness, meanness, egotism and self-interest, are the traits of success. And while men admire the quality of the first they love the produce of the second.</v>
+      </c>
+      <c r="B92" t="str">
+        <v>ays been a dream of mine to visit France. The country is known for its beautiful architecture, art, and cuisine. I would love to explore the streets of Paris, visit the Louvre museum, and try authentic French dishes like coq au vin and croissants. Hopefully, I will be able to make this dream a reality one day.</v>
       </c>
       <c r="C92">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="93" xml:space="preserve">
-      <c r="A93" t="str" xml:space="preserve">
-        <v xml:space="preserve">The relationship between climate change and mental health is poorly understood. While increasing attention has been paid to the physical health consequences of climate change, few studies have examined the psychological adjustments that may be made by people in climate-affected areas. This study aimed to investigate the relationship between climate change and mental health in a dryland region of Kenya. Data were collected from 300 adults from 10 sites in Laikipia County, Kenya. Logistic regression model was employed to determine the association between future climate change and mental health. Significant associations were found between climate change-related variables, including lower nervous energy, poor appetite, and poor sleep quality, and the risk of psychological distress. 
-The findings suggest that the mental health impacts of climate change may be most severe in dryland regions. However, the results should be interpreted with caution due to the cross-sectional design. Additional studies are needed to confirm the findings, and to determine the mechanisms through which climate change impacts psychological distress.</v>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="str">
+        <v>In the story, there is a conflict between two groups of people. The first group is made up of the students who are trying to get their revenge on Mike for spreading rumors about them. The second group includes those who want to protect Mike and stop the students from getting too angry. This conflict happens when both sides start fighting each other in school, causing lots of damage and emotions to be involved.</v>
       </c>
       <c r="B93" t="str">
-        <v>onship between a mother and her child is special and unique. She is the one who brings you into the world, nurtures and cares for you as you grow, and provides a sense of safety and security. No one can replace a mother's love and devotion.</v>
+        <v>ry, the protagonist discovers a hidden door in his house that leads to a magical world full of adventure and wonder. As he explores this new realm, he meets peculiar characters and faces dangerous challenges. Despite the dangers, he is determined to uncover the secrets of this world and find a way to save it. Along the way, he learns valuable lessons about courage, friendship, and the power of imagination.</v>
       </c>
       <c r="C93">
-        <v>77</v>
+        <v>103</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>Learning about climate change, and its impending effects, is an emotional experience. The distress, anxiety, worry, and/or fear that stem from an overarching awareness of climate change are often considered to be related to the broader concept of ‘psychoterratic syndromes’. This concept was first introduced by the environmental philosopher, Glenn Albrecht, and is defined broadly as ‘psychological responses to negative changes to the state of the Earth’. Terms such as eco anxiety, climate anxiety, and eco distress are often used to describe these negative responses. Also, the related term ‘solastalgia’, broadly defined as distress from the transformation and degradation of one’s home environment, also falls into psychoterratic syndromes. Such concepts are gaining traction in print and online media. For example, Grist Magazine declared climate anxiety as the biggest pop-culture trend of the year in 2019. Additionally, there is a growing recognition of the impact of climate change awareness on mental well-being among researchers and mental health professionals. For instance, the American Psychological Association has defined eco anxiety as ‘a chronic fear of environmental doom’; while the Royal College of Psychiatrists defines eco distress among young people as ‘the wide range of emotions and thoughts young people may experience when they hear bad news about our planet and the environment’. Moreover, mental health professionals have reported counseling individuals dealing with distress about climate change.</v>
+        <v>The Universe, which is the uttered Word of God, is infinite in extent.  There is no empty space beyond creation on any side.  The Universe, which is the Thought of God pronounced,never was not, since God never was inert; nor was, without thinking and creating.  The forms of creation change, the suns and worlds live and die like the leaves and the insects, but the Universe itself is infinite and eternal, because God Is, Was, and Will forever Be, and never did not think and create.</v>
       </c>
       <c r="B94" t="str">
-        <v>language can be challenging, but it's also very rewarding. It allows you to connect with people from different cultures and opens up new opportunities for travel and work. Practice and patience are key, and immersing yourself in the language through conversation, reading, and writing can greatly accelerate the learning process.</v>
+        <v>sity of Paris was founded in 1150 and is one of the oldest universities in the world. It is located in the heart of Paris and is home to over 55,000 students. The university is renowned for its research and academic programs in various fields such as science, humanities, and law. Some of its notable alumni include renowned philosophers like Rene Descartes and Jean-Paul Sartre.</v>
       </c>
       <c r="C94">
-        <v>82</v>
+        <v>106</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>Higher education has the unrivalled capacity to pursue and shape the values, knowledge, skills and research that are crucial to a society shifting to a low-carbon and safe future . . . The usual concerns of research and teaching excellence, competitive league tables, student and staff retention and so on now need to be put into the broader vision and goal of economic and social well-being nested in the imperative of planetary survival; and while there is still time to make a critical difference.</v>
+        <v>Love is the best feeling in the world. It's the best feeling when you're with someone you care about and you feel happy and content. Love is the best feeling when you're in a relationship and you're happy and you feel loved. Love is the best feeling when you're with someone who you think is the best for you.</v>
       </c>
       <c r="B95" t="str">
-        <v>cation has become increasingly important in today's job market. In order to secure high-paying and fulfilling careers, individuals often need to obtain advanced degrees from universities and colleges. This trend has led to a significant increase in the number of students pursuing higher education, as well as a rise in the demand for postsecondary institutions to offer diverse and relevant academic programs.</v>
+        <v>e most beautiful feeling in this world. It brings happiness, joy, and warmth to one's heart. Loving someone means accepting them for who they are, flaws and all. It means wanting to spend your life with them and facing all the ups and downs together. Love is not just an emotion, it is a choice you make every day to show your partner how much you care about them.</v>
       </c>
       <c r="C95">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="str">
-        <v>In the story, there is a conflict between two groups of people. The first group is made up of the students who are trying to get their revenge on Mike for spreading rumors about them. The second group includes those who want to protect Mike and stop the students from getting too angry. This conflict happens when both sides start fighting each other in school, causing lots of damage and emotions to be involved.</v>
-      </c>
-      <c r="B96" t="str">
-        <v>ry, the protagonist is a young girl named Alice who falls down a rabbit hole and enters a strange and fantastical world. She meets a series of curious characters, including the Cheshire Cat, the Mad Hatter, and the Queen of Hearts. As she tries to find her way back home, Alice must navigate the nonsensical challenges and rules of Wonderland.</v>
-      </c>
-      <c r="C96">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="97" xml:space="preserve">
-      <c r="A97" t="str" xml:space="preserve">
-        <v xml:space="preserve">Mental health is a complex topic that can be difficult to understand. However, one of the most important aspects of mental health is the ability to cope with emotions. Emotions are the way we experience the world and can impact our ability to think, feel, and do things.
-There are many different types of mental health problems. However, some of the most common mental health problems are:
-- Depression
-- Anxiety
-- Bipolar Disorder
-- obsessive-compulsive disorder
-- eating disorders
-- ADHD
-- posttraumatic stress disorder
-- substance abuse
-It is important to talk to a healthcare professional about your mental health if you have any of these problems. They may be able to help you find medication or therapy to help you feel better.</v>
-      </c>
-      <c r="B97" t="str">
-        <v>lth is just as important as physical health. It’s essential to take care of our emotional and mental wellbeing, just like we take care of our bodies. We can do this by practicing self-care, including getting enough sleep, eating well, exercising regularly, and taking time to relax and recharge. Additionally, seeking professional help if needed is a brave and important step towards improving our mental health.</v>
-      </c>
-      <c r="C97">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="98" xml:space="preserve">
-      <c r="A98" t="str" xml:space="preserve">
-        <v xml:space="preserve">The history of American advertising begins with the first ads created in the United States. These advertisements were meant to promote products and services, and they are some of the earliest examples of the use of advertising in America.
-Throughout the 1800s, Americans were interested in buying and using new technology, so advertisers began to create ads that featured things like machines, railways, and new clothing styles. They also savvy about how to reach their target audience, and so these ads were designed to be popular and persuasive.
-As technology changed and people became more interested in different aspects of their lives, American advertising changed as well. In the 1960s,american advertisers started to focus on printing ads instead of digital ones. This was because printed ads often had more impact than digital ones and could be seen by a wider audience.
-Through the years, American Advertising has continued to make a large impact on the way people live, work, and play. And it is without doubt one of the most important genres of advertising in modern times.</v>
-      </c>
-      <c r="B98" t="str">
-        <v>y of France is rich and varied. From the Roman conquest to the French Revolution, it has played an important role in shaping the political, cultural, and economic landscape of Europe. The country has seen kings, queens, emperors, and presidents, each of whom has left their mark on French history. Today, France is a modern and cosmopolitan country, known for its fashion, cuisine, art, and architecture. It remains a major player on the world stage, with a strong economy and a vibrant culture that continues to attract people from all over the world.</v>
-      </c>
-      <c r="C98">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="99" xml:space="preserve">
-      <c r="A99" t="str">
-        <v>WELL, I THINK LIKE I SAID IT IS NOT EXACTLY GOOD, BUT YOU CANNOT SAY THAT THE PEOPLE DON'T WANT JOB. YOU CANNOT SAY THAT THE PEOPLE DON'T WANT TO WORK. THE SYSTEM JUST HAD A PROBLEM. AND FOR THE FIRST TIME, SOMEBODY IS INTERESTED. IT'S A COMPLEX SITUATION. IT'S NOT ONLY U.S., IT'S GLOBAL, AND THERE IS OBVIOUSLY A REASON TO BE REACTIONARY.</v>
-      </c>
-      <c r="B99" t="str" xml:space="preserve">
-        <v xml:space="preserve">ERE'S WHAT YOU CAN DO TO IMPROVE YOUR FRENCH:
-1. Practice speaking French every day, even if it's just for a few minutes.
-2. Watch French movies or TV shows with subtitles to improve your listening skills.
-3. Read French literature or articles to improve your reading skills.
-4. Use language learning apps or websites to improve your vocabulary and grammar.
-5. Attend a French language course or find a language exchange partner to practice with.
-6. Try to think and write in French whenever possible to improve your fluency.
-7. Immerse yourself in French culture by listening to French music or cooking French cuisine.
-8. Be patient and consistent in your learning, progress takes time.</v>
-      </c>
-      <c r="C99">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="str">
-        <v>The Universe, which is the uttered Word of God, is infinite in extent.  There is no empty space beyond creation on any side.  The Universe, which is the Thought of God pronounced,never was not, since God never was inert; nor was, without thinking and creating.  The forms of creation change, the suns and worlds live and die like the leaves and the insects, but the Universe itself is infinite and eternal, because God Is, Was, and Will forever Be, and never did not think and create.</v>
-      </c>
-      <c r="B100" t="str">
-        <v>sity of Paris, also known as the Sorbonne, is one of the oldest and most prestigious universities in the world. It was founded in the 12th century and has since become a leading center of scholarship and research in various fields, including law, medicine, literature, and philosophy. The Sorbonne has produced many notable alumni, such as Marie Curie, Jean-Paul Sartre, and Simone de Beauvoir. aujourd'hui, il fait partie du système universitaire de Paris et est considéré comme l'une des universités les plus importantes de France et du monde. Sa fondation remonte au XIIe siècle et il est devenu depuis un centre de recherche et de formation de premier plan dans des domaines tels que le droit, la médecine, la littérature et la philosophie. La Sorbonne a produit de nombreux anciens élèves remarquables tels que Marie Curie, Jean-Paul Sartre et Simone de Beauvoir.</v>
-      </c>
-      <c r="C100">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="101" xml:space="preserve">
-      <c r="A101" t="str" xml:space="preserve">
-        <v xml:space="preserve">Extracting opinions from texts is a daunting task. It requires a thorough understanding of the semantic, syntactic, explicit, and implicit rules of a language. Also, because sentiment analysis is carried out by a computer system with a typical focus on analyzing documents on a particular topic, off-topic passages containing irrelevant information may also be included in the analyses (e.g., a document may contain information on multiple topics). This could result in creating inaccurate global sentiment polarities about the main topic being analyzed. Therefore, the computer system must be able to adequately screen and distinguish opinions that are not relevant to the topic being analyzed. Relatedly, for the machine learning-based approach, a sentiment classifier trained on a certain domain (e.g., car reviews) may perform well on the particular topic, but may not when applied to another domain (e.g., computer review). The issue of domain independence is another important challenge.
-Also, the complexities of human communication limit the capacity of sentiment analysis to capture nuanced, contextual meanings that opinion holders actually intend to communicate in their messages. Examples include the use of sarcasm, irony, and humor in which context plays a key role in conveying the intended message, particularly in cases when an individual says one thing but means the opposite. For example, someone may say “nice shirt,” which implies positive sentiment if said sincerely but implies negative sentiment if said sarcastically. Similarly, words such as “sick,” “bad,” and “nasty” may have reversed sentiment orientation depending on context and how they are used. For example, “My new car is sick!” implies positive sentiment toward the car. These issues can also contribute to inaccuracies in sentiment analysis.
-Altogether, despite these limitations, the computational study of opinions provided by sentiment analysis can be beneficial for practical purposes. So long as individuals continue to share their opinions through online user-generated media, the possibilities for entities seeking to gain meaningful insights into the opinions of key publics will remain. Yet, challenges to sentiment, analysis such as those discussed above, pose significant limitations to its accuracy and thus its usefulness in decision-making.</v>
-      </c>
-      <c r="B101" t="str">
-        <v>Extraction</v>
-      </c>
-      <c r="C101">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="str">
-        <v>My manner of thinking, so you say, cannot be approved. Do you suppose I care? A poor fool indeed is he who adopts a manner of thinking for others! My manner of thinking stems straight from my considered reflections; it holds with my existence, with the way I am made. It is not in my power to alter it; and were it, I'd not do so.</v>
-      </c>
-      <c r="B102" t="str">
-        <v>Ma manière</v>
-      </c>
-      <c r="C102">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="str">
-        <v>The plague of mankind is the fear and rejection of diversity: monotheism, monarchy, monogamy and, in our age, monomedicine. The belief that there is only one right way to live only one right way to regulate religious, political, sexual, medical affairs is the root cause of the greatest threat to man: members of his own species, bent on ensuring his salvation, security, and sanity.</v>
-      </c>
-      <c r="B103" t="str">
-        <v>La peste</v>
-      </c>
-      <c r="C103">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="104" xml:space="preserve">
-      <c r="A104" t="str" xml:space="preserve">
-        <v xml:space="preserve">1. I have never been satisfied with the way most of us understand confidence. The common view is that confidence is a personality trait that some people are lucky enough to have and others are not. This limit will stop people from developing the confidence they need to achieve their goals. The opposite of confidence is self-doubt, and most people suffer from self-doubt in one way or another.
-2. Confidence is a skill that can be learned and practiced like any other skill. It is a set of habits and behaviors that you can learn and develop over time. Confidence is not a trait or a personality type. It is a skill that can be learned, practiced, and improved.
-3. Confidence is a skill that can be learned and practiced like any other. The confidence you need to function well in the world is not determined by your personality, but by your ability to practice and master a set of skills that are vital for you to succeed in life.
-4. There is a difference between confidence and self-esteem, and this difference is important to understand when you are trying to improve your confidence. Self-esteem is defined as the way we see ourselves, and our perception of how others see us. Some people think they are “good” or “bad”, while others think they are “adequate” or “inadequate”. But we all have self-esteem. Self-esteem is the way you see yourself.
-6. Confidence is also different from self-efficacy. Self-efficacy is the belief that you have the ability to do something. This belief is usually based on past performance. The more you successfully perform a task, the more likely you are to believe that you can do it again. A high level of self-efficacy means that you believe you can do something, while a low level of self-efficacy means that you believe you cannot do something.
-7. Personal confidence is the belief that you are able to do something that is important to you. It is based on your experience of successfully achieving your goals in the past, and your belief that you are capable of achieving your goals in the future. It is not based on how you perceive other people to see you, or how they think you should behave. It is based on your experience of being successful in the past, and your belief that you can be successful in the future.
-8. Personal confidence is the belief that you are able to succeed at whatever you take on. It comes from your previous experiences of successfully achieving your goals, and your belief that you are capable of achieving your goals in the future. It does not come from how you are seen by others, or how others think you should behave. It comes from your experience of being successful in the past, and your belief that you can be successful in the future.
-9. Being confidence is important for many reasons. It helps you feel good about yourself, and it helps you reach your goals. It also helps you make decisions that are right for you. People who are confident are more likely to make decisions that are right for themselves, and not make decisions based on what other people think.</v>
-      </c>
-      <c r="B104" t="str">
-        <v>J'ai</v>
-      </c>
-      <c r="C104">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="str">
-        <v>If you asked an 18-year-old what they want to do with their life, and the options are 'Transformers' or Lars von Trier, he's probably shipping out for 'Transformers.' If you ask a 26-year-old what he wants to do, 'Transformers' or Lars von Trier, he'd probably pick Lars von Trier. So, my sensibilities are changing as I change.</v>
-      </c>
-      <c r="B105" t="str">
-        <v>Si vous demandez</v>
-      </c>
-      <c r="C105">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="str">
-        <v>My mother smokes me out. We'll get these long periods of me thinking I'm too busy to call her up or e-mail her, and she'll send me something. My mom's a real whiner. I love her to death, but she always sends me these 'woe is me' things. I think she might be Jewish. I'm not sure. She's Baptist-Jewish, which is a double whammy.</v>
-      </c>
-      <c r="B106" t="str">
-        <v>Ma mère</v>
-      </c>
-      <c r="C106">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="str">
-        <v>The fact is if we do our job right, if we keep worrying not about polls but about the jobs of the American people, about their health care, about their ability to educate their kids, stay in their homes and own their homes, send their kids to college, the basic pillars of a middle-class life, if we keep worrying about the future and building a stronger future for this country, these things will take care of themselves.</v>
-      </c>
-      <c r="B107" t="str">
-        <v>Le fait que</v>
-      </c>
-      <c r="C107">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="str">
-        <v>Separated lovers cheat absence by a thousand fancies which have their own reality. They are prevented from seeing one another and they cannot write; nevertheless they find countless mysterious ways of corresponding, by sending each other the song of birds, the scent of flowers, the laughter of children, the light of the sun, the sighing of the wind, and the gleam of the stars?all the beauties of creation.</v>
-      </c>
-      <c r="B108" t="str">
-        <v>Séparé</v>
-      </c>
-      <c r="C108">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="str">
-        <v>No matter how popular you are as a stand-up - you can go out and fill a 10,000-seat arena and be smart and funny - it's delicate to host an awards show and know where your place is and know that it's not about you, that it's about the people who are nominated, and respect that, but at the same time have your moment to show them who you are.</v>
-      </c>
-      <c r="B109" t="str">
-        <v>Peu importe</v>
-      </c>
-      <c r="C109">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="str">
-        <v>With the emergence of new social movements in the 1960s and 1970s, controversies over technological innovation became more frequent. While these movements are commonplace today, in those days, they emerged as a new political force. As prominent as the civil rights, peace, and environmental movements was (and in some countries, such as Germany, still is) the antinuclear movement. In the 1970s, oppositional movements arrived on the scene in the USA and virtually all Western European countries which embarked on the technology that promised to satisfy their steadily rising energy demands. The intensity, timing, and impact of these national movements varied according to different national contexts (Kitschelt 1986; Bauer 2015). The nuclear accidents of Three Mile Island (1979), Chernobyl (1986), and Fukushima (2011) gave further impetus to the antinuclear movements and brought about a further diminishing of global nuclear power plant construction. Today countries either insist on their antinuclear stance, review their nuclear policies, or have decided to phase out the technology which is increasingly regarded as uncontrollable catastrophic risk in the long term.</v>
-      </c>
-      <c r="B110" t="str">
-        <v>Avec l'e</v>
-      </c>
-      <c r="C110">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="str">
-        <v>The best man in his dwelling loves the earth.  In his heart, he loves what is profound.  In his associations, he loves humanity.  In his words, he loves faithfulness.  In government, he loves order.  In handling affairs, he loves competence.  In his activities, he loves timeliness.  It is because he does not compete that he is without reproach.</v>
-      </c>
-      <c r="B111" t="str">
-        <v>The best m</v>
-      </c>
-      <c r="C111">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="str">
-        <v>If I go into a sandwich shop or anywhere that features 'Today's specials' on a chalkboard more than 10 feet away, I have to ask for a printed menu. I smile at people I don't know on the street and ignore those I do. When at home, I often find myself grabbing my 'back-up' glasses to search for the better-loved pair I have left on top of my dresser.</v>
-      </c>
-      <c r="B112" t="str">
-        <v>Si j'y vais</v>
-      </c>
-      <c r="C112">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="str">
-        <v>It's harder to be funny if you're handsome than if you're very normal-looking. It's just more relatable. You're the underdog. I mean it's funny to see people struggle, and you don't buy that Brad Pitt is struggling, you know that guy could be the most skill-less guy in the world, but if you look like that you will be fine for the rest of your life.</v>
-      </c>
-      <c r="B113" t="str">
-        <v>C'est difficile.</v>
-      </c>
-      <c r="C113">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="str">
-        <v>Ideas are a part of intellectual property, innovation, problem-solving, and world-changing insights. They are a part of every day. They are not easy to define in any way that implies universality, but to do so would probably mean that the result is artificial and not indicative of spontaneous ideation. Still, ideas are as operational as, say, “bits” of information (not a binary digit “bit” used in computer code, but a “bit” used in the cognitive sciences to describe units of information processed in short-term working memory). Bits also vary from person to person and must be defined on a level that allows such variation. The technology of divergent thinking indicates that ideas are defined in a fashion that allows scientific study. There is a huge literature on divergent thinking, and much of it is experimental or quasi-experimental and moderate in internal validity.</v>
-      </c>
-      <c r="B114" t="str">
-        <v>Les idées sont</v>
-      </c>
-      <c r="C114">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="str">
-        <v>I remember being at Greenblatt's on Sunset, and some guy just walked straight up to me, and he had some bling on and whatever, and said something about a party down in Malibu and asked if I would jump in his car and go to the party. All I could think was, 'Who are you? I don't know you, and I don't care about how good your car is.'</v>
-      </c>
-      <c r="B115" t="str">
-        <v>Je me souviens</v>
-      </c>
-      <c r="C115">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="str">
-        <v>The methodological advice to interpret in a way that optimizes agreement should not be conceived as resting on a charitable assumption about human intelligence that might turn out to be false. If we cannot find a way to interpret the utterances and other behaviour of a creature as revealing a set of beliefs largely consistent and true by our standards, we have no reason to count that creature as rational, as having beliefs, or as saying anything.</v>
-      </c>
-      <c r="B116" t="str">
-        <v>La méthode</v>
-      </c>
-      <c r="C116">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="str">
-        <v>It's funny to be discovered by a lot of people who didn't know you before. People always used to say, 'Do you shop at Home Depot?' or 'Does your kid go to such and such school?' They want to know why they know me, even if they don't know my name. I don't think that's a bad thing, by the way I think it's nice to be kind of anonymously famous.</v>
-      </c>
-      <c r="B117" t="str">
-        <v>C'est drôle.</v>
-      </c>
-      <c r="C117">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="str">
-        <v>Being on 'Glee' was amazing. I remember my first day on set, my first day I arrived to the set I was in my trailer and all of the actors came and banged on my door - Lea Michele, Chris Colfer, Amber Riley, Naya Rivera. They all welcomed me with open arms, so it was a great experience. It felt like family, and I miss them a lot over there.</v>
-      </c>
-      <c r="B118" t="str">
-        <v>Être sur'</v>
-      </c>
-      <c r="C118">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="str">
-        <v>Stress is an essential part of human life. When threatened, humans have evolved an evolved neurochemical response that helps us fight, flee, or freeze. That response is called the “fight-or-flight” response. It is also called the “acute stress response” (ASR) or the “alarm” stage of the stress response. The stress response is an automatic physical or emotional reaction to a potential threat. It is the body’s way of preparing to defend itself. When the brain senses danger, it signals the adrenal glands to release a surge of hormones, including adrenaline and cortisol. Adrenaline increases heart rate, elevates blood pressure, and boosts energy supplies. Cortisol, the primary stress hormone, increases sugars (glucose) in the bloodstream, enhances the brain’s use of glucose, and increases the availability of substances that repair tissues. Cortisol also curbs functions that would be nonessential or detrimental in a fight-or-flight situation. It alters the immune system, suppresses the digestive system, and increases blood pressure. In addition, the brain responds to the stress by releasing several hormones including the neurotransmitters, norepinephrine and dopamine, which are involved in the decision making process, in reward and pleasure, in planning and in controlling motor functions. The brain also releases endorphins. These are natural, opium-like substances that ease pain, reduce stress and create feelings of euphoria. This is also the time when healthy eating is taken over by overeating, when self-care and exercise are pushed down below other priorities, when socializing and relaxation time often disappears and sleep may become disrupted.</v>
-      </c>
-      <c r="B119" t="str">
-        <v>Le stress est</v>
-      </c>
-      <c r="C119">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="str">
-        <v>As a real person, he wouldn't last a minute, would he? But drama is about imperfection. And we've moved away from the aspirational hero. We got tired of it, it was dull. If I was House's friend, I would hate it. How he so resolutely refuses to be happy or take the kind-hearted road. But we don't always like morally good people, do we?</v>
-      </c>
-      <c r="B120" t="str">
-        <v>En tant que réel</v>
-      </c>
-      <c r="C120">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="str">
-        <v>I'm a morning person because I learned to write my novels while still practicing law. I would get to the office at 6:30 a.m. and write until other people arrived, around 9. Now I still do that. I start at 6:30 or 7, and I'll write until 11, then take an hour off, then work until about 2 p.m. By then my brain has had enough.</v>
-      </c>
-      <c r="B121" t="str">
-        <v>Je suis un matin.</v>
-      </c>
-      <c r="C121">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="str">
-        <v>I've been on so many movies. Generally, I haven't gotten to be on the ground level. As of two years ago, in 'Dear John,' I got to really be on the ground floor. I wasn't a producer. I felt like I put the work in, and I did have a lot of sway on what got fixed, reshoots, so on and so forth. It felt really good.</v>
-      </c>
-      <c r="B122" t="str">
-        <v>Je suis.</v>
-      </c>
-      <c r="C122">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="str">
-        <v>The findings of the above-cited 2018 RAND report were devastating. The report reveals the following alarming facts: (1) employee stress level is at a historic high; (2) the impact of stress on the workforce is a huge problem; (3) stress is costly, impacting organizations in several different ways; (4) stress is a major factor in health care costs; (5) stress-related issues are responsible for as many as 119,000 deaths a year; (6) stress in the workplace is out of control, and organizations must start to determine how to contain this problem and understand this challenge; (7) the workplace is not able to address the problem and needs to take concrete actions to start to reduce stress; and (8) stress is not only a personal health problem, but it is a serious problem in organizations.</v>
-      </c>
-      <c r="B123" t="str">
-        <v>Les résultats de la recherche</v>
-      </c>
-      <c r="C123">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="str">
-        <v>I believe there is still space for assertiveness in these new post-truth times. Assertiveness is a communication style that respects the rights and needs of others while also protecting and promoting your own rights, needs, interests, or values. It’s considered a balance between passivity, where you don’t express yourself at all, and aggression, where you don’t care what anyone thinks – you just want your own way. When we are tolerant and respectful of the human rights and needs of others, we are able to build a common ground for understanding and for collaboration.</v>
-      </c>
-      <c r="B124" t="str">
-        <v>Je crois</v>
-      </c>
-      <c r="C124">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="125" xml:space="preserve">
-      <c r="A125" t="str" xml:space="preserve">
-        <v xml:space="preserve">Precautionary Regulation
-A further important difference between their regulatory systems is that the scientific assessment of physical risks, the heart piece of the GM product authorization processes, follows different approaches (Seifert 2005). Whereas the USA requires that restrictions are based on scientifically proven risks, the EU embraces the precautionary principle which concedes that GM products can be prohibited in the light of convincing arguments alone even though scientifically unproven. These regulatory differences between the USA and the EU do not only reflect deep-reaching legal consequences of the anti-biotech movement. They also highlight the fact that risks to human health and the environment, which constitute the regulatory bottlenecks of product innovation, need to be understood as scientific and legal constructs rather than mere scientific facts. Thus, the newly emerging precautionary principle also constitutes a case of social innovation in that it deals with dangers arising in the context of post-normal science, that is, high uncertainty and political stakes.
-Alternatives to Productivist Agriculture
-The comprehensive European reaction also illustrates another social innovation when looked at against the backdrop of the promissory predictions that accompanied agro-food biotechnology’s industrial advance. Biotechnology has been presented as key technology which no national economy could allow to disregard at risk of being left behind. In the EU, however, an alternative paradigm took hold. Firstly, European producers and consumers get along well without agro-biotech. (With the exception of animal feed stuff which still contains quantities of imported GM materials.) Secondly, GM-free agricultural production goes well with EU agricultural policy which is torn between the conflicting goals of world market competition, protectionism, and multifunctionality. European agricultural policy, struggling with overproduction and environmental degradation on the one hand, and competition by ascending agro-producing world regions on the other, has increasingly resorted to policies designed to curb production and, at least in some countries, keep uncompetitive farming in business. Agricultural GMOs are production-enhancing technologies. Besides their alleged environmental side effects and health risks, this is the major criticism raised against GMOs: agro-biotech industry designed them to excel in capital-intensive, productivist agriculture. It is argued that this dominant type of agriculture accounts for much of the environmental crisis and comes at high social cost as it forces small farmers out of business while large-scale farming and agro-business reap the profits. Agro-biotech’s opponents argue that agriculture’s current ecological and social challenges call for political and social innovations rather than technical enhancement. If agriculture is to become sustainable, it needs to deplete less resource, to minimize loss of biodiversity and to offer income opportunities to a greater portion of the rural population. The EU region, due to its affluence and high level of political integration, has proved to be in a superior position to develop such alternative social innovations.</v>
-      </c>
-      <c r="B125" t="str">
-        <v>Précaution</v>
-      </c>
-      <c r="C125">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="str">
-        <v>But, yeah, I'm really happy when I'm writing. When I'm being creative and when I have something that I can put down. You know, if you go out and you overhear a conversation or you have a thought, you have a receptacle to go home and say, 'Oh, this would be great in this script.' Your antenna's out in a different way, and I love that time.</v>
-      </c>
-      <c r="B126" t="str">
-        <v>Mais oui,</v>
-      </c>
-      <c r="C126">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="str">
-        <v>Since 'Idol' I've gotten used to having an amazing hair and make-up team around me, so I'm starting to get picky. I know what I like now and I'm happy to say 'Could we maybe change that?' if I don't like something. I don't yell or anything, but I think I could definitely start to act a little diva-ish when it comes to my look.</v>
-      </c>
-      <c r="B127" t="str">
-        <v>Depuis Ido</v>
-      </c>
-      <c r="C127">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="str">
-        <v>I do, I kick major butt in 'Dredd.' I get to kill people. I break a guy's neck by roundhouse kicking him in the face. It was me, I did it. I learned how to roundhouse kick. I also do it with my hands cuffed behind my back so it's pretty cool I have to say. Yeah, leather body suit, blonde hair, the whole thing.</v>
-      </c>
-      <c r="B128" t="str">
-        <v>Je le fais, je tue.</v>
-      </c>
-      <c r="C128">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="str">
-        <v>Becoming emancipated at 14, my life wasn't normal. I didn't have to go to school, so I didn't. I was rebellious by nature. I spent my 20s focusing on my company, Flower Films, and producing movies. Now that I'm almost 30, I would like to try other things in lie. I'm crazy about photography, and I want to take an art history class.</v>
-      </c>
-      <c r="B129" t="str">
-        <v>Devenir e</v>
-      </c>
-      <c r="C129">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="str">
-        <v>I love a man with a great sense of humor and who is intelligent - a man who has a great smile. He has to make me laugh. I like a man who is very ambitious and driven and who has a good heart and makes me feel safe. I like a man who is very strong and independent and confident - that is very sexy - but at the same time, he's very kind to people.</v>
-      </c>
-      <c r="B130" t="str">
-        <v>J'aime un homme.</v>
-      </c>
-      <c r="C130">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="str">
-        <v>I'm never overawed by a situation and I think that's because I've always looked several years older than I am. So because people were treating me like I was 40 when I was 29, I've always felt in control of a situation. People used to say, when you're 32, you'll look 32. I'm still waiting for that moment, where my age catches up with my appearance.</v>
-      </c>
-      <c r="B131" t="str">
-        <v>Je ne suis jamais</v>
-      </c>
-      <c r="C131">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="str">
-        <v>I'm someone who loves to enjoy life and tries to focus on real things and real friendships. That's why I live very simply. I'm a jeans and T-shirt kind of girl. I don't spend much time fixing myself up or trying to look cool. I live like a normal person and even though I'm in a very high-profile business, I really don't let it affect the way I live.</v>
-      </c>
-      <c r="B132" t="str">
-        <v>Je suis quelqu'un.</v>
-      </c>
-      <c r="C132">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="str">
-        <v>For my birthday this year, my girlfriends - who knew I'd just inherited my dad's turntable - gave me a carton of albums like 'Blue Kentucky Girl,' by Emmylou Harris, and 'Off the Wall,' by Michael Jackson. It's all stuff we grew up with. I mean, you can't have a music collection without Prince's 'Purple Rain' - it just can't be done!</v>
-      </c>
-      <c r="B133" t="str">
-        <v>Pour mon anniversaire</v>
-      </c>
-      <c r="C133">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="str">
-        <v>Let no sleep fall upon thy eyes till thou hast thrice re- viewed the transactions of the past day.  Where have I turn-ed aside from rectitude?  What have I been doing?  What haveI left undone, which I ought to have done?  Begin thus from the first act, and proceed; and, in conclusion, at the ill which thou hast done, be troubled, and rejoice for the good.</v>
-      </c>
-      <c r="B134" t="str">
-        <v>epy thoughts disturb your rest tonight.</v>
-      </c>
-      <c r="C134">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="str">
-        <v>A 2018 RAND Corporation report described workplace stress as a “pandemic,” and warned, “This is not a problem we can solve by just taking a walk or listening to music.” The same report, citing a 2016 survey of human resource managers, said that workers in the United States are under “extreme stress.” While the causes of workplace stress are diverse, the number one cause is commonly cited as increased workload combined with inadequate staffing.</v>
-      </c>
-      <c r="B135" t="str">
-        <v>Un RAN de 2018</v>
-      </c>
-      <c r="C135">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="str">
-        <v>I dated a guy and he liked me but I didn't like him. I went through his wardrobe and cleaned out his house and got him to get a new car. He said to me, 'If I give you $10,000, will you find me my wife because I want someone like you?' And within a year, he got married. That was the first match that led to me leaving my corporate job.</v>
-      </c>
-      <c r="B136" t="str">
-        <v>J'ai fréquenté une personne.</v>
-      </c>
-      <c r="C136">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="str">
-        <v>Anomaly detection is the process of uncovering anomalies, errors, bugs, and defects in software to eradicate them and increase the overall quality of a system.</v>
-      </c>
-      <c r="B137" t="str">
-        <v>l'espace-temps</v>
-      </c>
-      <c r="C137">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="str">
-        <v>Yes. I did more research than I ever wanted to and saw some things I wish I didn't. I went on ride-alongs, spent time with Homicide, Cold Case, and SVU detectives, hung out in subways learning how to spot pervs and pick-pockets, viewed an autopsy, went to a police firing range, and witnessed court cases and I read, read, read.</v>
-      </c>
-      <c r="B138" t="str">
-        <v>Oui. J'ai fait.</v>
-      </c>
-      <c r="C138">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="str">
-        <v>Men are great or small in stature as it pleases God.  But their nature is great or small as it pleases themselves.  Men are not born, some with great souls and some with little souls.  One by taking thought cannot add to his stature, but he can enlarge his soul.  By an act of the will he can make himself a moral giant, or dwarf himself to a pygmy.</v>
-      </c>
-      <c r="B139" t="str">
-        <v>Les hommes sont graves.</v>
-      </c>
-      <c r="C139">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="str">
-        <v>Tis said of love that it sometimes goes, sometimes flies; runs with one, walks gravely with another; turns a third into ice, and sets a fourth in a flame: it wounds one, another it kills: like lightning it begins and ends in the same moment: it makes that fort yield at night which it besieged but in the morning; for there is no force able to resist it.</v>
-      </c>
-      <c r="B140" t="str">
-        <v>nly the humble shall inherit the earth.</v>
-      </c>
-      <c r="C140">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="141" xml:space="preserve">
-      <c r="A141" t="str">
-        <v>I know what love is. It?s understanding. It?s you and me and let the rest of the world go by. Just the two of us living our lives together happily and proudly. No self-torture and no doubt. It?s enduring and it?s everlasting. Nothing can change it. Nothing can change us, Ollie. That?s what I think love is.</v>
-      </c>
-      <c r="B141" t="str" xml:space="preserve">
-        <v xml:space="preserve">t you did last summer
-Je sais ce que tu as fait l'été dernier.</v>
-      </c>
-      <c r="C141">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="142" xml:space="preserve">
-      <c r="A142" t="str">
-        <v>We can speculate upon how the combination of comprehensive rich datasets with optimized faster hardware and new algorithms with new techniques will unlock AI functionality that will look like magic. Perhaps these will even pave the way to the development of general AI, and the dream of the AI doctor will become a reality. However, this chapter will remain grounded in current research to shine a light on potential developments that are tantalizingly out of reach yet possible in the near future. At the end of the chapter, we will briefly cover how AI may unlock totally new ways of working.</v>
-      </c>
-      <c r="B142" t="str" xml:space="preserve">
-        <v xml:space="preserve">ak French together to practice. 
-Nous pouvons parler français ensemble pour pratiquer.</v>
-      </c>
-      <c r="C142">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="str">
-        <v>When I walk up on that shore in Florida, I want millions of those AARP sisters and brothers to look at me and say, 'I'm going to go write that novel I thought it was too late to do. I'm going to go work in Africa on that farm that those people need help at. I'm going to adopt a child. It's not too late, I can still live my dreams.'</v>
-      </c>
-      <c r="B143" t="str">
-        <v>ked into the room, I saw my friends sitting on the couch.</v>
-      </c>
-      <c r="C143">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="str">
-        <v>When you become a mom you just learn how to function sleep deprived and you do get used to it. I came back to work when Finley was three months old and the first few months were rough. Then somehow you learn to exist on no sleep and now when he does upon occasion sleep through the night, which is like a full six hours, you're pretty sure he's suffocating. So you don't sleep anyway.</v>
-      </c>
-      <c r="B144" t="str">
-        <v>Lorsque vous b... (The text is incomplete, please provide the complete sentence that needs to be translated.)</v>
-      </c>
-      <c r="C144">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="str">
-        <v>When you first have a baby your life doesn't change. I mean, you have a little less sleep and you drag these cuddly things around you and it's just amazing. But you still get to be you. Once they get to, like, five, six and school and it starts to get, like, 'Wow, they got real problems. They're my responsibility.' Oh my God. That is overwhelming.</v>
-      </c>
-      <c r="B145" t="str">
-        <v>Sorry, it seems like the text you intended to provide is not complete. Could you provide the complete text to translate to French?</v>
-      </c>
-      <c r="C145">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="146" xml:space="preserve">
-      <c r="A146" t="str">
-        <v>A beautiful eye makes silence eloquent, a kind eye makes contradiction an assent, an enraged eye makes beauty deformed. This little member gives life to every part about us; and I believe the story of Argu simplies no more, than the eye is in every part; that is to say, every other part would be mutilated, were not its force represented more by the eye than even by itself.</v>
-      </c>
-      <c r="B146" t="str" xml:space="preserve">
-        <v xml:space="preserve">l day in the park
-Une belle journée au parc</v>
-      </c>
-      <c r="C146">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="str">
-        <v>I'd do pretty much anything to get back on stage. I'd like to develop a new musical. I nearly had a heart attack when I heard that they're developing John Waters' Cry-Baby because that is so amazing and super and wonderful and I wish that I could be involved. But it's not the right time and I understand that. But I hear things like that and I get that little tingle in my stomach.</v>
-      </c>
-      <c r="B147" t="str">
-        <v>Sorry, but this text fragment is incomplete and does not provide sufficient context for translation. Please provide a complete sentence or phrase.</v>
-      </c>
-      <c r="C147">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="148" xml:space="preserve">
-      <c r="A148" t="str">
-        <v>Money can help you to get medicines but not health.  Money can help you to get soft pillows, but not sound sleep.  Money can help you to get material comforts, but not eternal bliss.  Money can help you to get ornaments, but not beauty.  Money will help you to get an electric earphone, but not natural hearing.  Attain the supreme wealth, wisdom;you will have everything.</v>
-      </c>
-      <c r="B148" t="str" xml:space="preserve">
-        <v xml:space="preserve">buy things, but it cannot buy happiness. 
-L'argent peut acheter des choses, mais il ne peut pas acheter le bonheur.</v>
-      </c>
-      <c r="C148">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="str">
-        <v>Movies always are open to being remade because times change so much, and the tempo of movies changes. I think of it like a James Bond. They can have different actors play the same role... I've had people come up to me and say, 'We want to remake 'The Jerk' with so and so.' And I say, 'Fine.' It just doesn't bother me. It's an honor actually.</v>
-      </c>
-      <c r="B149" t="str">
-        <v>ays transport us to another world, whether it's a fantastical universe, a historical moment, or just a different perspective on our own world.</v>
-      </c>
-      <c r="C149">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="str">
-        <v>There is some literature that describes this phenomenon as self-victimization or the self-fulfilling prophecy.</v>
-      </c>
-      <c r="B150" t="str">
-        <v>ome missing text in your request. Please provide the complete English text you would like to be translated to French.</v>
-      </c>
-      <c r="C150">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="str">
-        <v>It is important to understand that impostor phenomenon is not a personality disorder, such as depression or narcissism, but it may be strongly characterized by these kinds of deficits. The main difference between personality disorders and impostor phenomenon is that personality disorders are structural deficits in personality, whereas impostor phenomenon doesn’t require a structural deficit in any area of a person’s brain. It is instead a kind of lens through which certain people process and understand their lives.</v>
-      </c>
-      <c r="B151" t="str">
-        <v>rtant to prioritize self-care in our daily routine. Taking time to rest, nourish our bodies with healthy food, exercise, and engage in activities that bring us joy and relaxation can have a positive impact on our mental and emotional well-being. It may seem like we don't have time for self-care, but it is essential for maintaining a healthy and balanced life.</v>
-      </c>
-      <c r="C151">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="str">
-        <v>OK, so my parents were married in 1955 and my mom knew my dad was gay and my dad knew he was gay and so I was, like, 'Why in the heck did you get married?' Like, what was going on? What was that time? It's like this crazy paradox that my whole life is based on, or my family's based on. So I spent a lot of time trying to understand '55.</v>
-      </c>
-      <c r="B152" t="str">
-        <v>dernière phrase s'est coupée. Je disais que mon livre préféré est "Les Misérables" de Victor Hugo. J'adore la façon dont il raconte l'histoire de personnages si différents et pourtant liés par leur humanité commune. C'est un livre très émouvant et inspirant.</v>
-      </c>
-      <c r="C152">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="str">
-        <v>With all of the divisiveness that is going on in the country we live in, so much of it is based around just fear of the other. And anyone who does not look like me, walk like me, talk like me, have sex like me, they're the other and I'm afraid of them. And hopefully we will learn that it's just not scary. There's nothing to be afraid of.</v>
-      </c>
-      <c r="B153" t="str">
-        <v>f the technology available today, it is easier than ever to stay connected with friends and family around the world. Social media platforms like Facebook, Instagram, and Twitter allow us to share our experiences and keep up with others no matter where we are. Additionally, video calling and messaging apps like Skype and WhatsApp enable us to have face-to-face conversations with loved ones miles away. Despite the physical distance, technology has made it possible to maintain meaningful relationships no matter where we are in the world.</v>
-      </c>
-      <c r="C153">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="str">
-        <v>On the political front, of course it's a zero-sum game. If it's all white males holding positions, you bring 10 women in, then it's, 'Women are coming!' Get 10 blacks and it's, 'Blacks are coming!' 'Hispanics are coming!' Zero-sum game. The seatmates might change but the chairs don't move. In the economy, the number of chairs can actually increase.</v>
-      </c>
-      <c r="B154" t="str">
-        <v>itique front, there has been a lot of controversy lately. The government's decision to raise taxes has been met with widespread protests. The opposition party is calling for the resignation of the finance minister. Meanwhile, rumors of corruption within the government have surfaced, leading to calls for an investigation. The upcoming elections are sure to be hotly contested, with many questioning the current administration's ability to lead the country.</v>
-      </c>
-      <c r="C154">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="str">
-        <v>The concept of “hostage situation” is adopted from the work of Joe Griffin and Ivan Tyrrell, authors of The Primal Scream. Griffin and Tyrrell also published a sequel to their book, titled Free to Be Human.</v>
-      </c>
-      <c r="B155" t="str">
-        <v>t of time is a complex and fascinating topic that has been studied by philosophers, scientists, and many other scholars for centuries. It has been debated whether time is a fundamental aspect of the universe that flows independently of people's experiences, or whether time is a human construct that is imposed on the world. Either way, the concept of time is critical to our understanding of the world and our place within it. From measuring the passage of time with clocks and calendars to exploring the nature of time through theories of relativity and quantum mechanics, understanding time remains one of the greatest intellectual challenges of our time.</v>
-      </c>
-      <c r="C155">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="str">
-        <v>While there is some debate in the literature over whether it is appropriate to frame impostor phenomenon as a psychological disorder, the evidence is compelling that this phenomenon is not just a passing phase; it is a chronic condition with four key features: (1) ongoing, persistent experiences of feeling like a fraud; (2) a chronic sense of being self-conscious and worried about being exposed as a fraud; (3) persistent avoidance of success, such as by self-sabotaging or self-handicapping, or by setting extremely low expectations for yourself to make success seem not so big a deal; and (4) taking personal credit for failure, which helps to avoid future failure by convincing yourself that you’re actually not very capable of accomplishing things.</v>
-      </c>
-      <c r="B156" t="str">
-        <v>e are many beautiful cities in Europe, Paris remains one of the most popular destinations. Known as the City of Light, Paris offers visitors a wealth of cultural, historical, and gastronomical experiences. From the iconic Eiffel Tower to the charming narrow streets of Montmartre, Paris has something for everyone. Its world-renowned museums, like the Louvre and the Musée d'Orsay, attract art lovers from all over the globe, while its café culture and Michelin-starred restaurants make it a foodie's paradise. Whether you're strolling along the banks of the Seine River or visiting the Palace of Versailles, there's no shortage of things to see and do in Paris.</v>
-      </c>
-      <c r="C156">
-        <v>165</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C156"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C95"/>
   </ignoredErrors>
 </worksheet>
 </file>